--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="578" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA8B59A3-CB0E-4989-8640-E3438E2CB02A}"/>
+  <xr:revisionPtr revIDLastSave="687" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{694AB267-0960-48B2-AC73-3DBC714CD194}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="195">
   <si>
     <t>label</t>
   </si>
@@ -688,6 +688,12 @@
   <si>
     <t>snmarried</t>
   </si>
+  <si>
+    <t>cannot make work</t>
+  </si>
+  <si>
+    <t>parcount</t>
+  </si>
 </sst>
 </file>
 
@@ -1140,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27274,15 +27280,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
@@ -27322,8 +27328,11 @@
       <c r="M1" t="s">
         <v>180</v>
       </c>
+      <c r="N1" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -27352,8 +27361,12 @@
         <f>F2-K2</f>
         <v>1</v>
       </c>
+      <c r="N2">
+        <f>M2+H2</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -27380,8 +27393,12 @@
         <f t="shared" ref="M3:M48" si="1">F3-K3</f>
         <v>1</v>
       </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N48" si="2">M3+H3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -27413,8 +27430,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -27442,8 +27463,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -27470,8 +27495,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -27499,8 +27528,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -27529,8 +27562,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -27559,8 +27596,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -27587,8 +27628,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -27616,8 +27661,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -27644,8 +27693,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -27669,8 +27722,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -27694,8 +27751,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -27721,8 +27782,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -27749,8 +27814,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -27780,8 +27849,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -27805,8 +27878,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -27833,8 +27910,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -27862,8 +27943,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -27890,8 +27975,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -27920,8 +28009,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -27949,8 +28042,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -27975,8 +28072,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -28001,8 +28102,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -28029,8 +28134,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -28059,8 +28168,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -28092,8 +28205,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -28125,8 +28242,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -28155,8 +28276,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -28188,8 +28313,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -28214,8 +28343,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -28247,8 +28380,12 @@
         <f>F33-K33</f>
         <v>0</v>
       </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -28272,8 +28409,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -28298,8 +28439,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -28327,8 +28472,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -28352,8 +28501,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -28377,8 +28530,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -28397,8 +28554,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -28416,8 +28577,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>110</v>
       </c>
@@ -28441,8 +28606,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -28457,8 +28626,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -28473,8 +28646,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>113</v>
       </c>
@@ -28492,8 +28669,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -28512,8 +28693,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -28531,8 +28716,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -28550,8 +28739,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>184</v>
       </c>
@@ -28567,6 +28760,10 @@
       </c>
       <c r="M48">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28578,10 +28775,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D16" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28856,7 +29053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -28873,7 +29070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -28890,7 +29087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -28907,7 +29104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -28924,7 +29121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -28941,7 +29138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -28958,7 +29155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -28970,11 +29167,13 @@
         <v>122.548474987894</v>
       </c>
       <c r="D23">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -28990,7 +29189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -29002,11 +29201,13 @@
         <v>25.127687734127111</v>
       </c>
       <c r="D25">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -29023,7 +29224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -29040,7 +29241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -29057,7 +29258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -29074,7 +29275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -29084,14 +29285,14 @@
       </c>
       <c r="C30">
         <f>VLOOKUP(B30,Moments_psid!A:C,3,0)</f>
-        <v>-626.57913863492377</v>
+        <v>63</v>
       </c>
       <c r="D30">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -29101,14 +29302,14 @@
       </c>
       <c r="C31">
         <f>VLOOKUP(B31,Moments_psid!A:C,3,0)</f>
-        <v>-505.64537147321943</v>
+        <v>105</v>
       </c>
       <c r="D31">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -29125,7 +29326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -29142,7 +29343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -29159,7 +29360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -29176,7 +29377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -29193,7 +29394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -29210,7 +29411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -29227,7 +29428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -29244,7 +29445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -29261,7 +29462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -29278,7 +29479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -29295,7 +29496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -29307,11 +29508,13 @@
         <v>2.905856906222299</v>
       </c>
       <c r="D43">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -29327,7 +29530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -29344,7 +29547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -29359,7 +29562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -29376,7 +29579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -53346,8 +53549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388BE545-5E3B-42EF-ACF3-27ADED17A03F}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53880,7 +54083,7 @@
         <v>-151.6344770370616</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -53891,7 +54094,7 @@
         <v>593.16349855375722</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -53902,7 +54105,7 @@
         <v>188.31892785785749</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -53913,18 +54116,21 @@
         <v>2206.542127027375</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
-      <c r="C52">
-        <v>-626.57913863492377</v>
+      <c r="C52" s="3">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -53935,18 +54141,21 @@
         <v>-671.54653071480561</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>51</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
-      <c r="C54">
-        <v>-505.64537147321943</v>
+      <c r="C54" s="3">
+        <v>105</v>
+      </c>
+      <c r="D54" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -53957,7 +54166,7 @@
         <v>-617.09437937111409</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>158</v>
       </c>
@@ -53968,7 +54177,7 @@
         <v>-558.4590458999968</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -53979,7 +54188,7 @@
         <v>-604.50613192106164</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -53990,7 +54199,7 @@
         <v>-50.524167685204183</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -54001,7 +54210,7 @@
         <v>277.39608436846476</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -54012,7 +54221,7 @@
         <v>973.91420861085408</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -54023,7 +54232,7 @@
         <v>683.00321899695871</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -54034,7 +54243,7 @@
         <v>-109.15475557571985</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -54045,7 +54254,7 @@
         <v>10.749750534236171</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>59</v>
       </c>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="687" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{694AB267-0960-48B2-AC73-3DBC714CD194}"/>
+  <xr:revisionPtr revIDLastSave="699" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06928990-E8D3-4EDE-8134-F9C6FA11C669}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView minimized="1" xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="2" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -27282,8 +27282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27362,7 +27362,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <f>M2+H2</f>
+        <f>M2+H2+K2+G2</f>
         <v>1</v>
       </c>
     </row>
@@ -27394,7 +27394,7 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N48" si="2">M3+H3</f>
+        <f t="shared" ref="N3:N48" si="2">M3+H3+K3+G3</f>
         <v>1</v>
       </c>
     </row>
@@ -27432,7 +27432,7 @@
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -28207,7 +28207,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -28244,7 +28244,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -28315,7 +28315,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -28382,7 +28382,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -28579,7 +28579,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -28596,6 +28596,12 @@
         <v>1</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>1</v>
       </c>
       <c r="J41" s="3">
@@ -28604,7 +28610,7 @@
       </c>
       <c r="M41">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <f t="shared" si="2"/>
@@ -28777,7 +28783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D16" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="699" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06928990-E8D3-4EDE-8134-F9C6FA11C669}"/>
+  <xr:revisionPtr revIDLastSave="777" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{198D83DA-CBC7-481E-BCB7-D434C398C4FA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="2" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$M$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$M$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="197">
   <si>
     <t>label</t>
   </si>
@@ -694,6 +694,12 @@
   <si>
     <t>parcount</t>
   </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>rand</t>
+  </si>
 </sst>
 </file>
 
@@ -1144,15 +1150,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
@@ -1165,1278 +1171,2789 @@
       <c r="D1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M1" t="s">
-        <v>180</v>
+      <c r="E1" t="str">
+        <f>PARS!E1</f>
+        <v>compstat</v>
+      </c>
+      <c r="F1" t="str">
+        <f>PARS!F1</f>
+        <v>toestimate</v>
+      </c>
+      <c r="G1" t="str">
+        <f>PARS!G1</f>
+        <v xml:space="preserve">tofitwithin </v>
+      </c>
+      <c r="H1" t="str">
+        <f>PARS!H1</f>
+        <v>tocalibrateoutright</v>
+      </c>
+      <c r="I1" t="str">
+        <f>PARS!I1</f>
+        <v>ignored</v>
+      </c>
+      <c r="J1" t="str">
+        <f>PARS!J1</f>
+        <v>check</v>
+      </c>
+      <c r="K1" t="str">
+        <f>PARS!K1</f>
+        <v>reasonablecalibration</v>
+      </c>
+      <c r="L1" t="str">
+        <f>PARS!L1</f>
+        <v>roughcalibrationok</v>
+      </c>
+      <c r="M1" t="str">
+        <f>PARS!M1</f>
+        <v>toestimateR</v>
+      </c>
+      <c r="N1" t="str">
+        <f>PARS!N1</f>
+        <v>parcount</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
       <c r="B2">
-        <v>16.332000000000001</v>
+        <f>D2*$P$4+C2*(1-$P$4)</f>
+        <v>18.734399999999997</v>
       </c>
       <c r="C2">
-        <f>B2-3</f>
-        <v>13.332000000000001</v>
+        <f>PARS!C2</f>
+        <v>13.5</v>
       </c>
       <c r="D2">
-        <f>B2+3</f>
-        <v>19.332000000000001</v>
+        <f>PARS!D2</f>
+        <v>19.5</v>
       </c>
       <c r="E2">
+        <f>PARS!E2</f>
         <v>1</v>
       </c>
       <c r="F2">
+        <f>PARS!F2</f>
         <v>1</v>
       </c>
+      <c r="G2">
+        <f>PARS!G2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>PARS!H2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>PARS!I2</f>
+        <v>0</v>
+      </c>
       <c r="J2">
-        <f>SUM(F2:I2)</f>
+        <f>PARS!J2</f>
         <v>1</v>
       </c>
+      <c r="K2">
+        <f>PARS!K2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>PARS!L2</f>
+        <v>0</v>
+      </c>
       <c r="M2">
-        <f>F2-K2</f>
+        <f>PARS!M2</f>
         <v>1</v>
       </c>
+      <c r="N2">
+        <f>PARS!N2</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
+        <f t="shared" ref="B3:B49" si="0">D3*$P$4+C3*(1-$P$4)</f>
+        <v>0.58596399999999993</v>
       </c>
       <c r="C3">
+        <f>PARS!C3</f>
         <v>0.49</v>
       </c>
       <c r="D3">
+        <f>PARS!D3</f>
         <v>0.6</v>
       </c>
       <c r="E3">
+        <f>PARS!E3</f>
         <v>1</v>
       </c>
       <c r="F3">
+        <f>PARS!F3</f>
         <v>1</v>
       </c>
+      <c r="G3">
+        <f>PARS!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>PARS!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>PARS!I3</f>
+        <v>0</v>
+      </c>
       <c r="J3">
-        <f t="shared" ref="J3:J48" si="0">SUM(F3:I3)</f>
+        <f>PARS!J3</f>
         <v>1</v>
       </c>
+      <c r="K3">
+        <f>PARS!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>PARS!L3</f>
+        <v>0</v>
+      </c>
       <c r="M3">
-        <f t="shared" ref="M3:M48" si="1">F3-K3</f>
+        <f>PARS!M3</f>
         <v>1</v>
       </c>
+      <c r="N3">
+        <f>PARS!N3</f>
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
       </c>
       <c r="B4">
-        <v>7.5499999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.1123239999999999E-2</v>
       </c>
       <c r="C4">
-        <f>B4*0.9</f>
+        <f>PARS!C4</f>
         <v>6.7949999999999997E-2</v>
       </c>
       <c r="D4">
-        <f>B4*1.1</f>
+        <f>PARS!D4</f>
         <v>8.3049999999999999E-2</v>
       </c>
+      <c r="E4">
+        <f>PARS!E4</f>
+        <v>0</v>
+      </c>
       <c r="F4">
+        <f>PARS!F4</f>
         <v>1</v>
       </c>
+      <c r="G4">
+        <f>PARS!G4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>PARS!H4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>PARS!I4</f>
+        <v>0</v>
+      </c>
       <c r="J4">
+        <f>PARS!J4</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>PARS!K4</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>PARS!L4</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>PARS!M4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>PARS!N4</f>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f>0.8724</f>
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="Q4">
+        <f ca="1">RAND()</f>
+        <v>0.59351973546038517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>9.71096</v>
+      </c>
+      <c r="C5">
+        <f>PARS!C5</f>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f>PARS!D5</f>
+        <v>10.4</v>
+      </c>
+      <c r="E5">
+        <f>PARS!E5</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>PARS!F5</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>PARS!G5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>PARS!H5</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>PARS!I5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>PARS!J5</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f>PARS!K5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>PARS!L5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>PARS!M5</f>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f>PARS!N5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>878.78</v>
+      </c>
+      <c r="C6">
+        <f>PARS!C6</f>
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <f>PARS!D6</f>
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <f>PARS!E6</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>PARS!F6</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>PARS!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>PARS!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>PARS!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>PARS!J6</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>PARS!K6</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>PARS!L6</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>PARS!M6</f>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>PARS!N6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.56880503999999998</v>
+      </c>
+      <c r="C7">
+        <f>PARS!C7</f>
+        <v>0.495</v>
+      </c>
+      <c r="D7">
+        <f>PARS!D7</f>
+        <v>0.5796</v>
+      </c>
+      <c r="E7">
+        <f>PARS!E7</f>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>PARS!F7</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>PARS!G7</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>PARS!H7</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>PARS!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>PARS!J7</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f>PARS!K7</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>PARS!L7</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>PARS!M7</f>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f>PARS!N7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.27448</v>
+      </c>
+      <c r="C8">
+        <f>PARS!C8</f>
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <f>PARS!D8</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E8">
+        <f>PARS!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>PARS!F8</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>PARS!G8</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>PARS!H8</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>PARS!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>PARS!J8</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>PARS!K8</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>PARS!L8</f>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>PARS!M8</f>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f>PARS!N8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.18451844</v>
+      </c>
+      <c r="C9">
+        <f>PARS!C9</f>
+        <v>0.43154999999999999</v>
+      </c>
+      <c r="D9">
+        <f>PARS!D9</f>
+        <v>1.2946499999999999</v>
+      </c>
+      <c r="E9">
+        <f>PARS!E9</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>PARS!F9</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>PARS!G9</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>PARS!H9</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>PARS!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>PARS!J9</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>PARS!K9</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>PARS!L9</f>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>PARS!M9</f>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f>PARS!N9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.18451844</v>
+      </c>
+      <c r="C10">
+        <f>PARS!C10</f>
+        <v>0.43154999999999999</v>
+      </c>
+      <c r="D10">
+        <f>PARS!D10</f>
+        <v>1.2946499999999999</v>
+      </c>
+      <c r="E10">
+        <f>PARS!E10</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>PARS!F10</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>PARS!G10</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>PARS!H10</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>PARS!I10</f>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f>PARS!J10</f>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f>PARS!K10</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>PARS!L10</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>PARS!M10</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>PARS!N10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>-3.9811200000000012E-2</v>
+      </c>
+      <c r="C11">
+        <f>PARS!C11</f>
+        <v>-0.312</v>
+      </c>
+      <c r="D11">
+        <f>PARS!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>PARS!E11</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>PARS!F11</f>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>PARS!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>PARS!H11</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>PARS!I11</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>PARS!J11</f>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f>PARS!K11</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>PARS!L11</f>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f>PARS!M11</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>PARS!N11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>23.737194185778787</v>
+      </c>
+      <c r="C12">
+        <f>PARS!C12</f>
+        <v>16.527777597673573</v>
+      </c>
+      <c r="D12">
+        <f>PARS!D12</f>
+        <v>24.791666396510362</v>
+      </c>
+      <c r="E12">
+        <f>PARS!E12</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>PARS!F12</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>PARS!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>PARS!H12</f>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>PARS!I12</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>PARS!J12</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f>PARS!K12</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>PARS!L12</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>PARS!M12</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>PARS!N12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.9361999999999999</v>
+      </c>
+      <c r="C13">
+        <f>PARS!C13</f>
+        <v>1.5</v>
+      </c>
+      <c r="D13">
+        <f>PARS!D13</f>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f>PARS!E13</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>PARS!F13</f>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f>PARS!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>PARS!H13</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>PARS!I13</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>PARS!J13</f>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f>PARS!K13</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>PARS!L13</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>PARS!M13</f>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f>PARS!N13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.34895999999999999</v>
+      </c>
+      <c r="C14">
+        <f>PARS!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>PARS!D14</f>
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <f>PARS!E14</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>PARS!F14</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>PARS!G14</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>PARS!H14</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>PARS!I14</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f>PARS!J14</f>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f>PARS!K14</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>PARS!L14</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>PARS!M14</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>PARS!N14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.74479999999999991</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f>PARS!E15</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>PARS!F15</f>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f>PARS!G15</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>PARS!H15</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>PARS!I15</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>PARS!J15</f>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f>PARS!K15</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>PARS!L15</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>PARS!M15</f>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f>PARS!N15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.20106799999999997</v>
+      </c>
+      <c r="C16">
+        <f>PARS!C16</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="D16">
+        <f>PARS!D16</f>
+        <v>0.21</v>
+      </c>
+      <c r="E16">
+        <f>PARS!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>PARS!F16</f>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f>PARS!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>PARS!H16</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>PARS!I16</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>PARS!J16</f>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f>PARS!K16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>PARS!L16</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>PARS!M16</f>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f>PARS!N16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.7065199999999998</v>
+      </c>
+      <c r="C17">
+        <f>PARS!C17</f>
+        <v>0.7</v>
+      </c>
+      <c r="D17">
+        <f>PARS!D17</f>
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f>PARS!E17</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f>PARS!F17</f>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f>PARS!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>PARS!H17</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>PARS!I17</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>PARS!J17</f>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f>PARS!K17</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>PARS!L17</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>PARS!M17</f>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f>PARS!N17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3.7192799999999999</v>
+      </c>
+      <c r="C18">
+        <f>PARS!C18</f>
+        <v>1.8</v>
+      </c>
+      <c r="D18">
+        <f>PARS!D18</f>
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f>PARS!E18</f>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f>PARS!F18</f>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f>PARS!G18</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>PARS!H18</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>PARS!I18</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>PARS!J18</f>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f>PARS!K18</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>PARS!L18</f>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f>PARS!M18</f>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f>PARS!N18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.89791999999999994</v>
+      </c>
+      <c r="C19">
+        <f>PARS!C19</f>
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <f>PARS!D19</f>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f>PARS!E19</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>PARS!F19</f>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>PARS!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>PARS!H19</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>PARS!I19</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>PARS!J19</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f>PARS!K19</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>PARS!L19</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>PARS!M19</f>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f>PARS!N19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.93619999999999992</v>
+      </c>
+      <c r="C20">
+        <f>PARS!C20</f>
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <f>PARS!D20</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>PARS!E20</f>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f>PARS!F20</f>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>PARS!G20</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>PARS!H20</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>PARS!I20</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>PARS!J20</f>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f>PARS!K20</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>PARS!L20</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>PARS!M20</f>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f>PARS!N20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>8.8515999999999995</v>
+      </c>
+      <c r="C21">
+        <f>PARS!C21</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>PARS!D21</f>
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <f>PARS!E21</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f>PARS!F21</f>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f>PARS!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>PARS!H21</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>PARS!I21</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>PARS!J21</f>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f>PARS!K21</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>PARS!L21</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>PARS!M21</f>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f>PARS!N21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>3.4895999999999998</v>
+      </c>
+      <c r="C22">
+        <f>PARS!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>PARS!D22</f>
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f>PARS!E22</f>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f>PARS!F22</f>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f>PARS!G22</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>PARS!H22</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>PARS!I22</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>PARS!J22</f>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f>PARS!K22</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>PARS!L22</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>PARS!M22</f>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f>PARS!N22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.85640799999999995</v>
+      </c>
+      <c r="C23">
+        <f>PARS!C23</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="D23">
+        <f>PARS!D23</f>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="E23">
+        <f>PARS!E23</f>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f>PARS!F23</f>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>PARS!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>PARS!H23</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>PARS!I23</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>PARS!J23</f>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f>PARS!K23</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>PARS!L23</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>PARS!M23</f>
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <f>PARS!N23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>10.4688</v>
+      </c>
+      <c r="C24">
+        <f>PARS!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>PARS!D24</f>
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <f>PARS!E24</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f>PARS!F24</f>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f>PARS!G24</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>PARS!H24</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>PARS!I24</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>PARS!J24</f>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f>PARS!K24</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>PARS!L24</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>PARS!M24</f>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f>PARS!N24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.26171999999999995</v>
+      </c>
+      <c r="C25">
+        <f>PARS!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>PARS!D25</f>
+        <v>0.3</v>
+      </c>
+      <c r="E25">
+        <f>PARS!E25</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>PARS!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>PARS!G25</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>PARS!H25</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>PARS!I25</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f>PARS!J25</f>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f>PARS!K25</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>PARS!L25</f>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f>PARS!M25</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>PARS!N25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.26171999999999995</v>
+      </c>
+      <c r="C26">
+        <f>PARS!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>PARS!D26</f>
+        <v>0.3</v>
+      </c>
+      <c r="E26">
+        <f>PARS!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>PARS!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>PARS!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>PARS!H26</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>PARS!I26</f>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f>PARS!J26</f>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f>PARS!K26</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>PARS!L26</f>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f>PARS!M26</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>PARS!N26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.8532599999999999</v>
+      </c>
+      <c r="C27">
+        <f>PARS!C27</f>
+        <v>0.85</v>
+      </c>
+      <c r="D27">
+        <f>PARS!D27</f>
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <f>PARS!E27</f>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f>PARS!F27</f>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f>PARS!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>PARS!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>PARS!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>PARS!J27</f>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f>PARS!K27</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>PARS!L27</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f>PARS!M27</f>
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f>PARS!N27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>5.4896000000000003</v>
+      </c>
+      <c r="C28">
+        <f>PARS!C28</f>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f>PARS!D28</f>
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <f>PARS!E28</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>PARS!F28</f>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f>PARS!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>PARS!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>PARS!I28</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f>PARS!J28</f>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f>PARS!K28</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>PARS!L28</f>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f>PARS!M28</f>
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f>PARS!N28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.781655816</v>
+      </c>
+      <c r="C29">
+        <f>PARS!C29</f>
+        <v>0.44722999999999996</v>
+      </c>
+      <c r="D29">
+        <f>PARS!D29</f>
+        <v>0.83057000000000003</v>
+      </c>
+      <c r="E29">
+        <f>PARS!E29</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>PARS!F29</f>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f>PARS!G29</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>PARS!H29</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>PARS!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>PARS!J29</f>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f>PARS!K29</f>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f>PARS!L29</f>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f>PARS!M29</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>PARS!N29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1.0315008000000001E-2</v>
+      </c>
+      <c r="C30">
+        <f>PARS!C30</f>
+        <v>8.6400000000000001E-3</v>
+      </c>
+      <c r="D30">
+        <f>PARS!D30</f>
+        <v>1.056E-2</v>
+      </c>
+      <c r="E30">
+        <f>PARS!E30</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>PARS!F30</f>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f>PARS!G30</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>PARS!H30</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>PARS!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>PARS!J30</f>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f>PARS!K30</f>
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f>PARS!L30</f>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f>PARS!M30</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>PARS!N30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.61172000000000004</v>
+      </c>
+      <c r="C31">
+        <f>PARS!C31</f>
+        <v>0.35</v>
+      </c>
+      <c r="D31">
+        <f>PARS!D31</f>
+        <v>0.65</v>
+      </c>
+      <c r="E31">
+        <f>PARS!E31</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>PARS!F31</f>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f>PARS!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>PARS!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>PARS!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>PARS!J31</f>
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f>PARS!K31</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>PARS!L31</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f>PARS!M31</f>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f>PARS!N31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1.0977927119999999</v>
+      </c>
+      <c r="C32">
+        <f>PARS!C32</f>
+        <v>0.62810999999999995</v>
+      </c>
+      <c r="D32">
+        <f>PARS!D32</f>
+        <v>1.16649</v>
+      </c>
+      <c r="E32">
+        <f>PARS!E32</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>PARS!F32</f>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f>PARS!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>PARS!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>PARS!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>PARS!J32</f>
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f>PARS!K32</f>
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f>PARS!L32</f>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f>PARS!M32</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>PARS!N32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>3.5789199999999997</v>
+      </c>
+      <c r="C33">
+        <f>PARS!C33</f>
+        <v>0.7</v>
+      </c>
+      <c r="D33">
+        <f>PARS!D33</f>
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <f>PARS!E33</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>PARS!F33</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>PARS!G33</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>PARS!H33</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>PARS!I33</f>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f>PARS!J33</f>
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <f>PARS!K33</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>PARS!L33</f>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f>PARS!M33</f>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f>PARS!N33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1.5836207359999999</v>
+      </c>
+      <c r="C34">
+        <f>PARS!C34</f>
+        <v>0.90607999999999989</v>
+      </c>
+      <c r="D34">
+        <f>PARS!D34</f>
+        <v>1.68272</v>
+      </c>
+      <c r="E34">
+        <f>PARS!E34</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>PARS!F34</f>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f>PARS!G34</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>PARS!H34</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>PARS!I34</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>PARS!J34</f>
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f>PARS!K34</f>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f>PARS!L34</f>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <f>PARS!M34</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>PARS!N34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>4.3620000000000001</v>
+      </c>
+      <c r="C35">
+        <f>PARS!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f>PARS!D35</f>
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <f>PARS!E35</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>PARS!F35</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>PARS!G35</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>PARS!H35</f>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f>PARS!I35</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f>PARS!J35</f>
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <f>PARS!K35</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>PARS!L35</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f>PARS!M35</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>PARS!N35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>10.4688</v>
+      </c>
+      <c r="C36">
+        <f>PARS!C36</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>PARS!D36</f>
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <f>PARS!E36</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>PARS!F36</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>PARS!G36</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>PARS!H36</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>PARS!I36</f>
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <f>PARS!J36</f>
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f>PARS!K36</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>PARS!L36</f>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f>PARS!M36</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f>PARS!N36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>58.160290799999999</v>
+      </c>
+      <c r="C37">
+        <f>PARS!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>PARS!D37</f>
+        <v>66.667000000000002</v>
+      </c>
+      <c r="E37">
+        <f>PARS!E37</f>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f>PARS!F37</f>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f>PARS!G37</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>PARS!H37</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>PARS!I37</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f>PARS!J37</f>
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <f>PARS!K37</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>PARS!L37</f>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f>PARS!M37</f>
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <f>PARS!N37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.43619999999999998</v>
+      </c>
+      <c r="C38">
+        <f>PARS!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>PARS!D38</f>
+        <v>0.5</v>
+      </c>
+      <c r="E38">
+        <f>PARS!E38</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>PARS!F38</f>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f>PARS!G38</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>PARS!H38</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>PARS!I38</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f>PARS!J38</f>
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <f>PARS!K38</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f>PARS!L38</f>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f>PARS!M38</f>
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f>PARS!N38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f>PARS!C39</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f>PARS!D39</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>PARS!E39</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>PARS!F39</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>PARS!G39</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>PARS!H39</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>PARS!I39</f>
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <f>PARS!J39</f>
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <f>PARS!K39</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f>PARS!L39</f>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f>PARS!M39</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f>PARS!N39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="C40">
+        <f>PARS!C40</f>
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="D40">
+        <f>PARS!D40</f>
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="E40">
+        <f>PARS!E40</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>PARS!F40</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>PARS!G40</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>PARS!H40</f>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f>PARS!I40</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f>PARS!J40</f>
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <f>PARS!K40</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f>PARS!L40</f>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f>PARS!M40</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>PARS!N40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>1.4900000000000002</v>
+      </c>
+      <c r="C41">
+        <f>PARS!C41</f>
+        <v>1.49</v>
+      </c>
+      <c r="D41">
+        <f>PARS!D41</f>
+        <v>1.49</v>
+      </c>
+      <c r="E41">
+        <f>PARS!E41</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>PARS!F41</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f>PARS!G41</f>
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <f>PARS!H41</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f>PARS!I41</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f>PARS!J41</f>
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <f>PARS!K41</f>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f>PARS!L41</f>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f>PARS!M41</f>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f>PARS!N41</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="C42">
+        <f>PARS!C42</f>
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="D42">
+        <f>PARS!D42</f>
         <v>1</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E42">
+        <f>PARS!E42</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>PARS!F42</f>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f>PARS!G42</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f>PARS!H42</f>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f>PARS!I42</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f>PARS!J42</f>
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <f>PARS!K42</f>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f>PARS!L42</f>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f>PARS!M42</f>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f>PARS!N42</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <f>B5*1.3</f>
-        <v>10.4</v>
-      </c>
-      <c r="E5">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>1.9809000000000001</v>
+      </c>
+      <c r="C43">
+        <f>PARS!C43</f>
+        <v>1.9809000000000001</v>
+      </c>
+      <c r="D43">
+        <f>PARS!D43</f>
+        <v>1.9809000000000001</v>
+      </c>
+      <c r="E43">
+        <f>PARS!E43</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>PARS!F43</f>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f>PARS!G43</f>
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="H43">
+        <f>PARS!H43</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f>PARS!I43</f>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f>PARS!J43</f>
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="K43">
+        <f>PARS!K43</f>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f>PARS!L43</f>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f>PARS!M43</f>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f>PARS!N43</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>1.9084000000000001</v>
+      </c>
+      <c r="C44">
+        <f>PARS!C44</f>
+        <v>1.9084000000000001</v>
+      </c>
+      <c r="D44">
+        <f>PARS!D44</f>
+        <v>1.9084000000000001</v>
+      </c>
+      <c r="E44">
+        <f>PARS!E44</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>PARS!F44</f>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f>PARS!G44</f>
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f>PARS!H44</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f>PARS!I44</f>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f>PARS!J44</f>
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <f>PARS!K44</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f>PARS!L44</f>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f>PARS!M44</f>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f>PARS!N44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
+      <c r="C45">
+        <f>PARS!C45</f>
         <v>1</v>
       </c>
+      <c r="D45">
+        <f>PARS!D45</f>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f>PARS!E45</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>PARS!F45</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>PARS!G45</f>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>PARS!H45</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f>PARS!I45</f>
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <f>PARS!J45</f>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f>PARS!K45</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f>PARS!L45</f>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f>PARS!M45</f>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f>PARS!N45</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>1000</v>
-      </c>
-      <c r="E6">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="C46">
+        <f>PARS!C46</f>
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="D46">
+        <f>PARS!D46</f>
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="E46">
+        <f>PARS!E46</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>PARS!F46</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>PARS!G46</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>PARS!H46</f>
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="I46">
+        <f>PARS!I46</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f>PARS!J46</f>
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="K46">
+        <f>PARS!K46</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f>PARS!L46</f>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f>PARS!M46</f>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f>PARS!N46</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>1.19</v>
+      </c>
+      <c r="C47">
+        <f>PARS!C47</f>
+        <v>1.19</v>
+      </c>
+      <c r="D47">
+        <f>PARS!D47</f>
+        <v>1.19</v>
+      </c>
+      <c r="E47">
+        <f>PARS!E47</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>PARS!F47</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>PARS!G47</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>PARS!H47</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f>PARS!I47</f>
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <f>PARS!J47</f>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <f>PARS!K47</f>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f>PARS!L47</f>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f>PARS!M47</f>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>PARS!N47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
+      <c r="C48">
+        <f>PARS!C48</f>
         <v>1</v>
       </c>
+      <c r="D48">
+        <f>PARS!D48</f>
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f>PARS!E48</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>PARS!F48</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f>PARS!G48</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>PARS!H48</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>PARS!I48</f>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f>PARS!J48</f>
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <f>PARS!K48</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f>PARS!L48</f>
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <f>PARS!M48</f>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f>PARS!N48</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7">
-        <v>0.49780000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.495</v>
-      </c>
-      <c r="D7">
-        <f>B7*1.15</f>
-        <v>0.57247000000000003</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
+      <c r="C49">
+        <f>PARS!C49</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8">
-        <v>0.26889999999999997</v>
-      </c>
-      <c r="C8">
-        <f>B8*0.5</f>
-        <v>0.13444999999999999</v>
-      </c>
-      <c r="D8">
-        <f>B8*1.5</f>
-        <v>0.40334999999999999</v>
-      </c>
-      <c r="F8">
+      <c r="D49">
+        <f>PARS!D49</f>
         <v>1</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
+      <c r="E49">
+        <f>PARS!E49</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>PARS!F49</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f>PARS!G49</f>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>PARS!H49</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>PARS!I49</f>
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="J49">
+        <f>PARS!J49</f>
         <v>1</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1.1604000000000001</v>
-      </c>
-      <c r="C9">
-        <f>B9*0.5</f>
-        <v>0.58020000000000005</v>
-      </c>
-      <c r="D9">
-        <f>B9*1.5</f>
-        <v>1.7406000000000001</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10">
-        <f>B9</f>
-        <v>1.1604000000000001</v>
-      </c>
-      <c r="C10">
-        <f>B10*0.5</f>
-        <v>0.58020000000000005</v>
-      </c>
-      <c r="D10">
-        <f>B10*1.5</f>
-        <v>1.7406000000000001</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11">
-        <v>-8.0670000000000006E-2</v>
-      </c>
-      <c r="C11">
-        <f>B11*1.2</f>
-        <v>-9.6804000000000001E-2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12">
-        <f>EXP(-0.0135*B36)*2*(1-MOMS!C50)/(MOMS!C47*(MOMS!C29/(24*365)+EXP(MOMS!C44)*(MOMS!C29/(24*365)+MOMS!C5/(24*365))))</f>
-        <v>20.567776582199507</v>
-      </c>
-      <c r="C12">
-        <f>B12*0.8</f>
-        <v>16.454221265759607</v>
-      </c>
-      <c r="D12">
-        <f>B12*1.2</f>
-        <v>24.681331898639407</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13">
-        <v>1.9067000000000001</v>
-      </c>
-      <c r="C13">
-        <v>1.5</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0.4</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15">
-        <v>0.15089</v>
-      </c>
-      <c r="C15">
-        <f>B15*0.8</f>
-        <v>0.120712</v>
-      </c>
-      <c r="D15">
-        <f>B15*1.2</f>
-        <v>0.18106799999999998</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16">
-        <v>0.84916999999999998</v>
-      </c>
-      <c r="C16">
-        <v>0.7</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17">
-        <v>2.0169999999999999</v>
-      </c>
-      <c r="C17">
-        <v>1.8</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18">
-        <v>0.24146000000000001</v>
-      </c>
-      <c r="C18">
-        <v>0.2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19">
-        <v>0.56220999999999999</v>
-      </c>
-      <c r="C19">
-        <v>0.5</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20">
-        <v>3.8315000000000001</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21">
-        <v>0.51593</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22">
-        <v>0.84467999999999999</v>
-      </c>
-      <c r="C22">
-        <f>B22*0.7</f>
-        <v>0.59127599999999991</v>
-      </c>
-      <c r="D22">
-        <f>B22*1.3</f>
-        <v>1.0980840000000001</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23">
-        <v>8.5251999999999999</v>
-      </c>
-      <c r="C23">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <f>B23*1.2</f>
-        <v>10.23024</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24">
-        <f>MOMS!C52</f>
-        <v>0.1449</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25">
-        <f>MOMS!C52</f>
-        <v>0.1449</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26">
-        <v>0.89664999999999995</v>
-      </c>
-      <c r="C26">
-        <v>0.85</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27">
-        <v>4.1342999999999996</v>
-      </c>
-      <c r="C27">
-        <f>B27*0.5</f>
-        <v>2.0671499999999998</v>
-      </c>
-      <c r="D27">
-        <f>B27*1.5</f>
-        <v>6.2014499999999995</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28">
-        <v>0.63890000000000002</v>
-      </c>
-      <c r="C28">
-        <f>B28*0.7</f>
-        <v>0.44722999999999996</v>
-      </c>
-      <c r="D28">
-        <f>B28*1.3</f>
-        <v>0.83057000000000003</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="C29">
-        <f>B29*0.9</f>
-        <v>8.6400000000000001E-3</v>
-      </c>
-      <c r="D29">
-        <f>B29*1.1</f>
-        <v>1.056E-2</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30">
-        <v>0.39665</v>
-      </c>
-      <c r="C30">
-        <f>B30*0.7</f>
-        <v>0.27765499999999999</v>
-      </c>
-      <c r="D30">
-        <f>B30*1.3</f>
-        <v>0.51564500000000002</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31">
-        <v>0.89729999999999999</v>
-      </c>
-      <c r="C31">
-        <f>B31*0.7</f>
-        <v>0.62810999999999995</v>
-      </c>
-      <c r="D31">
-        <f>B31*1.3</f>
-        <v>1.16649</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <f>B32*0.7</f>
-        <v>0.7</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33">
-        <v>1.2944</v>
-      </c>
-      <c r="C33">
-        <f>B33*0.7</f>
-        <v>0.90607999999999989</v>
-      </c>
-      <c r="D33">
-        <f>B33*1.3</f>
-        <v>1.68272</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <f>F33-K33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <f>D23</f>
-        <v>10.23024</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36">
-        <v>6.9970999999999997</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <f>B36*10</f>
-        <v>69.971000000000004</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37">
-        <v>0.24118000000000001</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0.5</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0.66420000000000001</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39">
-        <f>9*5*52/(24*365)</f>
-        <v>0.26712328767123289</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40">
-        <v>1.49</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42">
-        <v>1.9809000000000001</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43">
-        <v>1.9084000000000001</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45">
-        <f>MOMS!C46</f>
-        <v>1.8814014327029097E-3</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>182</v>
-      </c>
-      <c r="B46">
-        <v>1.19</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>184</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="1"/>
+      <c r="K49">
+        <f>PARS!K49</f>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f>PARS!L49</f>
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f>PARS!M49</f>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f>PARS!N49</f>
         <v>0</v>
       </c>
     </row>
@@ -27280,10 +28797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27386,15 +28903,15 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J48" si="0">SUM(F3:I3)</f>
+        <f t="shared" ref="J3:J49" si="0">SUM(F3:I3)</f>
         <v>1</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M48" si="1">F3-K3</f>
+        <f t="shared" ref="M3:M49" si="1">F3-K3</f>
         <v>1</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N48" si="2">M3+H3+K3+G3</f>
+        <f t="shared" ref="N3:N49" si="2">M3+H3+K3+G3</f>
         <v>1</v>
       </c>
     </row>
@@ -27671,7 +29188,7 @@
         <v>81</v>
       </c>
       <c r="B12">
-        <f>EXP(-0.0135*B36)*2*(1-MOMS!C50)/(MOMS!C47*(MOMS!C29/(24*365)+EXP(MOMS!C44)*(MOMS!C29/(24*365)+MOMS!C5/(24*365))))</f>
+        <f>EXP(-0.0135*B37)*2*(1-MOMS!C50)/(MOMS!C47*(MOMS!C29/(24*365)+EXP(MOMS!C44)*(MOMS!C29/(24*365)+MOMS!C5/(24*365))))</f>
         <v>20.659721997091967</v>
       </c>
       <c r="C12">
@@ -27740,7 +29257,7 @@
       <c r="D14">
         <v>0.4</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
@@ -27749,27 +29266,25 @@
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B15">
-        <v>0.17499999999999999</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <f>B15*0.8</f>
-        <v>0.13999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="D15">
-        <f>B15*1.2</f>
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -27779,29 +29294,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M15" si="3">F15-K15</f>
         <v>1</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N15" si="4">M15+H15+K15+G15</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16">
-        <v>0.7</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C16">
-        <v>0.7</v>
+        <f>B16*0.8</f>
+        <v>0.13999999999999999</v>
       </c>
       <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <f>B16*1.2</f>
+        <v>0.21</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -27821,16 +29335,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="C17">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -27842,9 +29356,6 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -27856,15 +29367,18 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18">
-        <v>0.33329999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="C18">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
@@ -27874,6 +29388,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
       <c r="M18">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -27885,18 +29402,15 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19">
-        <v>0.7</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C19">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
@@ -27917,17 +29431,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20">
-        <f>1/0.25</f>
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
         <v>1</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -27950,16 +29463,17 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21">
-        <v>0.73729999999999996</v>
+        <f>1/0.25</f>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -27982,18 +29496,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22">
-        <v>0.7</v>
+        <v>0.73729999999999996</v>
       </c>
       <c r="C22">
-        <f>B22*0.7</f>
-        <v>0.48999999999999994</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <f>B22*1.3</f>
-        <v>0.90999999999999992</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -28016,17 +29528,18 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23">
-        <v>8.1480999999999995</v>
+        <v>0.7</v>
       </c>
       <c r="C23">
-        <f>0</f>
-        <v>0</v>
+        <f>B23*0.7</f>
+        <v>0.48999999999999994</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <f>B23*1.3</f>
+        <v>0.90999999999999992</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -28049,19 +29562,22 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24">
-        <f>MOMS!C52</f>
-        <v>0.1449</v>
+        <v>8.1480999999999995</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>1</v>
       </c>
       <c r="J24">
@@ -28070,16 +29586,16 @@
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25">
         <f>MOMS!C52</f>
@@ -28109,21 +29625,19 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <f>MOMS!C52</f>
+        <v>0.1449</v>
       </c>
       <c r="C26">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
+        <v>0.3</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
@@ -28132,27 +29646,28 @@
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <f>B27*0.5</f>
+        <v>0.85</v>
+      </c>
+      <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="D27">
-        <f>B27*1.5</f>
-        <v>6</v>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -28161,9 +29676,6 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
       <c r="M27">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -28175,18 +29687,18 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28">
-        <v>0.63890000000000002</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <f>B28*0.7</f>
-        <v>0.44722999999999996</v>
+        <f>B28*0.5</f>
+        <v>2</v>
       </c>
       <c r="D28">
-        <f>B28*1.3</f>
-        <v>0.83057000000000003</v>
+        <f>B28*1.5</f>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -28195,15 +29707,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <f t="shared" si="2"/>
@@ -28212,18 +29721,18 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29">
-        <v>9.5999999999999992E-3</v>
+        <v>0.63890000000000002</v>
       </c>
       <c r="C29">
-        <f>B29*0.9</f>
-        <v>8.6400000000000001E-3</v>
+        <f>B29*0.7</f>
+        <v>0.44722999999999996</v>
       </c>
       <c r="D29">
-        <f>B29*1.1</f>
-        <v>1.056E-2</v>
+        <f>B29*1.3</f>
+        <v>0.83057000000000003</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -28249,21 +29758,18 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="C30">
-        <f>B30*0.7</f>
-        <v>0.35</v>
+        <f>B30*0.9</f>
+        <v>8.6400000000000001E-3</v>
       </c>
       <c r="D30">
-        <f>B30*1.3</f>
-        <v>0.65</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+        <f>B30*1.1</f>
+        <v>1.056E-2</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -28272,9 +29778,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <f t="shared" si="2"/>
@@ -28283,18 +29795,21 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31">
-        <v>0.89729999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
         <f>B31*0.7</f>
-        <v>0.62810999999999995</v>
+        <v>0.35</v>
       </c>
       <c r="D31">
         <f>B31*1.3</f>
-        <v>1.16649</v>
+        <v>0.65</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -28303,15 +29818,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
       <c r="M31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <f t="shared" si="2"/>
@@ -28320,93 +29829,101 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.89729999999999999</v>
       </c>
       <c r="C32">
         <f>B32*0.7</f>
-        <v>0.7</v>
+        <v>0.62810999999999995</v>
       </c>
       <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="I32">
+        <f>B32*1.3</f>
+        <v>1.16649</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
       <c r="M32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33">
-        <v>1.2944</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <f>B33*0.7</f>
-        <v>0.90607999999999989</v>
+        <v>0.7</v>
       </c>
       <c r="D33">
-        <f>B33*1.3</f>
-        <v>1.68272</v>
-      </c>
-      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
       <c r="M33">
-        <f>F33-K33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N33">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1.2944</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <f>B34*0.7</f>
+        <v>0.90607999999999989</v>
       </c>
       <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="H34">
+        <f>B34*1.3</f>
+        <v>1.68272</v>
+      </c>
+      <c r="F34">
         <v>1</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
       <c r="M34">
-        <f t="shared" si="1"/>
+        <f>F34-K34</f>
         <v>0</v>
       </c>
       <c r="N34">
@@ -28416,7 +29933,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -28425,10 +29942,9 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <f>D23</f>
-        <v>12</v>
-      </c>
-      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="H35">
         <v>1</v>
       </c>
       <c r="J35">
@@ -28441,27 +29957,24 @@
       </c>
       <c r="N35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36">
-        <v>6.6666999999999996</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <f>B36*10</f>
-        <v>66.667000000000002</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
+        <f>D24</f>
+        <v>12</v>
+      </c>
+      <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
@@ -28470,25 +29983,29 @@
       </c>
       <c r="M36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37">
-        <v>4.2000000000000003E-2</v>
+        <v>6.6666999999999996</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <f>B37*10</f>
+        <v>66.667000000000002</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -28508,18 +30025,18 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.66420000000000001</v>
-      </c>
-      <c r="I38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
         <v>1</v>
       </c>
       <c r="J38">
@@ -28528,22 +30045,29 @@
       </c>
       <c r="M38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39">
-        <f>9*5*52/(24*365)</f>
-        <v>0.26712328767123289</v>
-      </c>
-      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f>B39</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f>B39</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
@@ -28556,17 +30080,26 @@
       </c>
       <c r="N39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40">
-        <v>1.49</v>
-      </c>
-      <c r="G40">
+        <f>9*5*52/(24*365)</f>
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:D43" si="5">B40</f>
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:D41" si="6">B40</f>
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="H40">
         <v>1</v>
       </c>
       <c r="J40">
@@ -28582,29 +30115,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41">
+        <v>1.49</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>1.49</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>1.49</v>
+      </c>
+      <c r="G41">
         <v>1</v>
       </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="J41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -28617,16 +30146,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42">
-        <v>1.9809000000000001</v>
-      </c>
-      <c r="J42">
+    <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <f t="shared" si="1"/>
@@ -28634,19 +30178,30 @@
       </c>
       <c r="N42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43">
-        <v>1.9084000000000001</v>
+        <v>1.9809000000000001</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>1.9809000000000001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>1.9809000000000001</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <f t="shared" si="1"/>
@@ -28654,17 +30209,25 @@
       </c>
       <c r="N43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="I44">
+        <v>1.9084000000000001</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:D44" si="7">B44</f>
+        <v>1.9084000000000001</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="7"/>
+        <v>1.9084000000000001</v>
+      </c>
+      <c r="G44">
         <v>1</v>
       </c>
       <c r="J44">
@@ -28677,18 +30240,25 @@
       </c>
       <c r="N44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45">
-        <f>MOMS!C46</f>
-        <v>1.8814014327029097E-3</v>
-      </c>
-      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:D45" si="8">B45</f>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
@@ -28701,17 +30271,26 @@
       </c>
       <c r="N45">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="B46">
-        <v>1.19</v>
-      </c>
-      <c r="I46">
+        <f>MOMS!C46</f>
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:D46" si="9">B46</f>
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="9"/>
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="H46">
         <v>1</v>
       </c>
       <c r="J46">
@@ -28724,15 +30303,23 @@
       </c>
       <c r="N46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>1.19</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:D47" si="10">B47</f>
+        <v>1.19</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="10"/>
+        <v>1.19</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -28752,9 +30339,17 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:D48" si="11">B48</f>
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I48">
@@ -28773,8 +30368,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:D49" si="12">B49</f>
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M45" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}"/>
+  <autoFilter ref="A1:M46" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28783,7 +30409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D16" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="777" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{198D83DA-CBC7-481E-BCB7-D434C398C4FA}"/>
+  <xr:revisionPtr revIDLastSave="1029" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FFB47BC-5681-437E-92C1-8DB1D69E40AB}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$M$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$P$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="201">
   <si>
     <t>label</t>
   </si>
@@ -700,6 +700,18 @@
   <si>
     <t>rand</t>
   </si>
+  <si>
+    <t>value_untransformed</t>
+  </si>
+  <si>
+    <t>value_untransformed2</t>
+  </si>
+  <si>
+    <t>min_untransformed</t>
+  </si>
+  <si>
+    <t>max_untransformed</t>
+  </si>
 </sst>
 </file>
 
@@ -1150,15 +1162,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
@@ -1172,571 +1187,571 @@
         <v>68</v>
       </c>
       <c r="E1" t="str">
-        <f>PARS!E1</f>
+        <f>PARS!H1</f>
         <v>compstat</v>
       </c>
       <c r="F1" t="str">
-        <f>PARS!F1</f>
+        <f>PARS!I1</f>
         <v>toestimate</v>
       </c>
       <c r="G1" t="str">
-        <f>PARS!G1</f>
+        <f>PARS!J1</f>
         <v xml:space="preserve">tofitwithin </v>
       </c>
       <c r="H1" t="str">
-        <f>PARS!H1</f>
+        <f>PARS!K1</f>
         <v>tocalibrateoutright</v>
       </c>
       <c r="I1" t="str">
-        <f>PARS!I1</f>
+        <f>PARS!L1</f>
         <v>ignored</v>
       </c>
       <c r="J1" t="str">
-        <f>PARS!J1</f>
+        <f>PARS!M1</f>
         <v>check</v>
       </c>
       <c r="K1" t="str">
-        <f>PARS!K1</f>
+        <f>PARS!N1</f>
         <v>reasonablecalibration</v>
       </c>
       <c r="L1" t="str">
-        <f>PARS!L1</f>
+        <f>PARS!O1</f>
         <v>roughcalibrationok</v>
       </c>
       <c r="M1" t="str">
-        <f>PARS!M1</f>
+        <f>PARS!P1</f>
         <v>toestimateR</v>
       </c>
       <c r="N1" t="str">
-        <f>PARS!N1</f>
+        <f>PARS!Q1</f>
         <v>parcount</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
       <c r="B2">
-        <f>D2*$P$4+C2*(1-$P$4)</f>
-        <v>18.734399999999997</v>
+        <f>D2*$Q$4+C2*(1-$Q$4)</f>
+        <v>2.9234927836257105</v>
       </c>
       <c r="C2">
         <f>PARS!C2</f>
-        <v>13.5</v>
+        <v>2.6026896854443837</v>
       </c>
       <c r="D2">
         <f>PARS!D2</f>
-        <v>19.5</v>
+        <v>2.9704144655697009</v>
       </c>
       <c r="E2">
-        <f>PARS!E2</f>
+        <f>PARS!H2</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <f>PARS!F2</f>
+        <f>PARS!I2</f>
         <v>1</v>
       </c>
       <c r="G2">
-        <f>PARS!G2</f>
+        <f>PARS!J2</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>PARS!H2</f>
+        <f>PARS!K2</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>PARS!I2</f>
+        <f>PARS!L2</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>PARS!J2</f>
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <f>PARS!K2</f>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>PARS!L2</f>
-        <v>0</v>
-      </c>
-      <c r="M2">
         <f>PARS!M2</f>
         <v>1</v>
       </c>
+      <c r="K2">
+        <f>PARS!N2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>PARS!O2</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>PARS!P2</f>
+        <v>1</v>
+      </c>
       <c r="N2">
-        <f>PARS!N2</f>
+        <f>PARS!Q2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B49" si="0">D3*$P$4+C3*(1-$P$4)</f>
-        <v>0.58596399999999993</v>
+        <f t="shared" ref="B3:B49" si="0">D3*$Q$4+C3*(1-$Q$4)</f>
+        <v>0.73407797270508834</v>
       </c>
       <c r="C3">
         <f>PARS!C3</f>
-        <v>0.49</v>
+        <v>-4.0005334613699206E-2</v>
       </c>
       <c r="D3">
         <f>PARS!D3</f>
-        <v>0.6</v>
+        <v>0.84729786038720356</v>
       </c>
       <c r="E3">
-        <f>PARS!E3</f>
+        <f>PARS!H3</f>
         <v>1</v>
       </c>
       <c r="F3">
-        <f>PARS!F3</f>
+        <f>PARS!I3</f>
         <v>1</v>
       </c>
       <c r="G3">
-        <f>PARS!G3</f>
+        <f>PARS!J3</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>PARS!H3</f>
+        <f>PARS!K3</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>PARS!I3</f>
+        <f>PARS!L3</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>PARS!J3</f>
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <f>PARS!K3</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f>PARS!L3</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
         <f>PARS!M3</f>
         <v>1</v>
       </c>
+      <c r="K3">
+        <f>PARS!N3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>PARS!O3</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>PARS!P3</f>
+        <v>1</v>
+      </c>
       <c r="N3">
-        <f>PARS!N3</f>
+        <f>PARS!Q3</f>
         <v>1</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>8.1123239999999999E-2</v>
+        <v>-2.7760508356678768</v>
       </c>
       <c r="C4">
         <f>PARS!C4</f>
-        <v>6.7949999999999997E-2</v>
+        <v>-2.3252603604544424</v>
       </c>
       <c r="D4">
         <f>PARS!D4</f>
-        <v>8.3049999999999999E-2</v>
+        <v>-2.8419848849998739</v>
       </c>
       <c r="E4">
-        <f>PARS!E4</f>
+        <f>PARS!H4</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>PARS!F4</f>
+        <f>PARS!I4</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f>PARS!G4</f>
+        <f>PARS!J4</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>PARS!H4</f>
+        <f>PARS!K4</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>PARS!I4</f>
+        <f>PARS!L4</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>PARS!J4</f>
+        <f>PARS!M4</f>
         <v>1</v>
       </c>
       <c r="K4">
-        <f>PARS!K4</f>
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <f>PARS!L4</f>
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <f>PARS!M4</f>
-        <v>0</v>
-      </c>
-      <c r="N4">
         <f>PARS!N4</f>
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="L4">
+        <f>PARS!O4</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>PARS!P4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>PARS!Q4</f>
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <f>0.8724</f>
         <v>0.87239999999999995</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f ca="1">RAND()</f>
-        <v>0.59351973546038517</v>
+        <v>0.62590969938694774</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>9.71096</v>
+        <v>2.2483556629095194</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
-        <v>5</v>
+        <v>1.6094379124341003</v>
       </c>
       <c r="D5">
         <f>PARS!D5</f>
-        <v>10.4</v>
+        <v>2.341805806147327</v>
       </c>
       <c r="E5">
-        <f>PARS!E5</f>
+        <f>PARS!H5</f>
         <v>1</v>
       </c>
       <c r="F5">
-        <f>PARS!F5</f>
+        <f>PARS!I5</f>
         <v>1</v>
       </c>
       <c r="G5">
-        <f>PARS!G5</f>
+        <f>PARS!J5</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>PARS!H5</f>
+        <f>PARS!K5</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>PARS!I5</f>
+        <f>PARS!L5</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>PARS!J5</f>
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <f>PARS!K5</f>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f>PARS!L5</f>
-        <v>0</v>
-      </c>
-      <c r="M5">
         <f>PARS!M5</f>
         <v>1</v>
       </c>
+      <c r="K5">
+        <f>PARS!N5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>PARS!O5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>PARS!P5</f>
+        <v>1</v>
+      </c>
       <c r="N5">
-        <f>PARS!N5</f>
+        <f>PARS!Q5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>878.78</v>
+        <v>6.8792276011902098</v>
       </c>
       <c r="C6">
         <f>PARS!C6</f>
-        <v>50</v>
+        <v>3.912023005428146</v>
       </c>
       <c r="D6">
         <f>PARS!D6</f>
-        <v>1000</v>
+        <v>7.3132203870903014</v>
       </c>
       <c r="E6">
-        <f>PARS!E6</f>
+        <f>PARS!H6</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>PARS!F6</f>
+        <f>PARS!I6</f>
         <v>1</v>
       </c>
       <c r="G6">
-        <f>PARS!G6</f>
+        <f>PARS!J6</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>PARS!H6</f>
+        <f>PARS!K6</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>PARS!I6</f>
+        <f>PARS!L6</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>PARS!J6</f>
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <f>PARS!K6</f>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f>PARS!L6</f>
-        <v>0</v>
-      </c>
-      <c r="M6">
         <f>PARS!M6</f>
         <v>1</v>
       </c>
+      <c r="K6">
+        <f>PARS!N6</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>PARS!O6</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>PARS!P6</f>
+        <v>1</v>
+      </c>
       <c r="N6">
-        <f>PARS!N6</f>
+        <f>PARS!Q6</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>76</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.56880503999999998</v>
+        <v>0.73918265340179634</v>
       </c>
       <c r="C7">
         <f>PARS!C7</f>
-        <v>0.495</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f>PARS!D7</f>
-        <v>0.5796</v>
+        <v>0.84729786038720356</v>
       </c>
       <c r="E7">
-        <f>PARS!E7</f>
+        <f>PARS!H7</f>
         <v>1</v>
       </c>
       <c r="F7">
-        <f>PARS!F7</f>
+        <f>PARS!I7</f>
         <v>1</v>
       </c>
       <c r="G7">
-        <f>PARS!G7</f>
+        <f>PARS!J7</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>PARS!H7</f>
+        <f>PARS!K7</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>PARS!I7</f>
+        <f>PARS!L7</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>PARS!J7</f>
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <f>PARS!K7</f>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f>PARS!L7</f>
-        <v>0</v>
-      </c>
-      <c r="M7">
         <f>PARS!M7</f>
         <v>1</v>
       </c>
+      <c r="K7">
+        <f>PARS!N7</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>PARS!O7</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>PARS!P7</f>
+        <v>1</v>
+      </c>
       <c r="N7">
-        <f>PARS!N7</f>
+        <f>PARS!Q7</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.27448</v>
+        <v>5.9917902447522264E-2</v>
       </c>
       <c r="C8">
         <f>PARS!C8</f>
-        <v>0.1</v>
+        <v>-2.3025850929940455</v>
       </c>
       <c r="D8">
         <f>PARS!D8</f>
-        <v>0.30000000000000004</v>
+        <v>0.40546510810816438</v>
       </c>
       <c r="E8">
-        <f>PARS!E8</f>
+        <f>PARS!H8</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>PARS!F8</f>
+        <f>PARS!I8</f>
         <v>1</v>
       </c>
       <c r="G8">
-        <f>PARS!G8</f>
+        <f>PARS!J8</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>PARS!H8</f>
+        <f>PARS!K8</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>PARS!I8</f>
+        <f>PARS!L8</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>PARS!J8</f>
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <f>PARS!K8</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>PARS!L8</f>
-        <v>1</v>
-      </c>
-      <c r="M8">
         <f>PARS!M8</f>
         <v>1</v>
       </c>
+      <c r="K8">
+        <f>PARS!N8</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>PARS!O8</f>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>PARS!P8</f>
+        <v>1</v>
+      </c>
       <c r="N8">
-        <f>PARS!N8</f>
+        <f>PARS!Q8</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>78</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1.18451844</v>
+        <v>5.9917902447522264E-2</v>
       </c>
       <c r="C9">
         <f>PARS!C9</f>
-        <v>0.43154999999999999</v>
+        <v>-2.3025850929940455</v>
       </c>
       <c r="D9">
         <f>PARS!D9</f>
-        <v>1.2946499999999999</v>
+        <v>0.40546510810816438</v>
       </c>
       <c r="E9">
-        <f>PARS!E9</f>
+        <f>PARS!H9</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>PARS!F9</f>
+        <f>PARS!I9</f>
         <v>1</v>
       </c>
       <c r="G9">
-        <f>PARS!G9</f>
+        <f>PARS!J9</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>PARS!H9</f>
+        <f>PARS!K9</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>PARS!I9</f>
+        <f>PARS!L9</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>PARS!J9</f>
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <f>PARS!K9</f>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f>PARS!L9</f>
-        <v>1</v>
-      </c>
-      <c r="M9">
         <f>PARS!M9</f>
         <v>1</v>
       </c>
+      <c r="K9">
+        <f>PARS!N9</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>PARS!O9</f>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>PARS!P9</f>
+        <v>1</v>
+      </c>
       <c r="N9">
-        <f>PARS!N9</f>
+        <f>PARS!Q9</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>79</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>1.18451844</v>
+        <v>-0.20205120539385513</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
-        <v>0.43154999999999999</v>
+        <v>-7.3612359878262576E-2</v>
       </c>
       <c r="D10">
         <f>PARS!D10</f>
-        <v>1.2946499999999999</v>
+        <v>-0.22083707963478771</v>
       </c>
       <c r="E10">
-        <f>PARS!E10</f>
+        <f>PARS!H10</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>PARS!F10</f>
+        <f>PARS!I10</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>PARS!G10</f>
+        <f>PARS!J10</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>PARS!H10</f>
+        <f>PARS!K10</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>PARS!I10</f>
+        <f>PARS!L10</f>
         <v>1</v>
       </c>
       <c r="J10">
-        <f>PARS!J10</f>
+        <f>PARS!M10</f>
         <v>1</v>
       </c>
       <c r="K10">
-        <f>PARS!K10</f>
+        <f>PARS!N10</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>PARS!L10</f>
+        <f>PARS!O10</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>PARS!M10</f>
+        <f>PARS!P10</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>PARS!N10</f>
+        <f>PARS!Q10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1753,161 +1768,161 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f>PARS!E11</f>
+        <f>PARS!H11</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>PARS!F11</f>
+        <f>PARS!I11</f>
         <v>1</v>
       </c>
       <c r="G11">
-        <f>PARS!G11</f>
+        <f>PARS!J11</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>PARS!H11</f>
+        <f>PARS!K11</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>PARS!I11</f>
+        <f>PARS!L11</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>PARS!J11</f>
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <f>PARS!K11</f>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f>PARS!L11</f>
-        <v>1</v>
-      </c>
-      <c r="M11">
         <f>PARS!M11</f>
         <v>1</v>
       </c>
+      <c r="K11">
+        <f>PARS!N11</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>PARS!O11</f>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f>PARS!P11</f>
+        <v>1</v>
+      </c>
       <c r="N11">
-        <f>PARS!N11</f>
+        <f>PARS!Q11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>23.737194185778787</v>
+        <v>25.315894905342514</v>
       </c>
       <c r="C12">
         <f>PARS!C12</f>
-        <v>16.527777597673573</v>
+        <v>17.626998263015263</v>
       </c>
       <c r="D12">
         <f>PARS!D12</f>
-        <v>24.791666396510362</v>
+        <v>26.44049739452289</v>
       </c>
       <c r="E12">
-        <f>PARS!E12</f>
+        <f>PARS!H12</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>PARS!F12</f>
+        <f>PARS!I12</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>PARS!G12</f>
+        <f>PARS!J12</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>PARS!H12</f>
+        <f>PARS!K12</f>
         <v>1</v>
       </c>
       <c r="I12">
-        <f>PARS!I12</f>
+        <f>PARS!L12</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>PARS!J12</f>
+        <f>PARS!M12</f>
         <v>1</v>
       </c>
       <c r="K12">
-        <f>PARS!K12</f>
+        <f>PARS!N12</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>PARS!L12</f>
+        <f>PARS!O12</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>PARS!M12</f>
+        <f>PARS!P12</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>PARS!N12</f>
+        <f>PARS!Q12</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>82</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1.9361999999999999</v>
+        <v>7.0254528688931144</v>
       </c>
       <c r="C13">
         <f>PARS!C13</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f>PARS!D13</f>
-        <v>2</v>
+        <v>7.9067547786486871</v>
       </c>
       <c r="E13">
-        <f>PARS!E13</f>
+        <f>PARS!H13</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>PARS!F13</f>
+        <f>PARS!I13</f>
         <v>1</v>
       </c>
       <c r="G13">
-        <f>PARS!G13</f>
+        <f>PARS!J13</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>PARS!H13</f>
+        <f>PARS!K13</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>PARS!I13</f>
+        <f>PARS!L13</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>PARS!J13</f>
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <f>PARS!K13</f>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f>PARS!L13</f>
-        <v>0</v>
-      </c>
-      <c r="M13">
         <f>PARS!M13</f>
         <v>1</v>
       </c>
+      <c r="K13">
+        <f>PARS!N13</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>PARS!O13</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>PARS!P13</f>
+        <v>1</v>
+      </c>
       <c r="N13">
-        <f>PARS!N13</f>
+        <f>PARS!Q13</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1924,47 +1939,47 @@
         <v>0.4</v>
       </c>
       <c r="E14">
-        <f>PARS!E14</f>
+        <f>PARS!H14</f>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>PARS!F14</f>
+        <f>PARS!I14</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>PARS!G14</f>
+        <f>PARS!J14</f>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>PARS!H14</f>
+        <f>PARS!K14</f>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>PARS!I14</f>
+        <f>PARS!L14</f>
         <v>1</v>
       </c>
       <c r="J14">
-        <f>PARS!J14</f>
+        <f>PARS!M14</f>
         <v>1</v>
       </c>
       <c r="K14">
-        <f>PARS!K14</f>
+        <f>PARS!N14</f>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>PARS!L14</f>
+        <f>PARS!O14</f>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>PARS!M14</f>
+        <f>PARS!P14</f>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>PARS!N14</f>
+        <f>PARS!Q14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>195</v>
       </c>
@@ -1979,100 +1994,100 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f>PARS!E15</f>
+        <f>PARS!H15</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>PARS!F15</f>
+        <f>PARS!I15</f>
         <v>1</v>
       </c>
       <c r="G15">
-        <f>PARS!G15</f>
+        <f>PARS!J15</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>PARS!H15</f>
+        <f>PARS!K15</f>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>PARS!I15</f>
+        <f>PARS!L15</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>PARS!J15</f>
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <f>PARS!K15</f>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f>PARS!L15</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
         <f>PARS!M15</f>
         <v>1</v>
       </c>
+      <c r="K15">
+        <f>PARS!N15</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>PARS!O15</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>PARS!P15</f>
+        <v>1</v>
+      </c>
       <c r="N15">
-        <f>PARS!N15</f>
+        <f>PARS!Q15</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>84</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0.20106799999999997</v>
+        <v>0.87239999999999995</v>
       </c>
       <c r="C16">
         <f>PARS!C16</f>
-        <v>0.13999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <f>PARS!D16</f>
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <f>PARS!E16</f>
+        <f>PARS!H16</f>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>PARS!F16</f>
+        <f>PARS!I16</f>
         <v>1</v>
       </c>
       <c r="G16">
-        <f>PARS!G16</f>
+        <f>PARS!J16</f>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>PARS!H16</f>
+        <f>PARS!K16</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>PARS!I16</f>
+        <f>PARS!L16</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>PARS!J16</f>
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <f>PARS!K16</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>PARS!L16</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
         <f>PARS!M16</f>
         <v>1</v>
       </c>
+      <c r="K16">
+        <f>PARS!N16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>PARS!O16</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>PARS!P16</f>
+        <v>1</v>
+      </c>
       <c r="N16">
-        <f>PARS!N16</f>
+        <f>PARS!Q16</f>
         <v>1</v>
       </c>
     </row>
@@ -2082,54 +2097,54 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>2.7065199999999998</v>
+        <v>0.9129176377874767</v>
       </c>
       <c r="C17">
         <f>PARS!C17</f>
-        <v>0.7</v>
+        <v>-0.35667494393873245</v>
       </c>
       <c r="D17">
         <f>PARS!D17</f>
-        <v>3</v>
+        <v>1.0986122886681098</v>
       </c>
       <c r="E17">
-        <f>PARS!E17</f>
+        <f>PARS!H17</f>
         <v>1</v>
       </c>
       <c r="F17">
-        <f>PARS!F17</f>
+        <f>PARS!I17</f>
         <v>1</v>
       </c>
       <c r="G17">
-        <f>PARS!G17</f>
+        <f>PARS!J17</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>PARS!H17</f>
+        <f>PARS!K17</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>PARS!I17</f>
+        <f>PARS!L17</f>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>PARS!J17</f>
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <f>PARS!K17</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>PARS!L17</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
         <f>PARS!M17</f>
         <v>1</v>
       </c>
+      <c r="K17">
+        <f>PARS!N17</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>PARS!O17</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>PARS!P17</f>
+        <v>1</v>
+      </c>
       <c r="N17">
-        <f>PARS!N17</f>
+        <f>PARS!Q17</f>
         <v>1</v>
       </c>
     </row>
@@ -2139,54 +2154,54 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>3.7192799999999999</v>
+        <v>1.2844047790825028</v>
       </c>
       <c r="C18">
         <f>PARS!C18</f>
-        <v>1.8</v>
+        <v>0.58778666490211906</v>
       </c>
       <c r="D18">
         <f>PARS!D18</f>
-        <v>4</v>
+        <v>1.3862943611198906</v>
       </c>
       <c r="E18">
-        <f>PARS!E18</f>
+        <f>PARS!H18</f>
         <v>1</v>
       </c>
       <c r="F18">
-        <f>PARS!F18</f>
+        <f>PARS!I18</f>
         <v>1</v>
       </c>
       <c r="G18">
-        <f>PARS!G18</f>
+        <f>PARS!J18</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>PARS!H18</f>
+        <f>PARS!K18</f>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>PARS!I18</f>
+        <f>PARS!L18</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>PARS!J18</f>
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <f>PARS!K18</f>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f>PARS!L18</f>
-        <v>1</v>
-      </c>
-      <c r="M18">
         <f>PARS!M18</f>
         <v>1</v>
       </c>
+      <c r="K18">
+        <f>PARS!N18</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>PARS!O18</f>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f>PARS!P18</f>
+        <v>1</v>
+      </c>
       <c r="N18">
-        <f>PARS!N18</f>
+        <f>PARS!Q18</f>
         <v>1</v>
       </c>
     </row>
@@ -2196,54 +2211,54 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0.89791999999999994</v>
+        <v>5.7450870128248193</v>
       </c>
       <c r="C19">
         <f>PARS!C19</f>
-        <v>0.2</v>
+        <v>-2.1972245773362196</v>
       </c>
       <c r="D19">
         <f>PARS!D19</f>
+        <v>6.9067547786484651</v>
+      </c>
+      <c r="E19">
+        <f>PARS!H19</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>PARS!I19</f>
         <v>1</v>
       </c>
-      <c r="E19">
-        <f>PARS!E19</f>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f>PARS!F19</f>
-        <v>1</v>
-      </c>
       <c r="G19">
-        <f>PARS!G19</f>
+        <f>PARS!J19</f>
         <v>0</v>
       </c>
       <c r="H19">
-        <f>PARS!H19</f>
+        <f>PARS!K19</f>
         <v>0</v>
       </c>
       <c r="I19">
-        <f>PARS!I19</f>
+        <f>PARS!L19</f>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>PARS!J19</f>
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <f>PARS!K19</f>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>PARS!L19</f>
-        <v>0</v>
-      </c>
-      <c r="M19">
         <f>PARS!M19</f>
         <v>1</v>
       </c>
+      <c r="K19">
+        <f>PARS!N19</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>PARS!O19</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>PARS!P19</f>
+        <v>1</v>
+      </c>
       <c r="N19">
-        <f>PARS!N19</f>
+        <f>PARS!Q19</f>
         <v>1</v>
       </c>
     </row>
@@ -2253,54 +2268,54 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0.93619999999999992</v>
+        <v>6.0254528688929208</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <f>PARS!D20</f>
+        <v>6.9067547786484651</v>
+      </c>
+      <c r="E20">
+        <f>PARS!H20</f>
         <v>1</v>
       </c>
-      <c r="E20">
-        <f>PARS!E20</f>
+      <c r="F20">
+        <f>PARS!I20</f>
         <v>1</v>
       </c>
-      <c r="F20">
-        <f>PARS!F20</f>
-        <v>1</v>
-      </c>
       <c r="G20">
-        <f>PARS!G20</f>
+        <f>PARS!J20</f>
         <v>0</v>
       </c>
       <c r="H20">
-        <f>PARS!H20</f>
+        <f>PARS!K20</f>
         <v>0</v>
       </c>
       <c r="I20">
-        <f>PARS!I20</f>
+        <f>PARS!L20</f>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>PARS!J20</f>
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <f>PARS!K20</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f>PARS!L20</f>
-        <v>0</v>
-      </c>
-      <c r="M20">
         <f>PARS!M20</f>
         <v>1</v>
       </c>
+      <c r="K20">
+        <f>PARS!N20</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>PARS!O20</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>PARS!P20</f>
+        <v>1</v>
+      </c>
       <c r="N20">
-        <f>PARS!N20</f>
+        <f>PARS!Q20</f>
         <v>1</v>
       </c>
     </row>
@@ -2310,54 +2325,54 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>8.8515999999999995</v>
+        <v>2.0087752351280055</v>
       </c>
       <c r="C21">
         <f>PARS!C21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <f>PARS!D21</f>
-        <v>10</v>
+        <v>2.3025850929940459</v>
       </c>
       <c r="E21">
-        <f>PARS!E21</f>
+        <f>PARS!H21</f>
         <v>1</v>
       </c>
       <c r="F21">
-        <f>PARS!F21</f>
+        <f>PARS!I21</f>
         <v>1</v>
       </c>
       <c r="G21">
-        <f>PARS!G21</f>
+        <f>PARS!J21</f>
         <v>0</v>
       </c>
       <c r="H21">
-        <f>PARS!H21</f>
+        <f>PARS!K21</f>
         <v>0</v>
       </c>
       <c r="I21">
-        <f>PARS!I21</f>
+        <f>PARS!L21</f>
         <v>0</v>
       </c>
       <c r="J21">
-        <f>PARS!J21</f>
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <f>PARS!K21</f>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f>PARS!L21</f>
-        <v>0</v>
-      </c>
-      <c r="M21">
         <f>PARS!M21</f>
         <v>1</v>
       </c>
+      <c r="K21">
+        <f>PARS!N21</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>PARS!O21</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>PARS!P21</f>
+        <v>1</v>
+      </c>
       <c r="N21">
-        <f>PARS!N21</f>
+        <f>PARS!Q21</f>
         <v>1</v>
       </c>
     </row>
@@ -2367,54 +2382,54 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>3.4895999999999998</v>
+        <v>0.91559334277495219</v>
       </c>
       <c r="C22">
         <f>PARS!C22</f>
-        <v>0</v>
+        <v>-2.3025850929940455</v>
       </c>
       <c r="D22">
         <f>PARS!D22</f>
-        <v>4</v>
+        <v>1.3862943611198906</v>
       </c>
       <c r="E22">
-        <f>PARS!E22</f>
+        <f>PARS!H22</f>
         <v>1</v>
       </c>
       <c r="F22">
-        <f>PARS!F22</f>
+        <f>PARS!I22</f>
         <v>1</v>
       </c>
       <c r="G22">
-        <f>PARS!G22</f>
+        <f>PARS!J22</f>
         <v>0</v>
       </c>
       <c r="H22">
-        <f>PARS!H22</f>
+        <f>PARS!K22</f>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>PARS!I22</f>
+        <f>PARS!L22</f>
         <v>0</v>
       </c>
       <c r="J22">
-        <f>PARS!J22</f>
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <f>PARS!K22</f>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f>PARS!L22</f>
-        <v>0</v>
-      </c>
-      <c r="M22">
         <f>PARS!M22</f>
         <v>1</v>
       </c>
+      <c r="K22">
+        <f>PARS!N22</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>PARS!O22</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>PARS!P22</f>
+        <v>1</v>
+      </c>
       <c r="N22">
-        <f>PARS!N22</f>
+        <f>PARS!Q22</f>
         <v>1</v>
       </c>
     </row>
@@ -2424,54 +2439,54 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0.85640799999999995</v>
+        <v>-0.17330008246387557</v>
       </c>
       <c r="C23">
         <f>PARS!C23</f>
-        <v>0.48999999999999994</v>
+        <v>-0.71334988787746489</v>
       </c>
       <c r="D23">
         <f>PARS!D23</f>
-        <v>0.90999999999999992</v>
+        <v>-9.4310679471241415E-2</v>
       </c>
       <c r="E23">
-        <f>PARS!E23</f>
+        <f>PARS!H23</f>
         <v>1</v>
       </c>
       <c r="F23">
-        <f>PARS!F23</f>
+        <f>PARS!I23</f>
         <v>1</v>
       </c>
       <c r="G23">
-        <f>PARS!G23</f>
+        <f>PARS!J23</f>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>PARS!H23</f>
+        <f>PARS!K23</f>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>PARS!I23</f>
+        <f>PARS!L23</f>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>PARS!J23</f>
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <f>PARS!K23</f>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f>PARS!L23</f>
-        <v>0</v>
-      </c>
-      <c r="M23">
         <f>PARS!M23</f>
         <v>1</v>
       </c>
+      <c r="K23">
+        <f>PARS!N23</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>PARS!O23</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>PARS!P23</f>
+        <v>1</v>
+      </c>
       <c r="N23">
-        <f>PARS!N23</f>
+        <f>PARS!Q23</f>
         <v>1</v>
       </c>
     </row>
@@ -2481,54 +2496,54 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>10.4688</v>
+        <v>1.2864029876769305</v>
       </c>
       <c r="C24">
         <f>PARS!C24</f>
-        <v>0</v>
+        <v>-6.9077552789821368</v>
       </c>
       <c r="D24">
         <f>PARS!D24</f>
-        <v>12</v>
+        <v>2.4849066497880004</v>
       </c>
       <c r="E24">
-        <f>PARS!E24</f>
+        <f>PARS!H24</f>
         <v>1</v>
       </c>
       <c r="F24">
-        <f>PARS!F24</f>
+        <f>PARS!I24</f>
         <v>1</v>
       </c>
       <c r="G24">
-        <f>PARS!G24</f>
+        <f>PARS!J24</f>
         <v>0</v>
       </c>
       <c r="H24">
-        <f>PARS!H24</f>
+        <f>PARS!K24</f>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>PARS!I24</f>
+        <f>PARS!L24</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>PARS!J24</f>
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <f>PARS!K24</f>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f>PARS!L24</f>
-        <v>0</v>
-      </c>
-      <c r="M24">
         <f>PARS!M24</f>
         <v>1</v>
       </c>
+      <c r="K24">
+        <f>PARS!N24</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>PARS!O24</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>PARS!P24</f>
+        <v>1</v>
+      </c>
       <c r="N24">
-        <f>PARS!N24</f>
+        <f>PARS!Q24</f>
         <v>1</v>
       </c>
     </row>
@@ -2549,43 +2564,43 @@
         <v>0.3</v>
       </c>
       <c r="E25">
-        <f>PARS!E25</f>
+        <f>PARS!H25</f>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>PARS!F25</f>
+        <f>PARS!I25</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>PARS!G25</f>
+        <f>PARS!J25</f>
         <v>0</v>
       </c>
       <c r="H25">
-        <f>PARS!H25</f>
+        <f>PARS!K25</f>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>PARS!I25</f>
+        <f>PARS!L25</f>
         <v>1</v>
       </c>
       <c r="J25">
-        <f>PARS!J25</f>
+        <f>PARS!M25</f>
         <v>1</v>
       </c>
       <c r="K25">
-        <f>PARS!K25</f>
+        <f>PARS!N25</f>
         <v>0</v>
       </c>
       <c r="L25">
-        <f>PARS!L25</f>
+        <f>PARS!O25</f>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>PARS!M25</f>
+        <f>PARS!P25</f>
         <v>0</v>
       </c>
       <c r="N25">
-        <f>PARS!N25</f>
+        <f>PARS!Q25</f>
         <v>0</v>
       </c>
     </row>
@@ -2606,43 +2621,43 @@
         <v>0.3</v>
       </c>
       <c r="E26">
-        <f>PARS!E26</f>
+        <f>PARS!H26</f>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>PARS!F26</f>
+        <f>PARS!I26</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>PARS!G26</f>
+        <f>PARS!J26</f>
         <v>0</v>
       </c>
       <c r="H26">
-        <f>PARS!H26</f>
+        <f>PARS!K26</f>
         <v>0</v>
       </c>
       <c r="I26">
-        <f>PARS!I26</f>
+        <f>PARS!L26</f>
         <v>1</v>
       </c>
       <c r="J26">
-        <f>PARS!J26</f>
+        <f>PARS!M26</f>
         <v>1</v>
       </c>
       <c r="K26">
-        <f>PARS!K26</f>
+        <f>PARS!N26</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>PARS!L26</f>
+        <f>PARS!O26</f>
         <v>0</v>
       </c>
       <c r="M26">
-        <f>PARS!M26</f>
+        <f>PARS!P26</f>
         <v>0</v>
       </c>
       <c r="N26">
-        <f>PARS!N26</f>
+        <f>PARS!Q26</f>
         <v>0</v>
       </c>
     </row>
@@ -2652,54 +2667,54 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>1.8532599999999999</v>
+        <v>0.5839641849165802</v>
       </c>
       <c r="C27">
         <f>PARS!C27</f>
-        <v>0.85</v>
+        <v>-0.16251892949777494</v>
       </c>
       <c r="D27">
         <f>PARS!D27</f>
-        <v>2</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="E27">
-        <f>PARS!E27</f>
+        <f>PARS!H27</f>
         <v>1</v>
       </c>
       <c r="F27">
-        <f>PARS!F27</f>
+        <f>PARS!I27</f>
         <v>1</v>
       </c>
       <c r="G27">
-        <f>PARS!G27</f>
+        <f>PARS!J27</f>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>PARS!H27</f>
+        <f>PARS!K27</f>
         <v>0</v>
       </c>
       <c r="I27">
-        <f>PARS!I27</f>
+        <f>PARS!L27</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f>PARS!J27</f>
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <f>PARS!K27</f>
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f>PARS!L27</f>
-        <v>0</v>
-      </c>
-      <c r="M27">
         <f>PARS!M27</f>
         <v>1</v>
       </c>
+      <c r="K27">
+        <f>PARS!N27</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>PARS!O27</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f>PARS!P27</f>
+        <v>1</v>
+      </c>
       <c r="N27">
-        <f>PARS!N27</f>
+        <f>PARS!Q27</f>
         <v>1</v>
       </c>
     </row>
@@ -2709,54 +2724,54 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>5.4896000000000003</v>
+        <v>1.6515765411940042</v>
       </c>
       <c r="C28">
         <f>PARS!C28</f>
-        <v>2</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="D28">
         <f>PARS!D28</f>
-        <v>6</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="E28">
-        <f>PARS!E28</f>
+        <f>PARS!H28</f>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>PARS!F28</f>
+        <f>PARS!I28</f>
         <v>1</v>
       </c>
       <c r="G28">
-        <f>PARS!G28</f>
+        <f>PARS!J28</f>
         <v>0</v>
       </c>
       <c r="H28">
-        <f>PARS!H28</f>
+        <f>PARS!K28</f>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>PARS!I28</f>
+        <f>PARS!L28</f>
         <v>0</v>
       </c>
       <c r="J28">
-        <f>PARS!J28</f>
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <f>PARS!K28</f>
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <f>PARS!L28</f>
-        <v>1</v>
-      </c>
-      <c r="M28">
         <f>PARS!M28</f>
         <v>1</v>
       </c>
+      <c r="K28">
+        <f>PARS!N28</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>PARS!O28</f>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f>PARS!P28</f>
+        <v>1</v>
+      </c>
       <c r="N28">
-        <f>PARS!N28</f>
+        <f>PARS!Q28</f>
         <v>1</v>
       </c>
     </row>
@@ -2766,54 +2781,54 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0.781655816</v>
+        <v>0.69808632356283817</v>
       </c>
       <c r="C29">
         <f>PARS!C29</f>
-        <v>0.44722999999999996</v>
+        <v>0.39941511352741998</v>
       </c>
       <c r="D29">
         <f>PARS!D29</f>
-        <v>0.83057000000000003</v>
+        <v>0.74177092512235143</v>
       </c>
       <c r="E29">
-        <f>PARS!E29</f>
+        <f>PARS!H29</f>
         <v>0</v>
       </c>
       <c r="F29">
-        <f>PARS!F29</f>
+        <f>PARS!I29</f>
         <v>1</v>
       </c>
       <c r="G29">
-        <f>PARS!G29</f>
+        <f>PARS!J29</f>
         <v>0</v>
       </c>
       <c r="H29">
-        <f>PARS!H29</f>
+        <f>PARS!K29</f>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>PARS!I29</f>
+        <f>PARS!L29</f>
         <v>0</v>
       </c>
       <c r="J29">
-        <f>PARS!J29</f>
+        <f>PARS!M29</f>
         <v>1</v>
       </c>
       <c r="K29">
-        <f>PARS!K29</f>
+        <f>PARS!N29</f>
         <v>1</v>
       </c>
       <c r="L29">
-        <f>PARS!L29</f>
+        <f>PARS!O29</f>
         <v>1</v>
       </c>
       <c r="M29">
-        <f>PARS!M29</f>
+        <f>PARS!P29</f>
         <v>0</v>
       </c>
       <c r="N29">
-        <f>PARS!N29</f>
+        <f>PARS!Q29</f>
         <v>1</v>
       </c>
     </row>
@@ -2823,54 +2838,54 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>1.0315008000000001E-2</v>
+        <v>-6.3761596685296542</v>
       </c>
       <c r="C30">
         <f>PARS!C30</f>
-        <v>8.6400000000000001E-3</v>
+        <v>-2.3229960902541733</v>
       </c>
       <c r="D30">
         <f>PARS!D30</f>
-        <v>1.056E-2</v>
+        <v>-6.9689882707625195</v>
       </c>
       <c r="E30">
-        <f>PARS!E30</f>
+        <f>PARS!H30</f>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>PARS!F30</f>
+        <f>PARS!I30</f>
         <v>1</v>
       </c>
       <c r="G30">
-        <f>PARS!G30</f>
+        <f>PARS!J30</f>
         <v>0</v>
       </c>
       <c r="H30">
-        <f>PARS!H30</f>
+        <f>PARS!K30</f>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>PARS!I30</f>
+        <f>PARS!L30</f>
         <v>0</v>
       </c>
       <c r="J30">
-        <f>PARS!J30</f>
+        <f>PARS!M30</f>
         <v>1</v>
       </c>
       <c r="K30">
-        <f>PARS!K30</f>
+        <f>PARS!N30</f>
         <v>1</v>
       </c>
       <c r="L30">
-        <f>PARS!L30</f>
+        <f>PARS!O30</f>
         <v>1</v>
       </c>
       <c r="M30">
-        <f>PARS!M30</f>
+        <f>PARS!P30</f>
         <v>0</v>
       </c>
       <c r="N30">
-        <f>PARS!N30</f>
+        <f>PARS!Q30</f>
         <v>1</v>
       </c>
     </row>
@@ -2880,54 +2895,54 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0.61172000000000004</v>
+        <v>-0.50977231908508835</v>
       </c>
       <c r="C31">
         <f>PARS!C31</f>
-        <v>0.35</v>
+        <v>-1.0498221244986778</v>
       </c>
       <c r="D31">
         <f>PARS!D31</f>
-        <v>0.65</v>
+        <v>-0.43078291609245423</v>
       </c>
       <c r="E31">
-        <f>PARS!E31</f>
+        <f>PARS!H31</f>
         <v>1</v>
       </c>
       <c r="F31">
-        <f>PARS!F31</f>
+        <f>PARS!I31</f>
         <v>1</v>
       </c>
       <c r="G31">
-        <f>PARS!G31</f>
+        <f>PARS!J31</f>
         <v>0</v>
       </c>
       <c r="H31">
-        <f>PARS!H31</f>
+        <f>PARS!K31</f>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>PARS!I31</f>
+        <f>PARS!L31</f>
         <v>0</v>
       </c>
       <c r="J31">
-        <f>PARS!J31</f>
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <f>PARS!K31</f>
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <f>PARS!L31</f>
-        <v>0</v>
-      </c>
-      <c r="M31">
         <f>PARS!M31</f>
         <v>1</v>
       </c>
+      <c r="K31">
+        <f>PARS!N31</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>PARS!O31</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f>PARS!P31</f>
+        <v>1</v>
+      </c>
       <c r="N31">
-        <f>PARS!N31</f>
+        <f>PARS!Q31</f>
         <v>1</v>
       </c>
     </row>
@@ -2948,47 +2963,47 @@
         <v>1.16649</v>
       </c>
       <c r="E32">
-        <f>PARS!E32</f>
+        <f>PARS!H32</f>
         <v>0</v>
       </c>
       <c r="F32">
-        <f>PARS!F32</f>
+        <f>PARS!I32</f>
         <v>1</v>
       </c>
       <c r="G32">
-        <f>PARS!G32</f>
+        <f>PARS!J32</f>
         <v>0</v>
       </c>
       <c r="H32">
-        <f>PARS!H32</f>
+        <f>PARS!K32</f>
         <v>0</v>
       </c>
       <c r="I32">
-        <f>PARS!I32</f>
+        <f>PARS!L32</f>
         <v>0</v>
       </c>
       <c r="J32">
-        <f>PARS!J32</f>
+        <f>PARS!M32</f>
         <v>1</v>
       </c>
       <c r="K32">
-        <f>PARS!K32</f>
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <f>PARS!L32</f>
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <f>PARS!M32</f>
-        <v>0</v>
-      </c>
-      <c r="N32">
         <f>PARS!N32</f>
         <v>1</v>
       </c>
+      <c r="L32">
+        <f>PARS!O32</f>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f>PARS!P32</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>PARS!Q32</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -3005,47 +3020,47 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <f>PARS!E33</f>
+        <f>PARS!H33</f>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>PARS!F33</f>
+        <f>PARS!I33</f>
         <v>0</v>
       </c>
       <c r="G33">
-        <f>PARS!G33</f>
+        <f>PARS!J33</f>
         <v>0</v>
       </c>
       <c r="H33">
-        <f>PARS!H33</f>
+        <f>PARS!K33</f>
         <v>0</v>
       </c>
       <c r="I33">
-        <f>PARS!I33</f>
+        <f>PARS!L33</f>
         <v>1</v>
       </c>
       <c r="J33">
-        <f>PARS!J33</f>
+        <f>PARS!M33</f>
         <v>1</v>
       </c>
       <c r="K33">
-        <f>PARS!K33</f>
+        <f>PARS!N33</f>
         <v>0</v>
       </c>
       <c r="L33">
-        <f>PARS!L33</f>
+        <f>PARS!O33</f>
         <v>0</v>
       </c>
       <c r="M33">
-        <f>PARS!M33</f>
+        <f>PARS!P33</f>
         <v>0</v>
       </c>
       <c r="N33">
-        <f>PARS!N33</f>
+        <f>PARS!Q33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -3062,47 +3077,47 @@
         <v>1.68272</v>
       </c>
       <c r="E34">
-        <f>PARS!E34</f>
+        <f>PARS!H34</f>
         <v>0</v>
       </c>
       <c r="F34">
-        <f>PARS!F34</f>
+        <f>PARS!I34</f>
         <v>1</v>
       </c>
       <c r="G34">
-        <f>PARS!G34</f>
+        <f>PARS!J34</f>
         <v>0</v>
       </c>
       <c r="H34">
-        <f>PARS!H34</f>
+        <f>PARS!K34</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f>PARS!I34</f>
+        <f>PARS!L34</f>
         <v>0</v>
       </c>
       <c r="J34">
-        <f>PARS!J34</f>
+        <f>PARS!M34</f>
         <v>1</v>
       </c>
       <c r="K34">
-        <f>PARS!K34</f>
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <f>PARS!L34</f>
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <f>PARS!M34</f>
-        <v>0</v>
-      </c>
-      <c r="N34">
         <f>PARS!N34</f>
         <v>1</v>
       </c>
+      <c r="L34">
+        <f>PARS!O34</f>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <f>PARS!P34</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>PARS!Q34</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -3119,53 +3134,53 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <f>PARS!E35</f>
+        <f>PARS!H35</f>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>PARS!F35</f>
+        <f>PARS!I35</f>
         <v>0</v>
       </c>
       <c r="G35">
-        <f>PARS!G35</f>
+        <f>PARS!J35</f>
         <v>0</v>
       </c>
       <c r="H35">
-        <f>PARS!H35</f>
+        <f>PARS!K35</f>
         <v>1</v>
       </c>
       <c r="I35">
-        <f>PARS!I35</f>
+        <f>PARS!L35</f>
         <v>0</v>
       </c>
       <c r="J35">
-        <f>PARS!J35</f>
+        <f>PARS!M35</f>
         <v>1</v>
       </c>
       <c r="K35">
-        <f>PARS!K35</f>
+        <f>PARS!N35</f>
         <v>0</v>
       </c>
       <c r="L35">
-        <f>PARS!L35</f>
+        <f>PARS!O35</f>
         <v>0</v>
       </c>
       <c r="M35">
-        <f>PARS!M35</f>
+        <f>PARS!P35</f>
         <v>0</v>
       </c>
       <c r="N35">
-        <f>PARS!N35</f>
+        <f>PARS!Q35</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>104</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>10.4688</v>
+        <v>2.1678325612750515</v>
       </c>
       <c r="C36">
         <f>PARS!C36</f>
@@ -3173,164 +3188,164 @@
       </c>
       <c r="D36">
         <f>PARS!D36</f>
-        <v>12</v>
+        <v>2.4849066497880004</v>
       </c>
       <c r="E36">
-        <f>PARS!E36</f>
+        <f>PARS!H36</f>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>PARS!F36</f>
+        <f>PARS!I36</f>
         <v>0</v>
       </c>
       <c r="G36">
-        <f>PARS!G36</f>
+        <f>PARS!J36</f>
         <v>0</v>
       </c>
       <c r="H36">
-        <f>PARS!H36</f>
+        <f>PARS!K36</f>
         <v>0</v>
       </c>
       <c r="I36">
-        <f>PARS!I36</f>
+        <f>PARS!L36</f>
         <v>1</v>
       </c>
       <c r="J36">
-        <f>PARS!J36</f>
+        <f>PARS!M36</f>
         <v>1</v>
       </c>
       <c r="K36">
-        <f>PARS!K36</f>
+        <f>PARS!N36</f>
         <v>0</v>
       </c>
       <c r="L36">
-        <f>PARS!L36</f>
+        <f>PARS!O36</f>
         <v>0</v>
       </c>
       <c r="M36">
-        <f>PARS!M36</f>
+        <f>PARS!P36</f>
         <v>0</v>
       </c>
       <c r="N36">
-        <f>PARS!N36</f>
+        <f>PARS!Q36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>105</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>58.160290799999999</v>
+        <v>2.7823974983334221</v>
       </c>
       <c r="C37">
         <f>PARS!C37</f>
-        <v>0</v>
+        <v>-6.9077552789821368</v>
       </c>
       <c r="D37">
         <f>PARS!D37</f>
-        <v>66.667000000000002</v>
+        <v>4.1997100778674268</v>
       </c>
       <c r="E37">
-        <f>PARS!E37</f>
+        <f>PARS!H37</f>
         <v>1</v>
       </c>
       <c r="F37">
-        <f>PARS!F37</f>
+        <f>PARS!I37</f>
         <v>1</v>
       </c>
       <c r="G37">
-        <f>PARS!G37</f>
+        <f>PARS!J37</f>
         <v>0</v>
       </c>
       <c r="H37">
-        <f>PARS!H37</f>
+        <f>PARS!K37</f>
         <v>0</v>
       </c>
       <c r="I37">
-        <f>PARS!I37</f>
+        <f>PARS!L37</f>
         <v>0</v>
       </c>
       <c r="J37">
-        <f>PARS!J37</f>
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <f>PARS!K37</f>
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <f>PARS!L37</f>
-        <v>0</v>
-      </c>
-      <c r="M37">
         <f>PARS!M37</f>
         <v>1</v>
       </c>
+      <c r="K37">
+        <f>PARS!N37</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>PARS!O37</f>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f>PARS!P37</f>
+        <v>1</v>
+      </c>
       <c r="N37">
-        <f>PARS!N37</f>
+        <f>PARS!Q37</f>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>106</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>0.43619999999999998</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C38">
         <f>PARS!C38</f>
-        <v>0</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D38">
         <f>PARS!D38</f>
-        <v>0.5</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E38">
-        <f>PARS!E38</f>
+        <f>PARS!H38</f>
         <v>0</v>
       </c>
       <c r="F38">
-        <f>PARS!F38</f>
+        <f>PARS!I38</f>
         <v>1</v>
       </c>
       <c r="G38">
-        <f>PARS!G38</f>
+        <f>PARS!J38</f>
         <v>0</v>
       </c>
       <c r="H38">
-        <f>PARS!H38</f>
+        <f>PARS!K38</f>
         <v>0</v>
       </c>
       <c r="I38">
-        <f>PARS!I38</f>
+        <f>PARS!L38</f>
         <v>0</v>
       </c>
       <c r="J38">
-        <f>PARS!J38</f>
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <f>PARS!K38</f>
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <f>PARS!L38</f>
-        <v>0</v>
-      </c>
-      <c r="M38">
         <f>PARS!M38</f>
         <v>1</v>
       </c>
+      <c r="K38">
+        <f>PARS!N38</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f>PARS!O38</f>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f>PARS!P38</f>
+        <v>1</v>
+      </c>
       <c r="N38">
-        <f>PARS!N38</f>
+        <f>PARS!Q38</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -3347,47 +3362,47 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <f>PARS!E39</f>
+        <f>PARS!H39</f>
         <v>0</v>
       </c>
       <c r="F39">
-        <f>PARS!F39</f>
+        <f>PARS!I39</f>
         <v>0</v>
       </c>
       <c r="G39">
-        <f>PARS!G39</f>
+        <f>PARS!J39</f>
         <v>0</v>
       </c>
       <c r="H39">
-        <f>PARS!H39</f>
+        <f>PARS!K39</f>
         <v>0</v>
       </c>
       <c r="I39">
-        <f>PARS!I39</f>
+        <f>PARS!L39</f>
         <v>1</v>
       </c>
       <c r="J39">
-        <f>PARS!J39</f>
+        <f>PARS!M39</f>
         <v>1</v>
       </c>
       <c r="K39">
-        <f>PARS!K39</f>
+        <f>PARS!N39</f>
         <v>0</v>
       </c>
       <c r="L39">
-        <f>PARS!L39</f>
+        <f>PARS!O39</f>
         <v>0</v>
       </c>
       <c r="M39">
-        <f>PARS!M39</f>
+        <f>PARS!P39</f>
         <v>0</v>
       </c>
       <c r="N39">
-        <f>PARS!N39</f>
+        <f>PARS!Q39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -3404,47 +3419,47 @@
         <v>0.26712328767123289</v>
       </c>
       <c r="E40">
-        <f>PARS!E40</f>
+        <f>PARS!H40</f>
         <v>0</v>
       </c>
       <c r="F40">
-        <f>PARS!F40</f>
+        <f>PARS!I40</f>
         <v>0</v>
       </c>
       <c r="G40">
-        <f>PARS!G40</f>
+        <f>PARS!J40</f>
         <v>0</v>
       </c>
       <c r="H40">
-        <f>PARS!H40</f>
+        <f>PARS!K40</f>
         <v>1</v>
       </c>
       <c r="I40">
-        <f>PARS!I40</f>
+        <f>PARS!L40</f>
         <v>0</v>
       </c>
       <c r="J40">
-        <f>PARS!J40</f>
+        <f>PARS!M40</f>
         <v>1</v>
       </c>
       <c r="K40">
-        <f>PARS!K40</f>
+        <f>PARS!N40</f>
         <v>0</v>
       </c>
       <c r="L40">
-        <f>PARS!L40</f>
+        <f>PARS!O40</f>
         <v>0</v>
       </c>
       <c r="M40">
-        <f>PARS!M40</f>
+        <f>PARS!P40</f>
         <v>0</v>
       </c>
       <c r="N40">
-        <f>PARS!N40</f>
+        <f>PARS!Q40</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -3461,47 +3476,47 @@
         <v>1.49</v>
       </c>
       <c r="E41">
-        <f>PARS!E41</f>
+        <f>PARS!H41</f>
         <v>0</v>
       </c>
       <c r="F41">
-        <f>PARS!F41</f>
+        <f>PARS!I41</f>
         <v>0</v>
       </c>
       <c r="G41">
-        <f>PARS!G41</f>
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <f>PARS!H41</f>
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <f>PARS!I41</f>
-        <v>0</v>
-      </c>
-      <c r="J41">
         <f>PARS!J41</f>
         <v>1</v>
       </c>
+      <c r="H41">
+        <f>PARS!K41</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f>PARS!L41</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f>PARS!M41</f>
+        <v>1</v>
+      </c>
       <c r="K41">
-        <f>PARS!K41</f>
+        <f>PARS!N41</f>
         <v>0</v>
       </c>
       <c r="L41">
-        <f>PARS!L41</f>
+        <f>PARS!O41</f>
         <v>0</v>
       </c>
       <c r="M41">
-        <f>PARS!M41</f>
+        <f>PARS!P41</f>
         <v>0</v>
       </c>
       <c r="N41">
-        <f>PARS!N41</f>
+        <f>PARS!Q41</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>110</v>
       </c>
@@ -3518,47 +3533,48 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f>PARS!E42</f>
+        <f>PARS!H42</f>
         <v>0</v>
       </c>
       <c r="F42">
-        <f>PARS!F42</f>
+        <f>PARS!I42</f>
         <v>0</v>
       </c>
       <c r="G42">
-        <f>PARS!G42</f>
+        <f>PARS!J42</f>
         <v>0</v>
       </c>
       <c r="H42">
-        <f>PARS!H42</f>
+        <f>PARS!K42</f>
         <v>1</v>
       </c>
       <c r="I42">
-        <f>PARS!I42</f>
+        <f>PARS!L42</f>
         <v>0</v>
       </c>
       <c r="J42">
-        <f>PARS!J42</f>
+        <f>PARS!M42</f>
         <v>1</v>
       </c>
       <c r="K42">
-        <f>PARS!K42</f>
+        <f>PARS!N42</f>
         <v>0</v>
       </c>
       <c r="L42">
-        <f>PARS!L42</f>
+        <f>PARS!O42</f>
         <v>0</v>
       </c>
       <c r="M42">
-        <f>PARS!M42</f>
+        <f>PARS!P42</f>
         <v>0</v>
       </c>
       <c r="N42">
-        <f>PARS!N42</f>
+        <f>PARS!Q42</f>
         <v>1</v>
       </c>
+      <c r="O42"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -3575,47 +3591,47 @@
         <v>1.9809000000000001</v>
       </c>
       <c r="E43">
-        <f>PARS!E43</f>
+        <f>PARS!H43</f>
         <v>0</v>
       </c>
       <c r="F43">
-        <f>PARS!F43</f>
+        <f>PARS!I43</f>
         <v>0</v>
       </c>
       <c r="G43">
-        <f>PARS!G43</f>
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <f>PARS!H43</f>
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <f>PARS!I43</f>
-        <v>0</v>
-      </c>
-      <c r="J43">
         <f>PARS!J43</f>
         <v>1</v>
       </c>
+      <c r="H43">
+        <f>PARS!K43</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f>PARS!L43</f>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f>PARS!M43</f>
+        <v>1</v>
+      </c>
       <c r="K43">
-        <f>PARS!K43</f>
+        <f>PARS!N43</f>
         <v>0</v>
       </c>
       <c r="L43">
-        <f>PARS!L43</f>
+        <f>PARS!O43</f>
         <v>0</v>
       </c>
       <c r="M43">
-        <f>PARS!M43</f>
+        <f>PARS!P43</f>
         <v>0</v>
       </c>
       <c r="N43">
-        <f>PARS!N43</f>
+        <f>PARS!Q43</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -3632,47 +3648,47 @@
         <v>1.9084000000000001</v>
       </c>
       <c r="E44">
-        <f>PARS!E44</f>
+        <f>PARS!H44</f>
         <v>0</v>
       </c>
       <c r="F44">
-        <f>PARS!F44</f>
+        <f>PARS!I44</f>
         <v>0</v>
       </c>
       <c r="G44">
-        <f>PARS!G44</f>
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <f>PARS!H44</f>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <f>PARS!I44</f>
-        <v>0</v>
-      </c>
-      <c r="J44">
         <f>PARS!J44</f>
         <v>1</v>
       </c>
+      <c r="H44">
+        <f>PARS!K44</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f>PARS!L44</f>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f>PARS!M44</f>
+        <v>1</v>
+      </c>
       <c r="K44">
-        <f>PARS!K44</f>
+        <f>PARS!N44</f>
         <v>0</v>
       </c>
       <c r="L44">
-        <f>PARS!L44</f>
+        <f>PARS!O44</f>
         <v>0</v>
       </c>
       <c r="M44">
-        <f>PARS!M44</f>
+        <f>PARS!P44</f>
         <v>0</v>
       </c>
       <c r="N44">
-        <f>PARS!N44</f>
+        <f>PARS!Q44</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -3689,47 +3705,47 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <f>PARS!E45</f>
+        <f>PARS!H45</f>
         <v>0</v>
       </c>
       <c r="F45">
-        <f>PARS!F45</f>
+        <f>PARS!I45</f>
         <v>0</v>
       </c>
       <c r="G45">
-        <f>PARS!G45</f>
+        <f>PARS!J45</f>
         <v>0</v>
       </c>
       <c r="H45">
-        <f>PARS!H45</f>
+        <f>PARS!K45</f>
         <v>0</v>
       </c>
       <c r="I45">
-        <f>PARS!I45</f>
+        <f>PARS!L45</f>
         <v>1</v>
       </c>
       <c r="J45">
-        <f>PARS!J45</f>
+        <f>PARS!M45</f>
         <v>1</v>
       </c>
       <c r="K45">
-        <f>PARS!K45</f>
+        <f>PARS!N45</f>
         <v>0</v>
       </c>
       <c r="L45">
-        <f>PARS!L45</f>
+        <f>PARS!O45</f>
         <v>0</v>
       </c>
       <c r="M45">
-        <f>PARS!M45</f>
+        <f>PARS!P45</f>
         <v>0</v>
       </c>
       <c r="N45">
-        <f>PARS!N45</f>
+        <f>PARS!Q45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -3746,157 +3762,157 @@
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="E46">
-        <f>PARS!E46</f>
+        <f>PARS!H46</f>
         <v>0</v>
       </c>
       <c r="F46">
-        <f>PARS!F46</f>
+        <f>PARS!I46</f>
         <v>0</v>
       </c>
       <c r="G46">
-        <f>PARS!G46</f>
+        <f>PARS!J46</f>
         <v>0</v>
       </c>
       <c r="H46">
-        <f>PARS!H46</f>
+        <f>PARS!K46</f>
         <v>1</v>
       </c>
       <c r="I46">
-        <f>PARS!I46</f>
+        <f>PARS!L46</f>
         <v>0</v>
       </c>
       <c r="J46">
-        <f>PARS!J46</f>
+        <f>PARS!M46</f>
         <v>1</v>
       </c>
       <c r="K46">
-        <f>PARS!K46</f>
+        <f>PARS!N46</f>
         <v>0</v>
       </c>
       <c r="L46">
-        <f>PARS!L46</f>
+        <f>PARS!O46</f>
         <v>0</v>
       </c>
       <c r="M46">
-        <f>PARS!M46</f>
+        <f>PARS!P46</f>
         <v>0</v>
       </c>
       <c r="N46">
-        <f>PARS!N46</f>
+        <f>PARS!Q46</f>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>182</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>1.19</v>
+        <v>1.2361</v>
       </c>
       <c r="C47">
         <f>PARS!C47</f>
-        <v>1.19</v>
+        <v>1.2361</v>
       </c>
       <c r="D47">
         <f>PARS!D47</f>
-        <v>1.19</v>
+        <v>1.2361</v>
       </c>
       <c r="E47">
-        <f>PARS!E47</f>
+        <f>PARS!H47</f>
         <v>0</v>
       </c>
       <c r="F47">
-        <f>PARS!F47</f>
+        <f>PARS!I47</f>
         <v>0</v>
       </c>
       <c r="G47">
-        <f>PARS!G47</f>
+        <f>PARS!J47</f>
         <v>0</v>
       </c>
       <c r="H47">
-        <f>PARS!H47</f>
+        <f>PARS!K47</f>
         <v>0</v>
       </c>
       <c r="I47">
-        <f>PARS!I47</f>
+        <f>PARS!L47</f>
         <v>1</v>
       </c>
       <c r="J47">
-        <f>PARS!J47</f>
+        <f>PARS!M47</f>
         <v>1</v>
       </c>
       <c r="K47">
-        <f>PARS!K47</f>
+        <f>PARS!N47</f>
         <v>0</v>
       </c>
       <c r="L47">
-        <f>PARS!L47</f>
+        <f>PARS!O47</f>
         <v>0</v>
       </c>
       <c r="M47">
-        <f>PARS!M47</f>
+        <f>PARS!P47</f>
         <v>0</v>
       </c>
       <c r="N47">
-        <f>PARS!N47</f>
+        <f>PARS!Q47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>183</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="C48">
         <f>PARS!C48</f>
-        <v>1</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="D48">
         <f>PARS!D48</f>
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E48">
+        <f>PARS!H48</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>PARS!I48</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f>PARS!J48</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>PARS!K48</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>PARS!L48</f>
         <v>1</v>
       </c>
-      <c r="E48">
-        <f>PARS!E48</f>
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <f>PARS!F48</f>
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <f>PARS!G48</f>
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <f>PARS!H48</f>
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <f>PARS!I48</f>
+      <c r="J48">
+        <f>PARS!M48</f>
         <v>1</v>
       </c>
-      <c r="J48">
-        <f>PARS!J48</f>
-        <v>1</v>
-      </c>
       <c r="K48">
-        <f>PARS!K48</f>
+        <f>PARS!N48</f>
         <v>0</v>
       </c>
       <c r="L48">
-        <f>PARS!L48</f>
+        <f>PARS!O48</f>
         <v>0</v>
       </c>
       <c r="M48">
-        <f>PARS!M48</f>
+        <f>PARS!P48</f>
         <v>0</v>
       </c>
       <c r="N48">
-        <f>PARS!N48</f>
+        <f>PARS!Q48</f>
         <v>0</v>
       </c>
     </row>
@@ -3906,54 +3922,54 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.86060000000000003</v>
       </c>
       <c r="C49">
         <f>PARS!C49</f>
-        <v>1</v>
+        <v>0.86060000000000003</v>
       </c>
       <c r="D49">
         <f>PARS!D49</f>
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="E49">
+        <f>PARS!H49</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>PARS!I49</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f>PARS!J49</f>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>PARS!K49</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>PARS!L49</f>
         <v>1</v>
       </c>
-      <c r="E49">
-        <f>PARS!E49</f>
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <f>PARS!F49</f>
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <f>PARS!G49</f>
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <f>PARS!H49</f>
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <f>PARS!I49</f>
+      <c r="J49">
+        <f>PARS!M49</f>
         <v>1</v>
       </c>
-      <c r="J49">
-        <f>PARS!J49</f>
-        <v>1</v>
-      </c>
       <c r="K49">
-        <f>PARS!K49</f>
+        <f>PARS!N49</f>
         <v>0</v>
       </c>
       <c r="L49">
-        <f>PARS!L49</f>
+        <f>PARS!O49</f>
         <v>0</v>
       </c>
       <c r="M49">
-        <f>PARS!M49</f>
+        <f>PARS!P49</f>
         <v>0</v>
       </c>
       <c r="N49">
-        <f>PARS!N49</f>
+        <f>PARS!Q49</f>
         <v>0</v>
       </c>
     </row>
@@ -3966,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5CC74-B573-41B1-AB75-48DBC5AE1670}">
   <dimension ref="A1:CT98"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28797,15 +28813,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-  <dimension ref="A1:N49"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
@@ -28819,432 +28839,607 @@
         <v>68</v>
       </c>
       <c r="E1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>185</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>186</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>187</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>181</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>188</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>189</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>180</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
+      <c r="R1" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
       <c r="B2">
+        <f>LN(E2)</f>
+        <v>2.8033603809065348</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:D2" si="0">LN(F2)</f>
+        <v>2.6026896854443837</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>2.9704144655697009</v>
+      </c>
+      <c r="E2">
         <v>16.5</v>
       </c>
-      <c r="C2">
-        <f>B2-3</f>
+      <c r="F2">
         <v>13.5</v>
       </c>
-      <c r="D2">
-        <f>B2+3</f>
+      <c r="G2">
         <v>19.5</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <f>SUM(F2:I2)</f>
+      <c r="M2">
+        <f>SUM(I2:L2)</f>
         <v>1</v>
       </c>
-      <c r="M2">
-        <f>F2-K2</f>
+      <c r="P2">
+        <f>I2-N2</f>
         <v>1</v>
       </c>
-      <c r="N2">
-        <f>M2+H2+K2+G2</f>
+      <c r="Q2">
+        <f>P2+K2+N2+J2</f>
         <v>1</v>
       </c>
+      <c r="R2">
+        <f>EXP(B2)</f>
+        <v>16.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B3">
+        <f>-LN(1/E3 -1)</f>
+        <v>0.14424960884454691</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:D3" si="1">-LN(1/F3 -1)</f>
+        <v>-4.0005334613699206E-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>0.84729786038720356</v>
+      </c>
+      <c r="E3">
         <v>0.53600000000000003</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>0.49</v>
       </c>
-      <c r="D3">
-        <v>0.6</v>
-      </c>
-      <c r="E3">
+      <c r="G3">
+        <v>0.7</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J49" si="0">SUM(F3:I3)</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M49" si="2">SUM(I3:L3)</f>
         <v>1</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M49" si="1">F3-K3</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P49" si="3">I3-N3</f>
         <v>1</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N49" si="2">M3+H3+K3+G3</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q49" si="4">P3+K3+N3+J3</f>
         <v>1</v>
       </c>
+      <c r="R3">
+        <f>1/(1+EXP(-B3))</f>
+        <v>0.53600000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
       </c>
       <c r="B4">
-        <v>7.5499999999999998E-2</v>
+        <f>LN(E4)</f>
+        <v>-2.5836226227271579</v>
       </c>
       <c r="C4">
         <f>B4*0.9</f>
-        <v>6.7949999999999997E-2</v>
+        <v>-2.3252603604544424</v>
       </c>
       <c r="D4">
         <f>B4*1.1</f>
-        <v>8.3049999999999999E-2</v>
+        <v>-2.8419848849998739</v>
+      </c>
+      <c r="E4">
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="F4">
+        <v>-1.0098477435337305</v>
+      </c>
+      <c r="G4">
+        <v>-1.234258353207893</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <f>EXP(B4)</f>
+        <v>7.5500000000000012E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5">
+        <f>LN(E5)</f>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:D6" si="5">LN(F5)</f>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="5"/>
+        <v>2.341805806147327</v>
+      </c>
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="D5">
-        <f>B5*1.3</f>
+      <c r="G5">
         <v>10.4</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f>EXP(B5)</f>
+        <v>7.9999999999999982</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B6">
+        <f>LN(E6)</f>
+        <v>6.9077552789821368</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="5"/>
+        <v>3.912023005428146</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="5"/>
+        <v>7.3132203870903014</v>
+      </c>
+      <c r="E6">
         <v>1000</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>50</v>
       </c>
-      <c r="D6">
-        <v>1000</v>
-      </c>
-      <c r="E6">
+      <c r="G6">
+        <v>1500</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f>EXP(B6)</f>
+        <v>999.99999999999977</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>76</v>
       </c>
       <c r="B7">
+        <f>-LN(1/E7 -1)</f>
+        <v>1.6000341346441075E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:D7" si="6">-LN(1/F7 -1)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="6"/>
+        <v>0.84729786038720356</v>
+      </c>
+      <c r="E7">
         <v>0.504</v>
       </c>
-      <c r="C7">
-        <v>0.495</v>
-      </c>
-      <c r="D7">
-        <f>B7*1.15</f>
-        <v>0.5796</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.7</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f>1/(1+EXP(-B7))</f>
+        <v>0.504</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
       <c r="B8">
+        <f>LN(E8)</f>
+        <v>-1.6094379124341003</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:D9" si="7">LN(F8)</f>
+        <v>-2.3025850929940455</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="7"/>
+        <v>0.40546510810816438</v>
+      </c>
+      <c r="E8">
         <v>0.2</v>
       </c>
-      <c r="C8">
-        <f>B8*0.5</f>
+      <c r="F8">
         <v>0.1</v>
       </c>
-      <c r="D8">
-        <f>B8*1.5</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f>EXP(B8)</f>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="7">
+        <f>LN(E9)</f>
+        <v>-0.14722471975652515</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="7"/>
+        <v>-2.3025850929940455</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.40546510810816438</v>
+      </c>
+      <c r="E9">
         <v>0.86309999999999998</v>
       </c>
-      <c r="C9">
-        <f>B9*0.5</f>
-        <v>0.43154999999999999</v>
-      </c>
-      <c r="D9">
-        <f>B9*1.5</f>
-        <v>1.2946499999999999</v>
-      </c>
       <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>1.5</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f>EXP(B9)</f>
+        <v>0.86309999999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>79</v>
       </c>
       <c r="B10">
         <f>B9</f>
-        <v>0.86309999999999998</v>
+        <v>-0.14722471975652515</v>
       </c>
       <c r="C10">
         <f>B10*0.5</f>
-        <v>0.43154999999999999</v>
+        <v>-7.3612359878262576E-2</v>
       </c>
       <c r="D10">
         <f>B10*1.5</f>
-        <v>1.2946499999999999</v>
-      </c>
-      <c r="I10">
+        <v>-0.22083707963478771</v>
+      </c>
+      <c r="E10">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="F10">
+        <v>-7.3612359878262576E-2</v>
+      </c>
+      <c r="G10">
+        <v>-0.22083707963478771</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
+      <c r="M10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>80</v>
       </c>
       <c r="B11">
+        <f>E11</f>
         <v>-0.26</v>
       </c>
       <c r="C11">
-        <f>B11*1.2</f>
+        <f t="shared" ref="C11:D11" si="8">F11</f>
         <v>-0.312</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-0.26</v>
       </c>
       <c r="F11">
+        <v>-0.312</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
       <c r="B12">
         <f>EXP(-0.0135*B37)*2*(1-MOMS!C50)/(MOMS!C47*(MOMS!C29/(24*365)+EXP(MOMS!C44)*(MOMS!C29/(24*365)+MOMS!C5/(24*365))))</f>
-        <v>20.659721997091967</v>
+        <v>22.033747828769076</v>
       </c>
       <c r="C12">
         <f>B12*0.8</f>
-        <v>16.527777597673573</v>
+        <v>17.626998263015263</v>
       </c>
       <c r="D12">
         <f>B12*1.2</f>
+        <v>26.44049739452289</v>
+      </c>
+      <c r="E12">
+        <v>20.659721997091967</v>
+      </c>
+      <c r="F12">
+        <v>16.527777597673573</v>
+      </c>
+      <c r="G12">
         <v>24.791666396510362</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>82</v>
       </c>
       <c r="B13">
+        <f>1-LN(1/(E13-1) -1)</f>
+        <v>1.8472978603872034</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13" si="9">1-LN(1/(F13-1) -1)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>1-LN(1/(G13-1) -1)</f>
+        <v>7.9067547786486871</v>
+      </c>
+      <c r="E13">
         <v>1.7</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>1.5</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f>1+1/(1+EXP(-(B13-1)))</f>
+        <v>1.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -29257,343 +29452,498 @@
       <c r="D14">
         <v>0.4</v>
       </c>
-      <c r="I14">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.4</v>
+      </c>
+      <c r="L14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
+      <c r="M14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="2"/>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>195</v>
       </c>
       <c r="B15">
+        <f>E15</f>
         <v>0</v>
       </c>
       <c r="C15">
+        <f t="shared" ref="C15:D16" si="10">F15</f>
         <v>-1</v>
       </c>
       <c r="D15">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
       <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
+      <c r="I15">
         <v>1</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M15" si="3">F15-K15</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N15">
-        <f t="shared" ref="N15" si="4">M15+H15+K15+G15</f>
+      <c r="P15">
+        <f t="shared" ref="P15" si="11">I15-N15</f>
         <v>1</v>
       </c>
+      <c r="Q15">
+        <f t="shared" ref="Q15" si="12">P15+K15+N15+J15</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>84</v>
       </c>
       <c r="B16">
+        <f>E16</f>
         <v>0.17499999999999999</v>
       </c>
       <c r="C16">
-        <f>B16*0.8</f>
-        <v>0.13999999999999999</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="D16">
-        <f>B16*1.2</f>
-        <v>0.21</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0.17499999999999999</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
+      <c r="I16">
         <v>1</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>85</v>
       </c>
       <c r="B17">
+        <f>LN(E17)</f>
+        <v>-0.35667494393873245</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:D18" si="13">LN(F17)</f>
+        <v>-0.35667494393873245</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="13"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="E17">
         <v>0.7</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <v>0.7</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <f>EXP(B17)</f>
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
       <c r="B18">
+        <f>LN(E18)</f>
+        <v>0.91629073187415511</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="13"/>
+        <v>0.58778666490211906</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="13"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="E18">
         <v>2.5</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <v>1.8</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <v>4</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f>EXP(B18)</f>
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>87</v>
       </c>
       <c r="B19">
+        <f>-LN(1/E19 -1)</f>
+        <v>-0.69329718431032028</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:D20" si="14">-LN(1/F19 -1)</f>
+        <v>-2.1972245773362196</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="14"/>
+        <v>6.9067547786484651</v>
+      </c>
+      <c r="E19">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C19">
-        <v>0.2</v>
-      </c>
-      <c r="D19">
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+      <c r="G19">
+        <v>0.999</v>
+      </c>
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <f>1/(1+EXP(-B19))</f>
+        <v>0.33329999999999999</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>88</v>
       </c>
       <c r="B20">
+        <f>-LN(1/E20 -1)</f>
+        <v>0.84729786038720356</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="14"/>
+        <v>6.9067547786484651</v>
+      </c>
+      <c r="E20">
         <v>0.7</v>
       </c>
-      <c r="C20">
+      <c r="F20">
         <v>0.5</v>
       </c>
-      <c r="D20">
+      <c r="G20">
+        <v>0.999</v>
+      </c>
+      <c r="H20">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <f>1/(1+EXP(-B20))</f>
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
       <c r="B21">
-        <f>1/0.25</f>
+        <f>LN(E21)</f>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:D24" si="15">LN(F21)</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="15"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="E21">
         <v>4</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
       <c r="M21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f>EXP(B21)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>90</v>
       </c>
       <c r="B22">
+        <f>LN(E22)</f>
+        <v>-0.3047604139865322</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="15"/>
+        <v>-2.3025850929940455</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="15"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="E22">
         <v>0.73729999999999996</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+      <c r="G22">
         <v>4</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <f>EXP(B22)</f>
+        <v>0.73729999999999996</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>91</v>
       </c>
       <c r="B23">
+        <f>LN(E23)</f>
+        <v>-0.35667494393873245</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="15"/>
+        <v>-0.71334988787746489</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="15"/>
+        <v>-9.4310679471241415E-2</v>
+      </c>
+      <c r="E23">
         <v>0.7</v>
       </c>
-      <c r="C23">
-        <f>B23*0.7</f>
+      <c r="F23">
         <v>0.48999999999999994</v>
       </c>
-      <c r="D23">
-        <f>B23*1.3</f>
+      <c r="G23">
         <v>0.90999999999999992</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <f>EXP(B23)</f>
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>92</v>
       </c>
       <c r="B24">
+        <f>LN(E24)</f>
+        <v>2.0977847712396644</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="15"/>
+        <v>-6.9077552789821368</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="15"/>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="E24">
         <v>8.1480999999999995</v>
       </c>
-      <c r="C24">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="F24">
+        <v>1E-3</v>
+      </c>
+      <c r="G24">
         <v>12</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <f>EXP(B24)</f>
+        <v>8.1480999999999977</v>
+      </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -29607,23 +29957,32 @@
       <c r="D25" s="3">
         <v>0.3</v>
       </c>
-      <c r="I25">
+      <c r="E25">
+        <v>0.1449</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.3</v>
+      </c>
+      <c r="L25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
+      <c r="M25">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="2"/>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -29637,197 +29996,278 @@
       <c r="D26" s="3">
         <v>0.3</v>
       </c>
-      <c r="I26">
+      <c r="E26">
+        <v>0.1449</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.3</v>
+      </c>
+      <c r="L26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
+      <c r="M26">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="2"/>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>95</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <f>LN(E27)</f>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.85</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
+        <f t="shared" ref="C27:D28" si="16">LN(F27)</f>
+        <v>-0.16251892949777494</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="16"/>
+        <v>0.69314718055994529</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
+        <v>0.85</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
+      <c r="I27">
         <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <f>EXP(B27)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>96</v>
       </c>
       <c r="B28">
+        <f>LN(E28)</f>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="16"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="16"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="C28">
-        <f>B28*0.5</f>
+      <c r="F28">
         <v>2</v>
       </c>
-      <c r="D28">
-        <f>B28*1.5</f>
+      <c r="G28">
         <v>6</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
       <c r="M28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <f>EXP(B28)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>97</v>
       </c>
       <c r="B29">
-        <v>0.63890000000000002</v>
+        <f>-LN(1/E29 -1)</f>
+        <v>0.57059301932488571</v>
       </c>
       <c r="C29">
         <f>B29*0.7</f>
-        <v>0.44722999999999996</v>
+        <v>0.39941511352741998</v>
       </c>
       <c r="D29">
         <f>B29*1.3</f>
-        <v>0.83057000000000003</v>
+        <v>0.74177092512235143</v>
+      </c>
+      <c r="E29">
+        <v>0.63890000000000002</v>
       </c>
       <c r="F29">
+        <v>0.39941511352741998</v>
+      </c>
+      <c r="G29">
+        <v>0.74177092512235143</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
       <c r="M29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <f>1/(1+EXP(-B29))</f>
+        <v>0.63890000000000002</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>98</v>
       </c>
       <c r="B30">
+        <f>LN(E30)</f>
+        <v>-4.6459921805083466</v>
+      </c>
+      <c r="C30">
+        <f>B30*0.5</f>
+        <v>-2.3229960902541733</v>
+      </c>
+      <c r="D30">
+        <f>B30*1.5</f>
+        <v>-6.9689882707625195</v>
+      </c>
+      <c r="E30">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="C30">
-        <f>B30*0.9</f>
-        <v>8.6400000000000001E-3</v>
-      </c>
-      <c r="D30">
-        <f>B30*1.1</f>
-        <v>1.056E-2</v>
-      </c>
       <c r="F30">
+        <v>-2.3229960902541733</v>
+      </c>
+      <c r="G30">
+        <v>-6.9689882707625195</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
       <c r="M30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <f>EXP(B30)</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>99</v>
       </c>
       <c r="B31">
+        <f>LN(E31)</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:D31" si="17">LN(F31)</f>
+        <v>-1.0498221244986778</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="17"/>
+        <v>-0.43078291609245423</v>
+      </c>
+      <c r="E31">
         <v>0.5</v>
       </c>
-      <c r="C31">
-        <f>B31*0.7</f>
+      <c r="F31">
         <v>0.35</v>
       </c>
-      <c r="D31">
-        <f>B31*1.3</f>
+      <c r="G31">
         <v>0.65</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>1</v>
       </c>
-      <c r="F31">
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <f>EXP(B31)</f>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -29842,29 +30282,38 @@
         <f>B32*1.3</f>
         <v>1.16649</v>
       </c>
+      <c r="E32">
+        <v>0.89729999999999999</v>
+      </c>
       <c r="F32">
+        <v>0.62810999999999995</v>
+      </c>
+      <c r="G32">
+        <v>1.16649</v>
+      </c>
+      <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
       <c r="M32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -29878,23 +30327,32 @@
       <c r="D33">
         <v>4</v>
       </c>
-      <c r="I33">
+      <c r="E33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
+      <c r="F33">
+        <v>0.7</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N33">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -29909,29 +30367,38 @@
         <f>B34*1.3</f>
         <v>1.68272</v>
       </c>
+      <c r="E34">
+        <v>1.2944</v>
+      </c>
       <c r="F34">
+        <v>0.90607999999999989</v>
+      </c>
+      <c r="G34">
+        <v>1.68272</v>
+      </c>
+      <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
       <c r="M34">
-        <f>F34-K34</f>
-        <v>0</v>
-      </c>
-      <c r="N34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f>I34-N34</f>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -29944,23 +30411,32 @@
       <c r="D35">
         <v>5</v>
       </c>
-      <c r="H35">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="K35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -29972,58 +30448,82 @@
       </c>
       <c r="D36">
         <f>D24</f>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>12</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
+      <c r="M36">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="2"/>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>105</v>
       </c>
       <c r="B37">
+        <f>LN(E37)</f>
+        <v>1.8971249848733813</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:D37" si="18">LN(F37)</f>
+        <v>-6.9077552789821368</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="18"/>
+        <v>4.1997100778674268</v>
+      </c>
+      <c r="E37">
         <v>6.6666999999999996</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <f>B37*10</f>
+      <c r="F37">
+        <v>1E-3</v>
+      </c>
+      <c r="G37">
         <v>66.667000000000002</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>1</v>
       </c>
-      <c r="F37">
+      <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M37">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N37">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <f>EXP(B37)</f>
+        <v>6.6666999999999996</v>
+      </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -30031,28 +30531,37 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D38">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E38">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>0.5</v>
       </c>
-      <c r="F38">
+      <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M38">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -30067,23 +30576,32 @@
         <f>B39</f>
         <v>0</v>
       </c>
-      <c r="I39">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
+      <c r="M39">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="2"/>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -30092,30 +30610,39 @@
         <v>0.26712328767123289</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:D43" si="5">B40</f>
+        <f t="shared" ref="C40:D43" si="19">B40</f>
         <v>0.26712328767123289</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D41" si="6">B40</f>
+        <f t="shared" ref="D40:D41" si="20">B40</f>
         <v>0.26712328767123289</v>
       </c>
-      <c r="H40">
+      <c r="E40">
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="F40">
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="G40">
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="K40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N40">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -30123,30 +30650,39 @@
         <v>1.49</v>
       </c>
       <c r="C41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1.49</v>
       </c>
       <c r="D41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>1.49</v>
       </c>
+      <c r="E41">
+        <v>1.49</v>
+      </c>
+      <c r="F41">
+        <v>1.49</v>
+      </c>
       <c r="G41">
+        <v>1.49</v>
+      </c>
+      <c r="J41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N41">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>110</v>
       </c>
@@ -30159,29 +30695,38 @@
       <c r="D42" s="3">
         <v>1</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="E42">
         <v>1</v>
       </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
       <c r="J42" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>1</v>
       </c>
-      <c r="M42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="M42" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -30189,30 +30734,39 @@
         <v>1.9809000000000001</v>
       </c>
       <c r="C43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1.9809000000000001</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1.9809000000000001</v>
       </c>
+      <c r="E43">
+        <v>1.9809000000000001</v>
+      </c>
+      <c r="F43">
+        <v>1.9809000000000001</v>
+      </c>
       <c r="G43">
+        <v>1.9809000000000001</v>
+      </c>
+      <c r="J43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N43">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -30220,30 +30774,39 @@
         <v>1.9084000000000001</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:D44" si="7">B44</f>
+        <f t="shared" ref="C44:D44" si="21">B44</f>
         <v>1.9084000000000001</v>
       </c>
       <c r="D44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.9084000000000001</v>
       </c>
+      <c r="E44">
+        <v>1.9084000000000001</v>
+      </c>
+      <c r="F44">
+        <v>1.9084000000000001</v>
+      </c>
       <c r="G44">
+        <v>1.9084000000000001</v>
+      </c>
+      <c r="J44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -30251,30 +30814,39 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:D45" si="8">B45</f>
+        <f t="shared" ref="C45:D45" si="22">B45</f>
         <v>1</v>
       </c>
       <c r="D45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="I45">
+      <c r="E45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
+      <c r="F45">
         <v>1</v>
       </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
       <c r="M45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N45">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -30283,124 +30855,166 @@
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:D46" si="9">B46</f>
+        <f t="shared" ref="C46:D46" si="23">B46</f>
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="D46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>1.8814014327029097E-3</v>
       </c>
-      <c r="H46">
+      <c r="E46">
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="F46">
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="G46">
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="K46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="M46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>182</v>
       </c>
       <c r="B47">
-        <v>1.19</v>
+        <v>1.2361</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:D47" si="10">B47</f>
-        <v>1.19</v>
+        <f t="shared" ref="C47:D47" si="24">B47</f>
+        <v>1.2361</v>
       </c>
       <c r="D47">
-        <f t="shared" si="10"/>
-        <v>1.19</v>
-      </c>
-      <c r="I47">
+        <f t="shared" si="24"/>
+        <v>1.2361</v>
+      </c>
+      <c r="E47">
+        <v>1.2361</v>
+      </c>
+      <c r="F47">
+        <v>1.2361</v>
+      </c>
+      <c r="G47">
+        <v>1.2361</v>
+      </c>
+      <c r="L47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
+      <c r="M47">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="2"/>
+      <c r="P47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>183</v>
       </c>
       <c r="B48">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:D48" si="25">B48</f>
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="25"/>
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E48">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F48">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="G48">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="L48">
         <v>1</v>
       </c>
-      <c r="C48">
-        <f t="shared" ref="C48:D48" si="11">B48</f>
+      <c r="M48">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="2"/>
+      <c r="P48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>184</v>
       </c>
       <c r="B49">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:D49" si="26">B49</f>
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="26"/>
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="E49">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="F49">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="G49">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="L49">
         <v>1</v>
       </c>
-      <c r="C49">
-        <f t="shared" ref="C49:D49" si="12">B49</f>
+      <c r="M49">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="2"/>
+      <c r="P49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M46" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}"/>
+  <autoFilter ref="A1:P49" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1110" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0DCEECF-E118-480E-9849-BEF8109C2BFF}"/>
+  <xr:revisionPtr revIDLastSave="1111" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A41F54DB-6C47-4BED-BE6C-0F7DCCFB6054}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -729,7 +729,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -829,7 +829,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1187,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="R4">
         <f ca="1">RAND()</f>
-        <v>0.94059062706480157</v>
+        <v>0.40956041739510618</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -31105,8 +31105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31408,7 +31408,7 @@
       </c>
       <c r="C18">
         <f>VLOOKUP(B18,Moments_psid!A:C,3,0)</f>
-        <v>0.20203565999180545</v>
+        <v>-1.2</v>
       </c>
       <c r="D18">
         <f>1</f>
@@ -31613,7 +31613,7 @@
       </c>
       <c r="C30">
         <f>VLOOKUP(B30,Moments_psid!A:C,3,0)</f>
-        <v>-626.57913863492377</v>
+        <v>63</v>
       </c>
       <c r="D30">
         <f>1</f>
@@ -31630,7 +31630,7 @@
       </c>
       <c r="C31">
         <f>VLOOKUP(B31,Moments_psid!A:C,3,0)</f>
-        <v>-505.64537147321943</v>
+        <v>105</v>
       </c>
       <c r="D31">
         <f>1</f>
@@ -55881,8 +55881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388BE545-5E3B-42EF-ACF3-27ADED17A03F}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56457,8 +56457,8 @@
       <c r="B52">
         <v>51</v>
       </c>
-      <c r="C52">
-        <v>-626.57913863492377</v>
+      <c r="C52" s="3">
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -56479,8 +56479,8 @@
       <c r="B54">
         <v>53</v>
       </c>
-      <c r="C54">
-        <v>-505.64537147321943</v>
+      <c r="C54" s="3">
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -56765,8 +56765,8 @@
       <c r="B80">
         <v>79</v>
       </c>
-      <c r="C80">
-        <v>0.20203565999180545</v>
+      <c r="C80" s="3">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1111" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A41F54DB-6C47-4BED-BE6C-0F7DCCFB6054}"/>
+  <xr:revisionPtr revIDLastSave="1119" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B8E8DE0-3645-4DE2-82A8-33FD2E13DD1A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1253,15 +1253,15 @@
       </c>
       <c r="B2">
         <f>D2*$Q$4+C2*(1-$Q$4)</f>
-        <v>2.9234927836257105</v>
+        <v>0.62090769063166484</v>
       </c>
       <c r="C2">
         <f>PARS!C2</f>
-        <v>2.6026896854443837</v>
+        <v>0.30010459245033816</v>
       </c>
       <c r="D2">
         <f>PARS!D2</f>
-        <v>2.9704144655697009</v>
+        <v>0.66782937257565544</v>
       </c>
       <c r="E2">
         <f>PARS!H2</f>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="R4">
         <f ca="1">RAND()</f>
-        <v>0.40956041739510618</v>
+        <v>0.4624788916073268</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -28898,8 +28898,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28968,16 +28968,16 @@
         <v>71</v>
       </c>
       <c r="B2">
-        <f>LN(E2)</f>
-        <v>2.8033603809065348</v>
+        <f>LN(E2/10)</f>
+        <v>0.50077528791248915</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:D2" si="0">LN(F2)</f>
-        <v>2.6026896854443837</v>
+        <f t="shared" ref="C2:D2" si="0">LN(F2/10)</f>
+        <v>0.30010459245033816</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>2.9704144655697009</v>
+        <v>0.66782937257565544</v>
       </c>
       <c r="E2">
         <v>16.5</v>
@@ -29007,7 +29007,7 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <f>EXP(B2)</f>
+        <f>EXP(B2)*10</f>
         <v>16.5</v>
       </c>
     </row>
@@ -29163,8 +29163,8 @@
         <v>75</v>
       </c>
       <c r="B6">
-        <f>LN(E6)</f>
-        <v>6.8023947633243109</v>
+        <f>LN(E6/100)</f>
+        <v>2.1972245773362196</v>
       </c>
       <c r="C6">
         <f t="shared" si="5"/>
@@ -29202,8 +29202,8 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <f>EXP(B6)</f>
-        <v>900.00000000000011</v>
+        <f>EXP(B6)*100</f>
+        <v>900.00000000000023</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -31105,7 +31105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1119" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B8E8DE0-3645-4DE2-82A8-33FD2E13DD1A}"/>
+  <xr:revisionPtr revIDLastSave="1141" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB176F4E-83C8-4BD9-9561-746CE4101964}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" firstSheet="1" activeTab="2" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="206">
   <si>
     <t>label</t>
   </si>
@@ -723,6 +723,12 @@
   <si>
     <t>bla</t>
   </si>
+  <si>
+    <t>I think the weight is screwed up?</t>
+  </si>
+  <si>
+    <t>it makes not sense that it is so much more precise than above.</t>
+  </si>
 </sst>
 </file>
 
@@ -1426,7 +1432,7 @@
       </c>
       <c r="R4">
         <f ca="1">RAND()</f>
-        <v>0.4624788916073268</v>
+        <v>8.2077784065309412E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -1834,15 +1840,15 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>25.315894905342514</v>
+        <v>23.737194185778787</v>
       </c>
       <c r="C12">
         <f>PARS!C12</f>
-        <v>17.626998263015263</v>
+        <v>16.527777597673573</v>
       </c>
       <c r="D12">
         <f>PARS!D12</f>
-        <v>26.44049739452289</v>
+        <v>24.791666396510362</v>
       </c>
       <c r="E12">
         <f>PARS!H12</f>
@@ -4002,8 +4008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5CC74-B573-41B1-AB75-48DBC5AE1670}">
   <dimension ref="A1:CU99"/>
   <sheetViews>
-    <sheetView topLeftCell="CM1" workbookViewId="0">
-      <selection activeCell="CU100" sqref="CU100"/>
+    <sheetView topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BC1" sqref="BC1:BC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4011,6 +4017,7 @@
     <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" x14ac:dyDescent="0.35">
@@ -28895,11 +28902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29059,7 +29065,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -29350,7 +29356,7 @@
         <v>0.86309999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -29435,21 +29441,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
       <c r="B12">
-        <f>EXP(-0.0135*B37)*2*(1-MOMS!C52)/(MOMS!C47*(MOMS!C29/(24*365)+EXP(MOMS!C44)*(MOMS!C29/(24*365)+MOMS!C5/(24*365))))</f>
-        <v>22.033747828769076</v>
+        <f>EXP(-0.0135*$E$37)*2*(1-MOMS!C52)/(MOMS!C47*(MOMS!C29/(24*365)+EXP(MOMS!C44)*(MOMS!C29/(24*365)+MOMS!C5/(24*365))))</f>
+        <v>20.659721997091967</v>
       </c>
       <c r="C12">
         <f>B12*0.8</f>
-        <v>17.626998263015263</v>
+        <v>16.527777597673573</v>
       </c>
       <c r="D12">
         <f>B12*1.2</f>
-        <v>26.44049739452289</v>
+        <v>24.791666396510362</v>
       </c>
       <c r="E12">
         <v>20.659721997091967</v>
@@ -29521,7 +29527,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -30025,7 +30031,7 @@
         <v>8.1480999999999977</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -30064,7 +30070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -30199,7 +30205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -30250,7 +30256,7 @@
         <v>0.63890000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -30349,7 +30355,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -30395,7 +30401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -30434,7 +30440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -30480,7 +30486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -30518,7 +30524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -30643,7 +30649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -30683,7 +30689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -30724,7 +30730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -30764,7 +30770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>110</v>
       </c>
@@ -30808,7 +30814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -30848,7 +30854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -30888,7 +30894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -30928,7 +30934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -30969,7 +30975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -31009,7 +31015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>183</v>
       </c>
@@ -31049,7 +31055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>184</v>
       </c>
@@ -31090,23 +31096,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P49" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-    <filterColumn colId="15">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P49" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31654,7 +31654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -31671,7 +31671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -31688,7 +31688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -31705,7 +31705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -31722,7 +31722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -31735,11 +31735,16 @@
         <v>277.39608436846476</v>
       </c>
       <c r="D37">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -31756,7 +31761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -31773,7 +31778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -31790,7 +31795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -31807,7 +31812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -31824,7 +31829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -31842,7 +31847,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -31858,7 +31863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -31875,7 +31880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -31890,7 +31895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -31907,7 +31912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -32034,13 +32039,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EFA40D-2664-412E-B9B4-3734B019C060}">
   <dimension ref="A1:BB54"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AJ36" sqref="AJ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="35" max="35" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -43820,8 +43827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50173A7-B186-45C1-8337-B5032812D8C9}">
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView topLeftCell="AN42" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="AB20" workbookViewId="0">
+      <selection activeCell="AM40" sqref="AM40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43829,6 +43836,8 @@
     <col min="2" max="2" width="12.1796875" customWidth="1"/>
     <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1141" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB176F4E-83C8-4BD9-9561-746CE4101964}"/>
+  <xr:revisionPtr revIDLastSave="1191" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5B429AE-58ED-4D24-85EC-3932AD2DA4B9}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" firstSheet="1" activeTab="2" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B2">
         <f>D2*$Q$4+C2*(1-$Q$4)</f>
-        <v>0.62090769063166484</v>
+        <v>0.57460883117957295</v>
       </c>
       <c r="C2">
         <f>PARS!C2</f>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B49" si="0">D3*$Q$4+C3*(1-$Q$4)</f>
-        <v>0.73407797270508834</v>
+        <v>0.62236092741176097</v>
       </c>
       <c r="C3">
         <f>PARS!C3</f>
@@ -1376,15 +1376,15 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>-2.7760508356678768</v>
+        <v>-2.5836226227271579</v>
       </c>
       <c r="C4">
         <f>PARS!C4</f>
-        <v>-2.3252603604544424</v>
+        <v>-2.5836226227271579</v>
       </c>
       <c r="D4">
         <f>PARS!D4</f>
-        <v>-2.8419848849998739</v>
+        <v>-2.5836226227271579</v>
       </c>
       <c r="E4">
         <f>PARS!H4</f>
@@ -1427,12 +1427,11 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <f>0.8724</f>
-        <v>0.87239999999999995</v>
+        <v>0.74649371912245421</v>
       </c>
       <c r="R4">
         <f ca="1">RAND()</f>
-        <v>8.2077784065309412E-2</v>
+        <v>0.54174138640682956</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -1441,7 +1440,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>2.2483556629095194</v>
+        <v>2.1561459451779652</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
@@ -1498,7 +1497,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>6.5254998408766474</v>
+        <v>6.1483183318086301</v>
       </c>
       <c r="C6">
         <f>PARS!C6</f>
@@ -1555,7 +1554,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.73918265340179634</v>
+        <v>0.63250253100494158</v>
       </c>
       <c r="C7">
         <f>PARS!C7</f>
@@ -1612,7 +1611,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>5.9917902447522264E-2</v>
+        <v>-0.84997538874761558</v>
       </c>
       <c r="C8">
         <f>PARS!C8</f>
@@ -1620,7 +1619,7 @@
       </c>
       <c r="D8">
         <f>PARS!D8</f>
-        <v>0.40546510810816438</v>
+        <v>-0.35667494393873245</v>
       </c>
       <c r="E8">
         <f>PARS!H8</f>
@@ -1669,7 +1668,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>5.9917902447522264E-2</v>
+        <v>-0.28104262680294673</v>
       </c>
       <c r="C9">
         <f>PARS!C9</f>
@@ -1726,15 +1725,15 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>-0.20205120539385513</v>
+        <v>-0.28104262680294673</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
-        <v>-7.3612359878262576E-2</v>
+        <v>-2.3025850929940455</v>
       </c>
       <c r="D10">
         <f>PARS!D10</f>
-        <v>-0.22083707963478771</v>
+        <v>0.40546510810816438</v>
       </c>
       <c r="E10">
         <f>PARS!H10</f>
@@ -1783,7 +1782,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>-3.9811200000000012E-2</v>
+        <v>-7.9093959633794286E-2</v>
       </c>
       <c r="C11">
         <f>PARS!C11</f>
@@ -1840,15 +1839,15 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>23.737194185778787</v>
+        <v>20.659721997091967</v>
       </c>
       <c r="C12">
         <f>PARS!C12</f>
-        <v>16.527777597673573</v>
+        <v>20.659721997091967</v>
       </c>
       <c r="D12">
         <f>PARS!D12</f>
-        <v>24.791666396510362</v>
+        <v>20.659721997091967</v>
       </c>
       <c r="E12">
         <f>PARS!H12</f>
@@ -1897,7 +1896,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>7.0254528688931144</v>
+        <v>6.1558490617802413</v>
       </c>
       <c r="C13">
         <f>PARS!C13</f>
@@ -1954,7 +1953,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0.34895999999999999</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <f>PARS!C14</f>
@@ -1962,7 +1961,7 @@
       </c>
       <c r="D14">
         <f>PARS!D14</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <f>PARS!H14</f>
@@ -2011,7 +2010,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0.74479999999999991</v>
+        <v>0.49298743824490843</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -2066,7 +2065,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0.87239999999999995</v>
+        <v>0.74649371912245421</v>
       </c>
       <c r="C16">
         <f>PARS!C16</f>
@@ -2123,7 +2122,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0.9129176377874767</v>
+        <v>0.72968783472137333</v>
       </c>
       <c r="C17">
         <f>PARS!C17</f>
@@ -2180,7 +2179,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1.2844047790825028</v>
+        <v>1.1838676447996261</v>
       </c>
       <c r="C18">
         <f>PARS!C18</f>
@@ -2237,7 +2236,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>5.7450870128248193</v>
+        <v>4.5988388309268338</v>
       </c>
       <c r="C19">
         <f>PARS!C19</f>
@@ -2294,7 +2293,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>6.0254528688929208</v>
+        <v>5.1558490617800761</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2351,7 +2350,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>2.0087752351280055</v>
+        <v>1.7188653096650475</v>
       </c>
       <c r="C21">
         <f>PARS!C21</f>
@@ -2408,7 +2407,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0.91559334277495219</v>
+        <v>0.45114025010187542</v>
       </c>
       <c r="C22">
         <f>PARS!C22</f>
@@ -2465,7 +2464,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>-0.17330008246387557</v>
+        <v>-0.25124100691168311</v>
       </c>
       <c r="C23">
         <f>PARS!C23</f>
@@ -2522,7 +2521,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>1.2864029876769305</v>
+        <v>0.10380785668536685</v>
       </c>
       <c r="C24">
         <f>PARS!C24</f>
@@ -2579,15 +2578,15 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>0.26171999999999995</v>
+        <v>0.1449</v>
       </c>
       <c r="C25">
         <f>PARS!C25</f>
-        <v>0</v>
+        <v>0.1449</v>
       </c>
       <c r="D25">
         <f>PARS!D25</f>
-        <v>0.3</v>
+        <v>0.1449</v>
       </c>
       <c r="E25">
         <f>PARS!H25</f>
@@ -2636,15 +2635,15 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>0.26171999999999995</v>
+        <v>0.1449</v>
       </c>
       <c r="C26">
         <f>PARS!C26</f>
-        <v>0</v>
+        <v>0.1449</v>
       </c>
       <c r="D26">
         <f>PARS!D26</f>
-        <v>0.3</v>
+        <v>0.1449</v>
       </c>
       <c r="E26">
         <f>PARS!H26</f>
@@ -2693,7 +2692,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0.5839641849165802</v>
+        <v>0.47623044732625586</v>
       </c>
       <c r="C27">
         <f>PARS!C27</f>
@@ -2750,7 +2749,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1.6515765411940042</v>
+        <v>1.5132543538014338</v>
       </c>
       <c r="C28">
         <f>PARS!C28</f>
@@ -2807,15 +2806,15 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0.69808632356283817</v>
+        <v>0.68428933482175858</v>
       </c>
       <c r="C29">
         <f>PARS!C29</f>
-        <v>0.39941511352741998</v>
+        <v>-0.40790273033909435</v>
       </c>
       <c r="D29">
         <f>PARS!D29</f>
-        <v>0.74177092512235143</v>
+        <v>1.0551933911457412</v>
       </c>
       <c r="E29">
         <f>PARS!H29</f>
@@ -2864,15 +2863,15 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>-6.3761596685296542</v>
+        <v>-4.185130455588383</v>
       </c>
       <c r="C30">
         <f>PARS!C30</f>
-        <v>-2.3229960902541733</v>
+        <v>-4.8691357318225563</v>
       </c>
       <c r="D30">
         <f>PARS!D30</f>
-        <v>-6.9689882707625195</v>
+        <v>-3.9528449999484012</v>
       </c>
       <c r="E30">
         <f>PARS!H30</f>
@@ -2921,7 +2920,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>-0.50977231908508835</v>
+        <v>-0.587713243532896</v>
       </c>
       <c r="C31">
         <f>PARS!C31</f>
@@ -2978,7 +2977,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>1.0977927119999999</v>
+        <v>1.0300072885011469</v>
       </c>
       <c r="C32">
         <f>PARS!C32</f>
@@ -3035,15 +3034,15 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>3.5789199999999997</v>
+        <v>0.47623044732625586</v>
       </c>
       <c r="C33">
         <f>PARS!C33</f>
-        <v>0.7</v>
+        <v>-0.16251892949777494</v>
       </c>
       <c r="D33">
         <f>PARS!D33</f>
-        <v>4</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="E33">
         <f>PARS!H33</f>
@@ -3092,7 +3091,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1.5836207359999999</v>
+        <v>1.4858368820192629</v>
       </c>
       <c r="C34">
         <f>PARS!C34</f>
@@ -3149,7 +3148,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>4.3620000000000001</v>
+        <v>3.732468595612271</v>
       </c>
       <c r="C35">
         <f>PARS!C35</f>
@@ -3206,7 +3205,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>2.1678325612750515</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <f>PARS!C36</f>
@@ -3214,7 +3213,7 @@
       </c>
       <c r="D36">
         <f>PARS!D36</f>
-        <v>2.4849066497880004</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <f>PARS!H36</f>
@@ -3263,7 +3262,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>2.7823974983334221</v>
+        <v>1.3838978452763118</v>
       </c>
       <c r="C37">
         <f>PARS!C37</f>
@@ -3491,7 +3490,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>1.4900000000000002</v>
+        <v>1.49</v>
       </c>
       <c r="C41">
         <f>PARS!C41</f>
@@ -3663,7 +3662,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>1.9084000000000001</v>
+        <v>1.9083999999999999</v>
       </c>
       <c r="C44">
         <f>PARS!C44</f>
@@ -3834,15 +3833,15 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>1.2361</v>
+        <v>1.1266</v>
       </c>
       <c r="C47">
         <f>PARS!C47</f>
-        <v>1.2361</v>
+        <v>1.1266</v>
       </c>
       <c r="D47">
         <f>PARS!D47</f>
-        <v>1.2361</v>
+        <v>1.1266</v>
       </c>
       <c r="E47">
         <f>PARS!H47</f>
@@ -3891,15 +3890,15 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>0.97099999999999997</v>
+        <v>0.98860000000000003</v>
       </c>
       <c r="C48">
         <f>PARS!C48</f>
-        <v>0.97099999999999997</v>
+        <v>0.98860000000000003</v>
       </c>
       <c r="D48">
         <f>PARS!D48</f>
-        <v>0.97099999999999997</v>
+        <v>0.98860000000000003</v>
       </c>
       <c r="E48">
         <f>PARS!H48</f>
@@ -3948,15 +3947,15 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>0.86060000000000003</v>
+        <v>0.9607</v>
       </c>
       <c r="C49">
         <f>PARS!C49</f>
-        <v>0.86060000000000003</v>
+        <v>0.9607</v>
       </c>
       <c r="D49">
         <f>PARS!D49</f>
-        <v>0.86060000000000003</v>
+        <v>0.9607</v>
       </c>
       <c r="E49">
         <f>PARS!H49</f>
@@ -28904,8 +28903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29074,21 +29073,21 @@
         <v>-2.5836226227271579</v>
       </c>
       <c r="C4">
-        <f>B4*0.9</f>
-        <v>-2.3252603604544424</v>
+        <f t="shared" ref="C4:D4" si="5">LN(F4)</f>
+        <v>-2.5836226227271579</v>
       </c>
       <c r="D4">
-        <f>B4*1.1</f>
-        <v>-2.8419848849998739</v>
+        <f t="shared" si="5"/>
+        <v>-2.5836226227271579</v>
       </c>
       <c r="E4">
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="F4">
-        <v>-1.0098477435337305</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="G4">
-        <v>-1.234258353207893</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -29125,11 +29124,11 @@
         <v>2.0794415416798357</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:D6" si="5">LN(F5)</f>
+        <f t="shared" ref="C5:D6" si="6">LN(F5)</f>
         <v>1.6094379124341003</v>
       </c>
       <c r="D5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.341805806147327</v>
       </c>
       <c r="E5">
@@ -29173,11 +29172,11 @@
         <v>2.1972245773362196</v>
       </c>
       <c r="C6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.912023005428146</v>
       </c>
       <c r="D6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9077552789821368</v>
       </c>
       <c r="E6">
@@ -29221,11 +29220,11 @@
         <v>1.6000341346441075E-2</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:D7" si="6">-LN(1/F7 -1)</f>
+        <f t="shared" ref="C7:D7" si="7">-LN(1/F7 -1)</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.84729786038720356</v>
       </c>
       <c r="E7">
@@ -29269,12 +29268,12 @@
         <v>-1.6094379124341003</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:D9" si="7">LN(F8)</f>
+        <f t="shared" ref="C8:D9" si="8">LN(F8)</f>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D8">
-        <f t="shared" si="7"/>
-        <v>0.40546510810816438</v>
+        <f t="shared" si="8"/>
+        <v>-0.35667494393873245</v>
       </c>
       <c r="E8">
         <v>0.2</v>
@@ -29283,7 +29282,7 @@
         <v>0.1</v>
       </c>
       <c r="G8">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -29317,11 +29316,11 @@
         <v>-0.14722471975652515</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.40546510810816438</v>
       </c>
       <c r="E9">
@@ -29365,21 +29364,21 @@
         <v>-0.14722471975652515</v>
       </c>
       <c r="C10">
-        <f>B10*0.5</f>
-        <v>-7.3612359878262576E-2</v>
+        <f t="shared" ref="C10:D10" si="9">C9</f>
+        <v>-2.3025850929940455</v>
       </c>
       <c r="D10">
-        <f>B10*1.5</f>
-        <v>-0.22083707963478771</v>
+        <f t="shared" si="9"/>
+        <v>0.40546510810816438</v>
       </c>
       <c r="E10">
         <v>0.86309999999999998</v>
       </c>
       <c r="F10">
-        <v>-7.3612359878262576E-2</v>
+        <v>0.86309999999999998</v>
       </c>
       <c r="G10">
-        <v>-0.22083707963478771</v>
+        <v>0.86309999999999998</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -29406,11 +29405,11 @@
         <v>-0.26</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:D11" si="8">F11</f>
+        <f t="shared" ref="C11:D11" si="10">F11</f>
         <v>-0.312</v>
       </c>
       <c r="D11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E11">
@@ -29450,21 +29449,23 @@
         <v>20.659721997091967</v>
       </c>
       <c r="C12">
-        <f>B12*0.8</f>
-        <v>16.527777597673573</v>
+        <f>F12</f>
+        <v>20.659721997091967</v>
       </c>
       <c r="D12">
-        <f>B12*1.2</f>
-        <v>24.791666396510362</v>
+        <f>G12</f>
+        <v>20.659721997091967</v>
       </c>
       <c r="E12">
         <v>20.659721997091967</v>
       </c>
       <c r="F12">
-        <v>16.527777597673573</v>
+        <f>E12</f>
+        <v>20.659721997091967</v>
       </c>
       <c r="G12">
-        <v>24.791666396510362</v>
+        <f>E12</f>
+        <v>20.659721997091967</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -29491,7 +29492,7 @@
         <v>1.8472978603872034</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13" si="9">1-LN(1/(F13-1) -1)</f>
+        <f t="shared" ref="C13" si="11">1-LN(1/(F13-1) -1)</f>
         <v>1</v>
       </c>
       <c r="D13">
@@ -29538,7 +29539,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -29547,7 +29548,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -29574,11 +29575,11 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:D16" si="10">F15</f>
+        <f t="shared" ref="C15:D16" si="12">F15</f>
         <v>-1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E15">
@@ -29598,11 +29599,11 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <f t="shared" ref="P15" si="11">I15-N15</f>
+        <f t="shared" ref="P15" si="13">I15-N15</f>
         <v>1</v>
       </c>
       <c r="Q15">
-        <f t="shared" ref="Q15" si="12">P15+K15+N15+J15</f>
+        <f t="shared" ref="Q15" si="14">P15+K15+N15+J15</f>
         <v>1</v>
       </c>
     </row>
@@ -29615,11 +29616,11 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="C16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E16">
@@ -29656,11 +29657,11 @@
         <v>-0.35667494393873245</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:D18" si="13">LN(F17)</f>
+        <f t="shared" ref="C17:D18" si="15">LN(F17)</f>
         <v>-0.35667494393873245</v>
       </c>
       <c r="D17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0986122886681098</v>
       </c>
       <c r="E17">
@@ -29704,11 +29705,11 @@
         <v>0.91629073187415511</v>
       </c>
       <c r="C18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.58778666490211906</v>
       </c>
       <c r="D18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="E18">
@@ -29755,11 +29756,11 @@
         <v>-0.69329718431032028</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:D20" si="14">-LN(1/F19 -1)</f>
+        <f t="shared" ref="C19:D20" si="16">-LN(1/F19 -1)</f>
         <v>-2.1972245773362196</v>
       </c>
       <c r="D19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E19">
@@ -29800,11 +29801,11 @@
         <v>0.84729786038720356</v>
       </c>
       <c r="C20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E20">
@@ -29848,11 +29849,11 @@
         <v>1.3862943611198906</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:D24" si="15">LN(F21)</f>
+        <f t="shared" ref="C21:D24" si="17">LN(F21)</f>
         <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="E21">
@@ -29896,11 +29897,11 @@
         <v>-0.3047604139865322</v>
       </c>
       <c r="C22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="E22">
@@ -29944,11 +29945,11 @@
         <v>-0.35667494393873245</v>
       </c>
       <c r="C23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.71334988787746489</v>
       </c>
       <c r="D23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-9.4310679471241415E-2</v>
       </c>
       <c r="E23">
@@ -29992,11 +29993,11 @@
         <v>2.0977847712396644</v>
       </c>
       <c r="C24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.4849066497880004</v>
       </c>
       <c r="E24">
@@ -30040,19 +30041,23 @@
         <v>0.1449</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <f>F25</f>
+        <v>0.1449</v>
       </c>
       <c r="D25" s="3">
-        <v>0.3</v>
+        <f>G25</f>
+        <v>0.1449</v>
       </c>
       <c r="E25">
         <v>0.1449</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <f>E25</f>
+        <v>0.1449</v>
       </c>
       <c r="G25">
-        <v>0.3</v>
+        <f>F25</f>
+        <v>0.1449</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -30079,19 +30084,23 @@
         <v>0.1449</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <f>F26</f>
+        <v>0.1449</v>
       </c>
       <c r="D26" s="3">
-        <v>0.3</v>
+        <f>G26</f>
+        <v>0.1449</v>
       </c>
       <c r="E26">
         <v>0.1449</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <f>E26</f>
+        <v>0.1449</v>
       </c>
       <c r="G26">
-        <v>0.3</v>
+        <f>F26</f>
+        <v>0.1449</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -30118,11 +30127,11 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:D28" si="16">LN(F27)</f>
+        <f t="shared" ref="C27:D28" si="18">LN(F27)</f>
         <v>-0.16251892949777494</v>
       </c>
       <c r="D27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="E27">
@@ -30166,11 +30175,11 @@
         <v>1.3862943611198906</v>
       </c>
       <c r="C28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="D28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.791759469228055</v>
       </c>
       <c r="E28">
@@ -30214,12 +30223,12 @@
         <v>0.57059301932488571</v>
       </c>
       <c r="C29">
-        <f>B29*0.7</f>
-        <v>0.39941511352741998</v>
+        <f t="shared" ref="C29:D29" si="19">-LN(1/F29 -1)</f>
+        <v>-0.40790273033909435</v>
       </c>
       <c r="D29">
-        <f>B29*1.3</f>
-        <v>0.74177092512235143</v>
+        <f t="shared" si="19"/>
+        <v>1.0551933911457412</v>
       </c>
       <c r="E29">
         <v>0.63890000000000002</v>
@@ -30265,21 +30274,23 @@
         <v>-4.6459921805083466</v>
       </c>
       <c r="C30">
-        <f>B30*0.5</f>
-        <v>-2.3229960902541733</v>
+        <f t="shared" ref="C30:D30" si="20">LN(F30)</f>
+        <v>-4.8691357318225563</v>
       </c>
       <c r="D30">
-        <f>B30*1.5</f>
-        <v>-6.9689882707625195</v>
+        <f t="shared" si="20"/>
+        <v>-3.9528449999484012</v>
       </c>
       <c r="E30">
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="F30">
-        <v>-2.3229960902541733</v>
+        <f>E30*0.8</f>
+        <v>7.6799999999999993E-3</v>
       </c>
       <c r="G30">
-        <v>-6.9689882707625195</v>
+        <f>E30*2</f>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -30316,11 +30327,11 @@
         <v>-0.69314718055994529</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:D31" si="17">LN(F31)</f>
+        <f t="shared" ref="C31:D31" si="21">LN(F31)</f>
         <v>-1.0498221244986778</v>
       </c>
       <c r="D31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.43078291609245423</v>
       </c>
       <c r="E31">
@@ -30360,14 +30371,15 @@
         <v>100</v>
       </c>
       <c r="B32">
+        <f>E32</f>
         <v>0.89729999999999999</v>
       </c>
       <c r="C32">
-        <f>B32*0.7</f>
+        <f t="shared" ref="C32:D32" si="22">F32</f>
         <v>0.62810999999999995</v>
       </c>
       <c r="D32">
-        <f>B32*1.3</f>
+        <f t="shared" si="22"/>
         <v>1.16649</v>
       </c>
       <c r="E32">
@@ -30406,23 +30418,28 @@
         <v>101</v>
       </c>
       <c r="B33">
+        <f>B27</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:G33" si="23">C27</f>
+        <v>-0.16251892949777494</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="23"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="C33">
-        <f>B33*0.7</f>
-        <v>0.7</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
       <c r="F33">
-        <v>0.7</v>
+        <f t="shared" si="23"/>
+        <v>0.85</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -30535,8 +30552,8 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <f>D24</f>
-        <v>2.4849066497880004</v>
+        <f>G36</f>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -30545,7 +30562,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -30572,11 +30589,11 @@
         <v>1.8971249848733813</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:D37" si="18">LN(F37)</f>
+        <f t="shared" ref="C37:D37" si="24">LN(F37)</f>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>4.1997100778674268</v>
       </c>
       <c r="E37">
@@ -30698,11 +30715,11 @@
         <v>0.26712328767123289</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:D43" si="19">B40</f>
+        <f t="shared" ref="C40:D43" si="25">B40</f>
         <v>0.26712328767123289</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D41" si="20">B40</f>
+        <f t="shared" ref="D40:D41" si="26">B40</f>
         <v>0.26712328767123289</v>
       </c>
       <c r="E40">
@@ -30738,11 +30755,11 @@
         <v>1.49</v>
       </c>
       <c r="C41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.49</v>
       </c>
       <c r="D41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.49</v>
       </c>
       <c r="E41">
@@ -30822,11 +30839,11 @@
         <v>1.9809000000000001</v>
       </c>
       <c r="C43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.9809000000000001</v>
       </c>
       <c r="D43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.9809000000000001</v>
       </c>
       <c r="E43">
@@ -30862,11 +30879,11 @@
         <v>1.9084000000000001</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:D44" si="21">B44</f>
+        <f t="shared" ref="C44:D44" si="27">B44</f>
         <v>1.9084000000000001</v>
       </c>
       <c r="D44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.9084000000000001</v>
       </c>
       <c r="E44">
@@ -30902,11 +30919,11 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:D45" si="22">B45</f>
+        <f t="shared" ref="C45:D45" si="28">B45</f>
         <v>1</v>
       </c>
       <c r="D45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="E45">
@@ -30943,11 +30960,11 @@
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:D46" si="23">B46</f>
+        <f t="shared" ref="C46:D46" si="29">B46</f>
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="D46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="E46">
@@ -30980,15 +30997,15 @@
         <v>182</v>
       </c>
       <c r="B47">
-        <v>1.2361</v>
+        <v>1.1266</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:D47" si="24">B47</f>
-        <v>1.2361</v>
+        <f t="shared" ref="C47:D47" si="30">B47</f>
+        <v>1.1266</v>
       </c>
       <c r="D47">
-        <f t="shared" si="24"/>
-        <v>1.2361</v>
+        <f t="shared" si="30"/>
+        <v>1.1266</v>
       </c>
       <c r="E47">
         <v>1.2361</v>
@@ -31020,15 +31037,15 @@
         <v>183</v>
       </c>
       <c r="B48">
-        <v>0.97099999999999997</v>
+        <v>0.98860000000000003</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:D48" si="25">B48</f>
-        <v>0.97099999999999997</v>
+        <f t="shared" ref="C48:D48" si="31">B48</f>
+        <v>0.98860000000000003</v>
       </c>
       <c r="D48">
-        <f t="shared" si="25"/>
-        <v>0.97099999999999997</v>
+        <f t="shared" si="31"/>
+        <v>0.98860000000000003</v>
       </c>
       <c r="E48">
         <v>0.97099999999999997</v>
@@ -31060,15 +31077,15 @@
         <v>184</v>
       </c>
       <c r="B49">
-        <v>0.86060000000000003</v>
+        <v>0.9607</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:D49" si="26">B49</f>
-        <v>0.86060000000000003</v>
+        <f t="shared" ref="C49:D49" si="32">B49</f>
+        <v>0.9607</v>
       </c>
       <c r="D49">
-        <f t="shared" si="26"/>
-        <v>0.86060000000000003</v>
+        <f t="shared" si="32"/>
+        <v>0.9607</v>
       </c>
       <c r="E49">
         <v>0.86060000000000003</v>
@@ -31105,7 +31122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1237" documentId="8_{B9F5EDDD-5B41-4F7E-B91F-85F1F4692D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{551A250B-F013-4F62-A6B0-EE38C0382EF1}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DED15BE8-F7C5-408D-99BE-6852BC4CEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{619C077B-E7C2-4EDB-9538-DF2DF64D6507}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="213">
   <si>
     <t>label</t>
   </si>
@@ -747,6 +747,9 @@
   <si>
     <t>I still think this is just way too high??</t>
   </si>
+  <si>
+    <t>share perturb</t>
+  </si>
 </sst>
 </file>
 
@@ -1207,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1272,8 +1275,8 @@
         <v>71</v>
       </c>
       <c r="B2">
-        <f>D2*$Q$4+C2*(1-$Q$4)</f>
-        <v>0.57460883117957295</v>
+        <f>(D2*$Q$4+C2*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B2</f>
+        <v>0.51554199656590594</v>
       </c>
       <c r="C2">
         <f>PARS!C2</f>
@@ -1329,8 +1332,8 @@
         <v>72</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B49" si="0">D3*$Q$4+C3*(1-$Q$4)</f>
-        <v>0.62236092741176097</v>
+        <f>(D3*$Q$4+C3*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B3</f>
+        <v>0.23987187255798972</v>
       </c>
       <c r="C3">
         <f>PARS!C3</f>
@@ -1389,7 +1392,7 @@
         <v>73</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>(D4*$Q$4+C4*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B4</f>
         <v>-2.5836226227271579</v>
       </c>
       <c r="C4">
@@ -1445,7 +1448,7 @@
       </c>
       <c r="R4">
         <f ca="1">RAND()</f>
-        <v>0.97894623173766415</v>
+        <v>0.83775034972002071</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -1453,8 +1456,8 @@
         <v>74</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>2.1561459451779652</v>
+        <f>(D5*$Q$4+C5*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B5</f>
+        <v>2.0947824223794616</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
@@ -1510,16 +1513,16 @@
         <v>75</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>6.1483183318086301</v>
+        <f>(D6*$Q$4+C6*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B6</f>
+        <v>2.0664092910330836</v>
       </c>
       <c r="C6">
         <f>PARS!C6</f>
-        <v>3.912023005428146</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="D6">
         <f>PARS!D6</f>
-        <v>6.9077552789821368</v>
+        <v>2.3025850929940459</v>
       </c>
       <c r="E6">
         <f>PARS!H6</f>
@@ -1560,6 +1563,9 @@
       <c r="N6">
         <f>PARS!Q6</f>
         <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -1567,8 +1573,8 @@
         <v>76</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.63250253100494158</v>
+        <f>(D7*$Q$4+C7*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B7</f>
+        <v>0.13930077927814119</v>
       </c>
       <c r="C7">
         <f>PARS!C7</f>
@@ -1617,6 +1623,10 @@
       <c r="N7">
         <f>PARS!Q7</f>
         <v>1</v>
+      </c>
+      <c r="Q7">
+        <f>0.2</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -1624,8 +1634,8 @@
         <v>77</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>-0.84997538874761558</v>
+        <f>(D8*$Q$4+C8*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B8</f>
+        <v>-1.4575454076968035</v>
       </c>
       <c r="C8">
         <f>PARS!C8</f>
@@ -1681,8 +1691,8 @@
         <v>78</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>-0.28104262680294673</v>
+        <f>(D9*$Q$4+C9*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B9</f>
+        <v>-0.17398830116580949</v>
       </c>
       <c r="C9">
         <f>PARS!C9</f>
@@ -1738,8 +1748,8 @@
         <v>79</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>-0.28104262680294673</v>
+        <f>(D10*$Q$4+C10*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B10</f>
+        <v>-0.17398830116580949</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
@@ -1795,8 +1805,8 @@
         <v>80</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>-7.9093959633794286E-2</v>
+        <f>(D11*$Q$4+C11*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B11</f>
+        <v>-0.21099875517314412</v>
       </c>
       <c r="C11">
         <f>PARS!C11</f>
@@ -1852,8 +1862,8 @@
         <v>81</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>20.659721997091967</v>
+        <f>(D12*$Q$4+C12*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B12</f>
+        <v>20.552805894085484</v>
       </c>
       <c r="C12">
         <f>PARS!C12</f>
@@ -1909,8 +1919,8 @@
         <v>82</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>6.1558490617802413</v>
+        <f>(D13*$Q$4+C13*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B13</f>
+        <v>2.7090081006658115</v>
       </c>
       <c r="C13">
         <f>PARS!C13</f>
@@ -1966,7 +1976,7 @@
         <v>83</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f>(D14*$Q$4+C14*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B14</f>
         <v>0</v>
       </c>
       <c r="C14">
@@ -2023,8 +2033,8 @@
         <v>193</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.49298743824490843</v>
+        <f>(D15*$Q$4+C15*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B15</f>
+        <v>9.8597487648981685E-2</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -2078,8 +2088,8 @@
         <v>84</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0.74649371912245421</v>
+        <f>(D16*$Q$4+C16*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B16</f>
+        <v>0.28929874382449083</v>
       </c>
       <c r="C16">
         <f>PARS!C16</f>
@@ -2135,8 +2145,8 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0.72968783472137333</v>
+        <f>(D17*$Q$4+C17*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B17</f>
+        <v>-0.1394023882067113</v>
       </c>
       <c r="C17">
         <f>PARS!C17</f>
@@ -2192,8 +2202,8 @@
         <v>86</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>1.1838676447996261</v>
+        <f>(D18*$Q$4+C18*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B18</f>
+        <v>0.96980611445924936</v>
       </c>
       <c r="C18">
         <f>PARS!C18</f>
@@ -2249,8 +2259,8 @@
         <v>87</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>4.5988388309268338</v>
+        <f>(D19*$Q$4+C19*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B19</f>
+        <v>0.3651300187371106</v>
       </c>
       <c r="C19">
         <f>PARS!C19</f>
@@ -2306,8 +2316,8 @@
         <v>88</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>5.1558490617800761</v>
+        <f>(D20*$Q$4+C20*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B20</f>
+        <v>1.7090081006657782</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2363,8 +2373,8 @@
         <v>89</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>1.7188653096650475</v>
+        <f>(D21*$Q$4+C21*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B21</f>
+        <v>1.4528085508289219</v>
       </c>
       <c r="C21">
         <f>PARS!C21</f>
@@ -2420,8 +2430,8 @@
         <v>90</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>0.45114025010187542</v>
+        <f>(D22*$Q$4+C22*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B22</f>
+        <v>-0.15358028116885067</v>
       </c>
       <c r="C22">
         <f>PARS!C22</f>
@@ -2477,8 +2487,8 @@
         <v>91</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>-0.25124100691168311</v>
+        <f>(D23*$Q$4+C23*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B23</f>
+        <v>-0.33558815653332263</v>
       </c>
       <c r="C23">
         <f>PARS!C23</f>
@@ -2534,8 +2544,8 @@
         <v>92</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>0.10380785668536685</v>
+        <f>(D24*$Q$4+C24*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B24</f>
+        <v>1.6989893883288052</v>
       </c>
       <c r="C24">
         <f>PARS!C24</f>
@@ -2591,7 +2601,7 @@
         <v>93</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f>(D25*$Q$4+C25*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B25</f>
         <v>0.1449</v>
       </c>
       <c r="C25">
@@ -2648,7 +2658,7 @@
         <v>94</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f>(D26*$Q$4+C26*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B26</f>
         <v>0.1449</v>
       </c>
       <c r="C26">
@@ -2705,8 +2715,8 @@
         <v>95</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>0.47623044732625586</v>
+        <f>(D27*$Q$4+C27*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B27</f>
+        <v>9.5246089465251177E-2</v>
       </c>
       <c r="C27">
         <f>PARS!C27</f>
@@ -2762,8 +2772,8 @@
         <v>96</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>1.5132543538014338</v>
+        <f>(D28*$Q$4+C28*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B28</f>
+        <v>1.4116863596561993</v>
       </c>
       <c r="C28">
         <f>PARS!C28</f>
@@ -2819,8 +2829,8 @@
         <v>97</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>0.68428933482175858</v>
+        <f>(D29*$Q$4+C29*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B29</f>
+        <v>0.59333228242426028</v>
       </c>
       <c r="C29">
         <f>PARS!C29</f>
@@ -2876,8 +2886,8 @@
         <v>98</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>-4.185130455588383</v>
+        <f>(D30*$Q$4+C30*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B30</f>
+        <v>-4.5538198355243544</v>
       </c>
       <c r="C30">
         <f>PARS!C30</f>
@@ -2933,8 +2943,8 @@
         <v>99</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
-        <v>-0.587713243532896</v>
+        <f>(D31*$Q$4+C31*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B31</f>
+        <v>-0.67206039315453547</v>
       </c>
       <c r="C31">
         <f>PARS!C31</f>
@@ -2990,8 +3000,8 @@
         <v>100</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>1.0300072885011469</v>
+        <f>(D32*$Q$4+C32*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B32</f>
+        <v>0.92384145770022941</v>
       </c>
       <c r="C32">
         <f>PARS!C32</f>
@@ -3047,8 +3057,8 @@
         <v>101</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>0.47623044732625586</v>
+        <f>(D33*$Q$4+C33*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B33</f>
+        <v>9.5246089465251177E-2</v>
       </c>
       <c r="C33">
         <f>PARS!C33</f>
@@ -3104,8 +3114,8 @@
         <v>102</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
-        <v>1.4858368820192629</v>
+        <f>(D34*$Q$4+C34*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B34</f>
+        <v>1.3326873764038525</v>
       </c>
       <c r="C34">
         <f>PARS!C34</f>
@@ -3161,8 +3171,8 @@
         <v>103</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
-        <v>3.732468595612271</v>
+        <f>(D35*$Q$4+C35*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B35</f>
+        <v>0.74649371912245421</v>
       </c>
       <c r="C35">
         <f>PARS!C35</f>
@@ -3218,7 +3228,7 @@
         <v>104</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f>(D36*$Q$4+C36*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B36</f>
         <v>0</v>
       </c>
       <c r="C36">
@@ -3275,8 +3285,8 @@
         <v>105</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
-        <v>1.3838978452763118</v>
+        <f>(D37*$Q$4+C37*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B37</f>
+        <v>1.7944795569539675</v>
       </c>
       <c r="C37">
         <f>PARS!C37</f>
@@ -3332,8 +3342,8 @@
         <v>106</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
-        <v>4.2000000000000003E-2</v>
+        <f>(D38*$Q$4+C38*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B38</f>
+        <v>4.200000000000001E-2</v>
       </c>
       <c r="C38">
         <f>PARS!C38</f>
@@ -3389,7 +3399,7 @@
         <v>107</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f>(D39*$Q$4+C39*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B39</f>
         <v>0</v>
       </c>
       <c r="C39">
@@ -3446,7 +3456,7 @@
         <v>108</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f>(D40*$Q$4+C40*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B40</f>
         <v>0.26712328767123289</v>
       </c>
       <c r="C40">
@@ -3503,7 +3513,7 @@
         <v>109</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f>(D41*$Q$4+C41*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B41</f>
         <v>1.49</v>
       </c>
       <c r="C41">
@@ -3560,7 +3570,7 @@
         <v>110</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f>(D42*$Q$4+C42*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B42</f>
         <v>1</v>
       </c>
       <c r="C42">
@@ -3618,7 +3628,7 @@
         <v>111</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f>(D43*$Q$4+C43*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B43</f>
         <v>1.9809000000000001</v>
       </c>
       <c r="C43">
@@ -3675,8 +3685,8 @@
         <v>112</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
-        <v>1.9083999999999999</v>
+        <f>(D44*$Q$4+C44*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B44</f>
+        <v>1.9084000000000001</v>
       </c>
       <c r="C44">
         <f>PARS!C44</f>
@@ -3732,7 +3742,7 @@
         <v>113</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f>(D45*$Q$4+C45*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B45</f>
         <v>1</v>
       </c>
       <c r="C45">
@@ -3789,7 +3799,7 @@
         <v>114</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f>(D46*$Q$4+C46*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B46</f>
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="C46">
@@ -3846,7 +3856,7 @@
         <v>182</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f>(D47*$Q$4+C47*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B47</f>
         <v>1.1266</v>
       </c>
       <c r="C47">
@@ -3903,7 +3913,7 @@
         <v>183</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f>(D48*$Q$4+C48*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B48</f>
         <v>0.98860000000000003</v>
       </c>
       <c r="C48">
@@ -3960,7 +3970,7 @@
         <v>184</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f>(D49*$Q$4+C49*(1-$Q$4))*$Q$7 +(1-$Q$7)*PARS!B49</f>
         <v>0.9607</v>
       </c>
       <c r="C49">
@@ -32278,8 +32288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32499,7 +32509,7 @@
         <v>2.0794415416798357</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:D6" si="6">LN(F5)</f>
+        <f t="shared" ref="C5:D5" si="6">LN(F5)</f>
         <v>1.6094379124341003</v>
       </c>
       <c r="D5">
@@ -32547,12 +32557,12 @@
         <v>2.1972245773362196</v>
       </c>
       <c r="C6">
-        <f t="shared" si="6"/>
-        <v>3.912023005428146</v>
+        <f t="shared" ref="C6:D6" si="7">LN(F6/100)</f>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="D6">
-        <f t="shared" si="6"/>
-        <v>6.9077552789821368</v>
+        <f t="shared" si="7"/>
+        <v>2.3025850929940459</v>
       </c>
       <c r="E6">
         <v>900</v>
@@ -32595,11 +32605,11 @@
         <v>1.6000341346441075E-2</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:D7" si="7">-LN(1/F7 -1)</f>
+        <f t="shared" ref="C7:D7" si="8">-LN(1/F7 -1)</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.84729786038720356</v>
       </c>
       <c r="E7">
@@ -32643,11 +32653,11 @@
         <v>-1.6094379124341003</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:D9" si="8">LN(F8)</f>
+        <f t="shared" ref="C8:D9" si="9">LN(F8)</f>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.35667494393873245</v>
       </c>
       <c r="E8">
@@ -32691,11 +32701,11 @@
         <v>-0.14722471975652515</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.40546510810816438</v>
       </c>
       <c r="E9">
@@ -32739,11 +32749,11 @@
         <v>-0.14722471975652515</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:D10" si="9">C9</f>
+        <f t="shared" ref="C10:D10" si="10">C9</f>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.40546510810816438</v>
       </c>
       <c r="E10">
@@ -32780,11 +32790,11 @@
         <v>-0.24397495405798156</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:D11" si="10">F11</f>
+        <f t="shared" ref="C11:D11" si="11">F11</f>
         <v>-0.312</v>
       </c>
       <c r="D11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E11">
@@ -32868,7 +32878,7 @@
         <v>1.8472978603872034</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13" si="11">1-LN(1/(F13-1) -1)</f>
+        <f t="shared" ref="C13" si="12">1-LN(1/(F13-1) -1)</f>
         <v>1</v>
       </c>
       <c r="D13">
@@ -32951,11 +32961,11 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:D16" si="12">F15</f>
+        <f t="shared" ref="C15:D16" si="13">F15</f>
         <v>-1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E15">
@@ -32975,11 +32985,11 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <f t="shared" ref="P15" si="13">I15-N15</f>
+        <f t="shared" ref="P15" si="14">I15-N15</f>
         <v>1</v>
       </c>
       <c r="Q15">
-        <f t="shared" ref="Q15" si="14">P15+K15+N15+J15</f>
+        <f t="shared" ref="Q15" si="15">P15+K15+N15+J15</f>
         <v>1</v>
       </c>
     </row>
@@ -32992,11 +33002,11 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="C16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E16">
@@ -33033,11 +33043,11 @@
         <v>-0.35667494393873245</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:D18" si="15">LN(F17)</f>
+        <f t="shared" ref="C17:D18" si="16">LN(F17)</f>
         <v>-0.35667494393873245</v>
       </c>
       <c r="D17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0986122886681098</v>
       </c>
       <c r="E17">
@@ -33081,11 +33091,11 @@
         <v>0.91629073187415511</v>
       </c>
       <c r="C18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.58778666490211906</v>
       </c>
       <c r="D18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="E18">
@@ -33132,11 +33142,11 @@
         <v>-0.69329718431032028</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:D20" si="16">-LN(1/F19 -1)</f>
+        <f t="shared" ref="C19:D20" si="17">-LN(1/F19 -1)</f>
         <v>-2.1972245773362196</v>
       </c>
       <c r="D19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E19">
@@ -33177,11 +33187,11 @@
         <v>0.84729786038720356</v>
       </c>
       <c r="C20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E20">
@@ -33225,11 +33235,11 @@
         <v>1.3862943611198906</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:D24" si="17">LN(F21)</f>
+        <f t="shared" ref="C21:D24" si="18">LN(F21)</f>
         <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="E21">
@@ -33273,11 +33283,11 @@
         <v>-0.3047604139865322</v>
       </c>
       <c r="C22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="E22">
@@ -33321,11 +33331,11 @@
         <v>-0.35667494393873245</v>
       </c>
       <c r="C23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-0.71334988787746489</v>
       </c>
       <c r="D23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-9.4310679471241415E-2</v>
       </c>
       <c r="E23">
@@ -33369,11 +33379,11 @@
         <v>2.0977847712396644</v>
       </c>
       <c r="C24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.4849066497880004</v>
       </c>
       <c r="E24">
@@ -33503,11 +33513,11 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:D28" si="18">LN(F27)</f>
+        <f t="shared" ref="C27:D28" si="19">LN(F27)</f>
         <v>-0.16251892949777494</v>
       </c>
       <c r="D27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="E27">
@@ -33551,11 +33561,11 @@
         <v>1.3862943611198906</v>
       </c>
       <c r="C28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="D28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.791759469228055</v>
       </c>
       <c r="E28">
@@ -33599,11 +33609,11 @@
         <v>0.57059301932488571</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:D29" si="19">-LN(1/F29 -1)</f>
+        <f t="shared" ref="C29:D29" si="20">-LN(1/F29 -1)</f>
         <v>-0.40790273033909435</v>
       </c>
       <c r="D29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0551933911457412</v>
       </c>
       <c r="E29">
@@ -33650,11 +33660,11 @@
         <v>-4.6459921805083466</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:D30" si="20">LN(F30)</f>
+        <f t="shared" ref="C30:D30" si="21">LN(F30)</f>
         <v>-4.8691357318225563</v>
       </c>
       <c r="D30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-3.9528449999484012</v>
       </c>
       <c r="E30">
@@ -33703,11 +33713,11 @@
         <v>-0.69314718055994529</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:D31" si="21">LN(F31)</f>
+        <f t="shared" ref="C31:D31" si="22">LN(F31)</f>
         <v>-1.0498221244986778</v>
       </c>
       <c r="D31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.43078291609245423</v>
       </c>
       <c r="E31">
@@ -33751,11 +33761,11 @@
         <v>0.89729999999999999</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:D32" si="22">F32</f>
+        <f t="shared" ref="C32:D32" si="23">F32</f>
         <v>0.62810999999999995</v>
       </c>
       <c r="D32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.16649</v>
       </c>
       <c r="E32">
@@ -33798,23 +33808,23 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:G33" si="23">C27</f>
+        <f t="shared" ref="C33:G33" si="24">C27</f>
         <v>-0.16251892949777494</v>
       </c>
       <c r="D33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="E33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.85</v>
       </c>
       <c r="G33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="L33">
@@ -33965,11 +33975,11 @@
         <v>1.8971249848733813</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:D37" si="24">LN(F37)</f>
+        <f t="shared" ref="C37:D37" si="25">LN(F37)</f>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.1997100778674268</v>
       </c>
       <c r="E37">
@@ -34091,11 +34101,11 @@
         <v>0.26712328767123289</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:D43" si="25">B40</f>
+        <f t="shared" ref="C40:D43" si="26">B40</f>
         <v>0.26712328767123289</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D41" si="26">B40</f>
+        <f t="shared" ref="D40:D41" si="27">B40</f>
         <v>0.26712328767123289</v>
       </c>
       <c r="E40">
@@ -34131,11 +34141,11 @@
         <v>1.49</v>
       </c>
       <c r="C41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.49</v>
       </c>
       <c r="D41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.49</v>
       </c>
       <c r="E41">
@@ -34215,11 +34225,11 @@
         <v>1.9809000000000001</v>
       </c>
       <c r="C43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.9809000000000001</v>
       </c>
       <c r="D43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.9809000000000001</v>
       </c>
       <c r="E43">
@@ -34255,11 +34265,11 @@
         <v>1.9084000000000001</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:D44" si="27">B44</f>
+        <f t="shared" ref="C44:D44" si="28">B44</f>
         <v>1.9084000000000001</v>
       </c>
       <c r="D44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.9084000000000001</v>
       </c>
       <c r="E44">
@@ -34295,11 +34305,11 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:D45" si="28">B45</f>
+        <f t="shared" ref="C45:D45" si="29">B45</f>
         <v>1</v>
       </c>
       <c r="D45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="E45">
@@ -34336,11 +34346,11 @@
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:D46" si="29">B46</f>
+        <f t="shared" ref="C46:D46" si="30">B46</f>
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="D46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="E46">
@@ -34376,11 +34386,11 @@
         <v>1.1266</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:D47" si="30">B47</f>
+        <f t="shared" ref="C47:D47" si="31">B47</f>
         <v>1.1266</v>
       </c>
       <c r="D47">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.1266</v>
       </c>
       <c r="E47">
@@ -34416,11 +34426,11 @@
         <v>0.98860000000000003</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:D48" si="31">B48</f>
+        <f t="shared" ref="C48:D48" si="32">B48</f>
         <v>0.98860000000000003</v>
       </c>
       <c r="D48">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.98860000000000003</v>
       </c>
       <c r="E48">
@@ -34456,11 +34466,11 @@
         <v>0.9607</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:D49" si="32">B49</f>
+        <f t="shared" ref="C49:D49" si="33">B49</f>
         <v>0.9607</v>
       </c>
       <c r="D49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.9607</v>
       </c>
       <c r="E49">
@@ -34489,7 +34499,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P49" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="499" documentId="13_ncr:1_{DED15BE8-F7C5-408D-99BE-6852BC4CEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6264D32A-C280-47DA-9E48-2734C49F6895}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="13_ncr:1_{DED15BE8-F7C5-408D-99BE-6852BC4CEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C824702C-BB18-4E96-9C61-85DD373906A5}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="227">
   <si>
     <t>label</t>
   </si>
@@ -822,6 +822,15 @@
   <si>
     <t>Ypp div by wa</t>
   </si>
+  <si>
+    <t>implies wage income pp</t>
+  </si>
+  <si>
+    <t>income pp</t>
+  </si>
+  <si>
+    <t>H demand - check</t>
+  </si>
 </sst>
 </file>
 
@@ -1386,15 +1395,15 @@
       </c>
       <c r="B2">
         <f>(D2*$R$4+C2*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B2</f>
-        <v>18.15751285056146</v>
+        <v>20.430907591983051</v>
       </c>
       <c r="C2">
         <f>PARS!C2</f>
-        <v>18.15751285056146</v>
+        <v>20.430907591983047</v>
       </c>
       <c r="D2">
         <f>PARS!D2</f>
-        <v>18.15751285056146</v>
+        <v>20.430907591983047</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1509,7 +1518,7 @@
       </c>
       <c r="B4">
         <f>(D4*$R$4+C4*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B4</f>
-        <v>-0.40498158153348779</v>
+        <v>-0.46571664677963542</v>
       </c>
       <c r="C4">
         <f>PARS!C4</f>
@@ -1567,7 +1576,7 @@
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.62421598182632254</v>
+        <v>0.55251343145640996</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1576,7 +1585,7 @@
       </c>
       <c r="B5">
         <f>(D5*$R$4+C5*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B5</f>
-        <v>-0.40498158153348779</v>
+        <v>-0.46571664677963542</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
@@ -1699,7 +1708,7 @@
       </c>
       <c r="B7">
         <f>(D7*$R$4+C7*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B7</f>
-        <v>-1.5656725697428486</v>
+        <v>-1.6645637345165898</v>
       </c>
       <c r="C7">
         <f>PARS!C7</f>
@@ -3612,15 +3621,15 @@
       </c>
       <c r="B39">
         <f>(D39*$R$4+C39*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B39</f>
-        <v>2.1145000000000005</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="C39">
         <f>PARS!C39</f>
-        <v>2.1145</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="D39">
         <f>PARS!D39</f>
-        <v>2.1145</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="F39">
         <f>PARS!J39</f>
@@ -3669,15 +3678,15 @@
       </c>
       <c r="B40">
         <f>(D40*$R$4+C40*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B40</f>
-        <v>-9.3705000000000004E-3</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="C40">
         <f>PARS!C40</f>
-        <v>-9.3705000000000004E-3</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="D40">
         <f>PARS!D40</f>
-        <v>-9.3705000000000004E-3</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="E40">
         <v>99</v>
@@ -4087,15 +4096,15 @@
       </c>
       <c r="B47">
         <f>(D47*$R$4+C47*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B47</f>
-        <v>1.0376000000000003</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="C47">
         <f>PARS!C47</f>
-        <v>1.0376000000000001</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="D47">
         <f>PARS!D47</f>
-        <v>1.0376000000000001</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="F47">
         <f>PARS!J47</f>
@@ -4144,15 +4153,15 @@
       </c>
       <c r="B48">
         <f>(D48*$R$4+C48*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B48</f>
-        <v>0.97470000000000001</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="C48">
         <f>PARS!C48</f>
-        <v>0.97470000000000001</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="D48">
         <f>PARS!D48</f>
-        <v>0.97470000000000001</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="F48">
         <f>PARS!J48</f>
@@ -4201,15 +4210,15 @@
       </c>
       <c r="B49">
         <f>(D49*$R$4+C49*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B49</f>
-        <v>0.94740000000000002</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="C49">
         <f>PARS!C49</f>
-        <v>0.94740000000000002</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="D49">
         <f>PARS!D49</f>
-        <v>0.94740000000000002</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="F49">
         <f>PARS!J49</f>
@@ -32518,8 +32527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32598,26 +32607,26 @@
       </c>
       <c r="B2" s="3">
         <f>F2</f>
-        <v>18.15751285056146</v>
+        <v>20.430907591983047</v>
       </c>
       <c r="C2">
         <f>F2</f>
-        <v>18.15751285056146</v>
+        <v>20.430907591983047</v>
       </c>
       <c r="D2">
         <f>G2</f>
-        <v>18.15751285056146</v>
+        <v>20.430907591983047</v>
       </c>
       <c r="E2">
-        <v>18.15751285056146</v>
+        <v>20.430907591983047</v>
       </c>
       <c r="F2">
         <f>E2</f>
-        <v>18.15751285056146</v>
+        <v>20.430907591983047</v>
       </c>
       <c r="G2">
         <f>E2</f>
-        <v>18.15751285056146</v>
+        <v>20.430907591983047</v>
       </c>
       <c r="H2">
         <v>999</v>
@@ -32702,7 +32711,7 @@
       </c>
       <c r="B4" s="7">
         <f>LN(E4)</f>
-        <v>-0.14722471975652515</v>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="C4" s="7">
         <f>LN(F4)</f>
@@ -32713,7 +32722,7 @@
         <v>0.40546510810816438</v>
       </c>
       <c r="E4">
-        <v>0.86309999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -32751,16 +32760,16 @@
       </c>
       <c r="U4">
         <f>EXP(B4)</f>
-        <v>0.86309999999999998</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>78</v>
       </c>
-      <c r="B5">
-        <f>B4</f>
-        <v>-0.14722471975652515</v>
+      <c r="B5" s="7">
+        <f>LN(E5)</f>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="C5">
         <f>C4</f>
@@ -32771,13 +32780,16 @@
         <v>0.40546510810816438</v>
       </c>
       <c r="E5">
-        <v>0.86309999999999998</v>
+        <f>E4</f>
+        <v>0.8</v>
       </c>
       <c r="F5">
-        <v>0.86309999999999998</v>
+        <f t="shared" ref="F5:G5" si="4">F4</f>
+        <v>0.1</v>
       </c>
       <c r="G5">
-        <v>0.86309999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.5</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -32862,19 +32874,19 @@
         <v>76</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:D9" si="4">LN(E7)</f>
-        <v>-1.5371172508544744</v>
+        <f t="shared" ref="B7:D9" si="5">LN(E7)</f>
+        <v>-1.6607312068216509</v>
       </c>
       <c r="C7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.35667494393873245</v>
       </c>
       <c r="E7">
-        <v>0.215</v>
+        <v>0.19</v>
       </c>
       <c r="F7">
         <v>0.1</v>
@@ -32912,7 +32924,7 @@
       </c>
       <c r="U7">
         <f>EXP(B7)</f>
-        <v>0.21499999999999997</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -32920,15 +32932,15 @@
         <v>94</v>
       </c>
       <c r="B8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.16251892949777494</v>
       </c>
       <c r="D8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="E8">
@@ -32978,15 +32990,15 @@
         <v>95</v>
       </c>
       <c r="B9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="C9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.791759469228055</v>
       </c>
       <c r="E9">
@@ -33040,22 +33052,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:G10" si="5">C4</f>
+        <f t="shared" ref="C10:G10" si="6">C4</f>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40546510810816438</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="H10">
@@ -33391,7 +33403,7 @@
         <v>-1.4106897062608845</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16" si="6">LN(-F16)</f>
+        <f t="shared" ref="C16" si="7">LN(-F16)</f>
         <v>-1.1647520911726548</v>
       </c>
       <c r="D16">
@@ -33445,15 +33457,15 @@
         <v>98</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:D18" si="7">LN(E17)</f>
+        <f t="shared" ref="B17:D18" si="8">LN(E17)</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="C17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.0498221244986778</v>
       </c>
       <c r="D17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.43078291609245423</v>
       </c>
       <c r="E17">
@@ -33503,15 +33515,15 @@
         <v>73</v>
       </c>
       <c r="B18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0794415416798357</v>
       </c>
       <c r="C18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6094379124341003</v>
       </c>
       <c r="D18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.341805806147327</v>
       </c>
       <c r="E18">
@@ -33842,11 +33854,11 @@
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="B24:D25" si="8">F24</f>
+        <f t="shared" ref="B24:D25" si="9">F24</f>
         <v>-1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E24">
@@ -33890,15 +33902,15 @@
         <v>83</v>
       </c>
       <c r="B25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E25">
@@ -34095,15 +34107,15 @@
         <v>88</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:D30" si="9">LN(E29)</f>
+        <f t="shared" ref="B29:D30" si="10">LN(E29)</f>
         <v>1.3862943611198906</v>
       </c>
       <c r="C29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="E29">
@@ -34153,15 +34165,15 @@
         <v>85</v>
       </c>
       <c r="B30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.91629073187415511</v>
       </c>
       <c r="C30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.58778666490211906</v>
       </c>
       <c r="D30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="E30">
@@ -34214,15 +34226,15 @@
         <v>86</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:D32" si="10">-LN(1/E31 -1)</f>
+        <f t="shared" ref="B31:D32" si="11">-LN(1/E31 -1)</f>
         <v>-0.69329718431032028</v>
       </c>
       <c r="C31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2.1972245773362196</v>
       </c>
       <c r="D31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E31">
@@ -34269,15 +34281,15 @@
         <v>87</v>
       </c>
       <c r="B32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.84729786038720356</v>
       </c>
       <c r="C32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E32">
@@ -34327,15 +34339,15 @@
         <v>89</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:D36" si="11">LN(E33)</f>
+        <f t="shared" ref="B33:D36" si="12">LN(E33)</f>
         <v>-0.3047604139865322</v>
       </c>
       <c r="C33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="E33">
@@ -34385,15 +34397,15 @@
         <v>90</v>
       </c>
       <c r="B34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.35667494393873245</v>
       </c>
       <c r="C34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.71334988787746489</v>
       </c>
       <c r="D34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-9.4310679471241415E-2</v>
       </c>
       <c r="E34">
@@ -34443,15 +34455,15 @@
         <v>91</v>
       </c>
       <c r="B35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0977847712396644</v>
       </c>
       <c r="C35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4849066497880004</v>
       </c>
       <c r="E35">
@@ -34501,15 +34513,15 @@
         <v>104</v>
       </c>
       <c r="B36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8971249848733813</v>
       </c>
       <c r="C36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.1997100778674268</v>
       </c>
       <c r="E36">
@@ -34677,18 +34689,18 @@
       </c>
       <c r="B39">
         <f>E39</f>
-        <v>2.1145</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="C39">
         <f>B39</f>
-        <v>2.1145</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="D39">
         <f>C39</f>
-        <v>2.1145</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="E39">
-        <v>2.1145</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="F39">
         <v>1.9809000000000001</v>
@@ -34728,18 +34740,18 @@
       </c>
       <c r="B40">
         <f>E40</f>
-        <v>-9.3705000000000004E-3</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="C40">
         <f>B40</f>
-        <v>-9.3705000000000004E-3</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="D40">
         <f>C40</f>
-        <v>-9.3705000000000004E-3</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="E40">
-        <v>-9.3705000000000004E-3</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="F40">
         <v>1.9084000000000001</v>
@@ -34871,7 +34883,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" ref="T42:T49" si="12">S42</f>
+        <f t="shared" ref="T42:T49" si="13">S42</f>
         <v>0</v>
       </c>
       <c r="U42"/>
@@ -34881,15 +34893,15 @@
         <v>92</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43:D44" si="13">E43</f>
+        <f t="shared" ref="B43:D44" si="14">E43</f>
         <v>0.1449</v>
       </c>
       <c r="C43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1449</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1449</v>
       </c>
       <c r="E43">
@@ -34919,7 +34931,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -34928,15 +34940,15 @@
         <v>93</v>
       </c>
       <c r="B44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1449</v>
       </c>
       <c r="C44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1449</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1449</v>
       </c>
       <c r="E44">
@@ -34966,7 +34978,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -35009,7 +35021,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -35053,7 +35065,7 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -35063,26 +35075,26 @@
       </c>
       <c r="B47">
         <f>E47</f>
-        <v>1.0376000000000001</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="C47">
         <f>B47</f>
-        <v>1.0376000000000001</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="D47">
         <f>C47</f>
-        <v>1.0376000000000001</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="E47">
-        <v>1.0376000000000001</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="F47">
         <f>E47</f>
-        <v>1.0376000000000001</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="G47">
         <f>E47</f>
-        <v>1.0376000000000001</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -35100,7 +35112,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -35109,27 +35121,27 @@
         <v>182</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:B49" si="14">E48</f>
-        <v>0.97470000000000001</v>
+        <f t="shared" ref="B48:B49" si="15">E48</f>
+        <v>1.0035000000000001</v>
       </c>
       <c r="C48">
         <f>B48</f>
-        <v>0.97470000000000001</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="D48">
         <f>C48</f>
-        <v>0.97470000000000001</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="E48">
-        <v>0.97470000000000001</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="F48">
         <f>E48</f>
-        <v>0.97470000000000001</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="G48">
         <f>E48</f>
-        <v>0.97470000000000001</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -35147,7 +35159,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -35156,27 +35168,27 @@
         <v>183</v>
       </c>
       <c r="B49">
-        <f t="shared" si="14"/>
-        <v>0.94740000000000002</v>
+        <f t="shared" si="15"/>
+        <v>0.97409999999999997</v>
       </c>
       <c r="C49">
         <f>B49</f>
-        <v>0.94740000000000002</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="D49">
         <f>C49</f>
-        <v>0.94740000000000002</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="E49">
-        <v>0.94740000000000002</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="F49">
         <f>E49</f>
-        <v>0.94740000000000002</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="G49">
         <f>E49</f>
-        <v>0.94740000000000002</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -35194,7 +35206,7 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -35213,8 +35225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35809,7 +35821,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>26</v>
@@ -61586,10 +61598,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3232877D-0BFB-41E6-9597-1FA0FC36E360}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -61750,54 +61762,90 @@
         <v>0.42993333333333328</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C17">
         <f>2206.542/(24*365)+EXP(-0.26248)*(2206.542/(24*365)-671.547/(24*365))</f>
         <v>0.38666332602882758</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>222</v>
       </c>
+      <c r="H18" t="s">
+        <v>224</v>
+      </c>
+      <c r="J18" t="s">
+        <v>225</v>
+      </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F19">
-        <f>0.5*(((2206.542/(24*365)+EXP(-0.244)*(2206.542/(24*365)-671.547/(24*365)))*(1-0.22) + (2269/(24*365))*(0.22)))</f>
-        <v>0.18027108726604746</v>
+        <f>0.5*(((2206.542/(24*365)+EXP(-0.244)*(2206.542/(24*365)-671.547/(24*365)))*(1-0.22) + (2269/(24*365))*(0.22)))*EXP(0.0135*6.6667)</f>
+        <v>0.19724807654370141</v>
+      </c>
+      <c r="H19">
+        <f>F19*G27</f>
+        <v>4.0299572245607624</v>
+      </c>
+      <c r="J19">
+        <f>H19*(1/(1-0.16))</f>
+        <v>4.797568124477098</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F21">
-        <f>1873/(24*365)</f>
-        <v>0.21381278538812784</v>
+        <f>1873/(24*365)*EXP(0.0135*6.6667)</f>
+        <v>0.23394855657589742</v>
+      </c>
+      <c r="H21">
+        <f>F21*G27</f>
+        <v>4.7797813406799783</v>
+      </c>
+      <c r="J21">
+        <f>H21*(1/(1-0.16))</f>
+        <v>5.6902158817618789</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F24">
-        <f>(F19*(1-F19)+F21*F16)/(1-0.16)</f>
-        <v>0.28535555463472256</v>
+        <f>(F19*(1-F16)+F21*F16)/(1-0.16)</f>
+        <v>0.25360337649866294</v>
+      </c>
+      <c r="J24">
+        <f>J19*(1-F16)+J21*F16</f>
+        <v>5.181347150259068</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F26" t="s">
         <v>80</v>
       </c>
+      <c r="J26" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F27">
         <f>1/(F24*0.193)</f>
-        <v>18.15751285056146</v>
+        <v>20.430907591983047</v>
+      </c>
+      <c r="G27">
+        <v>20.430907591983047</v>
+      </c>
+      <c r="J27">
+        <f>J24*0.193</f>
+        <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="569" documentId="13_ncr:1_{DED15BE8-F7C5-408D-99BE-6852BC4CEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C824702C-BB18-4E96-9C61-85DD373906A5}"/>
+  <xr:revisionPtr revIDLastSave="570" documentId="13_ncr:1_{DED15BE8-F7C5-408D-99BE-6852BC4CEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB712050-FCC4-49D5-ADD2-66F5662400E3}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.55251343145640996</v>
+        <v>0.36027775323013467</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -32527,8 +32527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:D54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35217,7 +35217,8 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="570" documentId="13_ncr:1_{DED15BE8-F7C5-408D-99BE-6852BC4CEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB712050-FCC4-49D5-ADD2-66F5662400E3}"/>
+  <xr:revisionPtr revIDLastSave="622" documentId="13_ncr:1_{DED15BE8-F7C5-408D-99BE-6852BC4CEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3356171-90D4-46D2-A472-8C7444F7928E}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1326,11 +1326,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
@@ -1346,7 +1349,7 @@
         <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="F1" t="str">
         <f>PARS!J1</f>
@@ -1405,8 +1408,9 @@
         <f>PARS!D2</f>
         <v>20.430907591983047</v>
       </c>
-      <c r="E2">
-        <v>4</v>
+      <c r="E2" t="b">
+        <f t="shared" ref="E2:E49" si="0">AND(D2&gt;=B2,B2&gt;=C2,D2&gt;=C2)</f>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>PARS!J2</f>
@@ -1465,8 +1469,9 @@
         <f>PARS!D3</f>
         <v>1.8814014327029097E-3</v>
       </c>
-      <c r="E3">
-        <v>87</v>
+      <c r="E3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F3">
         <f>PARS!J3</f>
@@ -1518,7 +1523,7 @@
       </c>
       <c r="B4">
         <f>(D4*$R$4+C4*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B4</f>
-        <v>-0.46571664677963542</v>
+        <v>-0.48857120610104321</v>
       </c>
       <c r="C4">
         <f>PARS!C4</f>
@@ -1528,7 +1533,8 @@
         <f>PARS!D4</f>
         <v>0.40546510810816438</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4">
@@ -1572,11 +1578,11 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0.32</v>
+        <v>0.27780255603809401</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.36027775323013467</v>
+        <v>4.6700105914803114E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1585,7 +1591,7 @@
       </c>
       <c r="B5">
         <f>(D5*$R$4+C5*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B5</f>
-        <v>-0.46571664677963542</v>
+        <v>-0.48857120610104321</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
@@ -1595,8 +1601,9 @@
         <f>PARS!D5</f>
         <v>0.40546510810816438</v>
       </c>
-      <c r="E5">
-        <v>2</v>
+      <c r="E5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F5">
         <f>PARS!J5</f>
@@ -1655,8 +1662,9 @@
         <f>PARS!D6</f>
         <v>1.63</v>
       </c>
-      <c r="E6">
-        <v>2</v>
+      <c r="E6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F6">
         <f>PARS!J6</f>
@@ -1708,7 +1716,7 @@
       </c>
       <c r="B7">
         <f>(D7*$R$4+C7*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B7</f>
-        <v>-1.6645637345165898</v>
+        <v>-1.6809862214105229</v>
       </c>
       <c r="C7">
         <f>PARS!C7</f>
@@ -1718,8 +1726,9 @@
         <f>PARS!D7</f>
         <v>-0.35667494393873245</v>
       </c>
-      <c r="E7">
-        <v>2</v>
+      <c r="E7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F7">
         <f>PARS!J7</f>
@@ -1772,7 +1781,7 @@
       </c>
       <c r="B8">
         <f>(D8*$R$4+C8*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B8</f>
-        <v>2.2258845144139113E-2</v>
+        <v>1.503746059828656E-2</v>
       </c>
       <c r="C8">
         <f>PARS!C8</f>
@@ -1782,7 +1791,8 @@
         <f>PARS!D8</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8">
@@ -1832,7 +1842,7 @@
       </c>
       <c r="B9">
         <f>(D9*$R$4+C9*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B9</f>
-        <v>1.3179761114826605</v>
+        <v>1.3087043853852738</v>
       </c>
       <c r="C9">
         <f>PARS!C9</f>
@@ -1842,7 +1852,8 @@
         <f>PARS!D9</f>
         <v>1.791759469228055</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9">
@@ -1892,7 +1903,7 @@
       </c>
       <c r="B10">
         <f>(D10*$R$4+C10*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B10</f>
-        <v>-0.28720180572826765</v>
+        <v>-0.31005636504967543</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
@@ -1902,7 +1913,8 @@
         <f>PARS!D10</f>
         <v>0.40546510810816438</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F10">
@@ -1952,7 +1964,7 @@
       </c>
       <c r="B11">
         <f>(D11*$R$4+C11*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B11</f>
-        <v>-4.6319782839312431</v>
+        <v>-4.6397113092934577</v>
       </c>
       <c r="C11">
         <f>PARS!C11</f>
@@ -1962,7 +1974,8 @@
         <f>PARS!D11</f>
         <v>-3.9528449999484012</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11">
@@ -2012,7 +2025,7 @@
       </c>
       <c r="B12">
         <f>(D12*$R$4+C12*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B12</f>
-        <v>0.46853202116711917</v>
+        <v>0.45618423784767148</v>
       </c>
       <c r="C12">
         <f>PARS!C12</f>
@@ -2022,8 +2035,9 @@
         <f>PARS!D12</f>
         <v>1.0551933911457412</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F12">
         <f>PARS!J12</f>
@@ -2072,7 +2086,7 @@
       </c>
       <c r="B13">
         <f>(D13*$R$4+C13*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B13</f>
-        <v>0.87791832000000003</v>
+        <v>0.8733746680239578</v>
       </c>
       <c r="C13">
         <f>PARS!C13</f>
@@ -2082,8 +2096,9 @@
         <f>PARS!D13</f>
         <v>1.16649</v>
       </c>
-      <c r="E13">
-        <v>4</v>
+      <c r="E13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F13">
         <f>PARS!J13</f>
@@ -2132,7 +2147,7 @@
       </c>
       <c r="B14">
         <f>(D14*$R$4+C14*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B14</f>
-        <v>1.2664409599999999</v>
+        <v>1.2598865154242851</v>
       </c>
       <c r="C14">
         <f>PARS!C14</f>
@@ -2142,8 +2157,9 @@
         <f>PARS!D14</f>
         <v>1.68272</v>
       </c>
-      <c r="E14">
-        <v>4</v>
+      <c r="E14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F14">
         <f>PARS!J14</f>
@@ -2192,16 +2208,19 @@
       </c>
       <c r="B15">
         <f>(D15*$R$4+C15*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B15</f>
-        <v>-2.1388980981817265</v>
+        <v>-2.5836226227271579</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <f>PARS!C15</f>
+        <v>-2.5836226227271579</v>
       </c>
       <c r="D15">
+        <f>PARS!D15</f>
+        <v>-2.5836226227271579</v>
+      </c>
+      <c r="E15" t="b">
+        <f>AND(D15&gt;=B15,B15&gt;=C15,D15&gt;=C15)</f>
         <v>1</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
       </c>
       <c r="F15">
         <f>PARS!J15</f>
@@ -2250,18 +2269,19 @@
       </c>
       <c r="B16">
         <f>(D16*$R$4+C16*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B16</f>
-        <v>-1.5816889413114263</v>
+        <v>-1.8584344140904383</v>
       </c>
       <c r="C16">
         <f>PARS!C16</f>
-        <v>-1.1647520911726548</v>
+        <v>-4.6051701859880909</v>
       </c>
       <c r="D16">
         <f>PARS!D16</f>
-        <v>-4.6051701859880909</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
+        <v>-1.1647520911726548</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F16">
         <f>PARS!J16</f>
@@ -2310,7 +2330,7 @@
       </c>
       <c r="B17">
         <f>(D17*$R$4+C17*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B17</f>
-        <v>-0.72486366000969349</v>
+        <v>-0.73008803447108228</v>
       </c>
       <c r="C17">
         <f>PARS!C17</f>
@@ -2320,8 +2340,9 @@
         <f>PARS!D17</f>
         <v>-0.43078291609245423</v>
       </c>
-      <c r="E17">
-        <v>4</v>
+      <c r="E17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F17">
         <f>PARS!J17</f>
@@ -2370,7 +2391,7 @@
       </c>
       <c r="B18">
         <f>(D18*$R$4+C18*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B18</f>
-        <v>2.0323123610283353</v>
+        <v>2.0261315503974426</v>
       </c>
       <c r="C18">
         <f>PARS!C18</f>
@@ -2380,8 +2401,9 @@
         <f>PARS!D18</f>
         <v>2.341805806147327</v>
       </c>
-      <c r="E18">
-        <v>5</v>
+      <c r="E18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F18">
         <f>PARS!J18</f>
@@ -2430,7 +2452,7 @@
       </c>
       <c r="B19">
         <f>(D19*$R$4+C19*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B19</f>
-        <v>1.8108770912644423</v>
+        <v>1.7855946423168088</v>
       </c>
       <c r="C19">
         <f>PARS!C19</f>
@@ -2440,8 +2462,9 @@
         <f>PARS!D19</f>
         <v>2.3025850929940459</v>
       </c>
-      <c r="E19">
-        <v>5</v>
+      <c r="E19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F19">
         <f>PARS!J19</f>
@@ -2490,7 +2513,7 @@
       </c>
       <c r="B20">
         <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>6.7027336141933902E-2</v>
+        <v>5.9876575345387519E-2</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2500,8 +2523,9 @@
         <f>PARS!D20</f>
         <v>0.84729786038720356</v>
       </c>
-      <c r="E20">
-        <v>5</v>
+      <c r="E20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F20">
         <f>PARS!J20</f>
@@ -2550,7 +2574,7 @@
       </c>
       <c r="B21">
         <f>(D21*$R$4+C21*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B21</f>
-        <v>0.48417553474807928</v>
+        <v>0.48107212558753082</v>
       </c>
       <c r="C21">
         <f>PARS!C21</f>
@@ -2560,8 +2584,9 @@
         <f>PARS!D21</f>
         <v>0.66782937257565544</v>
       </c>
-      <c r="E21">
-        <v>5</v>
+      <c r="E21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F21">
         <f>PARS!J21</f>
@@ -2610,7 +2635,7 @@
       </c>
       <c r="B22">
         <f>(D22*$R$4+C22*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B22</f>
-        <v>2.1198705941432792</v>
+        <v>2.0615811145971481</v>
       </c>
       <c r="C22">
         <f>PARS!C22</f>
@@ -2620,8 +2645,9 @@
         <f>PARS!D22</f>
         <v>7.9067547786486871</v>
       </c>
-      <c r="E22">
-        <v>6</v>
+      <c r="E22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F22">
         <f>PARS!J22</f>
@@ -2680,8 +2706,9 @@
         <f>PARS!D23</f>
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>6</v>
+      <c r="E23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F23">
         <f>PARS!J23</f>
@@ -2730,7 +2757,7 @@
       </c>
       <c r="B24">
         <f>(D24*$R$4+C24*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B24</f>
-        <v>-0.10799999999999998</v>
+        <v>-0.12487897758476241</v>
       </c>
       <c r="C24">
         <f>PARS!C24</f>
@@ -2740,8 +2767,9 @@
         <f>PARS!D24</f>
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>6</v>
+      <c r="E24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F24">
         <f>PARS!J24</f>
@@ -2790,7 +2818,7 @@
       </c>
       <c r="B25">
         <f>(D25*$R$4+C25*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B25</f>
-        <v>0.20399999999999999</v>
+        <v>0.1955605112076188</v>
       </c>
       <c r="C25">
         <f>PARS!C25</f>
@@ -2798,6 +2826,10 @@
       </c>
       <c r="D25">
         <f>PARS!D25</f>
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F25">
@@ -2847,7 +2879,7 @@
       </c>
       <c r="B26">
         <f>(D26*$R$4+C26*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B26</f>
-        <v>-0.26353656105189455</v>
+        <v>-0.27581844134117545</v>
       </c>
       <c r="C26">
         <f>PARS!C26</f>
@@ -2856,6 +2888,10 @@
       <c r="D26">
         <f>PARS!D26</f>
         <v>1.0986122886681098</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F26">
         <f>PARS!J26</f>
@@ -2904,7 +2940,7 @@
       </c>
       <c r="B27">
         <f>(D27*$R$4+C27*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B27</f>
-        <v>0.32000000000000006</v>
+        <v>0.27780255603809406</v>
       </c>
       <c r="C27">
         <f>PARS!C27</f>
@@ -2914,7 +2950,8 @@
         <f>PARS!D27</f>
         <v>5</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27">
@@ -2964,7 +3001,7 @@
       </c>
       <c r="B28">
         <f>(D28*$R$4+C28*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B28</f>
-        <v>4.2000000000000003E-2</v>
+        <v>4.200000000000001E-2</v>
       </c>
       <c r="C28">
         <f>PARS!C28</f>
@@ -2974,7 +3011,8 @@
         <f>PARS!D28</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28">
@@ -3024,7 +3062,7 @@
       </c>
       <c r="B29">
         <f>(D29*$R$4+C29*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B29</f>
-        <v>1.2564009348475313</v>
+        <v>1.2369682937617041</v>
       </c>
       <c r="C29">
         <f>PARS!C29</f>
@@ -3034,7 +3072,8 @@
         <f>PARS!D29</f>
         <v>2.3025850929940459</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29">
@@ -3084,7 +3123,7 @@
       </c>
       <c r="B30">
         <f>(D30*$R$4+C30*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B30</f>
-        <v>0.90169441103768533</v>
+        <v>0.89495541428482528</v>
       </c>
       <c r="C30">
         <f>PARS!C30</f>
@@ -3094,7 +3133,8 @@
         <f>PARS!D30</f>
         <v>1.3862943611198906</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F30">
@@ -3144,7 +3184,7 @@
       </c>
       <c r="B31">
         <f>(D31*$R$4+C31*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B31</f>
-        <v>-0.41142798413248027</v>
+        <v>-0.48826091587338288</v>
       </c>
       <c r="C31">
         <f>PARS!C31</f>
@@ -3154,8 +3194,9 @@
         <f>PARS!D31</f>
         <v>6.9067547786484651</v>
       </c>
-      <c r="E31">
-        <v>2</v>
+      <c r="E31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F31">
         <f>PARS!J31</f>
@@ -3204,7 +3245,7 @@
       </c>
       <c r="B32">
         <f>(D32*$R$4+C32*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B32</f>
-        <v>1.1198705941432647</v>
+        <v>1.0615811145971357</v>
       </c>
       <c r="C32">
         <f>PARS!C32</f>
@@ -3214,7 +3255,8 @@
         <f>PARS!D32</f>
         <v>6.9067547786484651</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32">
@@ -3264,7 +3306,7 @@
       </c>
       <c r="B33">
         <f>(D33*$R$4+C33*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B33</f>
-        <v>-0.46823706472474291</v>
+        <v>-0.49936932153418279</v>
       </c>
       <c r="C33">
         <f>PARS!C33</f>
@@ -3274,7 +3316,8 @@
         <f>PARS!D33</f>
         <v>1.3862943611198906</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F33">
@@ -3324,7 +3367,7 @@
       </c>
       <c r="B34">
         <f>(D34*$R$4+C34*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B34</f>
-        <v>-0.38839142338848065</v>
+        <v>-0.3936157978498695</v>
       </c>
       <c r="C34">
         <f>PARS!C34</f>
@@ -3334,7 +3377,8 @@
         <f>PARS!D34</f>
         <v>-9.4310679471241415E-2</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F34">
@@ -3384,7 +3428,7 @@
       </c>
       <c r="B35">
         <f>(D35*$R$4+C35*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B35</f>
-        <v>0.89780712463659329</v>
+        <v>0.81853785955811198</v>
       </c>
       <c r="C35">
         <f>PARS!C35</f>
@@ -3394,8 +3438,9 @@
         <f>PARS!D35</f>
         <v>2.4849066497880004</v>
       </c>
-      <c r="E35">
-        <v>4</v>
+      <c r="E35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F35">
         <f>PARS!J35</f>
@@ -3444,7 +3489,7 @@
       </c>
       <c r="B36">
         <f>(D36*$R$4+C36*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B36</f>
-        <v>0.84702671494065007</v>
+        <v>0.75328538554975544</v>
       </c>
       <c r="C36">
         <f>PARS!C36</f>
@@ -3453,6 +3498,10 @@
       <c r="D36">
         <f>PARS!D36</f>
         <v>4.1997100778674268</v>
+      </c>
+      <c r="E36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F36">
         <f>PARS!J36</f>
@@ -3501,7 +3550,7 @@
       </c>
       <c r="B37">
         <f>(D37*$R$4+C37*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B37</f>
-        <v>0.16418602463295548</v>
+        <v>0.15669763926330132</v>
       </c>
       <c r="C37">
         <f>PARS!C37</f>
@@ -3511,8 +3560,9 @@
         <f>PARS!D37</f>
         <v>0.84729786038720356</v>
       </c>
-      <c r="E37">
-        <v>6</v>
+      <c r="E37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F37">
         <f>PARS!J37</f>
@@ -3571,8 +3621,9 @@
         <f>PARS!D38</f>
         <v>1</v>
       </c>
-      <c r="E38">
-        <v>4</v>
+      <c r="E38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F38">
         <f>PARS!J38</f>
@@ -3631,6 +3682,10 @@
         <f>PARS!D39</f>
         <v>2.0449000000000002</v>
       </c>
+      <c r="E39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F39">
         <f>PARS!J39</f>
         <v>0</v>
@@ -3688,8 +3743,9 @@
         <f>PARS!D40</f>
         <v>2.2964999999999999E-2</v>
       </c>
-      <c r="E40">
-        <v>99</v>
+      <c r="E40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F40">
         <f>PARS!J40</f>
@@ -3748,7 +3804,8 @@
         <f>PARS!D41</f>
         <v>0.26712328767123289</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F41">
@@ -3808,8 +3865,9 @@
         <f>PARS!D42</f>
         <v>1</v>
       </c>
-      <c r="E42">
-        <v>88</v>
+      <c r="E42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F42">
         <f>PARS!J42</f>
@@ -3869,8 +3927,9 @@
         <f>PARS!D43</f>
         <v>0.1449</v>
       </c>
-      <c r="E43">
-        <v>88</v>
+      <c r="E43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F43">
         <f>PARS!J43</f>
@@ -3929,8 +3988,9 @@
         <f>PARS!D44</f>
         <v>0.1449</v>
       </c>
-      <c r="E44">
-        <v>88</v>
+      <c r="E44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F44">
         <f>PARS!J44</f>
@@ -3989,6 +4049,10 @@
         <f>PARS!D45</f>
         <v>0</v>
       </c>
+      <c r="E45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F45">
         <f>PARS!J45</f>
         <v>0</v>
@@ -4046,8 +4110,9 @@
         <f>PARS!D46</f>
         <v>0</v>
       </c>
-      <c r="E46">
-        <v>0</v>
+      <c r="E46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F46">
         <f>PARS!J46</f>
@@ -4106,6 +4171,10 @@
         <f>PARS!D47</f>
         <v>1.0589999999999999</v>
       </c>
+      <c r="E47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F47">
         <f>PARS!J47</f>
         <v>0</v>
@@ -4163,6 +4232,10 @@
         <f>PARS!D48</f>
         <v>1.0035000000000001</v>
       </c>
+      <c r="E48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F48">
         <f>PARS!J48</f>
         <v>0</v>
@@ -4219,6 +4292,10 @@
       <c r="D49">
         <f>PARS!D49</f>
         <v>0.97409999999999997</v>
+      </c>
+      <c r="E49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F49">
         <f>PARS!J49</f>
@@ -32527,13 +32604,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
@@ -32606,7 +32683,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="3">
-        <f>F2</f>
+        <f>E2</f>
         <v>20.430907591983047</v>
       </c>
       <c r="C2">
@@ -33403,12 +33480,12 @@
         <v>-1.4106897062608845</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16" si="7">LN(-F16)</f>
-        <v>-1.1647520911726548</v>
-      </c>
-      <c r="D16">
         <f>LN(-G16)</f>
         <v>-4.6051701859880909</v>
+      </c>
+      <c r="D16">
+        <f>LN(-F16)</f>
+        <v>-1.1647520911726548</v>
       </c>
       <c r="E16">
         <v>-0.24397495405798156</v>
@@ -33457,15 +33534,15 @@
         <v>98</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:D18" si="8">LN(E17)</f>
+        <f t="shared" ref="B17:D18" si="7">LN(E17)</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="C17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1.0498221244986778</v>
       </c>
       <c r="D17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.43078291609245423</v>
       </c>
       <c r="E17">
@@ -33515,15 +33592,15 @@
         <v>73</v>
       </c>
       <c r="B18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.0794415416798357</v>
       </c>
       <c r="C18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.6094379124341003</v>
       </c>
       <c r="D18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.341805806147327</v>
       </c>
       <c r="E18">
@@ -33854,11 +33931,11 @@
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="B24:D25" si="9">F24</f>
+        <f t="shared" ref="B24:D25" si="8">F24</f>
         <v>-1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E24">
@@ -33902,15 +33979,15 @@
         <v>83</v>
       </c>
       <c r="B25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E25">
@@ -34107,15 +34184,15 @@
         <v>88</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:D30" si="10">LN(E29)</f>
+        <f t="shared" ref="B29:D30" si="9">LN(E29)</f>
         <v>1.3862943611198906</v>
       </c>
       <c r="C29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="E29">
@@ -34165,15 +34242,15 @@
         <v>85</v>
       </c>
       <c r="B30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.91629073187415511</v>
       </c>
       <c r="C30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.58778666490211906</v>
       </c>
       <c r="D30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="E30">
@@ -34226,15 +34303,15 @@
         <v>86</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:D32" si="11">-LN(1/E31 -1)</f>
+        <f t="shared" ref="B31:D32" si="10">-LN(1/E31 -1)</f>
         <v>-0.69329718431032028</v>
       </c>
       <c r="C31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-2.1972245773362196</v>
       </c>
       <c r="D31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E31">
@@ -34281,15 +34358,15 @@
         <v>87</v>
       </c>
       <c r="B32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.84729786038720356</v>
       </c>
       <c r="C32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E32">
@@ -34339,15 +34416,15 @@
         <v>89</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:D36" si="12">LN(E33)</f>
+        <f t="shared" ref="B33:D36" si="11">LN(E33)</f>
         <v>-0.3047604139865322</v>
       </c>
       <c r="C33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="E33">
@@ -34397,15 +34474,15 @@
         <v>90</v>
       </c>
       <c r="B34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.35667494393873245</v>
       </c>
       <c r="C34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.71334988787746489</v>
       </c>
       <c r="D34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-9.4310679471241415E-2</v>
       </c>
       <c r="E34">
@@ -34455,15 +34532,15 @@
         <v>91</v>
       </c>
       <c r="B35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.0977847712396644</v>
       </c>
       <c r="C35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.4849066497880004</v>
       </c>
       <c r="E35">
@@ -34513,15 +34590,15 @@
         <v>104</v>
       </c>
       <c r="B36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.8971249848733813</v>
       </c>
       <c r="C36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.1997100778674268</v>
       </c>
       <c r="E36">
@@ -34883,7 +34960,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" ref="T42:T49" si="13">S42</f>
+        <f t="shared" ref="T42:T49" si="12">S42</f>
         <v>0</v>
       </c>
       <c r="U42"/>
@@ -34893,15 +34970,15 @@
         <v>92</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43:D44" si="14">E43</f>
+        <f t="shared" ref="B43:D44" si="13">E43</f>
         <v>0.1449</v>
       </c>
       <c r="C43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.1449</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.1449</v>
       </c>
       <c r="E43">
@@ -34931,7 +35008,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -34940,15 +35017,15 @@
         <v>93</v>
       </c>
       <c r="B44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.1449</v>
       </c>
       <c r="C44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.1449</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.1449</v>
       </c>
       <c r="E44">
@@ -34978,7 +35055,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -35021,7 +35098,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -35065,7 +35142,7 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -35112,7 +35189,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -35121,7 +35198,7 @@
         <v>182</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:B49" si="15">E48</f>
+        <f t="shared" ref="B48:B49" si="14">E48</f>
         <v>1.0035000000000001</v>
       </c>
       <c r="C48">
@@ -35159,7 +35236,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -35168,7 +35245,7 @@
         <v>183</v>
       </c>
       <c r="B49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.97409999999999997</v>
       </c>
       <c r="C49">
@@ -35206,7 +35283,7 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="622" documentId="13_ncr:1_{DED15BE8-F7C5-408D-99BE-6852BC4CEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3356171-90D4-46D2-A472-8C7444F7928E}"/>
+  <xr:revisionPtr revIDLastSave="624" documentId="13_ncr:1_{DED15BE8-F7C5-408D-99BE-6852BC4CEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BE3BA15-34EE-4A88-8FDC-A9170A692379}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="2" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="228">
   <si>
     <t>label</t>
   </si>
@@ -831,6 +831,9 @@
   <si>
     <t>H demand - check</t>
   </si>
+  <si>
+    <t xml:space="preserve">KICK OUT </t>
+  </si>
 </sst>
 </file>
 
@@ -1326,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
@@ -1582,7 +1585,7 @@
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>4.6700105914803114E-2</v>
+        <v>0.98167609811761125</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -35303,8 +35306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36147,14 +36150,16 @@
         <v>2.3340746736978842E-3</v>
       </c>
       <c r="D36">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36">
         <v>41</v>
+      </c>
+      <c r="H36" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -48456,8 +48461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50173A7-B186-45C1-8337-B5032812D8C9}">
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView topLeftCell="AL8" zoomScale="65" workbookViewId="0">
-      <selection activeCell="BB45" sqref="BB45"/>
+    <sheetView topLeftCell="AA1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="AP35" sqref="AP35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranos\OneDrive - Umich\Documents\D\Michigan\Res\Female careers in location\Codes\matlab\JMP\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="624" documentId="13_ncr:1_{DED15BE8-F7C5-408D-99BE-6852BC4CEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BE3BA15-34EE-4A88-8FDC-A9170A692379}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9D61E6-B168-4AD1-B5B4-FCA6F5A94DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="2" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B4">
         <f>(D4*$R$4+C4*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B4</f>
-        <v>-0.48857120610104321</v>
+        <v>-0.32184329306951331</v>
       </c>
       <c r="C4">
         <f>PARS!C4</f>
@@ -1581,11 +1581,11 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0.27780255603809401</v>
+        <v>0.58564011562925211</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.98167609811761125</v>
+        <v>0.47385694273736589</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B5">
         <f>(D5*$R$4+C5*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B5</f>
-        <v>-0.48857120610104321</v>
+        <v>-0.32184329306951331</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B7">
         <f>(D7*$R$4+C7*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B7</f>
-        <v>-1.6809862214105229</v>
+        <v>-1.561181375116752</v>
       </c>
       <c r="C7">
         <f>PARS!C7</f>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B8">
         <f>(D8*$R$4+C8*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B8</f>
-        <v>1.503746059828656E-2</v>
+        <v>6.7718694027292137E-2</v>
       </c>
       <c r="C8">
         <f>PARS!C8</f>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B9">
         <f>(D9*$R$4+C9*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B9</f>
-        <v>1.3087043853852738</v>
+        <v>1.3763432105613633</v>
       </c>
       <c r="C9">
         <f>PARS!C9</f>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B10">
         <f>(D10*$R$4+C10*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B10</f>
-        <v>-0.31005636504967543</v>
+        <v>-0.14332845201814556</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B11">
         <f>(D11*$R$4+C11*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B11</f>
-        <v>-4.6397113092934577</v>
+        <v>-4.5832975687382307</v>
       </c>
       <c r="C11">
         <f>PARS!C11</f>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B12">
         <f>(D12*$R$4+C12*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B12</f>
-        <v>0.45618423784767148</v>
+        <v>0.54626342574470754</v>
       </c>
       <c r="C12">
         <f>PARS!C12</f>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B13">
         <f>(D13*$R$4+C13*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B13</f>
-        <v>0.8733746680239578</v>
+        <v>0.9065213850904954</v>
       </c>
       <c r="C13">
         <f>PARS!C13</f>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B14">
         <f>(D14*$R$4+C14*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B14</f>
-        <v>1.2598865154242851</v>
+        <v>1.3077023078804606</v>
       </c>
       <c r="C14">
         <f>PARS!C14</f>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="B16">
         <f>(D16*$R$4+C16*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B16</f>
-        <v>-1.8584344140904383</v>
+        <v>-1.6466164320341892</v>
       </c>
       <c r="C16">
         <f>PARS!C16</f>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B17">
         <f>(D17*$R$4+C17*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B17</f>
-        <v>-0.73008803447108228</v>
+        <v>-0.69197533062967953</v>
       </c>
       <c r="C17">
         <f>PARS!C17</f>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B18">
         <f>(D18*$R$4+C18*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B18</f>
-        <v>2.0261315503974426</v>
+        <v>2.071221619422162</v>
       </c>
       <c r="C18">
         <f>PARS!C18</f>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B19">
         <f>(D19*$R$4+C19*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B19</f>
-        <v>1.7855946423168088</v>
+        <v>1.9700344247726751</v>
       </c>
       <c r="C19">
         <f>PARS!C19</f>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B20">
         <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>5.9876575345387519E-2</v>
+        <v>0.11204259646306883</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B21">
         <f>(D21*$R$4+C21*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B21</f>
-        <v>0.48107212558753082</v>
+        <v>0.5037120253705254</v>
       </c>
       <c r="C21">
         <f>PARS!C21</f>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B22">
         <f>(D22*$R$4+C22*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B22</f>
-        <v>2.0615811145971481</v>
+        <v>2.486812821747904</v>
       </c>
       <c r="C22">
         <f>PARS!C22</f>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B24">
         <f>(D24*$R$4+C24*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B24</f>
-        <v>-0.12487897758476241</v>
+        <v>-1.7439537482991513E-3</v>
       </c>
       <c r="C24">
         <f>PARS!C24</f>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B25">
         <f>(D25*$R$4+C25*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B25</f>
-        <v>0.1955605112076188</v>
+        <v>0.25712802312585042</v>
       </c>
       <c r="C25">
         <f>PARS!C25</f>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="B26">
         <f>(D26*$R$4+C26*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B26</f>
-        <v>-0.27581844134117545</v>
+        <v>-0.18622002730320339</v>
       </c>
       <c r="C26">
         <f>PARS!C26</f>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B27">
         <f>(D27*$R$4+C27*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B27</f>
-        <v>0.27780255603809406</v>
+        <v>0.58564011562925211</v>
       </c>
       <c r="C27">
         <f>PARS!C27</f>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B29">
         <f>(D29*$R$4+C29*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B29</f>
-        <v>1.2369682937617041</v>
+        <v>1.3787327289173574</v>
       </c>
       <c r="C29">
         <f>PARS!C29</f>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B30">
         <f>(D30*$R$4+C30*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B30</f>
-        <v>0.89495541428482528</v>
+        <v>0.94411754638851264</v>
       </c>
       <c r="C30">
         <f>PARS!C30</f>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B31">
         <f>(D31*$R$4+C31*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B31</f>
-        <v>-0.48826091587338288</v>
+        <v>7.2248441629538807E-2</v>
       </c>
       <c r="C31">
         <f>PARS!C31</f>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="B32">
         <f>(D32*$R$4+C32*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B32</f>
-        <v>1.0615811145971357</v>
+        <v>1.4868128217478782</v>
       </c>
       <c r="C32">
         <f>PARS!C32</f>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B33">
         <f>(D33*$R$4+C33*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B33</f>
-        <v>-0.49936932153418279</v>
+        <v>-0.27225419177810328</v>
       </c>
       <c r="C33">
         <f>PARS!C33</f>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="B34">
         <f>(D34*$R$4+C34*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B34</f>
-        <v>-0.3936157978498695</v>
+        <v>-0.35550309400846669</v>
       </c>
       <c r="C34">
         <f>PARS!C34</f>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B35">
         <f>(D35*$R$4+C35*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B35</f>
-        <v>0.81853785955811198</v>
+        <v>1.3968206848015878</v>
       </c>
       <c r="C35">
         <f>PARS!C35</f>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B36">
         <f>(D36*$R$4+C36*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B36</f>
-        <v>0.75328538554975544</v>
+        <v>1.4371443912889359</v>
       </c>
       <c r="C36">
         <f>PARS!C36</f>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B37">
         <f>(D37*$R$4+C37*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B37</f>
-        <v>0.15669763926330132</v>
+        <v>0.21132668929660442</v>
       </c>
       <c r="C37">
         <f>PARS!C37</f>
@@ -35306,8 +35306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranos\OneDrive - Umich\Documents\D\Michigan\Res\Female careers in location\Codes\matlab\JMP\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9D61E6-B168-4AD1-B5B4-FCA6F5A94DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{EF9D61E6-B168-4AD1-B5B4-FCA6F5A94DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EF395B7-A9DB-4745-9F30-0BFD9A1E00C4}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.47385694273736589</v>
+        <v>0.47715515434632727</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -2760,15 +2760,15 @@
       </c>
       <c r="B24">
         <f>(D24*$R$4+C24*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B24</f>
-        <v>-1.7439537482991513E-3</v>
+        <v>-2.9148790749659828E-2</v>
       </c>
       <c r="C24">
         <f>PARS!C24</f>
-        <v>-1</v>
+        <v>-0.2</v>
       </c>
       <c r="D24">
         <f>PARS!D24</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E24" t="b">
         <f t="shared" si="0"/>
@@ -32607,8 +32607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33935,21 +33935,22 @@
       </c>
       <c r="C24">
         <f t="shared" ref="B24:D25" si="8">F24</f>
-        <v>-1</v>
+        <v>-0.2</v>
       </c>
       <c r="D24">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E24">
         <f>-0.045</f>
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <f>-0.2</f>
+        <v>-0.2</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H24">
         <v>4</v>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{EF9D61E6-B168-4AD1-B5B4-FCA6F5A94DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EF395B7-A9DB-4745-9F30-0BFD9A1E00C4}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EF9D61E6-B168-4AD1-B5B4-FCA6F5A94DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D55A0D18-1968-47BF-9665-FA8F592A1954}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.47715515434632727</v>
+        <v>0.34403793111988268</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B33">
         <f>(D33*$R$4+C33*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B33</f>
-        <v>-0.27225419177810328</v>
+        <v>-0.35344115077234661</v>
       </c>
       <c r="C33">
         <f>PARS!C33</f>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="D33">
         <f>PARS!D33</f>
-        <v>1.3862943611198906</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="E33" t="b">
         <f t="shared" si="0"/>
@@ -32607,8 +32607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34429,7 +34429,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="11"/>
-        <v>1.3862943611198906</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="E33">
         <v>0.73729999999999996</v>
@@ -34438,7 +34438,7 @@
         <v>0.1</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>6</v>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EF9D61E6-B168-4AD1-B5B4-FCA6F5A94DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D55A0D18-1968-47BF-9665-FA8F592A1954}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{EF9D61E6-B168-4AD1-B5B4-FCA6F5A94DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DACCC5C-7091-4339-A57D-7F77F9393916}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.34403793111988268</v>
+        <v>0.65728387406039779</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -32607,8 +32607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34428,7 +34428,7 @@
         <v>-2.3025850929940455</v>
       </c>
       <c r="D33">
-        <f t="shared" si="11"/>
+        <f>LN(G33)</f>
         <v>0.69314718055994529</v>
       </c>
       <c r="E33">

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{EF9D61E6-B168-4AD1-B5B4-FCA6F5A94DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DACCC5C-7091-4339-A57D-7F77F9393916}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{EF9D61E6-B168-4AD1-B5B4-FCA6F5A94DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA1477D7-75F8-40CB-850A-5FEBA040FBB6}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1329,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.65728387406039779</v>
+        <v>0.96388229047167728</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -2577,15 +2577,15 @@
       </c>
       <c r="B21">
         <f>(D21*$R$4+C21*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B21</f>
-        <v>0.5037120253705254</v>
+        <v>0.50346791454799278</v>
       </c>
       <c r="C21">
         <f>PARS!C21</f>
-        <v>0.30010459245033816</v>
+        <v>0.37156355643248301</v>
       </c>
       <c r="D21">
         <f>PARS!D21</f>
-        <v>0.66782937257565544</v>
+        <v>0.61518563909023349</v>
       </c>
       <c r="E21" t="b">
         <f t="shared" si="0"/>
@@ -32607,8 +32607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33774,20 +33774,20 @@
       </c>
       <c r="C21">
         <f>LN(F21/10)</f>
-        <v>0.30010459245033816</v>
+        <v>0.37156355643248301</v>
       </c>
       <c r="D21">
         <f>LN(G21/10)</f>
-        <v>0.66782937257565544</v>
+        <v>0.61518563909023349</v>
       </c>
       <c r="E21">
         <v>16.5</v>
       </c>
       <c r="F21">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="G21">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -35307,8 +35307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35412,7 +35412,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B18" si="0">A5</f>
+        <f>A5</f>
         <v>whours_pww_dif</v>
       </c>
       <c r="C5">
@@ -35435,7 +35435,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f>A6</f>
         <v>hhours_pww</v>
       </c>
       <c r="C6">
@@ -35458,7 +35458,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f>A7</f>
         <v>hhours_pwn_dif</v>
       </c>
       <c r="C7">
@@ -35481,7 +35481,7 @@
         <v>50</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f>A8</f>
         <v>whours_pnw_difwpww</v>
       </c>
       <c r="C8">
@@ -35504,7 +35504,7 @@
         <v>47</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f>A9</f>
         <v>shours</v>
       </c>
       <c r="C9">
@@ -35527,7 +35527,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f>A10</f>
         <v>whwk_pww</v>
       </c>
       <c r="C10">
@@ -35553,7 +35553,7 @@
         <v>52</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f>A11</f>
         <v>whwk_pwn_dif</v>
       </c>
       <c r="C11">
@@ -35579,7 +35579,7 @@
         <v>53</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f>A12</f>
         <v>whwk_pnw_dif</v>
       </c>
       <c r="C12">
@@ -35602,7 +35602,7 @@
         <v>54</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
+        <f>A13</f>
         <v>hhwk_pww_dif</v>
       </c>
       <c r="C13">
@@ -35628,7 +35628,7 @@
         <v>55</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
+        <f>A14</f>
         <v>hhwk_pwn_difhpww</v>
       </c>
       <c r="C14">
@@ -35654,7 +35654,7 @@
         <v>56</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
+        <f>A15</f>
         <v>hhwk_pnw_difhpww</v>
       </c>
       <c r="C15">
@@ -35682,7 +35682,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f>A16</f>
         <v>shwk</v>
       </c>
       <c r="C16">
@@ -35708,7 +35708,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
+        <f>A17</f>
         <v>wlfp_dif</v>
       </c>
       <c r="C17">
@@ -35731,7 +35731,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
+        <f>A18</f>
         <v>hlfp</v>
       </c>
       <c r="C18">
@@ -35776,7 +35776,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" ref="B20:B25" si="1">A20</f>
+        <f>A20</f>
         <v>hdj</v>
       </c>
       <c r="C20">
@@ -35799,7 +35799,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="1"/>
+        <f>A21</f>
         <v>hdo</v>
       </c>
       <c r="C21">
@@ -35822,7 +35822,7 @@
         <v>57</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="1"/>
+        <f>A22</f>
         <v>d_jobjob_all_psid</v>
       </c>
       <c r="C22">
@@ -35845,7 +35845,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="1"/>
+        <f>A23</f>
         <v>d_jobjob_within_psid</v>
       </c>
       <c r="C23">
@@ -35868,7 +35868,7 @@
         <v>59</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="1"/>
+        <f>A24</f>
         <v>d_jobjob_hw</v>
       </c>
       <c r="C24">
@@ -35891,7 +35891,7 @@
         <v>60</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="1"/>
+        <f>A25</f>
         <v>d_jobjob_hw_actual</v>
       </c>
       <c r="C25">
@@ -36028,7 +36028,7 @@
         <v>61</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" ref="B31:B43" si="2">A31</f>
+        <f>A31</f>
         <v>abs_hdo_wdo</v>
       </c>
       <c r="C31">
@@ -36051,7 +36051,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="2"/>
+        <f>A32</f>
         <v>betacom_w</v>
       </c>
       <c r="C32">
@@ -36074,7 +36074,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="2"/>
+        <f>A33</f>
         <v>betalfp_w</v>
       </c>
       <c r="C33">
@@ -36097,7 +36097,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="2"/>
+        <f>A34</f>
         <v>betahrs_w</v>
       </c>
       <c r="C34">
@@ -36117,15 +36117,15 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="2"/>
-        <v>betahwk</v>
+        <f>A35</f>
+        <v>betahrs0_w</v>
       </c>
       <c r="C35">
         <f>VLOOKUP(B35,Moments_psid!A:C,3,0)</f>
-        <v>-1.71230335362176</v>
+        <v>-8.2817295655450867</v>
       </c>
       <c r="D35">
         <f>1</f>
@@ -36140,47 +36140,45 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="2"/>
-        <v>betalwg</v>
+        <f>A36</f>
+        <v>betahwk_w</v>
       </c>
       <c r="C36">
         <f>VLOOKUP(B36,Moments_psid!A:C,3,0)</f>
-        <v>2.3340746736978842E-3</v>
+        <v>5.2860668593272644</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="G36">
         <v>41</v>
-      </c>
-      <c r="H36" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="2"/>
-        <v>betahrs0_w</v>
+        <f>A37</f>
+        <v>betacom</v>
       </c>
       <c r="C37">
         <f>VLOOKUP(B37,Moments_psid!A:C,3,0)</f>
-        <v>-8.2817295655450867</v>
+        <v>1.1368768064623165</v>
       </c>
       <c r="D37">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="F37">
-        <v>6.05</v>
+        <v>6.1</v>
       </c>
       <c r="G37">
         <v>42</v>
@@ -36188,15 +36186,15 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="2"/>
-        <v>betacom</v>
+        <f>A38</f>
+        <v>betalfp</v>
       </c>
       <c r="C38">
         <f>VLOOKUP(B38,Moments_psid!A:C,3,0)</f>
-        <v>1.1368768064623165</v>
+        <v>-3.0939100009194508E-3</v>
       </c>
       <c r="D38">
         <f>1</f>
@@ -36211,15 +36209,15 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="2"/>
-        <v>betalfp</v>
+        <f>A39</f>
+        <v>betahrs</v>
       </c>
       <c r="C39">
         <f>VLOOKUP(B39,Moments_psid!A:C,3,0)</f>
-        <v>-3.0939100009194508E-3</v>
+        <v>-7.94157992226146</v>
       </c>
       <c r="D39">
         <f>1</f>
@@ -36234,22 +36232,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="2"/>
-        <v>betahrs</v>
+        <f>A40</f>
+        <v>betahrs0</v>
       </c>
       <c r="C40">
         <f>VLOOKUP(B40,Moments_psid!A:C,3,0)</f>
-        <v>-7.94157992226146</v>
+        <v>-8.7903812532399481</v>
       </c>
       <c r="D40">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="F40">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="G40">
         <v>45</v>
@@ -36257,15 +36255,15 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="2"/>
-        <v>betahwk_w</v>
+        <f>A41</f>
+        <v>betahwk</v>
       </c>
       <c r="C41">
         <f>VLOOKUP(B41,Moments_psid!A:C,3,0)</f>
-        <v>5.2860668593272644</v>
+        <v>-1.71230335362176</v>
       </c>
       <c r="D41">
         <f>1</f>
@@ -36283,7 +36281,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="2"/>
+        <f>A42</f>
         <v>betalwg_w</v>
       </c>
       <c r="C42">
@@ -36303,25 +36301,27 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="2"/>
-        <v>betahrs0</v>
+        <f>A43</f>
+        <v>betalwg</v>
       </c>
       <c r="C43">
         <f>VLOOKUP(B43,Moments_psid!A:C,3,0)</f>
-        <v>-8.7903812532399481</v>
+        <v>2.3340746736978842E-3</v>
       </c>
       <c r="D43">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>6.15</v>
+        <v>6.3</v>
       </c>
       <c r="G43">
         <v>48</v>
+      </c>
+      <c r="H43" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -36389,7 +36389,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" ref="B47:B54" si="3">A47</f>
+        <f>A47</f>
         <v>NLY_</v>
       </c>
       <c r="C47">
@@ -36414,7 +36414,7 @@
         <v>62</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="3"/>
+        <f>A48</f>
         <v>shouseexp</v>
       </c>
       <c r="C48">
@@ -36437,7 +36437,7 @@
         <v>176</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="3"/>
+        <f>A49</f>
         <v>scity</v>
       </c>
       <c r="C49">
@@ -36459,7 +36459,7 @@
         <v>19</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="3"/>
+        <f>A50</f>
         <v>sjobscity</v>
       </c>
       <c r="C50">
@@ -36482,7 +36482,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="3"/>
+        <f>A51</f>
         <v>p_gradient</v>
       </c>
       <c r="C51">
@@ -36505,7 +36505,7 @@
         <v>17</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="3"/>
+        <f>A52</f>
         <v>p_gradient_simple</v>
       </c>
       <c r="C52">
@@ -36528,7 +36528,7 @@
         <v>9</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="3"/>
+        <f>A53</f>
         <v>L</v>
       </c>
       <c r="C53">
@@ -36551,7 +36551,7 @@
         <v>189</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="3"/>
+        <f>A54</f>
         <v>snmarried</v>
       </c>
       <c r="C54">
@@ -36629,7 +36629,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I56" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I56">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I57">
       <sortCondition ref="G1:G56"/>
     </sortState>
   </autoFilter>
@@ -36820,31 +36820,31 @@
       </c>
       <c r="AI1" t="str">
         <f>W_!AK2</f>
-        <v>betahwk</v>
+        <v>betahrs0_w</v>
       </c>
       <c r="AJ1" t="str">
         <f>W_!AL2</f>
-        <v>betalwg</v>
+        <v>betahwk_w</v>
       </c>
       <c r="AK1" t="str">
         <f>W_!AM2</f>
-        <v>betahrs0_w</v>
+        <v>betacom</v>
       </c>
       <c r="AL1" t="str">
         <f>W_!AN2</f>
-        <v>betacom</v>
+        <v>betalfp</v>
       </c>
       <c r="AM1" t="str">
         <f>W_!AO2</f>
-        <v>betalfp</v>
+        <v>betahrs</v>
       </c>
       <c r="AN1" t="str">
         <f>W_!AP2</f>
-        <v>betahrs</v>
+        <v>betahrs0</v>
       </c>
       <c r="AO1" t="str">
         <f>W_!AQ2</f>
-        <v>betahwk_w</v>
+        <v>betahwk</v>
       </c>
       <c r="AP1" t="str">
         <f>W_!AR2</f>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="AQ1" t="str">
         <f>W_!AS2</f>
-        <v>betahrs0</v>
+        <v>betalwg</v>
       </c>
       <c r="AR1" t="str">
         <f>W_!AT2</f>
@@ -37038,31 +37038,31 @@
       </c>
       <c r="AI2">
         <f>W_!AK4</f>
-        <v>-2.7942573244046147</v>
+        <v>-10.079717535513957</v>
       </c>
       <c r="AJ2">
         <f>W_!AL4</f>
-        <v>-2.4539634995494951E-4</v>
+        <v>5.2224874747760914</v>
       </c>
       <c r="AK2">
         <f>W_!AM4</f>
-        <v>-10.079717535513957</v>
+        <v>-1.8366641846413134E-2</v>
       </c>
       <c r="AL2">
         <f>W_!AN4</f>
-        <v>-1.8366641846413134E-2</v>
+        <v>1.4975522719250028E-4</v>
       </c>
       <c r="AM2">
         <f>W_!AO4</f>
-        <v>1.4975522719250028E-4</v>
+        <v>5.2797938205596351</v>
       </c>
       <c r="AN2">
         <f>W_!AP4</f>
-        <v>5.2797938205596351</v>
+        <v>5.3232639458714441</v>
       </c>
       <c r="AO2">
         <f>W_!AQ4</f>
-        <v>5.2224874747760914</v>
+        <v>-2.7942573244046147</v>
       </c>
       <c r="AP2">
         <f>W_!AR4</f>
@@ -37070,7 +37070,7 @@
       </c>
       <c r="AQ2">
         <f>W_!AS4</f>
-        <v>5.3232639458714441</v>
+        <v>-2.4539634995494951E-4</v>
       </c>
       <c r="AR2">
         <f>W_!AT4</f>
@@ -37256,31 +37256,31 @@
       </c>
       <c r="AI3">
         <f>W_!AK5</f>
-        <v>-1.9282397193109404</v>
+        <v>-21.470939964265249</v>
       </c>
       <c r="AJ3">
         <f>W_!AL5</f>
-        <v>-2.8424344588463876E-3</v>
+        <v>3.5625091254125145</v>
       </c>
       <c r="AK3">
         <f>W_!AM5</f>
-        <v>-21.470939964265249</v>
+        <v>-9.6889567398065563E-2</v>
       </c>
       <c r="AL3">
         <f>W_!AN5</f>
-        <v>-9.6889567398065563E-2</v>
+        <v>9.9637229865548048E-4</v>
       </c>
       <c r="AM3">
         <f>W_!AO5</f>
-        <v>9.9637229865548048E-4</v>
+        <v>10.356418571345214</v>
       </c>
       <c r="AN3">
         <f>W_!AP5</f>
-        <v>10.356418571345214</v>
+        <v>11.228863140385918</v>
       </c>
       <c r="AO3">
         <f>W_!AQ5</f>
-        <v>3.5625091254125145</v>
+        <v>-1.9282397193109404</v>
       </c>
       <c r="AP3">
         <f>W_!AR5</f>
@@ -37288,7 +37288,7 @@
       </c>
       <c r="AQ3">
         <f>W_!AS5</f>
-        <v>11.228863140385918</v>
+        <v>-2.8424344588463876E-3</v>
       </c>
       <c r="AR3">
         <f>W_!AT5</f>
@@ -37474,31 +37474,31 @@
       </c>
       <c r="AI4">
         <f>W_!AK6</f>
-        <v>-5.5916262093774529</v>
+        <v>-24.711962266554782</v>
       </c>
       <c r="AJ4">
         <f>W_!AL6</f>
-        <v>4.2976884985427682E-4</v>
+        <v>10.476758041636117</v>
       </c>
       <c r="AK4">
         <f>W_!AM6</f>
-        <v>-24.711962266554782</v>
+        <v>-0.13864560166947873</v>
       </c>
       <c r="AL4">
         <f>W_!AN6</f>
-        <v>-0.13864560166947873</v>
+        <v>1.8309420103255049E-3</v>
       </c>
       <c r="AM4">
         <f>W_!AO6</f>
-        <v>1.8309420103255049E-3</v>
+        <v>9.4140641871961765</v>
       </c>
       <c r="AN4">
         <f>W_!AP6</f>
-        <v>9.4140641871961765</v>
+        <v>12.933893422837496</v>
       </c>
       <c r="AO4">
         <f>W_!AQ6</f>
-        <v>10.476758041636117</v>
+        <v>-5.5916262093774529</v>
       </c>
       <c r="AP4">
         <f>W_!AR6</f>
@@ -37506,7 +37506,7 @@
       </c>
       <c r="AQ4">
         <f>W_!AS6</f>
-        <v>12.933893422837496</v>
+        <v>4.2976884985427682E-4</v>
       </c>
       <c r="AR4">
         <f>W_!AT6</f>
@@ -37692,31 +37692,31 @@
       </c>
       <c r="AI5">
         <f>W_!AK7</f>
-        <v>-211.30141923339218</v>
+        <v>-1126.2225585624208</v>
       </c>
       <c r="AJ5">
         <f>W_!AL7</f>
-        <v>5.0925987869129559E-2</v>
+        <v>392.98837731434764</v>
       </c>
       <c r="AK5">
         <f>W_!AM7</f>
-        <v>-1126.2225585624208</v>
+        <v>-4.840127991293067</v>
       </c>
       <c r="AL5">
         <f>W_!AN7</f>
-        <v>-4.840127991293067</v>
+        <v>6.1641044284796137E-2</v>
       </c>
       <c r="AM5">
         <f>W_!AO7</f>
-        <v>6.1641044284796137E-2</v>
+        <v>524.27416939885438</v>
       </c>
       <c r="AN5">
         <f>W_!AP7</f>
-        <v>524.27416939885438</v>
+        <v>589.72612223960095</v>
       </c>
       <c r="AO5">
         <f>W_!AQ7</f>
-        <v>392.98837731434764</v>
+        <v>-211.30141923339218</v>
       </c>
       <c r="AP5">
         <f>W_!AR7</f>
@@ -37724,7 +37724,7 @@
       </c>
       <c r="AQ5">
         <f>W_!AS7</f>
-        <v>589.72612223960095</v>
+        <v>5.0925987869129559E-2</v>
       </c>
       <c r="AR5">
         <f>W_!AT7</f>
@@ -37910,31 +37910,31 @@
       </c>
       <c r="AI6">
         <f>W_!AK8</f>
-        <v>11.957490418677887</v>
+        <v>171.11345810509954</v>
       </c>
       <c r="AJ6">
         <f>W_!AL8</f>
-        <v>1.2862911662788602E-3</v>
+        <v>-17.481176267748801</v>
       </c>
       <c r="AK6">
         <f>W_!AM8</f>
-        <v>171.11345810509954</v>
+        <v>-4.9907841616248255E-2</v>
       </c>
       <c r="AL6">
         <f>W_!AN8</f>
-        <v>-4.9907841616248255E-2</v>
+        <v>-7.5134601408515895E-3</v>
       </c>
       <c r="AM6">
         <f>W_!AO8</f>
-        <v>-7.5134601408515895E-3</v>
+        <v>-75.297052404070115</v>
       </c>
       <c r="AN6">
         <f>W_!AP8</f>
-        <v>-75.297052404070115</v>
+        <v>-90.154948026094345</v>
       </c>
       <c r="AO6">
         <f>W_!AQ8</f>
-        <v>-17.481176267748801</v>
+        <v>11.957490418677887</v>
       </c>
       <c r="AP6">
         <f>W_!AR8</f>
@@ -37942,7 +37942,7 @@
       </c>
       <c r="AQ6">
         <f>W_!AS8</f>
-        <v>-90.154948026094345</v>
+        <v>1.2862911662788602E-3</v>
       </c>
       <c r="AR6">
         <f>W_!AT8</f>
@@ -38128,31 +38128,31 @@
       </c>
       <c r="AI7">
         <f>W_!AK9</f>
-        <v>73.620088502439629</v>
+        <v>404.58355238648295</v>
       </c>
       <c r="AJ7">
         <f>W_!AL9</f>
-        <v>3.0292278672133268E-2</v>
+        <v>-141.58188874812311</v>
       </c>
       <c r="AK7">
         <f>W_!AM9</f>
-        <v>404.58355238648295</v>
+        <v>2.2201893713818426</v>
       </c>
       <c r="AL7">
         <f>W_!AN9</f>
-        <v>2.2201893713818426</v>
+        <v>-2.7175229342418564E-2</v>
       </c>
       <c r="AM7">
         <f>W_!AO9</f>
-        <v>-2.7175229342418564E-2</v>
+        <v>-147.02044525468639</v>
       </c>
       <c r="AN7">
         <f>W_!AP9</f>
-        <v>-147.02044525468639</v>
+        <v>-209.57181197672796</v>
       </c>
       <c r="AO7">
         <f>W_!AQ9</f>
-        <v>-141.58188874812311</v>
+        <v>73.620088502439629</v>
       </c>
       <c r="AP7">
         <f>W_!AR9</f>
@@ -38160,7 +38160,7 @@
       </c>
       <c r="AQ7">
         <f>W_!AS9</f>
-        <v>-209.57181197672796</v>
+        <v>3.0292278672133268E-2</v>
       </c>
       <c r="AR7">
         <f>W_!AT9</f>
@@ -38346,31 +38346,31 @@
       </c>
       <c r="AI8">
         <f>W_!AK10</f>
-        <v>101.33075077941011</v>
+        <v>622.72285024766177</v>
       </c>
       <c r="AJ8">
         <f>W_!AL10</f>
-        <v>-6.2360439785684079E-3</v>
+        <v>-187.11366345314303</v>
       </c>
       <c r="AK8">
         <f>W_!AM10</f>
-        <v>622.72285024766177</v>
+        <v>2.6884144794215215</v>
       </c>
       <c r="AL8">
         <f>W_!AN10</f>
-        <v>2.6884144794215215</v>
+        <v>-3.2909805040499063E-2</v>
       </c>
       <c r="AM8">
         <f>W_!AO10</f>
-        <v>-3.2909805040499063E-2</v>
+        <v>-301.04453345569152</v>
       </c>
       <c r="AN8">
         <f>W_!AP10</f>
-        <v>-301.04453345569152</v>
+        <v>-328.98817330371662</v>
       </c>
       <c r="AO8">
         <f>W_!AQ10</f>
-        <v>-187.11366345314303</v>
+        <v>101.33075077941011</v>
       </c>
       <c r="AP8">
         <f>W_!AR10</f>
@@ -38378,7 +38378,7 @@
       </c>
       <c r="AQ8">
         <f>W_!AS10</f>
-        <v>-328.98817330371662</v>
+        <v>-6.2360439785684079E-3</v>
       </c>
       <c r="AR8">
         <f>W_!AT10</f>
@@ -38564,31 +38564,31 @@
       </c>
       <c r="AI9">
         <f>W_!AK11</f>
-        <v>31.075729862315068</v>
+        <v>320.97113318614242</v>
       </c>
       <c r="AJ9">
         <f>W_!AL11</f>
-        <v>8.5693700947602258E-2</v>
+        <v>-53.241944557888729</v>
       </c>
       <c r="AK9">
         <f>W_!AM11</f>
-        <v>320.97113318614242</v>
+        <v>1.9906018166756743</v>
       </c>
       <c r="AL9">
         <f>W_!AN11</f>
-        <v>1.9906018166756743</v>
+        <v>-3.1279254631665913E-2</v>
       </c>
       <c r="AM9">
         <f>W_!AO11</f>
-        <v>-3.1279254631665913E-2</v>
+        <v>-121.11571993031674</v>
       </c>
       <c r="AN9">
         <f>W_!AP11</f>
-        <v>-121.11571993031674</v>
+        <v>-170.18754693450447</v>
       </c>
       <c r="AO9">
         <f>W_!AQ11</f>
-        <v>-53.241944557888729</v>
+        <v>31.075729862315068</v>
       </c>
       <c r="AP9">
         <f>W_!AR11</f>
@@ -38596,7 +38596,7 @@
       </c>
       <c r="AQ9">
         <f>W_!AS11</f>
-        <v>-170.18754693450447</v>
+        <v>8.5693700947602258E-2</v>
       </c>
       <c r="AR9">
         <f>W_!AT11</f>
@@ -38782,31 +38782,31 @@
       </c>
       <c r="AI10">
         <f>W_!AK12</f>
-        <v>115.10740771448714</v>
+        <v>-1.1994961544104632</v>
       </c>
       <c r="AJ10">
         <f>W_!AL12</f>
-        <v>-3.9253046825761778E-2</v>
+        <v>-220.65134087398388</v>
       </c>
       <c r="AK10">
         <f>W_!AM12</f>
-        <v>-1.1994961544104632</v>
+        <v>4.0373586092262631E-2</v>
       </c>
       <c r="AL10">
         <f>W_!AN12</f>
-        <v>4.0373586092262631E-2</v>
+        <v>2.0907059883270914E-6</v>
       </c>
       <c r="AM10">
         <f>W_!AO12</f>
-        <v>2.0907059883270914E-6</v>
+        <v>-1.2163045104466834</v>
       </c>
       <c r="AN10">
         <f>W_!AP12</f>
-        <v>-1.2163045104466834</v>
+        <v>-4.4999433938360589E-2</v>
       </c>
       <c r="AO10">
         <f>W_!AQ12</f>
-        <v>-220.65134087398388</v>
+        <v>115.10740771448714</v>
       </c>
       <c r="AP10">
         <f>W_!AR12</f>
@@ -38814,7 +38814,7 @@
       </c>
       <c r="AQ10">
         <f>W_!AS12</f>
-        <v>-4.4999433938360589E-2</v>
+        <v>-3.9253046825761778E-2</v>
       </c>
       <c r="AR10">
         <f>W_!AT12</f>
@@ -39000,31 +39000,31 @@
       </c>
       <c r="AI11">
         <f>W_!AK13</f>
-        <v>46.823785685435425</v>
+        <v>71.842198819411237</v>
       </c>
       <c r="AJ11">
         <f>W_!AL13</f>
-        <v>-4.9535414988894397E-2</v>
+        <v>-88.827203987656176</v>
       </c>
       <c r="AK11">
         <f>W_!AM13</f>
-        <v>71.842198819411237</v>
+        <v>1.9938604017660995</v>
       </c>
       <c r="AL11">
         <f>W_!AN13</f>
-        <v>1.9938604017660995</v>
+        <v>-1.9653511873181085E-2</v>
       </c>
       <c r="AM11">
         <f>W_!AO13</f>
-        <v>-1.9653511873181085E-2</v>
+        <v>20.589163565856708</v>
       </c>
       <c r="AN11">
         <f>W_!AP13</f>
-        <v>20.589163565856708</v>
+        <v>-32.709399608827738</v>
       </c>
       <c r="AO11">
         <f>W_!AQ13</f>
-        <v>-88.827203987656176</v>
+        <v>46.823785685435425</v>
       </c>
       <c r="AP11">
         <f>W_!AR13</f>
@@ -39032,7 +39032,7 @@
       </c>
       <c r="AQ11">
         <f>W_!AS13</f>
-        <v>-32.709399608827738</v>
+        <v>-4.9535414988894397E-2</v>
       </c>
       <c r="AR11">
         <f>W_!AT13</f>
@@ -39218,31 +39218,31 @@
       </c>
       <c r="AI12">
         <f>W_!AK14</f>
-        <v>-28.56495763867628</v>
+        <v>161.51816515491561</v>
       </c>
       <c r="AJ12">
         <f>W_!AL14</f>
-        <v>-4.1857470741297607E-2</v>
+        <v>56.944049785409128</v>
       </c>
       <c r="AK12">
         <f>W_!AM14</f>
-        <v>161.51816515491561</v>
+        <v>1.4255785516062096</v>
       </c>
       <c r="AL12">
         <f>W_!AN14</f>
-        <v>1.4255785516062096</v>
+        <v>9.0659628044587985E-3</v>
       </c>
       <c r="AM12">
         <f>W_!AO14</f>
-        <v>9.0659628044587985E-3</v>
+        <v>-127.30689448094499</v>
       </c>
       <c r="AN12">
         <f>W_!AP14</f>
-        <v>-127.30689448094499</v>
+        <v>-85.798484852085664</v>
       </c>
       <c r="AO12">
         <f>W_!AQ14</f>
-        <v>56.944049785409128</v>
+        <v>-28.56495763867628</v>
       </c>
       <c r="AP12">
         <f>W_!AR14</f>
@@ -39250,7 +39250,7 @@
       </c>
       <c r="AQ12">
         <f>W_!AS14</f>
-        <v>-85.798484852085664</v>
+        <v>-4.1857470741297607E-2</v>
       </c>
       <c r="AR12">
         <f>W_!AT14</f>
@@ -39436,31 +39436,31 @@
       </c>
       <c r="AI13">
         <f>W_!AK15</f>
-        <v>-127.6787808320332</v>
+        <v>-41.319673908751653</v>
       </c>
       <c r="AJ13">
         <f>W_!AL15</f>
-        <v>1.0508109622717591E-2</v>
+        <v>244.32375218413293</v>
       </c>
       <c r="AK13">
         <f>W_!AM15</f>
-        <v>-41.319673908751653</v>
+        <v>0.38799229499173682</v>
       </c>
       <c r="AL13">
         <f>W_!AN15</f>
-        <v>0.38799229499173682</v>
+        <v>-8.5897121169078439E-3</v>
       </c>
       <c r="AM13">
         <f>W_!AO15</f>
-        <v>-8.5897121169078439E-3</v>
+        <v>47.318447388726391</v>
       </c>
       <c r="AN13">
         <f>W_!AP15</f>
-        <v>47.318447388726391</v>
+        <v>22.842204499889338</v>
       </c>
       <c r="AO13">
         <f>W_!AQ15</f>
-        <v>244.32375218413293</v>
+        <v>-127.6787808320332</v>
       </c>
       <c r="AP13">
         <f>W_!AR15</f>
@@ -39468,7 +39468,7 @@
       </c>
       <c r="AQ13">
         <f>W_!AS15</f>
-        <v>22.842204499889338</v>
+        <v>1.0508109622717591E-2</v>
       </c>
       <c r="AR13">
         <f>W_!AT15</f>
@@ -39654,31 +39654,31 @@
       </c>
       <c r="AI14">
         <f>W_!AK16</f>
-        <v>-17.99329815882259</v>
+        <v>-55.979393464340006</v>
       </c>
       <c r="AJ14">
         <f>W_!AL16</f>
-        <v>-1.4051065633767172E-2</v>
+        <v>32.660241823637065</v>
       </c>
       <c r="AK14">
         <f>W_!AM16</f>
-        <v>-55.979393464340006</v>
+        <v>1.1002301673230266</v>
       </c>
       <c r="AL14">
         <f>W_!AN16</f>
-        <v>1.1002301673230266</v>
+        <v>5.7631335286267545E-3</v>
       </c>
       <c r="AM14">
         <f>W_!AO16</f>
-        <v>5.7631335286267545E-3</v>
+        <v>19.353760087100774</v>
       </c>
       <c r="AN14">
         <f>W_!AP16</f>
-        <v>19.353760087100774</v>
+        <v>29.157646656918001</v>
       </c>
       <c r="AO14">
         <f>W_!AQ16</f>
-        <v>32.660241823637065</v>
+        <v>-17.99329815882259</v>
       </c>
       <c r="AP14">
         <f>W_!AR16</f>
@@ -39686,7 +39686,7 @@
       </c>
       <c r="AQ14">
         <f>W_!AS16</f>
-        <v>29.157646656918001</v>
+        <v>-1.4051065633767172E-2</v>
       </c>
       <c r="AR14">
         <f>W_!AT16</f>
@@ -39872,31 +39872,31 @@
       </c>
       <c r="AI15">
         <f>W_!AK17</f>
-        <v>73.57291854687702</v>
+        <v>618.86855848909056</v>
       </c>
       <c r="AJ15">
         <f>W_!AL17</f>
-        <v>0.10663089471080375</v>
+        <v>-135.16141070911945</v>
       </c>
       <c r="AK15">
         <f>W_!AM17</f>
-        <v>618.86855848909056</v>
+        <v>4.5175585140474883</v>
       </c>
       <c r="AL15">
         <f>W_!AN17</f>
-        <v>4.5175585140474883</v>
+        <v>-6.3969472355909149E-2</v>
       </c>
       <c r="AM15">
         <f>W_!AO17</f>
-        <v>-6.3969472355909149E-2</v>
+        <v>-237.50830716427268</v>
       </c>
       <c r="AN15">
         <f>W_!AP17</f>
-        <v>-237.50830716427268</v>
+        <v>-321.98489640810499</v>
       </c>
       <c r="AO15">
         <f>W_!AQ17</f>
-        <v>-135.16141070911945</v>
+        <v>73.57291854687702</v>
       </c>
       <c r="AP15">
         <f>W_!AR17</f>
@@ -39904,7 +39904,7 @@
       </c>
       <c r="AQ15">
         <f>W_!AS17</f>
-        <v>-321.98489640810499</v>
+        <v>0.10663089471080375</v>
       </c>
       <c r="AR15">
         <f>W_!AT17</f>
@@ -40090,31 +40090,31 @@
       </c>
       <c r="AI16">
         <f>W_!AK18</f>
-        <v>-60.996895257536984</v>
+        <v>-442.87888427876425</v>
       </c>
       <c r="AJ16">
         <f>W_!AL18</f>
-        <v>-4.9997029054094921E-2</v>
+        <v>111.69107446858089</v>
       </c>
       <c r="AK16">
         <f>W_!AM18</f>
-        <v>-442.87888427876425</v>
+        <v>-2.6231601184424873</v>
       </c>
       <c r="AL16">
         <f>W_!AN18</f>
-        <v>-2.6231601184424873</v>
+        <v>3.1852628068217689E-2</v>
       </c>
       <c r="AM16">
         <f>W_!AO18</f>
-        <v>3.1852628068217689E-2</v>
+        <v>185.05865498720934</v>
       </c>
       <c r="AN16">
         <f>W_!AP18</f>
-        <v>185.05865498720934</v>
+        <v>231.9574135656662</v>
       </c>
       <c r="AO16">
         <f>W_!AQ18</f>
-        <v>111.69107446858089</v>
+        <v>-60.996895257536984</v>
       </c>
       <c r="AP16">
         <f>W_!AR18</f>
@@ -40122,7 +40122,7 @@
       </c>
       <c r="AQ16">
         <f>W_!AS18</f>
-        <v>231.9574135656662</v>
+        <v>-4.9997029054094921E-2</v>
       </c>
       <c r="AR16">
         <f>W_!AT18</f>
@@ -40308,31 +40308,31 @@
       </c>
       <c r="AI17">
         <f>W_!AK19</f>
-        <v>-5.4563297311719099E-2</v>
+        <v>-0.25285864456974494</v>
       </c>
       <c r="AJ17">
         <f>W_!AL19</f>
-        <v>3.2006766873150301E-6</v>
+        <v>0.10208107729419125</v>
       </c>
       <c r="AK17">
         <f>W_!AM19</f>
-        <v>-0.25285864456974494</v>
+        <v>-9.4435501589965683E-4</v>
       </c>
       <c r="AL17">
         <f>W_!AN19</f>
-        <v>-9.4435501589965683E-4</v>
+        <v>2.4340681023366604E-5</v>
       </c>
       <c r="AM17">
         <f>W_!AO19</f>
-        <v>2.4340681023366604E-5</v>
+        <v>0.10437517669090268</v>
       </c>
       <c r="AN17">
         <f>W_!AP19</f>
-        <v>0.10437517669090268</v>
+        <v>0.13213700223965485</v>
       </c>
       <c r="AO17">
         <f>W_!AQ19</f>
-        <v>0.10208107729419125</v>
+        <v>-5.4563297311719099E-2</v>
       </c>
       <c r="AP17">
         <f>W_!AR19</f>
@@ -40340,7 +40340,7 @@
       </c>
       <c r="AQ17">
         <f>W_!AS19</f>
-        <v>0.13213700223965485</v>
+        <v>3.2006766873150301E-6</v>
       </c>
       <c r="AR17">
         <f>W_!AT19</f>
@@ -40526,31 +40526,31 @@
       </c>
       <c r="AI18">
         <f>W_!AK20</f>
-        <v>3.0809364778536003E-3</v>
+        <v>3.8684573372032731E-2</v>
       </c>
       <c r="AJ18">
         <f>W_!AL20</f>
-        <v>-2.6887122730866516E-6</v>
+        <v>-5.5171637329746682E-3</v>
       </c>
       <c r="AK18">
         <f>W_!AM20</f>
-        <v>3.8684573372032731E-2</v>
+        <v>5.5397241856254358E-4</v>
       </c>
       <c r="AL18">
         <f>W_!AN20</f>
-        <v>5.5397241856254358E-4</v>
+        <v>-1.2729948790884534E-7</v>
       </c>
       <c r="AM18">
         <f>W_!AO20</f>
-        <v>-1.2729948790884534E-7</v>
+        <v>-1.8267802053376324E-2</v>
       </c>
       <c r="AN18">
         <f>W_!AP20</f>
-        <v>-1.8267802053376324E-2</v>
+        <v>-2.0539758970679542E-2</v>
       </c>
       <c r="AO18">
         <f>W_!AQ20</f>
-        <v>-5.5171637329746682E-3</v>
+        <v>3.0809364778536003E-3</v>
       </c>
       <c r="AP18">
         <f>W_!AR20</f>
@@ -40558,7 +40558,7 @@
       </c>
       <c r="AQ18">
         <f>W_!AS20</f>
-        <v>-2.0539758970679542E-2</v>
+        <v>-2.6887122730866516E-6</v>
       </c>
       <c r="AR18">
         <f>W_!AT20</f>
@@ -40744,31 +40744,31 @@
       </c>
       <c r="AI19">
         <f>W_!AK21</f>
-        <v>-0.10173489646599192</v>
+        <v>-0.46450567826741906</v>
       </c>
       <c r="AJ19">
         <f>W_!AL21</f>
-        <v>-1.0401453563577732E-4</v>
+        <v>0.18951225051763973</v>
       </c>
       <c r="AK19">
         <f>W_!AM21</f>
-        <v>-0.46450567826741906</v>
+        <v>-1.9244109516631141E-3</v>
       </c>
       <c r="AL19">
         <f>W_!AN21</f>
-        <v>-1.9244109516631141E-3</v>
+        <v>3.1551707341881102E-5</v>
       </c>
       <c r="AM19">
         <f>W_!AO21</f>
-        <v>3.1551707341881102E-5</v>
+        <v>0.21046642828631834</v>
       </c>
       <c r="AN19">
         <f>W_!AP21</f>
-        <v>0.21046642828631834</v>
+        <v>0.24125562249911386</v>
       </c>
       <c r="AO19">
         <f>W_!AQ21</f>
-        <v>0.18951225051763973</v>
+        <v>-0.10173489646599192</v>
       </c>
       <c r="AP19">
         <f>W_!AR21</f>
@@ -40776,7 +40776,7 @@
       </c>
       <c r="AQ19">
         <f>W_!AS21</f>
-        <v>0.24125562249911386</v>
+        <v>-1.0401453563577732E-4</v>
       </c>
       <c r="AR19">
         <f>W_!AT21</f>
@@ -40962,31 +40962,31 @@
       </c>
       <c r="AI20">
         <f>W_!AK22</f>
-        <v>3.9039584534518803</v>
+        <v>31.954326148909761</v>
       </c>
       <c r="AJ20">
         <f>W_!AL22</f>
-        <v>2.3109967081836125E-3</v>
+        <v>-7.11667722226594</v>
       </c>
       <c r="AK20">
         <f>W_!AM22</f>
-        <v>31.954326148909761</v>
+        <v>0.20047972880030041</v>
       </c>
       <c r="AL20">
         <f>W_!AN22</f>
-        <v>0.20047972880030041</v>
+        <v>-2.4450118687629483E-3</v>
       </c>
       <c r="AM20">
         <f>W_!AO22</f>
-        <v>-2.4450118687629483E-3</v>
+        <v>-13.484943281713829</v>
       </c>
       <c r="AN20">
         <f>W_!AP22</f>
-        <v>-13.484943281713829</v>
+        <v>-16.785713626538868</v>
       </c>
       <c r="AO20">
         <f>W_!AQ22</f>
-        <v>-7.11667722226594</v>
+        <v>3.9039584534518803</v>
       </c>
       <c r="AP20">
         <f>W_!AR22</f>
@@ -40994,7 +40994,7 @@
       </c>
       <c r="AQ20">
         <f>W_!AS22</f>
-        <v>-16.785713626538868</v>
+        <v>2.3109967081836125E-3</v>
       </c>
       <c r="AR20">
         <f>W_!AT22</f>
@@ -41180,31 +41180,31 @@
       </c>
       <c r="AI21">
         <f>W_!AK23</f>
-        <v>3.8913106117669463</v>
+        <v>30.838536569420821</v>
       </c>
       <c r="AJ21">
         <f>W_!AL23</f>
-        <v>2.1620910093765934E-3</v>
+        <v>-7.1041050620678545</v>
       </c>
       <c r="AK21">
         <f>W_!AM23</f>
-        <v>30.838536569420821</v>
+        <v>0.19953378365896102</v>
       </c>
       <c r="AL21">
         <f>W_!AN23</f>
-        <v>0.19953378365896102</v>
+        <v>-2.343658731886621E-3</v>
       </c>
       <c r="AM21">
         <f>W_!AO23</f>
-        <v>-2.343658731886621E-3</v>
+        <v>-13.141992555052447</v>
       </c>
       <c r="AN21">
         <f>W_!AP23</f>
-        <v>-13.141992555052447</v>
+        <v>-16.209322582133147</v>
       </c>
       <c r="AO21">
         <f>W_!AQ23</f>
-        <v>-7.1041050620678545</v>
+        <v>3.8913106117669463</v>
       </c>
       <c r="AP21">
         <f>W_!AR23</f>
@@ -41212,7 +41212,7 @@
       </c>
       <c r="AQ21">
         <f>W_!AS23</f>
-        <v>-16.209322582133147</v>
+        <v>2.1620910093765934E-3</v>
       </c>
       <c r="AR21">
         <f>W_!AT23</f>
@@ -41398,31 +41398,31 @@
       </c>
       <c r="AI22">
         <f>W_!AK24</f>
-        <v>1.8997221387395582</v>
+        <v>25.550388158062624</v>
       </c>
       <c r="AJ22">
         <f>W_!AL24</f>
-        <v>2.5648873556789291E-3</v>
+        <v>-3.2332641640179514</v>
       </c>
       <c r="AK22">
         <f>W_!AM24</f>
-        <v>25.550388158062624</v>
+        <v>0.12003669485915777</v>
       </c>
       <c r="AL22">
         <f>W_!AN24</f>
-        <v>0.12003669485915777</v>
+        <v>-1.5332110527078808E-3</v>
       </c>
       <c r="AM22">
         <f>W_!AO24</f>
-        <v>-1.5332110527078808E-3</v>
+        <v>-11.859582957536279</v>
       </c>
       <c r="AN22">
         <f>W_!AP24</f>
-        <v>-11.859582957536279</v>
+        <v>-13.513371377783773</v>
       </c>
       <c r="AO22">
         <f>W_!AQ24</f>
-        <v>-3.2332641640179514</v>
+        <v>1.8997221387395582</v>
       </c>
       <c r="AP22">
         <f>W_!AR24</f>
@@ -41430,7 +41430,7 @@
       </c>
       <c r="AQ22">
         <f>W_!AS24</f>
-        <v>-13.513371377783773</v>
+        <v>2.5648873556789291E-3</v>
       </c>
       <c r="AR22">
         <f>W_!AT24</f>
@@ -41616,31 +41616,31 @@
       </c>
       <c r="AI23">
         <f>W_!AK25</f>
-        <v>0.99824818716135155</v>
+        <v>20.757148071253333</v>
       </c>
       <c r="AJ23">
         <f>W_!AL25</f>
-        <v>2.6092686341621651E-3</v>
+        <v>-1.5318702972673734</v>
       </c>
       <c r="AK23">
         <f>W_!AM25</f>
-        <v>20.757148071253333</v>
+        <v>9.6056304227641262E-2</v>
       </c>
       <c r="AL23">
         <f>W_!AN25</f>
-        <v>9.6056304227641262E-2</v>
+        <v>-1.2625249943064121E-3</v>
       </c>
       <c r="AM23">
         <f>W_!AO25</f>
-        <v>-1.2625249943064121E-3</v>
+        <v>-9.5880001243205211</v>
       </c>
       <c r="AN23">
         <f>W_!AP25</f>
-        <v>-9.5880001243205211</v>
+        <v>-10.994556597855578</v>
       </c>
       <c r="AO23">
         <f>W_!AQ25</f>
-        <v>-1.5318702972673734</v>
+        <v>0.99824818716135155</v>
       </c>
       <c r="AP23">
         <f>W_!AR25</f>
@@ -41648,7 +41648,7 @@
       </c>
       <c r="AQ23">
         <f>W_!AS25</f>
-        <v>-10.994556597855578</v>
+        <v>2.6092686341621651E-3</v>
       </c>
       <c r="AR23">
         <f>W_!AT25</f>
@@ -41834,31 +41834,31 @@
       </c>
       <c r="AI24">
         <f>W_!AK26</f>
-        <v>1.6728524669573277</v>
+        <v>22.945580633730248</v>
       </c>
       <c r="AJ24">
         <f>W_!AL26</f>
-        <v>2.7127073347101688E-3</v>
+        <v>-2.808917534511115</v>
       </c>
       <c r="AK24">
         <f>W_!AM26</f>
-        <v>22.945580633730248</v>
+        <v>0.10799655895447798</v>
       </c>
       <c r="AL24">
         <f>W_!AN26</f>
-        <v>0.10799655895447798</v>
+        <v>-1.3065059825837823E-3</v>
       </c>
       <c r="AM24">
         <f>W_!AO26</f>
-        <v>-1.3065059825837823E-3</v>
+        <v>-10.90763469183673</v>
       </c>
       <c r="AN24">
         <f>W_!AP26</f>
-        <v>-10.90763469183673</v>
+        <v>-12.140073074367637</v>
       </c>
       <c r="AO24">
         <f>W_!AQ26</f>
-        <v>-2.808917534511115</v>
+        <v>1.6728524669573277</v>
       </c>
       <c r="AP24">
         <f>W_!AR26</f>
@@ -41866,7 +41866,7 @@
       </c>
       <c r="AQ24">
         <f>W_!AS26</f>
-        <v>-12.140073074367637</v>
+        <v>2.7127073347101688E-3</v>
       </c>
       <c r="AR24">
         <f>W_!AT26</f>
@@ -42052,31 +42052,31 @@
       </c>
       <c r="AI25">
         <f>W_!AK27</f>
-        <v>-0.56100057310974805</v>
+        <v>-4.2172971338089003</v>
       </c>
       <c r="AJ25">
         <f>W_!AL27</f>
-        <v>9.6233578370306396E-4</v>
+        <v>1.1500228045069241</v>
       </c>
       <c r="AK25">
         <f>W_!AM27</f>
-        <v>-4.2172971338089003</v>
+        <v>-1.5487037140036337E-2</v>
       </c>
       <c r="AL25">
         <f>W_!AN27</f>
-        <v>-1.5487037140036337E-2</v>
+        <v>4.5507485402445074E-4</v>
       </c>
       <c r="AM25">
         <f>W_!AO27</f>
-        <v>4.5507485402445074E-4</v>
+        <v>0.49848691394424954</v>
       </c>
       <c r="AN25">
         <f>W_!AP27</f>
-        <v>0.49848691394424954</v>
+        <v>2.1960692258187531</v>
       </c>
       <c r="AO25">
         <f>W_!AQ27</f>
-        <v>1.1500228045069241</v>
+        <v>-0.56100057310974805</v>
       </c>
       <c r="AP25">
         <f>W_!AR27</f>
@@ -42084,7 +42084,7 @@
       </c>
       <c r="AQ25">
         <f>W_!AS27</f>
-        <v>2.1960692258187531</v>
+        <v>9.6233578370306396E-4</v>
       </c>
       <c r="AR25">
         <f>W_!AT27</f>
@@ -42270,31 +42270,31 @@
       </c>
       <c r="AI26">
         <f>W_!AK28</f>
-        <v>6.4699636306792697E-3</v>
+        <v>0.3085684867619054</v>
       </c>
       <c r="AJ26">
         <f>W_!AL28</f>
-        <v>-1.654262998991334E-5</v>
+        <v>-1.0537308040703297E-2</v>
       </c>
       <c r="AK26">
         <f>W_!AM28</f>
-        <v>0.3085684867619054</v>
+        <v>3.4114758644484045E-3</v>
       </c>
       <c r="AL26">
         <f>W_!AN28</f>
-        <v>3.4114758644484045E-3</v>
+        <v>-3.3606442876288786E-5</v>
       </c>
       <c r="AM26">
         <f>W_!AO28</f>
-        <v>-3.3606442876288786E-5</v>
+        <v>-9.2266139917108719E-2</v>
       </c>
       <c r="AN26">
         <f>W_!AP28</f>
-        <v>-9.2266139917108719E-2</v>
+        <v>-0.15982886817538888</v>
       </c>
       <c r="AO26">
         <f>W_!AQ28</f>
-        <v>-1.0537308040703297E-2</v>
+        <v>6.4699636306792697E-3</v>
       </c>
       <c r="AP26">
         <f>W_!AR28</f>
@@ -42302,7 +42302,7 @@
       </c>
       <c r="AQ26">
         <f>W_!AS28</f>
-        <v>-0.15982886817538888</v>
+        <v>-1.654262998991334E-5</v>
       </c>
       <c r="AR26">
         <f>W_!AT28</f>
@@ -42488,31 +42488,31 @@
       </c>
       <c r="AI27">
         <f>W_!AK29</f>
-        <v>-0.5884274323673474</v>
+        <v>-6.8133034878213348</v>
       </c>
       <c r="AJ27">
         <f>W_!AL29</f>
-        <v>-2.7493102646198485E-4</v>
+        <v>1.1438632223149516</v>
       </c>
       <c r="AK27">
         <f>W_!AM29</f>
-        <v>-6.8133034878213348</v>
+        <v>-7.7202256611766717E-2</v>
       </c>
       <c r="AL27">
         <f>W_!AN29</f>
-        <v>-7.7202256611766717E-2</v>
+        <v>2.7656529924701014E-4</v>
       </c>
       <c r="AM27">
         <f>W_!AO29</f>
-        <v>2.7656529924701014E-4</v>
+        <v>3.2555752386952559</v>
       </c>
       <c r="AN27">
         <f>W_!AP29</f>
-        <v>3.2555752386952559</v>
+        <v>3.6013244379958413</v>
       </c>
       <c r="AO27">
         <f>W_!AQ29</f>
-        <v>1.1438632223149516</v>
+        <v>-0.5884274323673474</v>
       </c>
       <c r="AP27">
         <f>W_!AR29</f>
@@ -42520,7 +42520,7 @@
       </c>
       <c r="AQ27">
         <f>W_!AS29</f>
-        <v>3.6013244379958413</v>
+        <v>-2.7493102646198485E-4</v>
       </c>
       <c r="AR27">
         <f>W_!AT29</f>
@@ -42706,31 +42706,31 @@
       </c>
       <c r="AI28">
         <f>W_!AK30</f>
-        <v>0.39822885562543558</v>
+        <v>2.0697043936818127</v>
       </c>
       <c r="AJ28">
         <f>W_!AL30</f>
-        <v>1.1672426919997213E-4</v>
+        <v>-0.74347619682916799</v>
       </c>
       <c r="AK28">
         <f>W_!AM30</f>
-        <v>2.0697043936818127</v>
+        <v>8.680033457916729E-3</v>
       </c>
       <c r="AL28">
         <f>W_!AN30</f>
-        <v>8.680033457916729E-3</v>
+        <v>-1.1859210784271893E-5</v>
       </c>
       <c r="AM28">
         <f>W_!AO30</f>
-        <v>-1.1859210784271893E-5</v>
+        <v>-1.143060943870724</v>
       </c>
       <c r="AN28">
         <f>W_!AP30</f>
-        <v>-1.143060943870724</v>
+        <v>-1.082340772105542</v>
       </c>
       <c r="AO28">
         <f>W_!AQ30</f>
-        <v>-0.74347619682916799</v>
+        <v>0.39822885562543558</v>
       </c>
       <c r="AP28">
         <f>W_!AR30</f>
@@ -42738,7 +42738,7 @@
       </c>
       <c r="AQ28">
         <f>W_!AS30</f>
-        <v>-1.082340772105542</v>
+        <v>1.1672426919997213E-4</v>
       </c>
       <c r="AR28">
         <f>W_!AT30</f>
@@ -42924,31 +42924,31 @@
       </c>
       <c r="AI29">
         <f>W_!AK31</f>
-        <v>39.93247590756279</v>
+        <v>223.6374705796041</v>
       </c>
       <c r="AJ29">
         <f>W_!AL31</f>
-        <v>5.2124983952514005E-3</v>
+        <v>-74.340512566262177</v>
       </c>
       <c r="AK29">
         <f>W_!AM31</f>
-        <v>223.6374705796041</v>
+        <v>0.94663516478498999</v>
       </c>
       <c r="AL29">
         <f>W_!AN31</f>
-        <v>0.94663516478498999</v>
+        <v>-1.1799388461397957E-2</v>
       </c>
       <c r="AM29">
         <f>W_!AO31</f>
-        <v>-1.1799388461397957E-2</v>
+        <v>-102.28885487511907</v>
       </c>
       <c r="AN29">
         <f>W_!AP31</f>
-        <v>-102.28885487511907</v>
+        <v>-117.76206867326755</v>
       </c>
       <c r="AO29">
         <f>W_!AQ31</f>
-        <v>-74.340512566262177</v>
+        <v>39.93247590756279</v>
       </c>
       <c r="AP29">
         <f>W_!AR31</f>
@@ -42956,7 +42956,7 @@
       </c>
       <c r="AQ29">
         <f>W_!AS31</f>
-        <v>-117.76206867326755</v>
+        <v>5.2124983952514005E-3</v>
       </c>
       <c r="AR29">
         <f>W_!AT31</f>
@@ -43142,31 +43142,31 @@
       </c>
       <c r="AI30">
         <f>W_!AK32</f>
-        <v>36.247129410439051</v>
+        <v>204.21271694119108</v>
       </c>
       <c r="AJ30">
         <f>W_!AL32</f>
-        <v>2.9367545299667699E-3</v>
+        <v>-67.492798835756432</v>
       </c>
       <c r="AK30">
         <f>W_!AM32</f>
-        <v>204.21271694119108</v>
+        <v>0.89765985895699385</v>
       </c>
       <c r="AL30">
         <f>W_!AN32</f>
-        <v>0.89765985895699385</v>
+        <v>-1.1163918544670101E-2</v>
       </c>
       <c r="AM30">
         <f>W_!AO32</f>
-        <v>-1.1163918544670101E-2</v>
+        <v>-91.906397158877994</v>
       </c>
       <c r="AN30">
         <f>W_!AP32</f>
-        <v>-91.906397158877994</v>
+        <v>-107.43633121602889</v>
       </c>
       <c r="AO30">
         <f>W_!AQ32</f>
-        <v>-67.492798835756432</v>
+        <v>36.247129410439051</v>
       </c>
       <c r="AP30">
         <f>W_!AR32</f>
@@ -43174,7 +43174,7 @@
       </c>
       <c r="AQ30">
         <f>W_!AS32</f>
-        <v>-107.43633121602889</v>
+        <v>2.9367545299667699E-3</v>
       </c>
       <c r="AR30">
         <f>W_!AT32</f>
@@ -43360,31 +43360,31 @@
       </c>
       <c r="AI31">
         <f>W_!AK33</f>
-        <v>-8.2101367873843398E-3</v>
+        <v>0.38946740779890698</v>
       </c>
       <c r="AJ31">
         <f>W_!AL33</f>
-        <v>3.8660994490644727E-5</v>
+        <v>2.9930042878607288E-2</v>
       </c>
       <c r="AK31">
         <f>W_!AM33</f>
-        <v>0.38946740779890698</v>
+        <v>2.0632847841990072E-3</v>
       </c>
       <c r="AL31">
         <f>W_!AN33</f>
-        <v>2.0632847841990072E-3</v>
+        <v>-8.2164504984646863E-6</v>
       </c>
       <c r="AM31">
         <f>W_!AO33</f>
-        <v>-8.2164504984646863E-6</v>
+        <v>-0.18264229332786935</v>
       </c>
       <c r="AN31">
         <f>W_!AP33</f>
-        <v>-0.18264229332786935</v>
+        <v>-0.2098589999780153</v>
       </c>
       <c r="AO31">
         <f>W_!AQ33</f>
-        <v>2.9930042878607288E-2</v>
+        <v>-8.2101367873843398E-3</v>
       </c>
       <c r="AP31">
         <f>W_!AR33</f>
@@ -43392,7 +43392,7 @@
       </c>
       <c r="AQ31">
         <f>W_!AS33</f>
-        <v>-0.2098589999780153</v>
+        <v>3.8660994490644727E-5</v>
       </c>
       <c r="AR31">
         <f>W_!AT33</f>
@@ -43578,31 +43578,31 @@
       </c>
       <c r="AI32">
         <f>W_!AK34</f>
-        <v>-9.4767088511904305</v>
+        <v>-64.179443732242675</v>
       </c>
       <c r="AJ32">
         <f>W_!AL34</f>
-        <v>-2.5033458678467117E-3</v>
+        <v>17.403271054592906</v>
       </c>
       <c r="AK32">
         <f>W_!AM34</f>
-        <v>-64.179443732242675</v>
+        <v>-1.0180908356931886</v>
       </c>
       <c r="AL32">
         <f>W_!AN34</f>
-        <v>-1.0180908356931886</v>
+        <v>5.566756214180942E-3</v>
       </c>
       <c r="AM32">
         <f>W_!AO34</f>
-        <v>5.566756214180942E-3</v>
+        <v>26.280210251208917</v>
       </c>
       <c r="AN32">
         <f>W_!AP34</f>
-        <v>26.280210251208917</v>
+        <v>33.874919080834616</v>
       </c>
       <c r="AO32">
         <f>W_!AQ34</f>
-        <v>17.403271054592906</v>
+        <v>-9.4767088511904305</v>
       </c>
       <c r="AP32">
         <f>W_!AR34</f>
@@ -43610,7 +43610,7 @@
       </c>
       <c r="AQ32">
         <f>W_!AS34</f>
-        <v>33.874919080834616</v>
+        <v>-2.5033458678467117E-3</v>
       </c>
       <c r="AR32">
         <f>W_!AT34</f>
@@ -43796,31 +43796,31 @@
       </c>
       <c r="AI33">
         <f>W_!AK35</f>
-        <v>0.18811911673914675</v>
+        <v>1.246182097689241</v>
       </c>
       <c r="AJ33">
         <f>W_!AL35</f>
-        <v>3.3014635760797793E-5</v>
+        <v>-0.35275495380070238</v>
       </c>
       <c r="AK33">
         <f>W_!AM35</f>
-        <v>1.246182097689241</v>
+        <v>5.5071357707618335E-3</v>
       </c>
       <c r="AL33">
         <f>W_!AN35</f>
-        <v>5.5071357707618335E-3</v>
+        <v>-1.5512663798154911E-4</v>
       </c>
       <c r="AM33">
         <f>W_!AO35</f>
-        <v>-1.5512663798154911E-4</v>
+        <v>-0.36243384866714978</v>
       </c>
       <c r="AN33">
         <f>W_!AP35</f>
-        <v>-0.36243384866714978</v>
+        <v>-0.64740469272844958</v>
       </c>
       <c r="AO33">
         <f>W_!AQ35</f>
-        <v>-0.35275495380070238</v>
+        <v>0.18811911673914675</v>
       </c>
       <c r="AP33">
         <f>W_!AR35</f>
@@ -43828,7 +43828,7 @@
       </c>
       <c r="AQ33">
         <f>W_!AS35</f>
-        <v>-0.64740469272844958</v>
+        <v>3.3014635760797793E-5</v>
       </c>
       <c r="AR33">
         <f>W_!AT35</f>
@@ -44014,31 +44014,31 @@
       </c>
       <c r="AI34">
         <f>W_!AK36</f>
-        <v>1068.3947156148856</v>
+        <v>6339.4727860263083</v>
       </c>
       <c r="AJ34">
         <f>W_!AL36</f>
-        <v>-5.4054250667207558E-2</v>
+        <v>-1998.7574937441038</v>
       </c>
       <c r="AK34">
         <f>W_!AM36</f>
-        <v>6339.4727860263083</v>
+        <v>26.228217581913196</v>
       </c>
       <c r="AL34">
         <f>W_!AN36</f>
-        <v>26.228217581913196</v>
+        <v>-0.35439756964557967</v>
       </c>
       <c r="AM34">
         <f>W_!AO36</f>
-        <v>-0.35439756964557967</v>
+        <v>-2940.6878479146144</v>
       </c>
       <c r="AN34">
         <f>W_!AP36</f>
-        <v>-2940.6878479146144</v>
+        <v>-3313.0964510664212</v>
       </c>
       <c r="AO34">
         <f>W_!AQ36</f>
-        <v>-1998.7574937441038</v>
+        <v>1068.3947156148856</v>
       </c>
       <c r="AP34">
         <f>W_!AR36</f>
@@ -44046,7 +44046,7 @@
       </c>
       <c r="AQ34">
         <f>W_!AS36</f>
-        <v>-3313.0964510664212</v>
+        <v>-5.4054250667207558E-2</v>
       </c>
       <c r="AR34">
         <f>W_!AT36</f>
@@ -44096,175 +44096,175 @@
     <row r="35" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>W_!B37</f>
-        <v>betahwk</v>
+        <v>betahrs0_w</v>
       </c>
       <c r="B35">
         <f>W_!D37</f>
-        <v>-2.7942573244046147</v>
+        <v>-10.079717535513957</v>
       </c>
       <c r="C35">
         <f>W_!E37</f>
-        <v>-1.9282397193109404</v>
+        <v>-21.470939964265249</v>
       </c>
       <c r="D35">
         <f>W_!F37</f>
-        <v>-5.5916262093774529</v>
+        <v>-24.711962266554782</v>
       </c>
       <c r="E35">
         <f>W_!G37</f>
-        <v>-211.30141923339218</v>
+        <v>-1126.2225585624208</v>
       </c>
       <c r="F35">
         <f>W_!H37</f>
-        <v>11.957490418677887</v>
+        <v>171.11345810509954</v>
       </c>
       <c r="G35">
         <f>W_!I37</f>
-        <v>73.620088502439629</v>
+        <v>404.58355238648295</v>
       </c>
       <c r="H35">
         <f>W_!J37</f>
-        <v>101.33075077941011</v>
+        <v>622.72285024766177</v>
       </c>
       <c r="I35">
         <f>W_!K37</f>
-        <v>31.075729862315068</v>
+        <v>320.97113318614242</v>
       </c>
       <c r="J35">
         <f>W_!L37</f>
-        <v>115.10740771448714</v>
+        <v>-1.1994961544104632</v>
       </c>
       <c r="K35">
         <f>W_!M37</f>
-        <v>46.823785685435425</v>
+        <v>71.842198819411237</v>
       </c>
       <c r="L35">
         <f>W_!N37</f>
-        <v>-28.56495763867628</v>
+        <v>161.51816515491561</v>
       </c>
       <c r="M35">
         <f>W_!O37</f>
-        <v>-127.6787808320332</v>
+        <v>-41.319673908751653</v>
       </c>
       <c r="N35">
         <f>W_!P37</f>
-        <v>-17.99329815882259</v>
+        <v>-55.979393464340006</v>
       </c>
       <c r="O35">
         <f>W_!Q37</f>
-        <v>73.57291854687702</v>
+        <v>618.86855848909056</v>
       </c>
       <c r="P35">
         <f>W_!R37</f>
-        <v>-60.996895257536984</v>
+        <v>-442.87888427876425</v>
       </c>
       <c r="Q35">
         <f>W_!S37</f>
-        <v>-5.4563297311719099E-2</v>
+        <v>-0.25285864456974494</v>
       </c>
       <c r="R35">
         <f>W_!T37</f>
-        <v>3.0809364778536003E-3</v>
+        <v>3.8684573372032731E-2</v>
       </c>
       <c r="S35">
         <f>W_!U37</f>
-        <v>-0.10173489646599192</v>
+        <v>-0.46450567826741906</v>
       </c>
       <c r="T35">
         <f>W_!V37</f>
-        <v>3.9039584534518803</v>
+        <v>31.954326148909761</v>
       </c>
       <c r="U35">
         <f>W_!W37</f>
-        <v>3.8913106117669463</v>
+        <v>30.838536569420821</v>
       </c>
       <c r="V35">
         <f>W_!X37</f>
-        <v>1.8997221387395582</v>
+        <v>25.550388158062624</v>
       </c>
       <c r="W35">
         <f>W_!Y37</f>
-        <v>0.99824818716135155</v>
+        <v>20.757148071253333</v>
       </c>
       <c r="X35">
         <f>W_!Z37</f>
-        <v>1.6728524669573277</v>
+        <v>22.945580633730248</v>
       </c>
       <c r="Y35">
         <f>W_!AA37</f>
-        <v>-0.56100057310974805</v>
+        <v>-4.2172971338089003</v>
       </c>
       <c r="Z35">
         <f>W_!AB37</f>
-        <v>6.4699636306792697E-3</v>
+        <v>0.3085684867619054</v>
       </c>
       <c r="AA35">
         <f>W_!AC37</f>
-        <v>-0.5884274323673474</v>
+        <v>-6.8133034878213348</v>
       </c>
       <c r="AB35">
         <f>W_!AD37</f>
-        <v>0.39822885562543558</v>
+        <v>2.0697043936818127</v>
       </c>
       <c r="AC35">
         <f>W_!AE37</f>
-        <v>39.93247590756279</v>
+        <v>223.6374705796041</v>
       </c>
       <c r="AD35">
         <f>W_!AF37</f>
-        <v>36.247129410439051</v>
+        <v>204.21271694119108</v>
       </c>
       <c r="AE35">
         <f>W_!AG37</f>
-        <v>-8.2101367873843398E-3</v>
+        <v>0.38946740779890698</v>
       </c>
       <c r="AF35">
         <f>W_!AH37</f>
-        <v>-9.4767088511904305</v>
+        <v>-64.179443732242675</v>
       </c>
       <c r="AG35">
         <f>W_!AI37</f>
-        <v>0.18811911673914675</v>
+        <v>1.246182097689241</v>
       </c>
       <c r="AH35">
         <f>W_!AJ37</f>
-        <v>1068.3947156148856</v>
+        <v>6339.4727860263083</v>
       </c>
       <c r="AI35">
         <f>W_!AK37</f>
-        <v>430.24937553898894</v>
+        <v>8436.0261363799946</v>
       </c>
       <c r="AJ35">
         <f>W_!AL37</f>
-        <v>-2.1518354241038668E-2</v>
+        <v>-2509.6765171782167</v>
       </c>
       <c r="AK35">
         <f>W_!AM37</f>
-        <v>1340.2594630499275</v>
+        <v>34.12888723669068</v>
       </c>
       <c r="AL35">
         <f>W_!AN37</f>
-        <v>4.9981445009904357</v>
+        <v>-0.64197830668451805</v>
       </c>
       <c r="AM35">
         <f>W_!AO37</f>
-        <v>-9.800182023128777E-2</v>
+        <v>-3371.1500153556899</v>
       </c>
       <c r="AN35">
         <f>W_!AP37</f>
-        <v>-568.10092143102315</v>
+        <v>-4401.167445404194</v>
       </c>
       <c r="AO35">
         <f>W_!AQ37</f>
-        <v>-811.63735040907227</v>
+        <v>1340.2594630499275</v>
       </c>
       <c r="AP35">
         <f>W_!AR37</f>
-        <v>3.0436972629051928E-2</v>
+        <v>-3.2783165587112781E-3</v>
       </c>
       <c r="AQ35">
         <f>W_!AS37</f>
-        <v>-701.75855763872062</v>
+        <v>3.2556494684127398E-4</v>
       </c>
       <c r="AR35">
         <f>W_!AT37</f>
@@ -44272,11 +44272,11 @@
       </c>
       <c r="AS35">
         <f>W_!AU37</f>
-        <v>46.30025903218278</v>
+        <v>221.14962958502946</v>
       </c>
       <c r="AT35">
         <f>W_!AV37</f>
-        <v>-0.76082596409849357</v>
+        <v>-2.0639005749962931</v>
       </c>
       <c r="AU35">
         <f>W_!AW37</f>
@@ -44314,175 +44314,175 @@
     <row r="36" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>W_!B38</f>
-        <v>betalwg</v>
+        <v>betahwk_w</v>
       </c>
       <c r="B36">
         <f>W_!D38</f>
-        <v>-2.4539634995494951E-4</v>
+        <v>5.2224874747760914</v>
       </c>
       <c r="C36">
         <f>W_!E38</f>
-        <v>-2.8424344588463876E-3</v>
+        <v>3.5625091254125145</v>
       </c>
       <c r="D36">
         <f>W_!F38</f>
-        <v>4.2976884985427682E-4</v>
+        <v>10.476758041636117</v>
       </c>
       <c r="E36">
         <f>W_!G38</f>
-        <v>5.0925987869129559E-2</v>
+        <v>392.98837731434764</v>
       </c>
       <c r="F36">
         <f>W_!H38</f>
-        <v>1.2862911662788602E-3</v>
+        <v>-17.481176267748801</v>
       </c>
       <c r="G36">
         <f>W_!I38</f>
-        <v>3.0292278672133268E-2</v>
+        <v>-141.58188874812311</v>
       </c>
       <c r="H36">
         <f>W_!J38</f>
-        <v>-6.2360439785684079E-3</v>
+        <v>-187.11366345314303</v>
       </c>
       <c r="I36">
         <f>W_!K38</f>
-        <v>8.5693700947602258E-2</v>
+        <v>-53.241944557888729</v>
       </c>
       <c r="J36">
         <f>W_!L38</f>
-        <v>-3.9253046825761778E-2</v>
+        <v>-220.65134087398388</v>
       </c>
       <c r="K36">
         <f>W_!M38</f>
-        <v>-4.9535414988894397E-2</v>
+        <v>-88.827203987656176</v>
       </c>
       <c r="L36">
         <f>W_!N38</f>
-        <v>-4.1857470741297607E-2</v>
+        <v>56.944049785409128</v>
       </c>
       <c r="M36">
         <f>W_!O38</f>
-        <v>1.0508109622717591E-2</v>
+        <v>244.32375218413293</v>
       </c>
       <c r="N36">
         <f>W_!P38</f>
-        <v>-1.4051065633767172E-2</v>
+        <v>32.660241823637065</v>
       </c>
       <c r="O36">
         <f>W_!Q38</f>
-        <v>0.10663089471080375</v>
+        <v>-135.16141070911945</v>
       </c>
       <c r="P36">
         <f>W_!R38</f>
-        <v>-4.9997029054094921E-2</v>
+        <v>111.69107446858089</v>
       </c>
       <c r="Q36">
         <f>W_!S38</f>
-        <v>3.2006766873150301E-6</v>
+        <v>0.10208107729419125</v>
       </c>
       <c r="R36">
         <f>W_!T38</f>
-        <v>-2.6887122730866516E-6</v>
+        <v>-5.5171637329746682E-3</v>
       </c>
       <c r="S36">
         <f>W_!U38</f>
-        <v>-1.0401453563577732E-4</v>
+        <v>0.18951225051763973</v>
       </c>
       <c r="T36">
         <f>W_!V38</f>
-        <v>2.3109967081836125E-3</v>
+        <v>-7.11667722226594</v>
       </c>
       <c r="U36">
         <f>W_!W38</f>
-        <v>2.1620910093765934E-3</v>
+        <v>-7.1041050620678545</v>
       </c>
       <c r="V36">
         <f>W_!X38</f>
-        <v>2.5648873556789291E-3</v>
+        <v>-3.2332641640179514</v>
       </c>
       <c r="W36">
         <f>W_!Y38</f>
-        <v>2.6092686341621651E-3</v>
+        <v>-1.5318702972673734</v>
       </c>
       <c r="X36">
         <f>W_!Z38</f>
-        <v>2.7127073347101688E-3</v>
+        <v>-2.808917534511115</v>
       </c>
       <c r="Y36">
         <f>W_!AA38</f>
-        <v>9.6233578370306396E-4</v>
+        <v>1.1500228045069241</v>
       </c>
       <c r="Z36">
         <f>W_!AB38</f>
-        <v>-1.654262998991334E-5</v>
+        <v>-1.0537308040703297E-2</v>
       </c>
       <c r="AA36">
         <f>W_!AC38</f>
-        <v>-2.7493102646198485E-4</v>
+        <v>1.1438632223149516</v>
       </c>
       <c r="AB36">
         <f>W_!AD38</f>
-        <v>1.1672426919997213E-4</v>
+        <v>-0.74347619682916799</v>
       </c>
       <c r="AC36">
         <f>W_!AE38</f>
-        <v>5.2124983952514005E-3</v>
+        <v>-74.340512566262177</v>
       </c>
       <c r="AD36">
         <f>W_!AF38</f>
-        <v>2.9367545299667699E-3</v>
+        <v>-67.492798835756432</v>
       </c>
       <c r="AE36">
         <f>W_!AG38</f>
-        <v>3.8660994490644727E-5</v>
+        <v>2.9930042878607288E-2</v>
       </c>
       <c r="AF36">
         <f>W_!AH38</f>
-        <v>-2.5033458678467117E-3</v>
+        <v>17.403271054592906</v>
       </c>
       <c r="AG36">
         <f>W_!AI38</f>
-        <v>3.3014635760797793E-5</v>
+        <v>-0.35275495380070238</v>
       </c>
       <c r="AH36">
         <f>W_!AJ38</f>
-        <v>-5.4054250667207558E-2</v>
+        <v>-1998.7574937441038</v>
       </c>
       <c r="AI36">
         <f>W_!AK38</f>
-        <v>-2.1518354241038668E-2</v>
+        <v>-2509.6765171782167</v>
       </c>
       <c r="AJ36">
         <f>W_!AL38</f>
-        <v>2.4723379702044511E-4</v>
+        <v>1534.3807715054181</v>
       </c>
       <c r="AK36">
         <f>W_!AM38</f>
-        <v>3.2556494684127398E-4</v>
+        <v>-9.1748140779880245</v>
       </c>
       <c r="AL36">
         <f>W_!AN38</f>
-        <v>1.3613219993927133E-3</v>
+        <v>0.18336861470407398</v>
       </c>
       <c r="AM36">
         <f>W_!AO38</f>
-        <v>-1.5645820010581742E-5</v>
+        <v>1062.424854585953</v>
       </c>
       <c r="AN36">
         <f>W_!AP38</f>
-        <v>2.8116227361705957E-2</v>
+        <v>1313.0883583612517</v>
       </c>
       <c r="AO36">
         <f>W_!AQ38</f>
-        <v>4.2621514898831668E-2</v>
+        <v>-811.63735040907227</v>
       </c>
       <c r="AP36">
         <f>W_!AR38</f>
-        <v>-4.6291652160110119E-4</v>
+        <v>-6.1655298277314217E-2</v>
       </c>
       <c r="AQ36">
         <f>W_!AS38</f>
-        <v>2.1389821354440338E-3</v>
+        <v>4.2621514898831668E-2</v>
       </c>
       <c r="AR36">
         <f>W_!AT38</f>
@@ -44490,11 +44490,11 @@
       </c>
       <c r="AS36">
         <f>W_!AU38</f>
-        <v>1.9292547643326243E-2</v>
+        <v>-88.336794850781061</v>
       </c>
       <c r="AT36">
         <f>W_!AV38</f>
-        <v>3.5940734792158446E-4</v>
+        <v>1.5067542436425081</v>
       </c>
       <c r="AU36">
         <f>W_!AW38</f>
@@ -44532,175 +44532,175 @@
     <row r="37" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>W_!B39</f>
-        <v>betahrs0_w</v>
+        <v>betacom</v>
       </c>
       <c r="B37">
         <f>W_!D39</f>
-        <v>-10.079717535513957</v>
+        <v>-1.8366641846413134E-2</v>
       </c>
       <c r="C37">
         <f>W_!E39</f>
-        <v>-21.470939964265249</v>
+        <v>-9.6889567398065563E-2</v>
       </c>
       <c r="D37">
         <f>W_!F39</f>
-        <v>-24.711962266554782</v>
+        <v>-0.13864560166947873</v>
       </c>
       <c r="E37">
         <f>W_!G39</f>
-        <v>-1126.2225585624208</v>
+        <v>-4.840127991293067</v>
       </c>
       <c r="F37">
         <f>W_!H39</f>
-        <v>171.11345810509954</v>
+        <v>-4.9907841616248255E-2</v>
       </c>
       <c r="G37">
         <f>W_!I39</f>
-        <v>404.58355238648295</v>
+        <v>2.2201893713818426</v>
       </c>
       <c r="H37">
         <f>W_!J39</f>
-        <v>622.72285024766177</v>
+        <v>2.6884144794215215</v>
       </c>
       <c r="I37">
         <f>W_!K39</f>
-        <v>320.97113318614242</v>
+        <v>1.9906018166756743</v>
       </c>
       <c r="J37">
         <f>W_!L39</f>
-        <v>-1.1994961544104632</v>
+        <v>4.0373586092262631E-2</v>
       </c>
       <c r="K37">
         <f>W_!M39</f>
-        <v>71.842198819411237</v>
+        <v>1.9938604017660995</v>
       </c>
       <c r="L37">
         <f>W_!N39</f>
-        <v>161.51816515491561</v>
+        <v>1.4255785516062096</v>
       </c>
       <c r="M37">
         <f>W_!O39</f>
-        <v>-41.319673908751653</v>
+        <v>0.38799229499173682</v>
       </c>
       <c r="N37">
         <f>W_!P39</f>
-        <v>-55.979393464340006</v>
+        <v>1.1002301673230266</v>
       </c>
       <c r="O37">
         <f>W_!Q39</f>
-        <v>618.86855848909056</v>
+        <v>4.5175585140474883</v>
       </c>
       <c r="P37">
         <f>W_!R39</f>
-        <v>-442.87888427876425</v>
+        <v>-2.6231601184424873</v>
       </c>
       <c r="Q37">
         <f>W_!S39</f>
-        <v>-0.25285864456974494</v>
+        <v>-9.4435501589965683E-4</v>
       </c>
       <c r="R37">
         <f>W_!T39</f>
-        <v>3.8684573372032731E-2</v>
+        <v>5.5397241856254358E-4</v>
       </c>
       <c r="S37">
         <f>W_!U39</f>
-        <v>-0.46450567826741906</v>
+        <v>-1.9244109516631141E-3</v>
       </c>
       <c r="T37">
         <f>W_!V39</f>
-        <v>31.954326148909761</v>
+        <v>0.20047972880030041</v>
       </c>
       <c r="U37">
         <f>W_!W39</f>
-        <v>30.838536569420821</v>
+        <v>0.19953378365896102</v>
       </c>
       <c r="V37">
         <f>W_!X39</f>
-        <v>25.550388158062624</v>
+        <v>0.12003669485915777</v>
       </c>
       <c r="W37">
         <f>W_!Y39</f>
-        <v>20.757148071253333</v>
+        <v>9.6056304227641262E-2</v>
       </c>
       <c r="X37">
         <f>W_!Z39</f>
-        <v>22.945580633730248</v>
+        <v>0.10799655895447798</v>
       </c>
       <c r="Y37">
         <f>W_!AA39</f>
-        <v>-4.2172971338089003</v>
+        <v>-1.5487037140036337E-2</v>
       </c>
       <c r="Z37">
         <f>W_!AB39</f>
-        <v>0.3085684867619054</v>
+        <v>3.4114758644484045E-3</v>
       </c>
       <c r="AA37">
         <f>W_!AC39</f>
-        <v>-6.8133034878213348</v>
+        <v>-7.7202256611766717E-2</v>
       </c>
       <c r="AB37">
         <f>W_!AD39</f>
-        <v>2.0697043936818127</v>
+        <v>8.680033457916729E-3</v>
       </c>
       <c r="AC37">
         <f>W_!AE39</f>
-        <v>223.6374705796041</v>
+        <v>0.94663516478498999</v>
       </c>
       <c r="AD37">
         <f>W_!AF39</f>
-        <v>204.21271694119108</v>
+        <v>0.89765985895699385</v>
       </c>
       <c r="AE37">
         <f>W_!AG39</f>
-        <v>0.38946740779890698</v>
+        <v>2.0632847841990072E-3</v>
       </c>
       <c r="AF37">
         <f>W_!AH39</f>
-        <v>-64.179443732242675</v>
+        <v>-1.0180908356931886</v>
       </c>
       <c r="AG37">
         <f>W_!AI39</f>
-        <v>1.246182097689241</v>
+        <v>5.5071357707618335E-3</v>
       </c>
       <c r="AH37">
         <f>W_!AJ39</f>
-        <v>6339.4727860263083</v>
+        <v>26.228217581913196</v>
       </c>
       <c r="AI37">
         <f>W_!AK39</f>
-        <v>1340.2594630499275</v>
+        <v>34.12888723669068</v>
       </c>
       <c r="AJ37">
         <f>W_!AL39</f>
-        <v>3.2556494684127398E-4</v>
+        <v>-9.1748140779880245</v>
       </c>
       <c r="AK37">
         <f>W_!AM39</f>
-        <v>8436.0261363799946</v>
+        <v>0.54702309526369475</v>
       </c>
       <c r="AL37">
         <f>W_!AN39</f>
-        <v>34.12888723669068</v>
+        <v>-2.9419404854007106E-3</v>
       </c>
       <c r="AM37">
         <f>W_!AO39</f>
-        <v>-0.64197830668451805</v>
+        <v>-14.066834381830979</v>
       </c>
       <c r="AN37">
         <f>W_!AP39</f>
-        <v>-3371.1500153556899</v>
+        <v>-18.020994992728717</v>
       </c>
       <c r="AO37">
         <f>W_!AQ39</f>
-        <v>-2509.6765171782167</v>
+        <v>4.9981445009904357</v>
       </c>
       <c r="AP37">
         <f>W_!AR39</f>
-        <v>-3.2783165587112781E-3</v>
+        <v>-2.5492595426118924E-3</v>
       </c>
       <c r="AQ37">
         <f>W_!AS39</f>
-        <v>-4401.167445404194</v>
+        <v>1.3613219993927133E-3</v>
       </c>
       <c r="AR37">
         <f>W_!AT39</f>
@@ -44708,11 +44708,11 @@
       </c>
       <c r="AS37">
         <f>W_!AU39</f>
-        <v>221.14962958502946</v>
+        <v>-1.0815378701130609</v>
       </c>
       <c r="AT37">
         <f>W_!AV39</f>
-        <v>-2.0639005749962931</v>
+        <v>-2.603914069368967E-2</v>
       </c>
       <c r="AU37">
         <f>W_!AW39</f>
@@ -44750,175 +44750,175 @@
     <row r="38" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>W_!B40</f>
-        <v>betacom</v>
+        <v>betalfp</v>
       </c>
       <c r="B38">
         <f>W_!D40</f>
-        <v>-1.8366641846413134E-2</v>
+        <v>1.4975522719250028E-4</v>
       </c>
       <c r="C38">
         <f>W_!E40</f>
-        <v>-9.6889567398065563E-2</v>
+        <v>9.9637229865548048E-4</v>
       </c>
       <c r="D38">
         <f>W_!F40</f>
-        <v>-0.13864560166947873</v>
+        <v>1.8309420103255049E-3</v>
       </c>
       <c r="E38">
         <f>W_!G40</f>
-        <v>-4.840127991293067</v>
+        <v>6.1641044284796137E-2</v>
       </c>
       <c r="F38">
         <f>W_!H40</f>
-        <v>-4.9907841616248255E-2</v>
+        <v>-7.5134601408515895E-3</v>
       </c>
       <c r="G38">
         <f>W_!I40</f>
-        <v>2.2201893713818426</v>
+        <v>-2.7175229342418564E-2</v>
       </c>
       <c r="H38">
         <f>W_!J40</f>
-        <v>2.6884144794215215</v>
+        <v>-3.2909805040499063E-2</v>
       </c>
       <c r="I38">
         <f>W_!K40</f>
-        <v>1.9906018166756743</v>
+        <v>-3.1279254631665913E-2</v>
       </c>
       <c r="J38">
         <f>W_!L40</f>
-        <v>4.0373586092262631E-2</v>
+        <v>2.0907059883270914E-6</v>
       </c>
       <c r="K38">
         <f>W_!M40</f>
-        <v>1.9938604017660995</v>
+        <v>-1.9653511873181085E-2</v>
       </c>
       <c r="L38">
         <f>W_!N40</f>
-        <v>1.4255785516062096</v>
+        <v>9.0659628044587985E-3</v>
       </c>
       <c r="M38">
         <f>W_!O40</f>
-        <v>0.38799229499173682</v>
+        <v>-8.5897121169078439E-3</v>
       </c>
       <c r="N38">
         <f>W_!P40</f>
-        <v>1.1002301673230266</v>
+        <v>5.7631335286267545E-3</v>
       </c>
       <c r="O38">
         <f>W_!Q40</f>
-        <v>4.5175585140474883</v>
+        <v>-6.3969472355909149E-2</v>
       </c>
       <c r="P38">
         <f>W_!R40</f>
-        <v>-2.6231601184424873</v>
+        <v>3.1852628068217689E-2</v>
       </c>
       <c r="Q38">
         <f>W_!S40</f>
-        <v>-9.4435501589965683E-4</v>
+        <v>2.4340681023366604E-5</v>
       </c>
       <c r="R38">
         <f>W_!T40</f>
-        <v>5.5397241856254358E-4</v>
+        <v>-1.2729948790884534E-7</v>
       </c>
       <c r="S38">
         <f>W_!U40</f>
-        <v>-1.9244109516631141E-3</v>
+        <v>3.1551707341881102E-5</v>
       </c>
       <c r="T38">
         <f>W_!V40</f>
-        <v>0.20047972880030041</v>
+        <v>-2.4450118687629483E-3</v>
       </c>
       <c r="U38">
         <f>W_!W40</f>
-        <v>0.19953378365896102</v>
+        <v>-2.343658731886621E-3</v>
       </c>
       <c r="V38">
         <f>W_!X40</f>
-        <v>0.12003669485915777</v>
+        <v>-1.5332110527078808E-3</v>
       </c>
       <c r="W38">
         <f>W_!Y40</f>
-        <v>9.6056304227641262E-2</v>
+        <v>-1.2625249943064121E-3</v>
       </c>
       <c r="X38">
         <f>W_!Z40</f>
-        <v>0.10799655895447798</v>
+        <v>-1.3065059825837823E-3</v>
       </c>
       <c r="Y38">
         <f>W_!AA40</f>
-        <v>-1.5487037140036337E-2</v>
+        <v>4.5507485402445074E-4</v>
       </c>
       <c r="Z38">
         <f>W_!AB40</f>
-        <v>3.4114758644484045E-3</v>
+        <v>-3.3606442876288786E-5</v>
       </c>
       <c r="AA38">
         <f>W_!AC40</f>
-        <v>-7.7202256611766717E-2</v>
+        <v>2.7656529924701014E-4</v>
       </c>
       <c r="AB38">
         <f>W_!AD40</f>
-        <v>8.680033457916729E-3</v>
+        <v>-1.1859210784271893E-5</v>
       </c>
       <c r="AC38">
         <f>W_!AE40</f>
-        <v>0.94663516478498999</v>
+        <v>-1.1799388461397957E-2</v>
       </c>
       <c r="AD38">
         <f>W_!AF40</f>
-        <v>0.89765985895699385</v>
+        <v>-1.1163918544670101E-2</v>
       </c>
       <c r="AE38">
         <f>W_!AG40</f>
-        <v>2.0632847841990072E-3</v>
+        <v>-8.2164504984646863E-6</v>
       </c>
       <c r="AF38">
         <f>W_!AH40</f>
-        <v>-1.0180908356931886</v>
+        <v>5.566756214180942E-3</v>
       </c>
       <c r="AG38">
         <f>W_!AI40</f>
-        <v>5.5071357707618335E-3</v>
+        <v>-1.5512663798154911E-4</v>
       </c>
       <c r="AH38">
         <f>W_!AJ40</f>
-        <v>26.228217581913196</v>
+        <v>-0.35439756964557967</v>
       </c>
       <c r="AI38">
         <f>W_!AK40</f>
-        <v>4.9981445009904357</v>
+        <v>-0.64197830668451805</v>
       </c>
       <c r="AJ38">
         <f>W_!AL40</f>
-        <v>1.3613219993927133E-3</v>
+        <v>0.18336861470407398</v>
       </c>
       <c r="AK38">
         <f>W_!AM40</f>
-        <v>34.12888723669068</v>
+        <v>-2.9419404854007106E-3</v>
       </c>
       <c r="AL38">
         <f>W_!AN40</f>
-        <v>0.54702309526369475</v>
+        <v>8.0775695342580063E-5</v>
       </c>
       <c r="AM38">
         <f>W_!AO40</f>
-        <v>-2.9419404854007106E-3</v>
+        <v>0.18667918561746047</v>
       </c>
       <c r="AN38">
         <f>W_!AP40</f>
-        <v>-14.066834381830979</v>
+        <v>0.3339454319419784</v>
       </c>
       <c r="AO38">
         <f>W_!AQ40</f>
-        <v>-9.1748140779880245</v>
+        <v>-9.800182023128777E-2</v>
       </c>
       <c r="AP38">
         <f>W_!AR40</f>
-        <v>-2.5492595426118924E-3</v>
+        <v>2.9644503477165804E-5</v>
       </c>
       <c r="AQ38">
         <f>W_!AS40</f>
-        <v>-18.020994992728717</v>
+        <v>-1.5645820010581742E-5</v>
       </c>
       <c r="AR38">
         <f>W_!AT40</f>
@@ -44926,11 +44926,11 @@
       </c>
       <c r="AS38">
         <f>W_!AU40</f>
-        <v>-1.0815378701130609</v>
+        <v>-4.4065440168103379E-3</v>
       </c>
       <c r="AT38">
         <f>W_!AV40</f>
-        <v>-2.603914069368967E-2</v>
+        <v>2.682026602918913E-4</v>
       </c>
       <c r="AU38">
         <f>W_!AW40</f>
@@ -44968,175 +44968,175 @@
     <row r="39" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>W_!B41</f>
-        <v>betalfp</v>
+        <v>betahrs</v>
       </c>
       <c r="B39">
         <f>W_!D41</f>
-        <v>1.4975522719250028E-4</v>
+        <v>5.2797938205596351</v>
       </c>
       <c r="C39">
         <f>W_!E41</f>
-        <v>9.9637229865548048E-4</v>
+        <v>10.356418571345214</v>
       </c>
       <c r="D39">
         <f>W_!F41</f>
-        <v>1.8309420103255049E-3</v>
+        <v>9.4140641871961765</v>
       </c>
       <c r="E39">
         <f>W_!G41</f>
-        <v>6.1641044284796137E-2</v>
+        <v>524.27416939885438</v>
       </c>
       <c r="F39">
         <f>W_!H41</f>
-        <v>-7.5134601408515895E-3</v>
+        <v>-75.297052404070115</v>
       </c>
       <c r="G39">
         <f>W_!I41</f>
-        <v>-2.7175229342418564E-2</v>
+        <v>-147.02044525468639</v>
       </c>
       <c r="H39">
         <f>W_!J41</f>
-        <v>-3.2909805040499063E-2</v>
+        <v>-301.04453345569152</v>
       </c>
       <c r="I39">
         <f>W_!K41</f>
-        <v>-3.1279254631665913E-2</v>
+        <v>-121.11571993031674</v>
       </c>
       <c r="J39">
         <f>W_!L41</f>
-        <v>2.0907059883270914E-6</v>
+        <v>-1.2163045104466834</v>
       </c>
       <c r="K39">
         <f>W_!M41</f>
-        <v>-1.9653511873181085E-2</v>
+        <v>20.589163565856708</v>
       </c>
       <c r="L39">
         <f>W_!N41</f>
-        <v>9.0659628044587985E-3</v>
+        <v>-127.30689448094499</v>
       </c>
       <c r="M39">
         <f>W_!O41</f>
-        <v>-8.5897121169078439E-3</v>
+        <v>47.318447388726391</v>
       </c>
       <c r="N39">
         <f>W_!P41</f>
-        <v>5.7631335286267545E-3</v>
+        <v>19.353760087100774</v>
       </c>
       <c r="O39">
         <f>W_!Q41</f>
-        <v>-6.3969472355909149E-2</v>
+        <v>-237.50830716427268</v>
       </c>
       <c r="P39">
         <f>W_!R41</f>
-        <v>3.1852628068217689E-2</v>
+        <v>185.05865498720934</v>
       </c>
       <c r="Q39">
         <f>W_!S41</f>
-        <v>2.4340681023366604E-5</v>
+        <v>0.10437517669090268</v>
       </c>
       <c r="R39">
         <f>W_!T41</f>
-        <v>-1.2729948790884534E-7</v>
+        <v>-1.8267802053376324E-2</v>
       </c>
       <c r="S39">
         <f>W_!U41</f>
-        <v>3.1551707341881102E-5</v>
+        <v>0.21046642828631834</v>
       </c>
       <c r="T39">
         <f>W_!V41</f>
-        <v>-2.4450118687629483E-3</v>
+        <v>-13.484943281713829</v>
       </c>
       <c r="U39">
         <f>W_!W41</f>
-        <v>-2.343658731886621E-3</v>
+        <v>-13.141992555052447</v>
       </c>
       <c r="V39">
         <f>W_!X41</f>
-        <v>-1.5332110527078808E-3</v>
+        <v>-11.859582957536279</v>
       </c>
       <c r="W39">
         <f>W_!Y41</f>
-        <v>-1.2625249943064121E-3</v>
+        <v>-9.5880001243205211</v>
       </c>
       <c r="X39">
         <f>W_!Z41</f>
-        <v>-1.3065059825837823E-3</v>
+        <v>-10.90763469183673</v>
       </c>
       <c r="Y39">
         <f>W_!AA41</f>
-        <v>4.5507485402445074E-4</v>
+        <v>0.49848691394424954</v>
       </c>
       <c r="Z39">
         <f>W_!AB41</f>
-        <v>-3.3606442876288786E-5</v>
+        <v>-9.2266139917108719E-2</v>
       </c>
       <c r="AA39">
         <f>W_!AC41</f>
-        <v>2.7656529924701014E-4</v>
+        <v>3.2555752386952559</v>
       </c>
       <c r="AB39">
         <f>W_!AD41</f>
-        <v>-1.1859210784271893E-5</v>
+        <v>-1.143060943870724</v>
       </c>
       <c r="AC39">
         <f>W_!AE41</f>
-        <v>-1.1799388461397957E-2</v>
+        <v>-102.28885487511907</v>
       </c>
       <c r="AD39">
         <f>W_!AF41</f>
-        <v>-1.1163918544670101E-2</v>
+        <v>-91.906397158877994</v>
       </c>
       <c r="AE39">
         <f>W_!AG41</f>
-        <v>-8.2164504984646863E-6</v>
+        <v>-0.18264229332786935</v>
       </c>
       <c r="AF39">
         <f>W_!AH41</f>
-        <v>5.566756214180942E-3</v>
+        <v>26.280210251208917</v>
       </c>
       <c r="AG39">
         <f>W_!AI41</f>
-        <v>-1.5512663798154911E-4</v>
+        <v>-0.36243384866714978</v>
       </c>
       <c r="AH39">
         <f>W_!AJ41</f>
-        <v>-0.35439756964557967</v>
+        <v>-2940.6878479146144</v>
       </c>
       <c r="AI39">
         <f>W_!AK41</f>
-        <v>-9.800182023128777E-2</v>
+        <v>-3371.1500153556899</v>
       </c>
       <c r="AJ39">
         <f>W_!AL41</f>
-        <v>-1.5645820010581742E-5</v>
+        <v>1062.424854585953</v>
       </c>
       <c r="AK39">
         <f>W_!AM41</f>
-        <v>-0.64197830668451805</v>
+        <v>-14.066834381830979</v>
       </c>
       <c r="AL39">
         <f>W_!AN41</f>
-        <v>-2.9419404854007106E-3</v>
+        <v>0.18667918561746047</v>
       </c>
       <c r="AM39">
         <f>W_!AO41</f>
-        <v>8.0775695342580063E-5</v>
+        <v>1568.5717020648594</v>
       </c>
       <c r="AN39">
         <f>W_!AP41</f>
-        <v>0.18667918561746047</v>
+        <v>1763.1840093704454</v>
       </c>
       <c r="AO39">
         <f>W_!AQ41</f>
-        <v>0.18336861470407398</v>
+        <v>-568.10092143102315</v>
       </c>
       <c r="AP39">
         <f>W_!AR41</f>
-        <v>2.9644503477165804E-5</v>
+        <v>-5.1141718171901572E-2</v>
       </c>
       <c r="AQ39">
         <f>W_!AS41</f>
-        <v>0.3339454319419784</v>
+        <v>2.8116227361705957E-2</v>
       </c>
       <c r="AR39">
         <f>W_!AT41</f>
@@ -45144,11 +45144,11 @@
       </c>
       <c r="AS39">
         <f>W_!AU41</f>
-        <v>-4.4065440168103379E-3</v>
+        <v>-117.46735971824071</v>
       </c>
       <c r="AT39">
         <f>W_!AV41</f>
-        <v>2.682026602918913E-4</v>
+        <v>1.0708061005171146</v>
       </c>
       <c r="AU39">
         <f>W_!AW41</f>
@@ -45186,175 +45186,175 @@
     <row r="40" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>W_!B42</f>
-        <v>betahrs</v>
+        <v>betahrs0</v>
       </c>
       <c r="B40">
         <f>W_!D42</f>
-        <v>5.2797938205596351</v>
+        <v>5.3232639458714441</v>
       </c>
       <c r="C40">
         <f>W_!E42</f>
-        <v>10.356418571345214</v>
+        <v>11.228863140385918</v>
       </c>
       <c r="D40">
         <f>W_!F42</f>
-        <v>9.4140641871961765</v>
+        <v>12.933893422837496</v>
       </c>
       <c r="E40">
         <f>W_!G42</f>
-        <v>524.27416939885438</v>
+        <v>589.72612223960095</v>
       </c>
       <c r="F40">
         <f>W_!H42</f>
-        <v>-75.297052404070115</v>
+        <v>-90.154948026094345</v>
       </c>
       <c r="G40">
         <f>W_!I42</f>
-        <v>-147.02044525468639</v>
+        <v>-209.57181197672796</v>
       </c>
       <c r="H40">
         <f>W_!J42</f>
-        <v>-301.04453345569152</v>
+        <v>-328.98817330371662</v>
       </c>
       <c r="I40">
         <f>W_!K42</f>
-        <v>-121.11571993031674</v>
+        <v>-170.18754693450447</v>
       </c>
       <c r="J40">
         <f>W_!L42</f>
-        <v>-1.2163045104466834</v>
+        <v>-4.4999433938360589E-2</v>
       </c>
       <c r="K40">
         <f>W_!M42</f>
-        <v>20.589163565856708</v>
+        <v>-32.709399608827738</v>
       </c>
       <c r="L40">
         <f>W_!N42</f>
-        <v>-127.30689448094499</v>
+        <v>-85.798484852085664</v>
       </c>
       <c r="M40">
         <f>W_!O42</f>
-        <v>47.318447388726391</v>
+        <v>22.842204499889338</v>
       </c>
       <c r="N40">
         <f>W_!P42</f>
-        <v>19.353760087100774</v>
+        <v>29.157646656918001</v>
       </c>
       <c r="O40">
         <f>W_!Q42</f>
-        <v>-237.50830716427268</v>
+        <v>-321.98489640810499</v>
       </c>
       <c r="P40">
         <f>W_!R42</f>
-        <v>185.05865498720934</v>
+        <v>231.9574135656662</v>
       </c>
       <c r="Q40">
         <f>W_!S42</f>
-        <v>0.10437517669090268</v>
+        <v>0.13213700223965485</v>
       </c>
       <c r="R40">
         <f>W_!T42</f>
-        <v>-1.8267802053376324E-2</v>
+        <v>-2.0539758970679542E-2</v>
       </c>
       <c r="S40">
         <f>W_!U42</f>
-        <v>0.21046642828631834</v>
+        <v>0.24125562249911386</v>
       </c>
       <c r="T40">
         <f>W_!V42</f>
-        <v>-13.484943281713829</v>
+        <v>-16.785713626538868</v>
       </c>
       <c r="U40">
         <f>W_!W42</f>
-        <v>-13.141992555052447</v>
+        <v>-16.209322582133147</v>
       </c>
       <c r="V40">
         <f>W_!X42</f>
-        <v>-11.859582957536279</v>
+        <v>-13.513371377783773</v>
       </c>
       <c r="W40">
         <f>W_!Y42</f>
-        <v>-9.5880001243205211</v>
+        <v>-10.994556597855578</v>
       </c>
       <c r="X40">
         <f>W_!Z42</f>
-        <v>-10.90763469183673</v>
+        <v>-12.140073074367637</v>
       </c>
       <c r="Y40">
         <f>W_!AA42</f>
-        <v>0.49848691394424954</v>
+        <v>2.1960692258187531</v>
       </c>
       <c r="Z40">
         <f>W_!AB42</f>
-        <v>-9.2266139917108719E-2</v>
+        <v>-0.15982886817538888</v>
       </c>
       <c r="AA40">
         <f>W_!AC42</f>
-        <v>3.2555752386952559</v>
+        <v>3.6013244379958413</v>
       </c>
       <c r="AB40">
         <f>W_!AD42</f>
-        <v>-1.143060943870724</v>
+        <v>-1.082340772105542</v>
       </c>
       <c r="AC40">
         <f>W_!AE42</f>
-        <v>-102.28885487511907</v>
+        <v>-117.76206867326755</v>
       </c>
       <c r="AD40">
         <f>W_!AF42</f>
-        <v>-91.906397158877994</v>
+        <v>-107.43633121602889</v>
       </c>
       <c r="AE40">
         <f>W_!AG42</f>
-        <v>-0.18264229332786935</v>
+        <v>-0.2098589999780153</v>
       </c>
       <c r="AF40">
         <f>W_!AH42</f>
-        <v>26.280210251208917</v>
+        <v>33.874919080834616</v>
       </c>
       <c r="AG40">
         <f>W_!AI42</f>
-        <v>-0.36243384866714978</v>
+        <v>-0.64740469272844958</v>
       </c>
       <c r="AH40">
         <f>W_!AJ42</f>
-        <v>-2940.6878479146144</v>
+        <v>-3313.0964510664212</v>
       </c>
       <c r="AI40">
         <f>W_!AK42</f>
-        <v>-568.10092143102315</v>
+        <v>-4401.167445404194</v>
       </c>
       <c r="AJ40">
         <f>W_!AL42</f>
-        <v>2.8116227361705957E-2</v>
+        <v>1313.0883583612517</v>
       </c>
       <c r="AK40">
         <f>W_!AM42</f>
-        <v>-3371.1500153556899</v>
+        <v>-18.020994992728717</v>
       </c>
       <c r="AL40">
         <f>W_!AN42</f>
-        <v>-14.066834381830979</v>
+        <v>0.3339454319419784</v>
       </c>
       <c r="AM40">
         <f>W_!AO42</f>
-        <v>0.18667918561746047</v>
+        <v>1763.1840093704454</v>
       </c>
       <c r="AN40">
         <f>W_!AP42</f>
-        <v>1568.5717020648594</v>
+        <v>2298.0605309161074</v>
       </c>
       <c r="AO40">
         <f>W_!AQ42</f>
-        <v>1062.424854585953</v>
+        <v>-701.75855763872062</v>
       </c>
       <c r="AP40">
         <f>W_!AR42</f>
-        <v>-5.1141718171901572E-2</v>
+        <v>-1.7860689167723443E-3</v>
       </c>
       <c r="AQ40">
         <f>W_!AS42</f>
-        <v>1763.1840093704454</v>
+        <v>2.1389821354440338E-3</v>
       </c>
       <c r="AR40">
         <f>W_!AT42</f>
@@ -45362,11 +45362,11 @@
       </c>
       <c r="AS40">
         <f>W_!AU42</f>
-        <v>-117.46735971824071</v>
+        <v>-115.69705301714977</v>
       </c>
       <c r="AT40">
         <f>W_!AV42</f>
-        <v>1.0708061005171146</v>
+        <v>1.0362433306533667</v>
       </c>
       <c r="AU40">
         <f>W_!AW42</f>
@@ -45404,175 +45404,175 @@
     <row r="41" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>W_!B43</f>
-        <v>betahwk_w</v>
+        <v>betahwk</v>
       </c>
       <c r="B41">
         <f>W_!D43</f>
-        <v>5.2224874747760914</v>
+        <v>-2.7942573244046147</v>
       </c>
       <c r="C41">
         <f>W_!E43</f>
-        <v>3.5625091254125145</v>
+        <v>-1.9282397193109404</v>
       </c>
       <c r="D41">
         <f>W_!F43</f>
-        <v>10.476758041636117</v>
+        <v>-5.5916262093774529</v>
       </c>
       <c r="E41">
         <f>W_!G43</f>
-        <v>392.98837731434764</v>
+        <v>-211.30141923339218</v>
       </c>
       <c r="F41">
         <f>W_!H43</f>
-        <v>-17.481176267748801</v>
+        <v>11.957490418677887</v>
       </c>
       <c r="G41">
         <f>W_!I43</f>
-        <v>-141.58188874812311</v>
+        <v>73.620088502439629</v>
       </c>
       <c r="H41">
         <f>W_!J43</f>
-        <v>-187.11366345314303</v>
+        <v>101.33075077941011</v>
       </c>
       <c r="I41">
         <f>W_!K43</f>
-        <v>-53.241944557888729</v>
+        <v>31.075729862315068</v>
       </c>
       <c r="J41">
         <f>W_!L43</f>
-        <v>-220.65134087398388</v>
+        <v>115.10740771448714</v>
       </c>
       <c r="K41">
         <f>W_!M43</f>
-        <v>-88.827203987656176</v>
+        <v>46.823785685435425</v>
       </c>
       <c r="L41">
         <f>W_!N43</f>
-        <v>56.944049785409128</v>
+        <v>-28.56495763867628</v>
       </c>
       <c r="M41">
         <f>W_!O43</f>
-        <v>244.32375218413293</v>
+        <v>-127.6787808320332</v>
       </c>
       <c r="N41">
         <f>W_!P43</f>
-        <v>32.660241823637065</v>
+        <v>-17.99329815882259</v>
       </c>
       <c r="O41">
         <f>W_!Q43</f>
-        <v>-135.16141070911945</v>
+        <v>73.57291854687702</v>
       </c>
       <c r="P41">
         <f>W_!R43</f>
-        <v>111.69107446858089</v>
+        <v>-60.996895257536984</v>
       </c>
       <c r="Q41">
         <f>W_!S43</f>
-        <v>0.10208107729419125</v>
+        <v>-5.4563297311719099E-2</v>
       </c>
       <c r="R41">
         <f>W_!T43</f>
-        <v>-5.5171637329746682E-3</v>
+        <v>3.0809364778536003E-3</v>
       </c>
       <c r="S41">
         <f>W_!U43</f>
-        <v>0.18951225051763973</v>
+        <v>-0.10173489646599192</v>
       </c>
       <c r="T41">
         <f>W_!V43</f>
-        <v>-7.11667722226594</v>
+        <v>3.9039584534518803</v>
       </c>
       <c r="U41">
         <f>W_!W43</f>
-        <v>-7.1041050620678545</v>
+        <v>3.8913106117669463</v>
       </c>
       <c r="V41">
         <f>W_!X43</f>
-        <v>-3.2332641640179514</v>
+        <v>1.8997221387395582</v>
       </c>
       <c r="W41">
         <f>W_!Y43</f>
-        <v>-1.5318702972673734</v>
+        <v>0.99824818716135155</v>
       </c>
       <c r="X41">
         <f>W_!Z43</f>
-        <v>-2.808917534511115</v>
+        <v>1.6728524669573277</v>
       </c>
       <c r="Y41">
         <f>W_!AA43</f>
-        <v>1.1500228045069241</v>
+        <v>-0.56100057310974805</v>
       </c>
       <c r="Z41">
         <f>W_!AB43</f>
-        <v>-1.0537308040703297E-2</v>
+        <v>6.4699636306792697E-3</v>
       </c>
       <c r="AA41">
         <f>W_!AC43</f>
-        <v>1.1438632223149516</v>
+        <v>-0.5884274323673474</v>
       </c>
       <c r="AB41">
         <f>W_!AD43</f>
-        <v>-0.74347619682916799</v>
+        <v>0.39822885562543558</v>
       </c>
       <c r="AC41">
         <f>W_!AE43</f>
-        <v>-74.340512566262177</v>
+        <v>39.93247590756279</v>
       </c>
       <c r="AD41">
         <f>W_!AF43</f>
-        <v>-67.492798835756432</v>
+        <v>36.247129410439051</v>
       </c>
       <c r="AE41">
         <f>W_!AG43</f>
-        <v>2.9930042878607288E-2</v>
+        <v>-8.2101367873843398E-3</v>
       </c>
       <c r="AF41">
         <f>W_!AH43</f>
-        <v>17.403271054592906</v>
+        <v>-9.4767088511904305</v>
       </c>
       <c r="AG41">
         <f>W_!AI43</f>
-        <v>-0.35275495380070238</v>
+        <v>0.18811911673914675</v>
       </c>
       <c r="AH41">
         <f>W_!AJ43</f>
-        <v>-1998.7574937441038</v>
+        <v>1068.3947156148856</v>
       </c>
       <c r="AI41">
         <f>W_!AK43</f>
-        <v>-811.63735040907227</v>
+        <v>1340.2594630499275</v>
       </c>
       <c r="AJ41">
         <f>W_!AL43</f>
-        <v>4.2621514898831668E-2</v>
+        <v>-811.63735040907227</v>
       </c>
       <c r="AK41">
         <f>W_!AM43</f>
-        <v>-2509.6765171782167</v>
+        <v>4.9981445009904357</v>
       </c>
       <c r="AL41">
         <f>W_!AN43</f>
-        <v>-9.1748140779880245</v>
+        <v>-9.800182023128777E-2</v>
       </c>
       <c r="AM41">
         <f>W_!AO43</f>
-        <v>0.18336861470407398</v>
+        <v>-568.10092143102315</v>
       </c>
       <c r="AN41">
         <f>W_!AP43</f>
-        <v>1062.424854585953</v>
+        <v>-701.75855763872062</v>
       </c>
       <c r="AO41">
         <f>W_!AQ43</f>
-        <v>1534.3807715054181</v>
+        <v>430.24937553898894</v>
       </c>
       <c r="AP41">
         <f>W_!AR43</f>
-        <v>-6.1655298277314217E-2</v>
+        <v>3.0436972629051928E-2</v>
       </c>
       <c r="AQ41">
         <f>W_!AS43</f>
-        <v>1313.0883583612517</v>
+        <v>-2.1518354241038668E-2</v>
       </c>
       <c r="AR41">
         <f>W_!AT43</f>
@@ -45580,11 +45580,11 @@
       </c>
       <c r="AS41">
         <f>W_!AU43</f>
-        <v>-88.336794850781061</v>
+        <v>46.30025903218278</v>
       </c>
       <c r="AT41">
         <f>W_!AV43</f>
-        <v>1.5067542436425081</v>
+        <v>-0.76082596409849357</v>
       </c>
       <c r="AU41">
         <f>W_!AW43</f>
@@ -45758,31 +45758,31 @@
       </c>
       <c r="AI42">
         <f>W_!AK44</f>
-        <v>3.0436972629051928E-2</v>
+        <v>-3.2783165587112781E-3</v>
       </c>
       <c r="AJ42">
         <f>W_!AL44</f>
-        <v>-4.6291652160110119E-4</v>
+        <v>-6.1655298277314217E-2</v>
       </c>
       <c r="AK42">
         <f>W_!AM44</f>
-        <v>-3.2783165587112781E-3</v>
+        <v>-2.5492595426118924E-3</v>
       </c>
       <c r="AL42">
         <f>W_!AN44</f>
-        <v>-2.5492595426118924E-3</v>
+        <v>2.9644503477165804E-5</v>
       </c>
       <c r="AM42">
         <f>W_!AO44</f>
-        <v>2.9644503477165804E-5</v>
+        <v>-5.1141718171901572E-2</v>
       </c>
       <c r="AN42">
         <f>W_!AP44</f>
-        <v>-5.1141718171901572E-2</v>
+        <v>-1.7860689167723443E-3</v>
       </c>
       <c r="AO42">
         <f>W_!AQ44</f>
-        <v>-6.1655298277314217E-2</v>
+        <v>3.0436972629051928E-2</v>
       </c>
       <c r="AP42">
         <f>W_!AR44</f>
@@ -45790,7 +45790,7 @@
       </c>
       <c r="AQ42">
         <f>W_!AS44</f>
-        <v>-1.7860689167723443E-3</v>
+        <v>-4.6291652160110119E-4</v>
       </c>
       <c r="AR42">
         <f>W_!AT44</f>
@@ -45840,175 +45840,175 @@
     <row r="43" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>W_!B45</f>
-        <v>betahrs0</v>
+        <v>betalwg</v>
       </c>
       <c r="B43">
         <f>W_!D45</f>
-        <v>5.3232639458714441</v>
+        <v>-2.4539634995494951E-4</v>
       </c>
       <c r="C43">
         <f>W_!E45</f>
-        <v>11.228863140385918</v>
+        <v>-2.8424344588463876E-3</v>
       </c>
       <c r="D43">
         <f>W_!F45</f>
-        <v>12.933893422837496</v>
+        <v>4.2976884985427682E-4</v>
       </c>
       <c r="E43">
         <f>W_!G45</f>
-        <v>589.72612223960095</v>
+        <v>5.0925987869129559E-2</v>
       </c>
       <c r="F43">
         <f>W_!H45</f>
-        <v>-90.154948026094345</v>
+        <v>1.2862911662788602E-3</v>
       </c>
       <c r="G43">
         <f>W_!I45</f>
-        <v>-209.57181197672796</v>
+        <v>3.0292278672133268E-2</v>
       </c>
       <c r="H43">
         <f>W_!J45</f>
-        <v>-328.98817330371662</v>
+        <v>-6.2360439785684079E-3</v>
       </c>
       <c r="I43">
         <f>W_!K45</f>
-        <v>-170.18754693450447</v>
+        <v>8.5693700947602258E-2</v>
       </c>
       <c r="J43">
         <f>W_!L45</f>
-        <v>-4.4999433938360589E-2</v>
+        <v>-3.9253046825761778E-2</v>
       </c>
       <c r="K43">
         <f>W_!M45</f>
-        <v>-32.709399608827738</v>
+        <v>-4.9535414988894397E-2</v>
       </c>
       <c r="L43">
         <f>W_!N45</f>
-        <v>-85.798484852085664</v>
+        <v>-4.1857470741297607E-2</v>
       </c>
       <c r="M43">
         <f>W_!O45</f>
-        <v>22.842204499889338</v>
+        <v>1.0508109622717591E-2</v>
       </c>
       <c r="N43">
         <f>W_!P45</f>
-        <v>29.157646656918001</v>
+        <v>-1.4051065633767172E-2</v>
       </c>
       <c r="O43">
         <f>W_!Q45</f>
-        <v>-321.98489640810499</v>
+        <v>0.10663089471080375</v>
       </c>
       <c r="P43">
         <f>W_!R45</f>
-        <v>231.9574135656662</v>
+        <v>-4.9997029054094921E-2</v>
       </c>
       <c r="Q43">
         <f>W_!S45</f>
-        <v>0.13213700223965485</v>
+        <v>3.2006766873150301E-6</v>
       </c>
       <c r="R43">
         <f>W_!T45</f>
-        <v>-2.0539758970679542E-2</v>
+        <v>-2.6887122730866516E-6</v>
       </c>
       <c r="S43">
         <f>W_!U45</f>
-        <v>0.24125562249911386</v>
+        <v>-1.0401453563577732E-4</v>
       </c>
       <c r="T43">
         <f>W_!V45</f>
-        <v>-16.785713626538868</v>
+        <v>2.3109967081836125E-3</v>
       </c>
       <c r="U43">
         <f>W_!W45</f>
-        <v>-16.209322582133147</v>
+        <v>2.1620910093765934E-3</v>
       </c>
       <c r="V43">
         <f>W_!X45</f>
-        <v>-13.513371377783773</v>
+        <v>2.5648873556789291E-3</v>
       </c>
       <c r="W43">
         <f>W_!Y45</f>
-        <v>-10.994556597855578</v>
+        <v>2.6092686341621651E-3</v>
       </c>
       <c r="X43">
         <f>W_!Z45</f>
-        <v>-12.140073074367637</v>
+        <v>2.7127073347101688E-3</v>
       </c>
       <c r="Y43">
         <f>W_!AA45</f>
-        <v>2.1960692258187531</v>
+        <v>9.6233578370306396E-4</v>
       </c>
       <c r="Z43">
         <f>W_!AB45</f>
-        <v>-0.15982886817538888</v>
+        <v>-1.654262998991334E-5</v>
       </c>
       <c r="AA43">
         <f>W_!AC45</f>
-        <v>3.6013244379958413</v>
+        <v>-2.7493102646198485E-4</v>
       </c>
       <c r="AB43">
         <f>W_!AD45</f>
-        <v>-1.082340772105542</v>
+        <v>1.1672426919997213E-4</v>
       </c>
       <c r="AC43">
         <f>W_!AE45</f>
-        <v>-117.76206867326755</v>
+        <v>5.2124983952514005E-3</v>
       </c>
       <c r="AD43">
         <f>W_!AF45</f>
-        <v>-107.43633121602889</v>
+        <v>2.9367545299667699E-3</v>
       </c>
       <c r="AE43">
         <f>W_!AG45</f>
-        <v>-0.2098589999780153</v>
+        <v>3.8660994490644727E-5</v>
       </c>
       <c r="AF43">
         <f>W_!AH45</f>
-        <v>33.874919080834616</v>
+        <v>-2.5033458678467117E-3</v>
       </c>
       <c r="AG43">
         <f>W_!AI45</f>
-        <v>-0.64740469272844958</v>
+        <v>3.3014635760797793E-5</v>
       </c>
       <c r="AH43">
         <f>W_!AJ45</f>
-        <v>-3313.0964510664212</v>
+        <v>-5.4054250667207558E-2</v>
       </c>
       <c r="AI43">
         <f>W_!AK45</f>
-        <v>-701.75855763872062</v>
+        <v>3.2556494684127398E-4</v>
       </c>
       <c r="AJ43">
         <f>W_!AL45</f>
-        <v>2.1389821354440338E-3</v>
+        <v>4.2621514898831668E-2</v>
       </c>
       <c r="AK43">
         <f>W_!AM45</f>
-        <v>-4401.167445404194</v>
+        <v>1.3613219993927133E-3</v>
       </c>
       <c r="AL43">
         <f>W_!AN45</f>
-        <v>-18.020994992728717</v>
+        <v>-1.5645820010581742E-5</v>
       </c>
       <c r="AM43">
         <f>W_!AO45</f>
-        <v>0.3339454319419784</v>
+        <v>2.8116227361705957E-2</v>
       </c>
       <c r="AN43">
         <f>W_!AP45</f>
-        <v>1763.1840093704454</v>
+        <v>2.1389821354440338E-3</v>
       </c>
       <c r="AO43">
         <f>W_!AQ45</f>
-        <v>1313.0883583612517</v>
+        <v>-2.1518354241038668E-2</v>
       </c>
       <c r="AP43">
         <f>W_!AR45</f>
-        <v>-1.7860689167723443E-3</v>
+        <v>-4.6291652160110119E-4</v>
       </c>
       <c r="AQ43">
         <f>W_!AS45</f>
-        <v>2298.0605309161074</v>
+        <v>2.4723379702044511E-4</v>
       </c>
       <c r="AR43">
         <f>W_!AT45</f>
@@ -46016,11 +46016,11 @@
       </c>
       <c r="AS43">
         <f>W_!AU45</f>
-        <v>-115.69705301714977</v>
+        <v>1.9292547643326243E-2</v>
       </c>
       <c r="AT43">
         <f>W_!AV45</f>
-        <v>1.0362433306533667</v>
+        <v>3.5940734792158446E-4</v>
       </c>
       <c r="AU43">
         <f>W_!AW45</f>
@@ -46412,31 +46412,31 @@
       </c>
       <c r="AI45">
         <f>W_!AK47</f>
-        <v>46.30025903218278</v>
+        <v>221.14962958502946</v>
       </c>
       <c r="AJ45">
         <f>W_!AL47</f>
-        <v>1.9292547643326243E-2</v>
+        <v>-88.336794850781061</v>
       </c>
       <c r="AK45">
         <f>W_!AM47</f>
-        <v>221.14962958502946</v>
+        <v>-1.0815378701130609</v>
       </c>
       <c r="AL45">
         <f>W_!AN47</f>
-        <v>-1.0815378701130609</v>
+        <v>-4.4065440168103379E-3</v>
       </c>
       <c r="AM45">
         <f>W_!AO47</f>
-        <v>-4.4065440168103379E-3</v>
+        <v>-117.46735971824071</v>
       </c>
       <c r="AN45">
         <f>W_!AP47</f>
-        <v>-117.46735971824071</v>
+        <v>-115.69705301714977</v>
       </c>
       <c r="AO45">
         <f>W_!AQ47</f>
-        <v>-88.336794850781061</v>
+        <v>46.30025903218278</v>
       </c>
       <c r="AP45">
         <f>W_!AR47</f>
@@ -46444,7 +46444,7 @@
       </c>
       <c r="AQ45">
         <f>W_!AS47</f>
-        <v>-115.69705301714977</v>
+        <v>1.9292547643326243E-2</v>
       </c>
       <c r="AR45">
         <f>W_!AT47</f>
@@ -46630,31 +46630,31 @@
       </c>
       <c r="AI46">
         <f>W_!AK48</f>
-        <v>-0.76082596409849357</v>
+        <v>-2.0639005749962931</v>
       </c>
       <c r="AJ46">
         <f>W_!AL48</f>
-        <v>3.5940734792158446E-4</v>
+        <v>1.5067542436425081</v>
       </c>
       <c r="AK46">
         <f>W_!AM48</f>
-        <v>-2.0639005749962931</v>
+        <v>-2.603914069368967E-2</v>
       </c>
       <c r="AL46">
         <f>W_!AN48</f>
-        <v>-2.603914069368967E-2</v>
+        <v>2.682026602918913E-4</v>
       </c>
       <c r="AM46">
         <f>W_!AO48</f>
-        <v>2.682026602918913E-4</v>
+        <v>1.0708061005171146</v>
       </c>
       <c r="AN46">
         <f>W_!AP48</f>
-        <v>1.0708061005171146</v>
+        <v>1.0362433306533667</v>
       </c>
       <c r="AO46">
         <f>W_!AQ48</f>
-        <v>1.5067542436425081</v>
+        <v>-0.76082596409849357</v>
       </c>
       <c r="AP46">
         <f>W_!AR48</f>
@@ -46662,7 +46662,7 @@
       </c>
       <c r="AQ46">
         <f>W_!AS48</f>
-        <v>1.0362433306533667</v>
+        <v>3.5940734792158446E-4</v>
       </c>
       <c r="AR46">
         <f>W_!AT48</f>
@@ -48622,31 +48622,31 @@
       </c>
       <c r="AK1">
         <f>MATCH(AK3,W_psid!$B$1:$CZ$1,0)</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL1">
         <f>MATCH(AL3,W_psid!$B$1:$CZ$1,0)</f>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AM1">
         <f>MATCH(AM3,W_psid!$B$1:$CZ$1,0)</f>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AN1">
         <f>MATCH(AN3,W_psid!$B$1:$CZ$1,0)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AO1">
         <f>MATCH(AO3,W_psid!$B$1:$CZ$1,0)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AP1">
         <f>MATCH(AP3,W_psid!$B$1:$CZ$1,0)</f>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AQ1">
         <f>MATCH(AQ3,W_psid!$B$1:$CZ$1,0)</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR1">
         <f>MATCH(AR3,W_psid!$B$1:$CZ$1,0)</f>
@@ -48654,7 +48654,7 @@
       </c>
       <c r="AS1">
         <f>MATCH(AS3,W_psid!$B$1:$CZ$1,0)</f>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AT1">
         <f>MATCH(AT3,W_psid!$B$1:$CZ$1,0)</f>
@@ -48836,31 +48836,31 @@
       </c>
       <c r="AK2" t="str">
         <f>MOMS!$A$35</f>
-        <v>betahwk</v>
+        <v>betahrs0_w</v>
       </c>
       <c r="AL2" t="str">
         <f>MOMS!$A$36</f>
-        <v>betalwg</v>
+        <v>betahwk_w</v>
       </c>
       <c r="AM2" t="str">
         <f>MOMS!$A$37</f>
-        <v>betahrs0_w</v>
+        <v>betacom</v>
       </c>
       <c r="AN2" t="str">
         <f>MOMS!$A$38</f>
-        <v>betacom</v>
+        <v>betalfp</v>
       </c>
       <c r="AO2" t="str">
         <f>MOMS!$A$39</f>
-        <v>betalfp</v>
+        <v>betahrs</v>
       </c>
       <c r="AP2" t="str">
         <f>MOMS!$A$40</f>
-        <v>betahrs</v>
+        <v>betahrs0</v>
       </c>
       <c r="AQ2" t="str">
         <f>MOMS!$A$41</f>
-        <v>betahwk_w</v>
+        <v>betahwk</v>
       </c>
       <c r="AR2" t="str">
         <f>MOMS!$A$42</f>
@@ -48868,7 +48868,7 @@
       </c>
       <c r="AS2" t="str">
         <f>MOMS!$A$43</f>
-        <v>betahrs0</v>
+        <v>betalwg</v>
       </c>
       <c r="AT2" t="str">
         <f>MOMS!$A$44</f>
@@ -49050,31 +49050,31 @@
       </c>
       <c r="AK3" t="str">
         <f>VLOOKUP(AK2,MOMS!$A:$B,2,0)</f>
-        <v>betahwk</v>
+        <v>betahrs0_w</v>
       </c>
       <c r="AL3" t="str">
         <f>VLOOKUP(AL2,MOMS!$A:$B,2,0)</f>
-        <v>betalwg</v>
+        <v>betahwk_w</v>
       </c>
       <c r="AM3" t="str">
         <f>VLOOKUP(AM2,MOMS!$A:$B,2,0)</f>
-        <v>betahrs0_w</v>
+        <v>betacom</v>
       </c>
       <c r="AN3" t="str">
         <f>VLOOKUP(AN2,MOMS!$A:$B,2,0)</f>
-        <v>betacom</v>
+        <v>betalfp</v>
       </c>
       <c r="AO3" t="str">
         <f>VLOOKUP(AO2,MOMS!$A:$B,2,0)</f>
-        <v>betalfp</v>
+        <v>betahrs</v>
       </c>
       <c r="AP3" t="str">
         <f>VLOOKUP(AP2,MOMS!$A:$B,2,0)</f>
-        <v>betahrs</v>
+        <v>betahrs0</v>
       </c>
       <c r="AQ3" t="str">
         <f>VLOOKUP(AQ2,MOMS!$A:$B,2,0)</f>
-        <v>betahwk_w</v>
+        <v>betahwk</v>
       </c>
       <c r="AR3" t="str">
         <f>VLOOKUP(AR2,MOMS!$A:$B,2,0)</f>
@@ -49082,7 +49082,7 @@
       </c>
       <c r="AS3" t="str">
         <f>VLOOKUP(AS2,MOMS!$A:$B,2,0)</f>
-        <v>betahrs0</v>
+        <v>betalwg</v>
       </c>
       <c r="AT3" t="str">
         <f>VLOOKUP(AT2,MOMS!$A:$B,2,0)</f>
@@ -49276,31 +49276,31 @@
       </c>
       <c r="AK4" s="11" cm="1">
         <f t="array" ref="AK4">INDEX(W_psid!$B$2:$CZ$104,W_!$A4,W_!AK$1)/Ns!$B$1</f>
-        <v>-2.7942573244046147</v>
+        <v>-10.079717535513957</v>
       </c>
       <c r="AL4" s="11" cm="1">
         <f t="array" ref="AL4">INDEX(W_psid!$B$2:$CZ$104,W_!$A4,W_!AL$1)/Ns!$B$1</f>
-        <v>-2.4539634995494951E-4</v>
+        <v>5.2224874747760914</v>
       </c>
       <c r="AM4" s="11" cm="1">
         <f t="array" ref="AM4">INDEX(W_psid!$B$2:$CZ$104,W_!$A4,W_!AM$1)/Ns!$B$1</f>
-        <v>-10.079717535513957</v>
+        <v>-1.8366641846413134E-2</v>
       </c>
       <c r="AN4" s="11" cm="1">
         <f t="array" ref="AN4">INDEX(W_psid!$B$2:$CZ$104,W_!$A4,W_!AN$1)/Ns!$B$1</f>
-        <v>-1.8366641846413134E-2</v>
+        <v>1.4975522719250028E-4</v>
       </c>
       <c r="AO4" s="11" cm="1">
         <f t="array" ref="AO4">INDEX(W_psid!$B$2:$CZ$104,W_!$A4,W_!AO$1)/Ns!$B$1</f>
-        <v>1.4975522719250028E-4</v>
+        <v>5.2797938205596351</v>
       </c>
       <c r="AP4" s="11" cm="1">
         <f t="array" ref="AP4">INDEX(W_psid!$B$2:$CZ$104,W_!$A4,W_!AP$1)/Ns!$B$1</f>
-        <v>5.2797938205596351</v>
+        <v>5.3232639458714441</v>
       </c>
       <c r="AQ4" s="11" cm="1">
         <f t="array" ref="AQ4">INDEX(W_psid!$B$2:$CZ$104,W_!$A4,W_!AQ$1)/Ns!$B$1</f>
-        <v>5.2224874747760914</v>
+        <v>-2.7942573244046147</v>
       </c>
       <c r="AR4" s="11" cm="1">
         <f t="array" ref="AR4">INDEX(W_psid!$B$2:$CZ$104,W_!$A4,W_!AR$1)/Ns!$B$1</f>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="AS4" s="11" cm="1">
         <f t="array" ref="AS4">INDEX(W_psid!$B$2:$CZ$104,W_!$A4,W_!AS$1)/Ns!$B$1</f>
-        <v>5.3232639458714441</v>
+        <v>-2.4539634995494951E-4</v>
       </c>
       <c r="AT4" s="11" cm="1">
         <f t="array" ref="AT4">INDEX(W_psid!$B$2:$CZ$104,W_!$A4,W_!AT$1)/Ns!$B$1</f>
@@ -49494,31 +49494,31 @@
       </c>
       <c r="AK5" s="11" cm="1">
         <f t="array" ref="AK5">INDEX(W_psid!$B$2:$CZ$104,W_!$A5,W_!AK$1)/Ns!$B$1</f>
-        <v>-1.9282397193109404</v>
+        <v>-21.470939964265249</v>
       </c>
       <c r="AL5" s="11" cm="1">
         <f t="array" ref="AL5">INDEX(W_psid!$B$2:$CZ$104,W_!$A5,W_!AL$1)/Ns!$B$1</f>
-        <v>-2.8424344588463876E-3</v>
+        <v>3.5625091254125145</v>
       </c>
       <c r="AM5" s="11" cm="1">
         <f t="array" ref="AM5">INDEX(W_psid!$B$2:$CZ$104,W_!$A5,W_!AM$1)/Ns!$B$1</f>
-        <v>-21.470939964265249</v>
+        <v>-9.6889567398065563E-2</v>
       </c>
       <c r="AN5" s="11" cm="1">
         <f t="array" ref="AN5">INDEX(W_psid!$B$2:$CZ$104,W_!$A5,W_!AN$1)/Ns!$B$1</f>
-        <v>-9.6889567398065563E-2</v>
+        <v>9.9637229865548048E-4</v>
       </c>
       <c r="AO5" s="11" cm="1">
         <f t="array" ref="AO5">INDEX(W_psid!$B$2:$CZ$104,W_!$A5,W_!AO$1)/Ns!$B$1</f>
-        <v>9.9637229865548048E-4</v>
+        <v>10.356418571345214</v>
       </c>
       <c r="AP5" s="11" cm="1">
         <f t="array" ref="AP5">INDEX(W_psid!$B$2:$CZ$104,W_!$A5,W_!AP$1)/Ns!$B$1</f>
-        <v>10.356418571345214</v>
+        <v>11.228863140385918</v>
       </c>
       <c r="AQ5" s="11" cm="1">
         <f t="array" ref="AQ5">INDEX(W_psid!$B$2:$CZ$104,W_!$A5,W_!AQ$1)/Ns!$B$1</f>
-        <v>3.5625091254125145</v>
+        <v>-1.9282397193109404</v>
       </c>
       <c r="AR5" s="11" cm="1">
         <f t="array" ref="AR5">INDEX(W_psid!$B$2:$CZ$104,W_!$A5,W_!AR$1)/Ns!$B$1</f>
@@ -49526,7 +49526,7 @@
       </c>
       <c r="AS5" s="11" cm="1">
         <f t="array" ref="AS5">INDEX(W_psid!$B$2:$CZ$104,W_!$A5,W_!AS$1)/Ns!$B$1</f>
-        <v>11.228863140385918</v>
+        <v>-2.8424344588463876E-3</v>
       </c>
       <c r="AT5" s="11" cm="1">
         <f t="array" ref="AT5">INDEX(W_psid!$B$2:$CZ$104,W_!$A5,W_!AT$1)/Ns!$B$1</f>
@@ -49712,31 +49712,31 @@
       </c>
       <c r="AK6" s="11" cm="1">
         <f t="array" ref="AK6">INDEX(W_psid!$B$2:$CZ$104,W_!$A6,W_!AK$1)/Ns!$B$1</f>
-        <v>-5.5916262093774529</v>
+        <v>-24.711962266554782</v>
       </c>
       <c r="AL6" s="11" cm="1">
         <f t="array" ref="AL6">INDEX(W_psid!$B$2:$CZ$104,W_!$A6,W_!AL$1)/Ns!$B$1</f>
-        <v>4.2976884985427682E-4</v>
+        <v>10.476758041636117</v>
       </c>
       <c r="AM6" s="11" cm="1">
         <f t="array" ref="AM6">INDEX(W_psid!$B$2:$CZ$104,W_!$A6,W_!AM$1)/Ns!$B$1</f>
-        <v>-24.711962266554782</v>
+        <v>-0.13864560166947873</v>
       </c>
       <c r="AN6" s="11" cm="1">
         <f t="array" ref="AN6">INDEX(W_psid!$B$2:$CZ$104,W_!$A6,W_!AN$1)/Ns!$B$1</f>
-        <v>-0.13864560166947873</v>
+        <v>1.8309420103255049E-3</v>
       </c>
       <c r="AO6" s="11" cm="1">
         <f t="array" ref="AO6">INDEX(W_psid!$B$2:$CZ$104,W_!$A6,W_!AO$1)/Ns!$B$1</f>
-        <v>1.8309420103255049E-3</v>
+        <v>9.4140641871961765</v>
       </c>
       <c r="AP6" s="11" cm="1">
         <f t="array" ref="AP6">INDEX(W_psid!$B$2:$CZ$104,W_!$A6,W_!AP$1)/Ns!$B$1</f>
-        <v>9.4140641871961765</v>
+        <v>12.933893422837496</v>
       </c>
       <c r="AQ6" s="11" cm="1">
         <f t="array" ref="AQ6">INDEX(W_psid!$B$2:$CZ$104,W_!$A6,W_!AQ$1)/Ns!$B$1</f>
-        <v>10.476758041636117</v>
+        <v>-5.5916262093774529</v>
       </c>
       <c r="AR6" s="11" cm="1">
         <f t="array" ref="AR6">INDEX(W_psid!$B$2:$CZ$104,W_!$A6,W_!AR$1)/Ns!$B$1</f>
@@ -49744,7 +49744,7 @@
       </c>
       <c r="AS6" s="11" cm="1">
         <f t="array" ref="AS6">INDEX(W_psid!$B$2:$CZ$104,W_!$A6,W_!AS$1)/Ns!$B$1</f>
-        <v>12.933893422837496</v>
+        <v>4.2976884985427682E-4</v>
       </c>
       <c r="AT6" s="11" cm="1">
         <f t="array" ref="AT6">INDEX(W_psid!$B$2:$CZ$104,W_!$A6,W_!AT$1)/Ns!$B$1</f>
@@ -49930,31 +49930,31 @@
       </c>
       <c r="AK7" s="11" cm="1">
         <f t="array" ref="AK7">INDEX(W_psid!$B$2:$CZ$104,W_!$A7,W_!AK$1)/Ns!$B$1</f>
-        <v>-211.30141923339218</v>
+        <v>-1126.2225585624208</v>
       </c>
       <c r="AL7" s="11" cm="1">
         <f t="array" ref="AL7">INDEX(W_psid!$B$2:$CZ$104,W_!$A7,W_!AL$1)/Ns!$B$1</f>
-        <v>5.0925987869129559E-2</v>
+        <v>392.98837731434764</v>
       </c>
       <c r="AM7" s="11" cm="1">
         <f t="array" ref="AM7">INDEX(W_psid!$B$2:$CZ$104,W_!$A7,W_!AM$1)/Ns!$B$1</f>
-        <v>-1126.2225585624208</v>
+        <v>-4.840127991293067</v>
       </c>
       <c r="AN7" s="11" cm="1">
         <f t="array" ref="AN7">INDEX(W_psid!$B$2:$CZ$104,W_!$A7,W_!AN$1)/Ns!$B$1</f>
-        <v>-4.840127991293067</v>
+        <v>6.1641044284796137E-2</v>
       </c>
       <c r="AO7" s="11" cm="1">
         <f t="array" ref="AO7">INDEX(W_psid!$B$2:$CZ$104,W_!$A7,W_!AO$1)/Ns!$B$1</f>
-        <v>6.1641044284796137E-2</v>
+        <v>524.27416939885438</v>
       </c>
       <c r="AP7" s="11" cm="1">
         <f t="array" ref="AP7">INDEX(W_psid!$B$2:$CZ$104,W_!$A7,W_!AP$1)/Ns!$B$1</f>
-        <v>524.27416939885438</v>
+        <v>589.72612223960095</v>
       </c>
       <c r="AQ7" s="11" cm="1">
         <f t="array" ref="AQ7">INDEX(W_psid!$B$2:$CZ$104,W_!$A7,W_!AQ$1)/Ns!$B$1</f>
-        <v>392.98837731434764</v>
+        <v>-211.30141923339218</v>
       </c>
       <c r="AR7" s="11" cm="1">
         <f t="array" ref="AR7">INDEX(W_psid!$B$2:$CZ$104,W_!$A7,W_!AR$1)/Ns!$B$1</f>
@@ -49962,7 +49962,7 @@
       </c>
       <c r="AS7" s="11" cm="1">
         <f t="array" ref="AS7">INDEX(W_psid!$B$2:$CZ$104,W_!$A7,W_!AS$1)/Ns!$B$1</f>
-        <v>589.72612223960095</v>
+        <v>5.0925987869129559E-2</v>
       </c>
       <c r="AT7" s="11" cm="1">
         <f t="array" ref="AT7">INDEX(W_psid!$B$2:$CZ$104,W_!$A7,W_!AT$1)/Ns!$B$1</f>
@@ -50148,31 +50148,31 @@
       </c>
       <c r="AK8" s="11" cm="1">
         <f t="array" ref="AK8">INDEX(W_psid!$B$2:$CZ$104,W_!$A8,W_!AK$1)/Ns!$B$1</f>
-        <v>11.957490418677887</v>
+        <v>171.11345810509954</v>
       </c>
       <c r="AL8" s="11" cm="1">
         <f t="array" ref="AL8">INDEX(W_psid!$B$2:$CZ$104,W_!$A8,W_!AL$1)/Ns!$B$1</f>
-        <v>1.2862911662788602E-3</v>
+        <v>-17.481176267748801</v>
       </c>
       <c r="AM8" s="11" cm="1">
         <f t="array" ref="AM8">INDEX(W_psid!$B$2:$CZ$104,W_!$A8,W_!AM$1)/Ns!$B$1</f>
-        <v>171.11345810509954</v>
+        <v>-4.9907841616248255E-2</v>
       </c>
       <c r="AN8" s="11" cm="1">
         <f t="array" ref="AN8">INDEX(W_psid!$B$2:$CZ$104,W_!$A8,W_!AN$1)/Ns!$B$1</f>
-        <v>-4.9907841616248255E-2</v>
+        <v>-7.5134601408515895E-3</v>
       </c>
       <c r="AO8" s="11" cm="1">
         <f t="array" ref="AO8">INDEX(W_psid!$B$2:$CZ$104,W_!$A8,W_!AO$1)/Ns!$B$1</f>
-        <v>-7.5134601408515895E-3</v>
+        <v>-75.297052404070115</v>
       </c>
       <c r="AP8" s="11" cm="1">
         <f t="array" ref="AP8">INDEX(W_psid!$B$2:$CZ$104,W_!$A8,W_!AP$1)/Ns!$B$1</f>
-        <v>-75.297052404070115</v>
+        <v>-90.154948026094345</v>
       </c>
       <c r="AQ8" s="11" cm="1">
         <f t="array" ref="AQ8">INDEX(W_psid!$B$2:$CZ$104,W_!$A8,W_!AQ$1)/Ns!$B$1</f>
-        <v>-17.481176267748801</v>
+        <v>11.957490418677887</v>
       </c>
       <c r="AR8" s="11" cm="1">
         <f t="array" ref="AR8">INDEX(W_psid!$B$2:$CZ$104,W_!$A8,W_!AR$1)/Ns!$B$1</f>
@@ -50180,7 +50180,7 @@
       </c>
       <c r="AS8" s="11" cm="1">
         <f t="array" ref="AS8">INDEX(W_psid!$B$2:$CZ$104,W_!$A8,W_!AS$1)/Ns!$B$1</f>
-        <v>-90.154948026094345</v>
+        <v>1.2862911662788602E-3</v>
       </c>
       <c r="AT8" s="11" cm="1">
         <f t="array" ref="AT8">INDEX(W_psid!$B$2:$CZ$104,W_!$A8,W_!AT$1)/Ns!$B$1</f>
@@ -50366,31 +50366,31 @@
       </c>
       <c r="AK9" s="11" cm="1">
         <f t="array" ref="AK9">INDEX(W_psid!$B$2:$CZ$104,W_!$A9,W_!AK$1)/Ns!$B$1</f>
-        <v>73.620088502439629</v>
+        <v>404.58355238648295</v>
       </c>
       <c r="AL9" s="11" cm="1">
         <f t="array" ref="AL9">INDEX(W_psid!$B$2:$CZ$104,W_!$A9,W_!AL$1)/Ns!$B$1</f>
-        <v>3.0292278672133268E-2</v>
+        <v>-141.58188874812311</v>
       </c>
       <c r="AM9" s="11" cm="1">
         <f t="array" ref="AM9">INDEX(W_psid!$B$2:$CZ$104,W_!$A9,W_!AM$1)/Ns!$B$1</f>
-        <v>404.58355238648295</v>
+        <v>2.2201893713818426</v>
       </c>
       <c r="AN9" s="11" cm="1">
         <f t="array" ref="AN9">INDEX(W_psid!$B$2:$CZ$104,W_!$A9,W_!AN$1)/Ns!$B$1</f>
-        <v>2.2201893713818426</v>
+        <v>-2.7175229342418564E-2</v>
       </c>
       <c r="AO9" s="11" cm="1">
         <f t="array" ref="AO9">INDEX(W_psid!$B$2:$CZ$104,W_!$A9,W_!AO$1)/Ns!$B$1</f>
-        <v>-2.7175229342418564E-2</v>
+        <v>-147.02044525468639</v>
       </c>
       <c r="AP9" s="11" cm="1">
         <f t="array" ref="AP9">INDEX(W_psid!$B$2:$CZ$104,W_!$A9,W_!AP$1)/Ns!$B$1</f>
-        <v>-147.02044525468639</v>
+        <v>-209.57181197672796</v>
       </c>
       <c r="AQ9" s="11" cm="1">
         <f t="array" ref="AQ9">INDEX(W_psid!$B$2:$CZ$104,W_!$A9,W_!AQ$1)/Ns!$B$1</f>
-        <v>-141.58188874812311</v>
+        <v>73.620088502439629</v>
       </c>
       <c r="AR9" s="11" cm="1">
         <f t="array" ref="AR9">INDEX(W_psid!$B$2:$CZ$104,W_!$A9,W_!AR$1)/Ns!$B$1</f>
@@ -50398,7 +50398,7 @@
       </c>
       <c r="AS9" s="11" cm="1">
         <f t="array" ref="AS9">INDEX(W_psid!$B$2:$CZ$104,W_!$A9,W_!AS$1)/Ns!$B$1</f>
-        <v>-209.57181197672796</v>
+        <v>3.0292278672133268E-2</v>
       </c>
       <c r="AT9" s="11" cm="1">
         <f t="array" ref="AT9">INDEX(W_psid!$B$2:$CZ$104,W_!$A9,W_!AT$1)/Ns!$B$1</f>
@@ -50584,31 +50584,31 @@
       </c>
       <c r="AK10" s="11" cm="1">
         <f t="array" ref="AK10">INDEX(W_psid!$B$2:$CZ$104,W_!$A10,W_!AK$1)/Ns!$B$1</f>
-        <v>101.33075077941011</v>
+        <v>622.72285024766177</v>
       </c>
       <c r="AL10" s="11" cm="1">
         <f t="array" ref="AL10">INDEX(W_psid!$B$2:$CZ$104,W_!$A10,W_!AL$1)/Ns!$B$1</f>
-        <v>-6.2360439785684079E-3</v>
+        <v>-187.11366345314303</v>
       </c>
       <c r="AM10" s="11" cm="1">
         <f t="array" ref="AM10">INDEX(W_psid!$B$2:$CZ$104,W_!$A10,W_!AM$1)/Ns!$B$1</f>
-        <v>622.72285024766177</v>
+        <v>2.6884144794215215</v>
       </c>
       <c r="AN10" s="11" cm="1">
         <f t="array" ref="AN10">INDEX(W_psid!$B$2:$CZ$104,W_!$A10,W_!AN$1)/Ns!$B$1</f>
-        <v>2.6884144794215215</v>
+        <v>-3.2909805040499063E-2</v>
       </c>
       <c r="AO10" s="11" cm="1">
         <f t="array" ref="AO10">INDEX(W_psid!$B$2:$CZ$104,W_!$A10,W_!AO$1)/Ns!$B$1</f>
-        <v>-3.2909805040499063E-2</v>
+        <v>-301.04453345569152</v>
       </c>
       <c r="AP10" s="11" cm="1">
         <f t="array" ref="AP10">INDEX(W_psid!$B$2:$CZ$104,W_!$A10,W_!AP$1)/Ns!$B$1</f>
-        <v>-301.04453345569152</v>
+        <v>-328.98817330371662</v>
       </c>
       <c r="AQ10" s="11" cm="1">
         <f t="array" ref="AQ10">INDEX(W_psid!$B$2:$CZ$104,W_!$A10,W_!AQ$1)/Ns!$B$1</f>
-        <v>-187.11366345314303</v>
+        <v>101.33075077941011</v>
       </c>
       <c r="AR10" s="11" cm="1">
         <f t="array" ref="AR10">INDEX(W_psid!$B$2:$CZ$104,W_!$A10,W_!AR$1)/Ns!$B$1</f>
@@ -50616,7 +50616,7 @@
       </c>
       <c r="AS10" s="11" cm="1">
         <f t="array" ref="AS10">INDEX(W_psid!$B$2:$CZ$104,W_!$A10,W_!AS$1)/Ns!$B$1</f>
-        <v>-328.98817330371662</v>
+        <v>-6.2360439785684079E-3</v>
       </c>
       <c r="AT10" s="11" cm="1">
         <f t="array" ref="AT10">INDEX(W_psid!$B$2:$CZ$104,W_!$A10,W_!AT$1)/Ns!$B$1</f>
@@ -50802,31 +50802,31 @@
       </c>
       <c r="AK11" s="11" cm="1">
         <f t="array" ref="AK11">INDEX(W_psid!$B$2:$CZ$104,W_!$A11,W_!AK$1)/Ns!$B$1</f>
-        <v>31.075729862315068</v>
+        <v>320.97113318614242</v>
       </c>
       <c r="AL11" s="11" cm="1">
         <f t="array" ref="AL11">INDEX(W_psid!$B$2:$CZ$104,W_!$A11,W_!AL$1)/Ns!$B$1</f>
-        <v>8.5693700947602258E-2</v>
+        <v>-53.241944557888729</v>
       </c>
       <c r="AM11" s="11" cm="1">
         <f t="array" ref="AM11">INDEX(W_psid!$B$2:$CZ$104,W_!$A11,W_!AM$1)/Ns!$B$1</f>
-        <v>320.97113318614242</v>
+        <v>1.9906018166756743</v>
       </c>
       <c r="AN11" s="11" cm="1">
         <f t="array" ref="AN11">INDEX(W_psid!$B$2:$CZ$104,W_!$A11,W_!AN$1)/Ns!$B$1</f>
-        <v>1.9906018166756743</v>
+        <v>-3.1279254631665913E-2</v>
       </c>
       <c r="AO11" s="11" cm="1">
         <f t="array" ref="AO11">INDEX(W_psid!$B$2:$CZ$104,W_!$A11,W_!AO$1)/Ns!$B$1</f>
-        <v>-3.1279254631665913E-2</v>
+        <v>-121.11571993031674</v>
       </c>
       <c r="AP11" s="11" cm="1">
         <f t="array" ref="AP11">INDEX(W_psid!$B$2:$CZ$104,W_!$A11,W_!AP$1)/Ns!$B$1</f>
-        <v>-121.11571993031674</v>
+        <v>-170.18754693450447</v>
       </c>
       <c r="AQ11" s="11" cm="1">
         <f t="array" ref="AQ11">INDEX(W_psid!$B$2:$CZ$104,W_!$A11,W_!AQ$1)/Ns!$B$1</f>
-        <v>-53.241944557888729</v>
+        <v>31.075729862315068</v>
       </c>
       <c r="AR11" s="11" cm="1">
         <f t="array" ref="AR11">INDEX(W_psid!$B$2:$CZ$104,W_!$A11,W_!AR$1)/Ns!$B$1</f>
@@ -50834,7 +50834,7 @@
       </c>
       <c r="AS11" s="11" cm="1">
         <f t="array" ref="AS11">INDEX(W_psid!$B$2:$CZ$104,W_!$A11,W_!AS$1)/Ns!$B$1</f>
-        <v>-170.18754693450447</v>
+        <v>8.5693700947602258E-2</v>
       </c>
       <c r="AT11" s="11" cm="1">
         <f t="array" ref="AT11">INDEX(W_psid!$B$2:$CZ$104,W_!$A11,W_!AT$1)/Ns!$B$1</f>
@@ -51020,31 +51020,31 @@
       </c>
       <c r="AK12" s="11" cm="1">
         <f t="array" ref="AK12">INDEX(W_psid!$B$2:$CZ$104,W_!$A12,W_!AK$1)/Ns!$B$1</f>
-        <v>115.10740771448714</v>
+        <v>-1.1994961544104632</v>
       </c>
       <c r="AL12" s="11" cm="1">
         <f t="array" ref="AL12">INDEX(W_psid!$B$2:$CZ$104,W_!$A12,W_!AL$1)/Ns!$B$1</f>
-        <v>-3.9253046825761778E-2</v>
+        <v>-220.65134087398388</v>
       </c>
       <c r="AM12" s="11" cm="1">
         <f t="array" ref="AM12">INDEX(W_psid!$B$2:$CZ$104,W_!$A12,W_!AM$1)/Ns!$B$1</f>
-        <v>-1.1994961544104632</v>
+        <v>4.0373586092262631E-2</v>
       </c>
       <c r="AN12" s="11" cm="1">
         <f t="array" ref="AN12">INDEX(W_psid!$B$2:$CZ$104,W_!$A12,W_!AN$1)/Ns!$B$1</f>
-        <v>4.0373586092262631E-2</v>
+        <v>2.0907059883270914E-6</v>
       </c>
       <c r="AO12" s="11" cm="1">
         <f t="array" ref="AO12">INDEX(W_psid!$B$2:$CZ$104,W_!$A12,W_!AO$1)/Ns!$B$1</f>
-        <v>2.0907059883270914E-6</v>
+        <v>-1.2163045104466834</v>
       </c>
       <c r="AP12" s="11" cm="1">
         <f t="array" ref="AP12">INDEX(W_psid!$B$2:$CZ$104,W_!$A12,W_!AP$1)/Ns!$B$1</f>
-        <v>-1.2163045104466834</v>
+        <v>-4.4999433938360589E-2</v>
       </c>
       <c r="AQ12" s="11" cm="1">
         <f t="array" ref="AQ12">INDEX(W_psid!$B$2:$CZ$104,W_!$A12,W_!AQ$1)/Ns!$B$1</f>
-        <v>-220.65134087398388</v>
+        <v>115.10740771448714</v>
       </c>
       <c r="AR12" s="11" cm="1">
         <f t="array" ref="AR12">INDEX(W_psid!$B$2:$CZ$104,W_!$A12,W_!AR$1)/Ns!$B$1</f>
@@ -51052,7 +51052,7 @@
       </c>
       <c r="AS12" s="11" cm="1">
         <f t="array" ref="AS12">INDEX(W_psid!$B$2:$CZ$104,W_!$A12,W_!AS$1)/Ns!$B$1</f>
-        <v>-4.4999433938360589E-2</v>
+        <v>-3.9253046825761778E-2</v>
       </c>
       <c r="AT12" s="11" cm="1">
         <f t="array" ref="AT12">INDEX(W_psid!$B$2:$CZ$104,W_!$A12,W_!AT$1)/Ns!$B$1</f>
@@ -51238,31 +51238,31 @@
       </c>
       <c r="AK13" s="11" cm="1">
         <f t="array" ref="AK13">INDEX(W_psid!$B$2:$CZ$104,W_!$A13,W_!AK$1)/Ns!$B$1</f>
-        <v>46.823785685435425</v>
+        <v>71.842198819411237</v>
       </c>
       <c r="AL13" s="11" cm="1">
         <f t="array" ref="AL13">INDEX(W_psid!$B$2:$CZ$104,W_!$A13,W_!AL$1)/Ns!$B$1</f>
-        <v>-4.9535414988894397E-2</v>
+        <v>-88.827203987656176</v>
       </c>
       <c r="AM13" s="11" cm="1">
         <f t="array" ref="AM13">INDEX(W_psid!$B$2:$CZ$104,W_!$A13,W_!AM$1)/Ns!$B$1</f>
-        <v>71.842198819411237</v>
+        <v>1.9938604017660995</v>
       </c>
       <c r="AN13" s="11" cm="1">
         <f t="array" ref="AN13">INDEX(W_psid!$B$2:$CZ$104,W_!$A13,W_!AN$1)/Ns!$B$1</f>
-        <v>1.9938604017660995</v>
+        <v>-1.9653511873181085E-2</v>
       </c>
       <c r="AO13" s="11" cm="1">
         <f t="array" ref="AO13">INDEX(W_psid!$B$2:$CZ$104,W_!$A13,W_!AO$1)/Ns!$B$1</f>
-        <v>-1.9653511873181085E-2</v>
+        <v>20.589163565856708</v>
       </c>
       <c r="AP13" s="11" cm="1">
         <f t="array" ref="AP13">INDEX(W_psid!$B$2:$CZ$104,W_!$A13,W_!AP$1)/Ns!$B$1</f>
-        <v>20.589163565856708</v>
+        <v>-32.709399608827738</v>
       </c>
       <c r="AQ13" s="11" cm="1">
         <f t="array" ref="AQ13">INDEX(W_psid!$B$2:$CZ$104,W_!$A13,W_!AQ$1)/Ns!$B$1</f>
-        <v>-88.827203987656176</v>
+        <v>46.823785685435425</v>
       </c>
       <c r="AR13" s="11" cm="1">
         <f t="array" ref="AR13">INDEX(W_psid!$B$2:$CZ$104,W_!$A13,W_!AR$1)/Ns!$B$1</f>
@@ -51270,7 +51270,7 @@
       </c>
       <c r="AS13" s="11" cm="1">
         <f t="array" ref="AS13">INDEX(W_psid!$B$2:$CZ$104,W_!$A13,W_!AS$1)/Ns!$B$1</f>
-        <v>-32.709399608827738</v>
+        <v>-4.9535414988894397E-2</v>
       </c>
       <c r="AT13" s="11" cm="1">
         <f t="array" ref="AT13">INDEX(W_psid!$B$2:$CZ$104,W_!$A13,W_!AT$1)/Ns!$B$1</f>
@@ -51456,31 +51456,31 @@
       </c>
       <c r="AK14" s="11" cm="1">
         <f t="array" ref="AK14">INDEX(W_psid!$B$2:$CZ$104,W_!$A14,W_!AK$1)/Ns!$B$1</f>
-        <v>-28.56495763867628</v>
+        <v>161.51816515491561</v>
       </c>
       <c r="AL14" s="11" cm="1">
         <f t="array" ref="AL14">INDEX(W_psid!$B$2:$CZ$104,W_!$A14,W_!AL$1)/Ns!$B$1</f>
-        <v>-4.1857470741297607E-2</v>
+        <v>56.944049785409128</v>
       </c>
       <c r="AM14" s="11" cm="1">
         <f t="array" ref="AM14">INDEX(W_psid!$B$2:$CZ$104,W_!$A14,W_!AM$1)/Ns!$B$1</f>
-        <v>161.51816515491561</v>
+        <v>1.4255785516062096</v>
       </c>
       <c r="AN14" s="11" cm="1">
         <f t="array" ref="AN14">INDEX(W_psid!$B$2:$CZ$104,W_!$A14,W_!AN$1)/Ns!$B$1</f>
-        <v>1.4255785516062096</v>
+        <v>9.0659628044587985E-3</v>
       </c>
       <c r="AO14" s="11" cm="1">
         <f t="array" ref="AO14">INDEX(W_psid!$B$2:$CZ$104,W_!$A14,W_!AO$1)/Ns!$B$1</f>
-        <v>9.0659628044587985E-3</v>
+        <v>-127.30689448094499</v>
       </c>
       <c r="AP14" s="11" cm="1">
         <f t="array" ref="AP14">INDEX(W_psid!$B$2:$CZ$104,W_!$A14,W_!AP$1)/Ns!$B$1</f>
-        <v>-127.30689448094499</v>
+        <v>-85.798484852085664</v>
       </c>
       <c r="AQ14" s="11" cm="1">
         <f t="array" ref="AQ14">INDEX(W_psid!$B$2:$CZ$104,W_!$A14,W_!AQ$1)/Ns!$B$1</f>
-        <v>56.944049785409128</v>
+        <v>-28.56495763867628</v>
       </c>
       <c r="AR14" s="11" cm="1">
         <f t="array" ref="AR14">INDEX(W_psid!$B$2:$CZ$104,W_!$A14,W_!AR$1)/Ns!$B$1</f>
@@ -51488,7 +51488,7 @@
       </c>
       <c r="AS14" s="11" cm="1">
         <f t="array" ref="AS14">INDEX(W_psid!$B$2:$CZ$104,W_!$A14,W_!AS$1)/Ns!$B$1</f>
-        <v>-85.798484852085664</v>
+        <v>-4.1857470741297607E-2</v>
       </c>
       <c r="AT14" s="11" cm="1">
         <f t="array" ref="AT14">INDEX(W_psid!$B$2:$CZ$104,W_!$A14,W_!AT$1)/Ns!$B$1</f>
@@ -51674,31 +51674,31 @@
       </c>
       <c r="AK15" s="11" cm="1">
         <f t="array" ref="AK15">INDEX(W_psid!$B$2:$CZ$104,W_!$A15,W_!AK$1)/Ns!$B$1</f>
-        <v>-127.6787808320332</v>
+        <v>-41.319673908751653</v>
       </c>
       <c r="AL15" s="11" cm="1">
         <f t="array" ref="AL15">INDEX(W_psid!$B$2:$CZ$104,W_!$A15,W_!AL$1)/Ns!$B$1</f>
-        <v>1.0508109622717591E-2</v>
+        <v>244.32375218413293</v>
       </c>
       <c r="AM15" s="11" cm="1">
         <f t="array" ref="AM15">INDEX(W_psid!$B$2:$CZ$104,W_!$A15,W_!AM$1)/Ns!$B$1</f>
-        <v>-41.319673908751653</v>
+        <v>0.38799229499173682</v>
       </c>
       <c r="AN15" s="11" cm="1">
         <f t="array" ref="AN15">INDEX(W_psid!$B$2:$CZ$104,W_!$A15,W_!AN$1)/Ns!$B$1</f>
-        <v>0.38799229499173682</v>
+        <v>-8.5897121169078439E-3</v>
       </c>
       <c r="AO15" s="11" cm="1">
         <f t="array" ref="AO15">INDEX(W_psid!$B$2:$CZ$104,W_!$A15,W_!AO$1)/Ns!$B$1</f>
-        <v>-8.5897121169078439E-3</v>
+        <v>47.318447388726391</v>
       </c>
       <c r="AP15" s="11" cm="1">
         <f t="array" ref="AP15">INDEX(W_psid!$B$2:$CZ$104,W_!$A15,W_!AP$1)/Ns!$B$1</f>
-        <v>47.318447388726391</v>
+        <v>22.842204499889338</v>
       </c>
       <c r="AQ15" s="11" cm="1">
         <f t="array" ref="AQ15">INDEX(W_psid!$B$2:$CZ$104,W_!$A15,W_!AQ$1)/Ns!$B$1</f>
-        <v>244.32375218413293</v>
+        <v>-127.6787808320332</v>
       </c>
       <c r="AR15" s="11" cm="1">
         <f t="array" ref="AR15">INDEX(W_psid!$B$2:$CZ$104,W_!$A15,W_!AR$1)/Ns!$B$1</f>
@@ -51706,7 +51706,7 @@
       </c>
       <c r="AS15" s="11" cm="1">
         <f t="array" ref="AS15">INDEX(W_psid!$B$2:$CZ$104,W_!$A15,W_!AS$1)/Ns!$B$1</f>
-        <v>22.842204499889338</v>
+        <v>1.0508109622717591E-2</v>
       </c>
       <c r="AT15" s="11" cm="1">
         <f t="array" ref="AT15">INDEX(W_psid!$B$2:$CZ$104,W_!$A15,W_!AT$1)/Ns!$B$1</f>
@@ -51892,31 +51892,31 @@
       </c>
       <c r="AK16" s="11" cm="1">
         <f t="array" ref="AK16">INDEX(W_psid!$B$2:$CZ$104,W_!$A16,W_!AK$1)/Ns!$B$1</f>
-        <v>-17.99329815882259</v>
+        <v>-55.979393464340006</v>
       </c>
       <c r="AL16" s="11" cm="1">
         <f t="array" ref="AL16">INDEX(W_psid!$B$2:$CZ$104,W_!$A16,W_!AL$1)/Ns!$B$1</f>
-        <v>-1.4051065633767172E-2</v>
+        <v>32.660241823637065</v>
       </c>
       <c r="AM16" s="11" cm="1">
         <f t="array" ref="AM16">INDEX(W_psid!$B$2:$CZ$104,W_!$A16,W_!AM$1)/Ns!$B$1</f>
-        <v>-55.979393464340006</v>
+        <v>1.1002301673230266</v>
       </c>
       <c r="AN16" s="11" cm="1">
         <f t="array" ref="AN16">INDEX(W_psid!$B$2:$CZ$104,W_!$A16,W_!AN$1)/Ns!$B$1</f>
-        <v>1.1002301673230266</v>
+        <v>5.7631335286267545E-3</v>
       </c>
       <c r="AO16" s="11" cm="1">
         <f t="array" ref="AO16">INDEX(W_psid!$B$2:$CZ$104,W_!$A16,W_!AO$1)/Ns!$B$1</f>
-        <v>5.7631335286267545E-3</v>
+        <v>19.353760087100774</v>
       </c>
       <c r="AP16" s="11" cm="1">
         <f t="array" ref="AP16">INDEX(W_psid!$B$2:$CZ$104,W_!$A16,W_!AP$1)/Ns!$B$1</f>
-        <v>19.353760087100774</v>
+        <v>29.157646656918001</v>
       </c>
       <c r="AQ16" s="11" cm="1">
         <f t="array" ref="AQ16">INDEX(W_psid!$B$2:$CZ$104,W_!$A16,W_!AQ$1)/Ns!$B$1</f>
-        <v>32.660241823637065</v>
+        <v>-17.99329815882259</v>
       </c>
       <c r="AR16" s="11" cm="1">
         <f t="array" ref="AR16">INDEX(W_psid!$B$2:$CZ$104,W_!$A16,W_!AR$1)/Ns!$B$1</f>
@@ -51924,7 +51924,7 @@
       </c>
       <c r="AS16" s="11" cm="1">
         <f t="array" ref="AS16">INDEX(W_psid!$B$2:$CZ$104,W_!$A16,W_!AS$1)/Ns!$B$1</f>
-        <v>29.157646656918001</v>
+        <v>-1.4051065633767172E-2</v>
       </c>
       <c r="AT16" s="11" cm="1">
         <f t="array" ref="AT16">INDEX(W_psid!$B$2:$CZ$104,W_!$A16,W_!AT$1)/Ns!$B$1</f>
@@ -52110,31 +52110,31 @@
       </c>
       <c r="AK17" s="11" cm="1">
         <f t="array" ref="AK17">INDEX(W_psid!$B$2:$CZ$104,W_!$A17,W_!AK$1)/Ns!$B$1</f>
-        <v>73.57291854687702</v>
+        <v>618.86855848909056</v>
       </c>
       <c r="AL17" s="11" cm="1">
         <f t="array" ref="AL17">INDEX(W_psid!$B$2:$CZ$104,W_!$A17,W_!AL$1)/Ns!$B$1</f>
-        <v>0.10663089471080375</v>
+        <v>-135.16141070911945</v>
       </c>
       <c r="AM17" s="11" cm="1">
         <f t="array" ref="AM17">INDEX(W_psid!$B$2:$CZ$104,W_!$A17,W_!AM$1)/Ns!$B$1</f>
-        <v>618.86855848909056</v>
+        <v>4.5175585140474883</v>
       </c>
       <c r="AN17" s="11" cm="1">
         <f t="array" ref="AN17">INDEX(W_psid!$B$2:$CZ$104,W_!$A17,W_!AN$1)/Ns!$B$1</f>
-        <v>4.5175585140474883</v>
+        <v>-6.3969472355909149E-2</v>
       </c>
       <c r="AO17" s="11" cm="1">
         <f t="array" ref="AO17">INDEX(W_psid!$B$2:$CZ$104,W_!$A17,W_!AO$1)/Ns!$B$1</f>
-        <v>-6.3969472355909149E-2</v>
+        <v>-237.50830716427268</v>
       </c>
       <c r="AP17" s="11" cm="1">
         <f t="array" ref="AP17">INDEX(W_psid!$B$2:$CZ$104,W_!$A17,W_!AP$1)/Ns!$B$1</f>
-        <v>-237.50830716427268</v>
+        <v>-321.98489640810499</v>
       </c>
       <c r="AQ17" s="11" cm="1">
         <f t="array" ref="AQ17">INDEX(W_psid!$B$2:$CZ$104,W_!$A17,W_!AQ$1)/Ns!$B$1</f>
-        <v>-135.16141070911945</v>
+        <v>73.57291854687702</v>
       </c>
       <c r="AR17" s="11" cm="1">
         <f t="array" ref="AR17">INDEX(W_psid!$B$2:$CZ$104,W_!$A17,W_!AR$1)/Ns!$B$1</f>
@@ -52142,7 +52142,7 @@
       </c>
       <c r="AS17" s="11" cm="1">
         <f t="array" ref="AS17">INDEX(W_psid!$B$2:$CZ$104,W_!$A17,W_!AS$1)/Ns!$B$1</f>
-        <v>-321.98489640810499</v>
+        <v>0.10663089471080375</v>
       </c>
       <c r="AT17" s="11" cm="1">
         <f t="array" ref="AT17">INDEX(W_psid!$B$2:$CZ$104,W_!$A17,W_!AT$1)/Ns!$B$1</f>
@@ -52328,31 +52328,31 @@
       </c>
       <c r="AK18" s="11" cm="1">
         <f t="array" ref="AK18">INDEX(W_psid!$B$2:$CZ$104,W_!$A18,W_!AK$1)/Ns!$B$1</f>
-        <v>-60.996895257536984</v>
+        <v>-442.87888427876425</v>
       </c>
       <c r="AL18" s="11" cm="1">
         <f t="array" ref="AL18">INDEX(W_psid!$B$2:$CZ$104,W_!$A18,W_!AL$1)/Ns!$B$1</f>
-        <v>-4.9997029054094921E-2</v>
+        <v>111.69107446858089</v>
       </c>
       <c r="AM18" s="11" cm="1">
         <f t="array" ref="AM18">INDEX(W_psid!$B$2:$CZ$104,W_!$A18,W_!AM$1)/Ns!$B$1</f>
-        <v>-442.87888427876425</v>
+        <v>-2.6231601184424873</v>
       </c>
       <c r="AN18" s="11" cm="1">
         <f t="array" ref="AN18">INDEX(W_psid!$B$2:$CZ$104,W_!$A18,W_!AN$1)/Ns!$B$1</f>
-        <v>-2.6231601184424873</v>
+        <v>3.1852628068217689E-2</v>
       </c>
       <c r="AO18" s="11" cm="1">
         <f t="array" ref="AO18">INDEX(W_psid!$B$2:$CZ$104,W_!$A18,W_!AO$1)/Ns!$B$1</f>
-        <v>3.1852628068217689E-2</v>
+        <v>185.05865498720934</v>
       </c>
       <c r="AP18" s="11" cm="1">
         <f t="array" ref="AP18">INDEX(W_psid!$B$2:$CZ$104,W_!$A18,W_!AP$1)/Ns!$B$1</f>
-        <v>185.05865498720934</v>
+        <v>231.9574135656662</v>
       </c>
       <c r="AQ18" s="11" cm="1">
         <f t="array" ref="AQ18">INDEX(W_psid!$B$2:$CZ$104,W_!$A18,W_!AQ$1)/Ns!$B$1</f>
-        <v>111.69107446858089</v>
+        <v>-60.996895257536984</v>
       </c>
       <c r="AR18" s="11" cm="1">
         <f t="array" ref="AR18">INDEX(W_psid!$B$2:$CZ$104,W_!$A18,W_!AR$1)/Ns!$B$1</f>
@@ -52360,7 +52360,7 @@
       </c>
       <c r="AS18" s="11" cm="1">
         <f t="array" ref="AS18">INDEX(W_psid!$B$2:$CZ$104,W_!$A18,W_!AS$1)/Ns!$B$1</f>
-        <v>231.9574135656662</v>
+        <v>-4.9997029054094921E-2</v>
       </c>
       <c r="AT18" s="11" cm="1">
         <f t="array" ref="AT18">INDEX(W_psid!$B$2:$CZ$104,W_!$A18,W_!AT$1)/Ns!$B$1</f>
@@ -52546,31 +52546,31 @@
       </c>
       <c r="AK19" s="11" cm="1">
         <f t="array" ref="AK19">INDEX(W_psid!$B$2:$CZ$104,W_!$A19,W_!AK$1)/Ns!$B$1</f>
-        <v>-5.4563297311719099E-2</v>
+        <v>-0.25285864456974494</v>
       </c>
       <c r="AL19" s="11" cm="1">
         <f t="array" ref="AL19">INDEX(W_psid!$B$2:$CZ$104,W_!$A19,W_!AL$1)/Ns!$B$1</f>
-        <v>3.2006766873150301E-6</v>
+        <v>0.10208107729419125</v>
       </c>
       <c r="AM19" s="11" cm="1">
         <f t="array" ref="AM19">INDEX(W_psid!$B$2:$CZ$104,W_!$A19,W_!AM$1)/Ns!$B$1</f>
-        <v>-0.25285864456974494</v>
+        <v>-9.4435501589965683E-4</v>
       </c>
       <c r="AN19" s="11" cm="1">
         <f t="array" ref="AN19">INDEX(W_psid!$B$2:$CZ$104,W_!$A19,W_!AN$1)/Ns!$B$1</f>
-        <v>-9.4435501589965683E-4</v>
+        <v>2.4340681023366604E-5</v>
       </c>
       <c r="AO19" s="11" cm="1">
         <f t="array" ref="AO19">INDEX(W_psid!$B$2:$CZ$104,W_!$A19,W_!AO$1)/Ns!$B$1</f>
-        <v>2.4340681023366604E-5</v>
+        <v>0.10437517669090268</v>
       </c>
       <c r="AP19" s="11" cm="1">
         <f t="array" ref="AP19">INDEX(W_psid!$B$2:$CZ$104,W_!$A19,W_!AP$1)/Ns!$B$1</f>
-        <v>0.10437517669090268</v>
+        <v>0.13213700223965485</v>
       </c>
       <c r="AQ19" s="11" cm="1">
         <f t="array" ref="AQ19">INDEX(W_psid!$B$2:$CZ$104,W_!$A19,W_!AQ$1)/Ns!$B$1</f>
-        <v>0.10208107729419125</v>
+        <v>-5.4563297311719099E-2</v>
       </c>
       <c r="AR19" s="11" cm="1">
         <f t="array" ref="AR19">INDEX(W_psid!$B$2:$CZ$104,W_!$A19,W_!AR$1)/Ns!$B$1</f>
@@ -52578,7 +52578,7 @@
       </c>
       <c r="AS19" s="11" cm="1">
         <f t="array" ref="AS19">INDEX(W_psid!$B$2:$CZ$104,W_!$A19,W_!AS$1)/Ns!$B$1</f>
-        <v>0.13213700223965485</v>
+        <v>3.2006766873150301E-6</v>
       </c>
       <c r="AT19" s="11" cm="1">
         <f t="array" ref="AT19">INDEX(W_psid!$B$2:$CZ$104,W_!$A19,W_!AT$1)/Ns!$B$1</f>
@@ -52764,31 +52764,31 @@
       </c>
       <c r="AK20" s="11" cm="1">
         <f t="array" ref="AK20">INDEX(W_psid!$B$2:$CZ$104,W_!$A20,W_!AK$1)/Ns!$B$1</f>
-        <v>3.0809364778536003E-3</v>
+        <v>3.8684573372032731E-2</v>
       </c>
       <c r="AL20" s="11" cm="1">
         <f t="array" ref="AL20">INDEX(W_psid!$B$2:$CZ$104,W_!$A20,W_!AL$1)/Ns!$B$1</f>
-        <v>-2.6887122730866516E-6</v>
+        <v>-5.5171637329746682E-3</v>
       </c>
       <c r="AM20" s="11" cm="1">
         <f t="array" ref="AM20">INDEX(W_psid!$B$2:$CZ$104,W_!$A20,W_!AM$1)/Ns!$B$1</f>
-        <v>3.8684573372032731E-2</v>
+        <v>5.5397241856254358E-4</v>
       </c>
       <c r="AN20" s="11" cm="1">
         <f t="array" ref="AN20">INDEX(W_psid!$B$2:$CZ$104,W_!$A20,W_!AN$1)/Ns!$B$1</f>
-        <v>5.5397241856254358E-4</v>
+        <v>-1.2729948790884534E-7</v>
       </c>
       <c r="AO20" s="11" cm="1">
         <f t="array" ref="AO20">INDEX(W_psid!$B$2:$CZ$104,W_!$A20,W_!AO$1)/Ns!$B$1</f>
-        <v>-1.2729948790884534E-7</v>
+        <v>-1.8267802053376324E-2</v>
       </c>
       <c r="AP20" s="11" cm="1">
         <f t="array" ref="AP20">INDEX(W_psid!$B$2:$CZ$104,W_!$A20,W_!AP$1)/Ns!$B$1</f>
-        <v>-1.8267802053376324E-2</v>
+        <v>-2.0539758970679542E-2</v>
       </c>
       <c r="AQ20" s="11" cm="1">
         <f t="array" ref="AQ20">INDEX(W_psid!$B$2:$CZ$104,W_!$A20,W_!AQ$1)/Ns!$B$1</f>
-        <v>-5.5171637329746682E-3</v>
+        <v>3.0809364778536003E-3</v>
       </c>
       <c r="AR20" s="11" cm="1">
         <f t="array" ref="AR20">INDEX(W_psid!$B$2:$CZ$104,W_!$A20,W_!AR$1)/Ns!$B$1</f>
@@ -52796,7 +52796,7 @@
       </c>
       <c r="AS20" s="11" cm="1">
         <f t="array" ref="AS20">INDEX(W_psid!$B$2:$CZ$104,W_!$A20,W_!AS$1)/Ns!$B$1</f>
-        <v>-2.0539758970679542E-2</v>
+        <v>-2.6887122730866516E-6</v>
       </c>
       <c r="AT20" s="11" cm="1">
         <f t="array" ref="AT20">INDEX(W_psid!$B$2:$CZ$104,W_!$A20,W_!AT$1)/Ns!$B$1</f>
@@ -52982,31 +52982,31 @@
       </c>
       <c r="AK21" s="11" cm="1">
         <f t="array" ref="AK21">INDEX(W_psid!$B$2:$CZ$104,W_!$A21,W_!AK$1)/Ns!$B$1</f>
-        <v>-0.10173489646599192</v>
+        <v>-0.46450567826741906</v>
       </c>
       <c r="AL21" s="11" cm="1">
         <f t="array" ref="AL21">INDEX(W_psid!$B$2:$CZ$104,W_!$A21,W_!AL$1)/Ns!$B$1</f>
-        <v>-1.0401453563577732E-4</v>
+        <v>0.18951225051763973</v>
       </c>
       <c r="AM21" s="11" cm="1">
         <f t="array" ref="AM21">INDEX(W_psid!$B$2:$CZ$104,W_!$A21,W_!AM$1)/Ns!$B$1</f>
-        <v>-0.46450567826741906</v>
+        <v>-1.9244109516631141E-3</v>
       </c>
       <c r="AN21" s="11" cm="1">
         <f t="array" ref="AN21">INDEX(W_psid!$B$2:$CZ$104,W_!$A21,W_!AN$1)/Ns!$B$1</f>
-        <v>-1.9244109516631141E-3</v>
+        <v>3.1551707341881102E-5</v>
       </c>
       <c r="AO21" s="11" cm="1">
         <f t="array" ref="AO21">INDEX(W_psid!$B$2:$CZ$104,W_!$A21,W_!AO$1)/Ns!$B$1</f>
-        <v>3.1551707341881102E-5</v>
+        <v>0.21046642828631834</v>
       </c>
       <c r="AP21" s="11" cm="1">
         <f t="array" ref="AP21">INDEX(W_psid!$B$2:$CZ$104,W_!$A21,W_!AP$1)/Ns!$B$1</f>
-        <v>0.21046642828631834</v>
+        <v>0.24125562249911386</v>
       </c>
       <c r="AQ21" s="11" cm="1">
         <f t="array" ref="AQ21">INDEX(W_psid!$B$2:$CZ$104,W_!$A21,W_!AQ$1)/Ns!$B$1</f>
-        <v>0.18951225051763973</v>
+        <v>-0.10173489646599192</v>
       </c>
       <c r="AR21" s="11" cm="1">
         <f t="array" ref="AR21">INDEX(W_psid!$B$2:$CZ$104,W_!$A21,W_!AR$1)/Ns!$B$1</f>
@@ -53014,7 +53014,7 @@
       </c>
       <c r="AS21" s="11" cm="1">
         <f t="array" ref="AS21">INDEX(W_psid!$B$2:$CZ$104,W_!$A21,W_!AS$1)/Ns!$B$1</f>
-        <v>0.24125562249911386</v>
+        <v>-1.0401453563577732E-4</v>
       </c>
       <c r="AT21" s="11" cm="1">
         <f t="array" ref="AT21">INDEX(W_psid!$B$2:$CZ$104,W_!$A21,W_!AT$1)/Ns!$B$1</f>
@@ -53200,31 +53200,31 @@
       </c>
       <c r="AK22" s="11" cm="1">
         <f t="array" ref="AK22">INDEX(W_psid!$B$2:$CZ$104,W_!$A22,W_!AK$1)/Ns!$B$1</f>
-        <v>3.9039584534518803</v>
+        <v>31.954326148909761</v>
       </c>
       <c r="AL22" s="11" cm="1">
         <f t="array" ref="AL22">INDEX(W_psid!$B$2:$CZ$104,W_!$A22,W_!AL$1)/Ns!$B$1</f>
-        <v>2.3109967081836125E-3</v>
+        <v>-7.11667722226594</v>
       </c>
       <c r="AM22" s="11" cm="1">
         <f t="array" ref="AM22">INDEX(W_psid!$B$2:$CZ$104,W_!$A22,W_!AM$1)/Ns!$B$1</f>
-        <v>31.954326148909761</v>
+        <v>0.20047972880030041</v>
       </c>
       <c r="AN22" s="11" cm="1">
         <f t="array" ref="AN22">INDEX(W_psid!$B$2:$CZ$104,W_!$A22,W_!AN$1)/Ns!$B$1</f>
-        <v>0.20047972880030041</v>
+        <v>-2.4450118687629483E-3</v>
       </c>
       <c r="AO22" s="11" cm="1">
         <f t="array" ref="AO22">INDEX(W_psid!$B$2:$CZ$104,W_!$A22,W_!AO$1)/Ns!$B$1</f>
-        <v>-2.4450118687629483E-3</v>
+        <v>-13.484943281713829</v>
       </c>
       <c r="AP22" s="11" cm="1">
         <f t="array" ref="AP22">INDEX(W_psid!$B$2:$CZ$104,W_!$A22,W_!AP$1)/Ns!$B$1</f>
-        <v>-13.484943281713829</v>
+        <v>-16.785713626538868</v>
       </c>
       <c r="AQ22" s="11" cm="1">
         <f t="array" ref="AQ22">INDEX(W_psid!$B$2:$CZ$104,W_!$A22,W_!AQ$1)/Ns!$B$1</f>
-        <v>-7.11667722226594</v>
+        <v>3.9039584534518803</v>
       </c>
       <c r="AR22" s="11" cm="1">
         <f t="array" ref="AR22">INDEX(W_psid!$B$2:$CZ$104,W_!$A22,W_!AR$1)/Ns!$B$1</f>
@@ -53232,7 +53232,7 @@
       </c>
       <c r="AS22" s="11" cm="1">
         <f t="array" ref="AS22">INDEX(W_psid!$B$2:$CZ$104,W_!$A22,W_!AS$1)/Ns!$B$1</f>
-        <v>-16.785713626538868</v>
+        <v>2.3109967081836125E-3</v>
       </c>
       <c r="AT22" s="11" cm="1">
         <f t="array" ref="AT22">INDEX(W_psid!$B$2:$CZ$104,W_!$A22,W_!AT$1)/Ns!$B$1</f>
@@ -53418,31 +53418,31 @@
       </c>
       <c r="AK23" s="11" cm="1">
         <f t="array" ref="AK23">INDEX(W_psid!$B$2:$CZ$104,W_!$A23,W_!AK$1)/Ns!$B$1</f>
-        <v>3.8913106117669463</v>
+        <v>30.838536569420821</v>
       </c>
       <c r="AL23" s="11" cm="1">
         <f t="array" ref="AL23">INDEX(W_psid!$B$2:$CZ$104,W_!$A23,W_!AL$1)/Ns!$B$1</f>
-        <v>2.1620910093765934E-3</v>
+        <v>-7.1041050620678545</v>
       </c>
       <c r="AM23" s="11" cm="1">
         <f t="array" ref="AM23">INDEX(W_psid!$B$2:$CZ$104,W_!$A23,W_!AM$1)/Ns!$B$1</f>
-        <v>30.838536569420821</v>
+        <v>0.19953378365896102</v>
       </c>
       <c r="AN23" s="11" cm="1">
         <f t="array" ref="AN23">INDEX(W_psid!$B$2:$CZ$104,W_!$A23,W_!AN$1)/Ns!$B$1</f>
-        <v>0.19953378365896102</v>
+        <v>-2.343658731886621E-3</v>
       </c>
       <c r="AO23" s="11" cm="1">
         <f t="array" ref="AO23">INDEX(W_psid!$B$2:$CZ$104,W_!$A23,W_!AO$1)/Ns!$B$1</f>
-        <v>-2.343658731886621E-3</v>
+        <v>-13.141992555052447</v>
       </c>
       <c r="AP23" s="11" cm="1">
         <f t="array" ref="AP23">INDEX(W_psid!$B$2:$CZ$104,W_!$A23,W_!AP$1)/Ns!$B$1</f>
-        <v>-13.141992555052447</v>
+        <v>-16.209322582133147</v>
       </c>
       <c r="AQ23" s="11" cm="1">
         <f t="array" ref="AQ23">INDEX(W_psid!$B$2:$CZ$104,W_!$A23,W_!AQ$1)/Ns!$B$1</f>
-        <v>-7.1041050620678545</v>
+        <v>3.8913106117669463</v>
       </c>
       <c r="AR23" s="11" cm="1">
         <f t="array" ref="AR23">INDEX(W_psid!$B$2:$CZ$104,W_!$A23,W_!AR$1)/Ns!$B$1</f>
@@ -53450,7 +53450,7 @@
       </c>
       <c r="AS23" s="11" cm="1">
         <f t="array" ref="AS23">INDEX(W_psid!$B$2:$CZ$104,W_!$A23,W_!AS$1)/Ns!$B$1</f>
-        <v>-16.209322582133147</v>
+        <v>2.1620910093765934E-3</v>
       </c>
       <c r="AT23" s="11" cm="1">
         <f t="array" ref="AT23">INDEX(W_psid!$B$2:$CZ$104,W_!$A23,W_!AT$1)/Ns!$B$1</f>
@@ -53636,31 +53636,31 @@
       </c>
       <c r="AK24" s="11" cm="1">
         <f t="array" ref="AK24">INDEX(W_psid!$B$2:$CZ$104,W_!$A24,W_!AK$1)/Ns!$B$1</f>
-        <v>1.8997221387395582</v>
+        <v>25.550388158062624</v>
       </c>
       <c r="AL24" s="11" cm="1">
         <f t="array" ref="AL24">INDEX(W_psid!$B$2:$CZ$104,W_!$A24,W_!AL$1)/Ns!$B$1</f>
-        <v>2.5648873556789291E-3</v>
+        <v>-3.2332641640179514</v>
       </c>
       <c r="AM24" s="11" cm="1">
         <f t="array" ref="AM24">INDEX(W_psid!$B$2:$CZ$104,W_!$A24,W_!AM$1)/Ns!$B$1</f>
-        <v>25.550388158062624</v>
+        <v>0.12003669485915777</v>
       </c>
       <c r="AN24" s="11" cm="1">
         <f t="array" ref="AN24">INDEX(W_psid!$B$2:$CZ$104,W_!$A24,W_!AN$1)/Ns!$B$1</f>
-        <v>0.12003669485915777</v>
+        <v>-1.5332110527078808E-3</v>
       </c>
       <c r="AO24" s="11" cm="1">
         <f t="array" ref="AO24">INDEX(W_psid!$B$2:$CZ$104,W_!$A24,W_!AO$1)/Ns!$B$1</f>
-        <v>-1.5332110527078808E-3</v>
+        <v>-11.859582957536279</v>
       </c>
       <c r="AP24" s="11" cm="1">
         <f t="array" ref="AP24">INDEX(W_psid!$B$2:$CZ$104,W_!$A24,W_!AP$1)/Ns!$B$1</f>
-        <v>-11.859582957536279</v>
+        <v>-13.513371377783773</v>
       </c>
       <c r="AQ24" s="11" cm="1">
         <f t="array" ref="AQ24">INDEX(W_psid!$B$2:$CZ$104,W_!$A24,W_!AQ$1)/Ns!$B$1</f>
-        <v>-3.2332641640179514</v>
+        <v>1.8997221387395582</v>
       </c>
       <c r="AR24" s="11" cm="1">
         <f t="array" ref="AR24">INDEX(W_psid!$B$2:$CZ$104,W_!$A24,W_!AR$1)/Ns!$B$1</f>
@@ -53668,7 +53668,7 @@
       </c>
       <c r="AS24" s="11" cm="1">
         <f t="array" ref="AS24">INDEX(W_psid!$B$2:$CZ$104,W_!$A24,W_!AS$1)/Ns!$B$1</f>
-        <v>-13.513371377783773</v>
+        <v>2.5648873556789291E-3</v>
       </c>
       <c r="AT24" s="11" cm="1">
         <f t="array" ref="AT24">INDEX(W_psid!$B$2:$CZ$104,W_!$A24,W_!AT$1)/Ns!$B$1</f>
@@ -53854,31 +53854,31 @@
       </c>
       <c r="AK25" s="11" cm="1">
         <f t="array" ref="AK25">INDEX(W_psid!$B$2:$CZ$104,W_!$A25,W_!AK$1)/Ns!$B$1</f>
-        <v>0.99824818716135155</v>
+        <v>20.757148071253333</v>
       </c>
       <c r="AL25" s="11" cm="1">
         <f t="array" ref="AL25">INDEX(W_psid!$B$2:$CZ$104,W_!$A25,W_!AL$1)/Ns!$B$1</f>
-        <v>2.6092686341621651E-3</v>
+        <v>-1.5318702972673734</v>
       </c>
       <c r="AM25" s="11" cm="1">
         <f t="array" ref="AM25">INDEX(W_psid!$B$2:$CZ$104,W_!$A25,W_!AM$1)/Ns!$B$1</f>
-        <v>20.757148071253333</v>
+        <v>9.6056304227641262E-2</v>
       </c>
       <c r="AN25" s="11" cm="1">
         <f t="array" ref="AN25">INDEX(W_psid!$B$2:$CZ$104,W_!$A25,W_!AN$1)/Ns!$B$1</f>
-        <v>9.6056304227641262E-2</v>
+        <v>-1.2625249943064121E-3</v>
       </c>
       <c r="AO25" s="11" cm="1">
         <f t="array" ref="AO25">INDEX(W_psid!$B$2:$CZ$104,W_!$A25,W_!AO$1)/Ns!$B$1</f>
-        <v>-1.2625249943064121E-3</v>
+        <v>-9.5880001243205211</v>
       </c>
       <c r="AP25" s="11" cm="1">
         <f t="array" ref="AP25">INDEX(W_psid!$B$2:$CZ$104,W_!$A25,W_!AP$1)/Ns!$B$1</f>
-        <v>-9.5880001243205211</v>
+        <v>-10.994556597855578</v>
       </c>
       <c r="AQ25" s="11" cm="1">
         <f t="array" ref="AQ25">INDEX(W_psid!$B$2:$CZ$104,W_!$A25,W_!AQ$1)/Ns!$B$1</f>
-        <v>-1.5318702972673734</v>
+        <v>0.99824818716135155</v>
       </c>
       <c r="AR25" s="11" cm="1">
         <f t="array" ref="AR25">INDEX(W_psid!$B$2:$CZ$104,W_!$A25,W_!AR$1)/Ns!$B$1</f>
@@ -53886,7 +53886,7 @@
       </c>
       <c r="AS25" s="11" cm="1">
         <f t="array" ref="AS25">INDEX(W_psid!$B$2:$CZ$104,W_!$A25,W_!AS$1)/Ns!$B$1</f>
-        <v>-10.994556597855578</v>
+        <v>2.6092686341621651E-3</v>
       </c>
       <c r="AT25" s="11" cm="1">
         <f t="array" ref="AT25">INDEX(W_psid!$B$2:$CZ$104,W_!$A25,W_!AT$1)/Ns!$B$1</f>
@@ -54072,31 +54072,31 @@
       </c>
       <c r="AK26" s="11" cm="1">
         <f t="array" ref="AK26">INDEX(W_psid!$B$2:$CZ$104,W_!$A26,W_!AK$1)/Ns!$B$1</f>
-        <v>1.6728524669573277</v>
+        <v>22.945580633730248</v>
       </c>
       <c r="AL26" s="11" cm="1">
         <f t="array" ref="AL26">INDEX(W_psid!$B$2:$CZ$104,W_!$A26,W_!AL$1)/Ns!$B$1</f>
-        <v>2.7127073347101688E-3</v>
+        <v>-2.808917534511115</v>
       </c>
       <c r="AM26" s="11" cm="1">
         <f t="array" ref="AM26">INDEX(W_psid!$B$2:$CZ$104,W_!$A26,W_!AM$1)/Ns!$B$1</f>
-        <v>22.945580633730248</v>
+        <v>0.10799655895447798</v>
       </c>
       <c r="AN26" s="11" cm="1">
         <f t="array" ref="AN26">INDEX(W_psid!$B$2:$CZ$104,W_!$A26,W_!AN$1)/Ns!$B$1</f>
-        <v>0.10799655895447798</v>
+        <v>-1.3065059825837823E-3</v>
       </c>
       <c r="AO26" s="11" cm="1">
         <f t="array" ref="AO26">INDEX(W_psid!$B$2:$CZ$104,W_!$A26,W_!AO$1)/Ns!$B$1</f>
-        <v>-1.3065059825837823E-3</v>
+        <v>-10.90763469183673</v>
       </c>
       <c r="AP26" s="11" cm="1">
         <f t="array" ref="AP26">INDEX(W_psid!$B$2:$CZ$104,W_!$A26,W_!AP$1)/Ns!$B$1</f>
-        <v>-10.90763469183673</v>
+        <v>-12.140073074367637</v>
       </c>
       <c r="AQ26" s="11" cm="1">
         <f t="array" ref="AQ26">INDEX(W_psid!$B$2:$CZ$104,W_!$A26,W_!AQ$1)/Ns!$B$1</f>
-        <v>-2.808917534511115</v>
+        <v>1.6728524669573277</v>
       </c>
       <c r="AR26" s="11" cm="1">
         <f t="array" ref="AR26">INDEX(W_psid!$B$2:$CZ$104,W_!$A26,W_!AR$1)/Ns!$B$1</f>
@@ -54104,7 +54104,7 @@
       </c>
       <c r="AS26" s="11" cm="1">
         <f t="array" ref="AS26">INDEX(W_psid!$B$2:$CZ$104,W_!$A26,W_!AS$1)/Ns!$B$1</f>
-        <v>-12.140073074367637</v>
+        <v>2.7127073347101688E-3</v>
       </c>
       <c r="AT26" s="11" cm="1">
         <f t="array" ref="AT26">INDEX(W_psid!$B$2:$CZ$104,W_!$A26,W_!AT$1)/Ns!$B$1</f>
@@ -54290,31 +54290,31 @@
       </c>
       <c r="AK27" s="11" cm="1">
         <f t="array" ref="AK27">INDEX(W_psid!$B$2:$CZ$104,W_!$A27,W_!AK$1)/Ns!$B$1</f>
-        <v>-0.56100057310974805</v>
+        <v>-4.2172971338089003</v>
       </c>
       <c r="AL27" s="11" cm="1">
         <f t="array" ref="AL27">INDEX(W_psid!$B$2:$CZ$104,W_!$A27,W_!AL$1)/Ns!$B$1</f>
-        <v>9.6233578370306396E-4</v>
+        <v>1.1500228045069241</v>
       </c>
       <c r="AM27" s="11" cm="1">
         <f t="array" ref="AM27">INDEX(W_psid!$B$2:$CZ$104,W_!$A27,W_!AM$1)/Ns!$B$1</f>
-        <v>-4.2172971338089003</v>
+        <v>-1.5487037140036337E-2</v>
       </c>
       <c r="AN27" s="11" cm="1">
         <f t="array" ref="AN27">INDEX(W_psid!$B$2:$CZ$104,W_!$A27,W_!AN$1)/Ns!$B$1</f>
-        <v>-1.5487037140036337E-2</v>
+        <v>4.5507485402445074E-4</v>
       </c>
       <c r="AO27" s="11" cm="1">
         <f t="array" ref="AO27">INDEX(W_psid!$B$2:$CZ$104,W_!$A27,W_!AO$1)/Ns!$B$1</f>
-        <v>4.5507485402445074E-4</v>
+        <v>0.49848691394424954</v>
       </c>
       <c r="AP27" s="11" cm="1">
         <f t="array" ref="AP27">INDEX(W_psid!$B$2:$CZ$104,W_!$A27,W_!AP$1)/Ns!$B$1</f>
-        <v>0.49848691394424954</v>
+        <v>2.1960692258187531</v>
       </c>
       <c r="AQ27" s="11" cm="1">
         <f t="array" ref="AQ27">INDEX(W_psid!$B$2:$CZ$104,W_!$A27,W_!AQ$1)/Ns!$B$1</f>
-        <v>1.1500228045069241</v>
+        <v>-0.56100057310974805</v>
       </c>
       <c r="AR27" s="11" cm="1">
         <f t="array" ref="AR27">INDEX(W_psid!$B$2:$CZ$104,W_!$A27,W_!AR$1)/Ns!$B$1</f>
@@ -54322,7 +54322,7 @@
       </c>
       <c r="AS27" s="11" cm="1">
         <f t="array" ref="AS27">INDEX(W_psid!$B$2:$CZ$104,W_!$A27,W_!AS$1)/Ns!$B$1</f>
-        <v>2.1960692258187531</v>
+        <v>9.6233578370306396E-4</v>
       </c>
       <c r="AT27" s="11" cm="1">
         <f t="array" ref="AT27">INDEX(W_psid!$B$2:$CZ$104,W_!$A27,W_!AT$1)/Ns!$B$1</f>
@@ -54508,31 +54508,31 @@
       </c>
       <c r="AK28" s="11" cm="1">
         <f t="array" ref="AK28">INDEX(W_psid!$B$2:$CZ$104,W_!$A28,W_!AK$1)/Ns!$B$1</f>
-        <v>6.4699636306792697E-3</v>
+        <v>0.3085684867619054</v>
       </c>
       <c r="AL28" s="11" cm="1">
         <f t="array" ref="AL28">INDEX(W_psid!$B$2:$CZ$104,W_!$A28,W_!AL$1)/Ns!$B$1</f>
-        <v>-1.654262998991334E-5</v>
+        <v>-1.0537308040703297E-2</v>
       </c>
       <c r="AM28" s="11" cm="1">
         <f t="array" ref="AM28">INDEX(W_psid!$B$2:$CZ$104,W_!$A28,W_!AM$1)/Ns!$B$1</f>
-        <v>0.3085684867619054</v>
+        <v>3.4114758644484045E-3</v>
       </c>
       <c r="AN28" s="11" cm="1">
         <f t="array" ref="AN28">INDEX(W_psid!$B$2:$CZ$104,W_!$A28,W_!AN$1)/Ns!$B$1</f>
-        <v>3.4114758644484045E-3</v>
+        <v>-3.3606442876288786E-5</v>
       </c>
       <c r="AO28" s="11" cm="1">
         <f t="array" ref="AO28">INDEX(W_psid!$B$2:$CZ$104,W_!$A28,W_!AO$1)/Ns!$B$1</f>
-        <v>-3.3606442876288786E-5</v>
+        <v>-9.2266139917108719E-2</v>
       </c>
       <c r="AP28" s="11" cm="1">
         <f t="array" ref="AP28">INDEX(W_psid!$B$2:$CZ$104,W_!$A28,W_!AP$1)/Ns!$B$1</f>
-        <v>-9.2266139917108719E-2</v>
+        <v>-0.15982886817538888</v>
       </c>
       <c r="AQ28" s="11" cm="1">
         <f t="array" ref="AQ28">INDEX(W_psid!$B$2:$CZ$104,W_!$A28,W_!AQ$1)/Ns!$B$1</f>
-        <v>-1.0537308040703297E-2</v>
+        <v>6.4699636306792697E-3</v>
       </c>
       <c r="AR28" s="11" cm="1">
         <f t="array" ref="AR28">INDEX(W_psid!$B$2:$CZ$104,W_!$A28,W_!AR$1)/Ns!$B$1</f>
@@ -54540,7 +54540,7 @@
       </c>
       <c r="AS28" s="11" cm="1">
         <f t="array" ref="AS28">INDEX(W_psid!$B$2:$CZ$104,W_!$A28,W_!AS$1)/Ns!$B$1</f>
-        <v>-0.15982886817538888</v>
+        <v>-1.654262998991334E-5</v>
       </c>
       <c r="AT28" s="11" cm="1">
         <f t="array" ref="AT28">INDEX(W_psid!$B$2:$CZ$104,W_!$A28,W_!AT$1)/Ns!$B$1</f>
@@ -54726,31 +54726,31 @@
       </c>
       <c r="AK29" s="11" cm="1">
         <f t="array" ref="AK29">INDEX(W_psid!$B$2:$CZ$104,W_!$A29,W_!AK$1)/Ns!$B$1</f>
-        <v>-0.5884274323673474</v>
+        <v>-6.8133034878213348</v>
       </c>
       <c r="AL29" s="11" cm="1">
         <f t="array" ref="AL29">INDEX(W_psid!$B$2:$CZ$104,W_!$A29,W_!AL$1)/Ns!$B$1</f>
-        <v>-2.7493102646198485E-4</v>
+        <v>1.1438632223149516</v>
       </c>
       <c r="AM29" s="11" cm="1">
         <f t="array" ref="AM29">INDEX(W_psid!$B$2:$CZ$104,W_!$A29,W_!AM$1)/Ns!$B$1</f>
-        <v>-6.8133034878213348</v>
+        <v>-7.7202256611766717E-2</v>
       </c>
       <c r="AN29" s="11" cm="1">
         <f t="array" ref="AN29">INDEX(W_psid!$B$2:$CZ$104,W_!$A29,W_!AN$1)/Ns!$B$1</f>
-        <v>-7.7202256611766717E-2</v>
+        <v>2.7656529924701014E-4</v>
       </c>
       <c r="AO29" s="11" cm="1">
         <f t="array" ref="AO29">INDEX(W_psid!$B$2:$CZ$104,W_!$A29,W_!AO$1)/Ns!$B$1</f>
-        <v>2.7656529924701014E-4</v>
+        <v>3.2555752386952559</v>
       </c>
       <c r="AP29" s="11" cm="1">
         <f t="array" ref="AP29">INDEX(W_psid!$B$2:$CZ$104,W_!$A29,W_!AP$1)/Ns!$B$1</f>
-        <v>3.2555752386952559</v>
+        <v>3.6013244379958413</v>
       </c>
       <c r="AQ29" s="11" cm="1">
         <f t="array" ref="AQ29">INDEX(W_psid!$B$2:$CZ$104,W_!$A29,W_!AQ$1)/Ns!$B$1</f>
-        <v>1.1438632223149516</v>
+        <v>-0.5884274323673474</v>
       </c>
       <c r="AR29" s="11" cm="1">
         <f t="array" ref="AR29">INDEX(W_psid!$B$2:$CZ$104,W_!$A29,W_!AR$1)/Ns!$B$1</f>
@@ -54758,7 +54758,7 @@
       </c>
       <c r="AS29" s="11" cm="1">
         <f t="array" ref="AS29">INDEX(W_psid!$B$2:$CZ$104,W_!$A29,W_!AS$1)/Ns!$B$1</f>
-        <v>3.6013244379958413</v>
+        <v>-2.7493102646198485E-4</v>
       </c>
       <c r="AT29" s="11" cm="1">
         <f t="array" ref="AT29">INDEX(W_psid!$B$2:$CZ$104,W_!$A29,W_!AT$1)/Ns!$B$1</f>
@@ -54944,31 +54944,31 @@
       </c>
       <c r="AK30" s="11" cm="1">
         <f t="array" ref="AK30">INDEX(W_psid!$B$2:$CZ$104,W_!$A30,W_!AK$1)/Ns!$B$1</f>
-        <v>0.39822885562543558</v>
+        <v>2.0697043936818127</v>
       </c>
       <c r="AL30" s="11" cm="1">
         <f t="array" ref="AL30">INDEX(W_psid!$B$2:$CZ$104,W_!$A30,W_!AL$1)/Ns!$B$1</f>
-        <v>1.1672426919997213E-4</v>
+        <v>-0.74347619682916799</v>
       </c>
       <c r="AM30" s="11" cm="1">
         <f t="array" ref="AM30">INDEX(W_psid!$B$2:$CZ$104,W_!$A30,W_!AM$1)/Ns!$B$1</f>
-        <v>2.0697043936818127</v>
+        <v>8.680033457916729E-3</v>
       </c>
       <c r="AN30" s="11" cm="1">
         <f t="array" ref="AN30">INDEX(W_psid!$B$2:$CZ$104,W_!$A30,W_!AN$1)/Ns!$B$1</f>
-        <v>8.680033457916729E-3</v>
+        <v>-1.1859210784271893E-5</v>
       </c>
       <c r="AO30" s="11" cm="1">
         <f t="array" ref="AO30">INDEX(W_psid!$B$2:$CZ$104,W_!$A30,W_!AO$1)/Ns!$B$1</f>
-        <v>-1.1859210784271893E-5</v>
+        <v>-1.143060943870724</v>
       </c>
       <c r="AP30" s="11" cm="1">
         <f t="array" ref="AP30">INDEX(W_psid!$B$2:$CZ$104,W_!$A30,W_!AP$1)/Ns!$B$1</f>
-        <v>-1.143060943870724</v>
+        <v>-1.082340772105542</v>
       </c>
       <c r="AQ30" s="11" cm="1">
         <f t="array" ref="AQ30">INDEX(W_psid!$B$2:$CZ$104,W_!$A30,W_!AQ$1)/Ns!$B$1</f>
-        <v>-0.74347619682916799</v>
+        <v>0.39822885562543558</v>
       </c>
       <c r="AR30" s="11" cm="1">
         <f t="array" ref="AR30">INDEX(W_psid!$B$2:$CZ$104,W_!$A30,W_!AR$1)/Ns!$B$1</f>
@@ -54976,7 +54976,7 @@
       </c>
       <c r="AS30" s="11" cm="1">
         <f t="array" ref="AS30">INDEX(W_psid!$B$2:$CZ$104,W_!$A30,W_!AS$1)/Ns!$B$1</f>
-        <v>-1.082340772105542</v>
+        <v>1.1672426919997213E-4</v>
       </c>
       <c r="AT30" s="11" cm="1">
         <f t="array" ref="AT30">INDEX(W_psid!$B$2:$CZ$104,W_!$A30,W_!AT$1)/Ns!$B$1</f>
@@ -55162,31 +55162,31 @@
       </c>
       <c r="AK31" s="11" cm="1">
         <f t="array" ref="AK31">INDEX(W_psid!$B$2:$CZ$104,W_!$A31,W_!AK$1)/Ns!$B$1</f>
-        <v>39.93247590756279</v>
+        <v>223.6374705796041</v>
       </c>
       <c r="AL31" s="11" cm="1">
         <f t="array" ref="AL31">INDEX(W_psid!$B$2:$CZ$104,W_!$A31,W_!AL$1)/Ns!$B$1</f>
-        <v>5.2124983952514005E-3</v>
+        <v>-74.340512566262177</v>
       </c>
       <c r="AM31" s="11" cm="1">
         <f t="array" ref="AM31">INDEX(W_psid!$B$2:$CZ$104,W_!$A31,W_!AM$1)/Ns!$B$1</f>
-        <v>223.6374705796041</v>
+        <v>0.94663516478498999</v>
       </c>
       <c r="AN31" s="11" cm="1">
         <f t="array" ref="AN31">INDEX(W_psid!$B$2:$CZ$104,W_!$A31,W_!AN$1)/Ns!$B$1</f>
-        <v>0.94663516478498999</v>
+        <v>-1.1799388461397957E-2</v>
       </c>
       <c r="AO31" s="11" cm="1">
         <f t="array" ref="AO31">INDEX(W_psid!$B$2:$CZ$104,W_!$A31,W_!AO$1)/Ns!$B$1</f>
-        <v>-1.1799388461397957E-2</v>
+        <v>-102.28885487511907</v>
       </c>
       <c r="AP31" s="11" cm="1">
         <f t="array" ref="AP31">INDEX(W_psid!$B$2:$CZ$104,W_!$A31,W_!AP$1)/Ns!$B$1</f>
-        <v>-102.28885487511907</v>
+        <v>-117.76206867326755</v>
       </c>
       <c r="AQ31" s="11" cm="1">
         <f t="array" ref="AQ31">INDEX(W_psid!$B$2:$CZ$104,W_!$A31,W_!AQ$1)/Ns!$B$1</f>
-        <v>-74.340512566262177</v>
+        <v>39.93247590756279</v>
       </c>
       <c r="AR31" s="11" cm="1">
         <f t="array" ref="AR31">INDEX(W_psid!$B$2:$CZ$104,W_!$A31,W_!AR$1)/Ns!$B$1</f>
@@ -55194,7 +55194,7 @@
       </c>
       <c r="AS31" s="11" cm="1">
         <f t="array" ref="AS31">INDEX(W_psid!$B$2:$CZ$104,W_!$A31,W_!AS$1)/Ns!$B$1</f>
-        <v>-117.76206867326755</v>
+        <v>5.2124983952514005E-3</v>
       </c>
       <c r="AT31" s="11" cm="1">
         <f t="array" ref="AT31">INDEX(W_psid!$B$2:$CZ$104,W_!$A31,W_!AT$1)/Ns!$B$1</f>
@@ -55380,31 +55380,31 @@
       </c>
       <c r="AK32" s="11" cm="1">
         <f t="array" ref="AK32">INDEX(W_psid!$B$2:$CZ$104,W_!$A32,W_!AK$1)/Ns!$B$1</f>
-        <v>36.247129410439051</v>
+        <v>204.21271694119108</v>
       </c>
       <c r="AL32" s="11" cm="1">
         <f t="array" ref="AL32">INDEX(W_psid!$B$2:$CZ$104,W_!$A32,W_!AL$1)/Ns!$B$1</f>
-        <v>2.9367545299667699E-3</v>
+        <v>-67.492798835756432</v>
       </c>
       <c r="AM32" s="11" cm="1">
         <f t="array" ref="AM32">INDEX(W_psid!$B$2:$CZ$104,W_!$A32,W_!AM$1)/Ns!$B$1</f>
-        <v>204.21271694119108</v>
+        <v>0.89765985895699385</v>
       </c>
       <c r="AN32" s="11" cm="1">
         <f t="array" ref="AN32">INDEX(W_psid!$B$2:$CZ$104,W_!$A32,W_!AN$1)/Ns!$B$1</f>
-        <v>0.89765985895699385</v>
+        <v>-1.1163918544670101E-2</v>
       </c>
       <c r="AO32" s="11" cm="1">
         <f t="array" ref="AO32">INDEX(W_psid!$B$2:$CZ$104,W_!$A32,W_!AO$1)/Ns!$B$1</f>
-        <v>-1.1163918544670101E-2</v>
+        <v>-91.906397158877994</v>
       </c>
       <c r="AP32" s="11" cm="1">
         <f t="array" ref="AP32">INDEX(W_psid!$B$2:$CZ$104,W_!$A32,W_!AP$1)/Ns!$B$1</f>
-        <v>-91.906397158877994</v>
+        <v>-107.43633121602889</v>
       </c>
       <c r="AQ32" s="11" cm="1">
         <f t="array" ref="AQ32">INDEX(W_psid!$B$2:$CZ$104,W_!$A32,W_!AQ$1)/Ns!$B$1</f>
-        <v>-67.492798835756432</v>
+        <v>36.247129410439051</v>
       </c>
       <c r="AR32" s="11" cm="1">
         <f t="array" ref="AR32">INDEX(W_psid!$B$2:$CZ$104,W_!$A32,W_!AR$1)/Ns!$B$1</f>
@@ -55412,7 +55412,7 @@
       </c>
       <c r="AS32" s="11" cm="1">
         <f t="array" ref="AS32">INDEX(W_psid!$B$2:$CZ$104,W_!$A32,W_!AS$1)/Ns!$B$1</f>
-        <v>-107.43633121602889</v>
+        <v>2.9367545299667699E-3</v>
       </c>
       <c r="AT32" s="11" cm="1">
         <f t="array" ref="AT32">INDEX(W_psid!$B$2:$CZ$104,W_!$A32,W_!AT$1)/Ns!$B$1</f>
@@ -55598,31 +55598,31 @@
       </c>
       <c r="AK33" s="11" cm="1">
         <f t="array" ref="AK33">INDEX(W_psid!$B$2:$CZ$104,W_!$A33,W_!AK$1)/Ns!$B$1</f>
-        <v>-8.2101367873843398E-3</v>
+        <v>0.38946740779890698</v>
       </c>
       <c r="AL33" s="11" cm="1">
         <f t="array" ref="AL33">INDEX(W_psid!$B$2:$CZ$104,W_!$A33,W_!AL$1)/Ns!$B$1</f>
-        <v>3.8660994490644727E-5</v>
+        <v>2.9930042878607288E-2</v>
       </c>
       <c r="AM33" s="11" cm="1">
         <f t="array" ref="AM33">INDEX(W_psid!$B$2:$CZ$104,W_!$A33,W_!AM$1)/Ns!$B$1</f>
-        <v>0.38946740779890698</v>
+        <v>2.0632847841990072E-3</v>
       </c>
       <c r="AN33" s="11" cm="1">
         <f t="array" ref="AN33">INDEX(W_psid!$B$2:$CZ$104,W_!$A33,W_!AN$1)/Ns!$B$1</f>
-        <v>2.0632847841990072E-3</v>
+        <v>-8.2164504984646863E-6</v>
       </c>
       <c r="AO33" s="11" cm="1">
         <f t="array" ref="AO33">INDEX(W_psid!$B$2:$CZ$104,W_!$A33,W_!AO$1)/Ns!$B$1</f>
-        <v>-8.2164504984646863E-6</v>
+        <v>-0.18264229332786935</v>
       </c>
       <c r="AP33" s="11" cm="1">
         <f t="array" ref="AP33">INDEX(W_psid!$B$2:$CZ$104,W_!$A33,W_!AP$1)/Ns!$B$1</f>
-        <v>-0.18264229332786935</v>
+        <v>-0.2098589999780153</v>
       </c>
       <c r="AQ33" s="11" cm="1">
         <f t="array" ref="AQ33">INDEX(W_psid!$B$2:$CZ$104,W_!$A33,W_!AQ$1)/Ns!$B$1</f>
-        <v>2.9930042878607288E-2</v>
+        <v>-8.2101367873843398E-3</v>
       </c>
       <c r="AR33" s="11" cm="1">
         <f t="array" ref="AR33">INDEX(W_psid!$B$2:$CZ$104,W_!$A33,W_!AR$1)/Ns!$B$1</f>
@@ -55630,7 +55630,7 @@
       </c>
       <c r="AS33" s="11" cm="1">
         <f t="array" ref="AS33">INDEX(W_psid!$B$2:$CZ$104,W_!$A33,W_!AS$1)/Ns!$B$1</f>
-        <v>-0.2098589999780153</v>
+        <v>3.8660994490644727E-5</v>
       </c>
       <c r="AT33" s="11" cm="1">
         <f t="array" ref="AT33">INDEX(W_psid!$B$2:$CZ$104,W_!$A33,W_!AT$1)/Ns!$B$1</f>
@@ -55816,31 +55816,31 @@
       </c>
       <c r="AK34" s="11" cm="1">
         <f t="array" ref="AK34">INDEX(W_psid!$B$2:$CZ$104,W_!$A34,W_!AK$1)/Ns!$B$1</f>
-        <v>-9.4767088511904305</v>
+        <v>-64.179443732242675</v>
       </c>
       <c r="AL34" s="11" cm="1">
         <f t="array" ref="AL34">INDEX(W_psid!$B$2:$CZ$104,W_!$A34,W_!AL$1)/Ns!$B$1</f>
-        <v>-2.5033458678467117E-3</v>
+        <v>17.403271054592906</v>
       </c>
       <c r="AM34" s="11" cm="1">
         <f t="array" ref="AM34">INDEX(W_psid!$B$2:$CZ$104,W_!$A34,W_!AM$1)/Ns!$B$1</f>
-        <v>-64.179443732242675</v>
+        <v>-1.0180908356931886</v>
       </c>
       <c r="AN34" s="11" cm="1">
         <f t="array" ref="AN34">INDEX(W_psid!$B$2:$CZ$104,W_!$A34,W_!AN$1)/Ns!$B$1</f>
-        <v>-1.0180908356931886</v>
+        <v>5.566756214180942E-3</v>
       </c>
       <c r="AO34" s="11" cm="1">
         <f t="array" ref="AO34">INDEX(W_psid!$B$2:$CZ$104,W_!$A34,W_!AO$1)/Ns!$B$1</f>
-        <v>5.566756214180942E-3</v>
+        <v>26.280210251208917</v>
       </c>
       <c r="AP34" s="11" cm="1">
         <f t="array" ref="AP34">INDEX(W_psid!$B$2:$CZ$104,W_!$A34,W_!AP$1)/Ns!$B$1</f>
-        <v>26.280210251208917</v>
+        <v>33.874919080834616</v>
       </c>
       <c r="AQ34" s="11" cm="1">
         <f t="array" ref="AQ34">INDEX(W_psid!$B$2:$CZ$104,W_!$A34,W_!AQ$1)/Ns!$B$1</f>
-        <v>17.403271054592906</v>
+        <v>-9.4767088511904305</v>
       </c>
       <c r="AR34" s="11" cm="1">
         <f t="array" ref="AR34">INDEX(W_psid!$B$2:$CZ$104,W_!$A34,W_!AR$1)/Ns!$B$1</f>
@@ -55848,7 +55848,7 @@
       </c>
       <c r="AS34" s="11" cm="1">
         <f t="array" ref="AS34">INDEX(W_psid!$B$2:$CZ$104,W_!$A34,W_!AS$1)/Ns!$B$1</f>
-        <v>33.874919080834616</v>
+        <v>-2.5033458678467117E-3</v>
       </c>
       <c r="AT34" s="11" cm="1">
         <f t="array" ref="AT34">INDEX(W_psid!$B$2:$CZ$104,W_!$A34,W_!AT$1)/Ns!$B$1</f>
@@ -56034,31 +56034,31 @@
       </c>
       <c r="AK35" s="11" cm="1">
         <f t="array" ref="AK35">INDEX(W_psid!$B$2:$CZ$104,W_!$A35,W_!AK$1)/Ns!$B$1</f>
-        <v>0.18811911673914675</v>
+        <v>1.246182097689241</v>
       </c>
       <c r="AL35" s="11" cm="1">
         <f t="array" ref="AL35">INDEX(W_psid!$B$2:$CZ$104,W_!$A35,W_!AL$1)/Ns!$B$1</f>
-        <v>3.3014635760797793E-5</v>
+        <v>-0.35275495380070238</v>
       </c>
       <c r="AM35" s="11" cm="1">
         <f t="array" ref="AM35">INDEX(W_psid!$B$2:$CZ$104,W_!$A35,W_!AM$1)/Ns!$B$1</f>
-        <v>1.246182097689241</v>
+        <v>5.5071357707618335E-3</v>
       </c>
       <c r="AN35" s="11" cm="1">
         <f t="array" ref="AN35">INDEX(W_psid!$B$2:$CZ$104,W_!$A35,W_!AN$1)/Ns!$B$1</f>
-        <v>5.5071357707618335E-3</v>
+        <v>-1.5512663798154911E-4</v>
       </c>
       <c r="AO35" s="11" cm="1">
         <f t="array" ref="AO35">INDEX(W_psid!$B$2:$CZ$104,W_!$A35,W_!AO$1)/Ns!$B$1</f>
-        <v>-1.5512663798154911E-4</v>
+        <v>-0.36243384866714978</v>
       </c>
       <c r="AP35" s="11" cm="1">
         <f t="array" ref="AP35">INDEX(W_psid!$B$2:$CZ$104,W_!$A35,W_!AP$1)/Ns!$B$1</f>
-        <v>-0.36243384866714978</v>
+        <v>-0.64740469272844958</v>
       </c>
       <c r="AQ35" s="11" cm="1">
         <f t="array" ref="AQ35">INDEX(W_psid!$B$2:$CZ$104,W_!$A35,W_!AQ$1)/Ns!$B$1</f>
-        <v>-0.35275495380070238</v>
+        <v>0.18811911673914675</v>
       </c>
       <c r="AR35" s="11" cm="1">
         <f t="array" ref="AR35">INDEX(W_psid!$B$2:$CZ$104,W_!$A35,W_!AR$1)/Ns!$B$1</f>
@@ -56066,7 +56066,7 @@
       </c>
       <c r="AS35" s="11" cm="1">
         <f t="array" ref="AS35">INDEX(W_psid!$B$2:$CZ$104,W_!$A35,W_!AS$1)/Ns!$B$1</f>
-        <v>-0.64740469272844958</v>
+        <v>3.3014635760797793E-5</v>
       </c>
       <c r="AT35" s="11" cm="1">
         <f t="array" ref="AT35">INDEX(W_psid!$B$2:$CZ$104,W_!$A35,W_!AT$1)/Ns!$B$1</f>
@@ -56252,31 +56252,31 @@
       </c>
       <c r="AK36" s="11" cm="1">
         <f t="array" ref="AK36">INDEX(W_psid!$B$2:$CZ$104,W_!$A36,W_!AK$1)/Ns!$B$1</f>
-        <v>1068.3947156148856</v>
+        <v>6339.4727860263083</v>
       </c>
       <c r="AL36" s="11" cm="1">
         <f t="array" ref="AL36">INDEX(W_psid!$B$2:$CZ$104,W_!$A36,W_!AL$1)/Ns!$B$1</f>
-        <v>-5.4054250667207558E-2</v>
+        <v>-1998.7574937441038</v>
       </c>
       <c r="AM36" s="11" cm="1">
         <f t="array" ref="AM36">INDEX(W_psid!$B$2:$CZ$104,W_!$A36,W_!AM$1)/Ns!$B$1</f>
-        <v>6339.4727860263083</v>
+        <v>26.228217581913196</v>
       </c>
       <c r="AN36" s="11" cm="1">
         <f t="array" ref="AN36">INDEX(W_psid!$B$2:$CZ$104,W_!$A36,W_!AN$1)/Ns!$B$1</f>
-        <v>26.228217581913196</v>
+        <v>-0.35439756964557967</v>
       </c>
       <c r="AO36" s="11" cm="1">
         <f t="array" ref="AO36">INDEX(W_psid!$B$2:$CZ$104,W_!$A36,W_!AO$1)/Ns!$B$1</f>
-        <v>-0.35439756964557967</v>
+        <v>-2940.6878479146144</v>
       </c>
       <c r="AP36" s="11" cm="1">
         <f t="array" ref="AP36">INDEX(W_psid!$B$2:$CZ$104,W_!$A36,W_!AP$1)/Ns!$B$1</f>
-        <v>-2940.6878479146144</v>
+        <v>-3313.0964510664212</v>
       </c>
       <c r="AQ36" s="11" cm="1">
         <f t="array" ref="AQ36">INDEX(W_psid!$B$2:$CZ$104,W_!$A36,W_!AQ$1)/Ns!$B$1</f>
-        <v>-1998.7574937441038</v>
+        <v>1068.3947156148856</v>
       </c>
       <c r="AR36" s="11" cm="1">
         <f t="array" ref="AR36">INDEX(W_psid!$B$2:$CZ$104,W_!$A36,W_!AR$1)/Ns!$B$1</f>
@@ -56284,7 +56284,7 @@
       </c>
       <c r="AS36" s="11" cm="1">
         <f t="array" ref="AS36">INDEX(W_psid!$B$2:$CZ$104,W_!$A36,W_!AS$1)/Ns!$B$1</f>
-        <v>-3313.0964510664212</v>
+        <v>-5.4054250667207558E-2</v>
       </c>
       <c r="AT36" s="11" cm="1">
         <f t="array" ref="AT36">INDEX(W_psid!$B$2:$CZ$104,W_!$A36,W_!AT$1)/Ns!$B$1</f>
@@ -56326,183 +56326,183 @@
     <row r="37" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A37">
         <f>MATCH(C37,W_psid!$A$2:$A$104,0)</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" t="str">
         <f>MOMS!$A$35</f>
-        <v>betahwk</v>
+        <v>betahrs0_w</v>
       </c>
       <c r="C37" t="str">
         <f>MOMS!$B$35</f>
-        <v>betahwk</v>
+        <v>betahrs0_w</v>
       </c>
       <c r="D37" s="11" cm="1">
         <f t="array" ref="D37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!D$1)/Ns!$B$1</f>
-        <v>-2.7942573244046147</v>
+        <v>-10.079717535513957</v>
       </c>
       <c r="E37" s="11" cm="1">
         <f t="array" ref="E37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!E$1)/Ns!$B$1</f>
-        <v>-1.9282397193109404</v>
+        <v>-21.470939964265249</v>
       </c>
       <c r="F37" s="11" cm="1">
         <f t="array" ref="F37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!F$1)/Ns!$B$1</f>
-        <v>-5.5916262093774529</v>
+        <v>-24.711962266554782</v>
       </c>
       <c r="G37" s="11" cm="1">
         <f t="array" ref="G37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!G$1)/Ns!$B$1</f>
-        <v>-211.30141923339218</v>
+        <v>-1126.2225585624208</v>
       </c>
       <c r="H37" s="11" cm="1">
         <f t="array" ref="H37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!H$1)/Ns!$B$1</f>
-        <v>11.957490418677887</v>
+        <v>171.11345810509954</v>
       </c>
       <c r="I37" s="11" cm="1">
         <f t="array" ref="I37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!I$1)/Ns!$B$1</f>
-        <v>73.620088502439629</v>
+        <v>404.58355238648295</v>
       </c>
       <c r="J37" s="11" cm="1">
         <f t="array" ref="J37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!J$1)/Ns!$B$1</f>
-        <v>101.33075077941011</v>
+        <v>622.72285024766177</v>
       </c>
       <c r="K37" s="11" cm="1">
         <f t="array" ref="K37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!K$1)/Ns!$B$1</f>
-        <v>31.075729862315068</v>
+        <v>320.97113318614242</v>
       </c>
       <c r="L37" s="11" cm="1">
         <f t="array" ref="L37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!L$1)/Ns!$B$1</f>
-        <v>115.10740771448714</v>
+        <v>-1.1994961544104632</v>
       </c>
       <c r="M37" s="11" cm="1">
         <f t="array" ref="M37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!M$1)/Ns!$B$1</f>
-        <v>46.823785685435425</v>
+        <v>71.842198819411237</v>
       </c>
       <c r="N37" s="11" cm="1">
         <f t="array" ref="N37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!N$1)/Ns!$B$1</f>
-        <v>-28.56495763867628</v>
+        <v>161.51816515491561</v>
       </c>
       <c r="O37" s="11" cm="1">
         <f t="array" ref="O37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!O$1)/Ns!$B$1</f>
-        <v>-127.6787808320332</v>
+        <v>-41.319673908751653</v>
       </c>
       <c r="P37" s="11" cm="1">
         <f t="array" ref="P37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!P$1)/Ns!$B$1</f>
-        <v>-17.99329815882259</v>
+        <v>-55.979393464340006</v>
       </c>
       <c r="Q37" s="11" cm="1">
         <f t="array" ref="Q37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!Q$1)/Ns!$B$1</f>
-        <v>73.57291854687702</v>
+        <v>618.86855848909056</v>
       </c>
       <c r="R37" s="11" cm="1">
         <f t="array" ref="R37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!R$1)/Ns!$B$1</f>
-        <v>-60.996895257536984</v>
+        <v>-442.87888427876425</v>
       </c>
       <c r="S37" s="11" cm="1">
         <f t="array" ref="S37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!S$1)/Ns!$B$1</f>
-        <v>-5.4563297311719099E-2</v>
+        <v>-0.25285864456974494</v>
       </c>
       <c r="T37" s="11" cm="1">
         <f t="array" ref="T37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!T$1)/Ns!$B$1</f>
-        <v>3.0809364778536003E-3</v>
+        <v>3.8684573372032731E-2</v>
       </c>
       <c r="U37" s="11" cm="1">
         <f t="array" ref="U37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!U$1)/Ns!$B$1</f>
-        <v>-0.10173489646599192</v>
+        <v>-0.46450567826741906</v>
       </c>
       <c r="V37" s="11" cm="1">
         <f t="array" ref="V37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!V$1)/Ns!$B$1</f>
-        <v>3.9039584534518803</v>
+        <v>31.954326148909761</v>
       </c>
       <c r="W37" s="11" cm="1">
         <f t="array" ref="W37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!W$1)/Ns!$B$1</f>
-        <v>3.8913106117669463</v>
+        <v>30.838536569420821</v>
       </c>
       <c r="X37" s="11" cm="1">
         <f t="array" ref="X37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!X$1)/Ns!$B$1</f>
-        <v>1.8997221387395582</v>
+        <v>25.550388158062624</v>
       </c>
       <c r="Y37" s="11" cm="1">
         <f t="array" ref="Y37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!Y$1)/Ns!$B$1</f>
-        <v>0.99824818716135155</v>
+        <v>20.757148071253333</v>
       </c>
       <c r="Z37" s="11" cm="1">
         <f t="array" ref="Z37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!Z$1)/Ns!$B$1</f>
-        <v>1.6728524669573277</v>
+        <v>22.945580633730248</v>
       </c>
       <c r="AA37" s="11" cm="1">
         <f t="array" ref="AA37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AA$1)/Ns!$B$1</f>
-        <v>-0.56100057310974805</v>
+        <v>-4.2172971338089003</v>
       </c>
       <c r="AB37" s="11" cm="1">
         <f t="array" ref="AB37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AB$1)/Ns!$B$1</f>
-        <v>6.4699636306792697E-3</v>
+        <v>0.3085684867619054</v>
       </c>
       <c r="AC37" s="11" cm="1">
         <f t="array" ref="AC37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AC$1)/Ns!$B$1</f>
-        <v>-0.5884274323673474</v>
+        <v>-6.8133034878213348</v>
       </c>
       <c r="AD37" s="11" cm="1">
         <f t="array" ref="AD37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AD$1)/Ns!$B$1</f>
-        <v>0.39822885562543558</v>
+        <v>2.0697043936818127</v>
       </c>
       <c r="AE37" s="11" cm="1">
         <f t="array" ref="AE37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AE$1)/Ns!$B$1</f>
-        <v>39.93247590756279</v>
+        <v>223.6374705796041</v>
       </c>
       <c r="AF37" s="11" cm="1">
         <f t="array" ref="AF37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AF$1)/Ns!$B$1</f>
-        <v>36.247129410439051</v>
+        <v>204.21271694119108</v>
       </c>
       <c r="AG37" s="11" cm="1">
         <f t="array" ref="AG37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AG$1)/Ns!$B$1</f>
-        <v>-8.2101367873843398E-3</v>
+        <v>0.38946740779890698</v>
       </c>
       <c r="AH37" s="11" cm="1">
         <f t="array" ref="AH37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AH$1)/Ns!$B$1</f>
-        <v>-9.4767088511904305</v>
+        <v>-64.179443732242675</v>
       </c>
       <c r="AI37" s="11" cm="1">
         <f t="array" ref="AI37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AI$1)/Ns!$B$1</f>
-        <v>0.18811911673914675</v>
+        <v>1.246182097689241</v>
       </c>
       <c r="AJ37" s="11" cm="1">
         <f t="array" ref="AJ37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AJ$1)/Ns!$B$1</f>
-        <v>1068.3947156148856</v>
+        <v>6339.4727860263083</v>
       </c>
       <c r="AK37" s="11" cm="1">
         <f t="array" ref="AK37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AK$1)/Ns!$B$1</f>
-        <v>430.24937553898894</v>
+        <v>8436.0261363799946</v>
       </c>
       <c r="AL37" s="11" cm="1">
         <f t="array" ref="AL37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AL$1)/Ns!$B$1</f>
-        <v>-2.1518354241038668E-2</v>
+        <v>-2509.6765171782167</v>
       </c>
       <c r="AM37" s="11" cm="1">
         <f t="array" ref="AM37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AM$1)/Ns!$B$1</f>
-        <v>1340.2594630499275</v>
+        <v>34.12888723669068</v>
       </c>
       <c r="AN37" s="11" cm="1">
         <f t="array" ref="AN37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AN$1)/Ns!$B$1</f>
-        <v>4.9981445009904357</v>
+        <v>-0.64197830668451805</v>
       </c>
       <c r="AO37" s="11" cm="1">
         <f t="array" ref="AO37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AO$1)/Ns!$B$1</f>
-        <v>-9.800182023128777E-2</v>
+        <v>-3371.1500153556899</v>
       </c>
       <c r="AP37" s="11" cm="1">
         <f t="array" ref="AP37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AP$1)/Ns!$B$1</f>
-        <v>-568.10092143102315</v>
+        <v>-4401.167445404194</v>
       </c>
       <c r="AQ37" s="11" cm="1">
         <f t="array" ref="AQ37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AQ$1)/Ns!$B$1</f>
-        <v>-811.63735040907227</v>
+        <v>1340.2594630499275</v>
       </c>
       <c r="AR37" s="11" cm="1">
         <f t="array" ref="AR37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AR$1)/Ns!$B$1</f>
-        <v>3.0436972629051928E-2</v>
+        <v>-3.2783165587112781E-3</v>
       </c>
       <c r="AS37" s="11" cm="1">
         <f t="array" ref="AS37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AS$1)/Ns!$B$1</f>
-        <v>-701.75855763872062</v>
+        <v>3.2556494684127398E-4</v>
       </c>
       <c r="AT37" s="11" cm="1">
         <f t="array" ref="AT37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AT$1)/Ns!$B$1</f>
@@ -56510,11 +56510,11 @@
       </c>
       <c r="AU37" s="11" cm="1">
         <f t="array" ref="AU37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AU$1)/Ns!$B$1</f>
-        <v>46.30025903218278</v>
+        <v>221.14962958502946</v>
       </c>
       <c r="AV37" s="11" cm="1">
         <f t="array" ref="AV37">INDEX(W_psid!$B$2:$CZ$104,W_!$A37,W_!AV$1)/Ns!$B$1</f>
-        <v>-0.76082596409849357</v>
+        <v>-2.0639005749962931</v>
       </c>
       <c r="AW37" s="11">
         <v>0</v>
@@ -56544,183 +56544,183 @@
     <row r="38" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>MATCH(C38,W_psid!$A$2:$A$104,0)</f>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B38" t="str">
         <f>MOMS!$A$36</f>
-        <v>betalwg</v>
+        <v>betahwk_w</v>
       </c>
       <c r="C38" t="str">
         <f>MOMS!$B$36</f>
-        <v>betalwg</v>
+        <v>betahwk_w</v>
       </c>
       <c r="D38" s="11" cm="1">
         <f t="array" ref="D38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!D$1)/Ns!$B$1</f>
-        <v>-2.4539634995494951E-4</v>
+        <v>5.2224874747760914</v>
       </c>
       <c r="E38" s="11" cm="1">
         <f t="array" ref="E38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!E$1)/Ns!$B$1</f>
-        <v>-2.8424344588463876E-3</v>
+        <v>3.5625091254125145</v>
       </c>
       <c r="F38" s="11" cm="1">
         <f t="array" ref="F38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!F$1)/Ns!$B$1</f>
-        <v>4.2976884985427682E-4</v>
+        <v>10.476758041636117</v>
       </c>
       <c r="G38" s="11" cm="1">
         <f t="array" ref="G38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!G$1)/Ns!$B$1</f>
-        <v>5.0925987869129559E-2</v>
+        <v>392.98837731434764</v>
       </c>
       <c r="H38" s="11" cm="1">
         <f t="array" ref="H38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!H$1)/Ns!$B$1</f>
-        <v>1.2862911662788602E-3</v>
+        <v>-17.481176267748801</v>
       </c>
       <c r="I38" s="11" cm="1">
         <f t="array" ref="I38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!I$1)/Ns!$B$1</f>
-        <v>3.0292278672133268E-2</v>
+        <v>-141.58188874812311</v>
       </c>
       <c r="J38" s="11" cm="1">
         <f t="array" ref="J38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!J$1)/Ns!$B$1</f>
-        <v>-6.2360439785684079E-3</v>
+        <v>-187.11366345314303</v>
       </c>
       <c r="K38" s="11" cm="1">
         <f t="array" ref="K38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!K$1)/Ns!$B$1</f>
-        <v>8.5693700947602258E-2</v>
+        <v>-53.241944557888729</v>
       </c>
       <c r="L38" s="11" cm="1">
         <f t="array" ref="L38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!L$1)/Ns!$B$1</f>
-        <v>-3.9253046825761778E-2</v>
+        <v>-220.65134087398388</v>
       </c>
       <c r="M38" s="11" cm="1">
         <f t="array" ref="M38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!M$1)/Ns!$B$1</f>
-        <v>-4.9535414988894397E-2</v>
+        <v>-88.827203987656176</v>
       </c>
       <c r="N38" s="11" cm="1">
         <f t="array" ref="N38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!N$1)/Ns!$B$1</f>
-        <v>-4.1857470741297607E-2</v>
+        <v>56.944049785409128</v>
       </c>
       <c r="O38" s="11" cm="1">
         <f t="array" ref="O38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!O$1)/Ns!$B$1</f>
-        <v>1.0508109622717591E-2</v>
+        <v>244.32375218413293</v>
       </c>
       <c r="P38" s="11" cm="1">
         <f t="array" ref="P38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!P$1)/Ns!$B$1</f>
-        <v>-1.4051065633767172E-2</v>
+        <v>32.660241823637065</v>
       </c>
       <c r="Q38" s="11" cm="1">
         <f t="array" ref="Q38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!Q$1)/Ns!$B$1</f>
-        <v>0.10663089471080375</v>
+        <v>-135.16141070911945</v>
       </c>
       <c r="R38" s="11" cm="1">
         <f t="array" ref="R38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!R$1)/Ns!$B$1</f>
-        <v>-4.9997029054094921E-2</v>
+        <v>111.69107446858089</v>
       </c>
       <c r="S38" s="11" cm="1">
         <f t="array" ref="S38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!S$1)/Ns!$B$1</f>
-        <v>3.2006766873150301E-6</v>
+        <v>0.10208107729419125</v>
       </c>
       <c r="T38" s="11" cm="1">
         <f t="array" ref="T38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!T$1)/Ns!$B$1</f>
-        <v>-2.6887122730866516E-6</v>
+        <v>-5.5171637329746682E-3</v>
       </c>
       <c r="U38" s="11" cm="1">
         <f t="array" ref="U38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!U$1)/Ns!$B$1</f>
-        <v>-1.0401453563577732E-4</v>
+        <v>0.18951225051763973</v>
       </c>
       <c r="V38" s="11" cm="1">
         <f t="array" ref="V38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!V$1)/Ns!$B$1</f>
-        <v>2.3109967081836125E-3</v>
+        <v>-7.11667722226594</v>
       </c>
       <c r="W38" s="11" cm="1">
         <f t="array" ref="W38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!W$1)/Ns!$B$1</f>
-        <v>2.1620910093765934E-3</v>
+        <v>-7.1041050620678545</v>
       </c>
       <c r="X38" s="11" cm="1">
         <f t="array" ref="X38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!X$1)/Ns!$B$1</f>
-        <v>2.5648873556789291E-3</v>
+        <v>-3.2332641640179514</v>
       </c>
       <c r="Y38" s="11" cm="1">
         <f t="array" ref="Y38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!Y$1)/Ns!$B$1</f>
-        <v>2.6092686341621651E-3</v>
+        <v>-1.5318702972673734</v>
       </c>
       <c r="Z38" s="11" cm="1">
         <f t="array" ref="Z38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!Z$1)/Ns!$B$1</f>
-        <v>2.7127073347101688E-3</v>
+        <v>-2.808917534511115</v>
       </c>
       <c r="AA38" s="11" cm="1">
         <f t="array" ref="AA38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AA$1)/Ns!$B$1</f>
-        <v>9.6233578370306396E-4</v>
+        <v>1.1500228045069241</v>
       </c>
       <c r="AB38" s="11" cm="1">
         <f t="array" ref="AB38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AB$1)/Ns!$B$1</f>
-        <v>-1.654262998991334E-5</v>
+        <v>-1.0537308040703297E-2</v>
       </c>
       <c r="AC38" s="11" cm="1">
         <f t="array" ref="AC38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AC$1)/Ns!$B$1</f>
-        <v>-2.7493102646198485E-4</v>
+        <v>1.1438632223149516</v>
       </c>
       <c r="AD38" s="11" cm="1">
         <f t="array" ref="AD38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AD$1)/Ns!$B$1</f>
-        <v>1.1672426919997213E-4</v>
+        <v>-0.74347619682916799</v>
       </c>
       <c r="AE38" s="11" cm="1">
         <f t="array" ref="AE38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AE$1)/Ns!$B$1</f>
-        <v>5.2124983952514005E-3</v>
+        <v>-74.340512566262177</v>
       </c>
       <c r="AF38" s="11" cm="1">
         <f t="array" ref="AF38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AF$1)/Ns!$B$1</f>
-        <v>2.9367545299667699E-3</v>
+        <v>-67.492798835756432</v>
       </c>
       <c r="AG38" s="11" cm="1">
         <f t="array" ref="AG38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AG$1)/Ns!$B$1</f>
-        <v>3.8660994490644727E-5</v>
+        <v>2.9930042878607288E-2</v>
       </c>
       <c r="AH38" s="11" cm="1">
         <f t="array" ref="AH38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AH$1)/Ns!$B$1</f>
-        <v>-2.5033458678467117E-3</v>
+        <v>17.403271054592906</v>
       </c>
       <c r="AI38" s="11" cm="1">
         <f t="array" ref="AI38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AI$1)/Ns!$B$1</f>
-        <v>3.3014635760797793E-5</v>
+        <v>-0.35275495380070238</v>
       </c>
       <c r="AJ38" s="11" cm="1">
         <f t="array" ref="AJ38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AJ$1)/Ns!$B$1</f>
-        <v>-5.4054250667207558E-2</v>
+        <v>-1998.7574937441038</v>
       </c>
       <c r="AK38" s="11" cm="1">
         <f t="array" ref="AK38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AK$1)/Ns!$B$1</f>
-        <v>-2.1518354241038668E-2</v>
+        <v>-2509.6765171782167</v>
       </c>
       <c r="AL38" s="11" cm="1">
         <f t="array" ref="AL38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AL$1)/Ns!$B$1</f>
-        <v>2.4723379702044511E-4</v>
+        <v>1534.3807715054181</v>
       </c>
       <c r="AM38" s="11" cm="1">
         <f t="array" ref="AM38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AM$1)/Ns!$B$1</f>
-        <v>3.2556494684127398E-4</v>
+        <v>-9.1748140779880245</v>
       </c>
       <c r="AN38" s="11" cm="1">
         <f t="array" ref="AN38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AN$1)/Ns!$B$1</f>
-        <v>1.3613219993927133E-3</v>
+        <v>0.18336861470407398</v>
       </c>
       <c r="AO38" s="11" cm="1">
         <f t="array" ref="AO38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AO$1)/Ns!$B$1</f>
-        <v>-1.5645820010581742E-5</v>
+        <v>1062.424854585953</v>
       </c>
       <c r="AP38" s="11" cm="1">
         <f t="array" ref="AP38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AP$1)/Ns!$B$1</f>
-        <v>2.8116227361705957E-2</v>
+        <v>1313.0883583612517</v>
       </c>
       <c r="AQ38" s="11" cm="1">
         <f t="array" ref="AQ38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AQ$1)/Ns!$B$1</f>
-        <v>4.2621514898831668E-2</v>
+        <v>-811.63735040907227</v>
       </c>
       <c r="AR38" s="11" cm="1">
         <f t="array" ref="AR38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AR$1)/Ns!$B$1</f>
-        <v>-4.6291652160110119E-4</v>
+        <v>-6.1655298277314217E-2</v>
       </c>
       <c r="AS38" s="11" cm="1">
         <f t="array" ref="AS38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AS$1)/Ns!$B$1</f>
-        <v>2.1389821354440338E-3</v>
+        <v>4.2621514898831668E-2</v>
       </c>
       <c r="AT38" s="11" cm="1">
         <f t="array" ref="AT38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AT$1)/Ns!$B$1</f>
@@ -56728,11 +56728,11 @@
       </c>
       <c r="AU38" s="11" cm="1">
         <f t="array" ref="AU38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AU$1)/Ns!$B$1</f>
-        <v>1.9292547643326243E-2</v>
+        <v>-88.336794850781061</v>
       </c>
       <c r="AV38" s="11" cm="1">
         <f t="array" ref="AV38">INDEX(W_psid!$B$2:$CZ$104,W_!$A38,W_!AV$1)/Ns!$B$1</f>
-        <v>3.5940734792158446E-4</v>
+        <v>1.5067542436425081</v>
       </c>
       <c r="AW38" s="11">
         <v>0</v>
@@ -56762,183 +56762,183 @@
     <row r="39" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>MATCH(C39,W_psid!$A$2:$A$104,0)</f>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B39" t="str">
         <f>MOMS!$A$37</f>
-        <v>betahrs0_w</v>
+        <v>betacom</v>
       </c>
       <c r="C39" t="str">
         <f>MOMS!$B$37</f>
-        <v>betahrs0_w</v>
+        <v>betacom</v>
       </c>
       <c r="D39" s="11" cm="1">
         <f t="array" ref="D39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!D$1)/Ns!$B$1</f>
-        <v>-10.079717535513957</v>
+        <v>-1.8366641846413134E-2</v>
       </c>
       <c r="E39" s="11" cm="1">
         <f t="array" ref="E39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!E$1)/Ns!$B$1</f>
-        <v>-21.470939964265249</v>
+        <v>-9.6889567398065563E-2</v>
       </c>
       <c r="F39" s="11" cm="1">
         <f t="array" ref="F39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!F$1)/Ns!$B$1</f>
-        <v>-24.711962266554782</v>
+        <v>-0.13864560166947873</v>
       </c>
       <c r="G39" s="11" cm="1">
         <f t="array" ref="G39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!G$1)/Ns!$B$1</f>
-        <v>-1126.2225585624208</v>
+        <v>-4.840127991293067</v>
       </c>
       <c r="H39" s="11" cm="1">
         <f t="array" ref="H39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!H$1)/Ns!$B$1</f>
-        <v>171.11345810509954</v>
+        <v>-4.9907841616248255E-2</v>
       </c>
       <c r="I39" s="11" cm="1">
         <f t="array" ref="I39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!I$1)/Ns!$B$1</f>
-        <v>404.58355238648295</v>
+        <v>2.2201893713818426</v>
       </c>
       <c r="J39" s="11" cm="1">
         <f t="array" ref="J39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!J$1)/Ns!$B$1</f>
-        <v>622.72285024766177</v>
+        <v>2.6884144794215215</v>
       </c>
       <c r="K39" s="11" cm="1">
         <f t="array" ref="K39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!K$1)/Ns!$B$1</f>
-        <v>320.97113318614242</v>
+        <v>1.9906018166756743</v>
       </c>
       <c r="L39" s="11" cm="1">
         <f t="array" ref="L39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!L$1)/Ns!$B$1</f>
-        <v>-1.1994961544104632</v>
+        <v>4.0373586092262631E-2</v>
       </c>
       <c r="M39" s="11" cm="1">
         <f t="array" ref="M39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!M$1)/Ns!$B$1</f>
-        <v>71.842198819411237</v>
+        <v>1.9938604017660995</v>
       </c>
       <c r="N39" s="11" cm="1">
         <f t="array" ref="N39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!N$1)/Ns!$B$1</f>
-        <v>161.51816515491561</v>
+        <v>1.4255785516062096</v>
       </c>
       <c r="O39" s="11" cm="1">
         <f t="array" ref="O39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!O$1)/Ns!$B$1</f>
-        <v>-41.319673908751653</v>
+        <v>0.38799229499173682</v>
       </c>
       <c r="P39" s="11" cm="1">
         <f t="array" ref="P39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!P$1)/Ns!$B$1</f>
-        <v>-55.979393464340006</v>
+        <v>1.1002301673230266</v>
       </c>
       <c r="Q39" s="11" cm="1">
         <f t="array" ref="Q39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!Q$1)/Ns!$B$1</f>
-        <v>618.86855848909056</v>
+        <v>4.5175585140474883</v>
       </c>
       <c r="R39" s="11" cm="1">
         <f t="array" ref="R39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!R$1)/Ns!$B$1</f>
-        <v>-442.87888427876425</v>
+        <v>-2.6231601184424873</v>
       </c>
       <c r="S39" s="11" cm="1">
         <f t="array" ref="S39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!S$1)/Ns!$B$1</f>
-        <v>-0.25285864456974494</v>
+        <v>-9.4435501589965683E-4</v>
       </c>
       <c r="T39" s="11" cm="1">
         <f t="array" ref="T39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!T$1)/Ns!$B$1</f>
-        <v>3.8684573372032731E-2</v>
+        <v>5.5397241856254358E-4</v>
       </c>
       <c r="U39" s="11" cm="1">
         <f t="array" ref="U39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!U$1)/Ns!$B$1</f>
-        <v>-0.46450567826741906</v>
+        <v>-1.9244109516631141E-3</v>
       </c>
       <c r="V39" s="11" cm="1">
         <f t="array" ref="V39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!V$1)/Ns!$B$1</f>
-        <v>31.954326148909761</v>
+        <v>0.20047972880030041</v>
       </c>
       <c r="W39" s="11" cm="1">
         <f t="array" ref="W39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!W$1)/Ns!$B$1</f>
-        <v>30.838536569420821</v>
+        <v>0.19953378365896102</v>
       </c>
       <c r="X39" s="11" cm="1">
         <f t="array" ref="X39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!X$1)/Ns!$B$1</f>
-        <v>25.550388158062624</v>
+        <v>0.12003669485915777</v>
       </c>
       <c r="Y39" s="11" cm="1">
         <f t="array" ref="Y39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!Y$1)/Ns!$B$1</f>
-        <v>20.757148071253333</v>
+        <v>9.6056304227641262E-2</v>
       </c>
       <c r="Z39" s="11" cm="1">
         <f t="array" ref="Z39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!Z$1)/Ns!$B$1</f>
-        <v>22.945580633730248</v>
+        <v>0.10799655895447798</v>
       </c>
       <c r="AA39" s="11" cm="1">
         <f t="array" ref="AA39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AA$1)/Ns!$B$1</f>
-        <v>-4.2172971338089003</v>
+        <v>-1.5487037140036337E-2</v>
       </c>
       <c r="AB39" s="11" cm="1">
         <f t="array" ref="AB39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AB$1)/Ns!$B$1</f>
-        <v>0.3085684867619054</v>
+        <v>3.4114758644484045E-3</v>
       </c>
       <c r="AC39" s="11" cm="1">
         <f t="array" ref="AC39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AC$1)/Ns!$B$1</f>
-        <v>-6.8133034878213348</v>
+        <v>-7.7202256611766717E-2</v>
       </c>
       <c r="AD39" s="11" cm="1">
         <f t="array" ref="AD39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AD$1)/Ns!$B$1</f>
-        <v>2.0697043936818127</v>
+        <v>8.680033457916729E-3</v>
       </c>
       <c r="AE39" s="11" cm="1">
         <f t="array" ref="AE39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AE$1)/Ns!$B$1</f>
-        <v>223.6374705796041</v>
+        <v>0.94663516478498999</v>
       </c>
       <c r="AF39" s="11" cm="1">
         <f t="array" ref="AF39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AF$1)/Ns!$B$1</f>
-        <v>204.21271694119108</v>
+        <v>0.89765985895699385</v>
       </c>
       <c r="AG39" s="11" cm="1">
         <f t="array" ref="AG39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AG$1)/Ns!$B$1</f>
-        <v>0.38946740779890698</v>
+        <v>2.0632847841990072E-3</v>
       </c>
       <c r="AH39" s="11" cm="1">
         <f t="array" ref="AH39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AH$1)/Ns!$B$1</f>
-        <v>-64.179443732242675</v>
+        <v>-1.0180908356931886</v>
       </c>
       <c r="AI39" s="11" cm="1">
         <f t="array" ref="AI39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AI$1)/Ns!$B$1</f>
-        <v>1.246182097689241</v>
+        <v>5.5071357707618335E-3</v>
       </c>
       <c r="AJ39" s="11" cm="1">
         <f t="array" ref="AJ39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AJ$1)/Ns!$B$1</f>
-        <v>6339.4727860263083</v>
+        <v>26.228217581913196</v>
       </c>
       <c r="AK39" s="11" cm="1">
         <f t="array" ref="AK39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AK$1)/Ns!$B$1</f>
-        <v>1340.2594630499275</v>
+        <v>34.12888723669068</v>
       </c>
       <c r="AL39" s="11" cm="1">
         <f t="array" ref="AL39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AL$1)/Ns!$B$1</f>
-        <v>3.2556494684127398E-4</v>
+        <v>-9.1748140779880245</v>
       </c>
       <c r="AM39" s="11" cm="1">
         <f t="array" ref="AM39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AM$1)/Ns!$B$1</f>
-        <v>8436.0261363799946</v>
+        <v>0.54702309526369475</v>
       </c>
       <c r="AN39" s="11" cm="1">
         <f t="array" ref="AN39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AN$1)/Ns!$B$1</f>
-        <v>34.12888723669068</v>
+        <v>-2.9419404854007106E-3</v>
       </c>
       <c r="AO39" s="11" cm="1">
         <f t="array" ref="AO39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AO$1)/Ns!$B$1</f>
-        <v>-0.64197830668451805</v>
+        <v>-14.066834381830979</v>
       </c>
       <c r="AP39" s="11" cm="1">
         <f t="array" ref="AP39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AP$1)/Ns!$B$1</f>
-        <v>-3371.1500153556899</v>
+        <v>-18.020994992728717</v>
       </c>
       <c r="AQ39" s="11" cm="1">
         <f t="array" ref="AQ39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AQ$1)/Ns!$B$1</f>
-        <v>-2509.6765171782167</v>
+        <v>4.9981445009904357</v>
       </c>
       <c r="AR39" s="11" cm="1">
         <f t="array" ref="AR39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AR$1)/Ns!$B$1</f>
-        <v>-3.2783165587112781E-3</v>
+        <v>-2.5492595426118924E-3</v>
       </c>
       <c r="AS39" s="11" cm="1">
         <f t="array" ref="AS39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AS$1)/Ns!$B$1</f>
-        <v>-4401.167445404194</v>
+        <v>1.3613219993927133E-3</v>
       </c>
       <c r="AT39" s="11" cm="1">
         <f t="array" ref="AT39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AT$1)/Ns!$B$1</f>
@@ -56946,11 +56946,11 @@
       </c>
       <c r="AU39" s="11" cm="1">
         <f t="array" ref="AU39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AU$1)/Ns!$B$1</f>
-        <v>221.14962958502946</v>
+        <v>-1.0815378701130609</v>
       </c>
       <c r="AV39" s="11" cm="1">
         <f t="array" ref="AV39">INDEX(W_psid!$B$2:$CZ$104,W_!$A39,W_!AV$1)/Ns!$B$1</f>
-        <v>-2.0639005749962931</v>
+        <v>-2.603914069368967E-2</v>
       </c>
       <c r="AW39" s="11">
         <v>0</v>
@@ -56980,183 +56980,183 @@
     <row r="40" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A40">
         <f>MATCH(C40,W_psid!$A$2:$A$104,0)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B40" t="str">
         <f>MOMS!$A$38</f>
-        <v>betacom</v>
+        <v>betalfp</v>
       </c>
       <c r="C40" t="str">
         <f>MOMS!$B$38</f>
-        <v>betacom</v>
+        <v>betalfp</v>
       </c>
       <c r="D40" s="11" cm="1">
         <f t="array" ref="D40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!D$1)/Ns!$B$1</f>
-        <v>-1.8366641846413134E-2</v>
+        <v>1.4975522719250028E-4</v>
       </c>
       <c r="E40" s="11" cm="1">
         <f t="array" ref="E40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!E$1)/Ns!$B$1</f>
-        <v>-9.6889567398065563E-2</v>
+        <v>9.9637229865548048E-4</v>
       </c>
       <c r="F40" s="11" cm="1">
         <f t="array" ref="F40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!F$1)/Ns!$B$1</f>
-        <v>-0.13864560166947873</v>
+        <v>1.8309420103255049E-3</v>
       </c>
       <c r="G40" s="11" cm="1">
         <f t="array" ref="G40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!G$1)/Ns!$B$1</f>
-        <v>-4.840127991293067</v>
+        <v>6.1641044284796137E-2</v>
       </c>
       <c r="H40" s="11" cm="1">
         <f t="array" ref="H40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!H$1)/Ns!$B$1</f>
-        <v>-4.9907841616248255E-2</v>
+        <v>-7.5134601408515895E-3</v>
       </c>
       <c r="I40" s="11" cm="1">
         <f t="array" ref="I40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!I$1)/Ns!$B$1</f>
-        <v>2.2201893713818426</v>
+        <v>-2.7175229342418564E-2</v>
       </c>
       <c r="J40" s="11" cm="1">
         <f t="array" ref="J40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!J$1)/Ns!$B$1</f>
-        <v>2.6884144794215215</v>
+        <v>-3.2909805040499063E-2</v>
       </c>
       <c r="K40" s="11" cm="1">
         <f t="array" ref="K40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!K$1)/Ns!$B$1</f>
-        <v>1.9906018166756743</v>
+        <v>-3.1279254631665913E-2</v>
       </c>
       <c r="L40" s="11" cm="1">
         <f t="array" ref="L40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!L$1)/Ns!$B$1</f>
-        <v>4.0373586092262631E-2</v>
+        <v>2.0907059883270914E-6</v>
       </c>
       <c r="M40" s="11" cm="1">
         <f t="array" ref="M40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!M$1)/Ns!$B$1</f>
-        <v>1.9938604017660995</v>
+        <v>-1.9653511873181085E-2</v>
       </c>
       <c r="N40" s="11" cm="1">
         <f t="array" ref="N40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!N$1)/Ns!$B$1</f>
-        <v>1.4255785516062096</v>
+        <v>9.0659628044587985E-3</v>
       </c>
       <c r="O40" s="11" cm="1">
         <f t="array" ref="O40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!O$1)/Ns!$B$1</f>
-        <v>0.38799229499173682</v>
+        <v>-8.5897121169078439E-3</v>
       </c>
       <c r="P40" s="11" cm="1">
         <f t="array" ref="P40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!P$1)/Ns!$B$1</f>
-        <v>1.1002301673230266</v>
+        <v>5.7631335286267545E-3</v>
       </c>
       <c r="Q40" s="11" cm="1">
         <f t="array" ref="Q40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!Q$1)/Ns!$B$1</f>
-        <v>4.5175585140474883</v>
+        <v>-6.3969472355909149E-2</v>
       </c>
       <c r="R40" s="11" cm="1">
         <f t="array" ref="R40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!R$1)/Ns!$B$1</f>
-        <v>-2.6231601184424873</v>
+        <v>3.1852628068217689E-2</v>
       </c>
       <c r="S40" s="11" cm="1">
         <f t="array" ref="S40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!S$1)/Ns!$B$1</f>
-        <v>-9.4435501589965683E-4</v>
+        <v>2.4340681023366604E-5</v>
       </c>
       <c r="T40" s="11" cm="1">
         <f t="array" ref="T40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!T$1)/Ns!$B$1</f>
-        <v>5.5397241856254358E-4</v>
+        <v>-1.2729948790884534E-7</v>
       </c>
       <c r="U40" s="11" cm="1">
         <f t="array" ref="U40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!U$1)/Ns!$B$1</f>
-        <v>-1.9244109516631141E-3</v>
+        <v>3.1551707341881102E-5</v>
       </c>
       <c r="V40" s="11" cm="1">
         <f t="array" ref="V40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!V$1)/Ns!$B$1</f>
-        <v>0.20047972880030041</v>
+        <v>-2.4450118687629483E-3</v>
       </c>
       <c r="W40" s="11" cm="1">
         <f t="array" ref="W40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!W$1)/Ns!$B$1</f>
-        <v>0.19953378365896102</v>
+        <v>-2.343658731886621E-3</v>
       </c>
       <c r="X40" s="11" cm="1">
         <f t="array" ref="X40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!X$1)/Ns!$B$1</f>
-        <v>0.12003669485915777</v>
+        <v>-1.5332110527078808E-3</v>
       </c>
       <c r="Y40" s="11" cm="1">
         <f t="array" ref="Y40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!Y$1)/Ns!$B$1</f>
-        <v>9.6056304227641262E-2</v>
+        <v>-1.2625249943064121E-3</v>
       </c>
       <c r="Z40" s="11" cm="1">
         <f t="array" ref="Z40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!Z$1)/Ns!$B$1</f>
-        <v>0.10799655895447798</v>
+        <v>-1.3065059825837823E-3</v>
       </c>
       <c r="AA40" s="11" cm="1">
         <f t="array" ref="AA40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AA$1)/Ns!$B$1</f>
-        <v>-1.5487037140036337E-2</v>
+        <v>4.5507485402445074E-4</v>
       </c>
       <c r="AB40" s="11" cm="1">
         <f t="array" ref="AB40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AB$1)/Ns!$B$1</f>
-        <v>3.4114758644484045E-3</v>
+        <v>-3.3606442876288786E-5</v>
       </c>
       <c r="AC40" s="11" cm="1">
         <f t="array" ref="AC40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AC$1)/Ns!$B$1</f>
-        <v>-7.7202256611766717E-2</v>
+        <v>2.7656529924701014E-4</v>
       </c>
       <c r="AD40" s="11" cm="1">
         <f t="array" ref="AD40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AD$1)/Ns!$B$1</f>
-        <v>8.680033457916729E-3</v>
+        <v>-1.1859210784271893E-5</v>
       </c>
       <c r="AE40" s="11" cm="1">
         <f t="array" ref="AE40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AE$1)/Ns!$B$1</f>
-        <v>0.94663516478498999</v>
+        <v>-1.1799388461397957E-2</v>
       </c>
       <c r="AF40" s="11" cm="1">
         <f t="array" ref="AF40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AF$1)/Ns!$B$1</f>
-        <v>0.89765985895699385</v>
+        <v>-1.1163918544670101E-2</v>
       </c>
       <c r="AG40" s="11" cm="1">
         <f t="array" ref="AG40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AG$1)/Ns!$B$1</f>
-        <v>2.0632847841990072E-3</v>
+        <v>-8.2164504984646863E-6</v>
       </c>
       <c r="AH40" s="11" cm="1">
         <f t="array" ref="AH40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AH$1)/Ns!$B$1</f>
-        <v>-1.0180908356931886</v>
+        <v>5.566756214180942E-3</v>
       </c>
       <c r="AI40" s="11" cm="1">
         <f t="array" ref="AI40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AI$1)/Ns!$B$1</f>
-        <v>5.5071357707618335E-3</v>
+        <v>-1.5512663798154911E-4</v>
       </c>
       <c r="AJ40" s="11" cm="1">
         <f t="array" ref="AJ40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AJ$1)/Ns!$B$1</f>
-        <v>26.228217581913196</v>
+        <v>-0.35439756964557967</v>
       </c>
       <c r="AK40" s="11" cm="1">
         <f t="array" ref="AK40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AK$1)/Ns!$B$1</f>
-        <v>4.9981445009904357</v>
+        <v>-0.64197830668451805</v>
       </c>
       <c r="AL40" s="11" cm="1">
         <f t="array" ref="AL40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AL$1)/Ns!$B$1</f>
-        <v>1.3613219993927133E-3</v>
+        <v>0.18336861470407398</v>
       </c>
       <c r="AM40" s="11" cm="1">
         <f t="array" ref="AM40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AM$1)/Ns!$B$1</f>
-        <v>34.12888723669068</v>
+        <v>-2.9419404854007106E-3</v>
       </c>
       <c r="AN40" s="11" cm="1">
         <f t="array" ref="AN40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AN$1)/Ns!$B$1</f>
-        <v>0.54702309526369475</v>
+        <v>8.0775695342580063E-5</v>
       </c>
       <c r="AO40" s="11" cm="1">
         <f t="array" ref="AO40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AO$1)/Ns!$B$1</f>
-        <v>-2.9419404854007106E-3</v>
+        <v>0.18667918561746047</v>
       </c>
       <c r="AP40" s="11" cm="1">
         <f t="array" ref="AP40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AP$1)/Ns!$B$1</f>
-        <v>-14.066834381830979</v>
+        <v>0.3339454319419784</v>
       </c>
       <c r="AQ40" s="11" cm="1">
         <f t="array" ref="AQ40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AQ$1)/Ns!$B$1</f>
-        <v>-9.1748140779880245</v>
+        <v>-9.800182023128777E-2</v>
       </c>
       <c r="AR40" s="11" cm="1">
         <f t="array" ref="AR40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AR$1)/Ns!$B$1</f>
-        <v>-2.5492595426118924E-3</v>
+        <v>2.9644503477165804E-5</v>
       </c>
       <c r="AS40" s="11" cm="1">
         <f t="array" ref="AS40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AS$1)/Ns!$B$1</f>
-        <v>-18.020994992728717</v>
+        <v>-1.5645820010581742E-5</v>
       </c>
       <c r="AT40" s="11" cm="1">
         <f t="array" ref="AT40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AT$1)/Ns!$B$1</f>
@@ -57164,11 +57164,11 @@
       </c>
       <c r="AU40" s="11" cm="1">
         <f t="array" ref="AU40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AU$1)/Ns!$B$1</f>
-        <v>-1.0815378701130609</v>
+        <v>-4.4065440168103379E-3</v>
       </c>
       <c r="AV40" s="11" cm="1">
         <f t="array" ref="AV40">INDEX(W_psid!$B$2:$CZ$104,W_!$A40,W_!AV$1)/Ns!$B$1</f>
-        <v>-2.603914069368967E-2</v>
+        <v>2.682026602918913E-4</v>
       </c>
       <c r="AW40" s="11">
         <v>0</v>
@@ -57198,183 +57198,183 @@
     <row r="41" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A41">
         <f>MATCH(C41,W_psid!$A$2:$A$104,0)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B41" t="str">
         <f>MOMS!$A$39</f>
-        <v>betalfp</v>
+        <v>betahrs</v>
       </c>
       <c r="C41" t="str">
         <f>MOMS!$B$39</f>
-        <v>betalfp</v>
+        <v>betahrs</v>
       </c>
       <c r="D41" s="11" cm="1">
         <f t="array" ref="D41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!D$1)/Ns!$B$1</f>
-        <v>1.4975522719250028E-4</v>
+        <v>5.2797938205596351</v>
       </c>
       <c r="E41" s="11" cm="1">
         <f t="array" ref="E41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!E$1)/Ns!$B$1</f>
-        <v>9.9637229865548048E-4</v>
+        <v>10.356418571345214</v>
       </c>
       <c r="F41" s="11" cm="1">
         <f t="array" ref="F41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!F$1)/Ns!$B$1</f>
-        <v>1.8309420103255049E-3</v>
+        <v>9.4140641871961765</v>
       </c>
       <c r="G41" s="11" cm="1">
         <f t="array" ref="G41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!G$1)/Ns!$B$1</f>
-        <v>6.1641044284796137E-2</v>
+        <v>524.27416939885438</v>
       </c>
       <c r="H41" s="11" cm="1">
         <f t="array" ref="H41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!H$1)/Ns!$B$1</f>
-        <v>-7.5134601408515895E-3</v>
+        <v>-75.297052404070115</v>
       </c>
       <c r="I41" s="11" cm="1">
         <f t="array" ref="I41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!I$1)/Ns!$B$1</f>
-        <v>-2.7175229342418564E-2</v>
+        <v>-147.02044525468639</v>
       </c>
       <c r="J41" s="11" cm="1">
         <f t="array" ref="J41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!J$1)/Ns!$B$1</f>
-        <v>-3.2909805040499063E-2</v>
+        <v>-301.04453345569152</v>
       </c>
       <c r="K41" s="11" cm="1">
         <f t="array" ref="K41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!K$1)/Ns!$B$1</f>
-        <v>-3.1279254631665913E-2</v>
+        <v>-121.11571993031674</v>
       </c>
       <c r="L41" s="11" cm="1">
         <f t="array" ref="L41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!L$1)/Ns!$B$1</f>
-        <v>2.0907059883270914E-6</v>
+        <v>-1.2163045104466834</v>
       </c>
       <c r="M41" s="11" cm="1">
         <f t="array" ref="M41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!M$1)/Ns!$B$1</f>
-        <v>-1.9653511873181085E-2</v>
+        <v>20.589163565856708</v>
       </c>
       <c r="N41" s="11" cm="1">
         <f t="array" ref="N41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!N$1)/Ns!$B$1</f>
-        <v>9.0659628044587985E-3</v>
+        <v>-127.30689448094499</v>
       </c>
       <c r="O41" s="11" cm="1">
         <f t="array" ref="O41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!O$1)/Ns!$B$1</f>
-        <v>-8.5897121169078439E-3</v>
+        <v>47.318447388726391</v>
       </c>
       <c r="P41" s="11" cm="1">
         <f t="array" ref="P41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!P$1)/Ns!$B$1</f>
-        <v>5.7631335286267545E-3</v>
+        <v>19.353760087100774</v>
       </c>
       <c r="Q41" s="11" cm="1">
         <f t="array" ref="Q41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!Q$1)/Ns!$B$1</f>
-        <v>-6.3969472355909149E-2</v>
+        <v>-237.50830716427268</v>
       </c>
       <c r="R41" s="11" cm="1">
         <f t="array" ref="R41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!R$1)/Ns!$B$1</f>
-        <v>3.1852628068217689E-2</v>
+        <v>185.05865498720934</v>
       </c>
       <c r="S41" s="11" cm="1">
         <f t="array" ref="S41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!S$1)/Ns!$B$1</f>
-        <v>2.4340681023366604E-5</v>
+        <v>0.10437517669090268</v>
       </c>
       <c r="T41" s="11" cm="1">
         <f t="array" ref="T41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!T$1)/Ns!$B$1</f>
-        <v>-1.2729948790884534E-7</v>
+        <v>-1.8267802053376324E-2</v>
       </c>
       <c r="U41" s="11" cm="1">
         <f t="array" ref="U41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!U$1)/Ns!$B$1</f>
-        <v>3.1551707341881102E-5</v>
+        <v>0.21046642828631834</v>
       </c>
       <c r="V41" s="11" cm="1">
         <f t="array" ref="V41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!V$1)/Ns!$B$1</f>
-        <v>-2.4450118687629483E-3</v>
+        <v>-13.484943281713829</v>
       </c>
       <c r="W41" s="11" cm="1">
         <f t="array" ref="W41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!W$1)/Ns!$B$1</f>
-        <v>-2.343658731886621E-3</v>
+        <v>-13.141992555052447</v>
       </c>
       <c r="X41" s="11" cm="1">
         <f t="array" ref="X41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!X$1)/Ns!$B$1</f>
-        <v>-1.5332110527078808E-3</v>
+        <v>-11.859582957536279</v>
       </c>
       <c r="Y41" s="11" cm="1">
         <f t="array" ref="Y41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!Y$1)/Ns!$B$1</f>
-        <v>-1.2625249943064121E-3</v>
+        <v>-9.5880001243205211</v>
       </c>
       <c r="Z41" s="11" cm="1">
         <f t="array" ref="Z41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!Z$1)/Ns!$B$1</f>
-        <v>-1.3065059825837823E-3</v>
+        <v>-10.90763469183673</v>
       </c>
       <c r="AA41" s="11" cm="1">
         <f t="array" ref="AA41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AA$1)/Ns!$B$1</f>
-        <v>4.5507485402445074E-4</v>
+        <v>0.49848691394424954</v>
       </c>
       <c r="AB41" s="11" cm="1">
         <f t="array" ref="AB41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AB$1)/Ns!$B$1</f>
-        <v>-3.3606442876288786E-5</v>
+        <v>-9.2266139917108719E-2</v>
       </c>
       <c r="AC41" s="11" cm="1">
         <f t="array" ref="AC41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AC$1)/Ns!$B$1</f>
-        <v>2.7656529924701014E-4</v>
+        <v>3.2555752386952559</v>
       </c>
       <c r="AD41" s="11" cm="1">
         <f t="array" ref="AD41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AD$1)/Ns!$B$1</f>
-        <v>-1.1859210784271893E-5</v>
+        <v>-1.143060943870724</v>
       </c>
       <c r="AE41" s="11" cm="1">
         <f t="array" ref="AE41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AE$1)/Ns!$B$1</f>
-        <v>-1.1799388461397957E-2</v>
+        <v>-102.28885487511907</v>
       </c>
       <c r="AF41" s="11" cm="1">
         <f t="array" ref="AF41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AF$1)/Ns!$B$1</f>
-        <v>-1.1163918544670101E-2</v>
+        <v>-91.906397158877994</v>
       </c>
       <c r="AG41" s="11" cm="1">
         <f t="array" ref="AG41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AG$1)/Ns!$B$1</f>
-        <v>-8.2164504984646863E-6</v>
+        <v>-0.18264229332786935</v>
       </c>
       <c r="AH41" s="11" cm="1">
         <f t="array" ref="AH41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AH$1)/Ns!$B$1</f>
-        <v>5.566756214180942E-3</v>
+        <v>26.280210251208917</v>
       </c>
       <c r="AI41" s="11" cm="1">
         <f t="array" ref="AI41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AI$1)/Ns!$B$1</f>
-        <v>-1.5512663798154911E-4</v>
+        <v>-0.36243384866714978</v>
       </c>
       <c r="AJ41" s="11" cm="1">
         <f t="array" ref="AJ41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AJ$1)/Ns!$B$1</f>
-        <v>-0.35439756964557967</v>
+        <v>-2940.6878479146144</v>
       </c>
       <c r="AK41" s="11" cm="1">
         <f t="array" ref="AK41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AK$1)/Ns!$B$1</f>
-        <v>-9.800182023128777E-2</v>
+        <v>-3371.1500153556899</v>
       </c>
       <c r="AL41" s="11" cm="1">
         <f t="array" ref="AL41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AL$1)/Ns!$B$1</f>
-        <v>-1.5645820010581742E-5</v>
+        <v>1062.424854585953</v>
       </c>
       <c r="AM41" s="11" cm="1">
         <f t="array" ref="AM41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AM$1)/Ns!$B$1</f>
-        <v>-0.64197830668451805</v>
+        <v>-14.066834381830979</v>
       </c>
       <c r="AN41" s="11" cm="1">
         <f t="array" ref="AN41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AN$1)/Ns!$B$1</f>
-        <v>-2.9419404854007106E-3</v>
+        <v>0.18667918561746047</v>
       </c>
       <c r="AO41" s="11" cm="1">
         <f t="array" ref="AO41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AO$1)/Ns!$B$1</f>
-        <v>8.0775695342580063E-5</v>
+        <v>1568.5717020648594</v>
       </c>
       <c r="AP41" s="11" cm="1">
         <f t="array" ref="AP41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AP$1)/Ns!$B$1</f>
-        <v>0.18667918561746047</v>
+        <v>1763.1840093704454</v>
       </c>
       <c r="AQ41" s="11" cm="1">
         <f t="array" ref="AQ41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AQ$1)/Ns!$B$1</f>
-        <v>0.18336861470407398</v>
+        <v>-568.10092143102315</v>
       </c>
       <c r="AR41" s="11" cm="1">
         <f t="array" ref="AR41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AR$1)/Ns!$B$1</f>
-        <v>2.9644503477165804E-5</v>
+        <v>-5.1141718171901572E-2</v>
       </c>
       <c r="AS41" s="11" cm="1">
         <f t="array" ref="AS41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AS$1)/Ns!$B$1</f>
-        <v>0.3339454319419784</v>
+        <v>2.8116227361705957E-2</v>
       </c>
       <c r="AT41" s="11" cm="1">
         <f t="array" ref="AT41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AT$1)/Ns!$B$1</f>
@@ -57382,11 +57382,11 @@
       </c>
       <c r="AU41" s="11" cm="1">
         <f t="array" ref="AU41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AU$1)/Ns!$B$1</f>
-        <v>-4.4065440168103379E-3</v>
+        <v>-117.46735971824071</v>
       </c>
       <c r="AV41" s="11" cm="1">
         <f t="array" ref="AV41">INDEX(W_psid!$B$2:$CZ$104,W_!$A41,W_!AV$1)/Ns!$B$1</f>
-        <v>2.682026602918913E-4</v>
+        <v>1.0708061005171146</v>
       </c>
       <c r="AW41" s="11">
         <v>0</v>
@@ -57416,183 +57416,183 @@
     <row r="42" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>MATCH(C42,W_psid!$A$2:$A$104,0)</f>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B42" t="str">
         <f>MOMS!$A$40</f>
-        <v>betahrs</v>
+        <v>betahrs0</v>
       </c>
       <c r="C42" t="str">
         <f>MOMS!$B$40</f>
-        <v>betahrs</v>
+        <v>betahrs0</v>
       </c>
       <c r="D42" s="11" cm="1">
         <f t="array" ref="D42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!D$1)/Ns!$B$1</f>
-        <v>5.2797938205596351</v>
+        <v>5.3232639458714441</v>
       </c>
       <c r="E42" s="11" cm="1">
         <f t="array" ref="E42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!E$1)/Ns!$B$1</f>
-        <v>10.356418571345214</v>
+        <v>11.228863140385918</v>
       </c>
       <c r="F42" s="11" cm="1">
         <f t="array" ref="F42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!F$1)/Ns!$B$1</f>
-        <v>9.4140641871961765</v>
+        <v>12.933893422837496</v>
       </c>
       <c r="G42" s="11" cm="1">
         <f t="array" ref="G42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!G$1)/Ns!$B$1</f>
-        <v>524.27416939885438</v>
+        <v>589.72612223960095</v>
       </c>
       <c r="H42" s="11" cm="1">
         <f t="array" ref="H42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!H$1)/Ns!$B$1</f>
-        <v>-75.297052404070115</v>
+        <v>-90.154948026094345</v>
       </c>
       <c r="I42" s="11" cm="1">
         <f t="array" ref="I42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!I$1)/Ns!$B$1</f>
-        <v>-147.02044525468639</v>
+        <v>-209.57181197672796</v>
       </c>
       <c r="J42" s="11" cm="1">
         <f t="array" ref="J42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!J$1)/Ns!$B$1</f>
-        <v>-301.04453345569152</v>
+        <v>-328.98817330371662</v>
       </c>
       <c r="K42" s="11" cm="1">
         <f t="array" ref="K42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!K$1)/Ns!$B$1</f>
-        <v>-121.11571993031674</v>
+        <v>-170.18754693450447</v>
       </c>
       <c r="L42" s="11" cm="1">
         <f t="array" ref="L42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!L$1)/Ns!$B$1</f>
-        <v>-1.2163045104466834</v>
+        <v>-4.4999433938360589E-2</v>
       </c>
       <c r="M42" s="11" cm="1">
         <f t="array" ref="M42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!M$1)/Ns!$B$1</f>
-        <v>20.589163565856708</v>
+        <v>-32.709399608827738</v>
       </c>
       <c r="N42" s="11" cm="1">
         <f t="array" ref="N42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!N$1)/Ns!$B$1</f>
-        <v>-127.30689448094499</v>
+        <v>-85.798484852085664</v>
       </c>
       <c r="O42" s="11" cm="1">
         <f t="array" ref="O42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!O$1)/Ns!$B$1</f>
-        <v>47.318447388726391</v>
+        <v>22.842204499889338</v>
       </c>
       <c r="P42" s="11" cm="1">
         <f t="array" ref="P42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!P$1)/Ns!$B$1</f>
-        <v>19.353760087100774</v>
+        <v>29.157646656918001</v>
       </c>
       <c r="Q42" s="11" cm="1">
         <f t="array" ref="Q42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!Q$1)/Ns!$B$1</f>
-        <v>-237.50830716427268</v>
+        <v>-321.98489640810499</v>
       </c>
       <c r="R42" s="11" cm="1">
         <f t="array" ref="R42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!R$1)/Ns!$B$1</f>
-        <v>185.05865498720934</v>
+        <v>231.9574135656662</v>
       </c>
       <c r="S42" s="11" cm="1">
         <f t="array" ref="S42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!S$1)/Ns!$B$1</f>
-        <v>0.10437517669090268</v>
+        <v>0.13213700223965485</v>
       </c>
       <c r="T42" s="11" cm="1">
         <f t="array" ref="T42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!T$1)/Ns!$B$1</f>
-        <v>-1.8267802053376324E-2</v>
+        <v>-2.0539758970679542E-2</v>
       </c>
       <c r="U42" s="11" cm="1">
         <f t="array" ref="U42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!U$1)/Ns!$B$1</f>
-        <v>0.21046642828631834</v>
+        <v>0.24125562249911386</v>
       </c>
       <c r="V42" s="11" cm="1">
         <f t="array" ref="V42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!V$1)/Ns!$B$1</f>
-        <v>-13.484943281713829</v>
+        <v>-16.785713626538868</v>
       </c>
       <c r="W42" s="11" cm="1">
         <f t="array" ref="W42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!W$1)/Ns!$B$1</f>
-        <v>-13.141992555052447</v>
+        <v>-16.209322582133147</v>
       </c>
       <c r="X42" s="11" cm="1">
         <f t="array" ref="X42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!X$1)/Ns!$B$1</f>
-        <v>-11.859582957536279</v>
+        <v>-13.513371377783773</v>
       </c>
       <c r="Y42" s="11" cm="1">
         <f t="array" ref="Y42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!Y$1)/Ns!$B$1</f>
-        <v>-9.5880001243205211</v>
+        <v>-10.994556597855578</v>
       </c>
       <c r="Z42" s="11" cm="1">
         <f t="array" ref="Z42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!Z$1)/Ns!$B$1</f>
-        <v>-10.90763469183673</v>
+        <v>-12.140073074367637</v>
       </c>
       <c r="AA42" s="11" cm="1">
         <f t="array" ref="AA42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AA$1)/Ns!$B$1</f>
-        <v>0.49848691394424954</v>
+        <v>2.1960692258187531</v>
       </c>
       <c r="AB42" s="11" cm="1">
         <f t="array" ref="AB42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AB$1)/Ns!$B$1</f>
-        <v>-9.2266139917108719E-2</v>
+        <v>-0.15982886817538888</v>
       </c>
       <c r="AC42" s="11" cm="1">
         <f t="array" ref="AC42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AC$1)/Ns!$B$1</f>
-        <v>3.2555752386952559</v>
+        <v>3.6013244379958413</v>
       </c>
       <c r="AD42" s="11" cm="1">
         <f t="array" ref="AD42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AD$1)/Ns!$B$1</f>
-        <v>-1.143060943870724</v>
+        <v>-1.082340772105542</v>
       </c>
       <c r="AE42" s="11" cm="1">
         <f t="array" ref="AE42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AE$1)/Ns!$B$1</f>
-        <v>-102.28885487511907</v>
+        <v>-117.76206867326755</v>
       </c>
       <c r="AF42" s="11" cm="1">
         <f t="array" ref="AF42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AF$1)/Ns!$B$1</f>
-        <v>-91.906397158877994</v>
+        <v>-107.43633121602889</v>
       </c>
       <c r="AG42" s="11" cm="1">
         <f t="array" ref="AG42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AG$1)/Ns!$B$1</f>
-        <v>-0.18264229332786935</v>
+        <v>-0.2098589999780153</v>
       </c>
       <c r="AH42" s="11" cm="1">
         <f t="array" ref="AH42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AH$1)/Ns!$B$1</f>
-        <v>26.280210251208917</v>
+        <v>33.874919080834616</v>
       </c>
       <c r="AI42" s="11" cm="1">
         <f t="array" ref="AI42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AI$1)/Ns!$B$1</f>
-        <v>-0.36243384866714978</v>
+        <v>-0.64740469272844958</v>
       </c>
       <c r="AJ42" s="11" cm="1">
         <f t="array" ref="AJ42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AJ$1)/Ns!$B$1</f>
-        <v>-2940.6878479146144</v>
+        <v>-3313.0964510664212</v>
       </c>
       <c r="AK42" s="11" cm="1">
         <f t="array" ref="AK42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AK$1)/Ns!$B$1</f>
-        <v>-568.10092143102315</v>
+        <v>-4401.167445404194</v>
       </c>
       <c r="AL42" s="11" cm="1">
         <f t="array" ref="AL42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AL$1)/Ns!$B$1</f>
-        <v>2.8116227361705957E-2</v>
+        <v>1313.0883583612517</v>
       </c>
       <c r="AM42" s="11" cm="1">
         <f t="array" ref="AM42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AM$1)/Ns!$B$1</f>
-        <v>-3371.1500153556899</v>
+        <v>-18.020994992728717</v>
       </c>
       <c r="AN42" s="11" cm="1">
         <f t="array" ref="AN42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AN$1)/Ns!$B$1</f>
-        <v>-14.066834381830979</v>
+        <v>0.3339454319419784</v>
       </c>
       <c r="AO42" s="11" cm="1">
         <f t="array" ref="AO42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AO$1)/Ns!$B$1</f>
-        <v>0.18667918561746047</v>
+        <v>1763.1840093704454</v>
       </c>
       <c r="AP42" s="11" cm="1">
         <f t="array" ref="AP42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AP$1)/Ns!$B$1</f>
-        <v>1568.5717020648594</v>
+        <v>2298.0605309161074</v>
       </c>
       <c r="AQ42" s="11" cm="1">
         <f t="array" ref="AQ42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AQ$1)/Ns!$B$1</f>
-        <v>1062.424854585953</v>
+        <v>-701.75855763872062</v>
       </c>
       <c r="AR42" s="11" cm="1">
         <f t="array" ref="AR42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AR$1)/Ns!$B$1</f>
-        <v>-5.1141718171901572E-2</v>
+        <v>-1.7860689167723443E-3</v>
       </c>
       <c r="AS42" s="11" cm="1">
         <f t="array" ref="AS42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AS$1)/Ns!$B$1</f>
-        <v>1763.1840093704454</v>
+        <v>2.1389821354440338E-3</v>
       </c>
       <c r="AT42" s="11" cm="1">
         <f t="array" ref="AT42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AT$1)/Ns!$B$1</f>
@@ -57600,11 +57600,11 @@
       </c>
       <c r="AU42" s="11" cm="1">
         <f t="array" ref="AU42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AU$1)/Ns!$B$1</f>
-        <v>-117.46735971824071</v>
+        <v>-115.69705301714977</v>
       </c>
       <c r="AV42" s="11" cm="1">
         <f t="array" ref="AV42">INDEX(W_psid!$B$2:$CZ$104,W_!$A42,W_!AV$1)/Ns!$B$1</f>
-        <v>1.0708061005171146</v>
+        <v>1.0362433306533667</v>
       </c>
       <c r="AW42" s="11">
         <v>0</v>
@@ -57634,183 +57634,183 @@
     <row r="43" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>MATCH(C43,W_psid!$A$2:$A$104,0)</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" t="str">
         <f>MOMS!$A$41</f>
-        <v>betahwk_w</v>
+        <v>betahwk</v>
       </c>
       <c r="C43" t="str">
         <f>MOMS!$B$41</f>
-        <v>betahwk_w</v>
+        <v>betahwk</v>
       </c>
       <c r="D43" s="11" cm="1">
         <f t="array" ref="D43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!D$1)/Ns!$B$1</f>
-        <v>5.2224874747760914</v>
+        <v>-2.7942573244046147</v>
       </c>
       <c r="E43" s="11" cm="1">
         <f t="array" ref="E43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!E$1)/Ns!$B$1</f>
-        <v>3.5625091254125145</v>
+        <v>-1.9282397193109404</v>
       </c>
       <c r="F43" s="11" cm="1">
         <f t="array" ref="F43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!F$1)/Ns!$B$1</f>
-        <v>10.476758041636117</v>
+        <v>-5.5916262093774529</v>
       </c>
       <c r="G43" s="11" cm="1">
         <f t="array" ref="G43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!G$1)/Ns!$B$1</f>
-        <v>392.98837731434764</v>
+        <v>-211.30141923339218</v>
       </c>
       <c r="H43" s="11" cm="1">
         <f t="array" ref="H43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!H$1)/Ns!$B$1</f>
-        <v>-17.481176267748801</v>
+        <v>11.957490418677887</v>
       </c>
       <c r="I43" s="11" cm="1">
         <f t="array" ref="I43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!I$1)/Ns!$B$1</f>
-        <v>-141.58188874812311</v>
+        <v>73.620088502439629</v>
       </c>
       <c r="J43" s="11" cm="1">
         <f t="array" ref="J43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!J$1)/Ns!$B$1</f>
-        <v>-187.11366345314303</v>
+        <v>101.33075077941011</v>
       </c>
       <c r="K43" s="11" cm="1">
         <f t="array" ref="K43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!K$1)/Ns!$B$1</f>
-        <v>-53.241944557888729</v>
+        <v>31.075729862315068</v>
       </c>
       <c r="L43" s="11" cm="1">
         <f t="array" ref="L43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!L$1)/Ns!$B$1</f>
-        <v>-220.65134087398388</v>
+        <v>115.10740771448714</v>
       </c>
       <c r="M43" s="11" cm="1">
         <f t="array" ref="M43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!M$1)/Ns!$B$1</f>
-        <v>-88.827203987656176</v>
+        <v>46.823785685435425</v>
       </c>
       <c r="N43" s="11" cm="1">
         <f t="array" ref="N43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!N$1)/Ns!$B$1</f>
-        <v>56.944049785409128</v>
+        <v>-28.56495763867628</v>
       </c>
       <c r="O43" s="11" cm="1">
         <f t="array" ref="O43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!O$1)/Ns!$B$1</f>
-        <v>244.32375218413293</v>
+        <v>-127.6787808320332</v>
       </c>
       <c r="P43" s="11" cm="1">
         <f t="array" ref="P43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!P$1)/Ns!$B$1</f>
-        <v>32.660241823637065</v>
+        <v>-17.99329815882259</v>
       </c>
       <c r="Q43" s="11" cm="1">
         <f t="array" ref="Q43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!Q$1)/Ns!$B$1</f>
-        <v>-135.16141070911945</v>
+        <v>73.57291854687702</v>
       </c>
       <c r="R43" s="11" cm="1">
         <f t="array" ref="R43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!R$1)/Ns!$B$1</f>
-        <v>111.69107446858089</v>
+        <v>-60.996895257536984</v>
       </c>
       <c r="S43" s="11" cm="1">
         <f t="array" ref="S43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!S$1)/Ns!$B$1</f>
-        <v>0.10208107729419125</v>
+        <v>-5.4563297311719099E-2</v>
       </c>
       <c r="T43" s="11" cm="1">
         <f t="array" ref="T43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!T$1)/Ns!$B$1</f>
-        <v>-5.5171637329746682E-3</v>
+        <v>3.0809364778536003E-3</v>
       </c>
       <c r="U43" s="11" cm="1">
         <f t="array" ref="U43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!U$1)/Ns!$B$1</f>
-        <v>0.18951225051763973</v>
+        <v>-0.10173489646599192</v>
       </c>
       <c r="V43" s="11" cm="1">
         <f t="array" ref="V43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!V$1)/Ns!$B$1</f>
-        <v>-7.11667722226594</v>
+        <v>3.9039584534518803</v>
       </c>
       <c r="W43" s="11" cm="1">
         <f t="array" ref="W43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!W$1)/Ns!$B$1</f>
-        <v>-7.1041050620678545</v>
+        <v>3.8913106117669463</v>
       </c>
       <c r="X43" s="11" cm="1">
         <f t="array" ref="X43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!X$1)/Ns!$B$1</f>
-        <v>-3.2332641640179514</v>
+        <v>1.8997221387395582</v>
       </c>
       <c r="Y43" s="11" cm="1">
         <f t="array" ref="Y43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!Y$1)/Ns!$B$1</f>
-        <v>-1.5318702972673734</v>
+        <v>0.99824818716135155</v>
       </c>
       <c r="Z43" s="11" cm="1">
         <f t="array" ref="Z43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!Z$1)/Ns!$B$1</f>
-        <v>-2.808917534511115</v>
+        <v>1.6728524669573277</v>
       </c>
       <c r="AA43" s="11" cm="1">
         <f t="array" ref="AA43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AA$1)/Ns!$B$1</f>
-        <v>1.1500228045069241</v>
+        <v>-0.56100057310974805</v>
       </c>
       <c r="AB43" s="11" cm="1">
         <f t="array" ref="AB43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AB$1)/Ns!$B$1</f>
-        <v>-1.0537308040703297E-2</v>
+        <v>6.4699636306792697E-3</v>
       </c>
       <c r="AC43" s="11" cm="1">
         <f t="array" ref="AC43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AC$1)/Ns!$B$1</f>
-        <v>1.1438632223149516</v>
+        <v>-0.5884274323673474</v>
       </c>
       <c r="AD43" s="11" cm="1">
         <f t="array" ref="AD43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AD$1)/Ns!$B$1</f>
-        <v>-0.74347619682916799</v>
+        <v>0.39822885562543558</v>
       </c>
       <c r="AE43" s="11" cm="1">
         <f t="array" ref="AE43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AE$1)/Ns!$B$1</f>
-        <v>-74.340512566262177</v>
+        <v>39.93247590756279</v>
       </c>
       <c r="AF43" s="11" cm="1">
         <f t="array" ref="AF43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AF$1)/Ns!$B$1</f>
-        <v>-67.492798835756432</v>
+        <v>36.247129410439051</v>
       </c>
       <c r="AG43" s="11" cm="1">
         <f t="array" ref="AG43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AG$1)/Ns!$B$1</f>
-        <v>2.9930042878607288E-2</v>
+        <v>-8.2101367873843398E-3</v>
       </c>
       <c r="AH43" s="11" cm="1">
         <f t="array" ref="AH43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AH$1)/Ns!$B$1</f>
-        <v>17.403271054592906</v>
+        <v>-9.4767088511904305</v>
       </c>
       <c r="AI43" s="11" cm="1">
         <f t="array" ref="AI43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AI$1)/Ns!$B$1</f>
-        <v>-0.35275495380070238</v>
+        <v>0.18811911673914675</v>
       </c>
       <c r="AJ43" s="11" cm="1">
         <f t="array" ref="AJ43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AJ$1)/Ns!$B$1</f>
-        <v>-1998.7574937441038</v>
+        <v>1068.3947156148856</v>
       </c>
       <c r="AK43" s="11" cm="1">
         <f t="array" ref="AK43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AK$1)/Ns!$B$1</f>
-        <v>-811.63735040907227</v>
+        <v>1340.2594630499275</v>
       </c>
       <c r="AL43" s="11" cm="1">
         <f t="array" ref="AL43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AL$1)/Ns!$B$1</f>
-        <v>4.2621514898831668E-2</v>
+        <v>-811.63735040907227</v>
       </c>
       <c r="AM43" s="11" cm="1">
         <f t="array" ref="AM43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AM$1)/Ns!$B$1</f>
-        <v>-2509.6765171782167</v>
+        <v>4.9981445009904357</v>
       </c>
       <c r="AN43" s="11" cm="1">
         <f t="array" ref="AN43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AN$1)/Ns!$B$1</f>
-        <v>-9.1748140779880245</v>
+        <v>-9.800182023128777E-2</v>
       </c>
       <c r="AO43" s="11" cm="1">
         <f t="array" ref="AO43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AO$1)/Ns!$B$1</f>
-        <v>0.18336861470407398</v>
+        <v>-568.10092143102315</v>
       </c>
       <c r="AP43" s="11" cm="1">
         <f t="array" ref="AP43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AP$1)/Ns!$B$1</f>
-        <v>1062.424854585953</v>
+        <v>-701.75855763872062</v>
       </c>
       <c r="AQ43" s="11" cm="1">
         <f t="array" ref="AQ43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AQ$1)/Ns!$B$1</f>
-        <v>1534.3807715054181</v>
+        <v>430.24937553898894</v>
       </c>
       <c r="AR43" s="11" cm="1">
         <f t="array" ref="AR43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AR$1)/Ns!$B$1</f>
-        <v>-6.1655298277314217E-2</v>
+        <v>3.0436972629051928E-2</v>
       </c>
       <c r="AS43" s="11" cm="1">
         <f t="array" ref="AS43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AS$1)/Ns!$B$1</f>
-        <v>1313.0883583612517</v>
+        <v>-2.1518354241038668E-2</v>
       </c>
       <c r="AT43" s="11" cm="1">
         <f t="array" ref="AT43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AT$1)/Ns!$B$1</f>
@@ -57818,11 +57818,11 @@
       </c>
       <c r="AU43" s="11" cm="1">
         <f t="array" ref="AU43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AU$1)/Ns!$B$1</f>
-        <v>-88.336794850781061</v>
+        <v>46.30025903218278</v>
       </c>
       <c r="AV43" s="11" cm="1">
         <f t="array" ref="AV43">INDEX(W_psid!$B$2:$CZ$104,W_!$A43,W_!AV$1)/Ns!$B$1</f>
-        <v>1.5067542436425081</v>
+        <v>-0.76082596409849357</v>
       </c>
       <c r="AW43" s="11">
         <v>0</v>
@@ -57996,31 +57996,31 @@
       </c>
       <c r="AK44" s="11" cm="1">
         <f t="array" ref="AK44">INDEX(W_psid!$B$2:$CZ$104,W_!$A44,W_!AK$1)/Ns!$B$1</f>
-        <v>3.0436972629051928E-2</v>
+        <v>-3.2783165587112781E-3</v>
       </c>
       <c r="AL44" s="11" cm="1">
         <f t="array" ref="AL44">INDEX(W_psid!$B$2:$CZ$104,W_!$A44,W_!AL$1)/Ns!$B$1</f>
-        <v>-4.6291652160110119E-4</v>
+        <v>-6.1655298277314217E-2</v>
       </c>
       <c r="AM44" s="11" cm="1">
         <f t="array" ref="AM44">INDEX(W_psid!$B$2:$CZ$104,W_!$A44,W_!AM$1)/Ns!$B$1</f>
-        <v>-3.2783165587112781E-3</v>
+        <v>-2.5492595426118924E-3</v>
       </c>
       <c r="AN44" s="11" cm="1">
         <f t="array" ref="AN44">INDEX(W_psid!$B$2:$CZ$104,W_!$A44,W_!AN$1)/Ns!$B$1</f>
-        <v>-2.5492595426118924E-3</v>
+        <v>2.9644503477165804E-5</v>
       </c>
       <c r="AO44" s="11" cm="1">
         <f t="array" ref="AO44">INDEX(W_psid!$B$2:$CZ$104,W_!$A44,W_!AO$1)/Ns!$B$1</f>
-        <v>2.9644503477165804E-5</v>
+        <v>-5.1141718171901572E-2</v>
       </c>
       <c r="AP44" s="11" cm="1">
         <f t="array" ref="AP44">INDEX(W_psid!$B$2:$CZ$104,W_!$A44,W_!AP$1)/Ns!$B$1</f>
-        <v>-5.1141718171901572E-2</v>
+        <v>-1.7860689167723443E-3</v>
       </c>
       <c r="AQ44" s="11" cm="1">
         <f t="array" ref="AQ44">INDEX(W_psid!$B$2:$CZ$104,W_!$A44,W_!AQ$1)/Ns!$B$1</f>
-        <v>-6.1655298277314217E-2</v>
+        <v>3.0436972629051928E-2</v>
       </c>
       <c r="AR44" s="11" cm="1">
         <f t="array" ref="AR44">INDEX(W_psid!$B$2:$CZ$104,W_!$A44,W_!AR$1)/Ns!$B$1</f>
@@ -58028,7 +58028,7 @@
       </c>
       <c r="AS44" s="11" cm="1">
         <f t="array" ref="AS44">INDEX(W_psid!$B$2:$CZ$104,W_!$A44,W_!AS$1)/Ns!$B$1</f>
-        <v>-1.7860689167723443E-3</v>
+        <v>-4.6291652160110119E-4</v>
       </c>
       <c r="AT44" s="11" cm="1">
         <f t="array" ref="AT44">INDEX(W_psid!$B$2:$CZ$104,W_!$A44,W_!AT$1)/Ns!$B$1</f>
@@ -58070,183 +58070,183 @@
     <row r="45" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A45">
         <f>MATCH(C45,W_psid!$A$2:$A$104,0)</f>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B45" t="str">
         <f>MOMS!$A$43</f>
-        <v>betahrs0</v>
+        <v>betalwg</v>
       </c>
       <c r="C45" t="str">
         <f>MOMS!$B$43</f>
-        <v>betahrs0</v>
+        <v>betalwg</v>
       </c>
       <c r="D45" s="11" cm="1">
         <f t="array" ref="D45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!D$1)/Ns!$B$1</f>
-        <v>5.3232639458714441</v>
+        <v>-2.4539634995494951E-4</v>
       </c>
       <c r="E45" s="11" cm="1">
         <f t="array" ref="E45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!E$1)/Ns!$B$1</f>
-        <v>11.228863140385918</v>
+        <v>-2.8424344588463876E-3</v>
       </c>
       <c r="F45" s="11" cm="1">
         <f t="array" ref="F45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!F$1)/Ns!$B$1</f>
-        <v>12.933893422837496</v>
+        <v>4.2976884985427682E-4</v>
       </c>
       <c r="G45" s="11" cm="1">
         <f t="array" ref="G45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!G$1)/Ns!$B$1</f>
-        <v>589.72612223960095</v>
+        <v>5.0925987869129559E-2</v>
       </c>
       <c r="H45" s="11" cm="1">
         <f t="array" ref="H45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!H$1)/Ns!$B$1</f>
-        <v>-90.154948026094345</v>
+        <v>1.2862911662788602E-3</v>
       </c>
       <c r="I45" s="11" cm="1">
         <f t="array" ref="I45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!I$1)/Ns!$B$1</f>
-        <v>-209.57181197672796</v>
+        <v>3.0292278672133268E-2</v>
       </c>
       <c r="J45" s="11" cm="1">
         <f t="array" ref="J45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!J$1)/Ns!$B$1</f>
-        <v>-328.98817330371662</v>
+        <v>-6.2360439785684079E-3</v>
       </c>
       <c r="K45" s="11" cm="1">
         <f t="array" ref="K45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!K$1)/Ns!$B$1</f>
-        <v>-170.18754693450447</v>
+        <v>8.5693700947602258E-2</v>
       </c>
       <c r="L45" s="11" cm="1">
         <f t="array" ref="L45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!L$1)/Ns!$B$1</f>
-        <v>-4.4999433938360589E-2</v>
+        <v>-3.9253046825761778E-2</v>
       </c>
       <c r="M45" s="11" cm="1">
         <f t="array" ref="M45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!M$1)/Ns!$B$1</f>
-        <v>-32.709399608827738</v>
+        <v>-4.9535414988894397E-2</v>
       </c>
       <c r="N45" s="11" cm="1">
         <f t="array" ref="N45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!N$1)/Ns!$B$1</f>
-        <v>-85.798484852085664</v>
+        <v>-4.1857470741297607E-2</v>
       </c>
       <c r="O45" s="11" cm="1">
         <f t="array" ref="O45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!O$1)/Ns!$B$1</f>
-        <v>22.842204499889338</v>
+        <v>1.0508109622717591E-2</v>
       </c>
       <c r="P45" s="11" cm="1">
         <f t="array" ref="P45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!P$1)/Ns!$B$1</f>
-        <v>29.157646656918001</v>
+        <v>-1.4051065633767172E-2</v>
       </c>
       <c r="Q45" s="11" cm="1">
         <f t="array" ref="Q45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!Q$1)/Ns!$B$1</f>
-        <v>-321.98489640810499</v>
+        <v>0.10663089471080375</v>
       </c>
       <c r="R45" s="11" cm="1">
         <f t="array" ref="R45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!R$1)/Ns!$B$1</f>
-        <v>231.9574135656662</v>
+        <v>-4.9997029054094921E-2</v>
       </c>
       <c r="S45" s="11" cm="1">
         <f t="array" ref="S45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!S$1)/Ns!$B$1</f>
-        <v>0.13213700223965485</v>
+        <v>3.2006766873150301E-6</v>
       </c>
       <c r="T45" s="11" cm="1">
         <f t="array" ref="T45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!T$1)/Ns!$B$1</f>
-        <v>-2.0539758970679542E-2</v>
+        <v>-2.6887122730866516E-6</v>
       </c>
       <c r="U45" s="11" cm="1">
         <f t="array" ref="U45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!U$1)/Ns!$B$1</f>
-        <v>0.24125562249911386</v>
+        <v>-1.0401453563577732E-4</v>
       </c>
       <c r="V45" s="11" cm="1">
         <f t="array" ref="V45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!V$1)/Ns!$B$1</f>
-        <v>-16.785713626538868</v>
+        <v>2.3109967081836125E-3</v>
       </c>
       <c r="W45" s="11" cm="1">
         <f t="array" ref="W45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!W$1)/Ns!$B$1</f>
-        <v>-16.209322582133147</v>
+        <v>2.1620910093765934E-3</v>
       </c>
       <c r="X45" s="11" cm="1">
         <f t="array" ref="X45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!X$1)/Ns!$B$1</f>
-        <v>-13.513371377783773</v>
+        <v>2.5648873556789291E-3</v>
       </c>
       <c r="Y45" s="11" cm="1">
         <f t="array" ref="Y45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!Y$1)/Ns!$B$1</f>
-        <v>-10.994556597855578</v>
+        <v>2.6092686341621651E-3</v>
       </c>
       <c r="Z45" s="11" cm="1">
         <f t="array" ref="Z45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!Z$1)/Ns!$B$1</f>
-        <v>-12.140073074367637</v>
+        <v>2.7127073347101688E-3</v>
       </c>
       <c r="AA45" s="11" cm="1">
         <f t="array" ref="AA45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AA$1)/Ns!$B$1</f>
-        <v>2.1960692258187531</v>
+        <v>9.6233578370306396E-4</v>
       </c>
       <c r="AB45" s="11" cm="1">
         <f t="array" ref="AB45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AB$1)/Ns!$B$1</f>
-        <v>-0.15982886817538888</v>
+        <v>-1.654262998991334E-5</v>
       </c>
       <c r="AC45" s="11" cm="1">
         <f t="array" ref="AC45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AC$1)/Ns!$B$1</f>
-        <v>3.6013244379958413</v>
+        <v>-2.7493102646198485E-4</v>
       </c>
       <c r="AD45" s="11" cm="1">
         <f t="array" ref="AD45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AD$1)/Ns!$B$1</f>
-        <v>-1.082340772105542</v>
+        <v>1.1672426919997213E-4</v>
       </c>
       <c r="AE45" s="11" cm="1">
         <f t="array" ref="AE45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AE$1)/Ns!$B$1</f>
-        <v>-117.76206867326755</v>
+        <v>5.2124983952514005E-3</v>
       </c>
       <c r="AF45" s="11" cm="1">
         <f t="array" ref="AF45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AF$1)/Ns!$B$1</f>
-        <v>-107.43633121602889</v>
+        <v>2.9367545299667699E-3</v>
       </c>
       <c r="AG45" s="11" cm="1">
         <f t="array" ref="AG45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AG$1)/Ns!$B$1</f>
-        <v>-0.2098589999780153</v>
+        <v>3.8660994490644727E-5</v>
       </c>
       <c r="AH45" s="11" cm="1">
         <f t="array" ref="AH45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AH$1)/Ns!$B$1</f>
-        <v>33.874919080834616</v>
+        <v>-2.5033458678467117E-3</v>
       </c>
       <c r="AI45" s="11" cm="1">
         <f t="array" ref="AI45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AI$1)/Ns!$B$1</f>
-        <v>-0.64740469272844958</v>
+        <v>3.3014635760797793E-5</v>
       </c>
       <c r="AJ45" s="11" cm="1">
         <f t="array" ref="AJ45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AJ$1)/Ns!$B$1</f>
-        <v>-3313.0964510664212</v>
+        <v>-5.4054250667207558E-2</v>
       </c>
       <c r="AK45" s="11" cm="1">
         <f t="array" ref="AK45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AK$1)/Ns!$B$1</f>
-        <v>-701.75855763872062</v>
+        <v>3.2556494684127398E-4</v>
       </c>
       <c r="AL45" s="11" cm="1">
         <f t="array" ref="AL45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AL$1)/Ns!$B$1</f>
-        <v>2.1389821354440338E-3</v>
+        <v>4.2621514898831668E-2</v>
       </c>
       <c r="AM45" s="11" cm="1">
         <f t="array" ref="AM45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AM$1)/Ns!$B$1</f>
-        <v>-4401.167445404194</v>
+        <v>1.3613219993927133E-3</v>
       </c>
       <c r="AN45" s="11" cm="1">
         <f t="array" ref="AN45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AN$1)/Ns!$B$1</f>
-        <v>-18.020994992728717</v>
+        <v>-1.5645820010581742E-5</v>
       </c>
       <c r="AO45" s="11" cm="1">
         <f t="array" ref="AO45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AO$1)/Ns!$B$1</f>
-        <v>0.3339454319419784</v>
+        <v>2.8116227361705957E-2</v>
       </c>
       <c r="AP45" s="11" cm="1">
         <f t="array" ref="AP45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AP$1)/Ns!$B$1</f>
-        <v>1763.1840093704454</v>
+        <v>2.1389821354440338E-3</v>
       </c>
       <c r="AQ45" s="11" cm="1">
         <f t="array" ref="AQ45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AQ$1)/Ns!$B$1</f>
-        <v>1313.0883583612517</v>
+        <v>-2.1518354241038668E-2</v>
       </c>
       <c r="AR45" s="11" cm="1">
         <f t="array" ref="AR45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AR$1)/Ns!$B$1</f>
-        <v>-1.7860689167723443E-3</v>
+        <v>-4.6291652160110119E-4</v>
       </c>
       <c r="AS45" s="11" cm="1">
         <f t="array" ref="AS45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AS$1)/Ns!$B$1</f>
-        <v>2298.0605309161074</v>
+        <v>2.4723379702044511E-4</v>
       </c>
       <c r="AT45" s="11" cm="1">
         <f t="array" ref="AT45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AT$1)/Ns!$B$1</f>
@@ -58254,11 +58254,11 @@
       </c>
       <c r="AU45" s="11" cm="1">
         <f t="array" ref="AU45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AU$1)/Ns!$B$1</f>
-        <v>-115.69705301714977</v>
+        <v>1.9292547643326243E-2</v>
       </c>
       <c r="AV45" s="11" cm="1">
         <f t="array" ref="AV45">INDEX(W_psid!$B$2:$CZ$104,W_!$A45,W_!AV$1)/Ns!$B$1</f>
-        <v>1.0362433306533667</v>
+        <v>3.5940734792158446E-4</v>
       </c>
       <c r="AW45" s="11">
         <v>0</v>
@@ -58650,31 +58650,31 @@
       </c>
       <c r="AK47" s="11" cm="1">
         <f t="array" ref="AK47">INDEX(W_psid!$B$2:$CZ$104,W_!$A47,W_!AK$1)/Ns!$B$1</f>
-        <v>46.30025903218278</v>
+        <v>221.14962958502946</v>
       </c>
       <c r="AL47" s="11" cm="1">
         <f t="array" ref="AL47">INDEX(W_psid!$B$2:$CZ$104,W_!$A47,W_!AL$1)/Ns!$B$1</f>
-        <v>1.9292547643326243E-2</v>
+        <v>-88.336794850781061</v>
       </c>
       <c r="AM47" s="11" cm="1">
         <f t="array" ref="AM47">INDEX(W_psid!$B$2:$CZ$104,W_!$A47,W_!AM$1)/Ns!$B$1</f>
-        <v>221.14962958502946</v>
+        <v>-1.0815378701130609</v>
       </c>
       <c r="AN47" s="11" cm="1">
         <f t="array" ref="AN47">INDEX(W_psid!$B$2:$CZ$104,W_!$A47,W_!AN$1)/Ns!$B$1</f>
-        <v>-1.0815378701130609</v>
+        <v>-4.4065440168103379E-3</v>
       </c>
       <c r="AO47" s="11" cm="1">
         <f t="array" ref="AO47">INDEX(W_psid!$B$2:$CZ$104,W_!$A47,W_!AO$1)/Ns!$B$1</f>
-        <v>-4.4065440168103379E-3</v>
+        <v>-117.46735971824071</v>
       </c>
       <c r="AP47" s="11" cm="1">
         <f t="array" ref="AP47">INDEX(W_psid!$B$2:$CZ$104,W_!$A47,W_!AP$1)/Ns!$B$1</f>
-        <v>-117.46735971824071</v>
+        <v>-115.69705301714977</v>
       </c>
       <c r="AQ47" s="11" cm="1">
         <f t="array" ref="AQ47">INDEX(W_psid!$B$2:$CZ$104,W_!$A47,W_!AQ$1)/Ns!$B$1</f>
-        <v>-88.336794850781061</v>
+        <v>46.30025903218278</v>
       </c>
       <c r="AR47" s="11" cm="1">
         <f t="array" ref="AR47">INDEX(W_psid!$B$2:$CZ$104,W_!$A47,W_!AR$1)/Ns!$B$1</f>
@@ -58682,7 +58682,7 @@
       </c>
       <c r="AS47" s="11" cm="1">
         <f t="array" ref="AS47">INDEX(W_psid!$B$2:$CZ$104,W_!$A47,W_!AS$1)/Ns!$B$1</f>
-        <v>-115.69705301714977</v>
+        <v>1.9292547643326243E-2</v>
       </c>
       <c r="AT47" s="11" cm="1">
         <f t="array" ref="AT47">INDEX(W_psid!$B$2:$CZ$104,W_!$A47,W_!AT$1)/Ns!$B$1</f>
@@ -58875,31 +58875,31 @@
       </c>
       <c r="AK48" s="11" cm="1">
         <f t="array" ref="AK48">INDEX(W_psid!$B$2:$CZ$104,W_!$A48,W_!AK$1)/Ns!$B$1</f>
-        <v>-0.76082596409849357</v>
+        <v>-2.0639005749962931</v>
       </c>
       <c r="AL48" s="11" cm="1">
         <f t="array" ref="AL48">INDEX(W_psid!$B$2:$CZ$104,W_!$A48,W_!AL$1)/Ns!$B$1</f>
-        <v>3.5940734792158446E-4</v>
+        <v>1.5067542436425081</v>
       </c>
       <c r="AM48" s="11" cm="1">
         <f t="array" ref="AM48">INDEX(W_psid!$B$2:$CZ$104,W_!$A48,W_!AM$1)/Ns!$B$1</f>
-        <v>-2.0639005749962931</v>
+        <v>-2.603914069368967E-2</v>
       </c>
       <c r="AN48" s="11" cm="1">
         <f t="array" ref="AN48">INDEX(W_psid!$B$2:$CZ$104,W_!$A48,W_!AN$1)/Ns!$B$1</f>
-        <v>-2.603914069368967E-2</v>
+        <v>2.682026602918913E-4</v>
       </c>
       <c r="AO48" s="11" cm="1">
         <f t="array" ref="AO48">INDEX(W_psid!$B$2:$CZ$104,W_!$A48,W_!AO$1)/Ns!$B$1</f>
-        <v>2.682026602918913E-4</v>
+        <v>1.0708061005171146</v>
       </c>
       <c r="AP48" s="11" cm="1">
         <f t="array" ref="AP48">INDEX(W_psid!$B$2:$CZ$104,W_!$A48,W_!AP$1)/Ns!$B$1</f>
-        <v>1.0708061005171146</v>
+        <v>1.0362433306533667</v>
       </c>
       <c r="AQ48" s="11" cm="1">
         <f t="array" ref="AQ48">INDEX(W_psid!$B$2:$CZ$104,W_!$A48,W_!AQ$1)/Ns!$B$1</f>
-        <v>1.5067542436425081</v>
+        <v>-0.76082596409849357</v>
       </c>
       <c r="AR48" s="11" cm="1">
         <f t="array" ref="AR48">INDEX(W_psid!$B$2:$CZ$104,W_!$A48,W_!AR$1)/Ns!$B$1</f>
@@ -58907,7 +58907,7 @@
       </c>
       <c r="AS48" s="11" cm="1">
         <f t="array" ref="AS48">INDEX(W_psid!$B$2:$CZ$104,W_!$A48,W_!AS$1)/Ns!$B$1</f>
-        <v>1.0362433306533667</v>
+        <v>3.5940734792158446E-4</v>
       </c>
       <c r="AT48" s="11" cm="1">
         <f t="array" ref="AT48">INDEX(W_psid!$B$2:$CZ$104,W_!$A48,W_!AT$1)/Ns!$B$1</f>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranos\OneDrive - Umich\Documents\D\Michigan\Res\Female careers in location\Codes\matlab\JMP\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{EF9D61E6-B168-4AD1-B5B4-FCA6F5A94DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA1477D7-75F8-40CB-850A-5FEBA040FBB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B4">
         <f>(D4*$R$4+C4*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B4</f>
-        <v>-0.32184329306951331</v>
+        <v>-0.27778312343185063</v>
       </c>
       <c r="C4">
         <f>PARS!C4</f>
@@ -1581,11 +1581,11 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0.58564011562925211</v>
+        <v>0.66699047172628767</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.96388229047167728</v>
+        <v>0.84120865093216668</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B5">
         <f>(D5*$R$4+C5*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B5</f>
-        <v>-0.32184329306951331</v>
+        <v>-0.27778312343185063</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B7">
         <f>(D7*$R$4+C7*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B7</f>
-        <v>-1.561181375116752</v>
+        <v>-1.5295212784050551</v>
       </c>
       <c r="C7">
         <f>PARS!C7</f>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B8">
         <f>(D8*$R$4+C8*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B8</f>
-        <v>6.7718694027292137E-2</v>
+        <v>8.1640442577964295E-2</v>
       </c>
       <c r="C8">
         <f>PARS!C8</f>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B9">
         <f>(D9*$R$4+C9*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B9</f>
-        <v>1.3763432105613633</v>
+        <v>1.3942177107405094</v>
       </c>
       <c r="C9">
         <f>PARS!C9</f>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B10">
         <f>(D10*$R$4+C10*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B10</f>
-        <v>-0.14332845201814556</v>
+        <v>-9.9268282380482867E-2</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B11">
         <f>(D11*$R$4+C11*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B11</f>
-        <v>-4.5832975687382307</v>
+        <v>-4.568389453272955</v>
       </c>
       <c r="C11">
         <f>PARS!C11</f>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B12">
         <f>(D12*$R$4+C12*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B12</f>
-        <v>0.54626342574470754</v>
+        <v>0.57006810384210416</v>
       </c>
       <c r="C12">
         <f>PARS!C12</f>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B13">
         <f>(D13*$R$4+C13*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B13</f>
-        <v>0.9065213850904954</v>
+        <v>0.91528086603359982</v>
       </c>
       <c r="C13">
         <f>PARS!C13</f>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B14">
         <f>(D14*$R$4+C14*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B14</f>
-        <v>1.3077023078804606</v>
+        <v>1.3203382959923009</v>
       </c>
       <c r="C14">
         <f>PARS!C14</f>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="B16">
         <f>(D16*$R$4+C16*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B16</f>
-        <v>-1.6466164320341892</v>
+        <v>-1.5906405846070051</v>
       </c>
       <c r="C16">
         <f>PARS!C16</f>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B17">
         <f>(D17*$R$4+C17*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B17</f>
-        <v>-0.69197533062967953</v>
+        <v>-0.68190351862130483</v>
       </c>
       <c r="C17">
         <f>PARS!C17</f>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B18">
         <f>(D18*$R$4+C18*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B18</f>
-        <v>2.071221619422162</v>
+        <v>2.0831372972116835</v>
       </c>
       <c r="C18">
         <f>PARS!C18</f>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B19">
         <f>(D19*$R$4+C19*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B19</f>
-        <v>1.9700344247726751</v>
+        <v>2.0187752022176748</v>
       </c>
       <c r="C19">
         <f>PARS!C19</f>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B20">
         <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>0.11204259646306883</v>
+        <v>0.1258281929956199</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B21">
         <f>(D21*$R$4+C21*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B21</f>
-        <v>0.50346791454799278</v>
+        <v>0.50743166318345467</v>
       </c>
       <c r="C21">
         <f>PARS!C21</f>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B22">
         <f>(D22*$R$4+C22*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B22</f>
-        <v>2.486812821747904</v>
+        <v>2.5991862138914987</v>
       </c>
       <c r="C22">
         <f>PARS!C22</f>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B24">
         <f>(D24*$R$4+C24*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B24</f>
-        <v>-2.9148790749659828E-2</v>
+        <v>-2.2640762261896985E-2</v>
       </c>
       <c r="C24">
         <f>PARS!C24</f>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B25">
         <f>(D25*$R$4+C25*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B25</f>
-        <v>0.25712802312585042</v>
+        <v>0.27339809434525753</v>
       </c>
       <c r="C25">
         <f>PARS!C25</f>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="B26">
         <f>(D26*$R$4+C26*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B26</f>
-        <v>-0.18622002730320339</v>
+        <v>-0.1625424003839962</v>
       </c>
       <c r="C26">
         <f>PARS!C26</f>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B27">
         <f>(D27*$R$4+C27*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B27</f>
-        <v>0.58564011562925211</v>
+        <v>0.66699047172628767</v>
       </c>
       <c r="C27">
         <f>PARS!C27</f>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B29">
         <f>(D29*$R$4+C29*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B29</f>
-        <v>1.3787327289173574</v>
+        <v>1.4161959523691157</v>
       </c>
       <c r="C29">
         <f>PARS!C29</f>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B30">
         <f>(D30*$R$4+C30*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B30</f>
-        <v>0.94411754638851264</v>
+        <v>0.95710932347522049</v>
       </c>
       <c r="C30">
         <f>PARS!C30</f>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B31">
         <f>(D31*$R$4+C31*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B31</f>
-        <v>7.2248441629538807E-2</v>
+        <v>0.22037083413142178</v>
       </c>
       <c r="C31">
         <f>PARS!C31</f>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="B32">
         <f>(D32*$R$4+C32*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B32</f>
-        <v>1.4868128217478782</v>
+        <v>1.5991862138914692</v>
       </c>
       <c r="C32">
         <f>PARS!C32</f>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B33">
         <f>(D33*$R$4+C33*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B33</f>
-        <v>-0.35344115077234661</v>
+        <v>-0.30470037332734673</v>
       </c>
       <c r="C33">
         <f>PARS!C33</f>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="B34">
         <f>(D34*$R$4+C34*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B34</f>
-        <v>-0.35550309400846669</v>
+        <v>-0.34543128200009199</v>
       </c>
       <c r="C34">
         <f>PARS!C34</f>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B35">
         <f>(D35*$R$4+C35*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B35</f>
-        <v>1.3968206848015878</v>
+        <v>1.5496399633224918</v>
       </c>
       <c r="C35">
         <f>PARS!C35</f>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B36">
         <f>(D36*$R$4+C36*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B36</f>
-        <v>1.4371443912889359</v>
+        <v>1.6178636437119756</v>
       </c>
       <c r="C36">
         <f>PARS!C36</f>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B37">
         <f>(D37*$R$4+C37*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B37</f>
-        <v>0.21132668929660442</v>
+        <v>0.22576317547247654</v>
       </c>
       <c r="C37">
         <f>PARS!C37</f>
@@ -32607,7 +32607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -35412,7 +35412,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="str">
-        <f>A5</f>
+        <f t="shared" ref="B5:B18" si="0">A5</f>
         <v>whours_pww_dif</v>
       </c>
       <c r="C5">
@@ -35435,7 +35435,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="str">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>hhours_pww</v>
       </c>
       <c r="C6">
@@ -35458,7 +35458,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="str">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>hhours_pwn_dif</v>
       </c>
       <c r="C7">
@@ -35481,7 +35481,7 @@
         <v>50</v>
       </c>
       <c r="B8" t="str">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>whours_pnw_difwpww</v>
       </c>
       <c r="C8">
@@ -35504,7 +35504,7 @@
         <v>47</v>
       </c>
       <c r="B9" t="str">
-        <f>A9</f>
+        <f t="shared" si="0"/>
         <v>shours</v>
       </c>
       <c r="C9">
@@ -35527,7 +35527,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="str">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>whwk_pww</v>
       </c>
       <c r="C10">
@@ -35553,7 +35553,7 @@
         <v>52</v>
       </c>
       <c r="B11" t="str">
-        <f>A11</f>
+        <f t="shared" si="0"/>
         <v>whwk_pwn_dif</v>
       </c>
       <c r="C11">
@@ -35579,7 +35579,7 @@
         <v>53</v>
       </c>
       <c r="B12" t="str">
-        <f>A12</f>
+        <f t="shared" si="0"/>
         <v>whwk_pnw_dif</v>
       </c>
       <c r="C12">
@@ -35602,7 +35602,7 @@
         <v>54</v>
       </c>
       <c r="B13" t="str">
-        <f>A13</f>
+        <f t="shared" si="0"/>
         <v>hhwk_pww_dif</v>
       </c>
       <c r="C13">
@@ -35628,7 +35628,7 @@
         <v>55</v>
       </c>
       <c r="B14" t="str">
-        <f>A14</f>
+        <f t="shared" si="0"/>
         <v>hhwk_pwn_difhpww</v>
       </c>
       <c r="C14">
@@ -35654,7 +35654,7 @@
         <v>56</v>
       </c>
       <c r="B15" t="str">
-        <f>A15</f>
+        <f t="shared" si="0"/>
         <v>hhwk_pnw_difhpww</v>
       </c>
       <c r="C15">
@@ -35682,7 +35682,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="str">
-        <f>A16</f>
+        <f t="shared" si="0"/>
         <v>shwk</v>
       </c>
       <c r="C16">
@@ -35708,7 +35708,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="str">
-        <f>A17</f>
+        <f t="shared" si="0"/>
         <v>wlfp_dif</v>
       </c>
       <c r="C17">
@@ -35731,7 +35731,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="str">
-        <f>A18</f>
+        <f t="shared" si="0"/>
         <v>hlfp</v>
       </c>
       <c r="C18">
@@ -35776,7 +35776,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="str">
-        <f>A20</f>
+        <f t="shared" ref="B20:B25" si="1">A20</f>
         <v>hdj</v>
       </c>
       <c r="C20">
@@ -35799,7 +35799,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="str">
-        <f>A21</f>
+        <f t="shared" si="1"/>
         <v>hdo</v>
       </c>
       <c r="C21">
@@ -35822,7 +35822,7 @@
         <v>57</v>
       </c>
       <c r="B22" t="str">
-        <f>A22</f>
+        <f t="shared" si="1"/>
         <v>d_jobjob_all_psid</v>
       </c>
       <c r="C22">
@@ -35845,7 +35845,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="str">
-        <f>A23</f>
+        <f t="shared" si="1"/>
         <v>d_jobjob_within_psid</v>
       </c>
       <c r="C23">
@@ -35868,7 +35868,7 @@
         <v>59</v>
       </c>
       <c r="B24" t="str">
-        <f>A24</f>
+        <f t="shared" si="1"/>
         <v>d_jobjob_hw</v>
       </c>
       <c r="C24">
@@ -35891,7 +35891,7 @@
         <v>60</v>
       </c>
       <c r="B25" t="str">
-        <f>A25</f>
+        <f t="shared" si="1"/>
         <v>d_jobjob_hw_actual</v>
       </c>
       <c r="C25">
@@ -36028,7 +36028,7 @@
         <v>61</v>
       </c>
       <c r="B31" t="str">
-        <f>A31</f>
+        <f t="shared" ref="B31:B43" si="2">A31</f>
         <v>abs_hdo_wdo</v>
       </c>
       <c r="C31">
@@ -36051,7 +36051,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="str">
-        <f>A32</f>
+        <f t="shared" si="2"/>
         <v>betacom_w</v>
       </c>
       <c r="C32">
@@ -36074,7 +36074,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="str">
-        <f>A33</f>
+        <f t="shared" si="2"/>
         <v>betalfp_w</v>
       </c>
       <c r="C33">
@@ -36097,7 +36097,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="str">
-        <f>A34</f>
+        <f t="shared" si="2"/>
         <v>betahrs_w</v>
       </c>
       <c r="C34">
@@ -36120,7 +36120,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="str">
-        <f>A35</f>
+        <f t="shared" si="2"/>
         <v>betahrs0_w</v>
       </c>
       <c r="C35">
@@ -36143,7 +36143,7 @@
         <v>119</v>
       </c>
       <c r="B36" t="str">
-        <f>A36</f>
+        <f t="shared" si="2"/>
         <v>betahwk_w</v>
       </c>
       <c r="C36">
@@ -36166,7 +36166,7 @@
         <v>31</v>
       </c>
       <c r="B37" t="str">
-        <f>A37</f>
+        <f t="shared" si="2"/>
         <v>betacom</v>
       </c>
       <c r="C37">
@@ -36189,7 +36189,7 @@
         <v>33</v>
       </c>
       <c r="B38" t="str">
-        <f>A38</f>
+        <f t="shared" si="2"/>
         <v>betalfp</v>
       </c>
       <c r="C38">
@@ -36212,7 +36212,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="str">
-        <f>A39</f>
+        <f t="shared" si="2"/>
         <v>betahrs</v>
       </c>
       <c r="C39">
@@ -36235,7 +36235,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="str">
-        <f>A40</f>
+        <f t="shared" si="2"/>
         <v>betahrs0</v>
       </c>
       <c r="C40">
@@ -36258,7 +36258,7 @@
         <v>118</v>
       </c>
       <c r="B41" t="str">
-        <f>A41</f>
+        <f t="shared" si="2"/>
         <v>betahwk</v>
       </c>
       <c r="C41">
@@ -36281,7 +36281,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="str">
-        <f>A42</f>
+        <f t="shared" si="2"/>
         <v>betalwg_w</v>
       </c>
       <c r="C42">
@@ -36304,7 +36304,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="str">
-        <f>A43</f>
+        <f t="shared" si="2"/>
         <v>betalwg</v>
       </c>
       <c r="C43">
@@ -36389,7 +36389,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="str">
-        <f>A47</f>
+        <f t="shared" ref="B47:B54" si="3">A47</f>
         <v>NLY_</v>
       </c>
       <c r="C47">
@@ -36414,7 +36414,7 @@
         <v>62</v>
       </c>
       <c r="B48" t="str">
-        <f>A48</f>
+        <f t="shared" si="3"/>
         <v>shouseexp</v>
       </c>
       <c r="C48">
@@ -36437,7 +36437,7 @@
         <v>176</v>
       </c>
       <c r="B49" t="str">
-        <f>A49</f>
+        <f t="shared" si="3"/>
         <v>scity</v>
       </c>
       <c r="C49">
@@ -36459,7 +36459,7 @@
         <v>19</v>
       </c>
       <c r="B50" t="str">
-        <f>A50</f>
+        <f t="shared" si="3"/>
         <v>sjobscity</v>
       </c>
       <c r="C50">
@@ -36482,7 +36482,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="str">
-        <f>A51</f>
+        <f t="shared" si="3"/>
         <v>p_gradient</v>
       </c>
       <c r="C51">
@@ -36505,7 +36505,7 @@
         <v>17</v>
       </c>
       <c r="B52" t="str">
-        <f>A52</f>
+        <f t="shared" si="3"/>
         <v>p_gradient_simple</v>
       </c>
       <c r="C52">
@@ -36528,7 +36528,7 @@
         <v>9</v>
       </c>
       <c r="B53" t="str">
-        <f>A53</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="C53">
@@ -36551,7 +36551,7 @@
         <v>189</v>
       </c>
       <c r="B54" t="str">
-        <f>A54</f>
+        <f t="shared" si="3"/>
         <v>snmarried</v>
       </c>
       <c r="C54">

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranos\OneDrive - Umich\Documents\D\Michigan\Res\Female careers in location\Codes\matlab\JMP\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B625C4E-5245-43D6-8678-8EBB7228697D}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="2" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B4">
         <f>(D4*$R$4+C4*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B4</f>
-        <v>-0.27778312343185063</v>
+        <v>-0.46556839857654353</v>
       </c>
       <c r="C4">
         <f>PARS!C4</f>
@@ -1581,11 +1581,11 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0.66699047172628767</v>
+        <v>0.32027371760507162</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.84120865093216668</v>
+        <v>0.57460757496888504</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B5">
         <f>(D5*$R$4+C5*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B5</f>
-        <v>-0.27778312343185063</v>
+        <v>-0.46556839857654353</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B7">
         <f>(D7*$R$4+C7*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B7</f>
-        <v>-1.5295212784050551</v>
+        <v>-1.664457208543453</v>
       </c>
       <c r="C7">
         <f>PARS!C7</f>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B8">
         <f>(D8*$R$4+C8*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B8</f>
-        <v>8.1640442577964295E-2</v>
+        <v>2.2305687319816296E-2</v>
       </c>
       <c r="C8">
         <f>PARS!C8</f>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B9">
         <f>(D9*$R$4+C9*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B9</f>
-        <v>1.3942177107405094</v>
+        <v>1.3180362533875718</v>
       </c>
       <c r="C9">
         <f>PARS!C9</f>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B10">
         <f>(D10*$R$4+C10*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B10</f>
-        <v>-9.9268282380482867E-2</v>
+        <v>-0.28705355752517575</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B11">
         <f>(D11*$R$4+C11*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B11</f>
-        <v>-4.568389453272955</v>
+        <v>-4.631928122950308</v>
       </c>
       <c r="C11">
         <f>PARS!C11</f>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B12">
         <f>(D12*$R$4+C12*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B12</f>
-        <v>0.57006810384210416</v>
+        <v>0.46861211620039167</v>
       </c>
       <c r="C12">
         <f>PARS!C12</f>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B13">
         <f>(D13*$R$4+C13*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B13</f>
-        <v>0.91528086603359982</v>
+        <v>0.87794779281684376</v>
       </c>
       <c r="C13">
         <f>PARS!C13</f>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B14">
         <f>(D14*$R$4+C14*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B14</f>
-        <v>1.3203382959923009</v>
+        <v>1.2664834760081605</v>
       </c>
       <c r="C14">
         <f>PARS!C14</f>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="B16">
         <f>(D16*$R$4+C16*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B16</f>
-        <v>-1.5906405846070051</v>
+        <v>-1.8292107035378664</v>
       </c>
       <c r="C16">
         <f>PARS!C16</f>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B17">
         <f>(D17*$R$4+C17*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B17</f>
-        <v>-0.68190351862130483</v>
+        <v>-0.72482977162377937</v>
       </c>
       <c r="C17">
         <f>PARS!C17</f>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B18">
         <f>(D18*$R$4+C18*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B18</f>
-        <v>2.0831372972116835</v>
+        <v>2.0323524534255148</v>
       </c>
       <c r="C18">
         <f>PARS!C18</f>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B19">
         <f>(D19*$R$4+C19*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B19</f>
-        <v>2.0187752022176748</v>
+        <v>1.8110410881971128</v>
       </c>
       <c r="C19">
         <f>PARS!C19</f>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B20">
         <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>0.1258281929956199</v>
+        <v>6.7073720210159393E-2</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B21">
         <f>(D21*$R$4+C21*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B21</f>
-        <v>0.50743166318345467</v>
+        <v>0.49053809163718548</v>
       </c>
       <c r="C21">
         <f>PARS!C21</f>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B22">
         <f>(D22*$R$4+C22*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B22</f>
-        <v>2.5991862138914987</v>
+        <v>2.1202486942186445</v>
       </c>
       <c r="C22">
         <f>PARS!C22</f>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B24">
         <f>(D24*$R$4+C24*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B24</f>
-        <v>-2.2640762261896985E-2</v>
+        <v>-5.0378102591594268E-2</v>
       </c>
       <c r="C24">
         <f>PARS!C24</f>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B25">
         <f>(D25*$R$4+C25*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B25</f>
-        <v>0.27339809434525753</v>
+        <v>0.20405474352101433</v>
       </c>
       <c r="C25">
         <f>PARS!C25</f>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="B26">
         <f>(D26*$R$4+C26*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B26</f>
-        <v>-0.1625424003839962</v>
+        <v>-0.26345689350469448</v>
       </c>
       <c r="C26">
         <f>PARS!C26</f>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B27">
         <f>(D27*$R$4+C27*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B27</f>
-        <v>0.66699047172628767</v>
+        <v>0.32027371760507162</v>
       </c>
       <c r="C27">
         <f>PARS!C27</f>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B29">
         <f>(D29*$R$4+C29*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B29</f>
-        <v>1.4161959523691157</v>
+        <v>1.2565269864629569</v>
       </c>
       <c r="C29">
         <f>PARS!C29</f>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B30">
         <f>(D30*$R$4+C30*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B30</f>
-        <v>0.95710932347522049</v>
+        <v>0.90173812416053334</v>
       </c>
       <c r="C30">
         <f>PARS!C30</f>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B31">
         <f>(D31*$R$4+C31*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B31</f>
-        <v>0.22037083413142178</v>
+        <v>-0.41092960024729197</v>
       </c>
       <c r="C31">
         <f>PARS!C31</f>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="B32">
         <f>(D32*$R$4+C32*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B32</f>
-        <v>1.5991862138914692</v>
+        <v>1.1202486942186305</v>
       </c>
       <c r="C32">
         <f>PARS!C32</f>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B33">
         <f>(D33*$R$4+C33*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B33</f>
-        <v>-0.30470037332734673</v>
+        <v>-0.51243448734790886</v>
       </c>
       <c r="C33">
         <f>PARS!C33</f>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="B34">
         <f>(D34*$R$4+C34*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B34</f>
-        <v>-0.34543128200009199</v>
+        <v>-0.38835753500256659</v>
       </c>
       <c r="C34">
         <f>PARS!C34</f>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B35">
         <f>(D35*$R$4+C35*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B35</f>
-        <v>1.5496399633224918</v>
+        <v>0.89832131202227128</v>
       </c>
       <c r="C35">
         <f>PARS!C35</f>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B36">
         <f>(D36*$R$4+C36*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B36</f>
-        <v>1.6178636437119756</v>
+        <v>0.84763477670382847</v>
       </c>
       <c r="C36">
         <f>PARS!C36</f>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B37">
         <f>(D37*$R$4+C37*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B37</f>
-        <v>0.22576317547247654</v>
+        <v>0.16423459873405707</v>
       </c>
       <c r="C37">
         <f>PARS!C37</f>
@@ -32607,7 +32607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -35307,8 +35307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B625C4E-5245-43D6-8678-8EBB7228697D}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EA33EB9-3B56-4C52-8536-C207723F7410}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="2" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.57460757496888504</v>
+        <v>5.6729481891899525E-3</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -35307,8 +35307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EA33EB9-3B56-4C52-8536-C207723F7410}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1E2C7EE-779C-4B4C-9BF4-2E7B0A9F72DA}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="2" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>5.6729481891899525E-3</v>
+        <v>0.10024138808990257</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B27">
         <f>(D27*$R$4+C27*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B27</f>
-        <v>0.32027371760507162</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <f>PARS!C27</f>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="D27">
         <f>PARS!D27</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <f t="shared" si="0"/>
@@ -32608,7 +32608,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34098,7 +34098,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -34107,7 +34107,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -35307,8 +35307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1E2C7EE-779C-4B4C-9BF4-2E7B0A9F72DA}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.10024138808990257</v>
+        <v>9.4615842624177438E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -32607,7 +32607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1E2C7EE-779C-4B4C-9BF4-2E7B0A9F72DA}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01915952-C660-4DCE-92CA-F0A01045647A}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1526,11 +1526,11 @@
       </c>
       <c r="B4">
         <f>(D4*$R$4+C4*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B4</f>
-        <v>-0.46556839857654353</v>
+        <v>-0.24677294878368652</v>
       </c>
       <c r="C4">
         <f>PARS!C4</f>
-        <v>-2.3025850929940455</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="D4">
         <f>PARS!D4</f>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>9.4615842624177438E-2</v>
+        <v>0.61742169453022755</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1594,11 +1594,11 @@
       </c>
       <c r="B5">
         <f>(D5*$R$4+C5*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B5</f>
-        <v>-0.46556839857654353</v>
+        <v>-0.24677294878368652</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
-        <v>-2.3025850929940455</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="D5">
         <f>PARS!D5</f>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B7">
         <f>(D7*$R$4+C7*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B7</f>
-        <v>-1.664457208543453</v>
+        <v>-1.5074950103107991</v>
       </c>
       <c r="C7">
         <f>PARS!C7</f>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D7">
         <f>PARS!D7</f>
-        <v>-0.35667494393873245</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="E7" t="b">
         <f t="shared" si="0"/>
@@ -1906,11 +1906,11 @@
       </c>
       <c r="B10">
         <f>(D10*$R$4+C10*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B10</f>
-        <v>-0.28705355752517575</v>
+        <v>-6.8258107732318746E-2</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
-        <v>-2.3025850929940455</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="D10">
         <f>PARS!D10</f>
@@ -2272,11 +2272,11 @@
       </c>
       <c r="B16">
         <f>(D16*$R$4+C16*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B16</f>
-        <v>-1.8292107035378664</v>
+        <v>-1.5161851825061017</v>
       </c>
       <c r="C16">
         <f>PARS!C16</f>
-        <v>-4.6051701859880909</v>
+        <v>-2.3025850929940455</v>
       </c>
       <c r="D16">
         <f>PARS!D16</f>
@@ -32607,8 +32607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32795,7 +32795,7 @@
       </c>
       <c r="C4" s="7">
         <f>LN(F4)</f>
-        <v>-2.3025850929940455</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="D4" s="7">
         <f>LN(G4)</f>
@@ -32805,7 +32805,7 @@
         <v>0.8</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
         <v>1.5</v>
@@ -32853,7 +32853,7 @@
       </c>
       <c r="C5">
         <f>C4</f>
-        <v>-2.3025850929940455</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="D5">
         <f>D4</f>
@@ -32864,11 +32864,10 @@
         <v>0.8</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:G5" si="4">F4</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F5:G5" si="4">G4</f>
         <v>1.5</v>
       </c>
       <c r="H5">
@@ -32955,7 +32954,7 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D9" si="5">LN(E7)</f>
-        <v>-1.6607312068216509</v>
+        <v>-1.4375876555074412</v>
       </c>
       <c r="C7">
         <f t="shared" si="5"/>
@@ -32963,16 +32962,17 @@
       </c>
       <c r="D7">
         <f t="shared" si="5"/>
-        <v>-0.35667494393873245</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="E7">
-        <v>0.19</v>
+        <f>0.19/0.8</f>
+        <v>0.23749999999999999</v>
       </c>
       <c r="F7">
         <v>0.1</v>
       </c>
       <c r="G7">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H7">
         <v>1.1000000000000001</v>
@@ -33004,7 +33004,7 @@
       </c>
       <c r="U7">
         <f>EXP(B7)</f>
-        <v>0.19</v>
+        <v>0.23749999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -33133,7 +33133,7 @@
       </c>
       <c r="C10">
         <f t="shared" ref="C10:G10" si="6">C4</f>
-        <v>-2.3025850929940455</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="D10">
         <f t="shared" si="6"/>
@@ -33144,7 +33144,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
         <f t="shared" si="6"/>
@@ -33484,7 +33484,7 @@
       </c>
       <c r="C16">
         <f>LN(-G16)</f>
-        <v>-4.6051701859880909</v>
+        <v>-2.3025850929940455</v>
       </c>
       <c r="D16">
         <f>LN(-F16)</f>
@@ -33497,7 +33497,7 @@
         <v>-0.312</v>
       </c>
       <c r="G16">
-        <v>-0.01</v>
+        <v>-0.1</v>
       </c>
       <c r="H16">
         <v>1.4</v>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01915952-C660-4DCE-92CA-F0A01045647A}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48C62E2-5A4E-4683-8979-DCB07102CE39}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.61742169453022755</v>
+        <v>0.24208767591928781</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B35">
         <f>(D35*$R$4+C35*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B35</f>
-        <v>0.89832131202227128</v>
+        <v>1.1028426384226033</v>
       </c>
       <c r="C35">
         <f>PARS!C35</f>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D35">
         <f>PARS!D35</f>
-        <v>2.4849066497880004</v>
+        <v>2.9957322735539909</v>
       </c>
       <c r="E35" t="b">
         <f t="shared" si="0"/>
@@ -32607,8 +32607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32867,7 +32867,7 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="F5:G5" si="4">G4</f>
+        <f t="shared" ref="G5" si="4">G4</f>
         <v>1.5</v>
       </c>
       <c r="H5">
@@ -34537,7 +34537,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="11"/>
-        <v>2.0977847712396644</v>
+        <v>2.3125354238472138</v>
       </c>
       <c r="C35">
         <f t="shared" si="11"/>
@@ -34545,16 +34545,16 @@
       </c>
       <c r="D35">
         <f t="shared" si="11"/>
-        <v>2.4849066497880004</v>
+        <v>2.9957322735539909</v>
       </c>
       <c r="E35">
-        <v>8.1480999999999995</v>
+        <v>10.1</v>
       </c>
       <c r="F35">
         <v>1E-3</v>
       </c>
       <c r="G35">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H35">
         <v>6</v>
@@ -34586,7 +34586,7 @@
       </c>
       <c r="U35">
         <f>EXP(B35)</f>
-        <v>8.1480999999999977</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.35">

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48C62E2-5A4E-4683-8979-DCB07102CE39}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB65EA3-C9FD-4E05-91F1-A390402F8668}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.24208767591928781</v>
+        <v>0.27347150341204229</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -32607,8 +32607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32718,15 +32718,15 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O49" si="0">SUM(K2:N2)</f>
+        <f>SUM(K2:N2)</f>
         <v>1</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R49" si="1">K2-P2</f>
+        <f>K2-P2</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S49" si="2">R2+M2+P2+L2</f>
+        <f>R2+M2+P2+L2</f>
         <v>1</v>
       </c>
       <c r="T2">
@@ -32769,19 +32769,19 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <f t="shared" si="0"/>
+        <f>SUM(K3:N3)</f>
         <v>1</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
+        <f>K3-P3</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" si="2"/>
+        <f>R3+M3+P3+L3</f>
         <v>1</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T39" si="3">S3-M3</f>
+        <f>S3-M3</f>
         <v>0</v>
       </c>
     </row>
@@ -32820,22 +32820,22 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f>SUM(K4:N4)</f>
         <v>1</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
+        <f>K4-P4</f>
         <v>1</v>
       </c>
       <c r="S4">
-        <f t="shared" si="2"/>
+        <f>R4+M4+P4+L4</f>
         <v>1</v>
       </c>
       <c r="T4">
-        <f t="shared" si="3"/>
+        <f>S4-M4</f>
         <v>1</v>
       </c>
       <c r="U4">
@@ -32867,7 +32867,7 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5" si="4">G4</f>
+        <f>G4</f>
         <v>1.5</v>
       </c>
       <c r="H5">
@@ -32880,15 +32880,15 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
+        <f>SUM(K5:N5)</f>
         <v>1</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f>K5-P5</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="2"/>
+        <f>R5+M5+P5+L5</f>
         <v>0</v>
       </c>
       <c r="T5">
@@ -32933,15 +32933,15 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
+        <f>SUM(K6:N6)</f>
         <v>1</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f>K6-P6</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
+        <f>R6+M6+P6+L6</f>
         <v>1</v>
       </c>
       <c r="T6" s="12">
@@ -32953,15 +32953,15 @@
         <v>76</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:D9" si="5">LN(E7)</f>
+        <f>LN(E7)</f>
         <v>-1.4375876555074412</v>
       </c>
       <c r="C7">
-        <f t="shared" si="5"/>
+        <f>LN(F7)</f>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D7">
-        <f t="shared" si="5"/>
+        <f>LN(G7)</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="E7">
@@ -32984,22 +32984,22 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
+        <f>SUM(K7:N7)</f>
         <v>1</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f>K7-P7</f>
         <v>1</v>
       </c>
       <c r="S7">
-        <f t="shared" si="2"/>
+        <f>R7+M7+P7+L7</f>
         <v>1</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
+        <f>S7-M7</f>
         <v>1</v>
       </c>
       <c r="U7">
@@ -33012,15 +33012,15 @@
         <v>94</v>
       </c>
       <c r="B8">
-        <f t="shared" si="5"/>
+        <f>LN(E8)</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="5"/>
+        <f>LN(F8)</f>
         <v>-0.16251892949777494</v>
       </c>
       <c r="D8">
-        <f t="shared" si="5"/>
+        <f>LN(G8)</f>
         <v>0.69314718055994529</v>
       </c>
       <c r="E8">
@@ -33045,19 +33045,19 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
+        <f>SUM(K8:N8)</f>
         <v>1</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
+        <f>K8-P8</f>
         <v>1</v>
       </c>
       <c r="S8">
-        <f t="shared" si="2"/>
+        <f>R8+M8+P8+L8</f>
         <v>1</v>
       </c>
       <c r="T8">
-        <f t="shared" si="3"/>
+        <f>S8-M8</f>
         <v>1</v>
       </c>
       <c r="U8">
@@ -33070,15 +33070,15 @@
         <v>95</v>
       </c>
       <c r="B9">
-        <f t="shared" si="5"/>
+        <f>LN(E9)</f>
         <v>1.3862943611198906</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
+        <f>LN(F9)</f>
         <v>0.69314718055994529</v>
       </c>
       <c r="D9">
-        <f t="shared" si="5"/>
+        <f>LN(G9)</f>
         <v>1.791759469228055</v>
       </c>
       <c r="E9">
@@ -33100,22 +33100,22 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
+        <f>SUM(K9:N9)</f>
         <v>1</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
+        <f>K9-P9</f>
         <v>1</v>
       </c>
       <c r="S9">
-        <f t="shared" si="2"/>
+        <f>R9+M9+P9+L9</f>
         <v>1</v>
       </c>
       <c r="T9">
-        <f t="shared" si="3"/>
+        <f>S9-M9</f>
         <v>1</v>
       </c>
       <c r="U9">
@@ -33132,22 +33132,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:G10" si="6">C4</f>
+        <f>C4</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="D10">
-        <f t="shared" si="6"/>
+        <f>D4</f>
         <v>0.40546510810816438</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="6"/>
+        <f>F4</f>
         <v>0.5</v>
       </c>
       <c r="G10">
-        <f t="shared" si="6"/>
+        <f>G4</f>
         <v>1.5</v>
       </c>
       <c r="H10">
@@ -33160,19 +33160,19 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
+        <f>SUM(K10:N10)</f>
         <v>1</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
+        <f>K10-P10</f>
         <v>0</v>
       </c>
       <c r="S10">
-        <f t="shared" si="2"/>
+        <f>R10+M10+P10+L10</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="3"/>
+        <f>S10-M10</f>
         <v>0</v>
       </c>
     </row>
@@ -33213,7 +33213,7 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <f t="shared" si="0"/>
+        <f>SUM(K11:N11)</f>
         <v>1</v>
       </c>
       <c r="P11">
@@ -33223,15 +33223,15 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
+        <f>K11-P11</f>
         <v>0</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
+        <f>R11+M11+P11+L11</f>
         <v>1</v>
       </c>
       <c r="T11">
-        <f t="shared" si="3"/>
+        <f>S11-M11</f>
         <v>1</v>
       </c>
       <c r="U11">
@@ -33274,7 +33274,7 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <f t="shared" si="0"/>
+        <f>SUM(K12:N12)</f>
         <v>1</v>
       </c>
       <c r="P12">
@@ -33284,15 +33284,15 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
+        <f>K12-P12</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
+        <f>R12+M12+P12+L12</f>
         <v>1</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f>S12-M12</f>
         <v>1</v>
       </c>
       <c r="U12">
@@ -33335,7 +33335,7 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <f t="shared" si="0"/>
+        <f>SUM(K13:N13)</f>
         <v>1</v>
       </c>
       <c r="P13">
@@ -33345,15 +33345,15 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f>K13-P13</f>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
+        <f>R13+M13+P13+L13</f>
         <v>1</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f>S13-M13</f>
         <v>1</v>
       </c>
     </row>
@@ -33391,7 +33391,7 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
+        <f>SUM(K14:N14)</f>
         <v>1</v>
       </c>
       <c r="P14">
@@ -33401,15 +33401,15 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f>K14-P14</f>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
+        <f>R14+M14+P14+L14</f>
         <v>1</v>
       </c>
       <c r="T14">
-        <f t="shared" si="3"/>
+        <f>S14-M14</f>
         <v>1</v>
       </c>
     </row>
@@ -33448,7 +33448,7 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <f t="shared" si="0"/>
+        <f>SUM(K15:N15)</f>
         <v>1</v>
       </c>
       <c r="P15">
@@ -33458,15 +33458,15 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f>K15-P15</f>
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="2"/>
+        <f>R15+M15+P15+L15</f>
         <v>1</v>
       </c>
       <c r="T15">
-        <f t="shared" si="3"/>
+        <f>S15-M15</f>
         <v>1</v>
       </c>
       <c r="U15">
@@ -33509,22 +33509,22 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <f t="shared" si="0"/>
+        <f>SUM(K16:N16)</f>
         <v>1</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f>K16-P16</f>
         <v>1</v>
       </c>
       <c r="S16">
-        <f t="shared" si="2"/>
+        <f>R16+M16+P16+L16</f>
         <v>1</v>
       </c>
       <c r="T16">
-        <f t="shared" si="3"/>
+        <f>S16-M16</f>
         <v>1</v>
       </c>
       <c r="U16">
@@ -33537,15 +33537,15 @@
         <v>98</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:D18" si="7">LN(E17)</f>
+        <f>LN(E17)</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="C17">
-        <f t="shared" si="7"/>
+        <f>LN(F17)</f>
         <v>-1.0498221244986778</v>
       </c>
       <c r="D17">
-        <f t="shared" si="7"/>
+        <f>LN(G17)</f>
         <v>-0.43078291609245423</v>
       </c>
       <c r="E17">
@@ -33570,19 +33570,19 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <f t="shared" si="0"/>
+        <f>SUM(K17:N17)</f>
         <v>1</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f>K17-P17</f>
         <v>1</v>
       </c>
       <c r="S17">
-        <f t="shared" si="2"/>
+        <f>R17+M17+P17+L17</f>
         <v>1</v>
       </c>
       <c r="T17">
-        <f t="shared" si="3"/>
+        <f>S17-M17</f>
         <v>1</v>
       </c>
       <c r="U17">
@@ -33595,15 +33595,15 @@
         <v>73</v>
       </c>
       <c r="B18">
-        <f t="shared" si="7"/>
+        <f>LN(E18)</f>
         <v>2.0794415416798357</v>
       </c>
       <c r="C18">
-        <f t="shared" si="7"/>
+        <f>LN(F18)</f>
         <v>1.6094379124341003</v>
       </c>
       <c r="D18">
-        <f t="shared" si="7"/>
+        <f>LN(G18)</f>
         <v>2.341805806147327</v>
       </c>
       <c r="E18">
@@ -33628,19 +33628,19 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <f t="shared" si="0"/>
+        <f>SUM(K18:N18)</f>
         <v>1</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
+        <f>K18-P18</f>
         <v>1</v>
       </c>
       <c r="S18">
-        <f t="shared" si="2"/>
+        <f>R18+M18+P18+L18</f>
         <v>1</v>
       </c>
       <c r="T18">
-        <f t="shared" si="3"/>
+        <f>S18-M18</f>
         <v>1</v>
       </c>
       <c r="U18">
@@ -33686,19 +33686,19 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <f t="shared" si="0"/>
+        <f>SUM(K19:N19)</f>
         <v>1</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
+        <f>K19-P19</f>
         <v>1</v>
       </c>
       <c r="S19">
-        <f t="shared" si="2"/>
+        <f>R19+M19+P19+L19</f>
         <v>1</v>
       </c>
       <c r="T19">
-        <f t="shared" si="3"/>
+        <f>S19-M19</f>
         <v>1</v>
       </c>
       <c r="U19">
@@ -33744,19 +33744,19 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <f t="shared" si="0"/>
+        <f>SUM(K20:N20)</f>
         <v>1</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
+        <f>K20-P20</f>
         <v>1</v>
       </c>
       <c r="S20">
-        <f t="shared" si="2"/>
+        <f>R20+M20+P20+L20</f>
         <v>1</v>
       </c>
       <c r="T20">
-        <f t="shared" si="3"/>
+        <f>S20-M20</f>
         <v>1</v>
       </c>
       <c r="U20">
@@ -33802,19 +33802,19 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <f t="shared" si="0"/>
+        <f>SUM(K21:N21)</f>
         <v>1</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
+        <f>K21-P21</f>
         <v>1</v>
       </c>
       <c r="S21">
-        <f t="shared" si="2"/>
+        <f>R21+M21+P21+L21</f>
         <v>1</v>
       </c>
       <c r="T21">
-        <f t="shared" si="3"/>
+        <f>S21-M21</f>
         <v>1</v>
       </c>
       <c r="U21">
@@ -33857,19 +33857,19 @@
         <v>1</v>
       </c>
       <c r="O22">
-        <f t="shared" si="0"/>
+        <f>SUM(K22:N22)</f>
         <v>1</v>
       </c>
       <c r="R22">
-        <f t="shared" si="1"/>
+        <f>K22-P22</f>
         <v>1</v>
       </c>
       <c r="S22">
-        <f t="shared" si="2"/>
+        <f>R22+M22+P22+L22</f>
         <v>1</v>
       </c>
       <c r="T22">
-        <f t="shared" si="3"/>
+        <f>S22-M22</f>
         <v>1</v>
       </c>
       <c r="U22">
@@ -33909,19 +33909,19 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <f t="shared" si="0"/>
+        <f>SUM(K23:N23)</f>
         <v>1</v>
       </c>
       <c r="R23">
-        <f t="shared" si="1"/>
+        <f>K23-P23</f>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="2"/>
+        <f>R23+M23+P23+L23</f>
         <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" si="3"/>
+        <f>S23-M23</f>
         <v>0</v>
       </c>
     </row>
@@ -33934,11 +33934,11 @@
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="B24:D25" si="8">F24</f>
+        <f>F24</f>
         <v>-0.2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="8"/>
+        <f>G24</f>
         <v>0.2</v>
       </c>
       <c r="E24">
@@ -33962,19 +33962,19 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <f t="shared" si="0"/>
+        <f>SUM(K24:N24)</f>
         <v>1</v>
       </c>
       <c r="R24">
-        <f t="shared" si="1"/>
+        <f>K24-P24</f>
         <v>1</v>
       </c>
       <c r="S24">
-        <f t="shared" si="2"/>
+        <f>R24+M24+P24+L24</f>
         <v>1</v>
       </c>
       <c r="T24">
-        <f t="shared" si="3"/>
+        <f>S24-M24</f>
         <v>1</v>
       </c>
     </row>
@@ -33983,15 +33983,15 @@
         <v>83</v>
       </c>
       <c r="B25">
-        <f t="shared" si="8"/>
+        <f>E25</f>
         <v>0.17499999999999999</v>
       </c>
       <c r="C25">
-        <f t="shared" si="8"/>
+        <f>F25</f>
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="8"/>
+        <f>G25</f>
         <v>1</v>
       </c>
       <c r="E25">
@@ -34013,19 +34013,19 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <f t="shared" si="0"/>
+        <f>SUM(K25:N25)</f>
         <v>1</v>
       </c>
       <c r="R25">
-        <f t="shared" si="1"/>
+        <f>K25-P25</f>
         <v>1</v>
       </c>
       <c r="S25">
-        <f t="shared" si="2"/>
+        <f>R25+M25+P25+L25</f>
         <v>1</v>
       </c>
       <c r="T25">
-        <f t="shared" si="3"/>
+        <f>S25-M25</f>
         <v>1</v>
       </c>
     </row>
@@ -34067,19 +34067,19 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <f t="shared" si="0"/>
+        <f>SUM(K26:N26)</f>
         <v>1</v>
       </c>
       <c r="R26">
-        <f t="shared" si="1"/>
+        <f>K26-P26</f>
         <v>1</v>
       </c>
       <c r="S26">
-        <f t="shared" si="2"/>
+        <f>R26+M26+P26+L26</f>
         <v>1</v>
       </c>
       <c r="T26">
-        <f t="shared" si="3"/>
+        <f>S26-M26</f>
         <v>1</v>
       </c>
       <c r="U26">
@@ -34123,15 +34123,15 @@
         <v>1</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
+        <f>K27-P27</f>
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="2"/>
+        <f>R27+M27+P27+L27</f>
         <v>0</v>
       </c>
       <c r="T27">
-        <f t="shared" si="3"/>
+        <f>S27-M27</f>
         <v>0</v>
       </c>
     </row>
@@ -34167,19 +34167,19 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <f t="shared" si="0"/>
+        <f>SUM(K28:N28)</f>
         <v>1</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
+        <f>K28-P28</f>
         <v>1</v>
       </c>
       <c r="S28">
-        <f t="shared" si="2"/>
+        <f>R28+M28+P28+L28</f>
         <v>1</v>
       </c>
       <c r="T28">
-        <f t="shared" si="3"/>
+        <f>S28-M28</f>
         <v>1</v>
       </c>
     </row>
@@ -34188,15 +34188,15 @@
         <v>88</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:D30" si="9">LN(E29)</f>
+        <f>LN(E29)</f>
         <v>1.3862943611198906</v>
       </c>
       <c r="C29">
-        <f t="shared" si="9"/>
+        <f>LN(F29)</f>
         <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="9"/>
+        <f>LN(G29)</f>
         <v>2.3025850929940459</v>
       </c>
       <c r="E29">
@@ -34221,19 +34221,19 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <f t="shared" si="0"/>
+        <f>SUM(K29:N29)</f>
         <v>1</v>
       </c>
       <c r="R29">
-        <f t="shared" si="1"/>
+        <f>K29-P29</f>
         <v>1</v>
       </c>
       <c r="S29">
-        <f t="shared" si="2"/>
+        <f>R29+M29+P29+L29</f>
         <v>1</v>
       </c>
       <c r="T29">
-        <f t="shared" si="3"/>
+        <f>S29-M29</f>
         <v>1</v>
       </c>
       <c r="U29">
@@ -34246,15 +34246,15 @@
         <v>85</v>
       </c>
       <c r="B30">
-        <f t="shared" si="9"/>
+        <f>LN(E30)</f>
         <v>0.91629073187415511</v>
       </c>
       <c r="C30">
-        <f t="shared" si="9"/>
+        <f>LN(F30)</f>
         <v>0.58778666490211906</v>
       </c>
       <c r="D30">
-        <f t="shared" si="9"/>
+        <f>LN(G30)</f>
         <v>1.3862943611198906</v>
       </c>
       <c r="E30">
@@ -34279,22 +34279,22 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <f t="shared" si="0"/>
+        <f>SUM(K30:N30)</f>
         <v>1</v>
       </c>
       <c r="Q30">
         <v>1</v>
       </c>
       <c r="R30">
-        <f t="shared" si="1"/>
+        <f>K30-P30</f>
         <v>1</v>
       </c>
       <c r="S30">
-        <f t="shared" si="2"/>
+        <f>R30+M30+P30+L30</f>
         <v>1</v>
       </c>
       <c r="T30">
-        <f t="shared" si="3"/>
+        <f>S30-M30</f>
         <v>1</v>
       </c>
       <c r="U30">
@@ -34307,15 +34307,15 @@
         <v>86</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:D32" si="10">-LN(1/E31 -1)</f>
+        <f>-LN(1/E31 -1)</f>
         <v>-0.69329718431032028</v>
       </c>
       <c r="C31">
-        <f t="shared" si="10"/>
+        <f>-LN(1/F31 -1)</f>
         <v>-2.1972245773362196</v>
       </c>
       <c r="D31">
-        <f t="shared" si="10"/>
+        <f>-LN(1/G31 -1)</f>
         <v>6.9067547786484651</v>
       </c>
       <c r="E31">
@@ -34337,19 +34337,19 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <f t="shared" si="0"/>
+        <f>SUM(K31:N31)</f>
         <v>1</v>
       </c>
       <c r="R31">
-        <f t="shared" si="1"/>
+        <f>K31-P31</f>
         <v>1</v>
       </c>
       <c r="S31">
-        <f t="shared" si="2"/>
+        <f>R31+M31+P31+L31</f>
         <v>1</v>
       </c>
       <c r="T31">
-        <f t="shared" si="3"/>
+        <f>S31-M31</f>
         <v>1</v>
       </c>
       <c r="U31">
@@ -34362,15 +34362,15 @@
         <v>87</v>
       </c>
       <c r="B32">
-        <f t="shared" si="10"/>
+        <f>-LN(1/E32 -1)</f>
         <v>0.84729786038720356</v>
       </c>
       <c r="C32">
-        <f t="shared" si="10"/>
+        <f>-LN(1/F32 -1)</f>
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" si="10"/>
+        <f>-LN(1/G32 -1)</f>
         <v>6.9067547786484651</v>
       </c>
       <c r="E32">
@@ -34395,19 +34395,19 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <f t="shared" si="0"/>
+        <f>SUM(K32:N32)</f>
         <v>1</v>
       </c>
       <c r="R32">
-        <f t="shared" si="1"/>
+        <f>K32-P32</f>
         <v>1</v>
       </c>
       <c r="S32">
-        <f t="shared" si="2"/>
+        <f>R32+M32+P32+L32</f>
         <v>1</v>
       </c>
       <c r="T32">
-        <f t="shared" si="3"/>
+        <f>S32-M32</f>
         <v>1</v>
       </c>
       <c r="U32">
@@ -34420,11 +34420,11 @@
         <v>89</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:D36" si="11">LN(E33)</f>
+        <f>LN(E33)</f>
         <v>-0.3047604139865322</v>
       </c>
       <c r="C33">
-        <f t="shared" si="11"/>
+        <f>LN(F33)</f>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D33">
@@ -34453,19 +34453,19 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <f t="shared" si="0"/>
+        <f>SUM(K33:N33)</f>
         <v>1</v>
       </c>
       <c r="R33">
-        <f t="shared" si="1"/>
+        <f>K33-P33</f>
         <v>1</v>
       </c>
       <c r="S33">
-        <f t="shared" si="2"/>
+        <f>R33+M33+P33+L33</f>
         <v>1</v>
       </c>
       <c r="T33">
-        <f t="shared" si="3"/>
+        <f>S33-M33</f>
         <v>1</v>
       </c>
       <c r="U33">
@@ -34478,15 +34478,15 @@
         <v>90</v>
       </c>
       <c r="B34">
-        <f t="shared" si="11"/>
+        <f>LN(E34)</f>
         <v>-0.35667494393873245</v>
       </c>
       <c r="C34">
-        <f t="shared" si="11"/>
+        <f>LN(F34)</f>
         <v>-0.71334988787746489</v>
       </c>
       <c r="D34">
-        <f t="shared" si="11"/>
+        <f>LN(G34)</f>
         <v>-9.4310679471241415E-2</v>
       </c>
       <c r="E34">
@@ -34511,19 +34511,19 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <f t="shared" si="0"/>
+        <f>SUM(K34:N34)</f>
         <v>1</v>
       </c>
       <c r="R34">
-        <f t="shared" si="1"/>
+        <f>K34-P34</f>
         <v>1</v>
       </c>
       <c r="S34">
-        <f t="shared" si="2"/>
+        <f>R34+M34+P34+L34</f>
         <v>1</v>
       </c>
       <c r="T34">
-        <f t="shared" si="3"/>
+        <f>S34-M34</f>
         <v>1</v>
       </c>
       <c r="U34">
@@ -34536,15 +34536,15 @@
         <v>91</v>
       </c>
       <c r="B35">
-        <f t="shared" si="11"/>
+        <f>LN(E35)</f>
         <v>2.3125354238472138</v>
       </c>
       <c r="C35">
-        <f t="shared" si="11"/>
+        <f>LN(F35)</f>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D35">
-        <f t="shared" si="11"/>
+        <f>LN(G35)</f>
         <v>2.9957322735539909</v>
       </c>
       <c r="E35">
@@ -34569,19 +34569,19 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <f t="shared" si="0"/>
+        <f>SUM(K35:N35)</f>
         <v>1</v>
       </c>
       <c r="R35">
-        <f t="shared" si="1"/>
+        <f>K35-P35</f>
         <v>1</v>
       </c>
       <c r="S35">
-        <f t="shared" si="2"/>
+        <f>R35+M35+P35+L35</f>
         <v>1</v>
       </c>
       <c r="T35">
-        <f t="shared" si="3"/>
+        <f>S35-M35</f>
         <v>1</v>
       </c>
       <c r="U35">
@@ -34594,15 +34594,15 @@
         <v>104</v>
       </c>
       <c r="B36">
-        <f t="shared" si="11"/>
+        <f>LN(E36)</f>
         <v>1.8971249848733813</v>
       </c>
       <c r="C36">
-        <f t="shared" si="11"/>
+        <f>LN(F36)</f>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D36">
-        <f t="shared" si="11"/>
+        <f>LN(G36)</f>
         <v>4.1997100778674268</v>
       </c>
       <c r="E36">
@@ -34627,19 +34627,19 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <f t="shared" si="0"/>
+        <f>SUM(K36:N36)</f>
         <v>1</v>
       </c>
       <c r="R36">
-        <f t="shared" si="1"/>
+        <f>K36-P36</f>
         <v>1</v>
       </c>
       <c r="S36">
-        <f t="shared" si="2"/>
+        <f>R36+M36+P36+L36</f>
         <v>1</v>
       </c>
       <c r="T36">
-        <f t="shared" si="3"/>
+        <f>S36-M36</f>
         <v>1</v>
       </c>
       <c r="U36">
@@ -34685,19 +34685,19 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <f t="shared" si="0"/>
+        <f>SUM(K37:N37)</f>
         <v>1</v>
       </c>
       <c r="R37">
-        <f t="shared" si="1"/>
+        <f>K37-P37</f>
         <v>1</v>
       </c>
       <c r="S37">
-        <f t="shared" si="2"/>
+        <f>R37+M37+P37+L37</f>
         <v>1</v>
       </c>
       <c r="T37">
-        <f t="shared" si="3"/>
+        <f>S37-M37</f>
         <v>1</v>
       </c>
       <c r="U37">
@@ -34745,21 +34745,21 @@
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(K38:N38)</f>
         <v>1</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38">
-        <f t="shared" si="1"/>
+        <f>K38-P38</f>
         <v>0</v>
       </c>
       <c r="S38">
-        <f t="shared" si="2"/>
+        <f>R38+M38+P38+L38</f>
         <v>1</v>
       </c>
       <c r="T38">
-        <f t="shared" si="3"/>
+        <f>S38-M38</f>
         <v>0</v>
       </c>
       <c r="U38" s="3"/>
@@ -34799,19 +34799,19 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <f t="shared" si="0"/>
+        <f>SUM(K39:N39)</f>
         <v>1</v>
       </c>
       <c r="R39">
-        <f t="shared" si="1"/>
+        <f>K39-P39</f>
         <v>0</v>
       </c>
       <c r="S39">
-        <f t="shared" si="2"/>
+        <f>R39+M39+P39+L39</f>
         <v>1</v>
       </c>
       <c r="T39">
-        <f t="shared" si="3"/>
+        <f>S39-M39</f>
         <v>1</v>
       </c>
     </row>
@@ -34850,15 +34850,15 @@
         <v>1</v>
       </c>
       <c r="O40">
-        <f t="shared" si="0"/>
+        <f>SUM(K40:N40)</f>
         <v>1</v>
       </c>
       <c r="R40">
-        <f t="shared" si="1"/>
+        <f>K40-P40</f>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="2"/>
+        <f>R40+M40+P40+L40</f>
         <v>1</v>
       </c>
       <c r="T40" s="13">
@@ -34900,15 +34900,15 @@
         <v>1</v>
       </c>
       <c r="O41">
-        <f t="shared" si="0"/>
+        <f>SUM(K41:N41)</f>
         <v>1</v>
       </c>
       <c r="R41">
-        <f t="shared" si="1"/>
+        <f>K41-P41</f>
         <v>0</v>
       </c>
       <c r="S41">
-        <f t="shared" si="2"/>
+        <f>R41+M41+P41+L41</f>
         <v>1</v>
       </c>
       <c r="T41">
@@ -34950,21 +34950,21 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <f t="shared" si="0"/>
+        <f>SUM(K42:N42)</f>
         <v>1</v>
       </c>
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42">
-        <f t="shared" si="1"/>
+        <f>K42-P42</f>
         <v>0</v>
       </c>
       <c r="S42">
-        <f t="shared" si="2"/>
+        <f>R42+M42+P42+L42</f>
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" ref="T42:T49" si="12">S42</f>
+        <f>S42</f>
         <v>0</v>
       </c>
       <c r="U42"/>
@@ -34974,15 +34974,15 @@
         <v>92</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43:D44" si="13">E43</f>
+        <f>E43</f>
         <v>0.1449</v>
       </c>
       <c r="C43">
-        <f t="shared" si="13"/>
+        <f>F43</f>
         <v>0.1449</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="13"/>
+        <f>G43</f>
         <v>0.1449</v>
       </c>
       <c r="E43">
@@ -35000,19 +35000,19 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <f t="shared" si="0"/>
+        <f>SUM(K43:N43)</f>
         <v>1</v>
       </c>
       <c r="R43">
-        <f t="shared" si="1"/>
+        <f>K43-P43</f>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="shared" si="2"/>
+        <f>R43+M43+P43+L43</f>
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="shared" si="12"/>
+        <f>S43</f>
         <v>0</v>
       </c>
     </row>
@@ -35021,15 +35021,15 @@
         <v>93</v>
       </c>
       <c r="B44">
-        <f t="shared" si="13"/>
+        <f>E44</f>
         <v>0.1449</v>
       </c>
       <c r="C44">
-        <f t="shared" si="13"/>
+        <f>F44</f>
         <v>0.1449</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="13"/>
+        <f>G44</f>
         <v>0.1449</v>
       </c>
       <c r="E44">
@@ -35047,19 +35047,19 @@
         <v>1</v>
       </c>
       <c r="O44">
-        <f t="shared" si="0"/>
+        <f>SUM(K44:N44)</f>
         <v>1</v>
       </c>
       <c r="R44">
-        <f t="shared" si="1"/>
+        <f>K44-P44</f>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="shared" si="2"/>
+        <f>R44+M44+P44+L44</f>
         <v>0</v>
       </c>
       <c r="T44">
-        <f t="shared" si="12"/>
+        <f>S44</f>
         <v>0</v>
       </c>
     </row>
@@ -35090,19 +35090,19 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <f t="shared" si="0"/>
+        <f>SUM(K45:N45)</f>
         <v>1</v>
       </c>
       <c r="R45">
-        <f t="shared" si="1"/>
+        <f>K45-P45</f>
         <v>0</v>
       </c>
       <c r="S45">
-        <f t="shared" si="2"/>
+        <f>R45+M45+P45+L45</f>
         <v>0</v>
       </c>
       <c r="T45">
-        <f t="shared" si="12"/>
+        <f>S45</f>
         <v>0</v>
       </c>
     </row>
@@ -35134,19 +35134,19 @@
         <v>1</v>
       </c>
       <c r="O46">
-        <f t="shared" si="0"/>
+        <f>SUM(K46:N46)</f>
         <v>1</v>
       </c>
       <c r="R46">
-        <f t="shared" si="1"/>
+        <f>K46-P46</f>
         <v>0</v>
       </c>
       <c r="S46">
-        <f t="shared" si="2"/>
+        <f>R46+M46+P46+L46</f>
         <v>0</v>
       </c>
       <c r="T46">
-        <f t="shared" si="12"/>
+        <f>S46</f>
         <v>0</v>
       </c>
     </row>
@@ -35181,19 +35181,19 @@
         <v>1</v>
       </c>
       <c r="O47">
-        <f t="shared" si="0"/>
+        <f>SUM(K47:N47)</f>
         <v>1</v>
       </c>
       <c r="R47">
-        <f t="shared" si="1"/>
+        <f>K47-P47</f>
         <v>0</v>
       </c>
       <c r="S47">
-        <f t="shared" si="2"/>
+        <f>R47+M47+P47+L47</f>
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="shared" si="12"/>
+        <f>S47</f>
         <v>0</v>
       </c>
     </row>
@@ -35202,7 +35202,7 @@
         <v>182</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:B49" si="14">E48</f>
+        <f>E48</f>
         <v>1.0035000000000001</v>
       </c>
       <c r="C48">
@@ -35228,19 +35228,19 @@
         <v>1</v>
       </c>
       <c r="O48">
-        <f t="shared" si="0"/>
+        <f>SUM(K48:N48)</f>
         <v>1</v>
       </c>
       <c r="R48">
-        <f t="shared" si="1"/>
+        <f>K48-P48</f>
         <v>0</v>
       </c>
       <c r="S48">
-        <f t="shared" si="2"/>
+        <f>R48+M48+P48+L48</f>
         <v>0</v>
       </c>
       <c r="T48">
-        <f t="shared" si="12"/>
+        <f>S48</f>
         <v>0</v>
       </c>
     </row>
@@ -35249,7 +35249,7 @@
         <v>183</v>
       </c>
       <c r="B49">
-        <f t="shared" si="14"/>
+        <f>E49</f>
         <v>0.97409999999999997</v>
       </c>
       <c r="C49">
@@ -35275,19 +35275,19 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <f t="shared" si="0"/>
+        <f>SUM(K49:N49)</f>
         <v>1</v>
       </c>
       <c r="R49">
-        <f t="shared" si="1"/>
+        <f>K49-P49</f>
         <v>0</v>
       </c>
       <c r="S49">
-        <f t="shared" si="2"/>
+        <f>R49+M49+P49+L49</f>
         <v>0</v>
       </c>
       <c r="T49">
-        <f t="shared" si="12"/>
+        <f>S49</f>
         <v>0</v>
       </c>
     </row>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB65EA3-C9FD-4E05-91F1-A390402F8668}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACBC16EA-545C-4C21-8651-6CA23F87B733}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B2">
         <f>(D2*$R$4+C2*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B2</f>
-        <v>20.430907591983051</v>
+        <v>20.430907591983047</v>
       </c>
       <c r="C2">
         <f>PARS!C2</f>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="E2" t="b">
         <f t="shared" ref="E2:E49" si="0">AND(D2&gt;=B2,B2&gt;=C2,D2&gt;=C2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f>PARS!J2</f>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B3">
         <f>(D3*$R$4+C3*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B3</f>
-        <v>1.8814014327029097E-3</v>
+        <v>1.8814014327029095E-3</v>
       </c>
       <c r="C3">
         <f>PARS!C3</f>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B4">
         <f>(D4*$R$4+C4*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B4</f>
-        <v>-0.24677294878368652</v>
+        <v>-0.16639442812767063</v>
       </c>
       <c r="C4">
         <f>PARS!C4</f>
@@ -1581,11 +1581,11 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0.32027371760507162</v>
+        <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.27347150341204229</v>
+        <v>0.95541648695426917</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B5">
         <f>(D5*$R$4+C5*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B5</f>
-        <v>-0.24677294878368652</v>
+        <v>-0.16639442812767063</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="B6">
         <f>(D6*$R$4+C6*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B6</f>
-        <v>1.6300000000000001</v>
+        <v>1.6299999999999997</v>
       </c>
       <c r="C6">
         <f>PARS!C6</f>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B7">
         <f>(D7*$R$4+C7*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B7</f>
-        <v>-1.5074950103107991</v>
+        <v>-1.4073880625152846</v>
       </c>
       <c r="C7">
         <f>PARS!C7</f>
@@ -1774,8 +1774,7 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <f>0.2</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -1784,7 +1783,7 @@
       </c>
       <c r="B8">
         <f>(D8*$R$4+C8*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B8</f>
-        <v>2.2305687319816296E-2</v>
+        <v>0.10526422096105716</v>
       </c>
       <c r="C8">
         <f>PARS!C8</f>
@@ -1845,7 +1844,7 @@
       </c>
       <c r="B9">
         <f>(D9*$R$4+C9*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B9</f>
-        <v>1.3180362533875718</v>
+        <v>1.3761004189121666</v>
       </c>
       <c r="C9">
         <f>PARS!C9</f>
@@ -1906,7 +1905,7 @@
       </c>
       <c r="B10">
         <f>(D10*$R$4+C10*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B10</f>
-        <v>-6.8258107732318746E-2</v>
+        <v>-1.0193942207723846E-2</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
@@ -1967,7 +1966,7 @@
       </c>
       <c r="B11">
         <f>(D11*$R$4+C11*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B11</f>
-        <v>-4.631928122950308</v>
+        <v>-4.5480029141652611</v>
       </c>
       <c r="C11">
         <f>PARS!C11</f>
@@ -2028,7 +2027,7 @@
       </c>
       <c r="B12">
         <f>(D12*$R$4+C12*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B12</f>
-        <v>0.46861211620039167</v>
+        <v>0.54040159629296203</v>
       </c>
       <c r="C12">
         <f>PARS!C12</f>
@@ -2089,7 +2088,7 @@
       </c>
       <c r="B13">
         <f>(D13*$R$4+C13*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B13</f>
-        <v>0.87794779281684376</v>
+        <v>0.91345140000000002</v>
       </c>
       <c r="C13">
         <f>PARS!C13</f>
@@ -2150,7 +2149,7 @@
       </c>
       <c r="B14">
         <f>(D14*$R$4+C14*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B14</f>
-        <v>1.2664834760081605</v>
+        <v>1.3176991999999998</v>
       </c>
       <c r="C14">
         <f>PARS!C14</f>
@@ -2272,7 +2271,7 @@
       </c>
       <c r="B16">
         <f>(D16*$R$4+C16*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B16</f>
-        <v>-1.5161851825061017</v>
+        <v>-1.4734483819529824</v>
       </c>
       <c r="C16">
         <f>PARS!C16</f>
@@ -2333,7 +2332,7 @@
       </c>
       <c r="B17">
         <f>(D17*$R$4+C17*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B17</f>
-        <v>-0.72482977162377937</v>
+        <v>-0.68872260622844483</v>
       </c>
       <c r="C17">
         <f>PARS!C17</f>
@@ -2394,7 +2393,7 @@
       </c>
       <c r="B18">
         <f>(D18*$R$4+C18*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B18</f>
-        <v>2.0323524534255148</v>
+        <v>2.0702666737744959</v>
       </c>
       <c r="C18">
         <f>PARS!C18</f>
@@ -2455,7 +2454,7 @@
       </c>
       <c r="B19">
         <f>(D19*$R$4+C19*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B19</f>
-        <v>1.8110410881971128</v>
+        <v>1.8693448592070883</v>
       </c>
       <c r="C19">
         <f>PARS!C19</f>
@@ -2516,7 +2515,7 @@
       </c>
       <c r="B20">
         <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>6.7073720210159393E-2</v>
+        <v>0.16371385381220538</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2577,7 +2576,7 @@
       </c>
       <c r="B21">
         <f>(D21*$R$4+C21*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B21</f>
-        <v>0.49053809163718548</v>
+        <v>0.50586374334688233</v>
       </c>
       <c r="C21">
         <f>PARS!C21</f>
@@ -2638,7 +2637,7 @@
       </c>
       <c r="B22">
         <f>(D22*$R$4+C22*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B22</f>
-        <v>2.1202486942186445</v>
+        <v>2.8363243624278058</v>
       </c>
       <c r="C22">
         <f>PARS!C22</f>
@@ -2760,7 +2759,7 @@
       </c>
       <c r="B24">
         <f>(D24*$R$4+C24*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B24</f>
-        <v>-5.0378102591594268E-2</v>
+        <v>-1.9500000000000007E-2</v>
       </c>
       <c r="C24">
         <f>PARS!C24</f>
@@ -2821,7 +2820,7 @@
       </c>
       <c r="B25">
         <f>(D25*$R$4+C25*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B25</f>
-        <v>0.20405474352101433</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="C25">
         <f>PARS!C25</f>
@@ -2882,7 +2881,7 @@
       </c>
       <c r="B26">
         <f>(D26*$R$4+C26*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B26</f>
-        <v>-0.26345689350469448</v>
+        <v>-9.4723242069500835E-2</v>
       </c>
       <c r="C26">
         <f>PARS!C26</f>
@@ -3004,7 +3003,7 @@
       </c>
       <c r="B28">
         <f>(D28*$R$4+C28*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B28</f>
-        <v>4.200000000000001E-2</v>
+        <v>4.1999999999999996E-2</v>
       </c>
       <c r="C28">
         <f>PARS!C28</f>
@@ -3065,7 +3064,7 @@
       </c>
       <c r="B29">
         <f>(D29*$R$4+C29*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B29</f>
-        <v>1.2565269864629569</v>
+        <v>1.3848713695228516</v>
       </c>
       <c r="C29">
         <f>PARS!C29</f>
@@ -3126,7 +3125,7 @@
       </c>
       <c r="B30">
         <f>(D30*$R$4+C30*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B30</f>
-        <v>0.90173812416053334</v>
+        <v>0.96147089710174316</v>
       </c>
       <c r="C30">
         <f>PARS!C30</f>
@@ -3187,7 +3186,7 @@
       </c>
       <c r="B31">
         <f>(D31*$R$4+C31*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B31</f>
-        <v>-0.41092960024729197</v>
+        <v>0.49424088185915316</v>
       </c>
       <c r="C31">
         <f>PARS!C31</f>
@@ -3248,7 +3247,7 @@
       </c>
       <c r="B32">
         <f>(D32*$R$4+C32*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B32</f>
-        <v>1.1202486942186305</v>
+        <v>1.8363243624277661</v>
       </c>
       <c r="C32">
         <f>PARS!C32</f>
@@ -3309,7 +3308,7 @@
       </c>
       <c r="B33">
         <f>(D33*$R$4+C33*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B33</f>
-        <v>-0.51243448734790886</v>
+        <v>-0.36487600844906781</v>
       </c>
       <c r="C33">
         <f>PARS!C33</f>
@@ -3370,7 +3369,7 @@
       </c>
       <c r="B34">
         <f>(D34*$R$4+C34*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B34</f>
-        <v>-0.38835753500256659</v>
+        <v>-0.35225036960723194</v>
       </c>
       <c r="C34">
         <f>PARS!C34</f>
@@ -3431,7 +3430,7 @@
       </c>
       <c r="B35">
         <f>(D35*$R$4+C35*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B35</f>
-        <v>1.1028426384226033</v>
+        <v>1.3290759724549113</v>
       </c>
       <c r="C35">
         <f>PARS!C35</f>
@@ -3492,7 +3491,7 @@
       </c>
       <c r="B36">
         <f>(D36*$R$4+C36*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B36</f>
-        <v>0.84763477670382847</v>
+        <v>1.2550046699496471</v>
       </c>
       <c r="C36">
         <f>PARS!C36</f>
@@ -3553,7 +3552,7 @@
       </c>
       <c r="B37">
         <f>(D37*$R$4+C37*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B37</f>
-        <v>0.16423459873405707</v>
+        <v>0.24868770090723558</v>
       </c>
       <c r="C37">
         <f>PARS!C37</f>
@@ -32607,8 +32606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32718,15 +32717,15 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <f>SUM(K2:N2)</f>
+        <f t="shared" ref="O2:O49" si="0">SUM(K2:N2)</f>
         <v>1</v>
       </c>
       <c r="R2">
-        <f>K2-P2</f>
+        <f t="shared" ref="R2:R49" si="1">K2-P2</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>R2+M2+P2+L2</f>
+        <f t="shared" ref="S2:S49" si="2">R2+M2+P2+L2</f>
         <v>1</v>
       </c>
       <c r="T2">
@@ -32769,15 +32768,15 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <f>SUM(K3:N3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R3">
-        <f>K3-P3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>R3+M3+P3+L3</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T3">
@@ -32820,18 +32819,18 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <f>SUM(K4:N4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <f>K4-P4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S4">
-        <f>R4+M4+P4+L4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T4">
@@ -32880,15 +32879,15 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <f>SUM(K5:N5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R5">
-        <f>K5-P5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>R5+M5+P5+L5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T5">
@@ -32933,15 +32932,15 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <f>SUM(K6:N6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R6">
-        <f>K6-P6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>R6+M6+P6+L6</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T6" s="12">
@@ -32953,15 +32952,15 @@
         <v>76</v>
       </c>
       <c r="B7">
-        <f>LN(E7)</f>
+        <f t="shared" ref="B7:D9" si="3">LN(E7)</f>
         <v>-1.4375876555074412</v>
       </c>
       <c r="C7">
-        <f>LN(F7)</f>
+        <f t="shared" si="3"/>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D7">
-        <f>LN(G7)</f>
+        <f t="shared" si="3"/>
         <v>-0.69314718055994529</v>
       </c>
       <c r="E7">
@@ -32984,22 +32983,22 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <f>SUM(K7:N7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7">
-        <f>K7-P7</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S7">
-        <f>R7+M7+P7+L7</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T7">
-        <f>S7-M7</f>
+        <f t="shared" ref="T7:T39" si="4">S7-M7</f>
         <v>1</v>
       </c>
       <c r="U7">
@@ -33012,15 +33011,15 @@
         <v>94</v>
       </c>
       <c r="B8">
-        <f>LN(E8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C8">
-        <f>LN(F8)</f>
+        <f t="shared" si="3"/>
         <v>-0.16251892949777494</v>
       </c>
       <c r="D8">
-        <f>LN(G8)</f>
+        <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="E8">
@@ -33045,19 +33044,19 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <f>SUM(K8:N8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R8">
-        <f>K8-P8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S8">
-        <f>R8+M8+P8+L8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T8">
-        <f>S8-M8</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U8">
@@ -33070,15 +33069,15 @@
         <v>95</v>
       </c>
       <c r="B9">
-        <f>LN(E9)</f>
+        <f t="shared" si="3"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="C9">
-        <f>LN(F9)</f>
+        <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="D9">
-        <f>LN(G9)</f>
+        <f t="shared" si="3"/>
         <v>1.791759469228055</v>
       </c>
       <c r="E9">
@@ -33100,22 +33099,22 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <f>SUM(K9:N9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9">
-        <f>K9-P9</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S9">
-        <f>R9+M9+P9+L9</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T9">
-        <f>S9-M9</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U9">
@@ -33160,19 +33159,19 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <f>SUM(K10:N10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R10">
-        <f>K10-P10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S10">
-        <f>R10+M10+P10+L10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>S10-M10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -33213,7 +33212,7 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <f>SUM(K11:N11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P11">
@@ -33223,15 +33222,15 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <f>K11-P11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S11">
-        <f>R11+M11+P11+L11</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T11">
-        <f>S11-M11</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U11">
@@ -33274,7 +33273,7 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <f>SUM(K12:N12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P12">
@@ -33284,15 +33283,15 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <f>K12-P12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>R12+M12+P12+L12</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T12">
-        <f>S12-M12</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U12">
@@ -33335,7 +33334,7 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <f>SUM(K13:N13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P13">
@@ -33345,15 +33344,15 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <f>K13-P13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f>R13+M13+P13+L13</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T13">
-        <f>S13-M13</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -33391,7 +33390,7 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <f>SUM(K14:N14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P14">
@@ -33401,15 +33400,15 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <f>K14-P14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>R14+M14+P14+L14</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T14">
-        <f>S14-M14</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -33448,7 +33447,7 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <f>SUM(K15:N15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P15">
@@ -33458,15 +33457,15 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <f>K15-P15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f>R15+M15+P15+L15</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T15">
-        <f>S15-M15</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U15">
@@ -33509,22 +33508,22 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <f>SUM(K16:N16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16">
-        <f>K16-P16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S16">
-        <f>R16+M16+P16+L16</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T16">
-        <f>S16-M16</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U16">
@@ -33537,15 +33536,15 @@
         <v>98</v>
       </c>
       <c r="B17">
-        <f>LN(E17)</f>
+        <f t="shared" ref="B17:D18" si="5">LN(E17)</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="C17">
-        <f>LN(F17)</f>
+        <f t="shared" si="5"/>
         <v>-1.0498221244986778</v>
       </c>
       <c r="D17">
-        <f>LN(G17)</f>
+        <f t="shared" si="5"/>
         <v>-0.43078291609245423</v>
       </c>
       <c r="E17">
@@ -33570,19 +33569,19 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <f>SUM(K17:N17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R17">
-        <f>K17-P17</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S17">
-        <f>R17+M17+P17+L17</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T17">
-        <f>S17-M17</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U17">
@@ -33595,15 +33594,15 @@
         <v>73</v>
       </c>
       <c r="B18">
-        <f>LN(E18)</f>
+        <f t="shared" si="5"/>
         <v>2.0794415416798357</v>
       </c>
       <c r="C18">
-        <f>LN(F18)</f>
+        <f t="shared" si="5"/>
         <v>1.6094379124341003</v>
       </c>
       <c r="D18">
-        <f>LN(G18)</f>
+        <f t="shared" si="5"/>
         <v>2.341805806147327</v>
       </c>
       <c r="E18">
@@ -33628,19 +33627,19 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <f>SUM(K18:N18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R18">
-        <f>K18-P18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S18">
-        <f>R18+M18+P18+L18</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T18">
-        <f>S18-M18</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U18">
@@ -33686,19 +33685,19 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <f>SUM(K19:N19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R19">
-        <f>K19-P19</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S19">
-        <f>R19+M19+P19+L19</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T19">
-        <f>S19-M19</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U19">
@@ -33744,19 +33743,19 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <f>SUM(K20:N20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R20">
-        <f>K20-P20</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S20">
-        <f>R20+M20+P20+L20</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T20">
-        <f>S20-M20</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U20">
@@ -33802,19 +33801,19 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <f>SUM(K21:N21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R21">
-        <f>K21-P21</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S21">
-        <f>R21+M21+P21+L21</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T21">
-        <f>S21-M21</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U21">
@@ -33857,19 +33856,19 @@
         <v>1</v>
       </c>
       <c r="O22">
-        <f>SUM(K22:N22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R22">
-        <f>K22-P22</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S22">
-        <f>R22+M22+P22+L22</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T22">
-        <f>S22-M22</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U22">
@@ -33909,19 +33908,19 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <f>SUM(K23:N23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R23">
-        <f>K23-P23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f>R23+M23+P23+L23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T23">
-        <f>S23-M23</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -33930,15 +33929,15 @@
         <v>192</v>
       </c>
       <c r="B24">
-        <f>E24</f>
+        <f t="shared" ref="B24:D25" si="6">E24</f>
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="C24">
-        <f>F24</f>
+        <f t="shared" si="6"/>
         <v>-0.2</v>
       </c>
       <c r="D24">
-        <f>G24</f>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="E24">
@@ -33962,19 +33961,19 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <f>SUM(K24:N24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R24">
-        <f>K24-P24</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S24">
-        <f>R24+M24+P24+L24</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T24">
-        <f>S24-M24</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -33983,15 +33982,15 @@
         <v>83</v>
       </c>
       <c r="B25">
-        <f>E25</f>
+        <f t="shared" si="6"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C25">
-        <f>F25</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D25">
-        <f>G25</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E25">
@@ -34013,19 +34012,19 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <f>SUM(K25:N25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R25">
-        <f>K25-P25</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S25">
-        <f>R25+M25+P25+L25</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T25">
-        <f>S25-M25</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -34067,19 +34066,19 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <f>SUM(K26:N26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R26">
-        <f>K26-P26</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S26">
-        <f>R26+M26+P26+L26</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T26">
-        <f>S26-M26</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U26">
@@ -34119,19 +34118,19 @@
         <v>1</v>
       </c>
       <c r="O27">
-        <f>SUM(K27:N27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R27">
-        <f>K27-P27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f>R27+M27+P27+L27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T27">
-        <f>S27-M27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -34167,19 +34166,19 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <f>SUM(K28:N28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R28">
-        <f>K28-P28</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S28">
-        <f>R28+M28+P28+L28</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T28">
-        <f>S28-M28</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -34188,15 +34187,15 @@
         <v>88</v>
       </c>
       <c r="B29">
-        <f>LN(E29)</f>
+        <f t="shared" ref="B29:D30" si="7">LN(E29)</f>
         <v>1.3862943611198906</v>
       </c>
       <c r="C29">
-        <f>LN(F29)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D29">
-        <f>LN(G29)</f>
+        <f t="shared" si="7"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="E29">
@@ -34221,19 +34220,19 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <f>SUM(K29:N29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R29">
-        <f>K29-P29</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S29">
-        <f>R29+M29+P29+L29</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T29">
-        <f>S29-M29</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U29">
@@ -34246,15 +34245,15 @@
         <v>85</v>
       </c>
       <c r="B30">
-        <f>LN(E30)</f>
+        <f t="shared" si="7"/>
         <v>0.91629073187415511</v>
       </c>
       <c r="C30">
-        <f>LN(F30)</f>
+        <f t="shared" si="7"/>
         <v>0.58778666490211906</v>
       </c>
       <c r="D30">
-        <f>LN(G30)</f>
+        <f t="shared" si="7"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="E30">
@@ -34279,22 +34278,22 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <f>SUM(K30:N30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q30">
         <v>1</v>
       </c>
       <c r="R30">
-        <f>K30-P30</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S30">
-        <f>R30+M30+P30+L30</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T30">
-        <f>S30-M30</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U30">
@@ -34307,15 +34306,15 @@
         <v>86</v>
       </c>
       <c r="B31">
-        <f>-LN(1/E31 -1)</f>
+        <f t="shared" ref="B31:D32" si="8">-LN(1/E31 -1)</f>
         <v>-0.69329718431032028</v>
       </c>
       <c r="C31">
-        <f>-LN(1/F31 -1)</f>
+        <f t="shared" si="8"/>
         <v>-2.1972245773362196</v>
       </c>
       <c r="D31">
-        <f>-LN(1/G31 -1)</f>
+        <f t="shared" si="8"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E31">
@@ -34337,19 +34336,19 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <f>SUM(K31:N31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R31">
-        <f>K31-P31</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S31">
-        <f>R31+M31+P31+L31</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T31">
-        <f>S31-M31</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U31">
@@ -34362,15 +34361,15 @@
         <v>87</v>
       </c>
       <c r="B32">
-        <f>-LN(1/E32 -1)</f>
+        <f t="shared" si="8"/>
         <v>0.84729786038720356</v>
       </c>
       <c r="C32">
-        <f>-LN(1/F32 -1)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D32">
-        <f>-LN(1/G32 -1)</f>
+        <f t="shared" si="8"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E32">
@@ -34395,19 +34394,19 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <f>SUM(K32:N32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R32">
-        <f>K32-P32</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S32">
-        <f>R32+M32+P32+L32</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T32">
-        <f>S32-M32</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U32">
@@ -34420,15 +34419,15 @@
         <v>89</v>
       </c>
       <c r="B33">
-        <f>LN(E33)</f>
+        <f t="shared" ref="B33:D36" si="9">LN(E33)</f>
         <v>-0.3047604139865322</v>
       </c>
       <c r="C33">
-        <f>LN(F33)</f>
+        <f t="shared" si="9"/>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D33">
-        <f>LN(G33)</f>
+        <f t="shared" si="9"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="E33">
@@ -34453,19 +34452,19 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <f>SUM(K33:N33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R33">
-        <f>K33-P33</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S33">
-        <f>R33+M33+P33+L33</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T33">
-        <f>S33-M33</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U33">
@@ -34478,15 +34477,15 @@
         <v>90</v>
       </c>
       <c r="B34">
-        <f>LN(E34)</f>
+        <f t="shared" si="9"/>
         <v>-0.35667494393873245</v>
       </c>
       <c r="C34">
-        <f>LN(F34)</f>
+        <f t="shared" si="9"/>
         <v>-0.71334988787746489</v>
       </c>
       <c r="D34">
-        <f>LN(G34)</f>
+        <f t="shared" si="9"/>
         <v>-9.4310679471241415E-2</v>
       </c>
       <c r="E34">
@@ -34511,19 +34510,19 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <f>SUM(K34:N34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R34">
-        <f>K34-P34</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S34">
-        <f>R34+M34+P34+L34</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T34">
-        <f>S34-M34</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U34">
@@ -34536,15 +34535,15 @@
         <v>91</v>
       </c>
       <c r="B35">
-        <f>LN(E35)</f>
+        <f t="shared" si="9"/>
         <v>2.3125354238472138</v>
       </c>
       <c r="C35">
-        <f>LN(F35)</f>
+        <f t="shared" si="9"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D35">
-        <f>LN(G35)</f>
+        <f t="shared" si="9"/>
         <v>2.9957322735539909</v>
       </c>
       <c r="E35">
@@ -34569,19 +34568,19 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <f>SUM(K35:N35)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R35">
-        <f>K35-P35</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S35">
-        <f>R35+M35+P35+L35</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T35">
-        <f>S35-M35</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U35">
@@ -34594,15 +34593,15 @@
         <v>104</v>
       </c>
       <c r="B36">
-        <f>LN(E36)</f>
+        <f t="shared" si="9"/>
         <v>1.8971249848733813</v>
       </c>
       <c r="C36">
-        <f>LN(F36)</f>
+        <f t="shared" si="9"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D36">
-        <f>LN(G36)</f>
+        <f t="shared" si="9"/>
         <v>4.1997100778674268</v>
       </c>
       <c r="E36">
@@ -34627,19 +34626,19 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <f>SUM(K36:N36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R36">
-        <f>K36-P36</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S36">
-        <f>R36+M36+P36+L36</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T36">
-        <f>S36-M36</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U36">
@@ -34685,19 +34684,19 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <f>SUM(K37:N37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R37">
-        <f>K37-P37</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S37">
-        <f>R37+M37+P37+L37</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T37">
-        <f>S37-M37</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U37">
@@ -34745,21 +34744,21 @@
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3">
-        <f>SUM(K38:N38)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38">
-        <f>K38-P38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S38">
-        <f>R38+M38+P38+L38</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T38">
-        <f>S38-M38</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U38" s="3"/>
@@ -34799,19 +34798,19 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <f>SUM(K39:N39)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R39">
-        <f>K39-P39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S39">
-        <f>R39+M39+P39+L39</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T39">
-        <f>S39-M39</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -34850,15 +34849,15 @@
         <v>1</v>
       </c>
       <c r="O40">
-        <f>SUM(K40:N40)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R40">
-        <f>K40-P40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f>R40+M40+P40+L40</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T40" s="13">
@@ -34900,15 +34899,15 @@
         <v>1</v>
       </c>
       <c r="O41">
-        <f>SUM(K41:N41)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R41">
-        <f>K41-P41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S41">
-        <f>R41+M41+P41+L41</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T41">
@@ -34950,21 +34949,21 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <f>SUM(K42:N42)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42">
-        <f>K42-P42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S42">
-        <f>R42+M42+P42+L42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T42">
-        <f>S42</f>
+        <f t="shared" ref="T42:T49" si="10">S42</f>
         <v>0</v>
       </c>
       <c r="U42"/>
@@ -34974,15 +34973,15 @@
         <v>92</v>
       </c>
       <c r="B43">
-        <f>E43</f>
+        <f t="shared" ref="B43:D44" si="11">E43</f>
         <v>0.1449</v>
       </c>
       <c r="C43">
-        <f>F43</f>
+        <f t="shared" si="11"/>
         <v>0.1449</v>
       </c>
       <c r="D43" s="3">
-        <f>G43</f>
+        <f t="shared" si="11"/>
         <v>0.1449</v>
       </c>
       <c r="E43">
@@ -35000,19 +34999,19 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <f>SUM(K43:N43)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R43">
-        <f>K43-P43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S43">
-        <f>R43+M43+P43+L43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T43">
-        <f>S43</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -35021,15 +35020,15 @@
         <v>93</v>
       </c>
       <c r="B44">
-        <f>E44</f>
+        <f t="shared" si="11"/>
         <v>0.1449</v>
       </c>
       <c r="C44">
-        <f>F44</f>
+        <f t="shared" si="11"/>
         <v>0.1449</v>
       </c>
       <c r="D44" s="3">
-        <f>G44</f>
+        <f t="shared" si="11"/>
         <v>0.1449</v>
       </c>
       <c r="E44">
@@ -35047,19 +35046,19 @@
         <v>1</v>
       </c>
       <c r="O44">
-        <f>SUM(K44:N44)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R44">
-        <f>K44-P44</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S44">
-        <f>R44+M44+P44+L44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T44">
-        <f>S44</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -35090,19 +35089,19 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <f>SUM(K45:N45)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R45">
-        <f>K45-P45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S45">
-        <f>R45+M45+P45+L45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T45">
-        <f>S45</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -35134,19 +35133,19 @@
         <v>1</v>
       </c>
       <c r="O46">
-        <f>SUM(K46:N46)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R46">
-        <f>K46-P46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S46">
-        <f>R46+M46+P46+L46</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T46">
-        <f>S46</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -35181,19 +35180,19 @@
         <v>1</v>
       </c>
       <c r="O47">
-        <f>SUM(K47:N47)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R47">
-        <f>K47-P47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S47">
-        <f>R47+M47+P47+L47</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T47">
-        <f>S47</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -35228,19 +35227,19 @@
         <v>1</v>
       </c>
       <c r="O48">
-        <f>SUM(K48:N48)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R48">
-        <f>K48-P48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S48">
-        <f>R48+M48+P48+L48</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T48">
-        <f>S48</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -35275,19 +35274,19 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <f>SUM(K49:N49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R49">
-        <f>K49-P49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S49">
-        <f>R49+M49+P49+L49</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T49">
-        <f>S49</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACBC16EA-545C-4C21-8651-6CA23F87B733}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51765407-E47B-45B0-B3E8-3A32074283EA}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="230">
   <si>
     <t>label</t>
   </si>
@@ -834,6 +834,12 @@
   <si>
     <t xml:space="preserve">KICK OUT </t>
   </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>ranomd</t>
+  </si>
 </sst>
 </file>
 
@@ -1330,7 +1336,7 @@
   <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1394,13 +1400,19 @@
         <f>PARS!S1</f>
         <v>parcount</v>
       </c>
+      <c r="P1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
       <c r="B2">
-        <f>(D2*$R$4+C2*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B2</f>
+        <f>(D2*P2+C2*(1-P2))*$R$7 +(1-$R$7)*PARS!B2</f>
         <v>20.430907591983047</v>
       </c>
       <c r="C2">
@@ -1454,6 +1466,13 @@
       <c r="O2">
         <f>PARS!S2</f>
         <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0.62422219297536186</v>
+      </c>
+      <c r="Q2">
+        <f ca="1">RAND()</f>
+        <v>0.74336047747337852</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1462,7 +1481,7 @@
       </c>
       <c r="B3">
         <f>(D3*$R$4+C3*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B3</f>
-        <v>1.8814014327029095E-3</v>
+        <v>1.8814014327029097E-3</v>
       </c>
       <c r="C3">
         <f>PARS!C3</f>
@@ -1515,6 +1534,13 @@
       <c r="O3">
         <f>PARS!S3</f>
         <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0.86996678001764283</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
+        <v>0.95204219423287828</v>
       </c>
       <c r="R3" t="s">
         <v>193</v>
@@ -1526,7 +1552,7 @@
       </c>
       <c r="B4">
         <f>(D4*$R$4+C4*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B4</f>
-        <v>-0.16639442812767063</v>
+        <v>-0.12856167933664459</v>
       </c>
       <c r="C4">
         <f>PARS!C4</f>
@@ -1580,12 +1606,19 @@
         <f>PARS!S4</f>
         <v>1</v>
       </c>
+      <c r="P4">
+        <v>0.26655833789177585</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.8136681422494303E-2</v>
+      </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.95541648695426917</v>
+        <v>0.61881599105460039</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1594,7 +1627,7 @@
       </c>
       <c r="B5">
         <f>(D5*$R$4+C5*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B5</f>
-        <v>-0.16639442812767063</v>
+        <v>-0.12856167933664459</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
@@ -1647,6 +1680,13 @@
       <c r="O5">
         <f>PARS!S5</f>
         <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.42813471966714112</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.91787718429355125</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1655,7 +1695,7 @@
       </c>
       <c r="B6">
         <f>(D6*$R$4+C6*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B6</f>
-        <v>1.6299999999999997</v>
+        <v>1.63</v>
       </c>
       <c r="C6">
         <f>PARS!C6</f>
@@ -1708,6 +1748,13 @@
       <c r="O6">
         <f>PARS!S6</f>
         <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0.91461303615213219</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.361993028224346E-2</v>
       </c>
       <c r="R6" t="s">
         <v>211</v>
@@ -1719,7 +1766,7 @@
       </c>
       <c r="B7">
         <f>(D7*$R$4+C7*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B7</f>
-        <v>-1.4073880625152846</v>
+        <v>-1.3872550005205133</v>
       </c>
       <c r="C7">
         <f>PARS!C7</f>
@@ -1773,8 +1820,15 @@
         <f>PARS!S7</f>
         <v>1</v>
       </c>
+      <c r="P7">
+        <v>0.14927392680079044</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73031174048444547</v>
+      </c>
       <c r="R7">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -1783,7 +1837,7 @@
       </c>
       <c r="B8">
         <f>(D8*$R$4+C8*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B8</f>
-        <v>0.10526422096105716</v>
+        <v>0.1754403682684286</v>
       </c>
       <c r="C8">
         <f>PARS!C8</f>
@@ -1836,6 +1890,13 @@
       <c r="O8">
         <f>PARS!S8</f>
         <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0.66183716939701664</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56537135638426861</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1844,7 +1905,7 @@
       </c>
       <c r="B9">
         <f>(D9*$R$4+C9*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B9</f>
-        <v>1.3761004189121666</v>
+        <v>1.3693044574403508</v>
       </c>
       <c r="C9">
         <f>PARS!C9</f>
@@ -1897,6 +1958,13 @@
       <c r="O9">
         <f>PARS!S9</f>
         <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0.48823626575504242</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3624448678039589E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -1905,7 +1973,7 @@
       </c>
       <c r="B10">
         <f>(D10*$R$4+C10*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B10</f>
-        <v>-1.0193942207723846E-2</v>
+        <v>-1.6989903679539745E-2</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
@@ -1958,6 +2026,13 @@
       <c r="O10">
         <f>PARS!S10</f>
         <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.8589481063883434</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13403638677152763</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -1966,7 +2041,7 @@
       </c>
       <c r="B11">
         <f>(D11*$R$4+C11*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B11</f>
-        <v>-4.5480029141652611</v>
+        <v>-4.4826767366032048</v>
       </c>
       <c r="C11">
         <f>PARS!C11</f>
@@ -2019,6 +2094,13 @@
       <c r="O11">
         <f>PARS!S11</f>
         <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0.17066548978345575</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16215172519444609</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2027,7 +2109,7 @@
       </c>
       <c r="B12">
         <f>(D12*$R$4+C12*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B12</f>
-        <v>0.54040159629296203</v>
+        <v>0.52027398093834631</v>
       </c>
       <c r="C12">
         <f>PARS!C12</f>
@@ -2080,6 +2162,13 @@
       <c r="O12">
         <f>PARS!S12</f>
         <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0.26713438897161457</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29661272458914356</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2088,7 +2177,7 @@
       </c>
       <c r="B13">
         <f>(D13*$R$4+C13*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B13</f>
-        <v>0.91345140000000002</v>
+        <v>0.92421900000000001</v>
       </c>
       <c r="C13">
         <f>PARS!C13</f>
@@ -2141,6 +2230,13 @@
       <c r="O13">
         <f>PARS!S13</f>
         <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0.33214875821933132</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11273613912421143</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2149,7 +2245,7 @@
       </c>
       <c r="B14">
         <f>(D14*$R$4+C14*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B14</f>
-        <v>1.3176991999999998</v>
+        <v>1.333232</v>
       </c>
       <c r="C14">
         <f>PARS!C14</f>
@@ -2202,6 +2298,13 @@
       <c r="O14">
         <f>PARS!S14</f>
         <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0.11319772480448531</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.90700164262210869</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2264,6 +2367,13 @@
         <f>PARS!S15</f>
         <v>1</v>
       </c>
+      <c r="P15">
+        <v>0.9513518255143506</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.0707902020861737E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -2271,7 +2381,7 @@
       </c>
       <c r="B16">
         <f>(D16*$R$4+C16*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B16</f>
-        <v>-1.4734483819529824</v>
+        <v>-1.5152874990810479</v>
       </c>
       <c r="C16">
         <f>PARS!C16</f>
@@ -2325,14 +2435,21 @@
         <f>PARS!S16</f>
         <v>1</v>
       </c>
+      <c r="P16">
+        <v>0.87836428782359954</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44838462708896165</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>98</v>
       </c>
       <c r="B17">
         <f>(D17*$R$4+C17*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B17</f>
-        <v>-0.68872260622844483</v>
+        <v>-0.68577289000744446</v>
       </c>
       <c r="C17">
         <f>PARS!C17</f>
@@ -2386,14 +2503,21 @@
         <f>PARS!S17</f>
         <v>1</v>
       </c>
+      <c r="P17">
+        <v>0.16664560151778329</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.69434462909753936</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>73</v>
       </c>
       <c r="B18">
         <f>(D18*$R$4+C18*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B18</f>
-        <v>2.0702666737744959</v>
+        <v>2.0641500951709357</v>
       </c>
       <c r="C18">
         <f>PARS!C18</f>
@@ -2447,14 +2571,21 @@
         <f>PARS!S18</f>
         <v>1</v>
       </c>
+      <c r="P18">
+        <v>0.29815476505254923</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2698976091652735</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B19">
         <f>(D19*$R$4+C19*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B19</f>
-        <v>1.8693448592070883</v>
+        <v>1.6507583804543344</v>
       </c>
       <c r="C19">
         <f>PARS!C19</f>
@@ -2508,14 +2639,21 @@
         <f>PARS!S19</f>
         <v>1</v>
       </c>
+      <c r="P19">
+        <v>0.42401312052703444</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39221433597355726</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>75</v>
       </c>
       <c r="B20">
         <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>0.16371385381220538</v>
+        <v>0.26218952878938162</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2569,14 +2707,21 @@
         <f>PARS!S20</f>
         <v>1</v>
       </c>
+      <c r="P20">
+        <v>0.71445444732325869</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39606512733737953</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>70</v>
       </c>
       <c r="B21">
         <f>(D21*$R$4+C21*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B21</f>
-        <v>0.50586374334688233</v>
+        <v>0.50925604696981119</v>
       </c>
       <c r="C21">
         <f>PARS!C21</f>
@@ -2630,14 +2775,21 @@
         <f>PARS!S21</f>
         <v>1</v>
       </c>
+      <c r="P21">
+        <v>0.45105335380588396</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2628667421754614E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
       <c r="B22">
         <f>(D22*$R$4+C22*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B22</f>
-        <v>2.8363243624278058</v>
+        <v>3.4956753637882079</v>
       </c>
       <c r="C22">
         <f>PARS!C22</f>
@@ -2691,8 +2843,15 @@
         <f>PARS!S22</f>
         <v>1</v>
       </c>
+      <c r="P22">
+        <v>0.50172968639613769</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46822901904218805</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2752,14 +2911,21 @@
         <f>PARS!S23</f>
         <v>0</v>
       </c>
+      <c r="P23">
+        <v>0.82603844701416873</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19944985113381197</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>192</v>
       </c>
       <c r="B24">
         <f>(D24*$R$4+C24*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B24</f>
-        <v>-1.9500000000000007E-2</v>
+        <v>-2.5000000000000092E-3</v>
       </c>
       <c r="C24">
         <f>PARS!C24</f>
@@ -2813,14 +2979,21 @@
         <f>PARS!S24</f>
         <v>1</v>
       </c>
+      <c r="P24">
+        <v>0.88663433297178407</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.24881133415516321</v>
+      </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>83</v>
       </c>
       <c r="B25">
         <f>(D25*$R$4+C25*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B25</f>
-        <v>0.30249999999999999</v>
+        <v>0.38749999999999996</v>
       </c>
       <c r="C25">
         <f>PARS!C25</f>
@@ -2874,14 +3047,21 @@
         <f>PARS!S25</f>
         <v>1</v>
       </c>
+      <c r="P25">
+        <v>0.94805545806072034</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63207202119025574</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>84</v>
       </c>
       <c r="B26">
         <f>(D26*$R$4+C26*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B26</f>
-        <v>-9.4723242069500835E-2</v>
+        <v>7.9911225843320222E-2</v>
       </c>
       <c r="C26">
         <f>PARS!C26</f>
@@ -2935,8 +3115,15 @@
         <f>PARS!S26</f>
         <v>1</v>
       </c>
+      <c r="P26">
+        <v>0.54467582609570553</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63627302766467675</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2996,14 +3183,21 @@
         <f>PARS!S27</f>
         <v>0</v>
       </c>
+      <c r="P27">
+        <v>0.20045424797720279</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.24765273897426732</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>105</v>
       </c>
       <c r="B28">
         <f>(D28*$R$4+C28*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B28</f>
-        <v>4.1999999999999996E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C28">
         <f>PARS!C28</f>
@@ -3057,14 +3251,21 @@
         <f>PARS!S28</f>
         <v>1</v>
       </c>
+      <c r="P28">
+        <v>0.27450186540599453</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8237949260524946</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>88</v>
       </c>
       <c r="B29">
         <f>(D29*$R$4+C29*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B29</f>
-        <v>1.3848713695228516</v>
+        <v>1.3839227084581589</v>
       </c>
       <c r="C29">
         <f>PARS!C29</f>
@@ -3118,14 +3319,21 @@
         <f>PARS!S29</f>
         <v>1</v>
       </c>
+      <c r="P29">
+        <v>0.69583594894390377</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25340391731506995</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>85</v>
       </c>
       <c r="B30">
         <f>(D30*$R$4+C30*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B30</f>
-        <v>0.96147089710174316</v>
+        <v>0.9915910072534686</v>
       </c>
       <c r="C30">
         <f>PARS!C30</f>
@@ -3179,14 +3387,21 @@
         <f>PARS!S30</f>
         <v>1</v>
       </c>
+      <c r="P30">
+        <v>0.60455494604465443</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88595796280985062</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
       <c r="B31">
         <f>(D31*$R$4+C31*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B31</f>
-        <v>0.49424088185915316</v>
+        <v>1.2859329259721355</v>
       </c>
       <c r="C31">
         <f>PARS!C31</f>
@@ -3240,14 +3455,21 @@
         <f>PARS!S31</f>
         <v>1</v>
       </c>
+      <c r="P31">
+        <v>0.59101621163924345</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9224895506299744</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>87</v>
       </c>
       <c r="B32">
         <f>(D32*$R$4+C32*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B32</f>
-        <v>1.8363243624277661</v>
+        <v>2.4956753637881413</v>
       </c>
       <c r="C32">
         <f>PARS!C32</f>
@@ -3301,14 +3523,21 @@
         <f>PARS!S32</f>
         <v>1</v>
       </c>
+      <c r="P32">
+        <v>0.56749041910611098</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45365018847554073</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>89</v>
       </c>
       <c r="B33">
         <f>(D33*$R$4+C33*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B33</f>
-        <v>-0.36487600844906781</v>
+        <v>-0.40495307142409159</v>
       </c>
       <c r="C33">
         <f>PARS!C33</f>
@@ -3362,14 +3591,21 @@
         <f>PARS!S33</f>
         <v>1</v>
       </c>
+      <c r="P33">
+        <v>3.0313888685640888E-2</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7061978128151104</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>90</v>
       </c>
       <c r="B34">
         <f>(D34*$R$4+C34*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B34</f>
-        <v>-0.35225036960723194</v>
+        <v>-0.34930065338623162</v>
       </c>
       <c r="C34">
         <f>PARS!C34</f>
@@ -3423,14 +3659,21 @@
         <f>PARS!S34</f>
         <v>1</v>
       </c>
+      <c r="P34">
+        <v>0.1455318853589419</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39377322296979744</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>91</v>
       </c>
       <c r="B35">
         <f>(D35*$R$4+C35*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B35</f>
-        <v>1.3290759724549113</v>
+        <v>0.67343633819337667</v>
       </c>
       <c r="C35">
         <f>PARS!C35</f>
@@ -3484,14 +3727,21 @@
         <f>PARS!S35</f>
         <v>1</v>
       </c>
+      <c r="P35">
+        <v>0.84992575065917342</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.61594400342672928</v>
+      </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>104</v>
       </c>
       <c r="B36">
         <f>(D36*$R$4+C36*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B36</f>
-        <v>1.2550046699496471</v>
+        <v>0.49734077340005833</v>
       </c>
       <c r="C36">
         <f>PARS!C36</f>
@@ -3499,7 +3749,7 @@
       </c>
       <c r="D36">
         <f>PARS!D36</f>
-        <v>4.1997100778674268</v>
+        <v>3.1010977891993172</v>
       </c>
       <c r="E36" t="b">
         <f t="shared" si="0"/>
@@ -3545,14 +3795,21 @@
         <f>PARS!S36</f>
         <v>1</v>
       </c>
+      <c r="P36">
+        <v>0.30222179249288261</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88789835606866985</v>
+      </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B37">
         <f>(D37*$R$4+C37*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B37</f>
-        <v>0.24868770090723558</v>
+        <v>0.31831309561569465</v>
       </c>
       <c r="C37">
         <f>PARS!C37</f>
@@ -3606,8 +3863,15 @@
         <f>PARS!S37</f>
         <v>1</v>
       </c>
+      <c r="P37">
+        <v>9.3977065722907427E-2</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77655960830197901</v>
+      </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
@@ -3667,8 +3931,15 @@
         <f>PARS!S38</f>
         <v>1</v>
       </c>
+      <c r="P38">
+        <v>0.25837372196112962</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1814748733402014</v>
+      </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -3728,8 +3999,15 @@
         <f>PARS!S39</f>
         <v>1</v>
       </c>
+      <c r="P39">
+        <v>0.51549582715807218</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35330533976675949</v>
+      </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -3789,8 +4067,15 @@
         <f>PARS!S40</f>
         <v>1</v>
       </c>
+      <c r="P40">
+        <v>0.28554889024758701</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54782600112929358</v>
+      </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -3850,8 +4135,15 @@
         <f>PARS!S41</f>
         <v>1</v>
       </c>
+      <c r="P41">
+        <v>0.80332047685097763</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15994608087166218</v>
+      </c>
     </row>
-    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -3911,9 +4203,15 @@
         <f>PARS!S42</f>
         <v>0</v>
       </c>
-      <c r="P42"/>
+      <c r="P42">
+        <v>0.89708486906028295</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0860608852035027E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -3973,8 +4271,15 @@
         <f>PARS!S43</f>
         <v>0</v>
       </c>
+      <c r="P43">
+        <v>0.95191310675993845</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47000896891735267</v>
+      </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -4034,8 +4339,15 @@
         <f>PARS!S44</f>
         <v>0</v>
       </c>
+      <c r="P44">
+        <v>0.12226395433113824</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4382112041947965E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -4095,8 +4407,15 @@
         <f>PARS!S45</f>
         <v>0</v>
       </c>
+      <c r="P45">
+        <v>0.43238531620206544</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18520301882906309</v>
+      </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -4156,8 +4475,15 @@
         <f>PARS!S46</f>
         <v>0</v>
       </c>
+      <c r="P46">
+        <v>0.90375395232347289</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.80554169499854522</v>
+      </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>181</v>
       </c>
@@ -4217,8 +4543,15 @@
         <f>PARS!S47</f>
         <v>0</v>
       </c>
+      <c r="P47">
+        <v>0.36620648132745626</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31119726590682828</v>
+      </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -4278,8 +4611,15 @@
         <f>PARS!S48</f>
         <v>0</v>
       </c>
+      <c r="P48">
+        <v>0.15693230660144897</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20870779383785243</v>
+      </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -4338,6 +4678,13 @@
       <c r="O49">
         <f>PARS!S49</f>
         <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0.22404899667485068</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10205210124975239</v>
       </c>
     </row>
   </sheetData>
@@ -32606,8 +32953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34602,7 +34949,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="9"/>
-        <v>4.1997100778674268</v>
+        <v>3.1010977891993172</v>
       </c>
       <c r="E36">
         <v>6.6666999999999996</v>
@@ -34611,7 +34958,8 @@
         <v>1E-3</v>
       </c>
       <c r="G36">
-        <v>66.667000000000002</v>
+        <f>66.667/3</f>
+        <v>22.222333333333335</v>
       </c>
       <c r="H36">
         <v>6</v>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51765407-E47B-45B0-B3E8-3A32074283EA}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D1AE8BE-E7AA-4F1C-B4A9-09C787BACFFB}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1335,7 +1335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.74336047747337852</v>
+        <v>0.52894301462144977</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.95204219423287828</v>
+        <v>0.65913945954509701</v>
       </c>
       <c r="R3" t="s">
         <v>193</v>
@@ -1611,14 +1611,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8136681422494303E-2</v>
+        <v>1.3055033468644117E-2</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.61881599105460039</v>
+        <v>0.91909273253456225</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91787718429355125</v>
+        <v>3.6836943517343124E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>8.361993028224346E-2</v>
+        <v>0.18418902898537226</v>
       </c>
       <c r="R6" t="s">
         <v>211</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73031174048444547</v>
+        <v>0.32561804454552945</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56537135638426861</v>
+        <v>0.32853157984239834</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3624448678039589E-2</v>
+        <v>0.13736726208354699</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13403638677152763</v>
+        <v>0.14791612456503811</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16215172519444609</v>
+        <v>0.51348643506371694</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29661272458914356</v>
+        <v>6.7376848577637594E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11273613912421143</v>
+        <v>0.51399628578197964</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90700164262210869</v>
+        <v>0.11211175804752582</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0707902020861737E-2</v>
+        <v>0.12338006154698933</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44838462708896165</v>
+        <v>0.76761548176973449</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69434462909753936</v>
+        <v>0.63049975629586308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2698976091652735</v>
+        <v>0.90035695892404199</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39221433597355726</v>
+        <v>0.2862557673646986</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39606512733737953</v>
+        <v>0.98450078747637948</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2628667421754614E-2</v>
+        <v>0.44532493122643912</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46822901904218805</v>
+        <v>0.5571417007688324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19944985113381197</v>
+        <v>2.3486962017940538E-2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B24">
         <f>(D24*$R$4+C24*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B24</f>
-        <v>-2.5000000000000092E-3</v>
+        <v>-4.7500000000000007E-2</v>
       </c>
       <c r="C24">
         <f>PARS!C24</f>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="D24">
         <f>PARS!D24</f>
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E24" t="b">
         <f t="shared" si="0"/>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24881133415516321</v>
+        <v>0.58894409909854761</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63207202119025574</v>
+        <v>0.60675066591950977</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63627302766467675</v>
+        <v>0.47027424912149351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24765273897426732</v>
+        <v>0.79692983915230708</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8237949260524946</v>
+        <v>0.20864198643296072</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25340391731506995</v>
+        <v>0.19159352752800118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88595796280985062</v>
+        <v>0.883942626228155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9224895506299744</v>
+        <v>0.60640139310624785</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45365018847554073</v>
+        <v>7.8574327479347228E-2</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7061978128151104</v>
+        <v>0.59421440583053853</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39377322296979744</v>
+        <v>0.31438501703939659</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61594400342672928</v>
+        <v>0.13394157097336878</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88789835606866985</v>
+        <v>0.72006454948763821</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77655960830197901</v>
+        <v>0.83238947888081127</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1814748733402014</v>
+        <v>0.98502188561526416</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35330533976675949</v>
+        <v>0.47310842048736312</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54782600112929358</v>
+        <v>0.55092761510375488</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15994608087166218</v>
+        <v>0.98643483029516799</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0860608852035027E-2</v>
+        <v>0.60320965925582815</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47000896891735267</v>
+        <v>0.21814793444866531</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4382112041947965E-2</v>
+        <v>0.79253740998648214</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18520301882906309</v>
+        <v>0.64216872010756509</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80554169499854522</v>
+        <v>5.7608717038224677E-2</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31119726590682828</v>
+        <v>8.5232663863933578E-2</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20870779383785243</v>
+        <v>0.17341455987479171</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10205210124975239</v>
+        <v>2.5942943118596573E-2</v>
       </c>
     </row>
   </sheetData>
@@ -32953,8 +32953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34285,7 +34285,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E24">
         <f>-0.045</f>
@@ -34296,7 +34296,7 @@
         <v>-0.2</v>
       </c>
       <c r="G24">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="H24">
         <v>4</v>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D1AE8BE-E7AA-4F1C-B4A9-09C787BACFFB}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D4861B3-6E08-45D5-B805-ED51A668C87C}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1468,11 +1468,11 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>0.62422219297536186</v>
+        <v>0.96088451928226981</v>
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.52894301462144977</v>
+        <v>0.60328028821234336</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1536,11 +1536,11 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0.86996678001764283</v>
+        <v>0.93931603276302345</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.65913945954509701</v>
+        <v>0.11042061048061769</v>
       </c>
       <c r="R3" t="s">
         <v>193</v>
@@ -1607,18 +1607,18 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0.26655833789177585</v>
+        <v>0.79955929543197091</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3055033468644117E-2</v>
+        <v>0.20176365921010064</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.91909273253456225</v>
+        <v>0.87381522639538356</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1682,11 +1682,11 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.42813471966714112</v>
+        <v>0.54494180268200132</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6836943517343124E-2</v>
+        <v>0.15126474573168436</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1750,11 +1750,11 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0.91461303615213219</v>
+        <v>0.43743292505552389</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18418902898537226</v>
+        <v>0.64323068317760612</v>
       </c>
       <c r="R6" t="s">
         <v>211</v>
@@ -1821,11 +1821,11 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>0.14927392680079044</v>
+        <v>0.66846922000031195</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32561804454552945</v>
+        <v>0.86146243192238448</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1892,11 +1892,11 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0.66183716939701664</v>
+        <v>0.8189625383896767</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32853157984239834</v>
+        <v>0.65218604783901835</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1960,11 +1960,11 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <v>0.48823626575504242</v>
+        <v>0.68775585807551254</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13736726208354699</v>
+        <v>0.94191031574644823</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2028,11 +2028,11 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8589481063883434</v>
+        <v>0.20393470314398465</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14791612456503811</v>
+        <v>7.9571280667603883E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2096,11 +2096,11 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <v>0.17066548978345575</v>
+        <v>0.32725593906556349</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51348643506371694</v>
+        <v>0.23558120501155499</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2164,11 +2164,11 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>0.26713438897161457</v>
+        <v>0.95177270478428277</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7376848577637594E-2</v>
+        <v>0.53233697419842507</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2232,11 +2232,11 @@
         <v>1</v>
       </c>
       <c r="P13">
-        <v>0.33214875821933132</v>
+        <v>4.0501032798327063E-2</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51399628578197964</v>
+        <v>4.7115292119247254E-2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2300,11 +2300,11 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>0.11319772480448531</v>
+        <v>0.94057574679295852</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11211175804752582</v>
+        <v>0.55182527254994407</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2368,11 +2368,11 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.9513518255143506</v>
+        <v>0.47455476060203028</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12338006154698933</v>
+        <v>0.63079497762887959</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2436,11 +2436,11 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>0.87836428782359954</v>
+        <v>4.0836758490806591E-2</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76761548176973449</v>
+        <v>0.28582755023896023</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2504,11 +2504,11 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>0.16664560151778329</v>
+        <v>3.0808897991490114E-2</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63049975629586308</v>
+        <v>0.28368100268246477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2572,11 +2572,11 @@
         <v>1</v>
       </c>
       <c r="P18">
-        <v>0.29815476505254923</v>
+        <v>0.13499517439001274</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90035695892404199</v>
+        <v>0.68984766010374721</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2640,11 +2640,11 @@
         <v>1</v>
       </c>
       <c r="P19">
-        <v>0.42401312052703444</v>
+        <v>0.61493876521473423</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2862557673646986</v>
+        <v>0.37373926759033771</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2708,11 +2708,11 @@
         <v>1</v>
       </c>
       <c r="P20">
-        <v>0.71445444732325869</v>
+        <v>0.22553148443564175</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98450078747637948</v>
+        <v>7.3186562531838972E-2</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2776,11 +2776,11 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <v>0.45105335380588396</v>
+        <v>4.7258226664818381E-2</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44532493122643912</v>
+        <v>0.14688935738363018</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2844,11 +2844,11 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>0.50172968639613769</v>
+        <v>0.39456389374078515</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5571417007688324</v>
+        <v>0.85878301224333642</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2912,11 +2912,11 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.82603844701416873</v>
+        <v>0.64496226174317939</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3486962017940538E-2</v>
+        <v>0.76201176155116235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -2980,11 +2980,11 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>0.88663433297178407</v>
+        <v>3.1542434369515537E-2</v>
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58894409909854761</v>
+        <v>0.26825513250453037</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3048,11 +3048,11 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>0.94805545806072034</v>
+        <v>0.91330676627782759</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60675066591950977</v>
+        <v>0.38480587363308882</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3116,11 +3116,11 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>0.54467582609570553</v>
+        <v>0.841333254743859</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47027424912149351</v>
+        <v>0.18284000749409635</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3184,11 +3184,11 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0.20045424797720279</v>
+        <v>0.85333827046184396</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79692983915230708</v>
+        <v>0.4387383816964352</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3252,11 +3252,11 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>0.27450186540599453</v>
+        <v>0.53494581901483274</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20864198643296072</v>
+        <v>0.35519417116726515</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3320,11 +3320,11 @@
         <v>1</v>
       </c>
       <c r="P29">
-        <v>0.69583594894390377</v>
+        <v>0.85007097863647385</v>
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19159352752800118</v>
+        <v>0.78635561472118765</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3388,11 +3388,11 @@
         <v>1</v>
       </c>
       <c r="P30">
-        <v>0.60455494604465443</v>
+        <v>0.26488016532909064</v>
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.883942626228155</v>
+        <v>0.29267631128176641</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3456,11 +3456,11 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>0.59101621163924345</v>
+        <v>0.22877634352839571</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60640139310624785</v>
+        <v>0.85686200900946774</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3524,11 +3524,11 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>0.56749041910611098</v>
+        <v>0.28601297806494652</v>
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8574327479347228E-2</v>
+        <v>0.33450022560761983</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3592,11 +3592,11 @@
         <v>1</v>
       </c>
       <c r="P33">
-        <v>3.0313888685640888E-2</v>
+        <v>0.91854769774809197</v>
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59421440583053853</v>
+        <v>0.62292382361878118</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3660,11 +3660,11 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>0.1455318853589419</v>
+        <v>0.89875409667974537</v>
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31438501703939659</v>
+        <v>0.61270903421366074</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3728,11 +3728,11 @@
         <v>1</v>
       </c>
       <c r="P35">
-        <v>0.84992575065917342</v>
+        <v>0.87299319991538094</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13394157097336878</v>
+        <v>0.99905967463407075</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3796,11 +3796,11 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>0.30222179249288261</v>
+        <v>0.56079929697810937</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72006454948763821</v>
+        <v>0.35454688706897064</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3864,11 +3864,11 @@
         <v>1</v>
       </c>
       <c r="P37">
-        <v>9.3977065722907427E-2</v>
+        <v>0.7967532746600442</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83238947888081127</v>
+        <v>0.94942944593123757</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3932,11 +3932,11 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>0.25837372196112962</v>
+        <v>0.48522066201501179</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98502188561526416</v>
+        <v>0.63415421260614391</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4000,11 +4000,11 @@
         <v>1</v>
       </c>
       <c r="P39">
-        <v>0.51549582715807218</v>
+        <v>0.80483926049033272</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47310842048736312</v>
+        <v>0.2404053088332132</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4068,11 +4068,11 @@
         <v>1</v>
       </c>
       <c r="P40">
-        <v>0.28554889024758701</v>
+        <v>0.37841250266890536</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55092761510375488</v>
+        <v>0.92905368632414087</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4136,11 +4136,11 @@
         <v>1</v>
       </c>
       <c r="P41">
-        <v>0.80332047685097763</v>
+        <v>0.75625185068884149</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98643483029516799</v>
+        <v>0.7535499840838078</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4204,11 +4204,11 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>0.89708486906028295</v>
+        <v>7.9108317544280826E-3</v>
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60320965925582815</v>
+        <v>1.9321608594791706E-2</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4272,11 +4272,11 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0.95191310675993845</v>
+        <v>0.36999441428657287</v>
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21814793444866531</v>
+        <v>0.95297266936470681</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4340,11 +4340,11 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0.12226395433113824</v>
+        <v>0.23027100868811834</v>
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79253740998648214</v>
+        <v>0.26298718699411971</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4408,11 +4408,11 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0.43238531620206544</v>
+        <v>0.54766793672842817</v>
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64216872010756509</v>
+        <v>0.17591240891385984</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4476,11 +4476,11 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>0.90375395232347289</v>
+        <v>0.56510560640310847</v>
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7608717038224677E-2</v>
+        <v>0.10552648025071354</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4544,11 +4544,11 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>0.36620648132745626</v>
+        <v>0.81592565902327352</v>
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5232663863933578E-2</v>
+        <v>0.99395002718748005</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4612,11 +4612,11 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0.15693230660144897</v>
+        <v>0.63953029945784579</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17341455987479171</v>
+        <v>0.97976567085004518</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4680,11 +4680,11 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0.22404899667485068</v>
+        <v>0.37580984274109186</v>
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5942943118596573E-2</v>
+        <v>0.12322479824887711</v>
       </c>
     </row>
   </sheetData>
@@ -32953,13 +32953,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
@@ -33270,7 +33271,7 @@
         <v>1.63</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -33379,7 +33380,7 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I8">
         <v>1.1000000000000001</v>
@@ -33437,7 +33438,7 @@
         <v>6</v>
       </c>
       <c r="H9">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I9">
         <v>1.1000000000000001</v>
@@ -33550,7 +33551,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
       <c r="H11">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="I11">
         <v>1.1499999999999999</v>
@@ -33611,7 +33612,7 @@
         <v>0.74177092512235143</v>
       </c>
       <c r="H12">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="I12">
         <v>1.2</v>
@@ -33672,7 +33673,7 @@
         <v>1.16649</v>
       </c>
       <c r="H13">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="I13">
         <v>1.2</v>
@@ -33728,7 +33729,7 @@
         <v>1.68272</v>
       </c>
       <c r="H14">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="I14">
         <v>1.2</v>
@@ -33785,7 +33786,7 @@
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="H15">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="I15">
         <v>1.3</v>
@@ -33907,7 +33908,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -33965,7 +33966,7 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -34023,7 +34024,7 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -34081,7 +34082,7 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J20">
         <v>1</v>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D4861B3-6E08-45D5-B805-ED51A668C87C}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E97CA82-8C65-4434-B18A-93EB2274FB37}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="231">
   <si>
     <t>label</t>
   </si>
@@ -840,6 +840,9 @@
   <si>
     <t>ranomd</t>
   </si>
+  <si>
+    <t>ADD, I know weight sucks. But it makes no sense to exclude it.</t>
+  </si>
 </sst>
 </file>
 
@@ -1335,7 +1338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -1472,7 +1475,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.60328028821234336</v>
+        <v>4.7081044796112081E-2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1540,7 +1543,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.11042061048061769</v>
+        <v>0.173170298793629</v>
       </c>
       <c r="R3" t="s">
         <v>193</v>
@@ -1611,14 +1614,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20176365921010064</v>
+        <v>0.58403073848214548</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.87381522639538356</v>
+        <v>2.0182018374813371E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1686,7 +1689,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15126474573168436</v>
+        <v>6.3506687183912169E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1754,7 +1757,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64323068317760612</v>
+        <v>0.82372303890884535</v>
       </c>
       <c r="R6" t="s">
         <v>211</v>
@@ -1825,7 +1828,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86146243192238448</v>
+        <v>0.51889980004854752</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1896,7 +1899,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65218604783901835</v>
+        <v>0.31819234871989943</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1964,7 +1967,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94191031574644823</v>
+        <v>4.0194841858134267E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2032,7 +2035,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9571280667603883E-2</v>
+        <v>0.13383370793322713</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2100,7 +2103,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23558120501155499</v>
+        <v>0.10823377595541217</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2168,7 +2171,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53233697419842507</v>
+        <v>0.65423015873308443</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2236,7 +2239,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7115292119247254E-2</v>
+        <v>0.63468939021204185</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2304,7 +2307,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55182527254994407</v>
+        <v>0.78356607985052351</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2372,7 +2375,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63079497762887959</v>
+        <v>3.0070441632859102E-2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2381,7 +2384,7 @@
       </c>
       <c r="B16">
         <f>(D16*$R$4+C16*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B16</f>
-        <v>-1.5152874990810479</v>
+        <v>-1.5193514223633309</v>
       </c>
       <c r="C16">
         <f>PARS!C16</f>
@@ -2440,7 +2443,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28582755023896023</v>
+        <v>0.40958688415259581</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2508,7 +2511,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28368100268246477</v>
+        <v>0.20030830742192129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2576,7 +2579,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68984766010374721</v>
+        <v>0.84919556119962092</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2644,7 +2647,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37373926759033771</v>
+        <v>0.18141211343408459</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2712,7 +2715,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3186562531838972E-2</v>
+        <v>0.7942221978866808</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2780,7 +2783,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14688935738363018</v>
+        <v>0.67648502504987107</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2848,7 +2851,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85878301224333642</v>
+        <v>0.1080775607866894</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2916,7 +2919,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76201176155116235</v>
+        <v>0.44542621341633493</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -2984,7 +2987,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26825513250453037</v>
+        <v>0.33913472414011891</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3052,7 +3055,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38480587363308882</v>
+        <v>0.42989262446065457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3120,7 +3123,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18284000749409635</v>
+        <v>0.25389323020763832</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3188,7 +3191,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4387383816964352</v>
+        <v>0.94196230648268053</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3256,7 +3259,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35519417116726515</v>
+        <v>6.6400723478801216E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3324,7 +3327,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78635561472118765</v>
+        <v>0.39934453945251336</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3392,7 +3395,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29267631128176641</v>
+        <v>0.1562562410609285</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3460,7 +3463,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85686200900946774</v>
+        <v>0.7964362044514729</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3528,7 +3531,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33450022560761983</v>
+        <v>0.84877094324874414</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3596,7 +3599,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62292382361878118</v>
+        <v>0.3875382149892338</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3664,7 +3667,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61270903421366074</v>
+        <v>0.33187953773689471</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3732,7 +3735,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99905967463407075</v>
+        <v>0.32123172208347728</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3800,7 +3803,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35454688706897064</v>
+        <v>5.0435395157746976E-2</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3868,7 +3871,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94942944593123757</v>
+        <v>0.10622726029118301</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3936,7 +3939,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63415421260614391</v>
+        <v>4.3212527250667487E-2</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4004,7 +4007,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2404053088332132</v>
+        <v>0.74803373996710787</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4072,7 +4075,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92905368632414087</v>
+        <v>0.97685725696322323</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4140,7 +4143,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7535499840838078</v>
+        <v>0.32893482252062234</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4208,7 +4211,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9321608594791706E-2</v>
+        <v>6.7824832909979982E-2</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4276,7 +4279,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95297266936470681</v>
+        <v>0.84774697874550398</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4344,7 +4347,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26298718699411971</v>
+        <v>6.0969091230077987E-2</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4412,7 +4415,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17591240891385984</v>
+        <v>0.63764395417513908</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4480,7 +4483,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10552648025071354</v>
+        <v>0.61401073086943703</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4548,7 +4551,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99395002718748005</v>
+        <v>0.48558644933837003</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4616,7 +4619,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97976567085004518</v>
+        <v>0.1806308948144083</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4684,7 +4687,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12322479824887711</v>
+        <v>4.8146050290107656E-2</v>
       </c>
     </row>
   </sheetData>
@@ -32953,7 +32956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -33827,7 +33830,7 @@
       </c>
       <c r="B16">
         <f>LN(-E16)</f>
-        <v>-1.4106897062608845</v>
+        <v>-1.4188175528254507</v>
       </c>
       <c r="C16">
         <f>LN(-G16)</f>
@@ -33838,7 +33841,7 @@
         <v>-1.1647520911726548</v>
       </c>
       <c r="E16">
-        <v>-0.24397495405798156</v>
+        <v>-0.24199999999999999</v>
       </c>
       <c r="F16">
         <v>-0.312</v>
@@ -33876,7 +33879,7 @@
       </c>
       <c r="U16">
         <f>-EXP(B16)</f>
-        <v>-0.24397495405798153</v>
+        <v>-0.24199999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
@@ -33905,7 +33908,7 @@
         <v>0.65</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I17">
         <v>4.0999999999999996</v>
@@ -33963,7 +33966,7 @@
         <v>10.4</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I18">
         <v>4.0999999999999996</v>
@@ -34021,7 +34024,7 @@
         <v>1000</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I19">
         <v>4.0999999999999996</v>
@@ -34079,7 +34082,7 @@
         <v>0.7</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I20">
         <v>4.0999999999999996</v>
@@ -34247,7 +34250,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -34300,7 +34303,7 @@
         <v>0.05</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -34351,7 +34354,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -34402,7 +34405,7 @@
         <v>3</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I26">
         <v>4</v>
@@ -34505,7 +34508,7 @@
         <v>0.5</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I28">
         <v>4</v>
@@ -34556,7 +34559,7 @@
         <v>10</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>4.01</v>
       </c>
       <c r="I29">
         <v>5</v>
@@ -34614,7 +34617,7 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>4.01</v>
       </c>
       <c r="I30">
         <v>5</v>
@@ -35655,8 +35658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36745,13 +36748,13 @@
         <v>0.15652701064259733</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>2.5</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G47">
         <v>91</v>
@@ -36778,6 +36781,9 @@
       </c>
       <c r="G48">
         <v>92</v>
+      </c>
+      <c r="H48" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -48810,8 +48816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50173A7-B186-45C1-8337-B5032812D8C9}">
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="AP35" sqref="AP35"/>
+    <sheetView topLeftCell="AN1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="AW20" sqref="AW20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E97CA82-8C65-4434-B18A-93EB2274FB37}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4BE446B-79E4-4379-9A83-1198C149EB00}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>4.7081044796112081E-2</v>
+        <v>0.63852444939057196</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.173170298793629</v>
+        <v>2.1628483161932777E-2</v>
       </c>
       <c r="R3" t="s">
         <v>193</v>
@@ -1614,14 +1614,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58403073848214548</v>
+        <v>2.3254579617567717E-2</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>2.0182018374813371E-2</v>
+        <v>5.7766862817332232E-4</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3506687183912169E-2</v>
+        <v>0.77908884743983298</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1698,15 +1698,15 @@
       </c>
       <c r="B6">
         <f>(D6*$R$4+C6*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B6</f>
-        <v>1.63</v>
+        <v>1.6156999999999999</v>
       </c>
       <c r="C6">
         <f>PARS!C6</f>
-        <v>1.63</v>
+        <v>1.6156999999999999</v>
       </c>
       <c r="D6">
         <f>PARS!D6</f>
-        <v>1.63</v>
+        <v>1.6156999999999999</v>
       </c>
       <c r="E6" t="b">
         <f t="shared" si="0"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82372303890884535</v>
+        <v>0.55490901781929147</v>
       </c>
       <c r="R6" t="s">
         <v>211</v>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51889980004854752</v>
+        <v>0.49364209624850353</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31819234871989943</v>
+        <v>0.35018479742204478</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0194841858134267E-2</v>
+        <v>0.24780623018069592</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13383370793322713</v>
+        <v>0.4425426494763226</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2044,15 +2044,15 @@
       </c>
       <c r="B11">
         <f>(D11*$R$4+C11*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B11</f>
-        <v>-4.4826767366032048</v>
+        <v>-1.7084430789493015</v>
       </c>
       <c r="C11">
         <f>PARS!C11</f>
-        <v>-4.8691357318225563</v>
+        <v>-2.0949020741686528</v>
       </c>
       <c r="D11">
         <f>PARS!D11</f>
-        <v>-3.9528449999484012</v>
+        <v>-1.1786113422944979</v>
       </c>
       <c r="E11" t="b">
         <f t="shared" si="0"/>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10823377595541217</v>
+        <v>0.91154913057242715</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="B12">
         <f>(D12*$R$4+C12*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B12</f>
-        <v>0.52027398093834631</v>
+        <v>0.56591674112182688</v>
       </c>
       <c r="C12">
         <f>PARS!C12</f>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65423015873308443</v>
+        <v>0.87283516201263034</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B13">
         <f>(D13*$R$4+C13*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B13</f>
-        <v>0.92421900000000001</v>
+        <v>0.93298012000000008</v>
       </c>
       <c r="C13">
         <f>PARS!C13</f>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63468939021204185</v>
+        <v>0.74757909137382206</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78356607985052351</v>
+        <v>0.84902699095214784</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="B15">
         <f>(D15*$R$4+C15*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B15</f>
-        <v>-2.5836226227271579</v>
+        <v>-2.47397645757514</v>
       </c>
       <c r="C15">
         <f>PARS!C15</f>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="E15" t="b">
         <f>AND(D15&gt;=B15,B15&gt;=C15,D15&gt;=C15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <f>PARS!J15</f>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0070441632859102E-2</v>
+        <v>0.91530057937611808</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40958688415259581</v>
+        <v>0.73835492259390356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20030830742192129</v>
+        <v>5.2975340031318541E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84919556119962092</v>
+        <v>0.88632225506702267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18141211343408459</v>
+        <v>0.63653422980406349</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B20">
         <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>0.26218952878938162</v>
+        <v>0.26223953200963057</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7942221978866808</v>
+        <v>0.29903052808490316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67648502504987107</v>
+        <v>0.49396252656004713</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1080775607866894</v>
+        <v>0.59363518893817302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44542621341633493</v>
+        <v>0.93771447391223628</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33913472414011891</v>
+        <v>0.27064931268885328</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42989262446065457</v>
+        <v>0.95621301560669347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25389323020763832</v>
+        <v>0.95363083348804312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94196230648268053</v>
+        <v>0.44632139190301623</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6400723478801216E-2</v>
+        <v>0.24250011796085358</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39934453945251336</v>
+        <v>0.36205248283155622</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1562562410609285</v>
+        <v>0.82784684357530658</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7964362044514729</v>
+        <v>0.93667419288343934</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84877094324874414</v>
+        <v>0.46541029521094668</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3875382149892338</v>
+        <v>0.89214947433405467</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33187953773689471</v>
+        <v>0.69727135950575081</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32123172208347728</v>
+        <v>0.64819361723735336</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0435395157746976E-2</v>
+        <v>0.80022420460665966</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="B37">
         <f>(D37*$R$4+C37*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B37</f>
-        <v>0.31831309561569465</v>
+        <v>0.31811205632025852</v>
       </c>
       <c r="C37">
         <f>PARS!C37</f>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10622726029118301</v>
+        <v>0.12708642643512613</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3212527250667487E-2</v>
+        <v>0.55312389469188661</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74803373996710787</v>
+        <v>0.11916063431884016</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97685725696322323</v>
+        <v>0.75519948873373899</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32893482252062234</v>
+        <v>0.82065355629719217</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7824832909979982E-2</v>
+        <v>0.11892215057797029</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84774697874550398</v>
+        <v>8.0259119717079663E-2</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0969091230077987E-2</v>
+        <v>9.5796290332097467E-3</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63764395417513908</v>
+        <v>0.89531902739510505</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61401073086943703</v>
+        <v>0.91741568622233327</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48558644933837003</v>
+        <v>0.38378771682118262</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1806308948144083</v>
+        <v>0.45426682548035591</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8146050290107656E-2</v>
+        <v>0.78298500714339636</v>
       </c>
     </row>
   </sheetData>
@@ -32956,8 +32956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33252,26 +33252,26 @@
       </c>
       <c r="B6">
         <f>E6</f>
-        <v>1.63</v>
+        <v>1.6156999999999999</v>
       </c>
       <c r="C6">
         <f>B6</f>
-        <v>1.63</v>
+        <v>1.6156999999999999</v>
       </c>
       <c r="D6">
         <f>B6</f>
-        <v>1.63</v>
+        <v>1.6156999999999999</v>
       </c>
       <c r="E6">
-        <v>1.63</v>
+        <v>1.6156999999999999</v>
       </c>
       <c r="F6">
         <f>E6</f>
-        <v>1.63</v>
+        <v>1.6156999999999999</v>
       </c>
       <c r="G6">
         <f>E6</f>
-        <v>1.63</v>
+        <v>1.6156999999999999</v>
       </c>
       <c r="H6">
         <v>1.41</v>
@@ -33532,26 +33532,26 @@
       </c>
       <c r="B11">
         <f>LN(E11)</f>
-        <v>-4.6459921805083466</v>
+        <v>-1.8717585228544431</v>
       </c>
       <c r="C11">
         <f>LN(F11)</f>
-        <v>-4.8691357318225563</v>
+        <v>-2.0949020741686528</v>
       </c>
       <c r="D11">
         <f>LN(G11)</f>
-        <v>-3.9528449999484012</v>
+        <v>-1.1786113422944979</v>
       </c>
       <c r="E11">
-        <v>9.5999999999999992E-3</v>
+        <v>0.15385287</v>
       </c>
       <c r="F11">
         <f>E11*0.8</f>
-        <v>7.6799999999999993E-3</v>
+        <v>0.12308229600000001</v>
       </c>
       <c r="G11">
         <f>E11*2</f>
-        <v>1.9199999999999998E-2</v>
+        <v>0.30770574000000001</v>
       </c>
       <c r="H11">
         <v>1.2</v>
@@ -33586,7 +33586,7 @@
       </c>
       <c r="U11">
         <f>EXP(B11)</f>
-        <v>9.5999999999999992E-3</v>
+        <v>0.15385287</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -33595,7 +33595,7 @@
       </c>
       <c r="B12">
         <f>-LN(1/E12 -1)</f>
-        <v>0.57059301932488571</v>
+        <v>0.66187853969184696</v>
       </c>
       <c r="C12">
         <f>-LN(1/F12 -1)</f>
@@ -33606,7 +33606,7 @@
         <v>1.0551933911457412</v>
       </c>
       <c r="E12">
-        <v>0.63890000000000002</v>
+        <v>0.65968225000000003</v>
       </c>
       <c r="F12">
         <v>0.39941511352741998</v>
@@ -33647,7 +33647,7 @@
       </c>
       <c r="U12">
         <f>1/(1+EXP(-B12))</f>
-        <v>0.63890000000000002</v>
+        <v>0.65968225000000003</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -33656,7 +33656,7 @@
       </c>
       <c r="B13">
         <f>E13</f>
-        <v>0.89729999999999999</v>
+        <v>0.91482224000000001</v>
       </c>
       <c r="C13">
         <f>F13</f>
@@ -33667,7 +33667,7 @@
         <v>1.16649</v>
       </c>
       <c r="E13">
-        <v>0.89729999999999999</v>
+        <v>0.91482224000000001</v>
       </c>
       <c r="F13">
         <v>0.62810999999999995</v>
@@ -33726,7 +33726,7 @@
         <v>1.2944</v>
       </c>
       <c r="F14">
-        <v>0.90607999999999989</v>
+        <v>1.2934243000000001</v>
       </c>
       <c r="G14">
         <v>1.68272</v>
@@ -33769,7 +33769,7 @@
       </c>
       <c r="B15">
         <f>LN(E15)</f>
-        <v>-2.5836226227271579</v>
+        <v>-2.364330292423122</v>
       </c>
       <c r="C15">
         <f>LN(F15)</f>
@@ -33780,7 +33780,7 @@
         <v>-2.5836226227271579</v>
       </c>
       <c r="E15">
-        <v>7.5499999999999998E-2</v>
+        <v>9.4012239999999997E-2</v>
       </c>
       <c r="F15">
         <v>7.5499999999999998E-2</v>
@@ -33821,7 +33821,7 @@
       </c>
       <c r="U15">
         <f>EXP(B15)</f>
-        <v>7.5500000000000012E-2</v>
+        <v>9.4012240000000011E-2</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -34062,7 +34062,7 @@
       </c>
       <c r="B20">
         <f>-LN(1/E20 -1)</f>
-        <v>1.6000341346441075E-2</v>
+        <v>1.6100347786938984E-2</v>
       </c>
       <c r="C20">
         <f>-LN(1/F20 -1)</f>
@@ -34073,7 +34073,7 @@
         <v>0.84729786038720356</v>
       </c>
       <c r="E20">
-        <v>0.504</v>
+        <v>0.50402499999999995</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -34111,7 +34111,7 @@
       </c>
       <c r="U20">
         <f>1/(1+EXP(-B20))</f>
-        <v>0.504</v>
+        <v>0.50402499999999995</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -35004,7 +35004,7 @@
       </c>
       <c r="B37">
         <f>-LN(1/E37 -1)</f>
-        <v>0.14424960884454691</v>
+        <v>0.14384753025367464</v>
       </c>
       <c r="C37">
         <f>-LN(1/F37 -1)</f>
@@ -35015,7 +35015,7 @@
         <v>0.84729786038720356</v>
       </c>
       <c r="E37">
-        <v>0.53600000000000003</v>
+        <v>0.53590000000000004</v>
       </c>
       <c r="F37">
         <v>0.49</v>
@@ -35053,7 +35053,7 @@
       </c>
       <c r="U37">
         <f>1/(1+EXP(-B37))</f>
-        <v>0.53600000000000003</v>
+        <v>0.53590000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{300B48C5-E109-4D34-AB4E-D898A8FE64B3}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF7CBB96-1D6D-451D-9DF9-4678EBFC26A8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="2" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" firstSheet="1" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.94299911541360781</v>
+        <v>0.54919204263343391</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.93407744437996254</v>
+        <v>0.81528795426205602</v>
       </c>
       <c r="R3" t="s">
         <v>193</v>
@@ -1657,14 +1657,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4257271472370725</v>
+        <v>9.5860874246779026E-2</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.146921425204112</v>
+        <v>0.28615656537424039</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6476224384454654E-2</v>
+        <v>0.79687516255977686</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42790136060507011</v>
+        <v>0.4667390640654685</v>
       </c>
       <c r="R6" t="s">
         <v>211</v>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42079073681593027</v>
+        <v>0.79676732368245118</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15261143450010761</v>
+        <v>3.659907778959115E-2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64818094130530446</v>
+        <v>0.39684228387265741</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47096566386686101</v>
+        <v>0.43188419927699873</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9000935920795259E-2</v>
+        <v>0.43622210680390916</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50709877505559631</v>
+        <v>0.99238664162802981</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37514294576219431</v>
+        <v>0.41702960853305349</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46671584716415071</v>
+        <v>0.28970867150539115</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15703045109888247</v>
+        <v>0.14569907854110054</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46000947842278139</v>
+        <v>0.16856242312835645</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2183459229225746E-2</v>
+        <v>0.18916924813444391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B18">
         <f>(D18*$R$4+C18*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B18</f>
-        <v>2.0641500951709357</v>
+        <v>1.9203090589450456</v>
       </c>
       <c r="C18">
         <f>PARS!C18</f>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90901438964056991</v>
+        <v>0.45263443755880439</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B19">
         <f>(D19*$R$4+C19*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B19</f>
-        <v>1.6777919910894723</v>
+        <v>1.7034386382832476</v>
       </c>
       <c r="C19">
         <f>PARS!C19</f>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89805395930434206</v>
+        <v>0.60149818285499845</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B20">
         <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>0.26223953200963057</v>
+        <v>0.26423969649504248</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45477771469229311</v>
+        <v>0.34166069888059281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27378723005296257</v>
+        <v>0.4653884459992722</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9342798227323118</v>
+        <v>0.42793080458630028</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76130624494646948</v>
+        <v>0.99712266058794297</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -2971,11 +2971,11 @@
       </c>
       <c r="B24">
         <f>(D24*$R$4+C24*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B24</f>
-        <v>-4.7500000000000007E-2</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="C24">
         <f>PARS!C24</f>
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="D24">
         <f>PARS!D24</f>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31596643256166923</v>
+        <v>0.29429583476453558</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74521116869023707</v>
+        <v>0.13929924885830669</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B26">
         <f>(D26*$R$4+C26*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B26</f>
-        <v>4.2857239766459332E-2</v>
+        <v>2.8358859296910843E-3</v>
       </c>
       <c r="C26">
         <f>PARS!C26</f>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59430736922128391</v>
+        <v>0.33342322450821027</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43157690757253897</v>
+        <v>0.42632570201846232</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32837573520811614</v>
+        <v>0.54009478653906617</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B29">
         <f>(D29*$R$4+C29*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B29</f>
-        <v>1.3171570121458978</v>
+        <v>1.1489208938352913</v>
       </c>
       <c r="C29">
         <f>PARS!C29</f>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52207924238843095</v>
+        <v>0.54269138675186235</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61240064269895955</v>
+        <v>0.49874701529834842</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83228430103927042</v>
+        <v>0.78452056354497501</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1207792177750715E-2</v>
+        <v>0.77760992018749642</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79386510709484481</v>
+        <v>0.29104853459716162</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34573213283427262</v>
+        <v>1.5252288377267331E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B35">
         <f>(D35*$R$4+C35*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B35</f>
-        <v>0.67343633819337667</v>
+        <v>0.69285625485150859</v>
       </c>
       <c r="C35">
         <f>PARS!C35</f>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6190409901885936</v>
+        <v>0.44426747031022029</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27666458230599533</v>
+        <v>0.90265931890920093</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="B37">
         <f>(D37*$R$4+C37*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B37</f>
-        <v>0.31630296184774637</v>
+        <v>0.31730795701037634</v>
       </c>
       <c r="C37">
         <f>PARS!C37</f>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61748941311395522</v>
+        <v>3.9225693829933683E-2</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50680898229068672</v>
+        <v>1.3882960878007111E-2</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52915704471895675</v>
+        <v>0.74439606097924693</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93593191496715822</v>
+        <v>0.19218364176603298</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98721089506664195</v>
+        <v>0.99829363131544269</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2297839134221531</v>
+        <v>0.24309595124333594</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36946690181540087</v>
+        <v>0.11327481489198654</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87150781029955793</v>
+        <v>0.75605370254834026</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3536520396108087E-2</v>
+        <v>0.47668025033162831</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10390347275830691</v>
+        <v>0.65805631557482402</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69884660637561336</v>
+        <v>0.51842097237290707</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67484401695205742</v>
+        <v>0.68099406201985624</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43077597683550584</v>
+        <v>0.48726029542418581</v>
       </c>
     </row>
   </sheetData>
@@ -33209,8 +33209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34199,7 +34199,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="5"/>
-        <v>2.0794415416798357</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="C18">
         <f t="shared" si="5"/>
@@ -34210,7 +34210,7 @@
         <v>2.341805806147327</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -34248,7 +34248,7 @@
       </c>
       <c r="U18">
         <f>EXP(B18)</f>
-        <v>7.9999999999999982</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -34257,7 +34257,7 @@
       </c>
       <c r="B19">
         <f>LN(E19/100)</f>
-        <v>2.2512917986064953</v>
+        <v>2.3025850929940459</v>
       </c>
       <c r="C19">
         <f>LN(F19/100)</f>
@@ -34268,7 +34268,7 @@
         <v>2.3025850929940459</v>
       </c>
       <c r="E19">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="F19">
         <v>50</v>
@@ -34306,7 +34306,7 @@
       </c>
       <c r="U19">
         <f>EXP(B19)*100</f>
-        <v>950.00000000000023</v>
+        <v>1000.0000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -34315,7 +34315,7 @@
       </c>
       <c r="B20">
         <f>-LN(1/E20 -1)</f>
-        <v>1.6100347786938984E-2</v>
+        <v>2.0100676757762812E-2</v>
       </c>
       <c r="C20">
         <f>-LN(1/F20 -1)</f>
@@ -34326,7 +34326,7 @@
         <v>0.84729786038720356</v>
       </c>
       <c r="E20">
-        <v>0.50402499999999995</v>
+        <v>0.50502499999999995</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -34364,7 +34364,7 @@
       </c>
       <c r="U20">
         <f>1/(1+EXP(-B20))</f>
-        <v>0.50402499999999995</v>
+        <v>0.50502499999999995</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -34534,23 +34534,22 @@
       </c>
       <c r="B24">
         <f t="shared" ref="B24:D25" si="6">E24</f>
-        <v>-4.4999999999999998E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="C24">
         <f t="shared" si="6"/>
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="D24">
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="E24">
-        <f>-0.045</f>
-        <v>-4.4999999999999998E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="F24">
-        <f>-0.2</f>
-        <v>-0.2</v>
+        <f>-0.15</f>
+        <v>-0.15</v>
       </c>
       <c r="G24">
         <v>0.05</v>
@@ -34638,7 +34637,7 @@
       </c>
       <c r="B26">
         <f>LN(E26)</f>
-        <v>-0.43078291609245423</v>
+        <v>-0.51082562376599072</v>
       </c>
       <c r="C26">
         <f>LN(F26)</f>
@@ -34649,7 +34648,7 @@
         <v>1.0986122886681098</v>
       </c>
       <c r="E26">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="F26">
         <v>0.7</v>
@@ -34687,7 +34686,7 @@
       </c>
       <c r="U26">
         <f>EXP(B26)</f>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
@@ -34752,7 +34751,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E28">
-        <v>4.2000000000000003E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -34792,7 +34791,7 @@
       </c>
       <c r="B29">
         <f t="shared" ref="B29:D30" si="7">LN(E29)</f>
-        <v>1.2527629684953681</v>
+        <v>0.91629073187415511</v>
       </c>
       <c r="C29">
         <f t="shared" si="7"/>
@@ -34803,7 +34802,7 @@
         <v>2.3025850929940459</v>
       </c>
       <c r="E29">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -34841,7 +34840,7 @@
       </c>
       <c r="U29">
         <f>EXP(B29)</f>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -35144,7 +35143,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="9"/>
-        <v>2.3125354238472138</v>
+        <v>2.3513752571634776</v>
       </c>
       <c r="C35">
         <f t="shared" si="9"/>
@@ -35155,7 +35154,7 @@
         <v>2.9957322735539909</v>
       </c>
       <c r="E35">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="F35">
         <v>1E-3</v>
@@ -35193,7 +35192,7 @@
       </c>
       <c r="U35">
         <f>EXP(B35)</f>
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.35">
@@ -35261,7 +35260,7 @@
       </c>
       <c r="B37">
         <f>-LN(1/E37 -1)</f>
-        <v>0.14022934130865025</v>
+        <v>0.14223933163391023</v>
       </c>
       <c r="C37">
         <f>-LN(1/F37 -1)</f>
@@ -35272,7 +35271,7 @@
         <v>0.84729786038720356</v>
       </c>
       <c r="E37">
-        <v>0.53500000000000003</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="F37">
         <v>0.49</v>
@@ -35310,7 +35309,7 @@
       </c>
       <c r="U37">
         <f>1/(1+EXP(-B37))</f>
-        <v>0.53500000000000003</v>
+        <v>0.53549999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
@@ -35915,8 +35914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36675,7 +36674,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>4.3</v>
+        <v>3.52</v>
       </c>
       <c r="G32">
         <v>36</v>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF7CBB96-1D6D-451D-9DF9-4678EBFC26A8}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B2BD72C-E6CE-417E-8833-21901B1D8278}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" firstSheet="1" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1381,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1514,11 +1514,11 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>0.96088451928226981</v>
+        <v>0.45026571891530132</v>
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.54919204263343391</v>
+        <v>0.28477414224768816</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1582,11 +1582,11 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0.93931603276302345</v>
+        <v>0.64258992231765177</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.81528795426205602</v>
+        <v>8.2042866273712711E-2</v>
       </c>
       <c r="R3" t="s">
         <v>193</v>
@@ -1653,18 +1653,18 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0.79955929543197091</v>
+        <v>0.2109069498418551</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5860874246779026E-2</v>
+        <v>0.21046249038058373</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.28615656537424039</v>
+        <v>0.99392940237387262</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1728,11 +1728,11 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.54494180268200132</v>
+        <v>0.87848651193353577</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79687516255977686</v>
+        <v>0.24879745472244175</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1796,11 +1796,11 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0.43743292505552389</v>
+        <v>0.91265842292054944</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4667390640654685</v>
+        <v>0.79265428046257702</v>
       </c>
       <c r="R6" t="s">
         <v>211</v>
@@ -1867,11 +1867,11 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>0.66846922000031195</v>
+        <v>0.91249787974659524</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79676732368245118</v>
+        <v>0.26791255269307646</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1938,11 +1938,11 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0.8189625383896767</v>
+        <v>3.3046308219545684E-2</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.659907778959115E-2</v>
+        <v>0.13098500541705105</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2006,11 +2006,11 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <v>0.68775585807551254</v>
+        <v>0.97768082688193647</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39684228387265741</v>
+        <v>0.77091111760547348</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2074,11 +2074,11 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.20393470314398465</v>
+        <v>0.74086429990454716</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43188419927699873</v>
+        <v>0.36706652648934657</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2142,11 +2142,11 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <v>0.32725593906556349</v>
+        <v>0.86037898330286977</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43622210680390916</v>
+        <v>0.38204213023683209</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2210,11 +2210,11 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>0.95177270478428277</v>
+        <v>0.41521169452629747</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99238664162802981</v>
+        <v>0.34915192005465057</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2278,11 +2278,11 @@
         <v>1</v>
       </c>
       <c r="P13">
-        <v>4.0501032798327063E-2</v>
+        <v>0.46557314041903575</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41702960853305349</v>
+        <v>0.6311871065814042</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2346,11 +2346,11 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>0.94057574679295852</v>
+        <v>0.61372102254729277</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28970867150539115</v>
+        <v>0.97935290304736278</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2414,11 +2414,11 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.47455476060203028</v>
+        <v>3.2897363898112042E-2</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14569907854110054</v>
+        <v>0.26114978601364947</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2482,11 +2482,11 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>4.0836758490806591E-2</v>
+        <v>0.15850360539381858</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16856242312835645</v>
+        <v>0.26877303849706413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2550,11 +2550,11 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>3.0808897991490114E-2</v>
+        <v>4.0815182308573172E-2</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18916924813444391</v>
+        <v>0.79098455723465111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2618,11 +2618,11 @@
         <v>1</v>
       </c>
       <c r="P18">
-        <v>0.13499517439001274</v>
+        <v>0.79134419092871022</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45263443755880439</v>
+        <v>0.59283190850621126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2686,11 +2686,11 @@
         <v>1</v>
       </c>
       <c r="P19">
-        <v>0.61493876521473423</v>
+        <v>0.44473108790054128</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60149818285499845</v>
+        <v>0.52302607239351184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2754,11 +2754,11 @@
         <v>1</v>
       </c>
       <c r="P20">
-        <v>0.22553148443564175</v>
+        <v>0.3174370251684232</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34166069888059281</v>
+        <v>0.91776264848263844</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2822,11 +2822,11 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <v>4.7258226664818381E-2</v>
+        <v>0.17040591722738896</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4653884459992722</v>
+        <v>0.48823579786159965</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2890,11 +2890,11 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>0.39456389374078515</v>
+        <v>0.70575014646886558</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42793080458630028</v>
+        <v>0.7534503937088497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2958,11 +2958,11 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.64496226174317939</v>
+        <v>0.42139635307234813</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99712266058794297</v>
+        <v>0.40199130163445973</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3026,11 +3026,11 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>3.1542434369515537E-2</v>
+        <v>0.29415573760612745</v>
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29429583476453558</v>
+        <v>0.41558691537936243</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3094,11 +3094,11 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>0.91330676627782759</v>
+        <v>0.39589873077261617</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13929924885830669</v>
+        <v>6.8529350821679991E-3</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3162,11 +3162,11 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>0.841333254743859</v>
+        <v>0.85407752402478287</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33342322450821027</v>
+        <v>0.41446502306090549</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3230,11 +3230,11 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0.85333827046184396</v>
+        <v>0.95518315060389447</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42632570201846232</v>
+        <v>4.0149167983366207E-2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3298,11 +3298,11 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>0.53494581901483274</v>
+        <v>0.13397480163273179</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54009478653906617</v>
+        <v>0.68948950449965729</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3366,11 +3366,11 @@
         <v>1</v>
       </c>
       <c r="P29">
-        <v>0.85007097863647385</v>
+        <v>6.4860324881191644E-2</v>
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54269138675186235</v>
+        <v>0.4291362963542894</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3434,11 +3434,11 @@
         <v>1</v>
       </c>
       <c r="P30">
-        <v>0.26488016532909064</v>
+        <v>0.39311826378521897</v>
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49874701529834842</v>
+        <v>0.61389929374771657</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3502,11 +3502,11 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>0.22877634352839571</v>
+        <v>0.14659968919594335</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78452056354497501</v>
+        <v>0.23344567590006071</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3570,11 +3570,11 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>0.28601297806494652</v>
+        <v>0.51457617192938376</v>
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77760992018749642</v>
+        <v>0.28410799706631995</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3638,11 +3638,11 @@
         <v>1</v>
       </c>
       <c r="P33">
-        <v>0.91854769774809197</v>
+        <v>0.73560584996787559</v>
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29104853459716162</v>
+        <v>0.45286202206894877</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3706,11 +3706,11 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>0.89875409667974537</v>
+        <v>0.4314723347972258</v>
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5252288377267331E-2</v>
+        <v>7.526301798707602E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3774,11 +3774,11 @@
         <v>1</v>
       </c>
       <c r="P35">
-        <v>0.87299319991538094</v>
+        <v>0.95444575195163173</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44426747031022029</v>
+        <v>0.37101923503926348</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3842,11 +3842,11 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>0.56079929697810937</v>
+        <v>0.15027616064651761</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90265931890920093</v>
+        <v>0.25961583930148791</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3910,11 +3910,11 @@
         <v>1</v>
       </c>
       <c r="P37">
-        <v>0.7967532746600442</v>
+        <v>0.24114897377650391</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9225693829933683E-2</v>
+        <v>9.4552370651967532E-2</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3978,11 +3978,11 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>0.48522066201501179</v>
+        <v>0.5751532464632032</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3882960878007111E-2</v>
+        <v>0.53937404481595708</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4046,11 +4046,11 @@
         <v>1</v>
       </c>
       <c r="P39">
-        <v>0.80483926049033272</v>
+        <v>0.83052896155391343</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74439606097924693</v>
+        <v>0.74193465115939961</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4114,11 +4114,11 @@
         <v>1</v>
       </c>
       <c r="P40">
-        <v>0.37841250266890536</v>
+        <v>0.57179882711031738</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19218364176603298</v>
+        <v>0.889899905471641</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4182,11 +4182,11 @@
         <v>1</v>
       </c>
       <c r="P41">
-        <v>0.75625185068884149</v>
+        <v>9.6052509766449634E-2</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99829363131544269</v>
+        <v>0.29369962368942715</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4250,11 +4250,11 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>7.9108317544280826E-3</v>
+        <v>0.45865485006919537</v>
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24309595124333594</v>
+        <v>7.5242050926083937E-2</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4318,11 +4318,11 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0.36999441428657287</v>
+        <v>0.9123383309457741</v>
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11327481489198654</v>
+        <v>0.29494173748039398</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4386,11 +4386,11 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0.23027100868811834</v>
+        <v>1.6941175439559863E-3</v>
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75605370254834026</v>
+        <v>0.81997542716375882</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4454,11 +4454,11 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0.54766793672842817</v>
+        <v>0.2115941042882471</v>
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47668025033162831</v>
+        <v>5.7646489773358844E-2</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4522,11 +4522,11 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>0.56510560640310847</v>
+        <v>0.72975034123159543</v>
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65805631557482402</v>
+        <v>0.81270813506686845</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>0.81592565902327352</v>
+        <v>0.80782005028098203</v>
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51842097237290707</v>
+        <v>0.76388423984595688</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4658,11 +4658,11 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0.63953029945784579</v>
+        <v>7.2670121740322058E-2</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68099406201985624</v>
+        <v>0.24814597039256658</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4726,11 +4726,11 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0.37580984274109186</v>
+        <v>0.14486889267994729</v>
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48726029542418581</v>
+        <v>0.57464335113589393</v>
       </c>
     </row>
   </sheetData>
@@ -33209,8 +33209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B2BD72C-E6CE-417E-8833-21901B1D8278}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F09CFCFF-C0CD-47A6-B84C-213A49960458}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -29,10 +29,11 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MOMS!$A$1:$I$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$U$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$V$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">W_psid!$A$1:$CT$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -56,12 +57,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={87DCDA33-C77C-4996-BC00-071C9DC650E9}</author>
+    <author>tc={767204F0-6A68-45A9-81A4-37CA98FC0DF2}</author>
     <author>tc={3A5A5ACA-AB2A-48F2-965E-C0F7F32044A5}</author>
     <author>tc={B0A55D4B-53D8-43EF-BA32-9BB09124DD6C}</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{87DCDA33-C77C-4996-BC00-071C9DC650E9}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{767204F0-6A68-45A9-81A4-37CA98FC0DF2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +72,7 @@
     made it so it would take singles into account</t>
       </text>
     </comment>
-    <comment ref="T38" authorId="1" shapeId="0" xr:uid="{3A5A5ACA-AB2A-48F2-965E-C0F7F32044A5}">
+    <comment ref="U38" authorId="1" shapeId="0" xr:uid="{3A5A5ACA-AB2A-48F2-965E-C0F7F32044A5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +80,7 @@
     add later - and get rid of THETA?</t>
       </text>
     </comment>
-    <comment ref="T40" authorId="2" shapeId="0" xr:uid="{B0A55D4B-53D8-43EF-BA32-9BB09124DD6C}">
+    <comment ref="U40" authorId="2" shapeId="0" xr:uid="{B0A55D4B-53D8-43EF-BA32-9BB09124DD6C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -150,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="246">
   <si>
     <t>label</t>
   </si>
@@ -886,6 +887,9 @@
   <si>
     <t>get rid of - and replace with just gendered? If I want this I need non-random matching!</t>
   </si>
+  <si>
+    <t>deroftransform</t>
+  </si>
 </sst>
 </file>
 
@@ -1027,6 +1031,49 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PARSTEST"/>
+      <sheetName val="PARS"/>
+      <sheetName val="MOMS"/>
+      <sheetName val="W"/>
+      <sheetName val="W_"/>
+      <sheetName val="parskickedout"/>
+      <sheetName val="Moments_other"/>
+      <sheetName val="Moments_psid"/>
+      <sheetName val="OUTSIDE MOMENT"/>
+      <sheetName val="W_psid"/>
+      <sheetName val="W_other"/>
+      <sheetName val="Ns"/>
+      <sheetName val="calibration of jseg"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="2">
+          <cell r="E2">
+            <v>0.70559799999999995</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1348,16 +1395,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E2" dT="2022-07-11T17:13:01.06" personId="{8C1B3605-3BBC-4A56-9DEA-CD9622C706EB}" id="{87DCDA33-C77C-4996-BC00-071C9DC650E9}">
+  <threadedComment ref="E2" dT="2022-07-11T17:13:01.06" personId="{8C1B3605-3BBC-4A56-9DEA-CD9622C706EB}" id="{767204F0-6A68-45A9-81A4-37CA98FC0DF2}">
     <text>=EXP(-0.0135*6.6667)*2*(1-0.156527)/(0.193*(2206.542/(24*365)+EXP(-0.26248)*(2206.542/(24*365)-671.547/(24*365))))</text>
   </threadedComment>
-  <threadedComment ref="E2" dT="2022-07-12T00:27:50.56" personId="{8C1B3605-3BBC-4A56-9DEA-CD9622C706EB}" id="{2E1262B5-D735-41DB-A7DE-A425104FC09F}" parentId="{87DCDA33-C77C-4996-BC00-071C9DC650E9}">
+  <threadedComment ref="E2" dT="2022-07-12T00:27:50.56" personId="{8C1B3605-3BBC-4A56-9DEA-CD9622C706EB}" id="{9781E3DA-46F9-48AE-84BE-37948A9B465D}" parentId="{767204F0-6A68-45A9-81A4-37CA98FC0DF2}">
     <text>made it so it would take singles into account</text>
   </threadedComment>
-  <threadedComment ref="T38" dT="2022-07-11T22:02:30.08" personId="{8C1B3605-3BBC-4A56-9DEA-CD9622C706EB}" id="{3A5A5ACA-AB2A-48F2-965E-C0F7F32044A5}">
+  <threadedComment ref="U38" dT="2022-07-11T22:02:30.08" personId="{8C1B3605-3BBC-4A56-9DEA-CD9622C706EB}" id="{3A5A5ACA-AB2A-48F2-965E-C0F7F32044A5}">
     <text>add later - and get rid of THETA?</text>
   </threadedComment>
-  <threadedComment ref="T40" dT="2022-07-11T19:37:37.39" personId="{8C1B3605-3BBC-4A56-9DEA-CD9622C706EB}" id="{B0A55D4B-53D8-43EF-BA32-9BB09124DD6C}">
+  <threadedComment ref="U40" dT="2022-07-11T19:37:37.39" personId="{8C1B3605-3BBC-4A56-9DEA-CD9622C706EB}" id="{B0A55D4B-53D8-43EF-BA32-9BB09124DD6C}">
     <text>cannot do comparative statics both for THETAHW and for LAMBDA</text>
   </threadedComment>
 </ThreadedComments>
@@ -1381,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1407,43 +1454,43 @@
         <v>180</v>
       </c>
       <c r="F1" t="str">
-        <f>PARS!J1</f>
+        <f>PARS!K1</f>
         <v>compstat</v>
       </c>
       <c r="G1" t="str">
-        <f>PARS!K1</f>
+        <f>PARS!L1</f>
         <v>toestimate</v>
       </c>
       <c r="H1" t="str">
-        <f>PARS!L1</f>
+        <f>PARS!M1</f>
         <v xml:space="preserve">tofitwithin </v>
       </c>
       <c r="I1" t="str">
-        <f>PARS!M1</f>
+        <f>PARS!N1</f>
         <v>tocalibrateoutright</v>
       </c>
       <c r="J1" t="str">
-        <f>PARS!N1</f>
+        <f>PARS!O1</f>
         <v>ignored</v>
       </c>
       <c r="K1" t="str">
-        <f>PARS!O1</f>
+        <f>PARS!P1</f>
         <v>check</v>
       </c>
       <c r="L1" t="str">
-        <f>PARS!P1</f>
+        <f>PARS!Q1</f>
         <v>reasonablecalibration</v>
       </c>
       <c r="M1" t="str">
-        <f>PARS!Q1</f>
+        <f>PARS!R1</f>
         <v>roughcalibrationok</v>
       </c>
       <c r="N1" t="str">
-        <f>PARS!R1</f>
+        <f>PARS!S1</f>
         <v>toestimateR</v>
       </c>
       <c r="O1" t="str">
-        <f>PARS!S1</f>
+        <f>PARS!T1</f>
         <v>parcount</v>
       </c>
       <c r="P1" t="s">
@@ -1474,43 +1521,43 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>PARS!J2</f>
+        <f>PARS!K2</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>PARS!K2</f>
+        <f>PARS!L2</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>PARS!L2</f>
+        <f>PARS!M2</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>PARS!M2</f>
+        <f>PARS!N2</f>
         <v>1</v>
       </c>
       <c r="J2">
-        <f>PARS!N2</f>
+        <f>PARS!O2</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>PARS!O2</f>
+        <f>PARS!P2</f>
         <v>1</v>
       </c>
       <c r="L2">
-        <f>PARS!P2</f>
+        <f>PARS!Q2</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>PARS!Q2</f>
+        <f>PARS!R2</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>PARS!R2</f>
+        <f>PARS!S2</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>PARS!S2</f>
+        <f>PARS!T2</f>
         <v>1</v>
       </c>
       <c r="P2">
@@ -1518,7 +1565,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.28477414224768816</v>
+        <v>0.24220549857776552</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1542,43 +1589,43 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <f>PARS!J3</f>
+        <f>PARS!K3</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>PARS!K3</f>
+        <f>PARS!L3</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>PARS!L3</f>
+        <f>PARS!M3</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>PARS!M3</f>
+        <f>PARS!N3</f>
         <v>1</v>
       </c>
       <c r="J3">
-        <f>PARS!N3</f>
+        <f>PARS!O3</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>PARS!O3</f>
+        <f>PARS!P3</f>
         <v>1</v>
       </c>
       <c r="L3">
-        <f>PARS!P3</f>
+        <f>PARS!Q3</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>PARS!Q3</f>
+        <f>PARS!R3</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>PARS!R3</f>
+        <f>PARS!S3</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>PARS!S3</f>
+        <f>PARS!T3</f>
         <v>1</v>
       </c>
       <c r="P3">
@@ -1586,7 +1633,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>8.2042866273712711E-2</v>
+        <v>0.47919421139496021</v>
       </c>
       <c r="R3" t="s">
         <v>193</v>
@@ -1613,58 +1660,58 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f>PARS!J4</f>
+        <f>PARS!K4</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>PARS!K4</f>
+        <f>PARS!L4</f>
         <v>1</v>
       </c>
       <c r="H4">
-        <f>PARS!L4</f>
+        <f>PARS!M4</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>PARS!M4</f>
+        <f>PARS!N4</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>PARS!N4</f>
+        <f>PARS!O4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>PARS!O4</f>
+        <f>PARS!P4</f>
         <v>1</v>
       </c>
       <c r="L4">
-        <f>PARS!P4</f>
+        <f>PARS!Q4</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>PARS!Q4</f>
-        <v>1</v>
-      </c>
-      <c r="N4">
         <f>PARS!R4</f>
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="N4">
         <f>PARS!S4</f>
         <v>1</v>
       </c>
+      <c r="O4">
+        <f>PARS!T4</f>
+        <v>1</v>
+      </c>
       <c r="P4">
         <v>0.2109069498418551</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21046249038058373</v>
+        <v>0.7312403997155219</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.99392940237387262</v>
+        <v>7.4105296754909511E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1688,43 +1735,43 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <f>PARS!J5</f>
+        <f>PARS!K5</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>PARS!K5</f>
+        <f>PARS!L5</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>PARS!L5</f>
+        <f>PARS!M5</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>PARS!M5</f>
+        <f>PARS!N5</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>PARS!N5</f>
-        <v>1</v>
-      </c>
-      <c r="K5">
         <f>PARS!O5</f>
         <v>1</v>
       </c>
+      <c r="K5">
+        <f>PARS!P5</f>
+        <v>1</v>
+      </c>
       <c r="L5">
-        <f>PARS!P5</f>
+        <f>PARS!Q5</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>PARS!Q5</f>
+        <f>PARS!R5</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>PARS!R5</f>
+        <f>PARS!S5</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>PARS!S5</f>
+        <f>PARS!T5</f>
         <v>0</v>
       </c>
       <c r="P5">
@@ -1732,7 +1779,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24879745472244175</v>
+        <v>0.13259031036488145</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1741,58 +1788,58 @@
       </c>
       <c r="B6">
         <f>(D6*$R$4+C6*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B6</f>
-        <v>1.6156999999999999</v>
+        <v>0.20836072497837904</v>
       </c>
       <c r="C6">
         <f>PARS!C6</f>
-        <v>1.6156999999999999</v>
+        <v>0.20836072497837904</v>
       </c>
       <c r="D6">
         <f>PARS!D6</f>
-        <v>1.6156999999999999</v>
+        <v>0.20836072497837904</v>
       </c>
       <c r="E6" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>PARS!J6</f>
+        <f>PARS!K6</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>PARS!K6</f>
+        <f>PARS!L6</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>PARS!L6</f>
+        <f>PARS!M6</f>
         <v>1</v>
       </c>
       <c r="I6">
-        <f>PARS!M6</f>
+        <f>PARS!N6</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>PARS!N6</f>
+        <f>PARS!O6</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>PARS!O6</f>
+        <f>PARS!P6</f>
         <v>1</v>
       </c>
       <c r="L6">
-        <f>PARS!P6</f>
+        <f>PARS!Q6</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>PARS!Q6</f>
+        <f>PARS!R6</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>PARS!R6</f>
+        <f>PARS!S6</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>PARS!S6</f>
+        <f>PARS!T6</f>
         <v>1</v>
       </c>
       <c r="P6">
@@ -1800,7 +1847,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79265428046257702</v>
+        <v>0.18538006448899258</v>
       </c>
       <c r="R6" t="s">
         <v>211</v>
@@ -1827,51 +1874,51 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <f>PARS!J7</f>
+        <f>PARS!K7</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>PARS!K7</f>
+        <f>PARS!L7</f>
         <v>1</v>
       </c>
       <c r="H7">
-        <f>PARS!L7</f>
+        <f>PARS!M7</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>PARS!M7</f>
+        <f>PARS!N7</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>PARS!N7</f>
+        <f>PARS!O7</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>PARS!O7</f>
+        <f>PARS!P7</f>
         <v>1</v>
       </c>
       <c r="L7">
-        <f>PARS!P7</f>
+        <f>PARS!Q7</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>PARS!Q7</f>
-        <v>1</v>
-      </c>
-      <c r="N7">
         <f>PARS!R7</f>
         <v>1</v>
       </c>
-      <c r="O7">
+      <c r="N7">
         <f>PARS!S7</f>
         <v>1</v>
       </c>
+      <c r="O7">
+        <f>PARS!T7</f>
+        <v>1</v>
+      </c>
       <c r="P7">
         <v>0.91249787974659524</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26791255269307646</v>
+        <v>4.6190964970698967E-2</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1898,51 +1945,51 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <f>PARS!J8</f>
-        <v>1</v>
-      </c>
-      <c r="G8">
         <f>PARS!K8</f>
         <v>1</v>
       </c>
+      <c r="G8">
+        <f>PARS!L8</f>
+        <v>1</v>
+      </c>
       <c r="H8">
-        <f>PARS!L8</f>
+        <f>PARS!M8</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>PARS!M8</f>
+        <f>PARS!N8</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>PARS!N8</f>
+        <f>PARS!O8</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>PARS!O8</f>
+        <f>PARS!P8</f>
         <v>1</v>
       </c>
       <c r="L8">
-        <f>PARS!P8</f>
+        <f>PARS!Q8</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>PARS!Q8</f>
+        <f>PARS!R8</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>PARS!R8</f>
-        <v>1</v>
-      </c>
-      <c r="O8">
         <f>PARS!S8</f>
         <v>1</v>
       </c>
+      <c r="O8">
+        <f>PARS!T8</f>
+        <v>1</v>
+      </c>
       <c r="P8">
         <v>3.3046308219545684E-2</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13098500541705105</v>
+        <v>0.72634168111178699</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1966,51 +2013,51 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <f>PARS!J9</f>
+        <f>PARS!K9</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>PARS!K9</f>
+        <f>PARS!L9</f>
         <v>1</v>
       </c>
       <c r="H9">
-        <f>PARS!L9</f>
+        <f>PARS!M9</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>PARS!M9</f>
+        <f>PARS!N9</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>PARS!N9</f>
+        <f>PARS!O9</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>PARS!O9</f>
+        <f>PARS!P9</f>
         <v>1</v>
       </c>
       <c r="L9">
-        <f>PARS!P9</f>
+        <f>PARS!Q9</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>PARS!Q9</f>
-        <v>1</v>
-      </c>
-      <c r="N9">
         <f>PARS!R9</f>
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="N9">
         <f>PARS!S9</f>
         <v>1</v>
       </c>
+      <c r="O9">
+        <f>PARS!T9</f>
+        <v>1</v>
+      </c>
       <c r="P9">
         <v>0.97768082688193647</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77091111760547348</v>
+        <v>0.74640669648328994</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2034,43 +2081,43 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <f>PARS!J10</f>
+        <f>PARS!K10</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>PARS!K10</f>
+        <f>PARS!L10</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>PARS!L10</f>
+        <f>PARS!M10</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>PARS!M10</f>
+        <f>PARS!N10</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>PARS!N10</f>
-        <v>1</v>
-      </c>
-      <c r="K10">
         <f>PARS!O10</f>
         <v>1</v>
       </c>
+      <c r="K10">
+        <f>PARS!P10</f>
+        <v>1</v>
+      </c>
       <c r="L10">
-        <f>PARS!P10</f>
+        <f>PARS!Q10</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>PARS!Q10</f>
+        <f>PARS!R10</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>PARS!R10</f>
+        <f>PARS!S10</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>PARS!S10</f>
+        <f>PARS!T10</f>
         <v>0</v>
       </c>
       <c r="P10">
@@ -2078,7 +2125,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36706652648934657</v>
+        <v>0.6733369390030135</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2102,43 +2149,43 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <f>PARS!J11</f>
+        <f>PARS!K11</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>PARS!K11</f>
+        <f>PARS!L11</f>
         <v>1</v>
       </c>
       <c r="H11">
-        <f>PARS!L11</f>
+        <f>PARS!M11</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>PARS!M11</f>
+        <f>PARS!N11</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>PARS!N11</f>
+        <f>PARS!O11</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>PARS!O11</f>
-        <v>1</v>
-      </c>
-      <c r="L11">
         <f>PARS!P11</f>
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="L11">
         <f>PARS!Q11</f>
         <v>1</v>
       </c>
+      <c r="M11">
+        <f>PARS!R11</f>
+        <v>1</v>
+      </c>
       <c r="N11">
-        <f>PARS!R11</f>
+        <f>PARS!S11</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>PARS!S11</f>
+        <f>PARS!T11</f>
         <v>1</v>
       </c>
       <c r="P11">
@@ -2146,7 +2193,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38204213023683209</v>
+        <v>0.66948824923785388</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2170,43 +2217,43 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <f>PARS!J12</f>
+        <f>PARS!K12</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>PARS!K12</f>
+        <f>PARS!L12</f>
         <v>1</v>
       </c>
       <c r="H12">
-        <f>PARS!L12</f>
+        <f>PARS!M12</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>PARS!M12</f>
+        <f>PARS!N12</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>PARS!N12</f>
+        <f>PARS!O12</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>PARS!O12</f>
-        <v>1</v>
-      </c>
-      <c r="L12">
         <f>PARS!P12</f>
         <v>1</v>
       </c>
-      <c r="M12">
+      <c r="L12">
         <f>PARS!Q12</f>
         <v>1</v>
       </c>
+      <c r="M12">
+        <f>PARS!R12</f>
+        <v>1</v>
+      </c>
       <c r="N12">
-        <f>PARS!R12</f>
+        <f>PARS!S12</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>PARS!S12</f>
+        <f>PARS!T12</f>
         <v>1</v>
       </c>
       <c r="P12">
@@ -2214,7 +2261,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34915192005465057</v>
+        <v>0.14734351498674758</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2223,7 +2270,7 @@
       </c>
       <c r="B13">
         <f>(D13*$R$4+C13*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B13</f>
-        <v>0.93298012000000008</v>
+        <v>0.43105624709792667</v>
       </c>
       <c r="C13">
         <f>PARS!C13</f>
@@ -2235,46 +2282,46 @@
       </c>
       <c r="E13" t="b">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>PARS!K13</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>PARS!L13</f>
         <v>1</v>
       </c>
-      <c r="F13">
-        <f>PARS!J13</f>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f>PARS!K13</f>
-        <v>1</v>
-      </c>
       <c r="H13">
-        <f>PARS!L13</f>
+        <f>PARS!M13</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>PARS!M13</f>
+        <f>PARS!N13</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>PARS!N13</f>
+        <f>PARS!O13</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>PARS!O13</f>
-        <v>1</v>
-      </c>
-      <c r="L13">
         <f>PARS!P13</f>
         <v>1</v>
       </c>
-      <c r="M13">
+      <c r="L13">
         <f>PARS!Q13</f>
         <v>1</v>
       </c>
+      <c r="M13">
+        <f>PARS!R13</f>
+        <v>1</v>
+      </c>
       <c r="N13">
-        <f>PARS!R13</f>
+        <f>PARS!S13</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>PARS!S13</f>
+        <f>PARS!T13</f>
         <v>1</v>
       </c>
       <c r="P13">
@@ -2282,7 +2329,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6311871065814042</v>
+        <v>0.92469837972042923</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2291,58 +2338,58 @@
       </c>
       <c r="B14">
         <f>(D14*$R$4+C14*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B14</f>
-        <v>1.333232</v>
+        <v>0.26578868534175293</v>
       </c>
       <c r="C14">
         <f>PARS!C14</f>
-        <v>0.90607999999999989</v>
+        <v>0.18063308712546314</v>
       </c>
       <c r="D14">
         <f>PARS!D14</f>
-        <v>1.68272</v>
+        <v>0.33546144751871732</v>
       </c>
       <c r="E14" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14">
-        <f>PARS!J14</f>
+        <f>PARS!K14</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>PARS!K14</f>
+        <f>PARS!L14</f>
         <v>1</v>
       </c>
       <c r="H14">
-        <f>PARS!L14</f>
+        <f>PARS!M14</f>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>PARS!M14</f>
+        <f>PARS!N14</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>PARS!N14</f>
+        <f>PARS!O14</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>PARS!O14</f>
-        <v>1</v>
-      </c>
-      <c r="L14">
         <f>PARS!P14</f>
         <v>1</v>
       </c>
-      <c r="M14">
+      <c r="L14">
         <f>PARS!Q14</f>
         <v>1</v>
       </c>
+      <c r="M14">
+        <f>PARS!R14</f>
+        <v>1</v>
+      </c>
       <c r="N14">
-        <f>PARS!R14</f>
+        <f>PARS!S14</f>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>PARS!S14</f>
+        <f>PARS!T14</f>
         <v>1</v>
       </c>
       <c r="P14">
@@ -2350,7 +2397,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97935290304736278</v>
+        <v>0.20460577150353088</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2374,43 +2421,43 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <f>PARS!J15</f>
+        <f>PARS!K15</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>PARS!K15</f>
+        <f>PARS!L15</f>
         <v>1</v>
       </c>
       <c r="H15">
-        <f>PARS!L15</f>
+        <f>PARS!M15</f>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>PARS!M15</f>
+        <f>PARS!N15</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>PARS!N15</f>
+        <f>PARS!O15</f>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>PARS!O15</f>
-        <v>1</v>
-      </c>
-      <c r="L15">
         <f>PARS!P15</f>
         <v>1</v>
       </c>
-      <c r="M15">
+      <c r="L15">
         <f>PARS!Q15</f>
         <v>1</v>
       </c>
+      <c r="M15">
+        <f>PARS!R15</f>
+        <v>1</v>
+      </c>
       <c r="N15">
-        <f>PARS!R15</f>
+        <f>PARS!S15</f>
         <v>0</v>
       </c>
       <c r="O15">
-        <f>PARS!S15</f>
+        <f>PARS!T15</f>
         <v>1</v>
       </c>
       <c r="P15">
@@ -2418,7 +2465,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26114978601364947</v>
+        <v>6.3398083683409712E-2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2442,51 +2489,51 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <f>PARS!J16</f>
+        <f>PARS!K16</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>PARS!K16</f>
+        <f>PARS!L16</f>
         <v>1</v>
       </c>
       <c r="H16">
-        <f>PARS!L16</f>
+        <f>PARS!M16</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>PARS!M16</f>
+        <f>PARS!N16</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>PARS!N16</f>
+        <f>PARS!O16</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>PARS!O16</f>
+        <f>PARS!P16</f>
         <v>1</v>
       </c>
       <c r="L16">
-        <f>PARS!P16</f>
+        <f>PARS!Q16</f>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>PARS!Q16</f>
-        <v>1</v>
-      </c>
-      <c r="N16">
         <f>PARS!R16</f>
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="N16">
         <f>PARS!S16</f>
         <v>1</v>
       </c>
+      <c r="O16">
+        <f>PARS!T16</f>
+        <v>1</v>
+      </c>
       <c r="P16">
         <v>0.15850360539381858</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26877303849706413</v>
+        <v>0.72791546499423676</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2510,51 +2557,51 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <f>PARS!J17</f>
-        <v>1</v>
-      </c>
-      <c r="G17">
         <f>PARS!K17</f>
         <v>1</v>
       </c>
+      <c r="G17">
+        <f>PARS!L17</f>
+        <v>1</v>
+      </c>
       <c r="H17">
-        <f>PARS!L17</f>
+        <f>PARS!M17</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>PARS!M17</f>
+        <f>PARS!N17</f>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>PARS!N17</f>
+        <f>PARS!O17</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>PARS!O17</f>
+        <f>PARS!P17</f>
         <v>1</v>
       </c>
       <c r="L17">
-        <f>PARS!P17</f>
+        <f>PARS!Q17</f>
         <v>0</v>
       </c>
       <c r="M17">
-        <f>PARS!Q17</f>
+        <f>PARS!R17</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>PARS!R17</f>
-        <v>1</v>
-      </c>
-      <c r="O17">
         <f>PARS!S17</f>
         <v>1</v>
       </c>
+      <c r="O17">
+        <f>PARS!T17</f>
+        <v>1</v>
+      </c>
       <c r="P17">
         <v>4.0815182308573172E-2</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79098455723465111</v>
+        <v>0.2638440472044622</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2578,51 +2625,51 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <f>PARS!J18</f>
-        <v>1</v>
-      </c>
-      <c r="G18">
         <f>PARS!K18</f>
         <v>1</v>
       </c>
+      <c r="G18">
+        <f>PARS!L18</f>
+        <v>1</v>
+      </c>
       <c r="H18">
-        <f>PARS!L18</f>
+        <f>PARS!M18</f>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>PARS!M18</f>
+        <f>PARS!N18</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>PARS!N18</f>
+        <f>PARS!O18</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>PARS!O18</f>
+        <f>PARS!P18</f>
         <v>1</v>
       </c>
       <c r="L18">
-        <f>PARS!P18</f>
+        <f>PARS!Q18</f>
         <v>0</v>
       </c>
       <c r="M18">
-        <f>PARS!Q18</f>
+        <f>PARS!R18</f>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>PARS!R18</f>
-        <v>1</v>
-      </c>
-      <c r="O18">
         <f>PARS!S18</f>
         <v>1</v>
       </c>
+      <c r="O18">
+        <f>PARS!T18</f>
+        <v>1</v>
+      </c>
       <c r="P18">
         <v>0.79134419092871022</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59283190850621126</v>
+        <v>0.52459286309279141</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2631,58 +2678,58 @@
       </c>
       <c r="B19">
         <f>(D19*$R$4+C19*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B19</f>
-        <v>1.7034386382832476</v>
+        <v>2.9957322735539909</v>
       </c>
       <c r="C19">
         <f>PARS!C19</f>
-        <v>-0.69314718055994529</v>
+        <v>2.9957322735539909</v>
       </c>
       <c r="D19">
         <f>PARS!D19</f>
-        <v>2.3025850929940459</v>
+        <v>2.9957322735539909</v>
       </c>
       <c r="E19" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19">
-        <f>PARS!J19</f>
-        <v>1</v>
-      </c>
-      <c r="G19">
         <f>PARS!K19</f>
         <v>1</v>
       </c>
+      <c r="G19">
+        <f>PARS!L19</f>
+        <v>0</v>
+      </c>
       <c r="H19">
-        <f>PARS!L19</f>
+        <f>PARS!M19</f>
         <v>0</v>
       </c>
       <c r="I19">
-        <f>PARS!M19</f>
-        <v>0</v>
+        <f>PARS!N19</f>
+        <v>1</v>
       </c>
       <c r="J19">
-        <f>PARS!N19</f>
+        <f>PARS!O19</f>
         <v>0</v>
       </c>
       <c r="K19">
-        <f>PARS!O19</f>
+        <f>PARS!P19</f>
         <v>1</v>
       </c>
       <c r="L19">
-        <f>PARS!P19</f>
+        <f>PARS!Q19</f>
         <v>0</v>
       </c>
       <c r="M19">
-        <f>PARS!Q19</f>
+        <f>PARS!R19</f>
         <v>0</v>
       </c>
       <c r="N19">
-        <f>PARS!R19</f>
-        <v>1</v>
+        <f>PARS!S19</f>
+        <v>0</v>
       </c>
       <c r="O19">
-        <f>PARS!S19</f>
+        <f>PARS!T19</f>
         <v>1</v>
       </c>
       <c r="P19">
@@ -2690,7 +2737,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52302607239351184</v>
+        <v>0.72013808889651287</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2714,51 +2761,51 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <f>PARS!J20</f>
-        <v>1</v>
-      </c>
-      <c r="G20">
         <f>PARS!K20</f>
         <v>1</v>
       </c>
+      <c r="G20">
+        <f>PARS!L20</f>
+        <v>1</v>
+      </c>
       <c r="H20">
-        <f>PARS!L20</f>
+        <f>PARS!M20</f>
         <v>0</v>
       </c>
       <c r="I20">
-        <f>PARS!M20</f>
+        <f>PARS!N20</f>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>PARS!N20</f>
+        <f>PARS!O20</f>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>PARS!O20</f>
+        <f>PARS!P20</f>
         <v>1</v>
       </c>
       <c r="L20">
-        <f>PARS!P20</f>
+        <f>PARS!Q20</f>
         <v>0</v>
       </c>
       <c r="M20">
-        <f>PARS!Q20</f>
+        <f>PARS!R20</f>
         <v>0</v>
       </c>
       <c r="N20">
-        <f>PARS!R20</f>
-        <v>1</v>
-      </c>
-      <c r="O20">
         <f>PARS!S20</f>
         <v>1</v>
       </c>
+      <c r="O20">
+        <f>PARS!T20</f>
+        <v>1</v>
+      </c>
       <c r="P20">
         <v>0.3174370251684232</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91776264848263844</v>
+        <v>0.41386051744825925</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2782,51 +2829,51 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <f>PARS!J21</f>
-        <v>1</v>
-      </c>
-      <c r="G21">
         <f>PARS!K21</f>
         <v>1</v>
       </c>
+      <c r="G21">
+        <f>PARS!L21</f>
+        <v>1</v>
+      </c>
       <c r="H21">
-        <f>PARS!L21</f>
+        <f>PARS!M21</f>
         <v>0</v>
       </c>
       <c r="I21">
-        <f>PARS!M21</f>
+        <f>PARS!N21</f>
         <v>0</v>
       </c>
       <c r="J21">
-        <f>PARS!N21</f>
+        <f>PARS!O21</f>
         <v>0</v>
       </c>
       <c r="K21">
-        <f>PARS!O21</f>
+        <f>PARS!P21</f>
         <v>1</v>
       </c>
       <c r="L21">
-        <f>PARS!P21</f>
+        <f>PARS!Q21</f>
         <v>0</v>
       </c>
       <c r="M21">
-        <f>PARS!Q21</f>
+        <f>PARS!R21</f>
         <v>0</v>
       </c>
       <c r="N21">
-        <f>PARS!R21</f>
-        <v>1</v>
-      </c>
-      <c r="O21">
         <f>PARS!S21</f>
         <v>1</v>
       </c>
+      <c r="O21">
+        <f>PARS!T21</f>
+        <v>1</v>
+      </c>
       <c r="P21">
         <v>0.17040591722738896</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48823579786159965</v>
+        <v>0.37407856382015592</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2850,51 +2897,51 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <f>PARS!J22</f>
+        <f>PARS!K22</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>PARS!K22</f>
+        <f>PARS!L22</f>
         <v>1</v>
       </c>
       <c r="H22">
-        <f>PARS!L22</f>
+        <f>PARS!M22</f>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>PARS!M22</f>
+        <f>PARS!N22</f>
         <v>0</v>
       </c>
       <c r="J22">
-        <f>PARS!N22</f>
+        <f>PARS!O22</f>
         <v>0</v>
       </c>
       <c r="K22">
-        <f>PARS!O22</f>
+        <f>PARS!P22</f>
         <v>1</v>
       </c>
       <c r="L22">
-        <f>PARS!P22</f>
+        <f>PARS!Q22</f>
         <v>0</v>
       </c>
       <c r="M22">
-        <f>PARS!Q22</f>
+        <f>PARS!R22</f>
         <v>0</v>
       </c>
       <c r="N22">
-        <f>PARS!R22</f>
-        <v>1</v>
-      </c>
-      <c r="O22">
         <f>PARS!S22</f>
         <v>1</v>
       </c>
+      <c r="O22">
+        <f>PARS!T22</f>
+        <v>1</v>
+      </c>
       <c r="P22">
         <v>0.70575014646886558</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7534503937088497</v>
+        <v>0.51217347698557447</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2918,43 +2965,43 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <f>PARS!J23</f>
+        <f>PARS!K23</f>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>PARS!K23</f>
+        <f>PARS!L23</f>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>PARS!L23</f>
+        <f>PARS!M23</f>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>PARS!M23</f>
+        <f>PARS!N23</f>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>PARS!N23</f>
-        <v>1</v>
-      </c>
-      <c r="K23">
         <f>PARS!O23</f>
         <v>1</v>
       </c>
+      <c r="K23">
+        <f>PARS!P23</f>
+        <v>1</v>
+      </c>
       <c r="L23">
-        <f>PARS!P23</f>
+        <f>PARS!Q23</f>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>PARS!Q23</f>
+        <f>PARS!R23</f>
         <v>0</v>
       </c>
       <c r="N23">
-        <f>PARS!R23</f>
+        <f>PARS!S23</f>
         <v>0</v>
       </c>
       <c r="O23">
-        <f>PARS!S23</f>
+        <f>PARS!T23</f>
         <v>0</v>
       </c>
       <c r="P23">
@@ -2962,7 +3009,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40199130163445973</v>
+        <v>0.17216977576561565</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -2986,51 +3033,51 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <f>PARS!J24</f>
+        <f>PARS!K24</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>PARS!K24</f>
+        <f>PARS!L24</f>
         <v>1</v>
       </c>
       <c r="H24">
-        <f>PARS!L24</f>
+        <f>PARS!M24</f>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>PARS!M24</f>
+        <f>PARS!N24</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>PARS!N24</f>
+        <f>PARS!O24</f>
         <v>0</v>
       </c>
       <c r="K24">
-        <f>PARS!O24</f>
+        <f>PARS!P24</f>
         <v>1</v>
       </c>
       <c r="L24">
-        <f>PARS!P24</f>
+        <f>PARS!Q24</f>
         <v>0</v>
       </c>
       <c r="M24">
-        <f>PARS!Q24</f>
+        <f>PARS!R24</f>
         <v>0</v>
       </c>
       <c r="N24">
-        <f>PARS!R24</f>
-        <v>1</v>
-      </c>
-      <c r="O24">
         <f>PARS!S24</f>
         <v>1</v>
       </c>
+      <c r="O24">
+        <f>PARS!T24</f>
+        <v>1</v>
+      </c>
       <c r="P24">
         <v>0.29415573760612745</v>
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41558691537936243</v>
+        <v>0.39902132684464664</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3054,51 +3101,51 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <f>PARS!J25</f>
+        <f>PARS!K25</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>PARS!K25</f>
+        <f>PARS!L25</f>
         <v>1</v>
       </c>
       <c r="H25">
-        <f>PARS!L25</f>
+        <f>PARS!M25</f>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>PARS!M25</f>
+        <f>PARS!N25</f>
         <v>0</v>
       </c>
       <c r="J25">
-        <f>PARS!N25</f>
+        <f>PARS!O25</f>
         <v>0</v>
       </c>
       <c r="K25">
-        <f>PARS!O25</f>
+        <f>PARS!P25</f>
         <v>1</v>
       </c>
       <c r="L25">
-        <f>PARS!P25</f>
+        <f>PARS!Q25</f>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>PARS!Q25</f>
+        <f>PARS!R25</f>
         <v>0</v>
       </c>
       <c r="N25">
-        <f>PARS!R25</f>
-        <v>1</v>
-      </c>
-      <c r="O25">
         <f>PARS!S25</f>
         <v>1</v>
       </c>
+      <c r="O25">
+        <f>PARS!T25</f>
+        <v>1</v>
+      </c>
       <c r="P25">
         <v>0.39589873077261617</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8529350821679991E-3</v>
+        <v>0.95271253522213295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3122,51 +3169,51 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <f>PARS!J26</f>
-        <v>1</v>
-      </c>
-      <c r="G26">
         <f>PARS!K26</f>
         <v>1</v>
       </c>
+      <c r="G26">
+        <f>PARS!L26</f>
+        <v>1</v>
+      </c>
       <c r="H26">
-        <f>PARS!L26</f>
+        <f>PARS!M26</f>
         <v>0</v>
       </c>
       <c r="I26">
-        <f>PARS!M26</f>
+        <f>PARS!N26</f>
         <v>0</v>
       </c>
       <c r="J26">
-        <f>PARS!N26</f>
+        <f>PARS!O26</f>
         <v>0</v>
       </c>
       <c r="K26">
-        <f>PARS!O26</f>
+        <f>PARS!P26</f>
         <v>1</v>
       </c>
       <c r="L26">
-        <f>PARS!P26</f>
+        <f>PARS!Q26</f>
         <v>0</v>
       </c>
       <c r="M26">
-        <f>PARS!Q26</f>
+        <f>PARS!R26</f>
         <v>0</v>
       </c>
       <c r="N26">
-        <f>PARS!R26</f>
-        <v>1</v>
-      </c>
-      <c r="O26">
         <f>PARS!S26</f>
         <v>1</v>
       </c>
+      <c r="O26">
+        <f>PARS!T26</f>
+        <v>1</v>
+      </c>
       <c r="P26">
         <v>0.85407752402478287</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41446502306090549</v>
+        <v>0.19856421513548073</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3190,43 +3237,43 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <f>PARS!J27</f>
+        <f>PARS!K27</f>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>PARS!K27</f>
+        <f>PARS!L27</f>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>PARS!L27</f>
+        <f>PARS!M27</f>
         <v>0</v>
       </c>
       <c r="I27">
-        <f>PARS!M27</f>
+        <f>PARS!N27</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f>PARS!N27</f>
-        <v>1</v>
-      </c>
-      <c r="K27">
         <f>PARS!O27</f>
         <v>1</v>
       </c>
+      <c r="K27">
+        <f>PARS!P27</f>
+        <v>1</v>
+      </c>
       <c r="L27">
-        <f>PARS!P27</f>
+        <f>PARS!Q27</f>
         <v>0</v>
       </c>
       <c r="M27">
-        <f>PARS!Q27</f>
+        <f>PARS!R27</f>
         <v>0</v>
       </c>
       <c r="N27">
-        <f>PARS!R27</f>
+        <f>PARS!S27</f>
         <v>0</v>
       </c>
       <c r="O27">
-        <f>PARS!S27</f>
+        <f>PARS!T27</f>
         <v>0</v>
       </c>
       <c r="P27">
@@ -3234,7 +3281,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0149167983366207E-2</v>
+        <v>0.15439671928853904</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3258,51 +3305,51 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <f>PARS!J28</f>
+        <f>PARS!K28</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>PARS!K28</f>
+        <f>PARS!L28</f>
         <v>1</v>
       </c>
       <c r="H28">
-        <f>PARS!L28</f>
+        <f>PARS!M28</f>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>PARS!M28</f>
+        <f>PARS!N28</f>
         <v>0</v>
       </c>
       <c r="J28">
-        <f>PARS!N28</f>
+        <f>PARS!O28</f>
         <v>0</v>
       </c>
       <c r="K28">
-        <f>PARS!O28</f>
+        <f>PARS!P28</f>
         <v>1</v>
       </c>
       <c r="L28">
-        <f>PARS!P28</f>
+        <f>PARS!Q28</f>
         <v>0</v>
       </c>
       <c r="M28">
-        <f>PARS!Q28</f>
+        <f>PARS!R28</f>
         <v>0</v>
       </c>
       <c r="N28">
-        <f>PARS!R28</f>
-        <v>1</v>
-      </c>
-      <c r="O28">
         <f>PARS!S28</f>
         <v>1</v>
       </c>
+      <c r="O28">
+        <f>PARS!T28</f>
+        <v>1</v>
+      </c>
       <c r="P28">
         <v>0.13397480163273179</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68948950449965729</v>
+        <v>5.8089399549935528E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3326,51 +3373,51 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <f>PARS!J29</f>
-        <v>1</v>
-      </c>
-      <c r="G29">
         <f>PARS!K29</f>
         <v>1</v>
       </c>
+      <c r="G29">
+        <f>PARS!L29</f>
+        <v>1</v>
+      </c>
       <c r="H29">
-        <f>PARS!L29</f>
+        <f>PARS!M29</f>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>PARS!M29</f>
+        <f>PARS!N29</f>
         <v>0</v>
       </c>
       <c r="J29">
-        <f>PARS!N29</f>
+        <f>PARS!O29</f>
         <v>0</v>
       </c>
       <c r="K29">
-        <f>PARS!O29</f>
+        <f>PARS!P29</f>
         <v>1</v>
       </c>
       <c r="L29">
-        <f>PARS!P29</f>
+        <f>PARS!Q29</f>
         <v>0</v>
       </c>
       <c r="M29">
-        <f>PARS!Q29</f>
+        <f>PARS!R29</f>
         <v>0</v>
       </c>
       <c r="N29">
-        <f>PARS!R29</f>
-        <v>1</v>
-      </c>
-      <c r="O29">
         <f>PARS!S29</f>
         <v>1</v>
       </c>
+      <c r="O29">
+        <f>PARS!T29</f>
+        <v>1</v>
+      </c>
       <c r="P29">
         <v>6.4860324881191644E-2</v>
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4291362963542894</v>
+        <v>0.9876252120146275</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3394,51 +3441,51 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <f>PARS!J30</f>
-        <v>1</v>
-      </c>
-      <c r="G30">
         <f>PARS!K30</f>
         <v>1</v>
       </c>
+      <c r="G30">
+        <f>PARS!L30</f>
+        <v>1</v>
+      </c>
       <c r="H30">
-        <f>PARS!L30</f>
+        <f>PARS!M30</f>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>PARS!M30</f>
+        <f>PARS!N30</f>
         <v>0</v>
       </c>
       <c r="J30">
-        <f>PARS!N30</f>
+        <f>PARS!O30</f>
         <v>0</v>
       </c>
       <c r="K30">
-        <f>PARS!O30</f>
+        <f>PARS!P30</f>
         <v>1</v>
       </c>
       <c r="L30">
-        <f>PARS!P30</f>
+        <f>PARS!Q30</f>
         <v>0</v>
       </c>
       <c r="M30">
-        <f>PARS!Q30</f>
-        <v>1</v>
-      </c>
-      <c r="N30">
         <f>PARS!R30</f>
         <v>1</v>
       </c>
-      <c r="O30">
+      <c r="N30">
         <f>PARS!S30</f>
         <v>1</v>
       </c>
+      <c r="O30">
+        <f>PARS!T30</f>
+        <v>1</v>
+      </c>
       <c r="P30">
         <v>0.39311826378521897</v>
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61389929374771657</v>
+        <v>0.67675060514609631</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3462,51 +3509,51 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <f>PARS!J31</f>
+        <f>PARS!K31</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f>PARS!K31</f>
+        <f>PARS!L31</f>
         <v>1</v>
       </c>
       <c r="H31">
-        <f>PARS!L31</f>
+        <f>PARS!M31</f>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>PARS!M31</f>
+        <f>PARS!N31</f>
         <v>0</v>
       </c>
       <c r="J31">
-        <f>PARS!N31</f>
+        <f>PARS!O31</f>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>PARS!O31</f>
+        <f>PARS!P31</f>
         <v>1</v>
       </c>
       <c r="L31">
-        <f>PARS!P31</f>
+        <f>PARS!Q31</f>
         <v>0</v>
       </c>
       <c r="M31">
-        <f>PARS!Q31</f>
+        <f>PARS!R31</f>
         <v>0</v>
       </c>
       <c r="N31">
-        <f>PARS!R31</f>
-        <v>1</v>
-      </c>
-      <c r="O31">
         <f>PARS!S31</f>
         <v>1</v>
       </c>
+      <c r="O31">
+        <f>PARS!T31</f>
+        <v>1</v>
+      </c>
       <c r="P31">
         <v>0.14659968919594335</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23344567590006071</v>
+        <v>0.58206864897634836</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3530,43 +3577,43 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <f>PARS!J32</f>
+        <f>PARS!K32</f>
         <v>1</v>
       </c>
       <c r="G32">
-        <f>PARS!K32</f>
+        <f>PARS!L32</f>
         <v>0</v>
       </c>
       <c r="H32">
-        <f>PARS!L32</f>
+        <f>PARS!M32</f>
         <v>0</v>
       </c>
       <c r="I32">
-        <f>PARS!M32</f>
+        <f>PARS!N32</f>
         <v>1</v>
       </c>
       <c r="J32">
-        <f>PARS!N32</f>
+        <f>PARS!O32</f>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>PARS!O32</f>
+        <f>PARS!P32</f>
         <v>1</v>
       </c>
       <c r="L32">
-        <f>PARS!P32</f>
+        <f>PARS!Q32</f>
         <v>0</v>
       </c>
       <c r="M32">
-        <f>PARS!Q32</f>
+        <f>PARS!R32</f>
         <v>0</v>
       </c>
       <c r="N32">
-        <f>PARS!R32</f>
+        <f>PARS!S32</f>
         <v>0</v>
       </c>
       <c r="O32">
-        <f>PARS!S32</f>
+        <f>PARS!T32</f>
         <v>1</v>
       </c>
       <c r="P32">
@@ -3574,7 +3621,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28410799706631995</v>
+        <v>0.96136439587029077</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3598,51 +3645,51 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <f>PARS!J33</f>
-        <v>1</v>
-      </c>
-      <c r="G33">
         <f>PARS!K33</f>
         <v>1</v>
       </c>
+      <c r="G33">
+        <f>PARS!L33</f>
+        <v>1</v>
+      </c>
       <c r="H33">
-        <f>PARS!L33</f>
+        <f>PARS!M33</f>
         <v>0</v>
       </c>
       <c r="I33">
-        <f>PARS!M33</f>
+        <f>PARS!N33</f>
         <v>0</v>
       </c>
       <c r="J33">
-        <f>PARS!N33</f>
+        <f>PARS!O33</f>
         <v>0</v>
       </c>
       <c r="K33">
-        <f>PARS!O33</f>
+        <f>PARS!P33</f>
         <v>1</v>
       </c>
       <c r="L33">
-        <f>PARS!P33</f>
+        <f>PARS!Q33</f>
         <v>0</v>
       </c>
       <c r="M33">
-        <f>PARS!Q33</f>
+        <f>PARS!R33</f>
         <v>0</v>
       </c>
       <c r="N33">
-        <f>PARS!R33</f>
-        <v>1</v>
-      </c>
-      <c r="O33">
         <f>PARS!S33</f>
         <v>1</v>
       </c>
+      <c r="O33">
+        <f>PARS!T33</f>
+        <v>1</v>
+      </c>
       <c r="P33">
         <v>0.73560584996787559</v>
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45286202206894877</v>
+        <v>0.29379049651852152</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3666,51 +3713,51 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <f>PARS!J34</f>
-        <v>1</v>
-      </c>
-      <c r="G34">
         <f>PARS!K34</f>
         <v>1</v>
       </c>
+      <c r="G34">
+        <f>PARS!L34</f>
+        <v>1</v>
+      </c>
       <c r="H34">
-        <f>PARS!L34</f>
+        <f>PARS!M34</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f>PARS!M34</f>
+        <f>PARS!N34</f>
         <v>0</v>
       </c>
       <c r="J34">
-        <f>PARS!N34</f>
+        <f>PARS!O34</f>
         <v>0</v>
       </c>
       <c r="K34">
-        <f>PARS!O34</f>
+        <f>PARS!P34</f>
         <v>1</v>
       </c>
       <c r="L34">
-        <f>PARS!P34</f>
+        <f>PARS!Q34</f>
         <v>0</v>
       </c>
       <c r="M34">
-        <f>PARS!Q34</f>
+        <f>PARS!R34</f>
         <v>0</v>
       </c>
       <c r="N34">
-        <f>PARS!R34</f>
-        <v>1</v>
-      </c>
-      <c r="O34">
         <f>PARS!S34</f>
         <v>1</v>
       </c>
+      <c r="O34">
+        <f>PARS!T34</f>
+        <v>1</v>
+      </c>
       <c r="P34">
         <v>0.4314723347972258</v>
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>7.526301798707602E-2</v>
+        <v>0.72455711254536315</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3734,51 +3781,51 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <f>PARS!J35</f>
-        <v>1</v>
-      </c>
-      <c r="G35">
         <f>PARS!K35</f>
         <v>1</v>
       </c>
+      <c r="G35">
+        <f>PARS!L35</f>
+        <v>1</v>
+      </c>
       <c r="H35">
-        <f>PARS!L35</f>
+        <f>PARS!M35</f>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>PARS!M35</f>
+        <f>PARS!N35</f>
         <v>0</v>
       </c>
       <c r="J35">
-        <f>PARS!N35</f>
+        <f>PARS!O35</f>
         <v>0</v>
       </c>
       <c r="K35">
-        <f>PARS!O35</f>
+        <f>PARS!P35</f>
         <v>1</v>
       </c>
       <c r="L35">
-        <f>PARS!P35</f>
+        <f>PARS!Q35</f>
         <v>0</v>
       </c>
       <c r="M35">
-        <f>PARS!Q35</f>
+        <f>PARS!R35</f>
         <v>0</v>
       </c>
       <c r="N35">
-        <f>PARS!R35</f>
-        <v>1</v>
-      </c>
-      <c r="O35">
         <f>PARS!S35</f>
         <v>1</v>
       </c>
+      <c r="O35">
+        <f>PARS!T35</f>
+        <v>1</v>
+      </c>
       <c r="P35">
         <v>0.95444575195163173</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37101923503926348</v>
+        <v>0.10927411579174517</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3802,51 +3849,51 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <f>PARS!J36</f>
-        <v>1</v>
-      </c>
-      <c r="G36">
         <f>PARS!K36</f>
         <v>1</v>
       </c>
+      <c r="G36">
+        <f>PARS!L36</f>
+        <v>1</v>
+      </c>
       <c r="H36">
-        <f>PARS!L36</f>
+        <f>PARS!M36</f>
         <v>0</v>
       </c>
       <c r="I36">
-        <f>PARS!M36</f>
+        <f>PARS!N36</f>
         <v>0</v>
       </c>
       <c r="J36">
-        <f>PARS!N36</f>
+        <f>PARS!O36</f>
         <v>0</v>
       </c>
       <c r="K36">
-        <f>PARS!O36</f>
+        <f>PARS!P36</f>
         <v>1</v>
       </c>
       <c r="L36">
-        <f>PARS!P36</f>
+        <f>PARS!Q36</f>
         <v>0</v>
       </c>
       <c r="M36">
-        <f>PARS!Q36</f>
+        <f>PARS!R36</f>
         <v>0</v>
       </c>
       <c r="N36">
-        <f>PARS!R36</f>
-        <v>1</v>
-      </c>
-      <c r="O36">
         <f>PARS!S36</f>
         <v>1</v>
       </c>
+      <c r="O36">
+        <f>PARS!T36</f>
+        <v>1</v>
+      </c>
       <c r="P36">
         <v>0.15027616064651761</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25961583930148791</v>
+        <v>0.37622993211621336</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3870,51 +3917,51 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <f>PARS!J37</f>
-        <v>1</v>
-      </c>
-      <c r="G37">
         <f>PARS!K37</f>
         <v>1</v>
       </c>
+      <c r="G37">
+        <f>PARS!L37</f>
+        <v>1</v>
+      </c>
       <c r="H37">
-        <f>PARS!L37</f>
+        <f>PARS!M37</f>
         <v>0</v>
       </c>
       <c r="I37">
-        <f>PARS!M37</f>
+        <f>PARS!N37</f>
         <v>0</v>
       </c>
       <c r="J37">
-        <f>PARS!N37</f>
+        <f>PARS!O37</f>
         <v>0</v>
       </c>
       <c r="K37">
-        <f>PARS!O37</f>
+        <f>PARS!P37</f>
         <v>1</v>
       </c>
       <c r="L37">
-        <f>PARS!P37</f>
+        <f>PARS!Q37</f>
         <v>0</v>
       </c>
       <c r="M37">
-        <f>PARS!Q37</f>
+        <f>PARS!R37</f>
         <v>0</v>
       </c>
       <c r="N37">
-        <f>PARS!R37</f>
-        <v>1</v>
-      </c>
-      <c r="O37">
         <f>PARS!S37</f>
         <v>1</v>
       </c>
+      <c r="O37">
+        <f>PARS!T37</f>
+        <v>1</v>
+      </c>
       <c r="P37">
         <v>0.24114897377650391</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4552370651967532E-2</v>
+        <v>3.7598201257009412E-2</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3938,43 +3985,43 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <f>PARS!J38</f>
+        <f>PARS!K38</f>
         <v>0</v>
       </c>
       <c r="G38">
-        <f>PARS!K38</f>
+        <f>PARS!L38</f>
         <v>0</v>
       </c>
       <c r="H38">
-        <f>PARS!L38</f>
+        <f>PARS!M38</f>
         <v>0</v>
       </c>
       <c r="I38">
-        <f>PARS!M38</f>
+        <f>PARS!N38</f>
         <v>1</v>
       </c>
       <c r="J38">
-        <f>PARS!N38</f>
+        <f>PARS!O38</f>
         <v>0</v>
       </c>
       <c r="K38">
-        <f>PARS!O38</f>
+        <f>PARS!P38</f>
         <v>1</v>
       </c>
       <c r="L38">
-        <f>PARS!P38</f>
+        <f>PARS!Q38</f>
         <v>0</v>
       </c>
       <c r="M38">
-        <f>PARS!Q38</f>
+        <f>PARS!R38</f>
         <v>0</v>
       </c>
       <c r="N38">
-        <f>PARS!R38</f>
+        <f>PARS!S38</f>
         <v>0</v>
       </c>
       <c r="O38">
-        <f>PARS!S38</f>
+        <f>PARS!T38</f>
         <v>1</v>
       </c>
       <c r="P38">
@@ -3982,7 +4029,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53937404481595708</v>
+        <v>0.85314881582122581</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4006,43 +4053,43 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <f>PARS!J39</f>
+        <f>PARS!K39</f>
         <v>0</v>
       </c>
       <c r="G39">
-        <f>PARS!K39</f>
+        <f>PARS!L39</f>
         <v>0</v>
       </c>
       <c r="H39">
-        <f>PARS!L39</f>
+        <f>PARS!M39</f>
         <v>1</v>
       </c>
       <c r="I39">
-        <f>PARS!M39</f>
+        <f>PARS!N39</f>
         <v>0</v>
       </c>
       <c r="J39">
-        <f>PARS!N39</f>
+        <f>PARS!O39</f>
         <v>0</v>
       </c>
       <c r="K39">
-        <f>PARS!O39</f>
+        <f>PARS!P39</f>
         <v>1</v>
       </c>
       <c r="L39">
-        <f>PARS!P39</f>
+        <f>PARS!Q39</f>
         <v>0</v>
       </c>
       <c r="M39">
-        <f>PARS!Q39</f>
+        <f>PARS!R39</f>
         <v>0</v>
       </c>
       <c r="N39">
-        <f>PARS!R39</f>
+        <f>PARS!S39</f>
         <v>0</v>
       </c>
       <c r="O39">
-        <f>PARS!S39</f>
+        <f>PARS!T39</f>
         <v>1</v>
       </c>
       <c r="P39">
@@ -4050,7 +4097,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74193465115939961</v>
+        <v>0.26818128866403779</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4074,43 +4121,43 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <f>PARS!J40</f>
+        <f>PARS!K40</f>
         <v>0</v>
       </c>
       <c r="G40">
-        <f>PARS!K40</f>
+        <f>PARS!L40</f>
         <v>0</v>
       </c>
       <c r="H40">
-        <f>PARS!L40</f>
+        <f>PARS!M40</f>
         <v>1</v>
       </c>
       <c r="I40">
-        <f>PARS!M40</f>
+        <f>PARS!N40</f>
         <v>0</v>
       </c>
       <c r="J40">
-        <f>PARS!N40</f>
+        <f>PARS!O40</f>
         <v>0</v>
       </c>
       <c r="K40">
-        <f>PARS!O40</f>
+        <f>PARS!P40</f>
         <v>1</v>
       </c>
       <c r="L40">
-        <f>PARS!P40</f>
+        <f>PARS!Q40</f>
         <v>0</v>
       </c>
       <c r="M40">
-        <f>PARS!Q40</f>
+        <f>PARS!R40</f>
         <v>0</v>
       </c>
       <c r="N40">
-        <f>PARS!R40</f>
+        <f>PARS!S40</f>
         <v>0</v>
       </c>
       <c r="O40">
-        <f>PARS!S40</f>
+        <f>PARS!T40</f>
         <v>1</v>
       </c>
       <c r="P40">
@@ -4118,7 +4165,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.889899905471641</v>
+        <v>0.69301169969388843</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4142,43 +4189,43 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <f>PARS!J41</f>
+        <f>PARS!K41</f>
         <v>0</v>
       </c>
       <c r="G41">
-        <f>PARS!K41</f>
+        <f>PARS!L41</f>
         <v>0</v>
       </c>
       <c r="H41">
-        <f>PARS!L41</f>
+        <f>PARS!M41</f>
         <v>0</v>
       </c>
       <c r="I41">
-        <f>PARS!M41</f>
+        <f>PARS!N41</f>
         <v>1</v>
       </c>
       <c r="J41">
-        <f>PARS!N41</f>
+        <f>PARS!O41</f>
         <v>0</v>
       </c>
       <c r="K41">
-        <f>PARS!O41</f>
+        <f>PARS!P41</f>
         <v>1</v>
       </c>
       <c r="L41">
-        <f>PARS!P41</f>
+        <f>PARS!Q41</f>
         <v>0</v>
       </c>
       <c r="M41">
-        <f>PARS!Q41</f>
+        <f>PARS!R41</f>
         <v>0</v>
       </c>
       <c r="N41">
-        <f>PARS!R41</f>
+        <f>PARS!S41</f>
         <v>0</v>
       </c>
       <c r="O41">
-        <f>PARS!S41</f>
+        <f>PARS!T41</f>
         <v>1</v>
       </c>
       <c r="P41">
@@ -4186,7 +4233,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29369962368942715</v>
+        <v>0.10849969948593685</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4210,43 +4257,43 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <f>PARS!J42</f>
+        <f>PARS!K42</f>
         <v>0</v>
       </c>
       <c r="G42">
-        <f>PARS!K42</f>
+        <f>PARS!L42</f>
         <v>0</v>
       </c>
       <c r="H42">
-        <f>PARS!L42</f>
+        <f>PARS!M42</f>
         <v>0</v>
       </c>
       <c r="I42">
-        <f>PARS!M42</f>
+        <f>PARS!N42</f>
         <v>0</v>
       </c>
       <c r="J42">
-        <f>PARS!N42</f>
-        <v>1</v>
-      </c>
-      <c r="K42">
         <f>PARS!O42</f>
         <v>1</v>
       </c>
+      <c r="K42">
+        <f>PARS!P42</f>
+        <v>1</v>
+      </c>
       <c r="L42">
-        <f>PARS!P42</f>
+        <f>PARS!Q42</f>
         <v>0</v>
       </c>
       <c r="M42">
-        <f>PARS!Q42</f>
+        <f>PARS!R42</f>
         <v>0</v>
       </c>
       <c r="N42">
-        <f>PARS!R42</f>
+        <f>PARS!S42</f>
         <v>0</v>
       </c>
       <c r="O42">
-        <f>PARS!S42</f>
+        <f>PARS!T42</f>
         <v>0</v>
       </c>
       <c r="P42">
@@ -4254,7 +4301,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5242050926083937E-2</v>
+        <v>0.18856549743476403</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4278,43 +4325,43 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <f>PARS!J43</f>
+        <f>PARS!K43</f>
         <v>0</v>
       </c>
       <c r="G43">
-        <f>PARS!K43</f>
+        <f>PARS!L43</f>
         <v>0</v>
       </c>
       <c r="H43">
-        <f>PARS!L43</f>
+        <f>PARS!M43</f>
         <v>0</v>
       </c>
       <c r="I43">
-        <f>PARS!M43</f>
+        <f>PARS!N43</f>
         <v>0</v>
       </c>
       <c r="J43">
-        <f>PARS!N43</f>
-        <v>1</v>
-      </c>
-      <c r="K43">
         <f>PARS!O43</f>
         <v>1</v>
       </c>
+      <c r="K43">
+        <f>PARS!P43</f>
+        <v>1</v>
+      </c>
       <c r="L43">
-        <f>PARS!P43</f>
+        <f>PARS!Q43</f>
         <v>0</v>
       </c>
       <c r="M43">
-        <f>PARS!Q43</f>
+        <f>PARS!R43</f>
         <v>0</v>
       </c>
       <c r="N43">
-        <f>PARS!R43</f>
+        <f>PARS!S43</f>
         <v>0</v>
       </c>
       <c r="O43">
-        <f>PARS!S43</f>
+        <f>PARS!T43</f>
         <v>0</v>
       </c>
       <c r="P43">
@@ -4322,7 +4369,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29494173748039398</v>
+        <v>0.40872297811697578</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4346,43 +4393,43 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <f>PARS!J44</f>
+        <f>PARS!K44</f>
         <v>0</v>
       </c>
       <c r="G44">
-        <f>PARS!K44</f>
+        <f>PARS!L44</f>
         <v>0</v>
       </c>
       <c r="H44">
-        <f>PARS!L44</f>
+        <f>PARS!M44</f>
         <v>0</v>
       </c>
       <c r="I44">
-        <f>PARS!M44</f>
+        <f>PARS!N44</f>
         <v>0</v>
       </c>
       <c r="J44">
-        <f>PARS!N44</f>
-        <v>1</v>
-      </c>
-      <c r="K44">
         <f>PARS!O44</f>
         <v>1</v>
       </c>
+      <c r="K44">
+        <f>PARS!P44</f>
+        <v>1</v>
+      </c>
       <c r="L44">
-        <f>PARS!P44</f>
+        <f>PARS!Q44</f>
         <v>0</v>
       </c>
       <c r="M44">
-        <f>PARS!Q44</f>
+        <f>PARS!R44</f>
         <v>0</v>
       </c>
       <c r="N44">
-        <f>PARS!R44</f>
+        <f>PARS!S44</f>
         <v>0</v>
       </c>
       <c r="O44">
-        <f>PARS!S44</f>
+        <f>PARS!T44</f>
         <v>0</v>
       </c>
       <c r="P44">
@@ -4390,7 +4437,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81997542716375882</v>
+        <v>6.8105741098387296E-2</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4414,43 +4461,43 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <f>PARS!J45</f>
+        <f>PARS!K45</f>
         <v>0</v>
       </c>
       <c r="G45">
-        <f>PARS!K45</f>
+        <f>PARS!L45</f>
         <v>0</v>
       </c>
       <c r="H45">
-        <f>PARS!L45</f>
+        <f>PARS!M45</f>
         <v>0</v>
       </c>
       <c r="I45">
-        <f>PARS!M45</f>
+        <f>PARS!N45</f>
         <v>0</v>
       </c>
       <c r="J45">
-        <f>PARS!N45</f>
-        <v>1</v>
-      </c>
-      <c r="K45">
         <f>PARS!O45</f>
         <v>1</v>
       </c>
+      <c r="K45">
+        <f>PARS!P45</f>
+        <v>1</v>
+      </c>
       <c r="L45">
-        <f>PARS!P45</f>
+        <f>PARS!Q45</f>
         <v>0</v>
       </c>
       <c r="M45">
-        <f>PARS!Q45</f>
+        <f>PARS!R45</f>
         <v>0</v>
       </c>
       <c r="N45">
-        <f>PARS!R45</f>
+        <f>PARS!S45</f>
         <v>0</v>
       </c>
       <c r="O45">
-        <f>PARS!S45</f>
+        <f>PARS!T45</f>
         <v>0</v>
       </c>
       <c r="P45">
@@ -4458,7 +4505,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7646489773358844E-2</v>
+        <v>0.93294306328406307</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4482,43 +4529,43 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <f>PARS!J46</f>
+        <f>PARS!K46</f>
         <v>0</v>
       </c>
       <c r="G46">
-        <f>PARS!K46</f>
+        <f>PARS!L46</f>
         <v>0</v>
       </c>
       <c r="H46">
-        <f>PARS!L46</f>
+        <f>PARS!M46</f>
         <v>0</v>
       </c>
       <c r="I46">
-        <f>PARS!M46</f>
+        <f>PARS!N46</f>
         <v>0</v>
       </c>
       <c r="J46">
-        <f>PARS!N46</f>
-        <v>1</v>
-      </c>
-      <c r="K46">
         <f>PARS!O46</f>
         <v>1</v>
       </c>
+      <c r="K46">
+        <f>PARS!P46</f>
+        <v>1</v>
+      </c>
       <c r="L46">
-        <f>PARS!P46</f>
+        <f>PARS!Q46</f>
         <v>0</v>
       </c>
       <c r="M46">
-        <f>PARS!Q46</f>
+        <f>PARS!R46</f>
         <v>0</v>
       </c>
       <c r="N46">
-        <f>PARS!R46</f>
+        <f>PARS!S46</f>
         <v>0</v>
       </c>
       <c r="O46">
-        <f>PARS!S46</f>
+        <f>PARS!T46</f>
         <v>0</v>
       </c>
       <c r="P46">
@@ -4526,7 +4573,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81270813506686845</v>
+        <v>0.65316023625403452</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4550,43 +4597,43 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <f>PARS!J47</f>
+        <f>PARS!K47</f>
         <v>0</v>
       </c>
       <c r="G47">
-        <f>PARS!K47</f>
+        <f>PARS!L47</f>
         <v>0</v>
       </c>
       <c r="H47">
-        <f>PARS!L47</f>
+        <f>PARS!M47</f>
         <v>0</v>
       </c>
       <c r="I47">
-        <f>PARS!M47</f>
+        <f>PARS!N47</f>
         <v>0</v>
       </c>
       <c r="J47">
-        <f>PARS!N47</f>
-        <v>1</v>
-      </c>
-      <c r="K47">
         <f>PARS!O47</f>
         <v>1</v>
       </c>
+      <c r="K47">
+        <f>PARS!P47</f>
+        <v>1</v>
+      </c>
       <c r="L47">
-        <f>PARS!P47</f>
+        <f>PARS!Q47</f>
         <v>0</v>
       </c>
       <c r="M47">
-        <f>PARS!Q47</f>
+        <f>PARS!R47</f>
         <v>0</v>
       </c>
       <c r="N47">
-        <f>PARS!R47</f>
+        <f>PARS!S47</f>
         <v>0</v>
       </c>
       <c r="O47">
-        <f>PARS!S47</f>
+        <f>PARS!T47</f>
         <v>0</v>
       </c>
       <c r="P47">
@@ -4594,7 +4641,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76388423984595688</v>
+        <v>0.25556184210262611</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4618,43 +4665,43 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <f>PARS!J48</f>
+        <f>PARS!K48</f>
         <v>0</v>
       </c>
       <c r="G48">
-        <f>PARS!K48</f>
+        <f>PARS!L48</f>
         <v>0</v>
       </c>
       <c r="H48">
-        <f>PARS!L48</f>
+        <f>PARS!M48</f>
         <v>0</v>
       </c>
       <c r="I48">
-        <f>PARS!M48</f>
+        <f>PARS!N48</f>
         <v>0</v>
       </c>
       <c r="J48">
-        <f>PARS!N48</f>
-        <v>1</v>
-      </c>
-      <c r="K48">
         <f>PARS!O48</f>
         <v>1</v>
       </c>
+      <c r="K48">
+        <f>PARS!P48</f>
+        <v>1</v>
+      </c>
       <c r="L48">
-        <f>PARS!P48</f>
+        <f>PARS!Q48</f>
         <v>0</v>
       </c>
       <c r="M48">
-        <f>PARS!Q48</f>
+        <f>PARS!R48</f>
         <v>0</v>
       </c>
       <c r="N48">
-        <f>PARS!R48</f>
+        <f>PARS!S48</f>
         <v>0</v>
       </c>
       <c r="O48">
-        <f>PARS!S48</f>
+        <f>PARS!T48</f>
         <v>0</v>
       </c>
       <c r="P48">
@@ -4662,7 +4709,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24814597039256658</v>
+        <v>0.16751199266654182</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4686,43 +4733,43 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <f>PARS!J49</f>
+        <f>PARS!K49</f>
         <v>0</v>
       </c>
       <c r="G49">
-        <f>PARS!K49</f>
+        <f>PARS!L49</f>
         <v>0</v>
       </c>
       <c r="H49">
-        <f>PARS!L49</f>
+        <f>PARS!M49</f>
         <v>0</v>
       </c>
       <c r="I49">
-        <f>PARS!M49</f>
+        <f>PARS!N49</f>
         <v>0</v>
       </c>
       <c r="J49">
-        <f>PARS!N49</f>
-        <v>1</v>
-      </c>
-      <c r="K49">
         <f>PARS!O49</f>
         <v>1</v>
       </c>
+      <c r="K49">
+        <f>PARS!P49</f>
+        <v>1</v>
+      </c>
       <c r="L49">
-        <f>PARS!P49</f>
+        <f>PARS!Q49</f>
         <v>0</v>
       </c>
       <c r="M49">
-        <f>PARS!Q49</f>
+        <f>PARS!R49</f>
         <v>0</v>
       </c>
       <c r="N49">
-        <f>PARS!R49</f>
+        <f>PARS!S49</f>
         <v>0</v>
       </c>
       <c r="O49">
-        <f>PARS!S49</f>
+        <f>PARS!T49</f>
         <v>0</v>
       </c>
       <c r="P49">
@@ -4730,7 +4777,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57464335113589393</v>
+        <v>2.9804649334277289E-2</v>
       </c>
     </row>
   </sheetData>
@@ -33207,10 +33254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33219,7 +33266,7 @@
     <col min="3" max="4" width="6.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
@@ -33248,43 +33295,46 @@
         <v>214</v>
       </c>
       <c r="J1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>184</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>185</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>186</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>180</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>187</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>188</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>179</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>191</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>218</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -33317,27 +33367,31 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="J2">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O49" si="0">SUM(K2:N2)</f>
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R49" si="1">K2-P2</f>
-        <v>0</v>
+      <c r="P2">
+        <f t="shared" ref="P2:P49" si="0">SUM(L2:O2)</f>
+        <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S49" si="2">R2+M2+P2+L2</f>
+        <f t="shared" ref="S2:S49" si="1">L2-Q2</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T49" si="2">S2+N2+Q2+M2</f>
         <v>1</v>
       </c>
-      <c r="T2">
-        <f>S2-M2</f>
+      <c r="U2">
+        <f>T2-N2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -33368,27 +33422,31 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="J3">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T3">
-        <f>S3-M3</f>
+      <c r="U3">
+        <f>T3-N3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -33419,34 +33477,38 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="J4">
+        <f>1/E4</f>
+        <v>1.25</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T4">
-        <f>S4-M4</f>
+      <c r="U4">
+        <f>T4-N4</f>
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f>EXP(B4)</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -33479,41 +33541,45 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="J5">
+        <f>1/E5</f>
+        <v>1.25</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5">
-        <f>S5-M5</f>
+      <c r="U5">
+        <f>T5-N5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>108</v>
       </c>
       <c r="B6">
-        <f>E6</f>
-        <v>1.6156999999999999</v>
+        <f>LOG(E6)</f>
+        <v>0.20836072497837904</v>
       </c>
       <c r="C6">
         <f>B6</f>
-        <v>1.6156999999999999</v>
+        <v>0.20836072497837904</v>
       </c>
       <c r="D6">
         <f>B6</f>
-        <v>1.6156999999999999</v>
+        <v>0.20836072497837904</v>
       </c>
       <c r="E6">
         <v>1.6156999999999999</v>
@@ -33532,26 +33598,30 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="J6">
+        <f>1/E6</f>
+        <v>0.6189267809618122</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T6" s="12">
+      <c r="U6" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -33583,34 +33653,38 @@
       <c r="I7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K7">
+      <c r="J7">
+        <f>1/E7</f>
+        <v>4.2105263157894735</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T7">
-        <f t="shared" ref="T7:T39" si="4">S7-M7</f>
+      <c r="U7">
+        <f t="shared" ref="U7:U39" si="4">T7-N7</f>
         <v>1</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <f>EXP(B7)</f>
         <v>0.23749999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -33642,33 +33716,37 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J8">
+        <f t="shared" ref="J8:J21" si="5">1/E8</f>
         <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="O8">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f>EXP(B8)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -33699,34 +33777,38 @@
       <c r="I9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K9">
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <f>EXP(B9)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -33759,27 +33841,31 @@
       <c r="I10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N10">
+      <c r="J10">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -33812,37 +33898,41 @@
       <c r="I11">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K11">
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>6.4997162548868932</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
       <c r="Q11">
         <v>1</v>
       </c>
       <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f>EXP(B11)</f>
         <v>0.15385287</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -33873,43 +33963,47 @@
       <c r="I12">
         <v>1.2</v>
       </c>
-      <c r="K12">
+      <c r="J12">
+        <f>1/(E12*(1-E12))</f>
+        <v>4.454311654727281</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
       <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f>1/(1+EXP(-B12))</f>
         <v>0.65968225000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>99</v>
       </c>
       <c r="B13">
-        <f>E13</f>
-        <v>0.91482224000000001</v>
+        <f>LN(E13)</f>
+        <v>-8.9025505804146685E-2</v>
       </c>
       <c r="C13">
         <f>F13</f>
@@ -33934,46 +34028,51 @@
       <c r="I13">
         <v>1.2</v>
       </c>
-      <c r="K13">
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>1.0931085365830198</v>
+      </c>
+      <c r="L13">
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
       <c r="Q13">
         <v>1</v>
       </c>
       <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>101</v>
       </c>
       <c r="B14">
-        <v>1.2944</v>
+        <f>LN(E14)</f>
+        <v>0.25804726732209021</v>
       </c>
       <c r="C14">
         <f>B14*0.7</f>
-        <v>0.90607999999999989</v>
+        <v>0.18063308712546314</v>
       </c>
       <c r="D14">
         <f>B14*1.3</f>
-        <v>1.68272</v>
+        <v>0.33546144751871732</v>
       </c>
       <c r="E14">
         <v>1.2944</v>
@@ -33990,33 +34089,37 @@
       <c r="I14">
         <v>1.2</v>
       </c>
-      <c r="K14">
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>0.77255871446229918</v>
+      </c>
+      <c r="L14">
         <v>1</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -34047,37 +34150,41 @@
       <c r="I15">
         <v>1.3</v>
       </c>
-      <c r="K15">
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>10.636912810502123</v>
+      </c>
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <f>EXP(B15)</f>
         <v>9.4012240000000011E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -34108,47 +34215,51 @@
       <c r="I16">
         <v>1.4</v>
       </c>
-      <c r="K16">
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>-4.1322314049586781</v>
+      </c>
+      <c r="L16">
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <f>-EXP(B16)</f>
         <v>-0.24199999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>98</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:D18" si="5">LN(E17)</f>
+        <f t="shared" ref="B17:D18" si="6">LN(E17)</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="C17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.0498221244986778</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.43078291609245423</v>
       </c>
       <c r="E17">
@@ -34167,46 +34278,50 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <f>EXP(B17)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>73</v>
       </c>
       <c r="B18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.791759469228055</v>
       </c>
       <c r="C18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6094379124341003</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.341805806147327</v>
       </c>
       <c r="E18">
@@ -34225,91 +34340,102 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="O18">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <f>EXP(B18)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B19">
         <f>LN(E19/100)</f>
-        <v>2.3025850929940459</v>
+        <v>2.9957322735539909</v>
       </c>
       <c r="C19">
         <f>LN(F19/100)</f>
-        <v>-0.69314718055994529</v>
+        <v>2.9957322735539909</v>
       </c>
       <c r="D19">
         <f>LN(G19/100)</f>
-        <v>2.3025850929940459</v>
+        <v>2.9957322735539909</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="G19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H19">
-        <v>4.0999999999999996</v>
+        <v>999.5</v>
       </c>
       <c r="I19">
         <v>4.0999999999999996</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="O19">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
         <f>EXP(B19)*100</f>
-        <v>1000.0000000000002</v>
+        <v>1999.9999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -34341,33 +34467,37 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <f>1/(E20*(1-E20))</f>
+        <v>4.0004040508101424</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="O20">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <f>1/(1+EXP(-B20))</f>
         <v>0.50502499999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -34399,33 +34529,37 @@
         <v>4</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>6.5789473684210523E-2</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="O21">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <f>EXP(B21)*10</f>
         <v>15.2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -34456,31 +34590,35 @@
       <c r="I22">
         <v>4</v>
       </c>
-      <c r="K22">
+      <c r="J22">
+        <f>1/((2-E22)*(E22-1))</f>
+        <v>11.111111111111104</v>
+      </c>
+      <c r="L22">
         <v>1</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <f>1+1/(1+EXP(-(B22-1)))</f>
         <v>1.9</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -34508,40 +34646,44 @@
       <c r="I23">
         <v>4</v>
       </c>
-      <c r="N23">
+      <c r="J23">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>192</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:D25" si="6">E24</f>
+        <f t="shared" ref="B24:D25" si="7">E24</f>
         <v>-1.7999999999999999E-2</v>
       </c>
       <c r="C24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.15</v>
       </c>
       <c r="D24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
       <c r="E24">
@@ -34560,40 +34702,44 @@
       <c r="I24">
         <v>4</v>
       </c>
-      <c r="K24">
+      <c r="J24">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="O24">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>83</v>
       </c>
       <c r="B25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E25">
@@ -34611,27 +34757,31 @@
       <c r="I25">
         <v>4</v>
       </c>
-      <c r="K25">
+      <c r="J25">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="O25">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -34663,33 +34813,37 @@
         <v>4</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <f t="shared" ref="J26" si="8">1/E26</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
-      <c r="O26">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <f>EXP(B26)</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -34717,27 +34871,31 @@
       <c r="I27">
         <v>4</v>
       </c>
-      <c r="N27">
+      <c r="J27">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -34765,40 +34923,44 @@
       <c r="I28">
         <v>4</v>
       </c>
-      <c r="K28">
+      <c r="J28">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="O28">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>88</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:D30" si="7">LN(E29)</f>
+        <f t="shared" ref="B29:D30" si="9">LN(E29)</f>
         <v>0.91629073187415511</v>
       </c>
       <c r="C29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="E29">
@@ -34817,46 +34979,50 @@
         <v>5.01</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <f t="shared" ref="J29:J30" si="10">1/E29</f>
+        <v>0.4</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="O29">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <f>EXP(B29)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>85</v>
       </c>
       <c r="B30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.91629073187415511</v>
       </c>
       <c r="C30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.58778666490211906</v>
       </c>
       <c r="D30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="E30">
@@ -34875,49 +35041,53 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0.4</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="O30">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <f>EXP(B30)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:D32" si="8">-LN(1/E31 -1)</f>
+        <f t="shared" ref="B31:D32" si="11">-LN(1/E31 -1)</f>
         <v>-0.84729786038720367</v>
       </c>
       <c r="C31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-2.1972245773362196</v>
       </c>
       <c r="D31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E31">
@@ -34935,51 +35105,55 @@
       <c r="I31">
         <v>5.03</v>
       </c>
-      <c r="K31">
+      <c r="J31">
+        <f>1/(E31*(1-E31))</f>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="L31">
         <v>1</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <f>1/(1+EXP(-B31))</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>87</v>
       </c>
       <c r="B32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.61903920840622373</v>
       </c>
       <c r="C32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.87409948991153752</v>
       </c>
       <c r="D32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E32">
         <v>0.65</v>
       </c>
       <c r="F32">
-        <f>'calibration of jseg'!E2</f>
+        <f>'[1]calibration of jseg'!E2</f>
         <v>0.70559799999999995</v>
       </c>
       <c r="G32">
@@ -34992,49 +35166,53 @@
         <v>5.04</v>
       </c>
       <c r="J32">
+        <f>1/(E32*(1-E32))</f>
+        <v>4.395604395604396</v>
+      </c>
+      <c r="K32">
         <v>1</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32">
         <v>1</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <f>1/(1+EXP(-B32))</f>
         <v>0.65</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>89</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:D36" si="9">LN(E33)</f>
+        <f t="shared" ref="B33:D36" si="12">LN(E33)</f>
         <v>-0.3047604139865322</v>
       </c>
       <c r="C33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="E33">
@@ -35053,46 +35231,50 @@
         <v>6</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <f t="shared" ref="J33:J36" si="13">1/E33</f>
+        <v>1.3563000135630001</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="O33">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <f>EXP(B33)</f>
         <v>0.73729999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>90</v>
       </c>
       <c r="B34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.35667494393873245</v>
       </c>
       <c r="C34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.71334988787746489</v>
       </c>
       <c r="D34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-9.4310679471241415E-2</v>
       </c>
       <c r="E34">
@@ -35111,46 +35293,50 @@
         <v>6</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>1.4285714285714286</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="O34">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <f>EXP(B34)</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>91</v>
       </c>
       <c r="B35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.3513752571634776</v>
       </c>
       <c r="C35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.9957322735539909</v>
       </c>
       <c r="E35">
@@ -35169,46 +35355,50 @@
         <v>6</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="O35">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <f>EXP(B35)</f>
         <v>10.5</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>104</v>
       </c>
       <c r="B36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.7047480922384253</v>
       </c>
       <c r="C36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.1010977891993172</v>
       </c>
       <c r="E36">
@@ -35228,33 +35418,37 @@
         <v>6</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0.18181818181818182</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="O36">
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <f>EXP(B36)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>71</v>
       </c>
@@ -35286,33 +35480,37 @@
         <v>87</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <f>1/(E37*(1-E37))</f>
+        <v>4.0202661617212367</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="O37">
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <f>1/(1+EXP(-B37))</f>
         <v>0.53549999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
@@ -35340,38 +35538,42 @@
       <c r="I38">
         <v>88</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
+      <c r="J38">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="K38" s="3"/>
       <c r="L38" s="3">
         <v>0</v>
       </c>
       <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
         <v>1</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3">
+      <c r="O38" s="3"/>
+      <c r="P38" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38">
+      <c r="R38" s="3"/>
+      <c r="S38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -35402,27 +35604,31 @@
       <c r="I39">
         <v>88</v>
       </c>
-      <c r="L39">
+      <c r="J39">
+        <f t="shared" ref="J39:J40" si="14">1/E39</f>
+        <v>0.48902146804244701</v>
+      </c>
+      <c r="M39">
         <v>1</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -35453,26 +35659,30 @@
       <c r="I40">
         <v>88</v>
       </c>
-      <c r="L40">
+      <c r="J40">
+        <f t="shared" si="14"/>
+        <v>43.544524276072288</v>
+      </c>
+      <c r="M40">
         <v>1</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T40" s="13">
+      <c r="U40" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -35503,27 +35713,31 @@
       <c r="I41">
         <v>99</v>
       </c>
-      <c r="M41">
+      <c r="J41">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="O41">
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T41">
-        <f>S41-M41</f>
+      <c r="U41">
+        <f>T41-N41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -35549,47 +35763,51 @@
       </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42"/>
+      <c r="J42">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
-      <c r="N42">
+      <c r="N42"/>
+      <c r="O42">
         <v>1</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42">
+      <c r="R42"/>
+      <c r="S42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T42">
-        <f t="shared" ref="T42:T49" si="10">S42</f>
-        <v>0</v>
-      </c>
-      <c r="U42"/>
+      <c r="U42">
+        <f t="shared" ref="U42:U49" si="15">T42</f>
+        <v>0</v>
+      </c>
+      <c r="V42"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>92</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43:D44" si="11">E43</f>
+        <f t="shared" ref="B43:D44" si="16">E43</f>
         <v>0.1449</v>
       </c>
       <c r="C43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.1449</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.1449</v>
       </c>
       <c r="E43">
@@ -35603,40 +35821,44 @@
         <f>F43</f>
         <v>0.1449</v>
       </c>
-      <c r="N43">
+      <c r="J43">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T43">
-        <f t="shared" si="10"/>
+      <c r="U43">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>93</v>
       </c>
       <c r="B44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.1449</v>
       </c>
       <c r="C44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.1449</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.1449</v>
       </c>
       <c r="E44">
@@ -35650,27 +35872,31 @@
         <f>F44</f>
         <v>0.1449</v>
       </c>
-      <c r="N44">
+      <c r="J44">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T44">
-        <f t="shared" si="10"/>
+      <c r="U44">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -35693,27 +35919,31 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="N45">
+      <c r="J45">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T45">
-        <f t="shared" si="10"/>
+      <c r="U45">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -35737,27 +35967,31 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="N46">
+      <c r="J46">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T46">
-        <f t="shared" si="10"/>
+      <c r="U46">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>181</v>
       </c>
@@ -35784,27 +36018,31 @@
         <f>E47</f>
         <v>1.0589999999999999</v>
       </c>
-      <c r="N47">
+      <c r="J47">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T47">
-        <f t="shared" si="10"/>
+      <c r="U47">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -35831,27 +36069,31 @@
         <f>E48</f>
         <v>1.0035000000000001</v>
       </c>
-      <c r="N48">
+      <c r="J48">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T48">
-        <f t="shared" si="10"/>
+      <c r="U48">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -35878,29 +36120,33 @@
         <f>E49</f>
         <v>0.97409999999999997</v>
       </c>
-      <c r="N49">
+      <c r="J49">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T49">
-        <f t="shared" si="10"/>
+      <c r="U49">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U49" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U49">
+  <autoFilter ref="A1:V49" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V49">
       <sortCondition ref="I1:I49"/>
     </sortState>
   </autoFilter>
@@ -35912,10 +36158,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36447,7 +36694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -36633,7 +36880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -36933,7 +37180,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -36958,7 +37205,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -36976,7 +37223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -36997,7 +37244,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>174</v>
       </c>
@@ -37209,7 +37456,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -37229,7 +37476,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>217</v>
       </c>
@@ -37249,7 +37496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -37264,7 +37511,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -37280,6 +37527,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I59" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I55">
       <sortCondition ref="G1:G58"/>
     </sortState>
@@ -63276,7 +63528,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <f>1-[1]pinc08!$B$14</f>
+        <f>1-[2]pinc08!$B$14</f>
         <v>0.15652701064259733</v>
       </c>
       <c r="C4">

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F09CFCFF-C0CD-47A6-B84C-213A49960458}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44399AAA-F88E-498E-ADE5-FF6E5C5A3BF3}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.24220549857776552</v>
+        <v>0.77709053975023756</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.47919421139496021</v>
+        <v>0.22195610716792347</v>
       </c>
       <c r="R3" t="s">
         <v>193</v>
@@ -1704,14 +1704,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7312403997155219</v>
+        <v>0.42043065298044247</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>7.4105296754909511E-2</v>
+        <v>0.48274879792619307</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13259031036488145</v>
+        <v>0.97276715148628923</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18538006448899258</v>
+        <v>0.80852621380225198</v>
       </c>
       <c r="R6" t="s">
         <v>211</v>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6190964970698967E-2</v>
+        <v>0.30745059013957943</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72634168111178699</v>
+        <v>0.32605739083061669</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74640669648328994</v>
+        <v>0.58407854775822432</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6733369390030135</v>
+        <v>0.49727254064843207</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66948824923785388</v>
+        <v>0.64955871461870973</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14734351498674758</v>
+        <v>0.9929152622233155</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92469837972042923</v>
+        <v>0.67089882854673555</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20460577150353088</v>
+        <v>0.87103178022927075</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3398083683409712E-2</v>
+        <v>0.34155986551858764</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72791546499423676</v>
+        <v>0.41241859084164079</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2638440472044622</v>
+        <v>0.9041856683935463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52459286309279141</v>
+        <v>6.7327220129324017E-2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72013808889651287</v>
+        <v>0.51941462915815872</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="B20">
         <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>0.26423969649504248</v>
+        <v>0.26428970157084952</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41386051744825925</v>
+        <v>0.72406304531708854</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37407856382015592</v>
+        <v>0.58127985357106093</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51217347698557447</v>
+        <v>0.84602046779504703</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17216977576561565</v>
+        <v>0.71116726372515637</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39902132684464664</v>
+        <v>0.98830268105322483</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95271253522213295</v>
+        <v>0.39804318114527182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19856421513548073</v>
+        <v>0.64504140819926881</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15439671928853904</v>
+        <v>0.5448739461922385</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8089399549935528E-2</v>
+        <v>0.40778264264787856</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9876252120146275</v>
+        <v>0.88305566266599389</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67675060514609631</v>
+        <v>0.11679903231391098</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58206864897634836</v>
+        <v>0.44764901629067833</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96136439587029077</v>
+        <v>0.644684626149016</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29379049651852152</v>
+        <v>0.63360381569280733</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72455711254536315</v>
+        <v>0.2037736775981881</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10927411579174517</v>
+        <v>0.17559472925763964</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37622993211621336</v>
+        <v>0.99973922500958701</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7598201257009412E-2</v>
+        <v>0.12890799752082649</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85314881582122581</v>
+        <v>0.45320351397916336</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4038,15 +4038,15 @@
       </c>
       <c r="B39">
         <f>(D39*$R$4+C39*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B39</f>
-        <v>2.0449000000000002</v>
+        <v>1.9468494999999999</v>
       </c>
       <c r="C39">
         <f>PARS!C39</f>
-        <v>2.0449000000000002</v>
+        <v>1.9468494999999999</v>
       </c>
       <c r="D39">
         <f>PARS!D39</f>
-        <v>2.0449000000000002</v>
+        <v>1.9468494999999999</v>
       </c>
       <c r="E39" t="b">
         <f t="shared" si="0"/>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26818128866403779</v>
+        <v>0.88023591587168826</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4106,15 +4106,15 @@
       </c>
       <c r="B40">
         <f>(D40*$R$4+C40*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B40</f>
-        <v>2.2964999999999999E-2</v>
+        <v>1.8495790000000002E-2</v>
       </c>
       <c r="C40">
         <f>PARS!C40</f>
-        <v>2.2964999999999999E-2</v>
+        <v>1.8495790000000002E-2</v>
       </c>
       <c r="D40">
         <f>PARS!D40</f>
-        <v>2.2964999999999999E-2</v>
+        <v>1.8495790000000002E-2</v>
       </c>
       <c r="E40" t="b">
         <f t="shared" si="0"/>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69301169969388843</v>
+        <v>0.35378442265992149</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10849969948593685</v>
+        <v>0.92364735663084463</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18856549743476403</v>
+        <v>0.46455976321853021</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40872297811697578</v>
+        <v>0.84642760412354501</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8105741098387296E-2</v>
+        <v>0.96098381288815449</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93294306328406307</v>
+        <v>0.46013556505553899</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65316023625403452</v>
+        <v>0.11139395764874382</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4582,15 +4582,15 @@
       </c>
       <c r="B47">
         <f>(D47*$R$4+C47*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547525799999999</v>
       </c>
       <c r="C47">
         <f>PARS!C47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547525799999999</v>
       </c>
       <c r="D47">
         <f>PARS!D47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547525799999999</v>
       </c>
       <c r="E47" t="b">
         <f t="shared" si="0"/>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25556184210262611</v>
+        <v>0.20799624619643464</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4650,15 +4650,15 @@
       </c>
       <c r="B48">
         <f>(D48*$R$4+C48*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99486887999999996</v>
       </c>
       <c r="C48">
         <f>PARS!C48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99486887999999996</v>
       </c>
       <c r="D48">
         <f>PARS!D48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99486887999999996</v>
       </c>
       <c r="E48" t="b">
         <f t="shared" si="0"/>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16751199266654182</v>
+        <v>0.94031189967404771</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B49">
         <f>(D49*$R$4+C49*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B49</f>
-        <v>0.97409999999999997</v>
+        <v>0.97058712000000003</v>
       </c>
       <c r="C49">
         <f>PARS!C49</f>
@@ -4726,11 +4726,11 @@
       </c>
       <c r="D49">
         <f>PARS!D49</f>
-        <v>0.97409999999999997</v>
+        <v>0.96239039999999998</v>
       </c>
       <c r="E49" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <f>PARS!K49</f>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9804649334277289E-2</v>
+        <v>0.78983088970622317</v>
       </c>
     </row>
   </sheetData>
@@ -33256,8 +33256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="43" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34441,7 +34441,7 @@
       </c>
       <c r="B20">
         <f>-LN(1/E20 -1)</f>
-        <v>2.0100676757762812E-2</v>
+        <v>2.0200686909376892E-2</v>
       </c>
       <c r="C20">
         <f>-LN(1/F20 -1)</f>
@@ -34452,7 +34452,7 @@
         <v>0.84729786038720356</v>
       </c>
       <c r="E20">
-        <v>0.50502499999999995</v>
+        <v>0.50505</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -34468,7 +34468,7 @@
       </c>
       <c r="J20">
         <f>1/(E20*(1-E20))</f>
-        <v>4.0004040508101424</v>
+        <v>4.0004080816284064</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -34494,7 +34494,7 @@
       </c>
       <c r="V20">
         <f>1/(1+EXP(-B20))</f>
-        <v>0.50502499999999995</v>
+        <v>0.50505</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
@@ -35579,18 +35579,18 @@
       </c>
       <c r="B39">
         <f>E39</f>
-        <v>2.0449000000000002</v>
+        <v>1.9468494999999999</v>
       </c>
       <c r="C39">
         <f>B39</f>
-        <v>2.0449000000000002</v>
+        <v>1.9468494999999999</v>
       </c>
       <c r="D39">
         <f>C39</f>
-        <v>2.0449000000000002</v>
+        <v>1.9468494999999999</v>
       </c>
       <c r="E39">
-        <v>2.0449000000000002</v>
+        <v>1.9468494999999999</v>
       </c>
       <c r="F39">
         <v>1.9809000000000001</v>
@@ -35606,7 +35606,7 @@
       </c>
       <c r="J39">
         <f t="shared" ref="J39:J40" si="14">1/E39</f>
-        <v>0.48902146804244701</v>
+        <v>0.51365038745932856</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -35634,18 +35634,18 @@
       </c>
       <c r="B40">
         <f>E40</f>
-        <v>2.2964999999999999E-2</v>
+        <v>1.8495790000000002E-2</v>
       </c>
       <c r="C40">
         <f>B40</f>
-        <v>2.2964999999999999E-2</v>
+        <v>1.8495790000000002E-2</v>
       </c>
       <c r="D40">
         <f>C40</f>
-        <v>2.2964999999999999E-2</v>
+        <v>1.8495790000000002E-2</v>
       </c>
       <c r="E40">
-        <v>2.2964999999999999E-2</v>
+        <v>1.8495790000000002E-2</v>
       </c>
       <c r="F40">
         <v>1.9084000000000001</v>
@@ -35661,7 +35661,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="14"/>
-        <v>43.544524276072288</v>
+        <v>54.066357803586648</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -35997,26 +35997,26 @@
       </c>
       <c r="B47">
         <f>E47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547525799999999</v>
       </c>
       <c r="C47">
         <f>B47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547525799999999</v>
       </c>
       <c r="D47">
         <f>C47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547525799999999</v>
       </c>
       <c r="E47">
-        <v>1.0589999999999999</v>
+        <v>1.0547525799999999</v>
       </c>
       <c r="F47">
         <f>E47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547525799999999</v>
       </c>
       <c r="G47">
         <f>E47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547525799999999</v>
       </c>
       <c r="J47">
         <f>1</f>
@@ -36048,26 +36048,26 @@
       </c>
       <c r="B48">
         <f>E48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99486887999999996</v>
       </c>
       <c r="C48">
         <f>B48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99486887999999996</v>
       </c>
       <c r="D48">
         <f>C48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99486887999999996</v>
       </c>
       <c r="E48">
-        <v>1.0035000000000001</v>
+        <v>0.99486887999999996</v>
       </c>
       <c r="F48">
         <f>E48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99486887999999996</v>
       </c>
       <c r="G48">
         <f>E48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99486887999999996</v>
       </c>
       <c r="J48">
         <f>1</f>
@@ -36106,8 +36106,7 @@
         <v>0.97409999999999997</v>
       </c>
       <c r="D49">
-        <f>C49</f>
-        <v>0.97409999999999997</v>
+        <v>0.96239039999999998</v>
       </c>
       <c r="E49">
         <v>0.97409999999999997</v>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="364" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44399AAA-F88E-498E-ADE5-FF6E5C5A3BF3}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6170FBC5-9941-404D-889A-533F08B0AA38}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" firstSheet="1" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -29,10 +29,9 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MOMS!$A$1:$I$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MOMS!$A$1:$J$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$V$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">W_psid!$A$1:$CT$98</definedName>
   </definedNames>
@@ -151,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="247">
   <si>
     <t>label</t>
   </si>
@@ -189,9 +188,6 @@
     <t>truly - share ever married would be more appropriate or ever coupled</t>
   </si>
   <si>
-    <t>I am using ever coupled 2000-2010</t>
-  </si>
-  <si>
     <t>dlssh_dD</t>
   </si>
   <si>
@@ -199,9 +195,6 @@
   </si>
   <si>
     <t>p_gradient</t>
-  </si>
-  <si>
-    <t>reg of log R on d to an avg job</t>
   </si>
   <si>
     <t>p_gradient_simple</t>
@@ -890,6 +883,15 @@
   <si>
     <t>deroftransform</t>
   </si>
+  <si>
+    <t>I am using ever coupled 2000-2010, 30-50</t>
+  </si>
+  <si>
+    <t>reg of log R on d to an avg job lR_perbedroom</t>
+  </si>
+  <si>
+    <t>showmain</t>
+  </si>
 </sst>
 </file>
 
@@ -1031,49 +1033,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PARSTEST"/>
-      <sheetName val="PARS"/>
-      <sheetName val="MOMS"/>
-      <sheetName val="W"/>
-      <sheetName val="W_"/>
-      <sheetName val="parskickedout"/>
-      <sheetName val="Moments_other"/>
-      <sheetName val="Moments_psid"/>
-      <sheetName val="OUTSIDE MOMENT"/>
-      <sheetName val="W_psid"/>
-      <sheetName val="W_other"/>
-      <sheetName val="Ns"/>
-      <sheetName val="calibration of jseg"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
-        <row r="2">
-          <cell r="E2">
-            <v>0.70559799999999995</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1439,19 +1398,19 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F1" t="str">
         <f>PARS!K1</f>
@@ -1494,15 +1453,15 @@
         <v>parcount</v>
       </c>
       <c r="P1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <f>(D2*P2+C2*(1-P2))*$R$7 +(1-$R$7)*PARS!B2</f>
@@ -1565,12 +1524,12 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.77709053975023756</v>
+        <v>0.77719215315966017</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <f>(D3*$R$4+C3*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B3</f>
@@ -1633,15 +1592,15 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.22195610716792347</v>
+        <v>0.66677701924123367</v>
       </c>
       <c r="R3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <f>(D4*$R$4+C4*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B4</f>
@@ -1704,19 +1663,19 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42043065298044247</v>
+        <v>0.66496012380003688</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.48274879792619307</v>
+        <v>6.8825725646396441E-3</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <f>(D5*$R$4+C5*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B5</f>
@@ -1779,12 +1738,12 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97276715148628923</v>
+        <v>6.9392533698621084E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <f>(D6*$R$4+C6*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B6</f>
@@ -1847,15 +1806,15 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80852621380225198</v>
+        <v>0.48261817112620897</v>
       </c>
       <c r="R6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <f>(D7*$R$4+C7*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B7</f>
@@ -1918,7 +1877,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30745059013957943</v>
+        <v>0.96464630989075439</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1926,7 +1885,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8">
         <f>(D8*$R$4+C8*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B8</f>
@@ -1989,12 +1948,12 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32605739083061669</v>
+        <v>0.86810075424015387</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <f>(D9*$R$4+C9*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B9</f>
@@ -2057,12 +2016,12 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58407854775822432</v>
+        <v>0.81044622740309424</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <f>(D10*$R$4+C10*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B10</f>
@@ -2125,12 +2084,12 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49727254064843207</v>
+        <v>0.65200124218919919</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <f>(D11*$R$4+C11*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B11</f>
@@ -2193,12 +2152,12 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64955871461870973</v>
+        <v>0.78431730053161886</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12">
         <f>(D12*$R$4+C12*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B12</f>
@@ -2261,12 +2220,12 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9929152622233155</v>
+        <v>0.39369739695580808</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B13">
         <f>(D13*$R$4+C13*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B13</f>
@@ -2329,12 +2288,12 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67089882854673555</v>
+        <v>0.94462608844567952</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14">
         <f>(D14*$R$4+C14*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B14</f>
@@ -2397,12 +2356,12 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87103178022927075</v>
+        <v>0.67190250876710655</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <f>(D15*$R$4+C15*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B15</f>
@@ -2465,12 +2424,12 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34155986551858764</v>
+        <v>0.91470421255609591</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <f>(D16*$R$4+C16*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B16</f>
@@ -2533,12 +2492,12 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41241859084164079</v>
+        <v>6.1669100340583372E-2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <f>(D17*$R$4+C17*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B17</f>
@@ -2601,12 +2560,12 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9041856683935463</v>
+        <v>0.85515506948320685</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <f>(D18*$R$4+C18*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B18</f>
@@ -2669,16 +2628,16 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7327220129324017E-2</v>
+        <v>0.44628219805589175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <f>(D19*$R$4+C19*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B19</f>
-        <v>2.9957322735539909</v>
+        <v>1001.497866136777</v>
       </c>
       <c r="C19">
         <f>PARS!C19</f>
@@ -2690,7 +2649,7 @@
       </c>
       <c r="E19" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <f>PARS!K19</f>
@@ -2737,16 +2696,16 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51941462915815872</v>
+        <v>0.86454841433976437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>0.26428970157084952</v>
+        <v>0.26423969649504248</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2805,12 +2764,12 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72406304531708854</v>
+        <v>9.2463991601626772E-2</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <f>(D21*$R$4+C21*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B21</f>
@@ -2873,12 +2832,12 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58127985357106093</v>
+        <v>0.50760927203096529</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22">
         <f>(D22*$R$4+C22*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B22</f>
@@ -2941,12 +2900,12 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84602046779504703</v>
+        <v>0.71353982527964488</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <f>(D23*$R$4+C23*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B23</f>
@@ -3009,12 +2968,12 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71116726372515637</v>
+        <v>0.83343822482847996</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B24">
         <f>(D24*$R$4+C24*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B24</f>
@@ -3077,12 +3036,12 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98830268105322483</v>
+        <v>0.9652701119342687</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25">
         <f>(D25*$R$4+C25*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B25</f>
@@ -3145,12 +3104,12 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39804318114527182</v>
+        <v>0.29108385902391798</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26">
         <f>(D26*$R$4+C26*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B26</f>
@@ -3213,12 +3172,12 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64504140819926881</v>
+        <v>0.60064768207931774</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27">
         <f>(D27*$R$4+C27*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B27</f>
@@ -3281,12 +3240,12 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5448739461922385</v>
+        <v>0.62512731169303493</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28">
         <f>(D28*$R$4+C28*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B28</f>
@@ -3349,12 +3308,12 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40778264264787856</v>
+        <v>0.87904202830297595</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29">
         <f>(D29*$R$4+C29*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B29</f>
@@ -3417,12 +3376,12 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88305566266599389</v>
+        <v>0.10955971060342029</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30">
         <f>(D30*$R$4+C30*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B30</f>
@@ -3485,12 +3444,12 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11679903231391098</v>
+        <v>0.87653648282552221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31">
         <f>(D31*$R$4+C31*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B31</f>
@@ -3553,24 +3512,24 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44764901629067833</v>
+        <v>0.41259293735677804</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <f>(D32*$R$4+C32*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B32</f>
-        <v>2.5563659357799589</v>
+        <v>0.70559799999999995</v>
       </c>
       <c r="C32">
         <f>PARS!C32</f>
-        <v>0.87409948991153752</v>
+        <v>0.70559799999999995</v>
       </c>
       <c r="D32">
         <f>PARS!D32</f>
-        <v>6.9067547786484651</v>
+        <v>0.70559799999999995</v>
       </c>
       <c r="E32" t="b">
         <f t="shared" si="0"/>
@@ -3621,12 +3580,12 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.644684626149016</v>
+        <v>0.97955534203756878</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33">
         <f>(D33*$R$4+C33*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B33</f>
@@ -3689,12 +3648,12 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63360381569280733</v>
+        <v>0.34160813635201859</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34">
         <f>(D34*$R$4+C34*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B34</f>
@@ -3757,12 +3716,12 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2037736775981881</v>
+        <v>3.4939428383895521E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35">
         <f>(D35*$R$4+C35*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B35</f>
@@ -3825,12 +3784,12 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17559472925763964</v>
+        <v>1.6623993167184992E-2</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B36">
         <f>(D36*$R$4+C36*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B36</f>
@@ -3893,12 +3852,12 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99973922500958701</v>
+        <v>0.39283494020002574</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37">
         <f>(D37*$R$4+C37*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B37</f>
@@ -3961,12 +3920,12 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12890799752082649</v>
+        <v>0.50626307783934876</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B38">
         <f>(D38*$R$4+C38*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B38</f>
@@ -4029,24 +3988,24 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45320351397916336</v>
+        <v>0.70146878158629</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39">
         <f>(D39*$R$4+C39*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B39</f>
-        <v>1.9468494999999999</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="C39">
         <f>PARS!C39</f>
-        <v>1.9468494999999999</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="D39">
         <f>PARS!D39</f>
-        <v>1.9468494999999999</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="E39" t="b">
         <f t="shared" si="0"/>
@@ -4097,24 +4056,24 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88023591587168826</v>
+        <v>0.72114080397748914</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B40">
         <f>(D40*$R$4+C40*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B40</f>
-        <v>1.8495790000000002E-2</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="C40">
         <f>PARS!C40</f>
-        <v>1.8495790000000002E-2</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="D40">
         <f>PARS!D40</f>
-        <v>1.8495790000000002E-2</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="E40" t="b">
         <f t="shared" si="0"/>
@@ -4165,12 +4124,12 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35378442265992149</v>
+        <v>0.48441822138564494</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41">
         <f>(D41*$R$4+C41*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B41</f>
@@ -4233,12 +4192,12 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92364735663084463</v>
+        <v>0.47817090652154048</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B42">
         <f>(D42*$R$4+C42*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B42</f>
@@ -4301,12 +4260,12 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46455976321853021</v>
+        <v>0.50661024763192064</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <f>(D43*$R$4+C43*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B43</f>
@@ -4369,12 +4328,12 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84642760412354501</v>
+        <v>0.58994467421501884</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B44">
         <f>(D44*$R$4+C44*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B44</f>
@@ -4437,12 +4396,12 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96098381288815449</v>
+        <v>0.3773221354878169</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B45">
         <f>(D45*$R$4+C45*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B45</f>
@@ -4505,12 +4464,12 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46013556505553899</v>
+        <v>0.94021519102064344</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46">
         <f>(D46*$R$4+C46*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B46</f>
@@ -4573,24 +4532,24 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11139395764874382</v>
+        <v>0.31588478087856953</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B47">
         <f>(D47*$R$4+C47*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B47</f>
-        <v>1.0547525799999999</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="C47">
         <f>PARS!C47</f>
-        <v>1.0547525799999999</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="D47">
         <f>PARS!D47</f>
-        <v>1.0547525799999999</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="E47" t="b">
         <f t="shared" si="0"/>
@@ -4641,24 +4600,24 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20799624619643464</v>
+        <v>0.76394398701473842</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B48">
         <f>(D48*$R$4+C48*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B48</f>
-        <v>0.99486887999999996</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="C48">
         <f>PARS!C48</f>
-        <v>0.99486887999999996</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="D48">
         <f>PARS!D48</f>
-        <v>0.99486887999999996</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="E48" t="b">
         <f t="shared" si="0"/>
@@ -4709,16 +4668,16 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94031189967404771</v>
+        <v>0.51071957438468951</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B49">
         <f>(D49*$R$4+C49*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B49</f>
-        <v>0.97058712000000003</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="C49">
         <f>PARS!C49</f>
@@ -4726,11 +4685,11 @@
       </c>
       <c r="D49">
         <f>PARS!D49</f>
-        <v>0.96239039999999998</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="E49" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <f>PARS!K49</f>
@@ -4777,7 +4736,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78983088970622317</v>
+        <v>0.31081806059639194</v>
       </c>
     </row>
   </sheetData>
@@ -4804,318 +4763,318 @@
   <sheetData>
     <row r="1" spans="1:104" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="BU1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>206</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U1" t="s">
-        <v>139</v>
-      </c>
-      <c r="V1" t="s">
-        <v>140</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="CK1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>43</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>44</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CY1" t="s">
         <v>141</v>
       </c>
-      <c r="X1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP1" t="s">
+      <c r="CZ1" t="s">
         <v>166</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>207</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>204</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>209</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>37</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>38</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>32</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>33</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CP1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>118</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>119</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>46</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>206</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>143</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>32177.547899297781</v>
@@ -5405,7 +5364,7 @@
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>-13595.198018983527</v>
@@ -5695,7 +5654,7 @@
     </row>
     <row r="4" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>-39041.846330738983</v>
@@ -5985,7 +5944,7 @@
     </row>
     <row r="5" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>-9934.4452905853723</v>
@@ -6275,7 +6234,7 @@
     </row>
     <row r="6" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>19128.402701287476</v>
@@ -6565,7 +6524,7 @@
     </row>
     <row r="7" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>-6194.6016029601278</v>
@@ -6855,7 +6814,7 @@
     </row>
     <row r="8" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>-6415.0468218097667</v>
@@ -7145,7 +7104,7 @@
     </row>
     <row r="9" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>-19355.572363533869</v>
@@ -7435,7 +7394,7 @@
     </row>
     <row r="10" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10">
         <v>-28205.702508319431</v>
@@ -7725,7 +7684,7 @@
     </row>
     <row r="11" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11">
         <v>-7287.5612039358166</v>
@@ -8015,7 +7974,7 @@
     </row>
     <row r="12" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12">
         <v>22413.929698579934</v>
@@ -8305,7 +8264,7 @@
     </row>
     <row r="13" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B13">
         <v>-20232.872806903306</v>
@@ -8595,7 +8554,7 @@
     </row>
     <row r="14" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14">
         <v>-23699.154878702288</v>
@@ -8885,7 +8844,7 @@
     </row>
     <row r="15" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15">
         <v>-16010.989342014936</v>
@@ -9175,7 +9134,7 @@
     </row>
     <row r="16" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16">
         <v>13213.893430255555</v>
@@ -9465,55 +9424,55 @@
     </row>
     <row r="17" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AM17"/>
     </row>
     <row r="18" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AM18"/>
     </row>
     <row r="19" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AM19"/>
     </row>
     <row r="20" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AM20"/>
     </row>
     <row r="21" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM21"/>
     </row>
     <row r="22" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AM22"/>
     </row>
     <row r="23" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AM23"/>
     </row>
     <row r="24" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AM24"/>
     </row>
     <row r="25" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>37867.783959001543</v>
@@ -9803,7 +9762,7 @@
     </row>
     <row r="26" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>1685.7794881740708</v>
@@ -10093,7 +10052,7 @@
     </row>
     <row r="27" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>-4759.1206569805399</v>
@@ -10383,7 +10342,7 @@
     </row>
     <row r="28" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B28">
         <v>-2110.276100539289</v>
@@ -10673,7 +10632,7 @@
     </row>
     <row r="29" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B29">
         <v>-3477.017690340816</v>
@@ -10963,7 +10922,7 @@
     </row>
     <row r="30" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>38092.104331671922</v>
@@ -11253,7 +11212,7 @@
     </row>
     <row r="31" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B31">
         <v>-6839.4204337618294</v>
@@ -11543,7 +11502,7 @@
     </row>
     <row r="32" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B32">
         <v>-4274.4876003613854</v>
@@ -11833,7 +11792,7 @@
     </row>
     <row r="33" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B33">
         <v>188.68047540237757</v>
@@ -12123,7 +12082,7 @@
     </row>
     <row r="34" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>37.124574224094253</v>
@@ -12413,7 +12372,7 @@
     </row>
     <row r="35" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>15.254139633852279</v>
@@ -12703,7 +12662,7 @@
     </row>
     <row r="36" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B36">
         <v>-134.15624904914691</v>
@@ -12993,7 +12952,7 @@
     </row>
     <row r="37" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B37">
         <v>20.844386388140357</v>
@@ -13283,7 +13242,7 @@
     </row>
     <row r="38" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B38">
         <v>-72.249054613107006</v>
@@ -13573,7 +13532,7 @@
     </row>
     <row r="39" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>210417.88611181726</v>
@@ -13863,7 +13822,7 @@
     </row>
     <row r="40" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>-165527.9369424019</v>
@@ -14153,7 +14112,7 @@
     </row>
     <row r="41" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B41">
         <v>494297.8600160288</v>
@@ -14443,7 +14402,7 @@
     </row>
     <row r="42" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B42">
         <v>-178215.39702633707</v>
@@ -14733,7 +14692,7 @@
     </row>
     <row r="43" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B43">
         <v>-194207.21754077321</v>
@@ -15023,7 +14982,7 @@
     </row>
     <row r="44" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>225394.6032769318</v>
@@ -15313,7 +15272,7 @@
     </row>
     <row r="45" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>168515.16953430205</v>
@@ -15603,7 +15562,7 @@
     </row>
     <row r="46" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>-428385.74397121364</v>
@@ -15893,7 +15852,7 @@
     </row>
     <row r="47" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>203576.50754912972</v>
@@ -16183,7 +16142,7 @@
     </row>
     <row r="48" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B48">
         <v>-288303.68390491349</v>
@@ -16473,7 +16432,7 @@
     </row>
     <row r="49" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B49">
         <v>-305112.4031449543</v>
@@ -16763,7 +16722,7 @@
     </row>
     <row r="50" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>-247683.29237448209</v>
@@ -17053,7 +17012,7 @@
     </row>
     <row r="51" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>-279622.67939000449</v>
@@ -17343,7 +17302,7 @@
     </row>
     <row r="52" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>516429.64104552916</v>
@@ -17633,7 +17592,7 @@
     </row>
     <row r="53" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>30601.974467019729</v>
@@ -17923,7 +17882,7 @@
     </row>
     <row r="54" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>-106517.10764192767</v>
@@ -18213,7 +18172,7 @@
     </row>
     <row r="55" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>147188.67057396658</v>
@@ -18503,7 +18462,7 @@
     </row>
     <row r="56" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>28602.033471528535</v>
@@ -18793,7 +18752,7 @@
     </row>
     <row r="57" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>26763.777884175219</v>
@@ -19083,7 +19042,7 @@
     </row>
     <row r="58" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B58">
         <v>28554.745082749931</v>
@@ -19373,7 +19332,7 @@
     </row>
     <row r="59" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>29143.375123052898</v>
@@ -19663,7 +19622,7 @@
     </row>
     <row r="60" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>15327.896666468823</v>
@@ -19953,7 +19912,7 @@
     </row>
     <row r="61" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>1216.3564211864143</v>
@@ -20243,7 +20202,7 @@
     </row>
     <row r="62" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B62">
         <v>283125.79632782406</v>
@@ -20533,7 +20492,7 @@
     </row>
     <row r="63" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B63">
         <v>243156.24121669753</v>
@@ -20823,7 +20782,7 @@
     </row>
     <row r="64" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B64">
         <v>225817.32773450675</v>
@@ -21113,7 +21072,7 @@
     </row>
     <row r="65" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B65">
         <v>199633.48490168058</v>
@@ -21403,7 +21362,7 @@
     </row>
     <row r="66" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66">
         <v>605522.20877205487</v>
@@ -21693,7 +21652,7 @@
     </row>
     <row r="67" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B67">
         <v>759530.858322329</v>
@@ -21983,7 +21942,7 @@
     </row>
     <row r="68" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B68">
         <v>597589.58871888288</v>
@@ -22273,7 +22232,7 @@
     </row>
     <row r="69" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B69">
         <v>751753.19058467878</v>
@@ -22563,7 +22522,7 @@
     </row>
     <row r="70" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B70">
         <v>3580.1847759112006</v>
@@ -22853,7 +22812,7 @@
     </row>
     <row r="71" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B71">
         <v>5138.0181445022181</v>
@@ -23143,7 +23102,7 @@
     </row>
     <row r="72" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B72">
         <v>-29194.081717112844</v>
@@ -23433,7 +23392,7 @@
     </row>
     <row r="73" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B73">
         <v>26038.586277595641</v>
@@ -23723,7 +23682,7 @@
     </row>
     <row r="74" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B74">
         <v>10828.061036003222</v>
@@ -24013,7 +23972,7 @@
     </row>
     <row r="75" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B75">
         <v>146.97862535167491</v>
@@ -24303,7 +24262,7 @@
     </row>
     <row r="76" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B76">
         <v>105.67891804528911</v>
@@ -24593,7 +24552,7 @@
     </row>
     <row r="77" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B77">
         <v>-51.709579425164762</v>
@@ -24883,7 +24842,7 @@
     </row>
     <row r="78" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B78">
         <v>-122.60060512060674</v>
@@ -25173,7 +25132,7 @@
     </row>
     <row r="79" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B79">
         <v>68.866462421432885</v>
@@ -25463,7 +25422,7 @@
     </row>
     <row r="80" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B80">
         <v>12.286768838352502</v>
@@ -25753,7 +25712,7 @@
     </row>
     <row r="81" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B81">
         <v>-179.45701247630134</v>
@@ -26043,7 +26002,7 @@
     </row>
     <row r="82" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B82">
         <v>-230.78311016074707</v>
@@ -26333,7 +26292,7 @@
     </row>
     <row r="83" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B83">
         <v>-432.94996075767421</v>
@@ -26623,7 +26582,7 @@
     </row>
     <row r="84" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B84">
         <v>-431.70582342103535</v>
@@ -26913,7 +26872,7 @@
     </row>
     <row r="85" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B85">
         <v>-192.11547473000599</v>
@@ -27203,7 +27162,7 @@
     </row>
     <row r="86" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B86">
         <v>-1438233.696682089</v>
@@ -27493,7 +27452,7 @@
     </row>
     <row r="87" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B87">
         <v>2666287.3607861539</v>
@@ -27783,7 +27742,7 @@
     </row>
     <row r="88" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B88">
         <v>-10528.282929502953</v>
@@ -28073,7 +28032,7 @@
     </row>
     <row r="89" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B89">
         <v>20010.002902024265</v>
@@ -28363,7 +28322,7 @@
     </row>
     <row r="90" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B90">
         <v>-94.734598417529526</v>
@@ -28653,7 +28612,7 @@
     </row>
     <row r="91" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B91">
         <v>191.66897308985426</v>
@@ -28943,7 +28902,7 @@
     </row>
     <row r="92" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B92">
         <v>-139.21887608289578</v>
@@ -29233,7 +29192,7 @@
     </row>
     <row r="93" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B93">
         <v>271.20525524346425</v>
@@ -29523,7 +29482,7 @@
     </row>
     <row r="94" spans="1:106" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B94" s="12">
         <v>-1445090.8998950983</v>
@@ -29811,12 +29770,12 @@
         <v>-13834065449.161972</v>
       </c>
       <c r="DB94" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B95">
         <v>2752695.5112231667</v>
@@ -30106,7 +30065,7 @@
     </row>
     <row r="96" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B96">
         <v>355144.0398068598</v>
@@ -30396,7 +30355,7 @@
     </row>
     <row r="97" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B97">
         <v>-670730.15574687847</v>
@@ -30686,7 +30645,7 @@
     </row>
     <row r="98" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B98">
         <v>-71177.304601044205</v>
@@ -30976,7 +30935,7 @@
     </row>
     <row r="99" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B99">
         <v>134518.31556796227</v>
@@ -31266,7 +31225,7 @@
     </row>
     <row r="100" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B100">
         <v>51.585557043170411</v>
@@ -31556,7 +31515,7 @@
     </row>
     <row r="101" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B101">
         <v>-68.50363232424391</v>
@@ -31846,7 +31805,7 @@
     </row>
     <row r="102" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B102">
         <v>-320.79049786008244</v>
@@ -32136,7 +32095,7 @@
     </row>
     <row r="103" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B103">
         <v>118452551.50760429</v>
@@ -32426,7 +32385,7 @@
     </row>
     <row r="104" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B104">
         <v>110965686.00144497</v>
@@ -32733,19 +32692,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -32754,15 +32713,15 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>20.414431690000001</v>
@@ -32794,7 +32753,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>27.275879280000002</v>
@@ -32826,7 +32785,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1.4203518509999999</v>
@@ -32858,7 +32817,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>-0.55102819700000005</v>
@@ -32890,7 +32849,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -32987,7 +32946,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -33019,7 +32978,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -33066,7 +33025,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1">
         <v>256413</v>
@@ -33074,7 +33033,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2">
         <v>51995</v>
@@ -33082,7 +33041,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3">
         <v>664</v>
@@ -33090,7 +33049,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4">
         <v>672</v>
@@ -33106,7 +33065,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33116,27 +33075,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
         <v>234</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>235</v>
-      </c>
-      <c r="D1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B2">
         <f>(1-E2)*G2</f>
@@ -33165,7 +33124,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B3">
         <f>E2*F2</f>
@@ -33192,7 +33151,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B5">
         <f>B3/B4</f>
@@ -33205,7 +33164,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B8">
         <f>(D3*B5+(1-D3)*C5)*F2</f>
@@ -33218,7 +33177,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B9">
         <f>G2*((1-B5)*D2+(1-C5)*(1-D2))</f>
@@ -33231,7 +33190,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B11">
         <f>(B8+B9)/(F2+G2)</f>
@@ -33240,7 +33199,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B13">
         <f>MOMS!C59</f>
@@ -33256,8 +33215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="43" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33268,75 +33227,75 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>69</v>
-      </c>
       <c r="M1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" t="s">
         <v>184</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q1" t="s">
         <v>185</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>186</v>
       </c>
-      <c r="P1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>187</v>
-      </c>
-      <c r="R1" t="s">
-        <v>188</v>
-      </c>
       <c r="S1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="T1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3">
         <f>E2</f>
@@ -33393,7 +33352,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <f>E3</f>
@@ -33448,7 +33407,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7">
         <f>LN(E4)</f>
@@ -33510,7 +33469,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="7">
         <f>LN(E5)</f>
@@ -33567,7 +33526,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <f>LOG(E6)</f>
@@ -33623,7 +33582,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D9" si="3">LN(E7)</f>
@@ -33686,7 +33645,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8">
         <f t="shared" si="3"/>
@@ -33748,7 +33707,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <f t="shared" si="3"/>
@@ -33810,7 +33769,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <f>LN(E10)</f>
@@ -33867,7 +33826,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <f>LN(E11)</f>
@@ -33934,7 +33893,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12">
         <f>-LN(1/E12 -1)</f>
@@ -33999,7 +33958,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B13">
         <f>LN(E13)</f>
@@ -34060,7 +34019,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14">
         <f>LN(E14)</f>
@@ -34121,7 +34080,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <f>LN(E15)</f>
@@ -34186,7 +34145,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <f>LN(-E16)</f>
@@ -34248,7 +34207,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <f t="shared" ref="B17:D18" si="6">LN(E17)</f>
@@ -34310,7 +34269,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <f t="shared" si="6"/>
@@ -34372,11 +34331,11 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19">
-        <f>LN(E19/100)</f>
-        <v>2.9957322735539909</v>
+        <f>E19</f>
+        <v>2000</v>
       </c>
       <c r="C19">
         <f>LN(F19/100)</f>
@@ -34402,8 +34361,8 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J19">
-        <f t="shared" si="5"/>
-        <v>5.0000000000000001E-4</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -34430,18 +34389,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V19">
-        <f>EXP(B19)*100</f>
-        <v>1999.9999999999995</v>
-      </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <f>-LN(1/E20 -1)</f>
-        <v>2.0200686909376892E-2</v>
+        <v>2.0100676757762812E-2</v>
       </c>
       <c r="C20">
         <f>-LN(1/F20 -1)</f>
@@ -34452,7 +34407,7 @@
         <v>0.84729786038720356</v>
       </c>
       <c r="E20">
-        <v>0.50505</v>
+        <v>0.50502499999999995</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -34468,7 +34423,7 @@
       </c>
       <c r="J20">
         <f>1/(E20*(1-E20))</f>
-        <v>4.0004080816284064</v>
+        <v>4.0004040508101424</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -34494,12 +34449,12 @@
       </c>
       <c r="V20">
         <f>1/(1+EXP(-B20))</f>
-        <v>0.50505</v>
+        <v>0.50502499999999995</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <f>LN(E21/10)</f>
@@ -34561,7 +34516,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22">
         <f>1-LN(1/(E22-1) -1)</f>
@@ -34620,7 +34575,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -34672,7 +34627,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24:D25" si="7">E24</f>
@@ -34728,7 +34683,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25">
         <f t="shared" si="7"/>
@@ -34783,7 +34738,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26">
         <f>LN(E26)</f>
@@ -34845,7 +34800,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -34897,7 +34852,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28">
         <v>4.2000000000000003E-2</v>
@@ -34949,7 +34904,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29:D30" si="9">LN(E29)</f>
@@ -35011,7 +34966,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30">
         <f t="shared" si="9"/>
@@ -35076,7 +35031,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31">
         <f t="shared" ref="B31:D32" si="11">-LN(1/E31 -1)</f>
@@ -35135,29 +35090,30 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B32">
-        <f t="shared" si="11"/>
-        <v>0.61903920840622373</v>
+        <f>E32</f>
+        <v>0.70559799999999995</v>
       </c>
       <c r="C32">
-        <f t="shared" si="11"/>
-        <v>0.87409948991153752</v>
+        <f>F32</f>
+        <v>0.70559799999999995</v>
       </c>
       <c r="D32">
-        <f t="shared" si="11"/>
-        <v>6.9067547786484651</v>
+        <f>G32</f>
+        <v>0.70559799999999995</v>
       </c>
       <c r="E32">
-        <v>0.65</v>
+        <v>0.70559799999999995</v>
       </c>
       <c r="F32">
-        <f>'[1]calibration of jseg'!E2</f>
+        <f>E32</f>
         <v>0.70559799999999995</v>
       </c>
       <c r="G32">
-        <v>0.999</v>
+        <f>F32</f>
+        <v>0.70559799999999995</v>
       </c>
       <c r="H32">
         <v>999.5</v>
@@ -35167,7 +35123,7 @@
       </c>
       <c r="J32">
         <f>1/(E32*(1-E32))</f>
-        <v>4.395604395604396</v>
+        <v>4.8139536321221215</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -35196,12 +35152,12 @@
       </c>
       <c r="V32">
         <f>1/(1+EXP(-B32))</f>
-        <v>0.65</v>
+        <v>0.66942775013665978</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:D36" si="12">LN(E33)</f>
@@ -35263,7 +35219,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34">
         <f t="shared" si="12"/>
@@ -35325,7 +35281,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35">
         <f t="shared" si="12"/>
@@ -35387,7 +35343,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B36">
         <f t="shared" si="12"/>
@@ -35450,7 +35406,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37">
         <f>-LN(1/E37 -1)</f>
@@ -35512,7 +35468,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
@@ -35575,22 +35531,22 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39">
         <f>E39</f>
-        <v>1.9468494999999999</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="C39">
         <f>B39</f>
-        <v>1.9468494999999999</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="D39">
         <f>C39</f>
-        <v>1.9468494999999999</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="E39">
-        <v>1.9468494999999999</v>
+        <v>2.0449000000000002</v>
       </c>
       <c r="F39">
         <v>1.9809000000000001</v>
@@ -35606,7 +35562,7 @@
       </c>
       <c r="J39">
         <f t="shared" ref="J39:J40" si="14">1/E39</f>
-        <v>0.51365038745932856</v>
+        <v>0.48902146804244701</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -35630,22 +35586,22 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B40">
         <f>E40</f>
-        <v>1.8495790000000002E-2</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="C40">
         <f>B40</f>
-        <v>1.8495790000000002E-2</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="D40">
         <f>C40</f>
-        <v>1.8495790000000002E-2</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="E40">
-        <v>1.8495790000000002E-2</v>
+        <v>2.2964999999999999E-2</v>
       </c>
       <c r="F40">
         <v>1.9084000000000001</v>
@@ -35661,7 +35617,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="14"/>
-        <v>54.066357803586648</v>
+        <v>43.544524276072288</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -35684,7 +35640,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41">
         <f>9*5*52/(24*365)</f>
@@ -35739,7 +35695,7 @@
     </row>
     <row r="42" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -35796,7 +35752,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <f t="shared" ref="B43:D44" si="16">E43</f>
@@ -35847,7 +35803,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B44">
         <f t="shared" si="16"/>
@@ -35898,7 +35854,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -35945,7 +35901,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -35993,30 +35949,30 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B47">
         <f>E47</f>
-        <v>1.0547525799999999</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="C47">
         <f>B47</f>
-        <v>1.0547525799999999</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="D47">
         <f>C47</f>
-        <v>1.0547525799999999</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="E47">
-        <v>1.0547525799999999</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="F47">
         <f>E47</f>
-        <v>1.0547525799999999</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="G47">
         <f>E47</f>
-        <v>1.0547525799999999</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="J47">
         <f>1</f>
@@ -36044,30 +36000,30 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B48">
         <f>E48</f>
-        <v>0.99486887999999996</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="C48">
         <f>B48</f>
-        <v>0.99486887999999996</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="D48">
         <f>C48</f>
-        <v>0.99486887999999996</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="E48">
-        <v>0.99486887999999996</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="F48">
         <f>E48</f>
-        <v>0.99486887999999996</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="G48">
         <f>E48</f>
-        <v>0.99486887999999996</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="J48">
         <f>1</f>
@@ -36095,7 +36051,7 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B49">
         <f>E49</f>
@@ -36106,7 +36062,8 @@
         <v>0.97409999999999997</v>
       </c>
       <c r="D49">
-        <v>0.96239039999999998</v>
+        <f>C49</f>
+        <v>0.97409999999999997</v>
       </c>
       <c r="E49">
         <v>0.97409999999999997</v>
@@ -36158,10 +36115,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36170,32 +36127,35 @@
     <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G1" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="H1" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="str">
         <f>A2</f>
@@ -36215,13 +36175,16 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3">
         <f>VLOOKUP(B3,Moments_psid!A:C,3,0)</f>
@@ -36237,13 +36200,16 @@
       <c r="G3">
         <v>2</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4">
         <f>VLOOKUP(B4,Moments_psid!A:C,3,0)</f>
@@ -36259,10 +36225,13 @@
       <c r="G4">
         <v>3</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B18" si="0">A5</f>
@@ -36283,9 +36252,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -36306,9 +36275,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -36329,9 +36298,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -36352,9 +36321,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -36375,9 +36344,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -36401,9 +36370,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -36427,9 +36396,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -36450,9 +36419,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -36476,9 +36445,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -36502,9 +36471,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -36523,16 +36492,16 @@
       <c r="G15">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
-        <v>202</v>
-      </c>
       <c r="I15" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="J15" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -36556,9 +36525,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -36579,9 +36548,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -36602,12 +36571,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19">
         <f>VLOOKUP(B19,Moments_psid!A:C,3,0)</f>
@@ -36624,9 +36593,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="str">
         <f>A20</f>
@@ -36647,9 +36616,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="str">
         <f>A21</f>
@@ -36670,9 +36639,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" t="str">
         <f>A22</f>
@@ -36693,9 +36662,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" t="str">
         <f>A23</f>
@@ -36715,12 +36684,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C24">
         <f>VLOOKUP(B24,Moments_psid!A:C,3,0)</f>
@@ -36736,13 +36705,13 @@
       <c r="G24">
         <v>24.1</v>
       </c>
-      <c r="H24" t="s">
-        <v>231</v>
+      <c r="I24" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" t="str">
         <f>A25</f>
@@ -36762,13 +36731,13 @@
       <c r="G25">
         <v>25</v>
       </c>
-      <c r="H25" t="s">
-        <v>244</v>
+      <c r="I25" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" t="str">
         <f>A26</f>
@@ -36789,12 +36758,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <f>VLOOKUP(B27,Moments_psid!A:C,3,0)</f>
@@ -36811,9 +36780,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" t="str">
         <f>A28</f>
@@ -36834,9 +36803,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" t="str">
         <f>A29</f>
@@ -36857,12 +36826,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C30">
         <f>VLOOKUP(B30,Moments_psid!A:C,3,0)</f>
@@ -36879,12 +36848,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C31">
         <f>VLOOKUP(B31,Moments_psid!A:C,3,0)</f>
@@ -36899,13 +36868,13 @@
       <c r="G31">
         <v>35</v>
       </c>
-      <c r="H31" t="s">
-        <v>190</v>
+      <c r="I31" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ref="B32:B44" si="1">A32</f>
@@ -36926,9 +36895,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
@@ -36949,9 +36918,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
@@ -36972,9 +36941,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
@@ -36995,9 +36964,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
@@ -37018,9 +36987,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
@@ -37041,9 +37010,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
@@ -37064,9 +37033,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
@@ -37087,9 +37056,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
@@ -37110,9 +37079,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
@@ -37133,9 +37102,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
@@ -37156,9 +37125,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
@@ -37179,9 +37148,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
@@ -37200,16 +37169,16 @@
       <c r="G44">
         <v>48</v>
       </c>
-      <c r="H44" t="s">
-        <v>227</v>
+      <c r="I44" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C45">
         <f>VLOOKUP(B45,Moments_psid!A:C,3,0)</f>
@@ -37222,12 +37191,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C46">
         <f>VLOOKUP(B46,Moments_psid!A:C,3,0)</f>
@@ -37239,16 +37208,16 @@
       <c r="G46">
         <v>54</v>
       </c>
-      <c r="H46" t="s">
-        <v>190</v>
+      <c r="I46" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C47">
         <f>VLOOKUP(B47,Moments_psid!A:C,3,0)</f>
@@ -37260,11 +37229,11 @@
       <c r="G47">
         <v>55</v>
       </c>
-      <c r="H47" t="s">
-        <v>190</v>
+      <c r="I47" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -37289,9 +37258,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="2"/>
@@ -37311,13 +37280,13 @@
       <c r="G49">
         <v>92</v>
       </c>
-      <c r="H49" t="s">
-        <v>230</v>
+      <c r="I49" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="2"/>
@@ -37337,9 +37306,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="2"/>
@@ -37360,9 +37329,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="2"/>
@@ -37383,9 +37352,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="2"/>
@@ -37406,7 +37375,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -37429,9 +37398,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="2"/>
@@ -37455,12 +37424,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -37475,12 +37444,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -37495,12 +37464,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58">
         <f>9*5*52/(24*365)</f>
@@ -37510,12 +37479,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C59">
         <v>0.59019820000000001</v>
@@ -37525,13 +37494,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I59" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
+  <autoFilter ref="A1:J59" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
     <filterColumn colId="3">
       <filters>
         <filter val="1"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I55">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J55">
       <sortCondition ref="G1:G58"/>
     </sortState>
   </autoFilter>
@@ -62212,7 +62181,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="str">
         <f>A1</f>
@@ -62247,7 +62216,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>0.39191477161275001</v>
@@ -62255,7 +62224,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0.49779057060822007</v>
@@ -62263,18 +62232,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>-8.7687275110524994E-3</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>7.2765061412580503E-2</v>
@@ -62282,7 +62251,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <f>'OUTSIDE MOMENT'!B2</f>
@@ -62309,7 +62278,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" s="10">
         <f>0.1449</f>
@@ -62338,7 +62307,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -62346,7 +62315,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -62357,7 +62326,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -62368,7 +62337,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -62379,7 +62348,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -62390,7 +62359,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -62401,7 +62370,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -62412,7 +62381,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -62423,7 +62392,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -62434,7 +62403,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -62445,7 +62414,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -62456,7 +62425,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -62467,7 +62436,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -62478,7 +62447,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -62489,7 +62458,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -62500,7 +62469,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -62511,7 +62480,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -62522,7 +62491,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -62533,7 +62502,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -62544,7 +62513,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -62555,7 +62524,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -62566,7 +62535,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -62577,7 +62546,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -62588,7 +62557,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -62599,7 +62568,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -62610,7 +62579,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -62621,7 +62590,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -62632,7 +62601,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -62643,7 +62612,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -62654,7 +62623,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -62665,7 +62634,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -62676,7 +62645,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -62687,7 +62656,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -62698,7 +62667,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -62709,7 +62678,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -62720,7 +62689,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -62731,7 +62700,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -62742,7 +62711,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -62753,7 +62722,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -62764,7 +62733,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -62775,7 +62744,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -62786,7 +62755,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -62797,7 +62766,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -62808,7 +62777,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -62819,7 +62788,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -62830,7 +62799,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -62841,7 +62810,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -62852,7 +62821,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -62863,7 +62832,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -62874,7 +62843,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -62885,7 +62854,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -62896,7 +62865,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -62907,7 +62876,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -62918,7 +62887,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -62929,7 +62898,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -62940,7 +62909,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -62951,7 +62920,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -62962,7 +62931,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -62973,7 +62942,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -62984,7 +62953,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -62995,7 +62964,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -63006,7 +62975,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -63017,7 +62986,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -63028,7 +62997,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -63039,7 +63008,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -63050,7 +63019,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -63061,7 +63030,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -63072,7 +63041,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -63083,7 +63052,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -63094,7 +63063,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -63105,7 +63074,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -63116,7 +63085,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -63127,7 +63096,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -63138,7 +63107,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -63149,7 +63118,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -63160,7 +63129,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -63171,7 +63140,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -63182,7 +63151,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -63193,7 +63162,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -63204,7 +63173,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -63215,7 +63184,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -63226,7 +63195,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -63237,7 +63206,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -63248,7 +63217,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -63259,7 +63228,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -63270,7 +63239,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -63281,7 +63250,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -63292,7 +63261,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -63303,7 +63272,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B89">
         <v>89</v>
@@ -63314,7 +63283,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -63325,7 +63294,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C91">
         <v>-0.23237462229539668</v>
@@ -63333,7 +63302,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C92">
         <v>-0.2885949120223249</v>
@@ -63341,7 +63310,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C93">
         <v>-0.26293418832561893</v>
@@ -63349,7 +63318,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C94">
         <v>-0.29549068412733248</v>
@@ -63357,7 +63326,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C95">
         <v>-0.34749104115171398</v>
@@ -63365,7 +63334,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C96">
         <v>-0.32539548393483481</v>
@@ -63373,7 +63342,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B97">
         <v>92</v>
@@ -63384,7 +63353,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B98">
         <v>93</v>
@@ -63395,7 +63364,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B99">
         <v>94</v>
@@ -63406,7 +63375,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B100">
         <v>95</v>
@@ -63417,7 +63386,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B101">
         <v>96</v>
@@ -63428,7 +63397,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B102">
         <v>97</v>
@@ -63439,7 +63408,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B103">
         <v>98</v>
@@ -63450,7 +63419,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B104">
         <v>99</v>
@@ -63468,8 +63437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3232877D-0BFB-41E6-9597-1FA0FC36E360}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -63527,22 +63496,22 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <f>1-[2]pinc08!$B$14</f>
+        <f>1-[1]pinc08!$B$14</f>
         <v>0.15652701064259733</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" s="2">
         <f>1-15.13%</f>
@@ -63555,74 +63524,74 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="9">
         <v>0.4</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -63643,13 +63612,13 @@
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" t="s">
         <v>222</v>
       </c>
-      <c r="H18" t="s">
-        <v>224</v>
-      </c>
       <c r="J18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.35">
@@ -63668,7 +63637,7 @@
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.35">
@@ -63687,7 +63656,7 @@
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.35">
@@ -63702,10 +63671,10 @@
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.35">

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6170FBC5-9941-404D-889A-533F08B0AA38}"/>
+  <xr:revisionPtr revIDLastSave="390" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{215FD9B5-A2C7-42AC-A40A-9FC8F91B614A}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" firstSheet="1" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.77719215315966017</v>
+        <v>0.85333168830266126</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.66677701924123367</v>
+        <v>0.30206102982905858</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1604,15 +1604,15 @@
       </c>
       <c r="B4">
         <f>(D4*$R$4+C4*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B4</f>
-        <v>-0.12856167933664459</v>
+        <v>-0.15904043337211662</v>
       </c>
       <c r="C4">
         <f>PARS!C4</f>
-        <v>-0.69314718055994529</v>
+        <v>-0.51082562376599072</v>
       </c>
       <c r="D4">
         <f>PARS!D4</f>
-        <v>0.40546510810816438</v>
+        <v>0.18232155679395459</v>
       </c>
       <c r="E4" t="b">
         <f t="shared" si="0"/>
@@ -1663,14 +1663,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66496012380003688</v>
+        <v>7.1094176845992063E-2</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>6.8825725646396441E-3</v>
+        <v>0.25241772785599537</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1679,15 +1679,15 @@
       </c>
       <c r="B5">
         <f>(D5*$R$4+C5*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B5</f>
-        <v>-0.12856167933664459</v>
+        <v>-0.15904043337211662</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
-        <v>-0.69314718055994529</v>
+        <v>-0.51082562376599072</v>
       </c>
       <c r="D5">
         <f>PARS!D5</f>
-        <v>0.40546510810816438</v>
+        <v>0.18232155679395459</v>
       </c>
       <c r="E5" t="b">
         <f t="shared" si="0"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9392533698621084E-2</v>
+        <v>0.61605199829600987</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48261817112620897</v>
+        <v>0.21195576159121765</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96464630989075439</v>
+        <v>0.70876682177756711</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86810075424015387</v>
+        <v>0.14832761108808812</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81044622740309424</v>
+        <v>0.93173475234568492</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2025,15 +2025,15 @@
       </c>
       <c r="B10">
         <f>(D10*$R$4+C10*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B10</f>
-        <v>-1.6989903679539745E-2</v>
+        <v>-4.7468657715011776E-2</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
-        <v>-0.69314718055994529</v>
+        <v>-0.51082562376599072</v>
       </c>
       <c r="D10">
         <f>PARS!D10</f>
-        <v>0.40546510810816438</v>
+        <v>0.18232155679395459</v>
       </c>
       <c r="E10" t="b">
         <f t="shared" si="0"/>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65200124218919919</v>
+        <v>0.25440194076324485</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78431730053161886</v>
+        <v>0.76363950495843569</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39369739695580808</v>
+        <v>0.84849226911561038</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94462608844567952</v>
+        <v>0.15934172125285007</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67190250876710655</v>
+        <v>5.995702737048958E-2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91470421255609591</v>
+        <v>0.94095775856884167</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1669100340583372E-2</v>
+        <v>0.23477795450106065</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85515506948320685</v>
+        <v>9.9680695402064035E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44628219805589175</v>
+        <v>0.9741412282651295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86454841433976437</v>
+        <v>0.3998679357735011</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B20">
         <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>0.26423969649504248</v>
+        <v>0.26428970157084952</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2463991601626772E-2</v>
+        <v>0.95480859329754464</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50760927203096529</v>
+        <v>0.21918682133565559</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71353982527964488</v>
+        <v>7.4883173758034771E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83343822482847996</v>
+        <v>0.56096519526931365</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9652701119342687</v>
+        <v>4.8664321401954314E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29108385902391798</v>
+        <v>0.22807089213349885</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B26">
         <f>(D26*$R$4+C26*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B26</f>
-        <v>2.8358859296910843E-3</v>
+        <v>7.9911225843320222E-2</v>
       </c>
       <c r="C26">
         <f>PARS!C26</f>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60064768207931774</v>
+        <v>0.65639828919180887</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62512731169303493</v>
+        <v>0.28638376263875265</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87904202830297595</v>
+        <v>0.74725845583148753</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10955971060342029</v>
+        <v>0.46745939894305255</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87653648282552221</v>
+        <v>2.4817346159169418E-3</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41259293735677804</v>
+        <v>0.17582548492694183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97955534203756878</v>
+        <v>0.26197113623339319</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34160813635201859</v>
+        <v>0.70888945372098811</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4939428383895521E-2</v>
+        <v>0.27776883535268393</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6623993167184992E-2</v>
+        <v>0.75249817815591946</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39283494020002574</v>
+        <v>0.3744084217879261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50626307783934876</v>
+        <v>0.90364707626594576</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70146878158629</v>
+        <v>0.54520768588774005</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -3997,15 +3997,15 @@
       </c>
       <c r="B39">
         <f>(D39*$R$4+C39*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B39</f>
-        <v>2.0449000000000002</v>
+        <v>1.9472621800000001</v>
       </c>
       <c r="C39">
         <f>PARS!C39</f>
-        <v>2.0449000000000002</v>
+        <v>1.9472621800000001</v>
       </c>
       <c r="D39">
         <f>PARS!D39</f>
-        <v>2.0449000000000002</v>
+        <v>1.9472621800000001</v>
       </c>
       <c r="E39" t="b">
         <f t="shared" si="0"/>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72114080397748914</v>
+        <v>0.6950231141922153</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4065,15 +4065,15 @@
       </c>
       <c r="B40">
         <f>(D40*$R$4+C40*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B40</f>
-        <v>2.2964999999999999E-2</v>
+        <v>1.8541180000000001E-2</v>
       </c>
       <c r="C40">
         <f>PARS!C40</f>
-        <v>2.2964999999999999E-2</v>
+        <v>1.8541180000000001E-2</v>
       </c>
       <c r="D40">
         <f>PARS!D40</f>
-        <v>2.2964999999999999E-2</v>
+        <v>1.8541180000000001E-2</v>
       </c>
       <c r="E40" t="b">
         <f t="shared" si="0"/>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48441822138564494</v>
+        <v>0.6616302401427917</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47817090652154048</v>
+        <v>0.56063638777466873</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50661024763192064</v>
+        <v>0.81050925759775871</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58994467421501884</v>
+        <v>0.48743366989184511</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3773221354878169</v>
+        <v>0.58648367929558554</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94021519102064344</v>
+        <v>0.98301229866121054</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31588478087856953</v>
+        <v>0.5750735282565842</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4541,15 +4541,15 @@
       </c>
       <c r="B47">
         <f>(D47*$R$4+C47*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547228200000001</v>
       </c>
       <c r="C47">
         <f>PARS!C47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547228200000001</v>
       </c>
       <c r="D47">
         <f>PARS!D47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547228200000001</v>
       </c>
       <c r="E47" t="b">
         <f t="shared" si="0"/>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76394398701473842</v>
+        <v>0.17894959232549423</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4609,15 +4609,15 @@
       </c>
       <c r="B48">
         <f>(D48*$R$4+C48*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99413825</v>
       </c>
       <c r="C48">
         <f>PARS!C48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99413825</v>
       </c>
       <c r="D48">
         <f>PARS!D48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99413825</v>
       </c>
       <c r="E48" t="b">
         <f t="shared" si="0"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51071957438468951</v>
+        <v>5.6050967650617789E-2</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4677,15 +4677,15 @@
       </c>
       <c r="B49">
         <f>(D49*$R$4+C49*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B49</f>
-        <v>0.97409999999999997</v>
+        <v>0.96310580999999995</v>
       </c>
       <c r="C49">
         <f>PARS!C49</f>
-        <v>0.97409999999999997</v>
+        <v>0.96310580999999995</v>
       </c>
       <c r="D49">
         <f>PARS!D49</f>
-        <v>0.97409999999999997</v>
+        <v>0.96310580999999995</v>
       </c>
       <c r="E49" t="b">
         <f t="shared" si="0"/>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31081806059639194</v>
+        <v>0.46991598539867019</v>
       </c>
     </row>
   </sheetData>
@@ -33215,8 +33215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:G32"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33415,20 +33415,20 @@
       </c>
       <c r="C4" s="7">
         <f>LN(F4)</f>
-        <v>-0.69314718055994529</v>
+        <v>-0.51082562376599072</v>
       </c>
       <c r="D4" s="7">
         <f>LN(G4)</f>
-        <v>0.40546510810816438</v>
+        <v>0.18232155679395459</v>
       </c>
       <c r="E4">
         <v>0.8</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -33477,22 +33477,21 @@
       </c>
       <c r="C5">
         <f>C4</f>
-        <v>-0.69314718055994529</v>
+        <v>-0.51082562376599072</v>
       </c>
       <c r="D5">
         <f>D4</f>
-        <v>0.40546510810816438</v>
+        <v>0.18232155679395459</v>
       </c>
       <c r="E5">
         <f>E4</f>
         <v>0.8</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G5">
-        <f>G4</f>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -33777,22 +33776,22 @@
       </c>
       <c r="C10">
         <f>C4</f>
-        <v>-0.69314718055994529</v>
+        <v>-0.51082562376599072</v>
       </c>
       <c r="D10">
         <f>D4</f>
-        <v>0.40546510810816438</v>
+        <v>0.18232155679395459</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
         <f>F4</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G10">
         <f>G4</f>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H10">
         <v>1.1000000000000001</v>
@@ -34396,7 +34395,7 @@
       </c>
       <c r="B20">
         <f>-LN(1/E20 -1)</f>
-        <v>2.0100676757762812E-2</v>
+        <v>2.0200686909376892E-2</v>
       </c>
       <c r="C20">
         <f>-LN(1/F20 -1)</f>
@@ -34407,7 +34406,7 @@
         <v>0.84729786038720356</v>
       </c>
       <c r="E20">
-        <v>0.50502499999999995</v>
+        <v>0.50505</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -34423,7 +34422,7 @@
       </c>
       <c r="J20">
         <f>1/(E20*(1-E20))</f>
-        <v>4.0004040508101424</v>
+        <v>4.0004080816284064</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -34449,7 +34448,7 @@
       </c>
       <c r="V20">
         <f>1/(1+EXP(-B20))</f>
-        <v>0.50502499999999995</v>
+        <v>0.50505</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
@@ -34742,7 +34741,7 @@
       </c>
       <c r="B26">
         <f>LN(E26)</f>
-        <v>-0.51082562376599072</v>
+        <v>-0.35667494393873245</v>
       </c>
       <c r="C26">
         <f>LN(F26)</f>
@@ -34753,7 +34752,7 @@
         <v>1.0986122886681098</v>
       </c>
       <c r="E26">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F26">
         <v>0.7</v>
@@ -34769,7 +34768,7 @@
       </c>
       <c r="J26">
         <f t="shared" ref="J26" si="8">1/E26</f>
-        <v>1.6666666666666667</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -34795,7 +34794,7 @@
       </c>
       <c r="V26">
         <f>EXP(B26)</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
@@ -34864,7 +34863,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E28">
-        <v>5.1999999999999998E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -35034,7 +35033,7 @@
         <v>84</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:D32" si="11">-LN(1/E31 -1)</f>
+        <f t="shared" ref="B31:D31" si="11">-LN(1/E31 -1)</f>
         <v>-0.84729786038720367</v>
       </c>
       <c r="C31">
@@ -35535,18 +35534,18 @@
       </c>
       <c r="B39">
         <f>E39</f>
-        <v>2.0449000000000002</v>
+        <v>1.9472621800000001</v>
       </c>
       <c r="C39">
         <f>B39</f>
-        <v>2.0449000000000002</v>
+        <v>1.9472621800000001</v>
       </c>
       <c r="D39">
         <f>C39</f>
-        <v>2.0449000000000002</v>
+        <v>1.9472621800000001</v>
       </c>
       <c r="E39">
-        <v>2.0449000000000002</v>
+        <v>1.9472621800000001</v>
       </c>
       <c r="F39">
         <v>1.9809000000000001</v>
@@ -35562,7 +35561,7 @@
       </c>
       <c r="J39">
         <f t="shared" ref="J39:J40" si="14">1/E39</f>
-        <v>0.48902146804244701</v>
+        <v>0.51354153039628181</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -35590,18 +35589,18 @@
       </c>
       <c r="B40">
         <f>E40</f>
-        <v>2.2964999999999999E-2</v>
+        <v>1.8541180000000001E-2</v>
       </c>
       <c r="C40">
         <f>B40</f>
-        <v>2.2964999999999999E-2</v>
+        <v>1.8541180000000001E-2</v>
       </c>
       <c r="D40">
         <f>C40</f>
-        <v>2.2964999999999999E-2</v>
+        <v>1.8541180000000001E-2</v>
       </c>
       <c r="E40">
-        <v>2.2964999999999999E-2</v>
+        <v>1.8541180000000001E-2</v>
       </c>
       <c r="F40">
         <v>1.9084000000000001</v>
@@ -35617,7 +35616,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="14"/>
-        <v>43.544524276072288</v>
+        <v>53.933999885659915</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -35953,26 +35952,26 @@
       </c>
       <c r="B47">
         <f>E47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547228200000001</v>
       </c>
       <c r="C47">
         <f>B47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547228200000001</v>
       </c>
       <c r="D47">
         <f>C47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547228200000001</v>
       </c>
       <c r="E47">
-        <v>1.0589999999999999</v>
+        <v>1.0547228200000001</v>
       </c>
       <c r="F47">
         <f>E47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547228200000001</v>
       </c>
       <c r="G47">
         <f>E47</f>
-        <v>1.0589999999999999</v>
+        <v>1.0547228200000001</v>
       </c>
       <c r="J47">
         <f>1</f>
@@ -36004,26 +36003,26 @@
       </c>
       <c r="B48">
         <f>E48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99413825</v>
       </c>
       <c r="C48">
         <f>B48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99413825</v>
       </c>
       <c r="D48">
         <f>C48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99413825</v>
       </c>
       <c r="E48">
-        <v>1.0035000000000001</v>
+        <v>0.99413825</v>
       </c>
       <c r="F48">
         <f>E48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99413825</v>
       </c>
       <c r="G48">
         <f>E48</f>
-        <v>1.0035000000000001</v>
+        <v>0.99413825</v>
       </c>
       <c r="J48">
         <f>1</f>
@@ -36055,26 +36054,26 @@
       </c>
       <c r="B49">
         <f>E49</f>
-        <v>0.97409999999999997</v>
+        <v>0.96310580999999995</v>
       </c>
       <c r="C49">
         <f>B49</f>
-        <v>0.97409999999999997</v>
+        <v>0.96310580999999995</v>
       </c>
       <c r="D49">
         <f>C49</f>
-        <v>0.97409999999999997</v>
+        <v>0.96310580999999995</v>
       </c>
       <c r="E49">
-        <v>0.97409999999999997</v>
+        <v>0.96310580999999995</v>
       </c>
       <c r="F49">
         <f>E49</f>
-        <v>0.97409999999999997</v>
+        <v>0.96310580999999995</v>
       </c>
       <c r="G49">
         <f>E49</f>
-        <v>0.97409999999999997</v>
+        <v>0.96310580999999995</v>
       </c>
       <c r="J49">
         <f>1</f>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{215FD9B5-A2C7-42AC-A40A-9FC8F91B614A}"/>
+  <xr:revisionPtr revIDLastSave="401" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28EB9CBC-B8F4-4CDB-8467-C495FB9AD557}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" firstSheet="1" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.85333168830266126</v>
+        <v>0.47409066623153606</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.30206102982905858</v>
+        <v>0.88027959175722148</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1663,14 +1663,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1094176845992063E-2</v>
+        <v>0.99110692669575351</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.25241772785599537</v>
+        <v>0.40593012307804466</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61605199829600987</v>
+        <v>0.50790293982164614</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21195576159121765</v>
+        <v>0.53828578163397012</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70876682177756711</v>
+        <v>0.59215607776303725</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14832761108808812</v>
+        <v>0.26275157561247908</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93173475234568492</v>
+        <v>0.39111000498981252</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25440194076324485</v>
+        <v>0.9872584635962306</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2093,15 +2093,15 @@
       </c>
       <c r="B11">
         <f>(D11*$R$4+C11*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B11</f>
-        <v>-1.7084430789493015</v>
+        <v>-1.7070063093644778</v>
       </c>
       <c r="C11">
         <f>PARS!C11</f>
-        <v>-2.0949020741686528</v>
+        <v>-2.093465304583829</v>
       </c>
       <c r="D11">
         <f>PARS!D11</f>
-        <v>-1.1786113422944979</v>
+        <v>-1.1771745727096741</v>
       </c>
       <c r="E11" t="b">
         <f t="shared" si="0"/>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76363950495843569</v>
+        <v>0.25007890318932513</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B12">
         <f>(D12*$R$4+C12*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B12</f>
-        <v>0.56591674112182688</v>
+        <v>0.56691861389166487</v>
       </c>
       <c r="C12">
         <f>PARS!C12</f>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84849226911561038</v>
+        <v>0.60472680667719925</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15934172125285007</v>
+        <v>2.5224056991431154E-2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2297,15 +2297,15 @@
       </c>
       <c r="B14">
         <f>(D14*$R$4+C14*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B14</f>
-        <v>0.26578868534175293</v>
+        <v>0.26473454458785806</v>
       </c>
       <c r="C14">
         <f>PARS!C14</f>
-        <v>0.18063308712546314</v>
+        <v>0.17991668078786471</v>
       </c>
       <c r="D14">
         <f>PARS!D14</f>
-        <v>0.33546144751871732</v>
+        <v>0.33413097860603447</v>
       </c>
       <c r="E14" t="b">
         <f t="shared" si="0"/>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>5.995702737048958E-2</v>
+        <v>0.86101594057237341</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B15">
         <f>(D15*$R$4+C15*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B15</f>
-        <v>-2.47397645757514</v>
+        <v>-2.4734760817332395</v>
       </c>
       <c r="C15">
         <f>PARS!C15</f>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94095775856884167</v>
+        <v>0.69127929657429554</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23477795450106065</v>
+        <v>0.63580223554005788</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9680695402064035E-2</v>
+        <v>2.0262317543695119E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9741412282651295</v>
+        <v>0.60631117481277974</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3998679357735011</v>
+        <v>0.3885475827901026</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95480859329754464</v>
+        <v>8.160926470379759E-2</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21918682133565559</v>
+        <v>4.8023960547392885E-2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4883173758034771E-2</v>
+        <v>0.82149549654225695</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56096519526931365</v>
+        <v>0.48986659875232763</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8664321401954314E-2</v>
+        <v>0.18735732676380989</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22807089213349885</v>
+        <v>0.97577400679196857</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65639828919180887</v>
+        <v>0.10328331445231809</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28638376263875265</v>
+        <v>0.93584509213000544</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74725845583148753</v>
+        <v>0.46830536523006994</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46745939894305255</v>
+        <v>0.50005472169075815</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4817346159169418E-3</v>
+        <v>0.5596913269031597</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17582548492694183</v>
+        <v>0.4067357628600492</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26197113623339319</v>
+        <v>0.42776627191555905</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70888945372098811</v>
+        <v>0.13595807612862132</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27776883535268393</v>
+        <v>0.26503145450182231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75249817815591946</v>
+        <v>0.23306031574058539</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3744084217879261</v>
+        <v>0.25095209772242166</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90364707626594576</v>
+        <v>0.93452537633361854</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54520768588774005</v>
+        <v>0.79298781606589996</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -3997,15 +3997,15 @@
       </c>
       <c r="B39">
         <f>(D39*$R$4+C39*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B39</f>
-        <v>1.9472621800000001</v>
+        <v>1.9468676899999999</v>
       </c>
       <c r="C39">
         <f>PARS!C39</f>
-        <v>1.9472621800000001</v>
+        <v>1.9468676899999999</v>
       </c>
       <c r="D39">
         <f>PARS!D39</f>
-        <v>1.9472621800000001</v>
+        <v>1.9468676899999999</v>
       </c>
       <c r="E39" t="b">
         <f t="shared" si="0"/>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6950231141922153</v>
+        <v>0.28266255560983156</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4065,15 +4065,15 @@
       </c>
       <c r="B40">
         <f>(D40*$R$4+C40*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B40</f>
-        <v>1.8541180000000001E-2</v>
+        <v>1.8597309999999999E-2</v>
       </c>
       <c r="C40">
         <f>PARS!C40</f>
-        <v>1.8541180000000001E-2</v>
+        <v>1.8597309999999999E-2</v>
       </c>
       <c r="D40">
         <f>PARS!D40</f>
-        <v>1.8541180000000001E-2</v>
+        <v>1.8597309999999999E-2</v>
       </c>
       <c r="E40" t="b">
         <f t="shared" si="0"/>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6616302401427917</v>
+        <v>0.43909804131087826</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56063638777466873</v>
+        <v>2.4248274623891453E-2</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81050925759775871</v>
+        <v>0.6904751091205692</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48743366989184511</v>
+        <v>0.87083716105419495</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58648367929558554</v>
+        <v>0.36050888987478302</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98301229866121054</v>
+        <v>0.32153091375339993</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5750735282565842</v>
+        <v>9.7752818957922649E-2</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17894959232549423</v>
+        <v>0.39774158250268654</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6050967650617789E-2</v>
+        <v>0.99135774827940226</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46991598539867019</v>
+        <v>0.3062522284590351</v>
       </c>
     </row>
   </sheetData>
@@ -33215,8 +33215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33543,8 +33543,7 @@
         <v>1.6156999999999999</v>
       </c>
       <c r="F6">
-        <f>E6</f>
-        <v>1.6156999999999999</v>
+        <v>1.5904813099999999</v>
       </c>
       <c r="G6">
         <f>E6</f>
@@ -33829,26 +33828,26 @@
       </c>
       <c r="B11">
         <f>LN(E11)</f>
-        <v>-1.8717585228544431</v>
+        <v>-1.8703217532696195</v>
       </c>
       <c r="C11">
         <f>LN(F11)</f>
-        <v>-2.0949020741686528</v>
+        <v>-2.093465304583829</v>
       </c>
       <c r="D11">
         <f>LN(G11)</f>
-        <v>-1.1786113422944979</v>
+        <v>-1.1771745727096741</v>
       </c>
       <c r="E11">
-        <v>0.15385287</v>
+        <v>0.15407408</v>
       </c>
       <c r="F11">
         <f>E11*0.8</f>
-        <v>0.12308229600000001</v>
+        <v>0.12325926400000001</v>
       </c>
       <c r="G11">
         <f>E11*2</f>
-        <v>0.30770574000000001</v>
+        <v>0.30814816</v>
       </c>
       <c r="H11">
         <v>1.2</v>
@@ -33858,7 +33857,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>6.4997162548868932</v>
+        <v>6.4903843657544478</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -33887,7 +33886,7 @@
       </c>
       <c r="V11">
         <f>EXP(B11)</f>
-        <v>0.15385287</v>
+        <v>0.15407408</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
@@ -33896,7 +33895,7 @@
       </c>
       <c r="B12">
         <f>-LN(1/E12 -1)</f>
-        <v>0.66187853969184696</v>
+        <v>0.66388228523152282</v>
       </c>
       <c r="C12">
         <f>-LN(1/F12 -1)</f>
@@ -33907,7 +33906,7 @@
         <v>1.0551933911457412</v>
       </c>
       <c r="E12">
-        <v>0.65968225000000003</v>
+        <v>0.66013195000000002</v>
       </c>
       <c r="F12">
         <v>0.39941511352741998</v>
@@ -33923,7 +33922,7 @@
       </c>
       <c r="J12">
         <f>1/(E12*(1-E12))</f>
-        <v>4.454311654727281</v>
+        <v>4.4571670099049943</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -33952,7 +33951,7 @@
       </c>
       <c r="V12">
         <f>1/(1+EXP(-B12))</f>
-        <v>0.65968225000000003</v>
+        <v>0.66013195000000002</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
@@ -34022,18 +34021,18 @@
       </c>
       <c r="B14">
         <f>LN(E14)</f>
-        <v>0.25804726732209021</v>
+        <v>0.25702382969694959</v>
       </c>
       <c r="C14">
         <f>B14*0.7</f>
-        <v>0.18063308712546314</v>
+        <v>0.17991668078786471</v>
       </c>
       <c r="D14">
         <f>B14*1.3</f>
-        <v>0.33546144751871732</v>
+        <v>0.33413097860603447</v>
       </c>
       <c r="E14">
-        <v>1.2944</v>
+        <v>1.29307594</v>
       </c>
       <c r="F14">
         <v>1.2934243000000001</v>
@@ -34049,7 +34048,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>0.77255871446229918</v>
+        <v>0.77334978485486316</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -34083,7 +34082,7 @@
       </c>
       <c r="B15">
         <f>LN(E15)</f>
-        <v>-2.364330292423122</v>
+        <v>-2.3633295407393207</v>
       </c>
       <c r="C15">
         <f>LN(F15)</f>
@@ -34094,7 +34093,7 @@
         <v>-2.5836226227271579</v>
       </c>
       <c r="E15">
-        <v>9.4012239999999997E-2</v>
+        <v>9.4106369999999995E-2</v>
       </c>
       <c r="F15">
         <v>7.5499999999999998E-2</v>
@@ -34110,7 +34109,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>10.636912810502123</v>
+        <v>10.626273226775192</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -34139,7 +34138,7 @@
       </c>
       <c r="V15">
         <f>EXP(B15)</f>
-        <v>9.4012240000000011E-2</v>
+        <v>9.4106369999999981E-2</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
@@ -35534,18 +35533,18 @@
       </c>
       <c r="B39">
         <f>E39</f>
-        <v>1.9472621800000001</v>
+        <v>1.9468676899999999</v>
       </c>
       <c r="C39">
         <f>B39</f>
-        <v>1.9472621800000001</v>
+        <v>1.9468676899999999</v>
       </c>
       <c r="D39">
         <f>C39</f>
-        <v>1.9472621800000001</v>
+        <v>1.9468676899999999</v>
       </c>
       <c r="E39">
-        <v>1.9472621800000001</v>
+        <v>1.9468676899999999</v>
       </c>
       <c r="F39">
         <v>1.9809000000000001</v>
@@ -35561,7 +35560,7 @@
       </c>
       <c r="J39">
         <f t="shared" ref="J39:J40" si="14">1/E39</f>
-        <v>0.51354153039628181</v>
+        <v>0.5136455883142218</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -35589,18 +35588,18 @@
       </c>
       <c r="B40">
         <f>E40</f>
-        <v>1.8541180000000001E-2</v>
+        <v>1.8597309999999999E-2</v>
       </c>
       <c r="C40">
         <f>B40</f>
-        <v>1.8541180000000001E-2</v>
+        <v>1.8597309999999999E-2</v>
       </c>
       <c r="D40">
         <f>C40</f>
-        <v>1.8541180000000001E-2</v>
+        <v>1.8597309999999999E-2</v>
       </c>
       <c r="E40">
-        <v>1.8541180000000001E-2</v>
+        <v>1.8597309999999999E-2</v>
       </c>
       <c r="F40">
         <v>1.9084000000000001</v>
@@ -35616,7 +35615,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="14"/>
-        <v>53.933999885659915</v>
+        <v>53.771217450265659</v>
       </c>
       <c r="M40">
         <v>1</v>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="401" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28EB9CBC-B8F4-4CDB-8467-C495FB9AD557}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F22ACED-F263-4EDF-ABEC-CD2E9CF71756}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" firstSheet="1" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.47409066623153606</v>
+        <v>0.84457210283531869</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.88027959175722148</v>
+        <v>0.43054667908712529</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1663,14 +1663,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99110692669575351</v>
+        <v>0.16875262307873462</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.40593012307804466</v>
+        <v>0.79789103075487577</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50790293982164614</v>
+        <v>1.4336819578192883E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53828578163397012</v>
+        <v>0.62899182298420309</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59215607776303725</v>
+        <v>0.45631854866156796</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26275157561247908</v>
+        <v>0.16572177089022389</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39111000498981252</v>
+        <v>0.36382443596468939</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9872584635962306</v>
+        <v>0.22287174306227731</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25007890318932513</v>
+        <v>0.85809559138167579</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60472680667719925</v>
+        <v>0.78836549629555774</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5224056991431154E-2</v>
+        <v>4.7260090469481986E-2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86101594057237341</v>
+        <v>0.43183295004963962</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69127929657429554</v>
+        <v>0.93712032964778569</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63580223554005788</v>
+        <v>0.31167525287323328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0262317543695119E-2</v>
+        <v>0.76630222548975424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60631117481277974</v>
+        <v>0.79636301366990103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3885475827901026</v>
+        <v>0.80332686628977079</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.160926470379759E-2</v>
+        <v>0.92308137215062391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8023960547392885E-2</v>
+        <v>0.77417657748330315</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82149549654225695</v>
+        <v>0.57298090144419589</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48986659875232763</v>
+        <v>0.70198227390755163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18735732676380989</v>
+        <v>0.83183663607925307</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97577400679196857</v>
+        <v>0.37408043729340312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10328331445231809</v>
+        <v>0.76903651166537534</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93584509213000544</v>
+        <v>0.44851311943541017</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46830536523006994</v>
+        <v>8.7039404793540553E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50005472169075815</v>
+        <v>1.1116875137486826E-3</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5596913269031597</v>
+        <v>0.90280217398191653</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4067357628600492</v>
+        <v>6.2955933007536102E-2</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42776627191555905</v>
+        <v>0.59124385193186546</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13595807612862132</v>
+        <v>0.44838362873642346</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26503145450182231</v>
+        <v>0.80384464762724606</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23306031574058539</v>
+        <v>0.20146932329829592</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25095209772242166</v>
+        <v>0.98468401940999184</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93452537633361854</v>
+        <v>0.29362312452374262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79298781606589996</v>
+        <v>0.9936767371529035</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28266255560983156</v>
+        <v>0.89191933514325172</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43909804131087826</v>
+        <v>0.87420449580701953</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4248274623891453E-2</v>
+        <v>0.21348109984149422</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6904751091205692</v>
+        <v>0.11467032590708592</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87083716105419495</v>
+        <v>0.92130679248930869</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36050888987478302</v>
+        <v>0.29399873023629342</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32153091375339993</v>
+        <v>0.56919980668232117</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7752818957922649E-2</v>
+        <v>0.86871830136466666</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39774158250268654</v>
+        <v>0.86333826374089728</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99135774827940226</v>
+        <v>0.44166054939929722</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3062522284590351</v>
+        <v>0.53452877039785562</v>
       </c>
     </row>
   </sheetData>
@@ -33215,8 +33215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F22ACED-F263-4EDF-ABEC-CD2E9CF71756}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8738922A-7B69-4E01-BABB-D630936C498E}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" firstSheet="1" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="248">
   <si>
     <t>label</t>
   </si>
@@ -892,13 +892,18 @@
   <si>
     <t>showmain</t>
   </si>
+  <si>
+    <t>The outcomes are VERY sensitive to this. This explains why this is also very precisely estimated?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -994,7 +999,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1013,6 +1018,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1524,7 +1531,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.84457210283531869</v>
+        <v>0.89463699069770231</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1592,7 +1599,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.43054667908712529</v>
+        <v>0.53089541325096956</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1663,14 +1670,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16875262307873462</v>
+        <v>0.70209016988082662</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.79789103075487577</v>
+        <v>0.76395019170000122</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1738,7 +1745,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4336819578192883E-2</v>
+        <v>0.54605906639724777</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1806,7 +1813,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62899182298420309</v>
+        <v>0.54487311781668113</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1877,7 +1884,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45631854866156796</v>
+        <v>0.89845252579004486</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1948,7 +1955,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16572177089022389</v>
+        <v>0.85073274978654001</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2016,7 +2023,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36382443596468939</v>
+        <v>0.5165618586032531</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2084,7 +2091,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22287174306227731</v>
+        <v>0.79489911435319871</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2152,7 +2159,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85809559138167579</v>
+        <v>0.15694226221072238</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2220,7 +2227,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78836549629555774</v>
+        <v>0.88967958970466121</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2288,7 +2295,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7260090469481986E-2</v>
+        <v>0.46283400965467203</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2356,7 +2363,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43183295004963962</v>
+        <v>0.38762149025522508</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2424,7 +2431,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93712032964778569</v>
+        <v>0.16675869238302665</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2492,7 +2499,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31167525287323328</v>
+        <v>0.49710939356527684</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2560,7 +2567,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76630222548975424</v>
+        <v>3.2052976644297848E-3</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2628,7 +2635,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79636301366990103</v>
+        <v>0.44926909139385085</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2696,7 +2703,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80332686628977079</v>
+        <v>0.22588669304658759</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2705,7 +2712,7 @@
       </c>
       <c r="B20">
         <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>0.26428970157084952</v>
+        <v>10.354529358116224</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2717,7 +2724,7 @@
       </c>
       <c r="E20" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <f>PARS!K20</f>
@@ -2764,7 +2771,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92308137215062391</v>
+        <v>0.30048732408156165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2832,7 +2839,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77417657748330315</v>
+        <v>0.97051261182327042</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2900,7 +2907,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57298090144419589</v>
+        <v>0.79128050192529942</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2968,7 +2975,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70198227390755163</v>
+        <v>0.65800026835808978</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3036,7 +3043,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83183663607925307</v>
+        <v>0.78274989372307091</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3104,7 +3111,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37408043729340312</v>
+        <v>0.32996082497130452</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3172,7 +3179,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76903651166537534</v>
+        <v>0.88964256480076376</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3240,7 +3247,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44851311943541017</v>
+        <v>0.35167698378298806</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3308,7 +3315,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7039404793540553E-2</v>
+        <v>3.6458927708748812E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3376,7 +3383,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1116875137486826E-3</v>
+        <v>0.21665632849104033</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3444,7 +3451,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90280217398191653</v>
+        <v>0.45681422509124947</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3512,7 +3519,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2955933007536102E-2</v>
+        <v>0.21321016332716269</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3580,7 +3587,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59124385193186546</v>
+        <v>3.8341180720692924E-2</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3648,7 +3655,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44838362873642346</v>
+        <v>0.59300860574992609</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3716,7 +3723,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80384464762724606</v>
+        <v>0.11280165123587627</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3784,7 +3791,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20146932329829592</v>
+        <v>0.32149561039209706</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3852,7 +3859,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98468401940999184</v>
+        <v>0.26214014742627767</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3920,7 +3927,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29362312452374262</v>
+        <v>0.95543223604057215</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3988,7 +3995,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9936767371529035</v>
+        <v>0.11278094957975571</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4056,7 +4063,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89191933514325172</v>
+        <v>0.77168083644107532</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4124,7 +4131,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87420449580701953</v>
+        <v>0.55355819137552287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4192,7 +4199,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21348109984149422</v>
+        <v>0.9982085984187713</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4260,7 +4267,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11467032590708592</v>
+        <v>0.24810297198372377</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4328,7 +4335,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92130679248930869</v>
+        <v>0.38675531071768099</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4396,7 +4403,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29399873023629342</v>
+        <v>0.21684623482213894</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4464,7 +4471,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56919980668232117</v>
+        <v>0.49985636505138009</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4532,7 +4539,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86871830136466666</v>
+        <v>0.3949729170060613</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4600,7 +4607,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86333826374089728</v>
+        <v>0.1531016970793061</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4668,7 +4675,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44166054939929722</v>
+        <v>0.10921215553040364</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4736,7 +4743,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53452877039785562</v>
+        <v>3.332717037729116E-2</v>
       </c>
     </row>
   </sheetData>
@@ -33213,16 +33220,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.54296875" customWidth="1"/>
+    <col min="25" max="25" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
@@ -33238,7 +33249,7 @@
       <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>192</v>
       </c>
       <c r="F1" t="s">
@@ -33309,7 +33320,7 @@
         <f>G2</f>
         <v>20.430907591983047</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="17">
         <v>20.430907591983047</v>
       </c>
       <c r="F2">
@@ -33366,7 +33377,7 @@
         <f>C3</f>
         <v>1.8814014327029097E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="17">
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="F3">
@@ -33421,7 +33432,7 @@
         <f>LN(G4)</f>
         <v>0.18232155679395459</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="17">
         <v>0.8</v>
       </c>
       <c r="F4">
@@ -33483,7 +33494,7 @@
         <f>D4</f>
         <v>0.18232155679395459</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="17">
         <f>E4</f>
         <v>0.8</v>
       </c>
@@ -33539,7 +33550,7 @@
         <f>B6</f>
         <v>0.20836072497837904</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="17">
         <v>1.6156999999999999</v>
       </c>
       <c r="F6">
@@ -33594,7 +33605,7 @@
         <f t="shared" si="3"/>
         <v>-0.69314718055994529</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="17">
         <f>0.19/0.8</f>
         <v>0.23749999999999999</v>
       </c>
@@ -33657,7 +33668,7 @@
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="17">
         <v>1</v>
       </c>
       <c r="F8">
@@ -33719,7 +33730,7 @@
         <f t="shared" si="3"/>
         <v>1.791759469228055</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="17">
         <v>4</v>
       </c>
       <c r="F9">
@@ -33781,7 +33792,7 @@
         <f>D4</f>
         <v>0.18232155679395459</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="17">
         <v>1</v>
       </c>
       <c r="F10">
@@ -33838,7 +33849,7 @@
         <f>LN(G11)</f>
         <v>-1.1771745727096741</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="17">
         <v>0.15407408</v>
       </c>
       <c r="F11">
@@ -33905,7 +33916,7 @@
         <f>-LN(1/G12 -1)</f>
         <v>1.0551933911457412</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="17">
         <v>0.66013195000000002</v>
       </c>
       <c r="F12">
@@ -33970,7 +33981,7 @@
         <f>G13</f>
         <v>1.16649</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="17">
         <v>0.91482224000000001</v>
       </c>
       <c r="F13">
@@ -34031,7 +34042,7 @@
         <f>B14*1.3</f>
         <v>0.33413097860603447</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="17">
         <v>1.29307594</v>
       </c>
       <c r="F14">
@@ -34092,7 +34103,7 @@
         <f>LN(G15)</f>
         <v>-2.5836226227271579</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="17">
         <v>9.4106369999999995E-2</v>
       </c>
       <c r="F15">
@@ -34157,7 +34168,7 @@
         <f>LN(-F16)</f>
         <v>-1.1647520911726548</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="17">
         <v>-0.24199999999999999</v>
       </c>
       <c r="F16">
@@ -34203,7 +34214,7 @@
         <v>-0.24199999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -34219,7 +34230,7 @@
         <f t="shared" si="6"/>
         <v>-0.43078291609245423</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="17">
         <v>0.5</v>
       </c>
       <c r="F17">
@@ -34265,7 +34276,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -34281,7 +34292,7 @@
         <f t="shared" si="6"/>
         <v>2.341805806147327</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="17">
         <v>6</v>
       </c>
       <c r="F18">
@@ -34327,7 +34338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>72</v>
       </c>
@@ -34343,7 +34354,7 @@
         <f>LN(G19/100)</f>
         <v>2.9957322735539909</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="17">
         <v>2000</v>
       </c>
       <c r="F19">
@@ -34388,13 +34399,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>73</v>
       </c>
       <c r="B20">
-        <f>-LN(1/E20 -1)</f>
-        <v>2.0200686909376892E-2</v>
+        <f>-LN(1/E20 -1)*1000</f>
+        <v>20.200680000000126</v>
       </c>
       <c r="C20">
         <f>-LN(1/F20 -1)</f>
@@ -34404,8 +34415,8 @@
         <f>-LN(1/G20 -1)</f>
         <v>0.84729786038720356</v>
       </c>
-      <c r="E20">
-        <v>0.50505</v>
+      <c r="E20" s="17">
+        <v>0.50504999827283203</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -34420,8 +34431,8 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J20">
-        <f>1/(E20*(1-E20))</f>
-        <v>4.0004080816284064</v>
+        <f>1000/(E20*(1-E20))</f>
+        <v>4000.4080813492396</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -34446,11 +34457,22 @@
         <v>1</v>
       </c>
       <c r="V20">
-        <f>1/(1+EXP(-B20))</f>
-        <v>0.50505</v>
+        <f>1/(1+EXP(-B20/1000))</f>
+        <v>0.50504999827283203</v>
+      </c>
+      <c r="W20" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y20">
+        <f>0.02020068</f>
+        <v>2.0200679999999999E-2</v>
+      </c>
+      <c r="Z20" s="16">
+        <f>1/(1+EXP(-Y20))</f>
+        <v>0.50504999827283203</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -34466,7 +34488,7 @@
         <f>LN(G21/10)</f>
         <v>0.61518563909023349</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="17">
         <v>15.2</v>
       </c>
       <c r="F21">
@@ -34512,7 +34534,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -34528,7 +34550,7 @@
         <f>1-LN(1/(G22-1) -1)</f>
         <v>7.9067547786486871</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="17">
         <v>1.9</v>
       </c>
       <c r="F22">
@@ -34571,7 +34593,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -34584,7 +34606,7 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="17">
         <v>0</v>
       </c>
       <c r="F23">
@@ -34623,7 +34645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>190</v>
       </c>
@@ -34639,7 +34661,7 @@
         <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="17">
         <v>-1.7999999999999999E-2</v>
       </c>
       <c r="F24">
@@ -34679,7 +34701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -34695,7 +34717,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="17">
         <v>0.17499999999999999</v>
       </c>
       <c r="F25">
@@ -34734,7 +34756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -34750,7 +34772,7 @@
         <f>LN(G26)</f>
         <v>1.0986122886681098</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="17">
         <v>0.7</v>
       </c>
       <c r="F26">
@@ -34796,7 +34818,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -34809,7 +34831,7 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="17">
         <v>0</v>
       </c>
       <c r="F27">
@@ -34848,7 +34870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -34861,7 +34883,7 @@
       <c r="D28">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="17">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F28">
@@ -34900,7 +34922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -34916,7 +34938,7 @@
         <f t="shared" si="9"/>
         <v>2.3025850929940459</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="17">
         <v>2.5</v>
       </c>
       <c r="F29">
@@ -34962,7 +34984,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -34978,7 +35000,7 @@
         <f t="shared" si="9"/>
         <v>1.3862943611198906</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="17">
         <v>2.5</v>
       </c>
       <c r="F30">
@@ -35027,7 +35049,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -35043,7 +35065,7 @@
         <f t="shared" si="11"/>
         <v>6.9067547786484651</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="17">
         <v>0.3</v>
       </c>
       <c r="F31">
@@ -35086,7 +35108,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -35102,7 +35124,7 @@
         <f>G32</f>
         <v>0.70559799999999995</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="17">
         <v>0.70559799999999995</v>
       </c>
       <c r="F32">
@@ -35169,7 +35191,7 @@
         <f t="shared" si="12"/>
         <v>0.69314718055994529</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="17">
         <v>0.73729999999999996</v>
       </c>
       <c r="F33">
@@ -35231,7 +35253,7 @@
         <f t="shared" si="12"/>
         <v>-9.4310679471241415E-2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="17">
         <v>0.7</v>
       </c>
       <c r="F34">
@@ -35293,7 +35315,7 @@
         <f t="shared" si="12"/>
         <v>2.9957322735539909</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="17">
         <v>10.5</v>
       </c>
       <c r="F35">
@@ -35355,7 +35377,7 @@
         <f t="shared" si="12"/>
         <v>3.1010977891993172</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="17">
         <v>5.5</v>
       </c>
       <c r="F36">
@@ -35418,7 +35440,7 @@
         <f>-LN(1/G37 -1)</f>
         <v>0.84729786038720356</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="17">
         <v>0.53549999999999998</v>
       </c>
       <c r="F37">
@@ -35477,7 +35499,7 @@
       <c r="D38" s="3">
         <v>1</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="17">
         <v>1</v>
       </c>
       <c r="F38">
@@ -35543,7 +35565,7 @@
         <f>C39</f>
         <v>1.9468676899999999</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="17">
         <v>1.9468676899999999</v>
       </c>
       <c r="F39">
@@ -35598,7 +35620,7 @@
         <f>C40</f>
         <v>1.8597309999999999E-2</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="17">
         <v>1.8597309999999999E-2</v>
       </c>
       <c r="F40">
@@ -35652,7 +35674,7 @@
         <f>B41</f>
         <v>0.26712328767123289</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="17">
         <v>0.26712328767123289</v>
       </c>
       <c r="F41">
@@ -35706,7 +35728,7 @@
         <f>C42</f>
         <v>1</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="17">
         <v>1</v>
       </c>
       <c r="F42">
@@ -35764,7 +35786,7 @@
         <f t="shared" si="16"/>
         <v>0.1449</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="17">
         <v>0.1449</v>
       </c>
       <c r="F43">
@@ -35815,7 +35837,7 @@
         <f t="shared" si="16"/>
         <v>0.1449</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="17">
         <v>0.1449</v>
       </c>
       <c r="F44">
@@ -35864,7 +35886,7 @@
         <f>G45</f>
         <v>0</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="17">
         <v>0</v>
       </c>
       <c r="F45">
@@ -35912,7 +35934,7 @@
         <f>B46</f>
         <v>0</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="17">
         <v>0</v>
       </c>
       <c r="F46">
@@ -35961,7 +35983,7 @@
         <f>C47</f>
         <v>1.0547228200000001</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="17">
         <v>1.0547228200000001</v>
       </c>
       <c r="F47">
@@ -36012,7 +36034,7 @@
         <f>C48</f>
         <v>0.99413825</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="17">
         <v>0.99413825</v>
       </c>
       <c r="F48">
@@ -36063,7 +36085,7 @@
         <f>C49</f>
         <v>0.96310580999999995</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="17">
         <v>0.96310580999999995</v>
       </c>
       <c r="F49">

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="448" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8738922A-7B69-4E01-BABB-D630936C498E}"/>
+  <xr:revisionPtr revIDLastSave="460" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{085866F6-F713-4322-8B58-AE14DD25B6B3}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" firstSheet="1" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -902,8 +902,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1018,8 +1018,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.89463699069770231</v>
+        <v>0.24924809493439604</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.53089541325096956</v>
+        <v>0.91918959618421825</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1670,14 +1670,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70209016988082662</v>
+        <v>0.3872144289193542</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.76395019170000122</v>
+        <v>0.24886664765071842</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54605906639724777</v>
+        <v>0.270614501505407</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54487311781668113</v>
+        <v>0.30128520077770982</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B7">
         <f>(D7*$R$4+C7*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B7</f>
-        <v>-1.3872550005205133</v>
+        <v>-1.4541980659147762</v>
       </c>
       <c r="C7">
         <f>PARS!C7</f>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D7">
         <f>PARS!D7</f>
-        <v>-0.69314718055994529</v>
+        <v>-0.916290731874155</v>
       </c>
       <c r="E7" t="b">
         <f t="shared" si="0"/>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89845252579004486</v>
+        <v>0.49138438529321427</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85073274978654001</v>
+        <v>3.3207455789894702E-2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5165618586032531</v>
+        <v>0.18882673158519281</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79489911435319871</v>
+        <v>7.4234316365236253E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15694226221072238</v>
+        <v>0.26650772512332843</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88967958970466121</v>
+        <v>0.8810665861026139</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46283400965467203</v>
+        <v>0.73616611509272278</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38762149025522508</v>
+        <v>0.62466283966375291</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16675869238302665</v>
+        <v>0.98299815018824588</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49710939356527684</v>
+        <v>0.66996438775054734</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2052976644297848E-3</v>
+        <v>0.137647570941548</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B18">
         <f>(D18*$R$4+C18*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B18</f>
-        <v>1.9203090589450456</v>
+        <v>2.0044767163546529</v>
       </c>
       <c r="C18">
         <f>PARS!C18</f>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44926909139385085</v>
+        <v>0.87228088339085375</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22588669304658759</v>
+        <v>0.29489860936199441</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="B20">
         <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>10.354529358116224</v>
+        <v>10.223983191202088</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="D20">
         <f>PARS!D20</f>
-        <v>0.84729786038720356</v>
+        <v>0.40546510810816427</v>
       </c>
       <c r="E20" t="b">
         <f t="shared" si="0"/>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30048732408156165</v>
+        <v>0.63349364606797454</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97051261182327042</v>
+        <v>0.66411087419527515</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79128050192529942</v>
+        <v>0.50149173435682748</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65800026835808978</v>
+        <v>4.3367379045758936E-3</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78274989372307091</v>
+        <v>0.40373244855741164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="B25">
         <f>(D25*$R$4+C25*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B25</f>
-        <v>0.38749999999999996</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="C25">
         <f>PARS!C25</f>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="D25">
         <f>PARS!D25</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="b">
         <f t="shared" si="0"/>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32996082497130452</v>
+        <v>0.78832560397061946</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88964256480076376</v>
+        <v>0.38437303902998421</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35167698378298806</v>
+        <v>0.68453541570629106</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6458927708748812E-2</v>
+        <v>0.55228695838771169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21665632849104033</v>
+        <v>0.58204367789648603</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45681422509124947</v>
+        <v>0.1588061293106855</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21321016332716269</v>
+        <v>0.53248122113767038</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8341180720692924E-2</v>
+        <v>0.67394052221479672</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59300860574992609</v>
+        <v>2.0659074521533705E-2</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11280165123587627</v>
+        <v>0.69568649856767084</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32149561039209706</v>
+        <v>0.97379116564507928</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26214014742627767</v>
+        <v>0.67593410889805994</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95543223604057215</v>
+        <v>0.78549238577835867</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11278094957975571</v>
+        <v>0.65773469997143219</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77168083644107532</v>
+        <v>0.57593376277372499</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55355819137552287</v>
+        <v>0.83609406204303027</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9982085984187713</v>
+        <v>0.14077821810631341</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24810297198372377</v>
+        <v>0.54271295200303238</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38675531071768099</v>
+        <v>0.14259693766668857</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21684623482213894</v>
+        <v>0.25858655624460047</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49985636505138009</v>
+        <v>0.14658454651607078</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3949729170060613</v>
+        <v>7.6449727742125995E-2</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1531016970793061</v>
+        <v>0.17767045445313501</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10921215553040364</v>
+        <v>0.16049026519391019</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>3.332717037729116E-2</v>
+        <v>0.67072626192343843</v>
       </c>
     </row>
   </sheetData>
@@ -33223,7 +33223,7 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33603,7 +33603,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>-0.69314718055994529</v>
+        <v>-0.916290731874155</v>
       </c>
       <c r="E7" s="17">
         <f>0.19/0.8</f>
@@ -33613,7 +33613,7 @@
         <v>0.1</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H7">
         <v>1.1000000000000001</v>
@@ -34282,7 +34282,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="6"/>
-        <v>1.791759469228055</v>
+        <v>1.9600947840472698</v>
       </c>
       <c r="C18">
         <f t="shared" si="6"/>
@@ -34293,7 +34293,7 @@
         <v>2.341805806147327</v>
       </c>
       <c r="E18" s="17">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -34309,7 +34309,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -34335,7 +34335,7 @@
       </c>
       <c r="V18">
         <f>EXP(B18)</f>
-        <v>6</v>
+        <v>7.1000000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
@@ -34405,7 +34405,7 @@
       </c>
       <c r="B20">
         <f>-LN(1/E20 -1)*1000</f>
-        <v>20.200680000000126</v>
+        <v>20.204687317539278</v>
       </c>
       <c r="C20">
         <f>-LN(1/F20 -1)</f>
@@ -34413,16 +34413,16 @@
       </c>
       <c r="D20">
         <f>-LN(1/G20 -1)</f>
-        <v>0.84729786038720356</v>
+        <v>0.40546510810816427</v>
       </c>
       <c r="E20" s="17">
-        <v>0.50504999827283203</v>
+        <v>0.50505100000000003</v>
       </c>
       <c r="F20">
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H20">
         <v>4.0999999999999996</v>
@@ -34432,7 +34432,7 @@
       </c>
       <c r="J20">
         <f>1000/(E20*(1-E20))</f>
-        <v>4000.4080813492396</v>
+        <v>4000.4082432773916</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -34458,7 +34458,7 @@
       </c>
       <c r="V20">
         <f>1/(1+EXP(-B20/1000))</f>
-        <v>0.50504999827283203</v>
+        <v>0.50505100000000003</v>
       </c>
       <c r="W20" t="s">
         <v>247</v>
@@ -34715,7 +34715,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="17">
         <v>0.17499999999999999</v>
@@ -34724,7 +34724,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H25">
         <v>4.0529999999999999</v>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,32 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="460" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{085866F6-F713-4322-8B58-AE14DD25B6B3}"/>
+  <xr:revisionPtr revIDLastSave="641" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB703676-555A-4236-8AC8-1365B807F2AA}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" firstSheet="1" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
     <sheet name="PARS" sheetId="3" r:id="rId2"/>
-    <sheet name="MOMS" sheetId="2" r:id="rId3"/>
-    <sheet name="W" sheetId="10" r:id="rId4"/>
-    <sheet name="W_" sheetId="8" r:id="rId5"/>
-    <sheet name="parskickedout" sheetId="5" r:id="rId6"/>
-    <sheet name="Moments_other" sheetId="7" r:id="rId7"/>
-    <sheet name="Moments_psid" sheetId="6" r:id="rId8"/>
-    <sheet name="OUTSIDE MOMENT" sheetId="1" r:id="rId9"/>
-    <sheet name="W_psid" sheetId="4" r:id="rId10"/>
-    <sheet name="W_other" sheetId="9" r:id="rId11"/>
-    <sheet name="Ns" sheetId="12" r:id="rId12"/>
-    <sheet name="calibration of jseg" sheetId="13" r:id="rId13"/>
+    <sheet name="PARS4" sheetId="14" r:id="rId3"/>
+    <sheet name="MOMS" sheetId="2" r:id="rId4"/>
+    <sheet name="W" sheetId="10" r:id="rId5"/>
+    <sheet name="W_" sheetId="8" r:id="rId6"/>
+    <sheet name="parskickedout" sheetId="5" r:id="rId7"/>
+    <sheet name="Moments_other" sheetId="7" r:id="rId8"/>
+    <sheet name="Moments_psid" sheetId="6" r:id="rId9"/>
+    <sheet name="OUTSIDE MOMENT" sheetId="1" r:id="rId10"/>
+    <sheet name="W_psid" sheetId="4" r:id="rId11"/>
+    <sheet name="W_other" sheetId="9" r:id="rId12"/>
+    <sheet name="Ns" sheetId="12" r:id="rId13"/>
+    <sheet name="calibration of jseg" sheetId="13" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MOMS!$A$1:$J$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MOMS!$A$1:$J$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$V$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">W_psid!$A$1:$CT$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PARS4!$A$1:$V$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">W_psid!$A$1:$CT$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,6 +96,44 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={91CC4FB8-8432-41C2-9810-BA59FAD18D8A}</author>
+    <author>tc={66FC5505-D8B6-45BF-B4E7-4873685A6265}</author>
+    <author>tc={2EACC50B-CB42-4AF7-A866-1DFC914CE1CC}</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{91CC4FB8-8432-41C2-9810-BA59FAD18D8A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    =EXP(-0.0135*6.6667)*2*(1-0.156527)/(0.193*(2206.542/(24*365)+EXP(-0.26248)*(2206.542/(24*365)-671.547/(24*365))))
+Reply:
+    made it so it would take singles into account</t>
+      </text>
+    </comment>
+    <comment ref="U38" authorId="1" shapeId="0" xr:uid="{66FC5505-D8B6-45BF-B4E7-4873685A6265}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    add later - and get rid of THETA?</t>
+      </text>
+    </comment>
+    <comment ref="U40" authorId="2" shapeId="0" xr:uid="{2EACC50B-CB42-4AF7-A866-1DFC914CE1CC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    cannot do comparative statics both for THETAHW and for LAMBDA</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={24CA9AAB-B05B-438F-BBC5-B4CC807A3D30}</author>
     <author>tc={2103E1ED-1B9E-422E-A9DF-B818A525CF20}</author>
     <author>tc={106AE1D3-AEA2-4170-B55D-B13FDFF8A93D}</author>
@@ -150,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="252">
   <si>
     <t>label</t>
   </si>
@@ -895,6 +935,18 @@
   <si>
     <t>The outcomes are VERY sensitive to this. This explains why this is also very precisely estimated?</t>
   </si>
+  <si>
+    <t>wcc</t>
+  </si>
+  <si>
+    <t>p0_4</t>
+  </si>
+  <si>
+    <t>daddS</t>
+  </si>
+  <si>
+    <t>aaddS</t>
+  </si>
 </sst>
 </file>
 
@@ -1378,6 +1430,23 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E2" dT="2022-07-11T17:13:01.06" personId="{8C1B3605-3BBC-4A56-9DEA-CD9622C706EB}" id="{91CC4FB8-8432-41C2-9810-BA59FAD18D8A}">
+    <text>=EXP(-0.0135*6.6667)*2*(1-0.156527)/(0.193*(2206.542/(24*365)+EXP(-0.26248)*(2206.542/(24*365)-671.547/(24*365))))</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2022-07-12T00:27:50.56" personId="{8C1B3605-3BBC-4A56-9DEA-CD9622C706EB}" id="{5B1FC92D-12CA-4AC7-A1BA-3EF1CF44249F}" parentId="{91CC4FB8-8432-41C2-9810-BA59FAD18D8A}">
+    <text>made it so it would take singles into account</text>
+  </threadedComment>
+  <threadedComment ref="U38" dT="2022-07-11T22:02:30.08" personId="{8C1B3605-3BBC-4A56-9DEA-CD9622C706EB}" id="{66FC5505-D8B6-45BF-B4E7-4873685A6265}">
+    <text>add later - and get rid of THETA?</text>
+  </threadedComment>
+  <threadedComment ref="U40" dT="2022-07-11T19:37:37.39" personId="{8C1B3605-3BBC-4A56-9DEA-CD9622C706EB}" id="{2EACC50B-CB42-4AF7-A866-1DFC914CE1CC}">
+    <text>cannot do comparative statics both for THETAHW and for LAMBDA</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B3" dT="2022-06-23T17:14:10.46" personId="{8C1B3605-3BBC-4A56-9DEA-CD9622C706EB}" id="{24CA9AAB-B05B-438F-BBC5-B4CC807A3D30}">
     <text>since it makes a difference, this makes me more comfortable</text>
   </threadedComment>
@@ -1394,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1471,16 +1540,16 @@
         <v>78</v>
       </c>
       <c r="B2">
-        <f>(D2*P2+C2*(1-P2))*$R$7 +(1-$R$7)*PARS!B2</f>
-        <v>20.430907591983047</v>
+        <f>PARS!B2</f>
+        <v>21.03734690643789</v>
       </c>
       <c r="C2">
         <f>PARS!C2</f>
-        <v>20.430907591983047</v>
+        <v>21.03734690643789</v>
       </c>
       <c r="D2">
         <f>PARS!D2</f>
-        <v>20.430907591983047</v>
+        <v>21.03734690643789</v>
       </c>
       <c r="E2" t="b">
         <f t="shared" ref="E2:E49" si="0">AND(D2&gt;=B2,B2&gt;=C2,D2&gt;=C2)</f>
@@ -1531,7 +1600,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.24924809493439604</v>
+        <v>4.16963103111887E-2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1539,7 +1608,7 @@
         <v>111</v>
       </c>
       <c r="B3">
-        <f>(D3*$R$4+C3*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B3</f>
+        <f>PARS!B3</f>
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="C3">
@@ -1599,7 +1668,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.91918959618421825</v>
+        <v>0.3024422396214822</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1610,8 +1679,7 @@
         <v>75</v>
       </c>
       <c r="B4">
-        <f>(D4*$R$4+C4*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B4</f>
-        <v>-0.15904043337211662</v>
+        <v>-0.46101241336700499</v>
       </c>
       <c r="C4">
         <f>PARS!C4</f>
@@ -1670,14 +1738,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3872144289193542</v>
+        <v>0.64188785097531753</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.24886664765071842</v>
+        <v>0.82321378674783952</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1685,8 +1753,8 @@
         <v>76</v>
       </c>
       <c r="B5">
-        <f>(D5*$R$4+C5*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B5</f>
-        <v>-0.15904043337211662</v>
+        <f>PARS!B5</f>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
@@ -1745,7 +1813,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.270614501505407</v>
+        <v>0.97806804023730431</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1753,7 +1821,7 @@
         <v>106</v>
       </c>
       <c r="B6">
-        <f>(D6*$R$4+C6*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B6</f>
+        <f>PARS!B6</f>
         <v>0.20836072497837904</v>
       </c>
       <c r="C6">
@@ -1813,7 +1881,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30128520077770982</v>
+        <v>0.12621304320051618</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1824,8 +1892,7 @@
         <v>74</v>
       </c>
       <c r="B7">
-        <f>(D7*$R$4+C7*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B7</f>
-        <v>-1.4541980659147762</v>
+        <v>-1.00655521417567</v>
       </c>
       <c r="C7">
         <f>PARS!C7</f>
@@ -1884,7 +1951,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49138438529321427</v>
+        <v>0.74355143158355297</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1895,8 +1962,7 @@
         <v>92</v>
       </c>
       <c r="B8">
-        <f>(D8*$R$4+C8*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B8</f>
-        <v>0.1754403682684286</v>
+        <v>0.57312619333459902</v>
       </c>
       <c r="C8">
         <f>PARS!C8</f>
@@ -1955,7 +2021,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3207455789894702E-2</v>
+        <v>0.39724073783709402</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1963,8 +2029,7 @@
         <v>93</v>
       </c>
       <c r="B9">
-        <f>(D9*$R$4+C9*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B9</f>
-        <v>1.3693044574403508</v>
+        <v>1.72155169240169</v>
       </c>
       <c r="C9">
         <f>PARS!C9</f>
@@ -2023,7 +2088,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18882673158519281</v>
+        <v>0.72811320204081287</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2031,8 +2096,8 @@
         <v>98</v>
       </c>
       <c r="B10">
-        <f>(D10*$R$4+C10*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B10</f>
-        <v>-4.7468657715011776E-2</v>
+        <f>PARS!B10</f>
+        <v>0</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
@@ -2091,7 +2156,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4234316365236253E-2</v>
+        <v>0.49476047408839297</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2099,8 +2164,8 @@
         <v>95</v>
       </c>
       <c r="B11">
-        <f>(D11*$R$4+C11*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B11</f>
-        <v>-1.7070063093644778</v>
+        <f>PARS!B11</f>
+        <v>-1.8703217532696195</v>
       </c>
       <c r="C11">
         <f>PARS!C11</f>
@@ -2159,7 +2224,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26650772512332843</v>
+        <v>0.89378962096080317</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2167,8 +2232,8 @@
         <v>94</v>
       </c>
       <c r="B12">
-        <f>(D12*$R$4+C12*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B12</f>
-        <v>0.56691861389166487</v>
+        <f>PARS!B12</f>
+        <v>0.66388228523152282</v>
       </c>
       <c r="C12">
         <f>PARS!C12</f>
@@ -2227,7 +2292,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8810665861026139</v>
+        <v>0.86453855308475125</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2235,8 +2300,8 @@
         <v>97</v>
       </c>
       <c r="B13">
-        <f>(D13*$R$4+C13*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B13</f>
-        <v>0.43105624709792667</v>
+        <f>PARS!B13</f>
+        <v>-8.9025505804146685E-2</v>
       </c>
       <c r="C13">
         <f>PARS!C13</f>
@@ -2295,7 +2360,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73616611509272278</v>
+        <v>0.29725457202220074</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2303,8 +2368,8 @@
         <v>99</v>
       </c>
       <c r="B14">
-        <f>(D14*$R$4+C14*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B14</f>
-        <v>0.26473454458785806</v>
+        <f>PARS!B14</f>
+        <v>0.25702382969694959</v>
       </c>
       <c r="C14">
         <f>PARS!C14</f>
@@ -2363,7 +2428,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62466283966375291</v>
+        <v>0.55125322541293942</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2371,8 +2436,8 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <f>(D15*$R$4+C15*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B15</f>
-        <v>-2.4734760817332395</v>
+        <f>PARS!B15</f>
+        <v>-2.3633295407393207</v>
       </c>
       <c r="C15">
         <f>PARS!C15</f>
@@ -2431,7 +2496,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98299815018824588</v>
+        <v>0.92602092805223923</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2439,8 +2504,7 @@
         <v>77</v>
       </c>
       <c r="B16">
-        <f>(D16*$R$4+C16*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B16</f>
-        <v>-1.5193514223633309</v>
+        <v>-1.7221055246725101</v>
       </c>
       <c r="C16">
         <f>PARS!C16</f>
@@ -2499,7 +2563,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66996438775054734</v>
+        <v>0.87926440115181714</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2507,12 +2571,11 @@
         <v>96</v>
       </c>
       <c r="B17">
-        <f>(D17*$R$4+C17*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B17</f>
-        <v>-0.68577289000744446</v>
+        <v>-0.47621225479163498</v>
       </c>
       <c r="C17">
         <f>PARS!C17</f>
-        <v>-1.0498221244986778</v>
+        <v>-1.2039728043259361</v>
       </c>
       <c r="D17">
         <f>PARS!D17</f>
@@ -2567,7 +2630,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.137647570941548</v>
+        <v>0.61716271391235766</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2575,8 +2638,7 @@
         <v>71</v>
       </c>
       <c r="B18">
-        <f>(D18*$R$4+C18*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B18</f>
-        <v>2.0044767163546529</v>
+        <v>2.2757111368012901</v>
       </c>
       <c r="C18">
         <f>PARS!C18</f>
@@ -2635,7 +2697,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87228088339085375</v>
+        <v>0.16674948733827788</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2643,8 +2705,8 @@
         <v>72</v>
       </c>
       <c r="B19">
-        <f>(D19*$R$4+C19*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B19</f>
-        <v>1001.497866136777</v>
+        <f>PARS!B19</f>
+        <v>2000</v>
       </c>
       <c r="C19">
         <f>PARS!C19</f>
@@ -2703,7 +2765,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29489860936199441</v>
+        <v>0.98325076683942059</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2711,8 +2773,7 @@
         <v>73</v>
       </c>
       <c r="B20">
-        <f>(D20*$R$4+C20*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B20</f>
-        <v>10.223983191202088</v>
+        <v>0.405465108108164</v>
       </c>
       <c r="C20">
         <f>PARS!C20</f>
@@ -2720,11 +2781,11 @@
       </c>
       <c r="D20">
         <f>PARS!D20</f>
-        <v>0.40546510810816427</v>
+        <v>405.46510810816426</v>
       </c>
       <c r="E20" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <f>PARS!K20</f>
@@ -2771,7 +2832,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63349364606797454</v>
+        <v>0.12948690657688822</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2779,8 +2840,7 @@
         <v>68</v>
       </c>
       <c r="B21">
-        <f>(D21*$R$4+C21*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B21</f>
-        <v>0.46822357044265916</v>
+        <v>0.58116521652964404</v>
       </c>
       <c r="C21">
         <f>PARS!C21</f>
@@ -2839,7 +2899,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66411087419527515</v>
+        <v>0.41865013114617944</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2847,8 +2907,7 @@
         <v>79</v>
       </c>
       <c r="B22">
-        <f>(D22*$R$4+C22*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B22</f>
-        <v>4.1706387222627157</v>
+        <v>1.5727815896719699</v>
       </c>
       <c r="C22">
         <f>PARS!C22</f>
@@ -2907,7 +2966,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50149173435682748</v>
+        <v>0.37099886413458893</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2915,7 +2974,7 @@
         <v>80</v>
       </c>
       <c r="B23">
-        <f>(D23*$R$4+C23*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B23</f>
+        <f>PARS!B23</f>
         <v>0</v>
       </c>
       <c r="C23">
@@ -2975,7 +3034,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3367379045758936E-3</v>
+        <v>0.2504999670320508</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -2983,8 +3042,7 @@
         <v>190</v>
       </c>
       <c r="B24">
-        <f>(D24*$R$4+C24*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B24</f>
-        <v>-2.4E-2</v>
+        <v>-0.127143713834416</v>
       </c>
       <c r="C24">
         <f>PARS!C24</f>
@@ -3043,7 +3101,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40373244855741164</v>
+        <v>7.9269228527318658E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3051,8 +3109,7 @@
         <v>81</v>
       </c>
       <c r="B25">
-        <f>(D25*$R$4+C25*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B25</f>
-        <v>0.23749999999999999</v>
+        <v>0.44372505300140302</v>
       </c>
       <c r="C25">
         <f>PARS!C25</f>
@@ -3111,7 +3168,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78832560397061946</v>
+        <v>2.3178934408527696E-2</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3119,8 +3176,7 @@
         <v>82</v>
       </c>
       <c r="B26">
-        <f>(D26*$R$4+C26*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B26</f>
-        <v>7.9911225843320222E-2</v>
+        <v>-0.356674943938732</v>
       </c>
       <c r="C26">
         <f>PARS!C26</f>
@@ -3179,7 +3235,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38437303902998421</v>
+        <v>0.67881912705962233</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3187,7 +3243,7 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <f>(D27*$R$4+C27*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B27</f>
+        <f>PARS!B27</f>
         <v>0</v>
       </c>
       <c r="C27">
@@ -3247,7 +3303,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68453541570629106</v>
+        <v>0.93733565317112311</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3255,7 +3311,6 @@
         <v>103</v>
       </c>
       <c r="B28">
-        <f>(D28*$R$4+C28*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B28</f>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C28">
@@ -3315,7 +3370,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55228695838771169</v>
+        <v>0.26561794364320124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3323,8 +3378,7 @@
         <v>86</v>
       </c>
       <c r="B29">
-        <f>(D29*$R$4+C29*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B29</f>
-        <v>1.1489208938352913</v>
+        <v>0.15865911498930299</v>
       </c>
       <c r="C29">
         <f>PARS!C29</f>
@@ -3383,7 +3437,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58204367789648603</v>
+        <v>0.87333071971885123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3391,8 +3445,7 @@
         <v>83</v>
       </c>
       <c r="B30">
-        <f>(D30*$R$4+C30*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B30</f>
-        <v>0.9915910072534686</v>
+        <v>0.64466835400265698</v>
       </c>
       <c r="C30">
         <f>PARS!C30</f>
@@ -3451,7 +3504,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1588061293106855</v>
+        <v>0.79172633593924524</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3459,8 +3512,7 @@
         <v>84</v>
       </c>
       <c r="B31">
-        <f>(D31*$R$4+C31*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B31</f>
-        <v>1.2089325879336936</v>
+        <v>-1.3933629538640899</v>
       </c>
       <c r="C31">
         <f>PARS!C31</f>
@@ -3519,7 +3571,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53248122113767038</v>
+        <v>0.48075732692109441</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3527,7 +3579,7 @@
         <v>85</v>
       </c>
       <c r="B32">
-        <f>(D32*$R$4+C32*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B32</f>
+        <f>PARS!B32</f>
         <v>0.70559799999999995</v>
       </c>
       <c r="C32">
@@ -3587,7 +3639,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67394052221479672</v>
+        <v>0.14478728669856578</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3595,8 +3647,7 @@
         <v>87</v>
       </c>
       <c r="B33">
-        <f>(D33*$R$4+C33*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B33</f>
-        <v>-0.40495307142409159</v>
+        <v>0.52035580519809899</v>
       </c>
       <c r="C33">
         <f>PARS!C33</f>
@@ -3655,7 +3706,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0659074521533705E-2</v>
+        <v>0.49579712362805439</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3663,8 +3714,7 @@
         <v>88</v>
       </c>
       <c r="B34">
-        <f>(D34*$R$4+C34*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B34</f>
-        <v>-0.34930065338623162</v>
+        <v>-0.139740018170423</v>
       </c>
       <c r="C34">
         <f>PARS!C34</f>
@@ -3723,7 +3773,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69568649856767084</v>
+        <v>9.670339857496224E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3731,8 +3781,7 @@
         <v>89</v>
       </c>
       <c r="B35">
-        <f>(D35*$R$4+C35*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B35</f>
-        <v>0.69285625485150859</v>
+        <v>2.0588207871097302</v>
       </c>
       <c r="C35">
         <f>PARS!C35</f>
@@ -3791,7 +3840,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97379116564507928</v>
+        <v>0.7405359127165918</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3799,8 +3848,7 @@
         <v>102</v>
       </c>
       <c r="B36">
-        <f>(D36*$R$4+C36*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B36</f>
-        <v>0.40115232708258031</v>
+        <v>2.03594486757585</v>
       </c>
       <c r="C36">
         <f>PARS!C36</f>
@@ -3859,7 +3907,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67593410889805994</v>
+        <v>0.30859131920183758</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3867,8 +3915,7 @@
         <v>69</v>
       </c>
       <c r="B37">
-        <f>(D37*$R$4+C37*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B37</f>
-        <v>0.31730795701037634</v>
+        <v>-8.4489994325880006E-3</v>
       </c>
       <c r="C37">
         <f>PARS!C37</f>
@@ -3927,7 +3974,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78549238577835867</v>
+        <v>0.7929762203774734</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3935,7 +3982,7 @@
         <v>107</v>
       </c>
       <c r="B38">
-        <f>(D38*$R$4+C38*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B38</f>
+        <f>PARS!B38</f>
         <v>1</v>
       </c>
       <c r="C38">
@@ -3995,7 +4042,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65773469997143219</v>
+        <v>0.6991065232127216</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4003,16 +4050,16 @@
         <v>108</v>
       </c>
       <c r="B39">
-        <f>(D39*$R$4+C39*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B39</f>
-        <v>1.9468676899999999</v>
+        <f>PARS!B39</f>
+        <v>1.8560469999999998</v>
       </c>
       <c r="C39">
         <f>PARS!C39</f>
-        <v>1.9468676899999999</v>
+        <v>1.8560469999999998</v>
       </c>
       <c r="D39">
         <f>PARS!D39</f>
-        <v>1.9468676899999999</v>
+        <v>1.8560469999999998</v>
       </c>
       <c r="E39" t="b">
         <f t="shared" si="0"/>
@@ -4063,7 +4110,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57593376277372499</v>
+        <v>0.67220999423687644</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4071,16 +4118,16 @@
         <v>109</v>
       </c>
       <c r="B40">
-        <f>(D40*$R$4+C40*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B40</f>
-        <v>1.8597309999999999E-2</v>
+        <f>PARS!B40</f>
+        <v>7.2171439999999989E-2</v>
       </c>
       <c r="C40">
         <f>PARS!C40</f>
-        <v>1.8597309999999999E-2</v>
+        <v>7.2171439999999989E-2</v>
       </c>
       <c r="D40">
         <f>PARS!D40</f>
-        <v>1.8597309999999999E-2</v>
+        <v>7.2171439999999989E-2</v>
       </c>
       <c r="E40" t="b">
         <f t="shared" si="0"/>
@@ -4131,7 +4178,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83609406204303027</v>
+        <v>0.35068871070300667</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4139,7 +4186,7 @@
         <v>105</v>
       </c>
       <c r="B41">
-        <f>(D41*$R$4+C41*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B41</f>
+        <f>PARS!B41</f>
         <v>0.26712328767123289</v>
       </c>
       <c r="C41">
@@ -4199,7 +4246,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14077821810631341</v>
+        <v>0.93284530844150504</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4207,7 +4254,7 @@
         <v>110</v>
       </c>
       <c r="B42">
-        <f>(D42*$R$4+C42*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B42</f>
+        <f>PARS!B42</f>
         <v>1</v>
       </c>
       <c r="C42">
@@ -4267,7 +4314,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54271295200303238</v>
+        <v>0.31002171979609072</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4275,7 +4322,7 @@
         <v>90</v>
       </c>
       <c r="B43">
-        <f>(D43*$R$4+C43*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B43</f>
+        <f>PARS!B43</f>
         <v>0.1449</v>
       </c>
       <c r="C43">
@@ -4335,7 +4382,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14259693766668857</v>
+        <v>0.98387684048361046</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4343,7 +4390,7 @@
         <v>91</v>
       </c>
       <c r="B44">
-        <f>(D44*$R$4+C44*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B44</f>
+        <f>PARS!B44</f>
         <v>0.1449</v>
       </c>
       <c r="C44">
@@ -4403,7 +4450,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25858655624460047</v>
+        <v>0.10575222892394553</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4411,7 +4458,7 @@
         <v>101</v>
       </c>
       <c r="B45">
-        <f>(D45*$R$4+C45*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B45</f>
+        <f>PARS!B45</f>
         <v>0</v>
       </c>
       <c r="C45">
@@ -4471,7 +4518,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14658454651607078</v>
+        <v>0.23004190606365216</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4479,7 +4526,7 @@
         <v>104</v>
       </c>
       <c r="B46">
-        <f>(D46*$R$4+C46*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B46</f>
+        <f>PARS!B46</f>
         <v>0</v>
       </c>
       <c r="C46">
@@ -4539,7 +4586,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6449727742125995E-2</v>
+        <v>0.22878475066616399</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4547,16 +4594,16 @@
         <v>179</v>
       </c>
       <c r="B47">
-        <f>(D47*$R$4+C47*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B47</f>
-        <v>1.0547228200000001</v>
+        <f>PARS!B47</f>
+        <v>1.0696163149411613</v>
       </c>
       <c r="C47">
         <f>PARS!C47</f>
-        <v>1.0547228200000001</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="D47">
         <f>PARS!D47</f>
-        <v>1.0547228200000001</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="E47" t="b">
         <f t="shared" si="0"/>
@@ -4607,7 +4654,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17767045445313501</v>
+        <v>0.30424062893179071</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4615,16 +4662,16 @@
         <v>180</v>
       </c>
       <c r="B48">
-        <f>(D48*$R$4+C48*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B48</f>
-        <v>0.99413825</v>
+        <f>PARS!B48</f>
+        <v>0.99381918034015848</v>
       </c>
       <c r="C48">
         <f>PARS!C48</f>
-        <v>0.99413825</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="D48">
         <f>PARS!D48</f>
-        <v>0.99413825</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="E48" t="b">
         <f t="shared" si="0"/>
@@ -4675,7 +4722,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16049026519391019</v>
+        <v>0.25968288327710798</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4683,16 +4730,16 @@
         <v>181</v>
       </c>
       <c r="B49">
-        <f>(D49*$R$4+C49*(1-$R$4))*$R$7 +(1-$R$7)*PARS!B49</f>
-        <v>0.96310580999999995</v>
+        <f>PARS!B49</f>
+        <v>0.9618468890261952</v>
       </c>
       <c r="C49">
         <f>PARS!C49</f>
-        <v>0.96310580999999995</v>
+        <v>0.9618468890261952</v>
       </c>
       <c r="D49">
         <f>PARS!D49</f>
-        <v>0.96310580999999995</v>
+        <v>0.9618468890261952</v>
       </c>
       <c r="E49" t="b">
         <f t="shared" si="0"/>
@@ -4743,7 +4790,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67072626192343843</v>
+        <v>0.83941293194279099</v>
       </c>
     </row>
   </sheetData>
@@ -4752,6 +4799,279 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3232877D-0BFB-41E6-9597-1FA0FC36E360}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.193</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C3">
+        <v>18.518263999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <f>1-[1]pinc08!$B$14</f>
+        <v>0.15652701064259733</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="2">
+        <f>1-15.13%</f>
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="C5">
+        <v>7.4833220000000006E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <f>EXP(-0.0135*6.6667)*2*(1-0.156527)/(0.193*(C17))</f>
+        <v>20.65970855393061</v>
+      </c>
+      <c r="F16">
+        <f>1/3+2/3*(0.1449)</f>
+        <v>0.42993333333333328</v>
+      </c>
+      <c r="H16">
+        <f>PARS!E36</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <f>2206.542/(24*365)+EXP(-0.26248)*(2206.542/(24*365)-671.547/(24*365))</f>
+        <v>0.38666332602882758</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" t="s">
+        <v>222</v>
+      </c>
+      <c r="J18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <f>0.5*(((2206.542/(24*365)+EXP(-0.244)*(2206.542/(24*365)-671.547/(24*365)))*(1-0.22) + (2269/(24*365))*(0.22)))*EXP(0.0135*H16)</f>
+        <v>0.1915620464160101</v>
+      </c>
+      <c r="H19">
+        <f>F19*G27</f>
+        <v>3.9137864684566694</v>
+      </c>
+      <c r="J19">
+        <f>H19*(1/(1-0.16))</f>
+        <v>4.6592696053055587</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <f>1873/(24*365)*EXP(0.0135*H16)</f>
+        <v>0.22720456918535004</v>
+      </c>
+      <c r="H21">
+        <f>F21*G27</f>
+        <v>4.6419955575022058</v>
+      </c>
+      <c r="J21">
+        <f>H21*(1/(1-0.16))</f>
+        <v>5.5261851875026258</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <f>(F19*(1-F16)+F21*F16)/(1-0.16)</f>
+        <v>0.24629280361743056</v>
+      </c>
+      <c r="J24">
+        <f>J19*(1-F16)+J21*F16</f>
+        <v>5.0319855112781511</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <f>1/(F24*0.193)</f>
+        <v>21.03734690643789</v>
+      </c>
+      <c r="G27">
+        <v>20.430907591983047</v>
+      </c>
+      <c r="J27">
+        <f>J24*0.193</f>
+        <v>0.97117320367668314</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{92A2153B-0B3A-4ADE-A357-5EF456F1387C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5CC74-B573-41B1-AB75-48DBC5AE1670}">
   <dimension ref="A1:DB104"/>
   <sheetViews>
@@ -32687,7 +33007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641FA06B-861E-4739-90D9-A8300FC4235B}">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -33020,7 +33340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A18632C-4D93-40C5-87DA-5963032447B4}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -33067,7 +33387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BED87C-80BD-46F2-8F90-C5A416977A8A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -33222,8 +33542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33310,26 +33630,26 @@
       </c>
       <c r="B2" s="3">
         <f>E2</f>
-        <v>20.430907591983047</v>
+        <v>21.03734690643789</v>
       </c>
       <c r="C2">
         <f>F2</f>
-        <v>20.430907591983047</v>
+        <v>21.03734690643789</v>
       </c>
       <c r="D2">
         <f>G2</f>
-        <v>20.430907591983047</v>
+        <v>21.03734690643789</v>
       </c>
       <c r="E2" s="17">
-        <v>20.430907591983047</v>
+        <v>21.03734690643789</v>
       </c>
       <c r="F2">
         <f>E2</f>
-        <v>20.430907591983047</v>
+        <v>21.03734690643789</v>
       </c>
       <c r="G2">
         <f>E2</f>
-        <v>20.430907591983047</v>
+        <v>21.03734690643789</v>
       </c>
       <c r="H2">
         <v>999</v>
@@ -33595,7 +33915,7 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D9" si="3">LN(E7)</f>
-        <v>-1.4375876555074412</v>
+        <v>-1.4323382996212974</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
@@ -33606,8 +33926,8 @@
         <v>-0.916290731874155</v>
       </c>
       <c r="E7" s="17">
-        <f>0.19/0.8</f>
-        <v>0.23749999999999999</v>
+        <f>0.191/0.8</f>
+        <v>0.23874999999999999</v>
       </c>
       <c r="F7">
         <v>0.1</v>
@@ -33623,7 +33943,7 @@
       </c>
       <c r="J7">
         <f>1/E7</f>
-        <v>4.2105263157894735</v>
+        <v>4.1884816753926701</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -33649,7 +33969,7 @@
       </c>
       <c r="V7">
         <f>EXP(B7)</f>
-        <v>0.23749999999999999</v>
+        <v>0.23874999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
@@ -34158,7 +34478,7 @@
       </c>
       <c r="B16">
         <f>LN(-E16)</f>
-        <v>-1.4188175528254507</v>
+        <v>-1.4146938356415886</v>
       </c>
       <c r="C16">
         <f>LN(-G16)</f>
@@ -34169,7 +34489,7 @@
         <v>-1.1647520911726548</v>
       </c>
       <c r="E16" s="17">
-        <v>-0.24199999999999999</v>
+        <v>-0.24299999999999999</v>
       </c>
       <c r="F16">
         <v>-0.312</v>
@@ -34185,7 +34505,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>-4.1322314049586781</v>
+        <v>-4.1152263374485596</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -34211,7 +34531,7 @@
       </c>
       <c r="V16">
         <f>-EXP(B16)</f>
-        <v>-0.24199999999999997</v>
+        <v>-0.24299999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
@@ -34220,21 +34540,21 @@
       </c>
       <c r="B17">
         <f t="shared" ref="B17:D18" si="6">LN(E17)</f>
-        <v>-0.69314718055994529</v>
+        <v>-0.41551544396166579</v>
       </c>
       <c r="C17">
         <f t="shared" si="6"/>
-        <v>-1.0498221244986778</v>
+        <v>-1.2039728043259361</v>
       </c>
       <c r="D17">
         <f t="shared" si="6"/>
         <v>-0.43078291609245423</v>
       </c>
       <c r="E17" s="17">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="F17">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G17">
         <v>0.65</v>
@@ -34247,7 +34567,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.5151515151515151</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -34273,7 +34593,7 @@
       </c>
       <c r="V17">
         <f>EXP(B17)</f>
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
@@ -34282,7 +34602,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="6"/>
-        <v>1.9600947840472698</v>
+        <v>1.9878743481543455</v>
       </c>
       <c r="C18">
         <f t="shared" si="6"/>
@@ -34293,7 +34613,7 @@
         <v>2.341805806147327</v>
       </c>
       <c r="E18" s="17">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -34309,7 +34629,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>0.14084507042253522</v>
+        <v>0.13698630136986301</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -34335,7 +34655,7 @@
       </c>
       <c r="V18">
         <f>EXP(B18)</f>
-        <v>7.1000000000000005</v>
+        <v>7.3000000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
@@ -34405,18 +34725,18 @@
       </c>
       <c r="B20">
         <f>-LN(1/E20 -1)*1000</f>
-        <v>20.204687317539278</v>
+        <v>24.401210673453068</v>
       </c>
       <c r="C20">
-        <f>-LN(1/F20 -1)</f>
+        <f t="shared" ref="C20:D20" si="7">-LN(1/F20 -1)*1000</f>
         <v>0</v>
       </c>
       <c r="D20">
-        <f>-LN(1/G20 -1)</f>
-        <v>0.40546510810816427</v>
+        <f t="shared" si="7"/>
+        <v>405.46510810816426</v>
       </c>
       <c r="E20" s="17">
-        <v>0.50505100000000003</v>
+        <v>0.50609999999999999</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -34432,7 +34752,7 @@
       </c>
       <c r="J20">
         <f>1000/(E20*(1-E20))</f>
-        <v>4000.4082432773916</v>
+        <v>4000.5954486265737</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -34458,7 +34778,7 @@
       </c>
       <c r="V20">
         <f>1/(1+EXP(-B20/1000))</f>
-        <v>0.50505100000000003</v>
+        <v>0.50609999999999999</v>
       </c>
       <c r="W20" t="s">
         <v>247</v>
@@ -34478,7 +34798,7 @@
       </c>
       <c r="B21">
         <f>LN(E21/10)</f>
-        <v>0.41871033485818504</v>
+        <v>0.42526773540434409</v>
       </c>
       <c r="C21">
         <f>LN(F21/10)</f>
@@ -34489,7 +34809,7 @@
         <v>0.61518563909023349</v>
       </c>
       <c r="E21" s="17">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F21">
         <v>14.5</v>
@@ -34505,7 +34825,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>6.5789473684210523E-2</v>
+        <v>6.535947712418301E-2</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -34531,7 +34851,7 @@
       </c>
       <c r="V21">
         <f>EXP(B21)*10</f>
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
@@ -34650,19 +34970,19 @@
         <v>190</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:D25" si="7">E24</f>
-        <v>-1.7999999999999999E-2</v>
+        <f t="shared" ref="B24:D25" si="8">E24</f>
+        <v>-1.6E-2</v>
       </c>
       <c r="C24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.15</v>
       </c>
       <c r="D24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="E24" s="17">
-        <v>-1.7999999999999999E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="F24">
         <f>-0.15</f>
@@ -34706,15 +35026,15 @@
         <v>81</v>
       </c>
       <c r="B25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="E25" s="17">
@@ -34762,7 +35082,7 @@
       </c>
       <c r="B26">
         <f>LN(E26)</f>
-        <v>-0.35667494393873245</v>
+        <v>-0.51082562376599072</v>
       </c>
       <c r="C26">
         <f>LN(F26)</f>
@@ -34773,7 +35093,7 @@
         <v>1.0986122886681098</v>
       </c>
       <c r="E26" s="17">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F26">
         <v>0.7</v>
@@ -34788,8 +35108,8 @@
         <v>4</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26" si="8">1/E26</f>
-        <v>1.4285714285714286</v>
+        <f t="shared" ref="J26" si="9">1/E26</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -34815,7 +35135,7 @@
       </c>
       <c r="V26">
         <f>EXP(B26)</f>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
@@ -34927,19 +35247,19 @@
         <v>86</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:D30" si="9">LN(E29)</f>
-        <v>0.91629073187415511</v>
+        <f t="shared" ref="B29:D30" si="10">LN(E29)</f>
+        <v>0.87546873735389985</v>
       </c>
       <c r="C29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="E29" s="17">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -34954,8 +35274,8 @@
         <v>5.01</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29:J30" si="10">1/E29</f>
-        <v>0.4</v>
+        <f t="shared" ref="J29:J30" si="11">1/E29</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -34981,7 +35301,7 @@
       </c>
       <c r="V29">
         <f>EXP(B29)</f>
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
@@ -34989,15 +35309,15 @@
         <v>83</v>
       </c>
       <c r="B30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.91629073187415511</v>
       </c>
       <c r="C30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.58778666490211906</v>
       </c>
       <c r="D30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="E30" s="17">
@@ -35016,7 +35336,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="J30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.4</v>
       </c>
       <c r="K30">
@@ -35054,19 +35374,19 @@
         <v>84</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:D31" si="11">-LN(1/E31 -1)</f>
-        <v>-0.84729786038720367</v>
+        <f t="shared" ref="B31:D31" si="12">-LN(1/E31 -1)</f>
+        <v>-0.99462257514406194</v>
       </c>
       <c r="C31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.1972245773362196</v>
       </c>
       <c r="D31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E31" s="17">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="F31">
         <v>0.1</v>
@@ -35082,7 +35402,7 @@
       </c>
       <c r="J31">
         <f>1/(E31*(1-E31))</f>
-        <v>4.7619047619047619</v>
+        <v>5.0735667174023336</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -35105,7 +35425,7 @@
       </c>
       <c r="V31">
         <f>1/(1+EXP(-B31))</f>
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
@@ -35180,19 +35500,19 @@
         <v>87</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:D36" si="12">LN(E33)</f>
-        <v>-0.3047604139865322</v>
+        <f t="shared" ref="B33:D36" si="13">LN(E33)</f>
+        <v>-0.3285040669720361</v>
       </c>
       <c r="C33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="E33" s="17">
-        <v>0.73729999999999996</v>
+        <v>0.72</v>
       </c>
       <c r="F33">
         <v>0.1</v>
@@ -35207,8 +35527,8 @@
         <v>6</v>
       </c>
       <c r="J33">
-        <f t="shared" ref="J33:J36" si="13">1/E33</f>
-        <v>1.3563000135630001</v>
+        <f t="shared" ref="J33:J36" si="14">1/E33</f>
+        <v>1.3888888888888888</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -35234,7 +35554,7 @@
       </c>
       <c r="V33">
         <f>EXP(B33)</f>
-        <v>0.73729999999999996</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
@@ -35242,19 +35562,19 @@
         <v>88</v>
       </c>
       <c r="B34">
-        <f t="shared" si="12"/>
-        <v>-0.35667494393873245</v>
+        <f t="shared" si="13"/>
+        <v>-0.2744368457017603</v>
       </c>
       <c r="C34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.71334988787746489</v>
       </c>
       <c r="D34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-9.4310679471241415E-2</v>
       </c>
       <c r="E34" s="17">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="F34">
         <v>0.48999999999999994</v>
@@ -35269,8 +35589,8 @@
         <v>6</v>
       </c>
       <c r="J34">
-        <f t="shared" si="13"/>
-        <v>1.4285714285714286</v>
+        <f t="shared" si="14"/>
+        <v>1.3157894736842106</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -35296,7 +35616,7 @@
       </c>
       <c r="V34">
         <f>EXP(B34)</f>
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
@@ -35304,19 +35624,19 @@
         <v>89</v>
       </c>
       <c r="B35">
-        <f t="shared" si="12"/>
-        <v>2.3513752571634776</v>
+        <f t="shared" si="13"/>
+        <v>2.145931282948669</v>
       </c>
       <c r="C35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.9957322735539909</v>
       </c>
       <c r="E35" s="17">
-        <v>10.5</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="F35">
         <v>1E-3</v>
@@ -35331,8 +35651,8 @@
         <v>6</v>
       </c>
       <c r="J35">
-        <f t="shared" si="13"/>
-        <v>9.5238095238095233E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.11695906432748537</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -35358,7 +35678,7 @@
       </c>
       <c r="V35">
         <f>EXP(B35)</f>
-        <v>10.5</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
@@ -35366,19 +35686,19 @@
         <v>102</v>
       </c>
       <c r="B36">
-        <f t="shared" si="12"/>
-        <v>1.7047480922384253</v>
+        <f t="shared" si="13"/>
+        <v>1.5040773967762742</v>
       </c>
       <c r="C36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.1010977891993172</v>
       </c>
       <c r="E36" s="17">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="F36">
         <v>1E-3</v>
@@ -35394,8 +35714,8 @@
         <v>6</v>
       </c>
       <c r="J36">
-        <f t="shared" si="13"/>
-        <v>0.18181818181818182</v>
+        <f t="shared" si="14"/>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -35421,7 +35741,7 @@
       </c>
       <c r="V36">
         <f>EXP(B36)</f>
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
@@ -35430,7 +35750,7 @@
       </c>
       <c r="B37">
         <f>-LN(1/E37 -1)</f>
-        <v>0.14223933163391023</v>
+        <v>0.14304340786103839</v>
       </c>
       <c r="C37">
         <f>-LN(1/F37 -1)</f>
@@ -35441,7 +35761,7 @@
         <v>0.84729786038720356</v>
       </c>
       <c r="E37" s="17">
-        <v>0.53549999999999998</v>
+        <v>0.53569999999999995</v>
       </c>
       <c r="F37">
         <v>0.49</v>
@@ -35457,7 +35777,7 @@
       </c>
       <c r="J37">
         <f>1/(E37*(1-E37))</f>
-        <v>4.0202661617212367</v>
+        <v>4.0204963294677736</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -35483,7 +35803,7 @@
       </c>
       <c r="V37">
         <f>1/(1+EXP(-B37))</f>
-        <v>0.53549999999999998</v>
+        <v>0.53569999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
@@ -35555,18 +35875,19 @@
       </c>
       <c r="B39">
         <f>E39</f>
-        <v>1.9468676899999999</v>
+        <v>1.8560469999999998</v>
       </c>
       <c r="C39">
         <f>B39</f>
-        <v>1.9468676899999999</v>
+        <v>1.8560469999999998</v>
       </c>
       <c r="D39">
         <f>C39</f>
-        <v>1.9468676899999999</v>
+        <v>1.8560469999999998</v>
       </c>
       <c r="E39" s="17">
-        <v>1.9468676899999999</v>
+        <f>18.56047/10</f>
+        <v>1.8560469999999998</v>
       </c>
       <c r="F39">
         <v>1.9809000000000001</v>
@@ -35581,8 +35902,8 @@
         <v>88</v>
       </c>
       <c r="J39">
-        <f t="shared" ref="J39:J40" si="14">1/E39</f>
-        <v>0.5136455883142218</v>
+        <f t="shared" ref="J39:J40" si="15">1/E39</f>
+        <v>0.53877945978738695</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -35610,18 +35931,19 @@
       </c>
       <c r="B40">
         <f>E40</f>
-        <v>1.8597309999999999E-2</v>
+        <v>7.2171439999999989E-2</v>
       </c>
       <c r="C40">
         <f>B40</f>
-        <v>1.8597309999999999E-2</v>
+        <v>7.2171439999999989E-2</v>
       </c>
       <c r="D40">
         <f>C40</f>
-        <v>1.8597309999999999E-2</v>
+        <v>7.2171439999999989E-2</v>
       </c>
       <c r="E40" s="17">
-        <v>1.8597309999999999E-2</v>
+        <f>721.7144/10000</f>
+        <v>7.2171439999999989E-2</v>
       </c>
       <c r="F40">
         <v>1.9084000000000001</v>
@@ -35636,8 +35958,8 @@
         <v>88</v>
       </c>
       <c r="J40">
-        <f t="shared" si="14"/>
-        <v>53.771217450265659</v>
+        <f t="shared" si="15"/>
+        <v>13.855896459873881</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -35765,7 +36087,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U42:U49" si="15">T42</f>
+        <f t="shared" ref="U42:U49" si="16">T42</f>
         <v>0</v>
       </c>
       <c r="V42"/>
@@ -35775,15 +36097,15 @@
         <v>90</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43:D44" si="16">E43</f>
+        <f t="shared" ref="B43:D44" si="17">E43</f>
         <v>0.1449</v>
       </c>
       <c r="C43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.1449</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.1449</v>
       </c>
       <c r="E43" s="17">
@@ -35817,7 +36139,7 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -35826,15 +36148,15 @@
         <v>91</v>
       </c>
       <c r="B44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.1449</v>
       </c>
       <c r="C44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.1449</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.1449</v>
       </c>
       <c r="E44" s="17">
@@ -35868,7 +36190,7 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -35915,7 +36237,7 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -35963,7 +36285,7 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -35973,26 +36295,27 @@
       </c>
       <c r="B47">
         <f>E47</f>
-        <v>1.0547228200000001</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="C47">
         <f>B47</f>
-        <v>1.0547228200000001</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="D47">
         <f>C47</f>
-        <v>1.0547228200000001</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="E47" s="17">
-        <v>1.0547228200000001</v>
+        <f>EXP(0.0673)</f>
+        <v>1.0696163149411613</v>
       </c>
       <c r="F47">
         <f>E47</f>
-        <v>1.0547228200000001</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="G47">
         <f>E47</f>
-        <v>1.0547228200000001</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="J47">
         <f>1</f>
@@ -36014,7 +36337,7 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -36024,26 +36347,27 @@
       </c>
       <c r="B48">
         <f>E48</f>
-        <v>0.99413825</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="C48">
         <f>B48</f>
-        <v>0.99413825</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="D48">
         <f>C48</f>
-        <v>0.99413825</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="E48" s="17">
-        <v>0.99413825</v>
+        <f>EXP(-0.0062)</f>
+        <v>0.99381918034015848</v>
       </c>
       <c r="F48">
         <f>E48</f>
-        <v>0.99413825</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="G48">
         <f>E48</f>
-        <v>0.99413825</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="J48">
         <f>1</f>
@@ -36065,7 +36389,7 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -36075,26 +36399,27 @@
       </c>
       <c r="B49">
         <f>E49</f>
-        <v>0.96310580999999995</v>
+        <v>0.9618468890261952</v>
       </c>
       <c r="C49">
         <f>B49</f>
-        <v>0.96310580999999995</v>
+        <v>0.9618468890261952</v>
       </c>
       <c r="D49">
         <f>C49</f>
-        <v>0.96310580999999995</v>
+        <v>0.9618468890261952</v>
       </c>
       <c r="E49" s="17">
-        <v>0.96310580999999995</v>
+        <f>EXP(-0.0389)</f>
+        <v>0.9618468890261952</v>
       </c>
       <c r="F49">
         <f>E49</f>
-        <v>0.96310580999999995</v>
+        <v>0.9618468890261952</v>
       </c>
       <c r="G49">
         <f>E49</f>
-        <v>0.96310580999999995</v>
+        <v>0.9618468890261952</v>
       </c>
       <c r="J49">
         <f>1</f>
@@ -36116,7 +36441,7 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -36133,12 +36458,3018 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AAA591-394B-45A3-997C-6B60BB5B6F0D}">
+  <dimension ref="A1:Z52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="3" max="4" width="6.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.54296875" customWidth="1"/>
+    <col min="25" max="25" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S1" t="s">
+        <v>177</v>
+      </c>
+      <c r="T1" t="s">
+        <v>189</v>
+      </c>
+      <c r="U1" t="s">
+        <v>216</v>
+      </c>
+      <c r="V1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3">
+        <f>E2</f>
+        <v>21.03734690643789</v>
+      </c>
+      <c r="C2">
+        <f>F2</f>
+        <v>21.03734690643789</v>
+      </c>
+      <c r="D2">
+        <f>G2</f>
+        <v>21.03734690643789</v>
+      </c>
+      <c r="E2" s="17">
+        <f>PARS!E2</f>
+        <v>21.03734690643789</v>
+      </c>
+      <c r="F2">
+        <f>E2</f>
+        <v>21.03734690643789</v>
+      </c>
+      <c r="G2">
+        <f>E2</f>
+        <v>21.03734690643789</v>
+      </c>
+      <c r="H2">
+        <v>999</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P49" si="0">SUM(L2:O2)</f>
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S49" si="1">L2-Q2</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T49" si="2">S2+N2+Q2+M2</f>
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f>T2-N2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3">
+        <f>E3</f>
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="C3">
+        <f>B3</f>
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="D3">
+        <f>C3</f>
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="E3" s="17">
+        <f>PARS!E3</f>
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="G3">
+        <v>1.8814014327029097E-3</v>
+      </c>
+      <c r="H3">
+        <v>999</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <f>T3-N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="7">
+        <f>LN(E4)</f>
+        <v>-0.22314355131420971</v>
+      </c>
+      <c r="C4" s="7">
+        <f>LN(F4)</f>
+        <v>-0.51082562376599072</v>
+      </c>
+      <c r="D4" s="7">
+        <f>LN(G4)</f>
+        <v>0.18232155679395459</v>
+      </c>
+      <c r="E4" s="17">
+        <f>PARS!E4</f>
+        <v>0.8</v>
+      </c>
+      <c r="F4">
+        <v>0.6</v>
+      </c>
+      <c r="G4">
+        <v>1.2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>1/E4</f>
+        <v>1.25</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <f>T4-N4</f>
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <f>EXP(B4)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="7">
+        <f>LN(E5)</f>
+        <v>-0.22314355131420971</v>
+      </c>
+      <c r="C5">
+        <f>C4</f>
+        <v>-0.51082562376599072</v>
+      </c>
+      <c r="D5">
+        <f>D4</f>
+        <v>0.18232155679395459</v>
+      </c>
+      <c r="E5" s="17">
+        <f>PARS!E5</f>
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>1/E5</f>
+        <v>1.25</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>T5-N5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6">
+        <f>LOG(E6)</f>
+        <v>0.20836072497837904</v>
+      </c>
+      <c r="C6">
+        <f>B6</f>
+        <v>0.20836072497837904</v>
+      </c>
+      <c r="D6">
+        <f>B6</f>
+        <v>0.20836072497837904</v>
+      </c>
+      <c r="E6" s="17">
+        <f>PARS!E6</f>
+        <v>1.6156999999999999</v>
+      </c>
+      <c r="F6">
+        <v>1.5904813099999999</v>
+      </c>
+      <c r="G6">
+        <f>E6</f>
+        <v>1.6156999999999999</v>
+      </c>
+      <c r="H6">
+        <v>1.41</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>1/E6</f>
+        <v>0.6189267809618122</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:D9" si="3">LN(E7)</f>
+        <v>-1.4323382996212974</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>-2.3025850929940455</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>-0.916290731874155</v>
+      </c>
+      <c r="E7" s="17">
+        <f>PARS!E7</f>
+        <v>0.23874999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J7">
+        <f>1/E7</f>
+        <v>4.1884816753926701</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:U39" si="4">T7-N7</f>
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f>EXP(B7)</f>
+        <v>0.23874999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>-0.16251892949777494</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="E8" s="17">
+        <f>PARS!E8</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.85</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J21" si="5">1/E8</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <f>EXP(B8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="3"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="E9" s="17">
+        <f>PARS!E9</f>
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <f>EXP(B9)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10">
+        <f>LN(E10)</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>C4</f>
+        <v>-0.51082562376599072</v>
+      </c>
+      <c r="D10">
+        <f>D4</f>
+        <v>0.18232155679395459</v>
+      </c>
+      <c r="E10" s="17">
+        <f>PARS!E10</f>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>F4</f>
+        <v>0.6</v>
+      </c>
+      <c r="G10">
+        <f>G4</f>
+        <v>1.2</v>
+      </c>
+      <c r="H10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11">
+        <f>LN(E11)</f>
+        <v>-1.8703217532696195</v>
+      </c>
+      <c r="C11">
+        <f>LN(F11)</f>
+        <v>-2.093465304583829</v>
+      </c>
+      <c r="D11">
+        <f>LN(G11)</f>
+        <v>-1.1771745727096741</v>
+      </c>
+      <c r="E11" s="17">
+        <f>PARS!E11</f>
+        <v>0.15407408</v>
+      </c>
+      <c r="F11">
+        <f>E11*0.8</f>
+        <v>0.12325926400000001</v>
+      </c>
+      <c r="G11">
+        <f>E11*2</f>
+        <v>0.30814816</v>
+      </c>
+      <c r="H11">
+        <v>1.2</v>
+      </c>
+      <c r="I11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>6.4903843657544478</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f>EXP(B11)</f>
+        <v>0.15407408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <f>-LN(1/E12 -1)</f>
+        <v>0.66388228523152282</v>
+      </c>
+      <c r="C12">
+        <f>-LN(1/F12 -1)</f>
+        <v>-0.40790273033909435</v>
+      </c>
+      <c r="D12">
+        <f>-LN(1/G12 -1)</f>
+        <v>1.0551933911457412</v>
+      </c>
+      <c r="E12" s="17">
+        <f>PARS!E12</f>
+        <v>0.66013195000000002</v>
+      </c>
+      <c r="F12">
+        <v>0.39941511352741998</v>
+      </c>
+      <c r="G12">
+        <v>0.74177092512235143</v>
+      </c>
+      <c r="H12">
+        <v>1.21</v>
+      </c>
+      <c r="I12">
+        <v>1.2</v>
+      </c>
+      <c r="J12">
+        <f>1/(E12*(1-E12))</f>
+        <v>4.4571670099049943</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <f>1/(1+EXP(-B12))</f>
+        <v>0.66013195000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13">
+        <f>LN(E13)</f>
+        <v>-8.9025505804146685E-2</v>
+      </c>
+      <c r="C13">
+        <f>F13</f>
+        <v>0.62810999999999995</v>
+      </c>
+      <c r="D13">
+        <f>G13</f>
+        <v>1.16649</v>
+      </c>
+      <c r="E13" s="17">
+        <f>PARS!E13</f>
+        <v>0.91482224000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.62810999999999995</v>
+      </c>
+      <c r="G13">
+        <v>1.16649</v>
+      </c>
+      <c r="H13">
+        <v>1.22</v>
+      </c>
+      <c r="I13">
+        <v>1.2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>1.0931085365830198</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14">
+        <f>LN(E14)</f>
+        <v>0.25702382969694959</v>
+      </c>
+      <c r="C14">
+        <f>B14*0.7</f>
+        <v>0.17991668078786471</v>
+      </c>
+      <c r="D14">
+        <f>B14*1.3</f>
+        <v>0.33413097860603447</v>
+      </c>
+      <c r="E14" s="17">
+        <f>PARS!E14</f>
+        <v>1.29307594</v>
+      </c>
+      <c r="F14">
+        <v>1.2934243000000001</v>
+      </c>
+      <c r="G14">
+        <v>1.68272</v>
+      </c>
+      <c r="H14">
+        <v>1.23</v>
+      </c>
+      <c r="I14">
+        <v>1.2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>0.77334978485486316</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <f>LN(E15)</f>
+        <v>-2.3633295407393207</v>
+      </c>
+      <c r="C15">
+        <f>LN(F15)</f>
+        <v>-2.5836226227271579</v>
+      </c>
+      <c r="D15">
+        <f>LN(G15)</f>
+        <v>-2.5836226227271579</v>
+      </c>
+      <c r="E15" s="17">
+        <f>PARS!E15</f>
+        <v>9.4106369999999995E-2</v>
+      </c>
+      <c r="F15">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="G15">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.24</v>
+      </c>
+      <c r="I15">
+        <v>1.3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>10.626273226775192</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <f>EXP(B15)</f>
+        <v>9.4106369999999981E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16">
+        <f>LN(-E16)</f>
+        <v>-1.4146938356415886</v>
+      </c>
+      <c r="C16">
+        <f>LN(-G16)</f>
+        <v>-2.3025850929940455</v>
+      </c>
+      <c r="D16">
+        <f>LN(-F16)</f>
+        <v>-1.1647520911726548</v>
+      </c>
+      <c r="E16" s="17">
+        <f>PARS!E16</f>
+        <v>-0.24299999999999999</v>
+      </c>
+      <c r="F16">
+        <v>-0.312</v>
+      </c>
+      <c r="G16">
+        <v>-0.1</v>
+      </c>
+      <c r="H16">
+        <v>1.4</v>
+      </c>
+      <c r="I16">
+        <v>1.4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>-4.1152263374485596</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <f>-EXP(B16)</f>
+        <v>-0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:D18" si="6">LN(E17)</f>
+        <v>-0.41551544396166579</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="6"/>
+        <v>-1.2039728043259361</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="6"/>
+        <v>-0.43078291609245423</v>
+      </c>
+      <c r="E17" s="17">
+        <f>PARS!E17</f>
+        <v>0.66</v>
+      </c>
+      <c r="F17">
+        <v>0.3</v>
+      </c>
+      <c r="G17">
+        <v>0.65</v>
+      </c>
+      <c r="H17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <f>EXP(B17)</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="6"/>
+        <v>1.9878743481543455</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="6"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="6"/>
+        <v>2.341805806147327</v>
+      </c>
+      <c r="E18" s="17">
+        <f>PARS!E18</f>
+        <v>7.3</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>10.4</v>
+      </c>
+      <c r="H18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>0.13698630136986301</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <f>EXP(B18)</f>
+        <v>7.3000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <f>E19</f>
+        <v>2000</v>
+      </c>
+      <c r="C19">
+        <f>LN(F19/100)</f>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="D19">
+        <f>LN(G19/100)</f>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="E19" s="17">
+        <f>PARS!E19</f>
+        <v>2000</v>
+      </c>
+      <c r="F19">
+        <v>2000</v>
+      </c>
+      <c r="G19">
+        <v>2000</v>
+      </c>
+      <c r="H19">
+        <v>999.5</v>
+      </c>
+      <c r="I19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J19">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <f>-LN(1/E20 -1)*1000</f>
+        <v>24.401210673453068</v>
+      </c>
+      <c r="C20">
+        <f>-LN(1/F20 -1)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>-LN(1/G20 -1)</f>
+        <v>0.40546510810816427</v>
+      </c>
+      <c r="E20" s="17">
+        <f>PARS!E20</f>
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.6</v>
+      </c>
+      <c r="H20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J20">
+        <f>1000/(E20*(1-E20))</f>
+        <v>4000.5954486265737</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <f>1/(1+EXP(-B20/1000))</f>
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="W20" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y20">
+        <f>0.02020068</f>
+        <v>2.0200679999999999E-2</v>
+      </c>
+      <c r="Z20" s="16">
+        <f>1/(1+EXP(-Y20))</f>
+        <v>0.50504999827283203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <f>LN(E21/10)</f>
+        <v>0.42526773540434409</v>
+      </c>
+      <c r="C21">
+        <f>LN(F21/10)</f>
+        <v>0.37156355643248301</v>
+      </c>
+      <c r="D21">
+        <f>LN(G21/10)</f>
+        <v>0.61518563909023349</v>
+      </c>
+      <c r="E21" s="17">
+        <f>PARS!E21</f>
+        <v>15.3</v>
+      </c>
+      <c r="F21">
+        <v>14.5</v>
+      </c>
+      <c r="G21">
+        <v>18.5</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>6.535947712418301E-2</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <f>EXP(B21)*10</f>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22">
+        <f>1-LN(1/(E22-1) -1)</f>
+        <v>3.1972245773362191</v>
+      </c>
+      <c r="C22">
+        <f>1-LN(1/(F22-1) -1)</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>1-LN(1/(G22-1) -1)</f>
+        <v>7.9067547786486871</v>
+      </c>
+      <c r="E22" s="17">
+        <f>PARS!E22</f>
+        <v>1.9</v>
+      </c>
+      <c r="F22">
+        <v>1.5</v>
+      </c>
+      <c r="G22">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <f>1/((2-E22)*(E22-1))</f>
+        <v>11.111111111111104</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <f>1+1/(1+EXP(-(B22-1)))</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <f>PARS!E23</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.0519999999999996</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:D25" si="7">E24</f>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="7"/>
+        <v>-0.15</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="E24" s="17">
+        <f>PARS!E24</f>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="F24">
+        <f>-0.15</f>
+        <v>-0.15</v>
+      </c>
+      <c r="G24">
+        <v>0.05</v>
+      </c>
+      <c r="H24">
+        <v>4.0510000000000002</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="7"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="17">
+        <f>PARS!E25</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <v>4.0529999999999999</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26">
+        <f>LN(E26)</f>
+        <v>-0.51082562376599072</v>
+      </c>
+      <c r="C26">
+        <f>LN(F26)</f>
+        <v>-0.35667494393873245</v>
+      </c>
+      <c r="D26">
+        <f>LN(G26)</f>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="E26" s="17">
+        <f>PARS!E26</f>
+        <v>0.6</v>
+      </c>
+      <c r="F26">
+        <v>0.7</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>4.0549999999999997</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26" si="8">1/E26</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <f>EXP(B26)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <f>PARS!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C28">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D28">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E28" s="17">
+        <f>PARS!E28</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.5</v>
+      </c>
+      <c r="H28">
+        <v>4.0540000000000003</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:D30" si="9">LN(E29)</f>
+        <v>0.87546873735389985</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="9"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="E29" s="17">
+        <f>PARS!E29</f>
+        <v>2.4</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="I29">
+        <v>5.01</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:J30" si="10">1/E29</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <f>EXP(B29)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="9"/>
+        <v>0.91629073187415511</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="9"/>
+        <v>0.58778666490211906</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="9"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="E30" s="17">
+        <f>PARS!E30</f>
+        <v>2.5</v>
+      </c>
+      <c r="F30">
+        <v>1.8</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>4.01</v>
+      </c>
+      <c r="I30">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <f>EXP(B30)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:D31" si="11">-LN(1/E31 -1)</f>
+        <v>-0.99462257514406194</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="11"/>
+        <v>-2.1972245773362196</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="11"/>
+        <v>6.9067547786484651</v>
+      </c>
+      <c r="E31" s="17">
+        <f>PARS!E31</f>
+        <v>0.27</v>
+      </c>
+      <c r="F31">
+        <v>0.1</v>
+      </c>
+      <c r="G31">
+        <v>0.999</v>
+      </c>
+      <c r="H31">
+        <v>5.01</v>
+      </c>
+      <c r="I31">
+        <v>5.03</v>
+      </c>
+      <c r="J31">
+        <f>1/(E31*(1-E31))</f>
+        <v>5.0735667174023336</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <f>1/(1+EXP(-B31))</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32">
+        <f>E32</f>
+        <v>0.70559799999999995</v>
+      </c>
+      <c r="C32">
+        <f>F32</f>
+        <v>0.70559799999999995</v>
+      </c>
+      <c r="D32">
+        <f>G32</f>
+        <v>0.70559799999999995</v>
+      </c>
+      <c r="E32" s="17">
+        <f>PARS!E32</f>
+        <v>0.70559799999999995</v>
+      </c>
+      <c r="F32">
+        <f>E32</f>
+        <v>0.70559799999999995</v>
+      </c>
+      <c r="G32">
+        <f>F32</f>
+        <v>0.70559799999999995</v>
+      </c>
+      <c r="H32">
+        <v>999.5</v>
+      </c>
+      <c r="I32">
+        <v>5.04</v>
+      </c>
+      <c r="J32">
+        <f>1/(E32*(1-E32))</f>
+        <v>4.8139536321221215</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f>1/(1+EXP(-B32))</f>
+        <v>0.66942775013665978</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:D36" si="12">LN(E33)</f>
+        <v>-0.3285040669720361</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="12"/>
+        <v>-2.3025850929940455</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="12"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="E33" s="17">
+        <f>PARS!E33</f>
+        <v>0.72</v>
+      </c>
+      <c r="F33">
+        <v>0.1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:J36" si="13">1/E33</f>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <f>EXP(B33)</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="12"/>
+        <v>-0.2744368457017603</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="12"/>
+        <v>-0.71334988787746489</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="12"/>
+        <v>-9.4310679471241415E-2</v>
+      </c>
+      <c r="E34" s="17">
+        <f>PARS!E34</f>
+        <v>0.76</v>
+      </c>
+      <c r="F34">
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="G34">
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="H34">
+        <v>6.01</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="13"/>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <f>EXP(B34)</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="12"/>
+        <v>2.145931282948669</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="12"/>
+        <v>-6.9077552789821368</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="12"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="E35" s="17">
+        <f>PARS!E35</f>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="F35">
+        <v>1E-3</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <v>6.02</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="13"/>
+        <v>0.11695906432748537</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <f>EXP(B35)</f>
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="12"/>
+        <v>1.5040773967762742</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="12"/>
+        <v>-6.9077552789821368</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="12"/>
+        <v>3.1010977891993172</v>
+      </c>
+      <c r="E36" s="17">
+        <f>PARS!E36</f>
+        <v>4.5</v>
+      </c>
+      <c r="F36">
+        <v>1E-3</v>
+      </c>
+      <c r="G36">
+        <f>66.667/3</f>
+        <v>22.222333333333335</v>
+      </c>
+      <c r="H36">
+        <v>6.03</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="13"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <f>EXP(B36)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <f>-LN(1/E37 -1)</f>
+        <v>0.14304340786103839</v>
+      </c>
+      <c r="C37">
+        <f>-LN(1/F37 -1)</f>
+        <v>-4.0005334613699206E-2</v>
+      </c>
+      <c r="D37">
+        <f>-LN(1/G37 -1)</f>
+        <v>0.84729786038720356</v>
+      </c>
+      <c r="E37" s="17">
+        <f>PARS!E37</f>
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="F37">
+        <v>0.49</v>
+      </c>
+      <c r="G37">
+        <v>0.7</v>
+      </c>
+      <c r="H37">
+        <v>87</v>
+      </c>
+      <c r="I37">
+        <v>87</v>
+      </c>
+      <c r="J37">
+        <f>1/(E37*(1-E37))</f>
+        <v>4.0204963294677736</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <f>1/(1+EXP(-B37))</f>
+        <v>0.53569999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="17">
+        <f>PARS!E38</f>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>88</v>
+      </c>
+      <c r="I38">
+        <v>88</v>
+      </c>
+      <c r="J38">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="3"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39">
+        <f>E39</f>
+        <v>1.8560469999999998</v>
+      </c>
+      <c r="C39">
+        <f>B39</f>
+        <v>1.8560469999999998</v>
+      </c>
+      <c r="D39">
+        <f>C39</f>
+        <v>1.8560469999999998</v>
+      </c>
+      <c r="E39" s="17">
+        <f>PARS!E39</f>
+        <v>1.8560469999999998</v>
+      </c>
+      <c r="F39">
+        <v>1.9809000000000001</v>
+      </c>
+      <c r="G39">
+        <v>1.9809000000000001</v>
+      </c>
+      <c r="H39">
+        <v>88</v>
+      </c>
+      <c r="I39">
+        <v>88</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ref="J39:J40" si="14">1/E39</f>
+        <v>0.53877945978738695</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40">
+        <f>E40</f>
+        <v>7.2171439999999989E-2</v>
+      </c>
+      <c r="C40">
+        <f>B40</f>
+        <v>7.2171439999999989E-2</v>
+      </c>
+      <c r="D40">
+        <f>C40</f>
+        <v>7.2171439999999989E-2</v>
+      </c>
+      <c r="E40" s="17">
+        <f>PARS!E40</f>
+        <v>7.2171439999999989E-2</v>
+      </c>
+      <c r="F40">
+        <v>1.9084000000000001</v>
+      </c>
+      <c r="G40">
+        <v>1.9084000000000001</v>
+      </c>
+      <c r="H40">
+        <v>88</v>
+      </c>
+      <c r="I40">
+        <v>88</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="14"/>
+        <v>13.855896459873881</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U40" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41">
+        <f>9*5*52/(24*365)</f>
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="C41">
+        <f>B41</f>
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="D41">
+        <f>B41</f>
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="E41" s="17">
+        <f>PARS!E41</f>
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="F41">
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="G41">
+        <v>0.26712328767123289</v>
+      </c>
+      <c r="H41">
+        <v>999</v>
+      </c>
+      <c r="I41">
+        <v>99</v>
+      </c>
+      <c r="J41">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <f>T41-N41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f>B42</f>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f>C42</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="17">
+        <f>PARS!E42</f>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" ref="U42:U49" si="15">T42</f>
+        <v>0</v>
+      </c>
+      <c r="V42"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43:D44" si="16">E43</f>
+        <v>0.1449</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="16"/>
+        <v>0.1449</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="16"/>
+        <v>0.1449</v>
+      </c>
+      <c r="E43" s="17">
+        <f>PARS!E43</f>
+        <v>0.1449</v>
+      </c>
+      <c r="F43">
+        <f>E43</f>
+        <v>0.1449</v>
+      </c>
+      <c r="G43">
+        <f>F43</f>
+        <v>0.1449</v>
+      </c>
+      <c r="J43">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="16"/>
+        <v>0.1449</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="16"/>
+        <v>0.1449</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="16"/>
+        <v>0.1449</v>
+      </c>
+      <c r="E44" s="17">
+        <f>PARS!E44</f>
+        <v>0.1449</v>
+      </c>
+      <c r="F44">
+        <f>E44</f>
+        <v>0.1449</v>
+      </c>
+      <c r="G44">
+        <f>F44</f>
+        <v>0.1449</v>
+      </c>
+      <c r="J44">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>G45</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="17">
+        <f>PARS!E45</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>B46</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>B46</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="17">
+        <f>PARS!E46</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47">
+        <f>E47</f>
+        <v>1.0696163149411613</v>
+      </c>
+      <c r="C47">
+        <f>B47</f>
+        <v>1.0696163149411613</v>
+      </c>
+      <c r="D47">
+        <f>C47</f>
+        <v>1.0696163149411613</v>
+      </c>
+      <c r="E47" s="17">
+        <f>PARS!E47</f>
+        <v>1.0696163149411613</v>
+      </c>
+      <c r="F47">
+        <f>E47</f>
+        <v>1.0696163149411613</v>
+      </c>
+      <c r="G47">
+        <f>E47</f>
+        <v>1.0696163149411613</v>
+      </c>
+      <c r="J47">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48">
+        <f>E48</f>
+        <v>0.99381918034015848</v>
+      </c>
+      <c r="C48">
+        <f>B48</f>
+        <v>0.99381918034015848</v>
+      </c>
+      <c r="D48">
+        <f>C48</f>
+        <v>0.99381918034015848</v>
+      </c>
+      <c r="E48" s="17">
+        <f>PARS!E48</f>
+        <v>0.99381918034015848</v>
+      </c>
+      <c r="F48">
+        <f>E48</f>
+        <v>0.99381918034015848</v>
+      </c>
+      <c r="G48">
+        <f>E48</f>
+        <v>0.99381918034015848</v>
+      </c>
+      <c r="J48">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49">
+        <f>E49</f>
+        <v>0.9618468890261952</v>
+      </c>
+      <c r="C49">
+        <f>B49</f>
+        <v>0.9618468890261952</v>
+      </c>
+      <c r="D49">
+        <f>C49</f>
+        <v>0.9618468890261952</v>
+      </c>
+      <c r="E49" s="17">
+        <f>PARS!E49</f>
+        <v>0.9618468890261952</v>
+      </c>
+      <c r="F49">
+        <f>E49</f>
+        <v>0.9618468890261952</v>
+      </c>
+      <c r="G49">
+        <f>E49</f>
+        <v>0.9618468890261952</v>
+      </c>
+      <c r="J49">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="17">
+        <f>E50</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E51" s="17">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="11">
+        <v>23</v>
+      </c>
+      <c r="E52" s="17">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:V49" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V49">
+      <sortCondition ref="I1:I49"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37530,7 +40861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EFA40D-2664-412E-B9B4-3734B019C060}">
   <dimension ref="A1:BC55"/>
   <sheetViews>
@@ -49788,7 +53119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50173A7-B186-45C1-8337-B5032812D8C9}">
   <dimension ref="A1:BE57"/>
   <sheetViews>
@@ -62186,7 +65517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B3D2F1-5F7D-4ECE-B1B5-77E3AE132B16}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -62213,7 +65544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EA4143-736F-4C71-A293-2D25882A9A47}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -62310,12 +65641,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388BE545-5E3B-42EF-ACF3-27ADED17A03F}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -62498,7 +65829,7 @@
         <v>-0.29730104993288531</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -62509,7 +65840,7 @@
         <v>0.37207329147337387</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -62520,7 +65851,7 @@
         <v>1.858023032880175E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>134</v>
       </c>
@@ -62531,7 +65862,7 @@
         <v>1.8814014327029097E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -62542,7 +65873,7 @@
         <v>1.9666306282818055E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -62553,7 +65884,7 @@
         <v>1.9010739631001277E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -62564,7 +65895,7 @@
         <v>9.9917849898722749E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -62575,7 +65906,7 @@
         <v>1.0295415592160683E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -62585,8 +65916,12 @@
       <c r="C24">
         <v>127.55650702409324</v>
       </c>
+      <c r="D24">
+        <f>SQRT(C24)</f>
+        <v>11.29409168654537</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -62597,7 +65932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -62608,7 +65943,7 @@
         <v>152.82676676750708</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -62619,7 +65954,7 @@
         <v>19570.859179726365</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -62630,7 +65965,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -62641,7 +65976,7 @@
         <v>12.44396883514832</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -62652,7 +65987,7 @@
         <v>5.1252961163707582E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -62663,7 +65998,7 @@
         <v>-1.1007650138021456</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -63451,270 +66786,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3232877D-0BFB-41E6-9597-1FA0FC36E360}">
-  <dimension ref="A1:J27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0.193</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="C3">
-        <v>18.518263999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <f>1-[1]pinc08!$B$14</f>
-        <v>0.15652701064259733</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="2">
-        <f>1-15.13%</f>
-        <v>0.84870000000000001</v>
-      </c>
-      <c r="C5">
-        <v>7.4833220000000006E-2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>217</v>
-      </c>
-      <c r="F15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C16">
-        <f>EXP(-0.0135*6.6667)*2*(1-0.156527)/(0.193*(C17))</f>
-        <v>20.65970855393061</v>
-      </c>
-      <c r="F16">
-        <f>1/3+2/3*(0.1449)</f>
-        <v>0.42993333333333328</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C17">
-        <f>2206.542/(24*365)+EXP(-0.26248)*(2206.542/(24*365)-671.547/(24*365))</f>
-        <v>0.38666332602882758</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="F18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H18" t="s">
-        <v>222</v>
-      </c>
-      <c r="J18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="F19">
-        <f>0.5*(((2206.542/(24*365)+EXP(-0.244)*(2206.542/(24*365)-671.547/(24*365)))*(1-0.22) + (2269/(24*365))*(0.22)))*EXP(0.0135*6.6667)</f>
-        <v>0.19724807654370141</v>
-      </c>
-      <c r="H19">
-        <f>F19*G27</f>
-        <v>4.0299572245607624</v>
-      </c>
-      <c r="J19">
-        <f>H19*(1/(1-0.16))</f>
-        <v>4.797568124477098</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="F20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="F21">
-        <f>1873/(24*365)*EXP(0.0135*6.6667)</f>
-        <v>0.23394855657589742</v>
-      </c>
-      <c r="H21">
-        <f>F21*G27</f>
-        <v>4.7797813406799783</v>
-      </c>
-      <c r="J21">
-        <f>H21*(1/(1-0.16))</f>
-        <v>5.6902158817618789</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="F23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="F24">
-        <f>(F19*(1-F16)+F21*F16)/(1-0.16)</f>
-        <v>0.25360337649866294</v>
-      </c>
-      <c r="J24">
-        <f>J19*(1-F16)+J21*F16</f>
-        <v>5.181347150259068</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="F26" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="F27">
-        <f>1/(F24*0.193)</f>
-        <v>20.430907591983047</v>
-      </c>
-      <c r="G27">
-        <v>20.430907591983047</v>
-      </c>
-      <c r="J27">
-        <f>J24*0.193</f>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{92A2153B-0B3A-4ADE-A357-5EF456F1387C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>
--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="641" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB703676-555A-4236-8AC8-1365B807F2AA}"/>
+  <xr:revisionPtr revIDLastSave="683" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18DB2268-5E3B-4B53-84D5-AB5CB6231A4C}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -33,8 +33,8 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MOMS!$A$1:$J$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$V$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PARS4!$A$1:$V$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$V$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PARS4!$A$1:$V$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">W_psid!$A$1:$CT$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="253">
   <si>
     <t>label</t>
   </si>
@@ -947,6 +947,9 @@
   <si>
     <t>aaddS</t>
   </si>
+  <si>
+    <t>typeic</t>
+  </si>
 </sst>
 </file>
 
@@ -1461,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1552,7 +1555,7 @@
         <v>21.03734690643789</v>
       </c>
       <c r="E2" t="b">
-        <f t="shared" ref="E2:E49" si="0">AND(D2&gt;=B2,B2&gt;=C2,D2&gt;=C2)</f>
+        <f t="shared" ref="E2:E50" si="0">AND(D2&gt;=B2,B2&gt;=C2,D2&gt;=C2)</f>
         <v>1</v>
       </c>
       <c r="F2">
@@ -1600,7 +1603,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>4.16963103111887E-2</v>
+        <v>0.57156645967836395</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1667,8 +1670,8 @@
         <v>0.64258992231765177</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q49" ca="1" si="1">RAND()</f>
-        <v>0.3024422396214822</v>
+        <f t="shared" ref="Q3:Q50" ca="1" si="1">RAND()</f>
+        <v>0.90612161278018521</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1738,14 +1741,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64188785097531753</v>
+        <v>5.458341727377114E-2</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.82321378674783952</v>
+        <v>0.32033659212896748</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1813,7 +1816,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97806804023730431</v>
+        <v>0.56045536670221152</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1881,7 +1884,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12621304320051618</v>
+        <v>0.80668367300244792</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1951,7 +1954,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74355143158355297</v>
+        <v>9.8709356069474063E-3</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -2021,7 +2024,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39724073783709402</v>
+        <v>0.94319158602773689</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2088,7 +2091,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72811320204081287</v>
+        <v>0.8658183792168026</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2156,7 +2159,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49476047408839297</v>
+        <v>0.35281755800331238</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2224,7 +2227,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89378962096080317</v>
+        <v>0.5922939431403752</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2292,7 +2295,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86453855308475125</v>
+        <v>0.1610029047996413</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2360,7 +2363,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29725457202220074</v>
+        <v>0.28976811482578491</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2428,7 +2431,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55125322541293942</v>
+        <v>0.97900694809405575</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2496,7 +2499,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92602092805223923</v>
+        <v>0.65922024274783741</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2563,7 +2566,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87926440115181714</v>
+        <v>0.74356766186580703</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2630,7 +2633,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61716271391235766</v>
+        <v>0.94125455046333251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2697,7 +2700,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16674948733827788</v>
+        <v>0.79163155608962887</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2765,7 +2768,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98325076683942059</v>
+        <v>0.95300232027961984</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2832,7 +2835,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12948690657688822</v>
+        <v>0.2552038869631974</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2899,7 +2902,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41865013114617944</v>
+        <v>0.10541207372424044</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2966,7 +2969,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37099886413458893</v>
+        <v>5.1063507792289409E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -3034,7 +3037,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2504999670320508</v>
+        <v>0.59501009144677763</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3101,7 +3104,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9269228527318658E-2</v>
+        <v>0.69935625706837878</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3168,7 +3171,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3178934408527696E-2</v>
+        <v>0.85705089031488502</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3235,7 +3238,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67881912705962233</v>
+        <v>0.3862598253194538</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3303,7 +3306,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93733565317112311</v>
+        <v>0.84392764827064282</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3370,7 +3373,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26561794364320124</v>
+        <v>0.45976868392981918</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3437,7 +3440,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87333071971885123</v>
+        <v>0.95681308117915098</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3504,7 +3507,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79172633593924524</v>
+        <v>0.69489204487945144</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3571,7 +3574,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48075732692109441</v>
+        <v>0.16918407714962902</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3639,7 +3642,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14478728669856578</v>
+        <v>4.1428689585160661E-2</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3706,7 +3709,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49579712362805439</v>
+        <v>0.1080865001904644</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3773,7 +3776,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>9.670339857496224E-2</v>
+        <v>0.45697369080687722</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3840,7 +3843,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7405359127165918</v>
+        <v>0.98817597586019368</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3907,7 +3910,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30859131920183758</v>
+        <v>0.59210672488367777</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3974,7 +3977,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7929762203774734</v>
+        <v>0.46498510095802226</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -4042,7 +4045,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6991065232127216</v>
+        <v>0.31059091627165192</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4110,7 +4113,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67220999423687644</v>
+        <v>0.31823908383638444</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4178,7 +4181,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35068871070300667</v>
+        <v>0.75354011002960519</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4246,7 +4249,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93284530844150504</v>
+        <v>0.50958551431911381</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4314,7 +4317,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31002171979609072</v>
+        <v>0.40602634743691557</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4382,7 +4385,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98387684048361046</v>
+        <v>0.10580519333948157</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4450,7 +4453,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10575222892394553</v>
+        <v>5.7652682020384205E-2</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4518,7 +4521,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23004190606365216</v>
+        <v>0.54526820881746263</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4586,27 +4589,27 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22878475066616399</v>
+        <v>0.19190746330208452</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="B47">
         <f>PARS!B47</f>
-        <v>1.0696163149411613</v>
+        <v>3.5</v>
       </c>
       <c r="C47">
         <f>PARS!C47</f>
-        <v>1.0696163149411613</v>
+        <v>3.5</v>
       </c>
       <c r="D47">
         <f>PARS!D47</f>
-        <v>1.0696163149411613</v>
+        <v>3.5</v>
       </c>
       <c r="E47" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E47" si="2">AND(D47&gt;=B47,B47&gt;=C47,D47&gt;=C47)</f>
         <v>1</v>
       </c>
       <c r="F47">
@@ -4627,11 +4630,11 @@
       </c>
       <c r="J47">
         <f>PARS!O47</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <f>PARS!P47</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <f>PARS!Q47</f>
@@ -4650,28 +4653,28 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>0.80782005028098203</v>
+        <v>1.7297503412316</v>
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30424062893179071</v>
+        <v>0.65888597512593172</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B48">
         <f>PARS!B48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="C48">
         <f>PARS!C48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="D48">
         <f>PARS!D48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="E48" t="b">
         <f t="shared" si="0"/>
@@ -4718,28 +4721,28 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>7.2670121740322058E-2</v>
+        <v>0.80782005028098203</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25968288327710798</v>
+        <v>0.86422618995173051</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49">
         <f>PARS!B49</f>
-        <v>0.9618468890261952</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="C49">
         <f>PARS!C49</f>
-        <v>0.9618468890261952</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="D49">
         <f>PARS!D49</f>
-        <v>0.9618468890261952</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="E49" t="b">
         <f t="shared" si="0"/>
@@ -4786,11 +4789,79 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0.14486889267994729</v>
+        <v>7.2670121740322058E-2</v>
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83941293194279099</v>
+        <v>0.74306755341584407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50">
+        <f>PARS!B50</f>
+        <v>0.9618468890261952</v>
+      </c>
+      <c r="C50">
+        <f>PARS!C50</f>
+        <v>0.9618468890261952</v>
+      </c>
+      <c r="D50">
+        <f>PARS!D50</f>
+        <v>0.9618468890261952</v>
+      </c>
+      <c r="E50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f>PARS!K50</f>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f>PARS!L50</f>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f>PARS!M50</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f>PARS!N50</f>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f>PARS!O50</f>
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <f>PARS!P50</f>
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <f>PARS!Q50</f>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f>PARS!R50</f>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f>PARS!S50</f>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f>PARS!T50</f>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0.14486889267994729</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22509139459115857</v>
       </c>
     </row>
   </sheetData>
@@ -33540,17 +33611,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.36328125" customWidth="1"/>
     <col min="5" max="5" width="25.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.54296875" customWidth="1"/>
     <col min="25" max="25" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.453125" bestFit="1" customWidth="1"/>
@@ -33665,15 +33737,15 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P49" si="0">SUM(L2:O2)</f>
+        <f t="shared" ref="P2:P50" si="0">SUM(L2:O2)</f>
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S49" si="1">L2-Q2</f>
+        <f t="shared" ref="S2:S50" si="1">L2-Q2</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T49" si="2">S2+N2+Q2+M2</f>
+        <f t="shared" ref="T2:T50" si="2">S2+N2+Q2+M2</f>
         <v>1</v>
       </c>
       <c r="U2">
@@ -36087,7 +36159,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U42:U49" si="16">T42</f>
+        <f t="shared" ref="U42:U50" si="16">T42</f>
         <v>0</v>
       </c>
       <c r="V42"/>
@@ -36291,83 +36363,59 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47">
+        <v>252</v>
+      </c>
+      <c r="B47" s="17">
         <f>E47</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="C47">
+        <v>3.5</v>
+      </c>
+      <c r="C47" s="17">
         <f>B47</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="D47">
-        <f>C47</f>
-        <v>1.0696163149411613</v>
+        <v>3.5</v>
+      </c>
+      <c r="D47" s="17">
+        <f>B47</f>
+        <v>3.5</v>
       </c>
       <c r="E47" s="17">
-        <f>EXP(0.0673)</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="F47">
+        <v>3.5</v>
+      </c>
+      <c r="F47" s="17">
         <f>E47</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="G47">
+        <v>3.5</v>
+      </c>
+      <c r="G47" s="17">
         <f>E47</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="J47">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B48">
         <f>E48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="C48">
         <f>B48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="D48">
         <f>C48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="E48" s="17">
-        <f>EXP(-0.0062)</f>
-        <v>0.99381918034015848</v>
+        <f>EXP(0.0673)</f>
+        <v>1.0696163149411613</v>
       </c>
       <c r="F48">
         <f>E48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="G48">
         <f>E48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="J48">
         <f>1</f>
@@ -36395,60 +36443,112 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49">
         <f>E49</f>
-        <v>0.9618468890261952</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="C49">
         <f>B49</f>
-        <v>0.9618468890261952</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="D49">
         <f>C49</f>
+        <v>0.99381918034015848</v>
+      </c>
+      <c r="E49" s="17">
+        <f>EXP(-0.0062)</f>
+        <v>0.99381918034015848</v>
+      </c>
+      <c r="F49">
+        <f>E49</f>
+        <v>0.99381918034015848</v>
+      </c>
+      <c r="G49">
+        <f>E49</f>
+        <v>0.99381918034015848</v>
+      </c>
+      <c r="J49">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50">
+        <f>E50</f>
         <v>0.9618468890261952</v>
       </c>
-      <c r="E49" s="17">
+      <c r="C50">
+        <f>B50</f>
+        <v>0.9618468890261952</v>
+      </c>
+      <c r="D50">
+        <f>C50</f>
+        <v>0.9618468890261952</v>
+      </c>
+      <c r="E50" s="17">
         <f>EXP(-0.0389)</f>
         <v>0.9618468890261952</v>
       </c>
-      <c r="F49">
-        <f>E49</f>
+      <c r="F50">
+        <f>E50</f>
         <v>0.9618468890261952</v>
       </c>
-      <c r="G49">
-        <f>E49</f>
+      <c r="G50">
+        <f>E50</f>
         <v>0.9618468890261952</v>
       </c>
-      <c r="J49">
+      <c r="J50">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49">
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S49">
+      <c r="S50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T49">
+      <c r="T50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U49">
+      <c r="U50">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V49" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V49">
-      <sortCondition ref="I1:I49"/>
+  <autoFilter ref="A1:V50" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V50">
+      <sortCondition ref="I1:I50"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36459,10 +36559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AAA591-394B-45A3-997C-6B60BB5B6F0D}">
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A16" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="G47" sqref="B47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36470,6 +36570,7 @@
     <col min="2" max="2" width="8.90625" customWidth="1"/>
     <col min="3" max="4" width="6.36328125" customWidth="1"/>
     <col min="5" max="5" width="25.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
     <col min="22" max="22" width="19.54296875" customWidth="1"/>
     <col min="25" max="25" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.453125" bestFit="1" customWidth="1"/>
@@ -36585,15 +36686,15 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P49" si="0">SUM(L2:O2)</f>
+        <f t="shared" ref="P2:P50" si="0">SUM(L2:O2)</f>
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S49" si="1">L2-Q2</f>
+        <f t="shared" ref="S2:S50" si="1">L2-Q2</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T49" si="2">S2+N2+Q2+M2</f>
+        <f t="shared" ref="T2:T50" si="2">S2+N2+Q2+M2</f>
         <v>1</v>
       </c>
       <c r="U2">
@@ -39043,7 +39144,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U42:U49" si="15">T42</f>
+        <f t="shared" ref="U42:U50" si="15">T42</f>
         <v>0</v>
       </c>
       <c r="V42"/>
@@ -39251,34 +39352,33 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47">
+        <v>252</v>
+      </c>
+      <c r="B47" s="11">
         <f>E47</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="C47">
+        <v>3.5</v>
+      </c>
+      <c r="C47" s="11">
         <f>B47</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="D47">
-        <f>C47</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="E47" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="D47" s="11">
+        <f>B47</f>
+        <v>3.5</v>
+      </c>
+      <c r="E47" s="11">
         <f>PARS!E47</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="F47">
-        <f>E47</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="G47">
-        <f>E47</f>
-        <v>1.0696163149411613</v>
+        <v>3.5</v>
+      </c>
+      <c r="F47" s="11">
+        <f>PARS!F47</f>
+        <v>3.5</v>
+      </c>
+      <c r="G47" s="11">
+        <f>PARS!G47</f>
+        <v>3.5</v>
       </c>
       <c r="J47">
-        <f>1</f>
         <v>1</v>
       </c>
       <c r="O47">
@@ -39289,45 +39389,45 @@
         <v>1</v>
       </c>
       <c r="S47">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S47:S48" si="17">L47-Q47</f>
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T47:T48" si="18">S47+N47+Q47+M47</f>
         <v>0</v>
       </c>
       <c r="U47">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="U47:U48" si="19">T47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B48">
         <f>E48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="C48">
         <f>B48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="D48">
         <f>C48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="E48" s="17">
         <f>PARS!E48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="F48">
         <f>E48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="G48">
         <f>E48</f>
-        <v>0.99381918034015848</v>
+        <v>1.0696163149411613</v>
       </c>
       <c r="J48">
         <f>1</f>
@@ -39341,45 +39441,45 @@
         <v>1</v>
       </c>
       <c r="S48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49">
         <f>E49</f>
-        <v>0.9618468890261952</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="C49">
         <f>B49</f>
-        <v>0.9618468890261952</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="D49">
         <f>C49</f>
-        <v>0.9618468890261952</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="E49" s="17">
         <f>PARS!E49</f>
-        <v>0.9618468890261952</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="F49">
         <f>E49</f>
-        <v>0.9618468890261952</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="G49">
         <f>E49</f>
-        <v>0.9618468890261952</v>
+        <v>0.99381918034015848</v>
       </c>
       <c r="J49">
         <f>1</f>
@@ -39407,54 +39507,106 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>249</v>
-      </c>
-      <c r="B50" s="17">
+        <v>181</v>
+      </c>
+      <c r="B50">
         <f>E50</f>
-        <v>1.1000000000000001</v>
+        <v>0.9618468890261952</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <f>B50</f>
+        <v>0.9618468890261952</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <f>C50</f>
+        <v>0.9618468890261952</v>
       </c>
       <c r="E50" s="17">
-        <v>1.1000000000000001</v>
+        <f>PARS!E50</f>
+        <v>0.9618468890261952</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <f>E50</f>
+        <v>0.9618468890261952</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <f>E50</f>
+        <v>0.9618468890261952</v>
+      </c>
+      <c r="J50">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>250</v>
-      </c>
-      <c r="B51" s="11">
-        <v>0.35</v>
+        <v>249</v>
+      </c>
+      <c r="B51" s="17">
+        <f>E51</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
       </c>
       <c r="E51" s="17">
-        <v>0.35</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>251</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B53" s="11">
         <v>23</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V49" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V49">
-      <sortCondition ref="I1:I49"/>
+  <autoFilter ref="A1:V50" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V50">
+      <sortCondition ref="I1:I50"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="683" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18DB2268-5E3B-4B53-84D5-AB5CB6231A4C}"/>
+  <xr:revisionPtr revIDLastSave="685" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0C687B3-269E-4E77-8AB4-FFBF97383813}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="3" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.57156645967836395</v>
+        <v>0.58994597876812738</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q50" ca="1" si="1">RAND()</f>
-        <v>0.90612161278018521</v>
+        <v>0.7940849879876265</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1741,14 +1741,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.458341727377114E-2</v>
+        <v>0.14365803542526023</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.32033659212896748</v>
+        <v>0.47388861920661651</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56045536670221152</v>
+        <v>0.95505603842718556</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80668367300244792</v>
+        <v>0.98275646893500501</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8709356069474063E-3</v>
+        <v>0.43481116132383013</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94319158602773689</v>
+        <v>0.1299887905410676</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8658183792168026</v>
+        <v>0.98465524653922598</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35281755800331238</v>
+        <v>0.78087817157180772</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5922939431403752</v>
+        <v>0.38583064384671684</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1610029047996413</v>
+        <v>0.81911966748362586</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28976811482578491</v>
+        <v>0.55553839680094219</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97900694809405575</v>
+        <v>0.20762300055702354</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65922024274783741</v>
+        <v>0.70408177047192066</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74356766186580703</v>
+        <v>0.2014809548003097</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94125455046333251</v>
+        <v>0.94649924656606321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79163155608962887</v>
+        <v>0.32509210739867755</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95300232027961984</v>
+        <v>0.61605778583877446</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2552038869631974</v>
+        <v>0.49476076164563199</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10541207372424044</v>
+        <v>0.25081530441014377</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1063507792289409E-2</v>
+        <v>0.80854201055314767</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59501009144677763</v>
+        <v>0.15384709104100747</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69935625706837878</v>
+        <v>0.14119590188244557</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85705089031488502</v>
+        <v>0.52113719762615807</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3862598253194538</v>
+        <v>0.76215149294123508</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84392764827064282</v>
+        <v>0.72381758772976412</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45976868392981918</v>
+        <v>0.45480505457365561</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95681308117915098</v>
+        <v>0.57723458964930419</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69489204487945144</v>
+        <v>0.43736209392916681</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16918407714962902</v>
+        <v>0.50289665987690468</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1428689585160661E-2</v>
+        <v>0.54903753471562011</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1080865001904644</v>
+        <v>0.49773878460640841</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45697369080687722</v>
+        <v>0.31296672608259557</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98817597586019368</v>
+        <v>0.26398686700868079</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59210672488367777</v>
+        <v>0.57693098042797486</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46498510095802226</v>
+        <v>0.86701986183717128</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31059091627165192</v>
+        <v>0.38260854457419047</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31823908383638444</v>
+        <v>0.49853279315829202</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75354011002960519</v>
+        <v>0.23578822221740481</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50958551431911381</v>
+        <v>0.19291077411522295</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40602634743691557</v>
+        <v>1.0408223074551914E-2</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10580519333948157</v>
+        <v>0.24615240558694573</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7652682020384205E-2</v>
+        <v>0.55361799324505712</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54526820881746263</v>
+        <v>0.1850034244025146</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19190746330208452</v>
+        <v>0.4341008715885164</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65888597512593172</v>
+        <v>0.37716188410386076</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86422618995173051</v>
+        <v>0.32123899226488295</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74306755341584407</v>
+        <v>9.8222381398271774E-2</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="Q50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22509139459115857</v>
+        <v>0.8601608780790595</v>
       </c>
     </row>
   </sheetData>
@@ -33613,7 +33613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+    <sheetView zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
@@ -39620,8 +39620,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="685" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0C687B3-269E-4E77-8AB4-FFBF97383813}"/>
+  <xr:revisionPtr revIDLastSave="686" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC73C3B5-DD0F-4D3B-A9BF-8B24B0794C05}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="3" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView minimized="1" xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.58994597876812738</v>
+        <v>0.97029443826445805</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q50" ca="1" si="1">RAND()</f>
-        <v>0.7940849879876265</v>
+        <v>0.52513902438263838</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1741,14 +1741,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14365803542526023</v>
+        <v>0.1412227005732033</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.47388861920661651</v>
+        <v>0.47621649574879343</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95505603842718556</v>
+        <v>0.27414385051697454</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98275646893500501</v>
+        <v>0.21968749125267717</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43481116132383013</v>
+        <v>1.7067863687812546E-2</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1299887905410676</v>
+        <v>0.11102031032222082</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98465524653922598</v>
+        <v>0.9618009723432025</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78087817157180772</v>
+        <v>0.37912577471489028</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38583064384671684</v>
+        <v>0.59020400900863801</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81911966748362586</v>
+        <v>0.20952595118109318</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55553839680094219</v>
+        <v>2.8680539210968137E-2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20762300055702354</v>
+        <v>0.44559976361151821</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70408177047192066</v>
+        <v>3.5242035830998164E-2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2014809548003097</v>
+        <v>0.67021069975427183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94649924656606321</v>
+        <v>0.12390338042749416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32509210739867755</v>
+        <v>0.55350391965467949</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61605778583877446</v>
+        <v>0.58730828032159521</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49476076164563199</v>
+        <v>0.5502989446919504</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25081530441014377</v>
+        <v>0.34058777863845446</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80854201055314767</v>
+        <v>0.78418197916434007</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15384709104100747</v>
+        <v>0.40717572340044639</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14119590188244557</v>
+        <v>0.25452385561384061</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52113719762615807</v>
+        <v>0.51299693832800564</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76215149294123508</v>
+        <v>0.66604542972671876</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72381758772976412</v>
+        <v>0.6779372749581134</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45480505457365561</v>
+        <v>0.11798320799618089</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57723458964930419</v>
+        <v>0.5046953534712143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43736209392916681</v>
+        <v>0.46646515275567357</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50289665987690468</v>
+        <v>0.21476235614088979</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54903753471562011</v>
+        <v>0.89483282072920955</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49773878460640841</v>
+        <v>0.72104535063159647</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31296672608259557</v>
+        <v>0.73990427559233396</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26398686700868079</v>
+        <v>0.41206110949947561</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57693098042797486</v>
+        <v>0.67141223027628627</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86701986183717128</v>
+        <v>0.17633140323835128</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38260854457419047</v>
+        <v>0.75472055979053987</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49853279315829202</v>
+        <v>0.36350126940928473</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23578822221740481</v>
+        <v>0.41172478113536037</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19291077411522295</v>
+        <v>0.47441867472495136</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0408223074551914E-2</v>
+        <v>0.1475904540459273</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24615240558694573</v>
+        <v>0.84589861910199649</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55361799324505712</v>
+        <v>2.8317940339906644E-2</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1850034244025146</v>
+        <v>0.5536179876119679</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4341008715885164</v>
+        <v>0.48901836572010859</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37716188410386076</v>
+        <v>0.42716252642512631</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32123899226488295</v>
+        <v>0.15906289915375138</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8222381398271774E-2</v>
+        <v>0.16817577479573298</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="Q50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8601608780790595</v>
+        <v>0.63869497488118188</v>
       </c>
     </row>
   </sheetData>
@@ -33613,14 +33613,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.36328125" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.453125" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.54296875" customWidth="1"/>
@@ -39620,8 +39621,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="686" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC73C3B5-DD0F-4D3B-A9BF-8B24B0794C05}"/>
+  <xr:revisionPtr revIDLastSave="687" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC97AA69-AA58-4355-B171-8154202EFD56}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="350" yWindow="170" windowWidth="18850" windowHeight="10630" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="360" yWindow="170" windowWidth="18840" windowHeight="10630" activeTab="3" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.97029443826445805</v>
+        <v>0.71838265423462921</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q50" ca="1" si="1">RAND()</f>
-        <v>0.52513902438263838</v>
+        <v>0.6546478188385636</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1741,14 +1741,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1412227005732033</v>
+        <v>4.0308907414920991E-3</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.47621649574879343</v>
+        <v>0.59066745041969715</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27414385051697454</v>
+        <v>0.65230475902304785</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21968749125267717</v>
+        <v>6.2518384480594325E-3</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7067863687812546E-2</v>
+        <v>0.38594493019433607</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11102031032222082</v>
+        <v>9.3639988287353981E-3</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9618009723432025</v>
+        <v>6.9936407827764668E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37912577471489028</v>
+        <v>0.57124047126090083</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59020400900863801</v>
+        <v>0.72892013975083614</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20952595118109318</v>
+        <v>9.998368600246843E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8680539210968137E-2</v>
+        <v>0.81984136160506393</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44559976361151821</v>
+        <v>0.67448089731416927</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5242035830998164E-2</v>
+        <v>0.84574034432000844</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67021069975427183</v>
+        <v>0.97131950373342946</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12390338042749416</v>
+        <v>7.1112287569376154E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55350391965467949</v>
+        <v>0.7103555581277029</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58730828032159521</v>
+        <v>7.9091640005553576E-2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5502989446919504</v>
+        <v>0.87938866867028365</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34058777863845446</v>
+        <v>0.76407686773875072</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78418197916434007</v>
+        <v>0.75948115845773656</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40717572340044639</v>
+        <v>0.57566873190594492</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25452385561384061</v>
+        <v>0.1524632571725264</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51299693832800564</v>
+        <v>0.78130121722027446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66604542972671876</v>
+        <v>0.22328260629480745</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6779372749581134</v>
+        <v>0.46281723156089771</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11798320799618089</v>
+        <v>0.64077566954345455</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5046953534712143</v>
+        <v>0.61930641692718746</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46646515275567357</v>
+        <v>0.28021083742593911</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21476235614088979</v>
+        <v>0.96926020052805872</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89483282072920955</v>
+        <v>0.45096992937635827</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72104535063159647</v>
+        <v>0.8468279415590223</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73990427559233396</v>
+        <v>0.93972362875030768</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41206110949947561</v>
+        <v>0.53382881717428898</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67141223027628627</v>
+        <v>0.55504178645313584</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17633140323835128</v>
+        <v>0.25597213645763606</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75472055979053987</v>
+        <v>0.20102240070543187</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36350126940928473</v>
+        <v>0.73879337553666125</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41172478113536037</v>
+        <v>0.6055939148851196</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47441867472495136</v>
+        <v>0.57584528376472977</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1475904540459273</v>
+        <v>0.54069817721278968</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84589861910199649</v>
+        <v>0.59457379277817102</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8317940339906644E-2</v>
+        <v>0.32841458857307759</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5536179876119679</v>
+        <v>0.27596632728574133</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48901836572010859</v>
+        <v>0.90634078456378531</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42716252642512631</v>
+        <v>0.69354211169149371</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15906289915375138</v>
+        <v>0.35290222503377955</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16817577479573298</v>
+        <v>0.80945677398141924</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="Q50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63869497488118188</v>
+        <v>0.43087107932205759</v>
       </c>
     </row>
   </sheetData>
@@ -33613,8 +33613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A15" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39618,11 +39618,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40166,7 +40165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -40352,7 +40351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -40652,7 +40651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -40677,7 +40676,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -40695,7 +40694,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -40716,7 +40715,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>172</v>
       </c>
@@ -40928,7 +40927,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -40948,7 +40947,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -40968,7 +40967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -40983,7 +40982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>230</v>
       </c>
@@ -40999,11 +40998,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J59" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J55">
       <sortCondition ref="G1:G58"/>
     </sortState>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,37 +5,38 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranos\OneDrive - Umich\Documents\D\Michigan\Res\Female careers in location\Codes\matlab\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="687" documentId="13_ncr:1_{1F6193A1-24F7-47AE-86D6-8C72A9FF5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC97AA69-AA58-4355-B171-8154202EFD56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA8F8BF-4C08-4020-B27B-D2102EF89E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="170" windowWidth="18840" windowHeight="10630" activeTab="3" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="360" yWindow="170" windowWidth="18840" windowHeight="10630" firstSheet="1" activeTab="3" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
     <sheet name="PARS" sheetId="3" r:id="rId2"/>
-    <sheet name="PARS4" sheetId="14" r:id="rId3"/>
-    <sheet name="MOMS" sheetId="2" r:id="rId4"/>
-    <sheet name="W" sheetId="10" r:id="rId5"/>
-    <sheet name="W_" sheetId="8" r:id="rId6"/>
-    <sheet name="parskickedout" sheetId="5" r:id="rId7"/>
-    <sheet name="Moments_other" sheetId="7" r:id="rId8"/>
-    <sheet name="Moments_psid" sheetId="6" r:id="rId9"/>
-    <sheet name="OUTSIDE MOMENT" sheetId="1" r:id="rId10"/>
-    <sheet name="W_psid" sheetId="4" r:id="rId11"/>
-    <sheet name="W_other" sheetId="9" r:id="rId12"/>
-    <sheet name="Ns" sheetId="12" r:id="rId13"/>
-    <sheet name="calibration of jseg" sheetId="13" r:id="rId14"/>
+    <sheet name="notes" sheetId="15" r:id="rId3"/>
+    <sheet name="PARS4" sheetId="14" r:id="rId4"/>
+    <sheet name="MOMS" sheetId="2" r:id="rId5"/>
+    <sheet name="W" sheetId="10" r:id="rId6"/>
+    <sheet name="W_" sheetId="8" r:id="rId7"/>
+    <sheet name="parskickedout" sheetId="5" r:id="rId8"/>
+    <sheet name="Moments_other" sheetId="7" r:id="rId9"/>
+    <sheet name="Moments_psid" sheetId="6" r:id="rId10"/>
+    <sheet name="OUTSIDE MOMENT" sheetId="1" r:id="rId11"/>
+    <sheet name="W_psid" sheetId="4" r:id="rId12"/>
+    <sheet name="W_other" sheetId="9" r:id="rId13"/>
+    <sheet name="Ns" sheetId="12" r:id="rId14"/>
+    <sheet name="calibration of jseg" sheetId="13" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MOMS!$A$1:$J$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$V$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PARS4!$A$1:$V$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">W_psid!$A$1:$CT$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">MOMS!$A$1:$J$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$V$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PARS4!$A$1:$V$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">W_psid!$A$1:$CT$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -190,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="264">
   <si>
     <t>label</t>
   </si>
@@ -950,15 +951,49 @@
   <si>
     <t>typeic</t>
   </si>
+  <si>
+    <t>ic0_</t>
+  </si>
+  <si>
+    <t>ic0</t>
+  </si>
+  <si>
+    <t>But this requires crazy high Xi</t>
+  </si>
+  <si>
+    <t>and crrat</t>
+  </si>
+  <si>
+    <t>commuting cannot really be matched as well</t>
+  </si>
+  <si>
+    <t>The biggest issue in principal will be that muw and sw are small - so wifes not working will actually have GOOD matches!</t>
+  </si>
+  <si>
+    <t>Those who work will have bad matches, but lfp=0 will mean an improvement - suburbs will be good for them</t>
+  </si>
+  <si>
+    <t>lower crra - lfp hard to get?</t>
+  </si>
+  <si>
+    <t>increasing crrrat - Xi would need to icnrease as well - whours_pww_dif again an issue</t>
+  </si>
+  <si>
+    <t>also make shours worse</t>
+  </si>
+  <si>
+    <t>higher crrat - also more participation gap - sw has togo up and there will be again negative matches being dropped</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1054,7 +1089,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1074,6 +1109,8 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1464,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:Q47"/>
+      <selection activeCell="B47" sqref="B47:Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1544,18 +1581,18 @@
       </c>
       <c r="B2">
         <f>PARS!B2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="C2">
         <f>PARS!C2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="D2">
         <f>PARS!D2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="E2" t="b">
-        <f t="shared" ref="E2:E50" si="0">AND(D2&gt;=B2,B2&gt;=C2,D2&gt;=C2)</f>
+        <f t="shared" ref="E2:E51" si="0">AND(D2&gt;=B2,B2&gt;=C2,D2&gt;=C2)</f>
         <v>1</v>
       </c>
       <c r="F2">
@@ -1603,7 +1640,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.71838265423462921</v>
+        <v>0.85756704794567307</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1670,8 +1707,8 @@
         <v>0.64258992231765177</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q50" ca="1" si="1">RAND()</f>
-        <v>0.6546478188385636</v>
+        <f t="shared" ref="Q3:Q51" ca="1" si="1">RAND()</f>
+        <v>0.71617526431792422</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1741,14 +1778,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0308907414920991E-3</v>
+        <v>0.70972756790259606</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.59066745041969715</v>
+        <v>0.15352655456315201</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1757,7 +1794,7 @@
       </c>
       <c r="B5">
         <f>PARS!B5</f>
-        <v>-0.22314355131420971</v>
+        <v>-0.12148989758770987</v>
       </c>
       <c r="C5">
         <f>PARS!C5</f>
@@ -1816,7 +1853,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65230475902304785</v>
+        <v>0.36220655636069943</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1884,7 +1921,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2518384480594325E-3</v>
+        <v>0.32394429616993559</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1899,15 +1936,15 @@
       </c>
       <c r="C7">
         <f>PARS!C7</f>
-        <v>-2.3025850929940455</v>
+        <v>-1.6094379124341003</v>
       </c>
       <c r="D7">
         <f>PARS!D7</f>
-        <v>-0.916290731874155</v>
+        <v>-1.2039728043259361</v>
       </c>
       <c r="E7" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f>PARS!K7</f>
@@ -1954,7 +1991,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38594493019433607</v>
+        <v>0.3692907680105032</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -2024,7 +2061,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3639988287353981E-3</v>
+        <v>0.20947049642012117</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2091,7 +2128,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9936407827764668E-2</v>
+        <v>0.27758786562330162</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2100,7 +2137,7 @@
       </c>
       <c r="B10">
         <f>PARS!B10</f>
-        <v>0</v>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
@@ -2159,7 +2196,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57124047126090083</v>
+        <v>0.30062456513775893</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2227,7 +2264,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72892013975083614</v>
+        <v>0.38903573243675027</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2295,7 +2332,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>9.998368600246843E-2</v>
+        <v>0.32775419087002233</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2363,7 +2400,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81984136160506393</v>
+        <v>0.35523942883243542</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2431,7 +2468,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67448089731416927</v>
+        <v>5.5406088778975349E-3</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2499,7 +2536,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84574034432000844</v>
+        <v>0.32086528412850035</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2566,7 +2603,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97131950373342946</v>
+        <v>0.68987185940038542</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2633,7 +2670,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1112287569376154E-2</v>
+        <v>0.99422923049497081</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2700,7 +2737,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7103555581277029</v>
+        <v>0.65787074830896985</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2768,7 +2805,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9091640005553576E-2</v>
+        <v>0.88644460951046788</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2835,7 +2872,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87938866867028365</v>
+        <v>9.2328067749212983E-2</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2902,7 +2939,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76407686773875072</v>
+        <v>8.7044828818135245E-2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2969,7 +3006,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75948115845773656</v>
+        <v>0.10809659790185211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -3037,7 +3074,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57566873190594492</v>
+        <v>6.0995072428003283E-2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3104,7 +3141,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1524632571725264</v>
+        <v>0.71558808588504808</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3171,7 +3208,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78130121722027446</v>
+        <v>0.10026426955385215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3238,7 +3275,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22328260629480745</v>
+        <v>0.4473974777471631</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3306,7 +3343,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46281723156089771</v>
+        <v>0.84366455139294771</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3373,7 +3410,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64077566954345455</v>
+        <v>0.30130508753782437</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3440,7 +3477,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61930641692718746</v>
+        <v>0.76337842423645041</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3507,7 +3544,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28021083742593911</v>
+        <v>7.9676454727142798E-2</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3574,7 +3611,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96926020052805872</v>
+        <v>0.96734750686315196</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3642,7 +3679,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45096992937635827</v>
+        <v>0.19251016755226991</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3709,7 +3746,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8468279415590223</v>
+        <v>0.14135312459768512</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3776,7 +3813,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93972362875030768</v>
+        <v>0.39302256856105666</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3843,7 +3880,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53382881717428898</v>
+        <v>0.70349278207234556</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3910,7 +3947,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55504178645313584</v>
+        <v>0.1953900733646996</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3977,7 +4014,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25597213645763606</v>
+        <v>1.0885671008984632E-2</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -4045,7 +4082,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20102240070543187</v>
+        <v>0.29018645338978055</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4113,7 +4150,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73879337553666125</v>
+        <v>7.0584861948488342E-3</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4181,7 +4218,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6055939148851196</v>
+        <v>0.208520947292129</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4249,7 +4286,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57584528376472977</v>
+        <v>0.80362687117897103</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4317,7 +4354,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54069817721278968</v>
+        <v>0.80532033329737207</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4385,7 +4422,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59457379277817102</v>
+        <v>3.899284215439347E-2</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4453,7 +4490,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32841458857307759</v>
+        <v>0.97590496989979347</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4521,7 +4558,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27596632728574133</v>
+        <v>0.76202233786834617</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4589,7 +4626,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90634078456378531</v>
+        <v>0.13365650512608107</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4598,15 +4635,15 @@
       </c>
       <c r="B47">
         <f>PARS!B47</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="C47">
         <f>PARS!C47</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D47">
         <f>PARS!D47</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="E47" t="b">
         <f t="shared" ref="E47" si="2">AND(D47&gt;=B47,B47&gt;=C47,D47&gt;=C47)</f>
@@ -4630,11 +4667,11 @@
       </c>
       <c r="J47">
         <f>PARS!O47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <f>PARS!P47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <f>PARS!Q47</f>
@@ -4657,28 +4694,28 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69354211169149371</v>
+        <v>0.30798366897560792</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="B48">
         <f>PARS!B48</f>
-        <v>1.0696163149411613</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <f>PARS!C48</f>
-        <v>1.0696163149411613</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <f>PARS!D48</f>
-        <v>1.0696163149411613</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="E48" si="3">AND(D48&gt;=B48,B48&gt;=C48,D48&gt;=C48)</f>
+        <v>0</v>
       </c>
       <c r="F48">
         <f>PARS!K48</f>
@@ -4721,28 +4758,28 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0.80782005028098203</v>
+        <v>2.7297503412316</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35290222503377955</v>
+        <v>0.85906653957556289</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B49">
         <f>PARS!B49</f>
-        <v>0.99381918034015848</v>
+        <v>1.0672742837827216</v>
       </c>
       <c r="C49">
         <f>PARS!C49</f>
-        <v>0.99381918034015848</v>
+        <v>1.0672742837827216</v>
       </c>
       <c r="D49">
         <f>PARS!D49</f>
-        <v>0.99381918034015848</v>
+        <v>1.0672742837827216</v>
       </c>
       <c r="E49" t="b">
         <f t="shared" si="0"/>
@@ -4789,28 +4826,28 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>7.2670121740322058E-2</v>
+        <v>0.80782005028098203</v>
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80945677398141924</v>
+        <v>0.71310281172237733</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B50">
         <f>PARS!B50</f>
-        <v>0.9618468890261952</v>
+        <v>0.99203290686947143</v>
       </c>
       <c r="C50">
         <f>PARS!C50</f>
-        <v>0.9618468890261952</v>
+        <v>0.99203290686947143</v>
       </c>
       <c r="D50">
         <f>PARS!D50</f>
-        <v>0.9618468890261952</v>
+        <v>0.99203290686947143</v>
       </c>
       <c r="E50" t="b">
         <f t="shared" si="0"/>
@@ -4857,11 +4894,79 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>0.14486889267994729</v>
+        <v>7.2670121740322058E-2</v>
       </c>
       <c r="Q50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43087107932205759</v>
+        <v>0.23640756879645064</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51">
+        <f>PARS!B51</f>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="C51">
+        <f>PARS!C51</f>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="D51">
+        <f>PARS!D51</f>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="E51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f>PARS!K51</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f>PARS!L51</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f>PARS!M51</f>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>PARS!N51</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>PARS!O51</f>
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <f>PARS!P51</f>
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <f>PARS!Q51</f>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f>PARS!R51</f>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f>PARS!S51</f>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f>PARS!T51</f>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0.14486889267994729</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37390446486263795</v>
       </c>
     </row>
   </sheetData>
@@ -4870,16 +4975,1163 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388BE545-5E3B-42EF-ACF3-27ADED17A03F}">
+  <dimension ref="A1:D104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>12.15999517122788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>-3.861997079160544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-3.0873847385719864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>-3.0225488018735542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>-0.11303417539098579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0.36030751060892358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>8.6669121586366344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>-1.8066067213854717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>-1.8615985945475741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>-2.3628717358738442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>-0.11499820885638209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0.53125214244041696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>-2.6967358682803724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>-2.7084940999921852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>-0.29730104993288531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0.37207329147337387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1.858023032880175E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1.8814014327029097E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1.9666306282818055E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1.9010739631001277E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>9.9917849898722749E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>1.0295415592160683E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>127.55650702409324</v>
+      </c>
+      <c r="D24">
+        <f>SQRT(C24)</f>
+        <v>11.29409168654537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>152.82676676750708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>19570.859179726365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>12.44396883514832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>5.1252961163707582E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>-1.1007650138021456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>1.736209688555819E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>-1.0520267687112621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>12.599508797755121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>-0.87605777732597212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>-0.9702414561635655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>51.619423226464122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>47.767288868610905</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>9.652543979375891E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>7.0380097359185795E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>0.97377889090392133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>-0.22074335511107743</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>0.93260040414320899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>-0.25520335289941354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>1873.126070137658</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>495.34145665939718</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>1965.336546713233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>-151.6344770370616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>593.16349855375722</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>188.31892785785749</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>2206.542127027375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>63.102838742636663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>-671.54653071480561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>105.92467385866674</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>-617.09437937111409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>-558.4590458999968</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>-604.50613192106164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>-50.524167685204183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>277.39608436846476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>973.91420861085408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>683.00321899695871</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>-109.15475557571985</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>10.749750534236171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>10.20215423913753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>10.10766490513001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>10.173847774176989</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>10.2556641220316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>9.7404941422592</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>1.157144280275159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>1.1368768064623165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>-0.16954406250368551</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>-3.0939100009194508E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>-2.556595072362184E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>-3.0105688513929942E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>-2.2894618403046657E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>-8.7903812532399481</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>-8.2817295655450867</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>-7.94157992226146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>-3.9984408904219109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>-1.71230335362176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>5.2860668593272644</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>8.6070781124664784</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>-2.3781418707111426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>2.3340746736978842E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>-1.8968135394908277E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>27.92188509805143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>25.127687734127111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>122.548474987894</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+      <c r="C89">
+        <v>142.5528382120342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90">
+        <v>90</v>
+      </c>
+      <c r="C90">
+        <v>18478.29340157317</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91">
+        <v>-0.23237462229539668</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92">
+        <v>-0.2885949120223249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93">
+        <v>-0.26293418832561893</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94">
+        <v>-0.29549068412733248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95">
+        <v>-0.34749104115171398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96">
+        <v>-0.32539548393483481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97">
+        <v>92</v>
+      </c>
+      <c r="C97">
+        <v>-0.24229407501972869</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98">
+        <v>93</v>
+      </c>
+      <c r="C98">
+        <v>-0.27005117509554516</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99">
+        <v>94</v>
+      </c>
+      <c r="C99">
+        <v>-0.24397495405798156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>169</v>
+      </c>
+      <c r="B100">
+        <v>95</v>
+      </c>
+      <c r="C100">
+        <v>-0.29782014109595623</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>170</v>
+      </c>
+      <c r="B101">
+        <v>96</v>
+      </c>
+      <c r="C101">
+        <v>-0.32810689174601754</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102">
+        <v>97</v>
+      </c>
+      <c r="C102">
+        <v>-0.30802326104585137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103">
+        <v>98</v>
+      </c>
+      <c r="C103">
+        <v>3.1781313988501392</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104">
+        <v>99</v>
+      </c>
+      <c r="C104">
+        <v>2.905856906222299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3232877D-0BFB-41E6-9597-1FA0FC36E360}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4896,7 +6148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4916,7 +6168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4927,7 +6179,7 @@
         <v>18.518263999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4945,7 +6197,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -4963,7 +6215,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -4974,7 +6226,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -4982,7 +6234,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -4990,7 +6242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -4998,7 +6250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -5006,7 +6258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -5017,12 +6269,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>217</v>
       </c>
@@ -5032,8 +6284,11 @@
       <c r="H15" t="s">
         <v>248</v>
       </c>
+      <c r="I15" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C16">
         <f>EXP(-0.0135*6.6667)*2*(1-0.156527)/(0.193*(C17))</f>
         <v>20.65970855393061</v>
@@ -5044,7 +6299,15 @@
       </c>
       <c r="H16">
         <f>PARS!E36</f>
-        <v>4.5</v>
+        <v>3.5</v>
+      </c>
+      <c r="I16">
+        <f>PARS!E48</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>EXP(I16*H16)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.35">
@@ -5066,16 +6329,16 @@
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F19">
-        <f>0.5*(((2206.542/(24*365)+EXP(-0.244)*(2206.542/(24*365)-671.547/(24*365)))*(1-0.22) + (2269/(24*365))*(0.22)))*EXP(0.0135*H16)</f>
-        <v>0.1915620464160101</v>
+        <f>0.5*(((2206.542/(24*365)+EXP(-0.244)*(2206.542/(24*365)-671.547/(24*365)))*(1-0.22) + (2269/(24*365))*(0.22)))*EXP(I16*H16)</f>
+        <v>0.18027108726604746</v>
       </c>
       <c r="H19">
         <f>F19*G27</f>
-        <v>3.9137864684566694</v>
+        <v>3.6831019254389274</v>
       </c>
       <c r="J19">
         <f>H19*(1/(1-0.16))</f>
-        <v>4.6592696053055587</v>
+        <v>4.3846451493320568</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.35">
@@ -5085,16 +6348,16 @@
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F21">
-        <f>1873/(24*365)*EXP(0.0135*H16)</f>
-        <v>0.22720456918535004</v>
+        <f>1873/(24*365)*EXP(I16*H16)</f>
+        <v>0.21381278538812784</v>
       </c>
       <c r="H21">
         <f>F21*G27</f>
-        <v>4.6419955575022058</v>
+        <v>4.3683892602493426</v>
       </c>
       <c r="J21">
         <f>H21*(1/(1-0.16))</f>
-        <v>5.5261851875026258</v>
+        <v>5.2004634050587413</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.35">
@@ -5105,11 +6368,11 @@
     <row r="24" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F24">
         <f>(F19*(1-F16)+F21*F16)/(1-0.16)</f>
-        <v>0.24629280361743056</v>
+        <v>0.23177593017301654</v>
       </c>
       <c r="J24">
         <f>J19*(1-F16)+J21*F16</f>
-        <v>5.0319855112781511</v>
+        <v>4.7353926114108162</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.35">
@@ -5123,14 +6386,14 @@
     <row r="27" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F27">
         <f>1/(F24*0.193)</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="G27">
         <v>20.430907591983047</v>
       </c>
       <c r="J27">
         <f>J24*0.193</f>
-        <v>0.97117320367668314</v>
+        <v>0.9139307740022875</v>
       </c>
     </row>
   </sheetData>
@@ -5142,7 +6405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5CC74-B573-41B1-AB75-48DBC5AE1670}">
   <dimension ref="A1:DB104"/>
   <sheetViews>
@@ -33078,7 +34341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641FA06B-861E-4739-90D9-A8300FC4235B}">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -33411,7 +34674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A18632C-4D93-40C5-87DA-5963032447B4}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -33458,7 +34721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BED87C-80BD-46F2-8F90-C5A416977A8A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -33611,17 +34874,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E34"/>
+    <sheetView zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.453125" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.54296875" customWidth="1"/>
@@ -33703,26 +34964,27 @@
       </c>
       <c r="B2" s="3">
         <f>E2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="C2">
         <f>F2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="D2">
         <f>G2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="E2" s="17">
-        <v>21.03734690643789</v>
+        <f>'OUTSIDE MOMENT'!F27</f>
+        <v>22.35498373964581</v>
       </c>
       <c r="F2">
         <f>E2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="G2">
         <f>E2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="H2">
         <v>999</v>
@@ -33738,15 +35000,15 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P50" si="0">SUM(L2:O2)</f>
+        <f t="shared" ref="P2:P51" si="0">SUM(L2:O2)</f>
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S50" si="1">L2-Q2</f>
+        <f t="shared" ref="S2:S51" si="1">L2-Q2</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T50" si="2">S2+N2+Q2+M2</f>
+        <f t="shared" ref="T2:T51" si="2">S2+N2+Q2+M2</f>
         <v>1</v>
       </c>
       <c r="U2">
@@ -33770,7 +35032,7 @@
         <f>C3</f>
         <v>1.8814014327029097E-3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="19">
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="F3">
@@ -33815,7 +35077,7 @@
       </c>
       <c r="B4" s="7">
         <f>LN(E4)</f>
-        <v>-0.22314355131420971</v>
+        <v>-0.12148989758770987</v>
       </c>
       <c r="C4" s="7">
         <f>LN(F4)</f>
@@ -33825,8 +35087,8 @@
         <f>LN(G4)</f>
         <v>0.18232155679395459</v>
       </c>
-      <c r="E4" s="17">
-        <v>0.8</v>
+      <c r="E4" s="19">
+        <v>0.88560000000000005</v>
       </c>
       <c r="F4">
         <v>0.6</v>
@@ -33842,7 +35104,7 @@
       </c>
       <c r="J4">
         <f>1/E4</f>
-        <v>1.25</v>
+        <v>1.1291779584462511</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -33868,7 +35130,7 @@
       </c>
       <c r="V4">
         <f>EXP(B4)</f>
-        <v>0.8</v>
+        <v>0.88560000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
@@ -33877,7 +35139,7 @@
       </c>
       <c r="B5" s="7">
         <f>LN(E5)</f>
-        <v>-0.22314355131420971</v>
+        <v>-0.12148989758770987</v>
       </c>
       <c r="C5">
         <f>C4</f>
@@ -33887,9 +35149,8 @@
         <f>D4</f>
         <v>0.18232155679395459</v>
       </c>
-      <c r="E5" s="17">
-        <f>E4</f>
-        <v>0.8</v>
+      <c r="E5" s="19">
+        <v>0.88560000000000005</v>
       </c>
       <c r="F5">
         <v>0.6</v>
@@ -33905,7 +35166,7 @@
       </c>
       <c r="J5">
         <f>1/E5</f>
-        <v>1.25</v>
+        <v>1.1291779584462511</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -33943,7 +35204,7 @@
         <f>B6</f>
         <v>0.20836072497837904</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="19">
         <v>1.6156999999999999</v>
       </c>
       <c r="F6">
@@ -33988,25 +35249,24 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D9" si="3">LN(E7)</f>
-        <v>-1.4323382996212974</v>
+        <v>-1.1397468320266646</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
-        <v>-2.3025850929940455</v>
+        <v>-1.6094379124341003</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>-0.916290731874155</v>
-      </c>
-      <c r="E7" s="17">
-        <f>0.191/0.8</f>
-        <v>0.23874999999999999</v>
+        <v>-1.2039728043259361</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.31990000000000002</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G7">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H7">
         <v>1.1000000000000001</v>
@@ -34016,7 +35276,7 @@
       </c>
       <c r="J7">
         <f>1/E7</f>
-        <v>4.1884816753926701</v>
+        <v>3.1259768677711781</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -34042,7 +35302,7 @@
       </c>
       <c r="V7">
         <f>EXP(B7)</f>
-        <v>0.23874999999999999</v>
+        <v>0.31990000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
@@ -34051,7 +35311,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
@@ -34061,8 +35321,8 @@
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
-      <c r="E8" s="17">
-        <v>1</v>
+      <c r="E8" s="19">
+        <v>0.8</v>
       </c>
       <c r="F8">
         <v>0.85</v>
@@ -34078,7 +35338,7 @@
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J21" si="5">1/E8</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -34104,7 +35364,7 @@
       </c>
       <c r="V8">
         <f>EXP(B8)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
@@ -34113,7 +35373,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="3"/>
-        <v>1.3862943611198906</v>
+        <v>1.589235205116581</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
@@ -34123,8 +35383,8 @@
         <f t="shared" si="3"/>
         <v>1.791759469228055</v>
       </c>
-      <c r="E9" s="17">
-        <v>4</v>
+      <c r="E9" s="19">
+        <v>4.9000000000000004</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -34140,7 +35400,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -34166,7 +35426,7 @@
       </c>
       <c r="V9">
         <f>EXP(B9)</f>
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
@@ -34175,7 +35435,7 @@
       </c>
       <c r="B10">
         <f>LN(E10)</f>
-        <v>0</v>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="C10">
         <f>C4</f>
@@ -34185,8 +35445,9 @@
         <f>D4</f>
         <v>0.18232155679395459</v>
       </c>
-      <c r="E10" s="17">
-        <v>1</v>
+      <c r="E10" s="19">
+        <f>E8</f>
+        <v>0.8</v>
       </c>
       <c r="F10">
         <f>F4</f>
@@ -34204,7 +35465,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -34242,7 +35503,7 @@
         <f>LN(G11)</f>
         <v>-1.1771745727096741</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="19">
         <v>0.15407408</v>
       </c>
       <c r="F11">
@@ -34309,7 +35570,7 @@
         <f>-LN(1/G12 -1)</f>
         <v>1.0551933911457412</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="19">
         <v>0.66013195000000002</v>
       </c>
       <c r="F12">
@@ -34374,7 +35635,7 @@
         <f>G13</f>
         <v>1.16649</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="19">
         <v>0.91482224000000001</v>
       </c>
       <c r="F13">
@@ -34435,7 +35696,7 @@
         <f>B14*1.3</f>
         <v>0.33413097860603447</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="19">
         <v>1.29307594</v>
       </c>
       <c r="F14">
@@ -34496,7 +35757,7 @@
         <f>LN(G15)</f>
         <v>-2.5836226227271579</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="19">
         <v>9.4106369999999995E-2</v>
       </c>
       <c r="F15">
@@ -34561,7 +35822,7 @@
         <f>LN(-F16)</f>
         <v>-1.1647520911726548</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="19">
         <v>-0.24299999999999999</v>
       </c>
       <c r="F16">
@@ -34613,7 +35874,7 @@
       </c>
       <c r="B17">
         <f t="shared" ref="B17:D18" si="6">LN(E17)</f>
-        <v>-0.41551544396166579</v>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="C17">
         <f t="shared" si="6"/>
@@ -34623,8 +35884,8 @@
         <f t="shared" si="6"/>
         <v>-0.43078291609245423</v>
       </c>
-      <c r="E17" s="17">
-        <v>0.66</v>
+      <c r="E17" s="19">
+        <v>1.06</v>
       </c>
       <c r="F17">
         <v>0.3</v>
@@ -34640,7 +35901,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1.5151515151515151</v>
+        <v>0.94339622641509424</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -34666,7 +35927,7 @@
       </c>
       <c r="V17">
         <f>EXP(B17)</f>
-        <v>0.66</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
@@ -34675,7 +35936,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="6"/>
-        <v>1.9878743481543455</v>
+        <v>1.5686159179138452</v>
       </c>
       <c r="C18">
         <f t="shared" si="6"/>
@@ -34685,8 +35946,8 @@
         <f t="shared" si="6"/>
         <v>2.341805806147327</v>
       </c>
-      <c r="E18" s="17">
-        <v>7.3</v>
+      <c r="E18" s="19">
+        <v>4.8</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -34702,7 +35963,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>0.13698630136986301</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -34728,7 +35989,7 @@
       </c>
       <c r="V18">
         <f>EXP(B18)</f>
-        <v>7.3000000000000007</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
@@ -34747,7 +36008,7 @@
         <f>LN(G19/100)</f>
         <v>2.9957322735539909</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="19">
         <v>2000</v>
       </c>
       <c r="F19">
@@ -34798,18 +36059,18 @@
       </c>
       <c r="B20">
         <f>-LN(1/E20 -1)*1000</f>
-        <v>24.401210673453068</v>
+        <v>426.76116533567205</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:D20" si="7">-LN(1/F20 -1)*1000</f>
+        <f t="shared" ref="C20" si="7">-LN(1/F20 -1)*1000</f>
         <v>0</v>
       </c>
       <c r="D20">
-        <f t="shared" si="7"/>
+        <f>-LN(1/G20 -1)*1000</f>
         <v>405.46510810816426</v>
       </c>
-      <c r="E20" s="17">
-        <v>0.50609999999999999</v>
+      <c r="E20" s="19">
+        <v>0.60509999999999997</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -34825,7 +36086,7 @@
       </c>
       <c r="J20">
         <f>1000/(E20*(1-E20))</f>
-        <v>4000.5954486265737</v>
+        <v>4184.9060566011058</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -34851,7 +36112,7 @@
       </c>
       <c r="V20">
         <f>1/(1+EXP(-B20/1000))</f>
-        <v>0.50609999999999999</v>
+        <v>0.60509999999999997</v>
       </c>
       <c r="W20" t="s">
         <v>247</v>
@@ -34881,7 +36142,7 @@
         <f>LN(G21/10)</f>
         <v>0.61518563909023349</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="19">
         <v>15.3</v>
       </c>
       <c r="F21">
@@ -34943,7 +36204,7 @@
         <f>1-LN(1/(G22-1) -1)</f>
         <v>7.9067547786486871</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="19">
         <v>1.9</v>
       </c>
       <c r="F22">
@@ -34999,7 +36260,7 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="19">
         <v>0</v>
       </c>
       <c r="F23">
@@ -35044,7 +36305,7 @@
       </c>
       <c r="B24">
         <f t="shared" ref="B24:D25" si="8">E24</f>
-        <v>-1.6E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="C24">
         <f t="shared" si="8"/>
@@ -35054,8 +36315,8 @@
         <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
-      <c r="E24" s="17">
-        <v>-1.6E-2</v>
+      <c r="E24" s="19">
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="F24">
         <f>-0.15</f>
@@ -35110,7 +36371,7 @@
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="19">
         <v>0.17499999999999999</v>
       </c>
       <c r="F25">
@@ -35165,7 +36426,7 @@
         <f>LN(G26)</f>
         <v>1.0986122886681098</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="19">
         <v>0.6</v>
       </c>
       <c r="F26">
@@ -35224,7 +36485,7 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="19">
         <v>0</v>
       </c>
       <c r="F27">
@@ -35276,8 +36537,8 @@
       <c r="D28">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E28" s="17">
-        <v>4.2000000000000003E-2</v>
+      <c r="E28" s="19">
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -35331,7 +36592,7 @@
         <f t="shared" si="10"/>
         <v>2.3025850929940459</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="19">
         <v>2.4</v>
       </c>
       <c r="F29">
@@ -35393,7 +36654,7 @@
         <f t="shared" si="10"/>
         <v>1.3862943611198906</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="19">
         <v>2.5</v>
       </c>
       <c r="F30">
@@ -35458,7 +36719,7 @@
         <f t="shared" si="12"/>
         <v>6.9067547786484651</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="19">
         <v>0.27</v>
       </c>
       <c r="F31">
@@ -35517,7 +36778,7 @@
         <f>G32</f>
         <v>0.70559799999999995</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="19">
         <v>0.70559799999999995</v>
       </c>
       <c r="F32">
@@ -35574,7 +36835,7 @@
       </c>
       <c r="B33">
         <f t="shared" ref="B33:D36" si="13">LN(E33)</f>
-        <v>-0.3285040669720361</v>
+        <v>-0.24846135929849961</v>
       </c>
       <c r="C33">
         <f t="shared" si="13"/>
@@ -35584,8 +36845,8 @@
         <f t="shared" si="13"/>
         <v>0.69314718055994529</v>
       </c>
-      <c r="E33" s="17">
-        <v>0.72</v>
+      <c r="E33" s="19">
+        <v>0.78</v>
       </c>
       <c r="F33">
         <v>0.1</v>
@@ -35601,7 +36862,7 @@
       </c>
       <c r="J33">
         <f t="shared" ref="J33:J36" si="14">1/E33</f>
-        <v>1.3888888888888888</v>
+        <v>1.2820512820512819</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -35627,7 +36888,7 @@
       </c>
       <c r="V33">
         <f>EXP(B33)</f>
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
@@ -35636,7 +36897,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="13"/>
-        <v>-0.2744368457017603</v>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="C34">
         <f t="shared" si="13"/>
@@ -35646,8 +36907,8 @@
         <f t="shared" si="13"/>
         <v>-9.4310679471241415E-2</v>
       </c>
-      <c r="E34" s="17">
-        <v>0.76</v>
+      <c r="E34" s="19">
+        <v>1.05</v>
       </c>
       <c r="F34">
         <v>0.48999999999999994</v>
@@ -35663,7 +36924,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="14"/>
-        <v>1.3157894736842106</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -35689,7 +36950,7 @@
       </c>
       <c r="V34">
         <f>EXP(B34)</f>
-        <v>0.76</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
@@ -35698,7 +36959,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="13"/>
-        <v>2.145931282948669</v>
+        <v>2.9204697890534441</v>
       </c>
       <c r="C35">
         <f t="shared" si="13"/>
@@ -35708,8 +36969,8 @@
         <f t="shared" si="13"/>
         <v>2.9957322735539909</v>
       </c>
-      <c r="E35" s="17">
-        <v>8.5500000000000007</v>
+      <c r="E35" s="19">
+        <v>18.55</v>
       </c>
       <c r="F35">
         <v>1E-3</v>
@@ -35725,7 +36986,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="14"/>
-        <v>0.11695906432748537</v>
+        <v>5.3908355795148244E-2</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -35751,7 +37012,7 @@
       </c>
       <c r="V35">
         <f>EXP(B35)</f>
-        <v>8.5500000000000007</v>
+        <v>18.55</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
@@ -35760,7 +37021,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="13"/>
-        <v>1.5040773967762742</v>
+        <v>1.2527629684953681</v>
       </c>
       <c r="C36">
         <f t="shared" si="13"/>
@@ -35770,8 +37031,8 @@
         <f t="shared" si="13"/>
         <v>3.1010977891993172</v>
       </c>
-      <c r="E36" s="17">
-        <v>4.5</v>
+      <c r="E36" s="19">
+        <v>3.5</v>
       </c>
       <c r="F36">
         <v>1E-3</v>
@@ -35788,7 +37049,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="14"/>
-        <v>0.22222222222222221</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -35814,7 +37075,7 @@
       </c>
       <c r="V36">
         <f>EXP(B36)</f>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
@@ -35833,7 +37094,7 @@
         <f>-LN(1/G37 -1)</f>
         <v>0.84729786038720356</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="19">
         <v>0.53569999999999995</v>
       </c>
       <c r="F37">
@@ -35892,7 +37153,7 @@
       <c r="D38" s="3">
         <v>1</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="19">
         <v>1</v>
       </c>
       <c r="F38">
@@ -35958,8 +37219,7 @@
         <f>C39</f>
         <v>1.8560469999999998</v>
       </c>
-      <c r="E39" s="17">
-        <f>18.56047/10</f>
+      <c r="E39" s="19">
         <v>1.8560469999999998</v>
       </c>
       <c r="F39">
@@ -36014,8 +37274,7 @@
         <f>C40</f>
         <v>7.2171439999999989E-2</v>
       </c>
-      <c r="E40" s="17">
-        <f>721.7144/10000</f>
+      <c r="E40" s="19">
         <v>7.2171439999999989E-2</v>
       </c>
       <c r="F40">
@@ -36069,7 +37328,7 @@
         <f>B41</f>
         <v>0.26712328767123289</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="19">
         <v>0.26712328767123289</v>
       </c>
       <c r="F41">
@@ -36123,7 +37382,7 @@
         <f>C42</f>
         <v>1</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="19">
         <v>1</v>
       </c>
       <c r="F42">
@@ -36160,7 +37419,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U42:U50" si="16">T42</f>
+        <f t="shared" ref="U42:U51" si="16">T42</f>
         <v>0</v>
       </c>
       <c r="V42"/>
@@ -36181,7 +37440,7 @@
         <f t="shared" si="17"/>
         <v>0.1449</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="19">
         <v>0.1449</v>
       </c>
       <c r="F43">
@@ -36232,7 +37491,7 @@
         <f t="shared" si="17"/>
         <v>0.1449</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="19">
         <v>0.1449</v>
       </c>
       <c r="F44">
@@ -36366,60 +37625,75 @@
       <c r="A47" t="s">
         <v>252</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="11">
         <f>E47</f>
-        <v>3.5</v>
-      </c>
-      <c r="C47" s="17">
+        <v>3.7</v>
+      </c>
+      <c r="C47" s="11">
         <f>B47</f>
-        <v>3.5</v>
-      </c>
-      <c r="D47" s="17">
+        <v>3.7</v>
+      </c>
+      <c r="D47" s="11">
         <f>B47</f>
-        <v>3.5</v>
-      </c>
-      <c r="E47" s="17">
-        <v>3.5</v>
-      </c>
-      <c r="F47" s="17">
+        <v>3.7</v>
+      </c>
+      <c r="E47" s="11">
+        <v>3.7</v>
+      </c>
+      <c r="F47" s="11">
         <f>E47</f>
-        <v>3.5</v>
-      </c>
-      <c r="G47" s="17">
+        <v>3.7</v>
+      </c>
+      <c r="G47" s="11">
         <f>E47</f>
-        <v>3.5</v>
+        <v>3.7</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48">
+        <v>253</v>
+      </c>
+      <c r="B48" s="15">
         <f>E48</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="C48">
-        <f>B48</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="D48">
-        <f>C48</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="E48" s="17">
-        <f>EXP(0.0673)</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="F48">
-        <f>E48</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="G48">
-        <f>E48</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="J48">
-        <f>1</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="15">
+        <f t="shared" ref="C48:D48" si="18">F48</f>
+        <v>1</v>
+      </c>
+      <c r="D48" s="15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="15">
+        <f>IF(E47=3.5,0.0135,IF(E47=3.7,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="15">
+        <f t="shared" ref="F48:G48" si="19">IF(F47=3.5,0.0135,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="15">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="O48">
@@ -36444,31 +37718,31 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B49">
         <f>E49</f>
-        <v>0.99381918034015848</v>
+        <v>1.0672742837827216</v>
       </c>
       <c r="C49">
-        <f>B49</f>
-        <v>0.99381918034015848</v>
+        <f t="shared" ref="C49:D51" si="20">B49</f>
+        <v>1.0672742837827216</v>
       </c>
       <c r="D49">
-        <f>C49</f>
-        <v>0.99381918034015848</v>
+        <f t="shared" si="20"/>
+        <v>1.0672742837827216</v>
       </c>
       <c r="E49" s="17">
-        <f>EXP(-0.0062)</f>
-        <v>0.99381918034015848</v>
+        <f>EXP(6.5108/100)</f>
+        <v>1.0672742837827216</v>
       </c>
       <c r="F49">
         <f>E49</f>
-        <v>0.99381918034015848</v>
+        <v>1.0672742837827216</v>
       </c>
       <c r="G49">
         <f>E49</f>
-        <v>0.99381918034015848</v>
+        <v>1.0672742837827216</v>
       </c>
       <c r="J49">
         <f>1</f>
@@ -36496,31 +37770,31 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B50">
         <f>E50</f>
-        <v>0.9618468890261952</v>
+        <v>0.99203290686947143</v>
       </c>
       <c r="C50">
-        <f>B50</f>
-        <v>0.9618468890261952</v>
+        <f t="shared" si="20"/>
+        <v>0.99203290686947143</v>
       </c>
       <c r="D50">
-        <f>C50</f>
-        <v>0.9618468890261952</v>
+        <f t="shared" si="20"/>
+        <v>0.99203290686947143</v>
       </c>
       <c r="E50" s="17">
-        <f>EXP(-0.0389)</f>
-        <v>0.9618468890261952</v>
+        <f>EXP(-0.7999/100)</f>
+        <v>0.99203290686947143</v>
       </c>
       <c r="F50">
         <f>E50</f>
-        <v>0.9618468890261952</v>
+        <v>0.99203290686947143</v>
       </c>
       <c r="G50">
         <f>E50</f>
-        <v>0.9618468890261952</v>
+        <v>0.99203290686947143</v>
       </c>
       <c r="J50">
         <f>1</f>
@@ -36546,10 +37820,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51">
+        <f>E51</f>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="20"/>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="20"/>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="E51" s="17">
+        <f>EXP(-4.1471/100)</f>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="F51">
+        <f>E51</f>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="G51">
+        <f>E51</f>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="J51">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V50" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V50">
-      <sortCondition ref="I1:I50"/>
+  <autoFilter ref="A1:V51" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V51">
+      <sortCondition ref="I1:I51"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36559,16 +37885,115 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8EAA0C-2092-405A-80D9-7F52F7BC5BCD}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AAA591-394B-45A3-997C-6B60BB5B6F0D}">
-  <dimension ref="A1:Z53"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="G47" sqref="B47:G47"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.36328125" customWidth="1"/>
     <col min="5" max="5" width="25.453125" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" customWidth="1"/>
@@ -36651,27 +38076,27 @@
       </c>
       <c r="B2" s="3">
         <f>E2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="C2">
         <f>F2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="D2">
         <f>G2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="E2" s="17">
         <f>PARS!E2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="F2">
         <f>E2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="G2">
         <f>E2</f>
-        <v>21.03734690643789</v>
+        <v>22.35498373964581</v>
       </c>
       <c r="H2">
         <v>999</v>
@@ -36687,15 +38112,15 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P50" si="0">SUM(L2:O2)</f>
+        <f t="shared" ref="P2:P51" si="0">SUM(L2:O2)</f>
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S50" si="1">L2-Q2</f>
+        <f t="shared" ref="S2:S51" si="1">L2-Q2</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T50" si="2">S2+N2+Q2+M2</f>
+        <f t="shared" ref="T2:T51" si="2">S2+N2+Q2+M2</f>
         <v>1</v>
       </c>
       <c r="U2">
@@ -36765,7 +38190,7 @@
       </c>
       <c r="B4" s="7">
         <f>LN(E4)</f>
-        <v>-0.22314355131420971</v>
+        <v>-0.12148989758770987</v>
       </c>
       <c r="C4" s="7">
         <f>LN(F4)</f>
@@ -36777,7 +38202,7 @@
       </c>
       <c r="E4" s="17">
         <f>PARS!E4</f>
-        <v>0.8</v>
+        <v>0.88560000000000005</v>
       </c>
       <c r="F4">
         <v>0.6</v>
@@ -36793,7 +38218,7 @@
       </c>
       <c r="J4">
         <f>1/E4</f>
-        <v>1.25</v>
+        <v>1.1291779584462511</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -36819,7 +38244,7 @@
       </c>
       <c r="V4">
         <f>EXP(B4)</f>
-        <v>0.8</v>
+        <v>0.88560000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
@@ -36828,7 +38253,7 @@
       </c>
       <c r="B5" s="7">
         <f>LN(E5)</f>
-        <v>-0.22314355131420971</v>
+        <v>-0.12148989758770987</v>
       </c>
       <c r="C5">
         <f>C4</f>
@@ -36840,7 +38265,7 @@
       </c>
       <c r="E5" s="17">
         <f>PARS!E5</f>
-        <v>0.8</v>
+        <v>0.88560000000000005</v>
       </c>
       <c r="F5">
         <v>0.6</v>
@@ -36856,7 +38281,7 @@
       </c>
       <c r="J5">
         <f>1/E5</f>
-        <v>1.25</v>
+        <v>1.1291779584462511</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -36940,7 +38365,7 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D9" si="3">LN(E7)</f>
-        <v>-1.4323382996212974</v>
+        <v>-1.1397468320266646</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
@@ -36952,7 +38377,7 @@
       </c>
       <c r="E7" s="17">
         <f>PARS!E7</f>
-        <v>0.23874999999999999</v>
+        <v>0.31990000000000002</v>
       </c>
       <c r="F7">
         <v>0.1</v>
@@ -36968,7 +38393,7 @@
       </c>
       <c r="J7">
         <f>1/E7</f>
-        <v>4.1884816753926701</v>
+        <v>3.1259768677711781</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -36994,7 +38419,7 @@
       </c>
       <c r="V7">
         <f>EXP(B7)</f>
-        <v>0.23874999999999999</v>
+        <v>0.31990000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
@@ -37003,7 +38428,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
@@ -37015,7 +38440,7 @@
       </c>
       <c r="E8" s="17">
         <f>PARS!E8</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F8">
         <v>0.85</v>
@@ -37031,7 +38456,7 @@
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J21" si="5">1/E8</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -37057,7 +38482,7 @@
       </c>
       <c r="V8">
         <f>EXP(B8)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
@@ -37066,7 +38491,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="3"/>
-        <v>1.3862943611198906</v>
+        <v>1.589235205116581</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
@@ -37078,7 +38503,7 @@
       </c>
       <c r="E9" s="17">
         <f>PARS!E9</f>
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -37094,7 +38519,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -37120,7 +38545,7 @@
       </c>
       <c r="V9">
         <f>EXP(B9)</f>
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
@@ -37129,7 +38554,7 @@
       </c>
       <c r="B10">
         <f>LN(E10)</f>
-        <v>0</v>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="C10">
         <f>C4</f>
@@ -37141,7 +38566,7 @@
       </c>
       <c r="E10" s="17">
         <f>PARS!E10</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F10">
         <f>F4</f>
@@ -37159,7 +38584,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -37574,7 +38999,7 @@
       </c>
       <c r="B17">
         <f t="shared" ref="B17:D18" si="6">LN(E17)</f>
-        <v>-0.41551544396166579</v>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="C17">
         <f t="shared" si="6"/>
@@ -37586,7 +39011,7 @@
       </c>
       <c r="E17" s="17">
         <f>PARS!E17</f>
-        <v>0.66</v>
+        <v>1.06</v>
       </c>
       <c r="F17">
         <v>0.3</v>
@@ -37602,7 +39027,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1.5151515151515151</v>
+        <v>0.94339622641509424</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -37628,7 +39053,7 @@
       </c>
       <c r="V17">
         <f>EXP(B17)</f>
-        <v>0.66</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
@@ -37637,7 +39062,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="6"/>
-        <v>1.9878743481543455</v>
+        <v>1.5686159179138452</v>
       </c>
       <c r="C18">
         <f t="shared" si="6"/>
@@ -37649,7 +39074,7 @@
       </c>
       <c r="E18" s="17">
         <f>PARS!E18</f>
-        <v>7.3</v>
+        <v>4.8</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -37665,7 +39090,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>0.13698630136986301</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -37691,7 +39116,7 @@
       </c>
       <c r="V18">
         <f>EXP(B18)</f>
-        <v>7.3000000000000007</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
@@ -37762,7 +39187,7 @@
       </c>
       <c r="B20">
         <f>-LN(1/E20 -1)*1000</f>
-        <v>24.401210673453068</v>
+        <v>426.76116533567205</v>
       </c>
       <c r="C20">
         <f>-LN(1/F20 -1)</f>
@@ -37774,7 +39199,7 @@
       </c>
       <c r="E20" s="17">
         <f>PARS!E20</f>
-        <v>0.50609999999999999</v>
+        <v>0.60509999999999997</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -37790,7 +39215,7 @@
       </c>
       <c r="J20">
         <f>1000/(E20*(1-E20))</f>
-        <v>4000.5954486265737</v>
+        <v>4184.9060566011058</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -37816,7 +39241,7 @@
       </c>
       <c r="V20">
         <f>1/(1+EXP(-B20/1000))</f>
-        <v>0.50609999999999999</v>
+        <v>0.60509999999999997</v>
       </c>
       <c r="W20" t="s">
         <v>247</v>
@@ -38012,7 +39437,7 @@
       </c>
       <c r="B24">
         <f t="shared" ref="B24:D25" si="7">E24</f>
-        <v>-1.6E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="C24">
         <f t="shared" si="7"/>
@@ -38024,7 +39449,7 @@
       </c>
       <c r="E24" s="17">
         <f>PARS!E24</f>
-        <v>-1.6E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="F24">
         <f>-0.15</f>
@@ -38250,7 +39675,7 @@
       </c>
       <c r="E28" s="17">
         <f>PARS!E28</f>
-        <v>4.2000000000000003E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -38551,7 +39976,7 @@
       </c>
       <c r="B33">
         <f t="shared" ref="B33:D36" si="12">LN(E33)</f>
-        <v>-0.3285040669720361</v>
+        <v>-0.24846135929849961</v>
       </c>
       <c r="C33">
         <f t="shared" si="12"/>
@@ -38563,7 +39988,7 @@
       </c>
       <c r="E33" s="17">
         <f>PARS!E33</f>
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="F33">
         <v>0.1</v>
@@ -38579,7 +40004,7 @@
       </c>
       <c r="J33">
         <f t="shared" ref="J33:J36" si="13">1/E33</f>
-        <v>1.3888888888888888</v>
+        <v>1.2820512820512819</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -38605,7 +40030,7 @@
       </c>
       <c r="V33">
         <f>EXP(B33)</f>
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
@@ -38614,7 +40039,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="12"/>
-        <v>-0.2744368457017603</v>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="C34">
         <f t="shared" si="12"/>
@@ -38626,7 +40051,7 @@
       </c>
       <c r="E34" s="17">
         <f>PARS!E34</f>
-        <v>0.76</v>
+        <v>1.05</v>
       </c>
       <c r="F34">
         <v>0.48999999999999994</v>
@@ -38642,7 +40067,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="13"/>
-        <v>1.3157894736842106</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -38668,7 +40093,7 @@
       </c>
       <c r="V34">
         <f>EXP(B34)</f>
-        <v>0.76</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
@@ -38677,7 +40102,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="12"/>
-        <v>2.145931282948669</v>
+        <v>2.9204697890534441</v>
       </c>
       <c r="C35">
         <f t="shared" si="12"/>
@@ -38689,7 +40114,7 @@
       </c>
       <c r="E35" s="17">
         <f>PARS!E35</f>
-        <v>8.5500000000000007</v>
+        <v>18.55</v>
       </c>
       <c r="F35">
         <v>1E-3</v>
@@ -38705,7 +40130,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="13"/>
-        <v>0.11695906432748537</v>
+        <v>5.3908355795148244E-2</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -38731,7 +40156,7 @@
       </c>
       <c r="V35">
         <f>EXP(B35)</f>
-        <v>8.5500000000000007</v>
+        <v>18.55</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
@@ -38740,7 +40165,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="12"/>
-        <v>1.5040773967762742</v>
+        <v>1.2527629684953681</v>
       </c>
       <c r="C36">
         <f t="shared" si="12"/>
@@ -38752,7 +40177,7 @@
       </c>
       <c r="E36" s="17">
         <f>PARS!E36</f>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F36">
         <v>1E-3</v>
@@ -38769,7 +40194,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="13"/>
-        <v>0.22222222222222221</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -38795,7 +40220,7 @@
       </c>
       <c r="V36">
         <f>EXP(B36)</f>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
@@ -39145,7 +40570,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U42:U50" si="15">T42</f>
+        <f t="shared" ref="U42:U51" si="15">T42</f>
         <v>0</v>
       </c>
       <c r="V42"/>
@@ -39310,7 +40735,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <f>B46</f>
+        <f t="shared" ref="C46:C51" si="17">B46</f>
         <v>0</v>
       </c>
       <c r="D46">
@@ -39356,28 +40781,28 @@
         <v>252</v>
       </c>
       <c r="B47" s="11">
-        <f>E47</f>
-        <v>3.5</v>
+        <f t="shared" ref="B47:B52" si="18">E47</f>
+        <v>3.7</v>
       </c>
       <c r="C47" s="11">
-        <f>B47</f>
-        <v>3.5</v>
+        <f t="shared" si="17"/>
+        <v>3.7</v>
       </c>
       <c r="D47" s="11">
         <f>B47</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="E47" s="11">
         <f>PARS!E47</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="F47" s="11">
         <f>PARS!F47</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G47" s="11">
         <f>PARS!G47</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -39390,97 +40815,96 @@
         <v>1</v>
       </c>
       <c r="S47">
-        <f t="shared" ref="S47:S48" si="17">L47-Q47</f>
+        <f t="shared" ref="S47:S49" si="19">L47-Q47</f>
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="shared" ref="T47:T48" si="18">S47+N47+Q47+M47</f>
+        <f t="shared" ref="T47:T49" si="20">S47+N47+Q47+M47</f>
         <v>0</v>
       </c>
       <c r="U47">
-        <f t="shared" ref="U47:U48" si="19">T47</f>
+        <f t="shared" ref="U47:U49" si="21">T47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48">
-        <f>E48</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="C48">
+        <v>253</v>
+      </c>
+      <c r="B48" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="11">
         <f>B48</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="D48">
-        <f>C48</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="E48" s="17">
+        <v>0</v>
+      </c>
+      <c r="E48" s="18">
         <f>PARS!E48</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="F48">
-        <f>E48</f>
-        <v>1.0696163149411613</v>
-      </c>
-      <c r="G48">
-        <f>E48</f>
-        <v>1.0696163149411613</v>
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <f>PARS!F48</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="11">
+        <f>PARS!G48</f>
+        <v>1</v>
       </c>
       <c r="J48">
-        <f>1</f>
         <v>1</v>
       </c>
       <c r="O48">
         <v>1</v>
       </c>
       <c r="P48">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P48" si="22">SUM(L48:O48)</f>
         <v>1</v>
       </c>
       <c r="S48">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="S48" si="23">L48-Q48</f>
         <v>0</v>
       </c>
       <c r="T48">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="T48" si="24">S48+N48+Q48+M48</f>
         <v>0</v>
       </c>
       <c r="U48">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="U48" si="25">T48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B49">
-        <f>E49</f>
-        <v>0.99381918034015848</v>
+        <f t="shared" si="18"/>
+        <v>1.0672742837827216</v>
       </c>
       <c r="C49">
-        <f>B49</f>
-        <v>0.99381918034015848</v>
+        <f t="shared" si="17"/>
+        <v>1.0672742837827216</v>
       </c>
       <c r="D49">
         <f>C49</f>
-        <v>0.99381918034015848</v>
+        <v>1.0672742837827216</v>
       </c>
       <c r="E49" s="17">
         <f>PARS!E49</f>
-        <v>0.99381918034015848</v>
+        <v>1.0672742837827216</v>
       </c>
       <c r="F49">
         <f>E49</f>
-        <v>0.99381918034015848</v>
+        <v>1.0672742837827216</v>
       </c>
       <c r="G49">
         <f>E49</f>
-        <v>0.99381918034015848</v>
+        <v>1.0672742837827216</v>
       </c>
       <c r="J49">
         <f>1</f>
@@ -39494,45 +40918,45 @@
         <v>1</v>
       </c>
       <c r="S49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B50">
-        <f>E50</f>
-        <v>0.9618468890261952</v>
+        <f t="shared" si="18"/>
+        <v>0.99203290686947143</v>
       </c>
       <c r="C50">
-        <f>B50</f>
-        <v>0.9618468890261952</v>
+        <f t="shared" si="17"/>
+        <v>0.99203290686947143</v>
       </c>
       <c r="D50">
         <f>C50</f>
-        <v>0.9618468890261952</v>
+        <v>0.99203290686947143</v>
       </c>
       <c r="E50" s="17">
         <f>PARS!E50</f>
-        <v>0.9618468890261952</v>
+        <v>0.99203290686947143</v>
       </c>
       <c r="F50">
         <f>E50</f>
-        <v>0.9618468890261952</v>
+        <v>0.99203290686947143</v>
       </c>
       <c r="G50">
         <f>E50</f>
-        <v>0.9618468890261952</v>
+        <v>0.99203290686947143</v>
       </c>
       <c r="J50">
         <f>1</f>
@@ -39560,54 +40984,106 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>249</v>
-      </c>
-      <c r="B51" s="17">
+        <v>181</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="18"/>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="17"/>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="D51">
+        <f>C51</f>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="E51" s="17">
+        <f>PARS!E51</f>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="F51">
         <f>E51</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
+        <v>0.95937715687560754</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <f>E51</f>
+        <v>0.95937715687560754</v>
+      </c>
+      <c r="J51">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>250</v>
-      </c>
-      <c r="B52" s="11">
-        <v>0.35</v>
+        <v>249</v>
+      </c>
+      <c r="B52" s="17">
+        <f t="shared" si="18"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
       </c>
       <c r="E52" s="17">
-        <v>0.35</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E53" s="17">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>251</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B54" s="11">
         <v>23</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V50" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V50">
-      <sortCondition ref="I1:I50"/>
+  <autoFilter ref="A1:V51" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V51">
+      <sortCondition ref="I1:I51"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39616,12 +41092,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40165,7 +41642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -40351,7 +41828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -40651,7 +42128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -40676,7 +42153,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -40694,7 +42171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -40715,7 +42192,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>172</v>
       </c>
@@ -40927,7 +42404,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -40947,7 +42424,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -40967,7 +42444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -40982,7 +42459,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>230</v>
       </c>
@@ -40998,6 +42475,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J59" xr:uid="{A42A002A-BEAD-45BB-A257-D80A19A6BE2C}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J55">
       <sortCondition ref="G1:G58"/>
     </sortState>
@@ -41008,7 +42490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EFA40D-2664-412E-B9B4-3734B019C060}">
   <dimension ref="A1:BC55"/>
   <sheetViews>
@@ -53266,7 +54748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50173A7-B186-45C1-8337-B5032812D8C9}">
   <dimension ref="A1:BE57"/>
   <sheetViews>
@@ -65664,7 +67146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B3D2F1-5F7D-4ECE-B1B5-77E3AE132B16}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -65691,7 +67173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EA4143-736F-4C71-A293-2D25882A9A47}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -65786,1151 +67268,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388BE545-5E3B-42EF-ACF3-27ADED17A03F}">
-  <dimension ref="A1:D104"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>12.15999517122788</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>-3.861997079160544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>-3.0873847385719864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>-3.0225488018735542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>-0.11303417539098579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>0.36030751060892358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>8.6669121586366344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>-1.8066067213854717</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>-1.8615985945475741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>-2.3628717358738442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>-0.11499820885638209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>0.53125214244041696</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>-2.6967358682803724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>-2.7084940999921852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>-0.29730104993288531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>0.37207329147337387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>1.858023032880175E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>1.8814014327029097E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>1.9666306282818055E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>1.9010739631001277E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>9.9917849898722749E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>1.0295415592160683E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>127.55650702409324</v>
-      </c>
-      <c r="D24">
-        <f>SQRT(C24)</f>
-        <v>11.29409168654537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>152.82676676750708</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>19570.859179726365</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>12.44396883514832</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>5.1252961163707582E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>-1.1007650138021456</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>1.736209688555819E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>-1.0520267687112621</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>12.599508797755121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>-0.87605777732597212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>-0.9702414561635655</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <v>51.619423226464122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>47.767288868610905</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>9.652543979375891E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40">
-        <v>39</v>
-      </c>
-      <c r="C40">
-        <v>7.0380097359185795E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <v>0.97377889090392133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>-0.22074335511107743</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43">
-        <v>42</v>
-      </c>
-      <c r="C43">
-        <v>0.93260040414320899</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44">
-        <v>43</v>
-      </c>
-      <c r="C44">
-        <v>-0.25520335289941354</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>1873.126070137658</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <v>495.34145665939718</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>150</v>
-      </c>
-      <c r="B47">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>1965.336546713233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48">
-        <v>47</v>
-      </c>
-      <c r="C48">
-        <v>-151.6344770370616</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>152</v>
-      </c>
-      <c r="B49">
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <v>593.16349855375722</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
-      <c r="C50">
-        <v>188.31892785785749</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51">
-        <v>50</v>
-      </c>
-      <c r="C51">
-        <v>2206.542127027375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52">
-        <v>51</v>
-      </c>
-      <c r="C52">
-        <v>63.102838742636663</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53">
-        <v>52</v>
-      </c>
-      <c r="C53">
-        <v>-671.54653071480561</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54">
-        <v>53</v>
-      </c>
-      <c r="C54">
-        <v>105.92467385866674</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55">
-        <v>54</v>
-      </c>
-      <c r="C55">
-        <v>-617.09437937111409</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56">
-        <v>55</v>
-      </c>
-      <c r="C56">
-        <v>-558.4590458999968</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57">
-        <v>56</v>
-      </c>
-      <c r="C57">
-        <v>-604.50613192106164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58">
-        <v>57</v>
-      </c>
-      <c r="C58">
-        <v>-50.524167685204183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59">
-        <v>58</v>
-      </c>
-      <c r="C59">
-        <v>277.39608436846476</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60">
-        <v>59</v>
-      </c>
-      <c r="C60">
-        <v>973.91420861085408</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61">
-        <v>60</v>
-      </c>
-      <c r="C61">
-        <v>683.00321899695871</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62">
-        <v>61</v>
-      </c>
-      <c r="C62">
-        <v>-109.15475557571985</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63">
-        <v>62</v>
-      </c>
-      <c r="C63">
-        <v>10.749750534236171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64">
-        <v>63</v>
-      </c>
-      <c r="C64">
-        <v>10.20215423913753</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>156</v>
-      </c>
-      <c r="B65">
-        <v>64</v>
-      </c>
-      <c r="C65">
-        <v>10.10766490513001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>157</v>
-      </c>
-      <c r="B66">
-        <v>65</v>
-      </c>
-      <c r="C66">
-        <v>10.173847774176989</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67">
-        <v>66</v>
-      </c>
-      <c r="C67">
-        <v>10.2556641220316</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68">
-        <v>67</v>
-      </c>
-      <c r="C68">
-        <v>9.7404941422592</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69">
-        <v>68</v>
-      </c>
-      <c r="C69">
-        <v>1.157144280275159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70">
-        <v>69</v>
-      </c>
-      <c r="C70">
-        <v>1.1368768064623165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71">
-        <v>70</v>
-      </c>
-      <c r="C71">
-        <v>-0.16954406250368551</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72">
-        <v>71</v>
-      </c>
-      <c r="C72">
-        <v>-3.0939100009194508E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73">
-        <v>72</v>
-      </c>
-      <c r="C73">
-        <v>-2.556595072362184E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>158</v>
-      </c>
-      <c r="B74">
-        <v>73</v>
-      </c>
-      <c r="C74">
-        <v>-3.0105688513929942E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75">
-        <v>74</v>
-      </c>
-      <c r="C75">
-        <v>-2.2894618403046657E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76">
-        <v>75</v>
-      </c>
-      <c r="C76">
-        <v>-8.7903812532399481</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77">
-        <v>76</v>
-      </c>
-      <c r="C77">
-        <v>-8.2817295655450867</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78">
-        <v>77</v>
-      </c>
-      <c r="C78">
-        <v>-7.94157992226146</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79">
-        <v>78</v>
-      </c>
-      <c r="C79">
-        <v>-3.9984408904219109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>116</v>
-      </c>
-      <c r="B80">
-        <v>79</v>
-      </c>
-      <c r="C80">
-        <v>-1.71230335362176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>117</v>
-      </c>
-      <c r="B81">
-        <v>80</v>
-      </c>
-      <c r="C81">
-        <v>5.2860668593272644</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>160</v>
-      </c>
-      <c r="B82">
-        <v>81</v>
-      </c>
-      <c r="C82">
-        <v>8.6070781124664784</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>161</v>
-      </c>
-      <c r="B83">
-        <v>82</v>
-      </c>
-      <c r="C83">
-        <v>-2.3781418707111426</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84">
-        <v>83</v>
-      </c>
-      <c r="C84">
-        <v>2.3340746736978842E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>44</v>
-      </c>
-      <c r="B85">
-        <v>84</v>
-      </c>
-      <c r="C85">
-        <v>-1.8968135394908277E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>162</v>
-      </c>
-      <c r="B86">
-        <v>85</v>
-      </c>
-      <c r="C86">
-        <v>27.92188509805143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>163</v>
-      </c>
-      <c r="B87">
-        <v>86</v>
-      </c>
-      <c r="C87">
-        <v>25.127687734127111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>164</v>
-      </c>
-      <c r="B88">
-        <v>87</v>
-      </c>
-      <c r="C88">
-        <v>122.548474987894</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>165</v>
-      </c>
-      <c r="B89">
-        <v>89</v>
-      </c>
-      <c r="C89">
-        <v>142.5528382120342</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90">
-        <v>90</v>
-      </c>
-      <c r="C90">
-        <v>18478.29340157317</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>202</v>
-      </c>
-      <c r="C91">
-        <v>-0.23237462229539668</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>203</v>
-      </c>
-      <c r="C92">
-        <v>-0.2885949120223249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93">
-        <v>-0.26293418832561893</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>205</v>
-      </c>
-      <c r="C94">
-        <v>-0.29549068412733248</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95">
-        <v>-0.34749104115171398</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>207</v>
-      </c>
-      <c r="C96">
-        <v>-0.32539548393483481</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>167</v>
-      </c>
-      <c r="B97">
-        <v>92</v>
-      </c>
-      <c r="C97">
-        <v>-0.24229407501972869</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98">
-        <v>93</v>
-      </c>
-      <c r="C98">
-        <v>-0.27005117509554516</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>118</v>
-      </c>
-      <c r="B99">
-        <v>94</v>
-      </c>
-      <c r="C99">
-        <v>-0.24397495405798156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>169</v>
-      </c>
-      <c r="B100">
-        <v>95</v>
-      </c>
-      <c r="C100">
-        <v>-0.29782014109595623</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>170</v>
-      </c>
-      <c r="B101">
-        <v>96</v>
-      </c>
-      <c r="C101">
-        <v>-0.32810689174601754</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>171</v>
-      </c>
-      <c r="B102">
-        <v>97</v>
-      </c>
-      <c r="C102">
-        <v>-0.30802326104585137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>172</v>
-      </c>
-      <c r="B103">
-        <v>98</v>
-      </c>
-      <c r="C103">
-        <v>3.1781313988501392</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>173</v>
-      </c>
-      <c r="B104">
-        <v>99</v>
-      </c>
-      <c r="C104">
-        <v>2.905856906222299</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranos\OneDrive - Umich\Documents\D\Michigan\Res\Female careers in location\Codes\matlab\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranos\OneDrive - Umich\Documents\D\Michigan\Res\Female careers in location\Codes\matlab\JMP\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA8F8BF-4C08-4020-B27B-D2102EF89E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C000DB-925E-416D-BB4F-C82E000345D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="170" windowWidth="18840" windowHeight="10630" firstSheet="1" activeTab="3" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="360" yWindow="170" windowWidth="18840" windowHeight="10630" firstSheet="1" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.85756704794567307</v>
+        <v>0.78815311779050179</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q51" ca="1" si="1">RAND()</f>
-        <v>0.71617526431792422</v>
+        <v>0.36793344351905621</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70972756790259606</v>
+        <v>9.3732087870289527E-2</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.15352655456315201</v>
+        <v>0.89120344165059684</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36220655636069943</v>
+        <v>0.96105113681640197</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32394429616993559</v>
+        <v>0.26702267250286693</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="D7">
         <f>PARS!D7</f>
-        <v>-1.2039728043259361</v>
+        <v>-0.916290731874155</v>
       </c>
       <c r="E7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f>PARS!K7</f>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3692907680105032</v>
+        <v>0.74324762301737091</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -2006,15 +2006,15 @@
       </c>
       <c r="C8">
         <f>PARS!C8</f>
-        <v>-0.16251892949777494</v>
+        <v>-0.51082562376599072</v>
       </c>
       <c r="D8">
         <f>PARS!D8</f>
-        <v>0.69314718055994529</v>
+        <v>0.33647223662121289</v>
       </c>
       <c r="E8" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f>PARS!K8</f>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20947049642012117</v>
+        <v>1.4845361640283827E-2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27758786562330162</v>
+        <v>0.61691951941980339</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30062456513775893</v>
+        <v>0.42599218725969379</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2209,11 +2209,11 @@
       </c>
       <c r="C11">
         <f>PARS!C11</f>
-        <v>-2.093465304583829</v>
+        <v>-1.8703217532696195</v>
       </c>
       <c r="D11">
         <f>PARS!D11</f>
-        <v>-1.1771745727096741</v>
+        <v>-1.8703217532696195</v>
       </c>
       <c r="E11" t="b">
         <f t="shared" si="0"/>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38903573243675027</v>
+        <v>0.16284434412799109</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2277,11 +2277,11 @@
       </c>
       <c r="C12">
         <f>PARS!C12</f>
-        <v>-0.40790273033909435</v>
+        <v>0.66388228523152282</v>
       </c>
       <c r="D12">
         <f>PARS!D12</f>
-        <v>1.0551933911457412</v>
+        <v>0.66388228523152282</v>
       </c>
       <c r="E12" t="b">
         <f t="shared" si="0"/>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32775419087002233</v>
+        <v>0.38707746526913644</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2345,11 +2345,11 @@
       </c>
       <c r="C13">
         <f>PARS!C13</f>
-        <v>0.62810999999999995</v>
+        <v>0.91482224000000001</v>
       </c>
       <c r="D13">
         <f>PARS!D13</f>
-        <v>1.16649</v>
+        <v>0.91482224000000001</v>
       </c>
       <c r="E13" t="b">
         <f t="shared" si="0"/>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35523942883243542</v>
+        <v>0.45381827420963727</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5406088778975349E-3</v>
+        <v>0.80147532514366471</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2481,15 +2481,15 @@
       </c>
       <c r="C15">
         <f>PARS!C15</f>
-        <v>-2.5836226227271579</v>
+        <v>-2.3633295407393207</v>
       </c>
       <c r="D15">
         <f>PARS!D15</f>
-        <v>-2.5836226227271579</v>
+        <v>-2.3633295407393207</v>
       </c>
       <c r="E15" t="b">
         <f>AND(D15&gt;=B15,B15&gt;=C15,D15&gt;=C15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f>PARS!K15</f>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32086528412850035</v>
+        <v>0.2777354984350352</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C16">
         <f>PARS!C16</f>
-        <v>-2.3025850929940455</v>
+        <v>-1.8971199848858813</v>
       </c>
       <c r="D16">
         <f>PARS!D16</f>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68987185940038542</v>
+        <v>0.28991712179465767</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D17">
         <f>PARS!D17</f>
-        <v>-0.43078291609245423</v>
+        <v>0.26236426446749106</v>
       </c>
       <c r="E17" t="b">
         <f t="shared" si="0"/>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99422923049497081</v>
+        <v>0.54453765106091234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="C18">
         <f>PARS!C18</f>
-        <v>1.6094379124341003</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <f>PARS!D18</f>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65787074830896985</v>
+        <v>0.65901425681742665</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88644460951046788</v>
+        <v>0.35671233433088223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="D20">
         <f>PARS!D20</f>
-        <v>405.46510810816426</v>
+        <v>847.29786038720351</v>
       </c>
       <c r="E20" t="b">
         <f t="shared" si="0"/>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2328067749212983E-2</v>
+        <v>0.62827375263188001</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7044828818135245E-2</v>
+        <v>0.96627741102624021</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10809659790185211</v>
+        <v>0.63801240762822475</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0995072428003283E-2</v>
+        <v>0.37624559998549012</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71558808588504808</v>
+        <v>0.61929643272300527</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10026426955385215</v>
+        <v>0.38208383500186105</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3220,11 +3220,11 @@
       </c>
       <c r="C26">
         <f>PARS!C26</f>
-        <v>-0.35667494393873245</v>
+        <v>-0.916290731874155</v>
       </c>
       <c r="D26">
         <f>PARS!D26</f>
-        <v>1.0986122886681098</v>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="E26" t="b">
         <f t="shared" si="0"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4473974777471631</v>
+        <v>0.25469862241545005</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84366455139294771</v>
+        <v>0.76015065767866918</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30130508753782437</v>
+        <v>0.71281048398901892</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76337842423645041</v>
+        <v>0.68279885136821283</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9676454727142798E-2</v>
+        <v>6.5665886505090754E-3</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96734750686315196</v>
+        <v>0.81290988885996296</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19251016755226991</v>
+        <v>0.96756424710536226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14135312459768512</v>
+        <v>0.61320548036630296</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="D34">
         <f>PARS!D34</f>
-        <v>-9.4310679471241415E-2</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="E34" t="b">
         <f t="shared" si="0"/>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39302256856105666</v>
+        <v>0.6575356965902226</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="D35">
         <f>PARS!D35</f>
-        <v>2.9957322735539909</v>
+        <v>3.4011973816621555</v>
       </c>
       <c r="E35" t="b">
         <f t="shared" si="0"/>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70349278207234556</v>
+        <v>0.65301979677738009</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="D36">
         <f>PARS!D36</f>
-        <v>3.1010977891993172</v>
+        <v>2.7080502011022101</v>
       </c>
       <c r="E36" t="b">
         <f t="shared" si="0"/>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1953900733646996</v>
+        <v>0.69701659529811533</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="D37">
         <f>PARS!D37</f>
-        <v>0.84729786038720356</v>
+        <v>0.40546510810816427</v>
       </c>
       <c r="E37" t="b">
         <f t="shared" si="0"/>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0885671008984632E-2</v>
+        <v>0.99715469033124027</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29018645338978055</v>
+        <v>0.8469964974725962</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0584861948488342E-3</v>
+        <v>0.38398235505755751</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.208520947292129</v>
+        <v>0.38804327044059883</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80362687117897103</v>
+        <v>0.41438837965792175</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80532033329737207</v>
+        <v>0.75977809042629396</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>3.899284215439347E-2</v>
+        <v>0.88356835221307695</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97590496989979347</v>
+        <v>0.41797945296646</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76202233786834617</v>
+        <v>0.28074746224988845</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13365650512608107</v>
+        <v>0.16063171873910143</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30798366897560792</v>
+        <v>0.99196015678533511</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85906653957556289</v>
+        <v>0.59043286891117519</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71310281172237733</v>
+        <v>0.81005755922432243</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="Q50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23640756879645064</v>
+        <v>0.12626240125602617</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="Q51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37390446486263795</v>
+        <v>0.67470216259465454</v>
       </c>
     </row>
   </sheetData>
@@ -34876,15 +34876,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="4" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.90625" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.54296875" customWidth="1"/>
     <col min="25" max="25" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.453125" bestFit="1" customWidth="1"/>
@@ -34906,10 +34906,10 @@
       <c r="E1" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="11" t="s">
         <v>195</v>
       </c>
       <c r="H1" t="s">
@@ -34978,11 +34978,11 @@
         <f>'OUTSIDE MOMENT'!F27</f>
         <v>22.35498373964581</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="11">
         <f>E2</f>
         <v>22.35498373964581</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="11">
         <f>E2</f>
         <v>22.35498373964581</v>
       </c>
@@ -35035,10 +35035,10 @@
       <c r="E3" s="19">
         <v>1.8814014327029097E-3</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="11">
         <v>1.8814014327029097E-3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="11">
         <v>1.8814014327029097E-3</v>
       </c>
       <c r="H3">
@@ -35090,10 +35090,10 @@
       <c r="E4" s="19">
         <v>0.88560000000000005</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="11">
         <v>0.6</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="11">
         <v>1.2</v>
       </c>
       <c r="H4">
@@ -35152,10 +35152,10 @@
       <c r="E5" s="19">
         <v>0.88560000000000005</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="11">
         <v>0.6</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="11">
         <v>1.2</v>
       </c>
       <c r="H5">
@@ -35207,10 +35207,11 @@
       <c r="E6" s="19">
         <v>1.6156999999999999</v>
       </c>
-      <c r="F6">
-        <v>1.5904813099999999</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="11">
+        <f>E6</f>
+        <v>1.6156999999999999</v>
+      </c>
+      <c r="G6" s="11">
         <f>E6</f>
         <v>1.6156999999999999</v>
       </c>
@@ -35257,16 +35258,16 @@
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>-1.2039728043259361</v>
+        <v>-0.916290731874155</v>
       </c>
       <c r="E7" s="19">
         <v>0.31990000000000002</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="11">
         <v>0.2</v>
       </c>
-      <c r="G7">
-        <v>0.3</v>
+      <c r="G7" s="11">
+        <v>0.4</v>
       </c>
       <c r="H7">
         <v>1.1000000000000001</v>
@@ -35315,20 +35316,20 @@
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>-0.16251892949777494</v>
+        <v>-0.51082562376599072</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>0.69314718055994529</v>
+        <v>0.33647223662121289</v>
       </c>
       <c r="E8" s="19">
         <v>0.8</v>
       </c>
-      <c r="F8">
-        <v>0.85</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
+      <c r="F8" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1.4</v>
       </c>
       <c r="H8">
         <v>1.1100000000000001</v>
@@ -35386,10 +35387,10 @@
       <c r="E9" s="19">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="11">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="11">
         <v>6</v>
       </c>
       <c r="H9">
@@ -35449,13 +35450,12 @@
         <f>E8</f>
         <v>0.8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="11">
         <f>F4</f>
         <v>0.6</v>
       </c>
-      <c r="G10">
-        <f>G4</f>
-        <v>1.2</v>
+      <c r="G10" s="11">
+        <v>1.4</v>
       </c>
       <c r="H10">
         <v>1.1000000000000001</v>
@@ -35497,22 +35497,22 @@
       </c>
       <c r="C11">
         <f>LN(F11)</f>
-        <v>-2.093465304583829</v>
+        <v>-1.8703217532696195</v>
       </c>
       <c r="D11">
         <f>LN(G11)</f>
-        <v>-1.1771745727096741</v>
+        <v>-1.8703217532696195</v>
       </c>
       <c r="E11" s="19">
         <v>0.15407408</v>
       </c>
-      <c r="F11">
-        <f>E11*0.8</f>
-        <v>0.12325926400000001</v>
-      </c>
-      <c r="G11">
-        <f>E11*2</f>
-        <v>0.30814816</v>
+      <c r="F11" s="11">
+        <f>E11</f>
+        <v>0.15407408</v>
+      </c>
+      <c r="G11" s="11">
+        <f>F11</f>
+        <v>0.15407408</v>
       </c>
       <c r="H11">
         <v>1.2</v>
@@ -35564,20 +35564,22 @@
       </c>
       <c r="C12">
         <f>-LN(1/F12 -1)</f>
-        <v>-0.40790273033909435</v>
+        <v>0.66388228523152282</v>
       </c>
       <c r="D12">
         <f>-LN(1/G12 -1)</f>
-        <v>1.0551933911457412</v>
+        <v>0.66388228523152282</v>
       </c>
       <c r="E12" s="19">
         <v>0.66013195000000002</v>
       </c>
-      <c r="F12">
-        <v>0.39941511352741998</v>
-      </c>
-      <c r="G12">
-        <v>0.74177092512235143</v>
+      <c r="F12" s="11">
+        <f t="shared" ref="F12:G12" si="6">E12</f>
+        <v>0.66013195000000002</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="6"/>
+        <v>0.66013195000000002</v>
       </c>
       <c r="H12">
         <v>1.21</v>
@@ -35629,20 +35631,22 @@
       </c>
       <c r="C13">
         <f>F13</f>
-        <v>0.62810999999999995</v>
+        <v>0.91482224000000001</v>
       </c>
       <c r="D13">
         <f>G13</f>
-        <v>1.16649</v>
+        <v>0.91482224000000001</v>
       </c>
       <c r="E13" s="19">
         <v>0.91482224000000001</v>
       </c>
-      <c r="F13">
-        <v>0.62810999999999995</v>
-      </c>
-      <c r="G13">
-        <v>1.16649</v>
+      <c r="F13" s="11">
+        <f t="shared" ref="F13:G13" si="7">E13</f>
+        <v>0.91482224000000001</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="7"/>
+        <v>0.91482224000000001</v>
       </c>
       <c r="H13">
         <v>1.22</v>
@@ -35699,11 +35703,13 @@
       <c r="E14" s="19">
         <v>1.29307594</v>
       </c>
-      <c r="F14">
-        <v>1.2934243000000001</v>
-      </c>
-      <c r="G14">
-        <v>1.68272</v>
+      <c r="F14" s="11">
+        <f t="shared" ref="F14:G14" si="8">E14</f>
+        <v>1.29307594</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="8"/>
+        <v>1.29307594</v>
       </c>
       <c r="H14">
         <v>1.23</v>
@@ -35751,20 +35757,22 @@
       </c>
       <c r="C15">
         <f>LN(F15)</f>
-        <v>-2.5836226227271579</v>
+        <v>-2.3633295407393207</v>
       </c>
       <c r="D15">
         <f>LN(G15)</f>
-        <v>-2.5836226227271579</v>
+        <v>-2.3633295407393207</v>
       </c>
       <c r="E15" s="19">
         <v>9.4106369999999995E-2</v>
       </c>
-      <c r="F15">
-        <v>7.5499999999999998E-2</v>
-      </c>
-      <c r="G15">
-        <v>7.5499999999999998E-2</v>
+      <c r="F15" s="11">
+        <f>E15</f>
+        <v>9.4106369999999995E-2</v>
+      </c>
+      <c r="G15" s="11">
+        <f>F15</f>
+        <v>9.4106369999999995E-2</v>
       </c>
       <c r="H15">
         <v>1.24</v>
@@ -35816,7 +35824,7 @@
       </c>
       <c r="C16">
         <f>LN(-G16)</f>
-        <v>-2.3025850929940455</v>
+        <v>-1.8971199848858813</v>
       </c>
       <c r="D16">
         <f>LN(-F16)</f>
@@ -35825,11 +35833,11 @@
       <c r="E16" s="19">
         <v>-0.24299999999999999</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="11">
         <v>-0.312</v>
       </c>
-      <c r="G16">
-        <v>-0.1</v>
+      <c r="G16" s="11">
+        <v>-0.15</v>
       </c>
       <c r="H16">
         <v>1.4</v>
@@ -35873,25 +35881,25 @@
         <v>96</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:D18" si="6">LN(E17)</f>
+        <f t="shared" ref="B17:D18" si="9">LN(E17)</f>
         <v>5.8268908123975824E-2</v>
       </c>
       <c r="C17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.2039728043259361</v>
       </c>
       <c r="D17">
-        <f t="shared" si="6"/>
-        <v>-0.43078291609245423</v>
+        <f t="shared" si="9"/>
+        <v>0.26236426446749106</v>
       </c>
       <c r="E17" s="19">
         <v>1.06</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="11">
         <v>0.3</v>
       </c>
-      <c r="G17">
-        <v>0.65</v>
+      <c r="G17" s="11">
+        <v>1.3</v>
       </c>
       <c r="H17">
         <v>4.0999999999999996</v>
@@ -35935,24 +35943,24 @@
         <v>71</v>
       </c>
       <c r="B18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5686159179138452</v>
       </c>
       <c r="C18">
-        <f t="shared" si="6"/>
-        <v>1.6094379124341003</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.341805806147327</v>
       </c>
       <c r="E18" s="19">
         <v>4.8</v>
       </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
         <v>10.4</v>
       </c>
       <c r="H18">
@@ -36011,10 +36019,10 @@
       <c r="E19" s="19">
         <v>2000</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="11">
         <v>2000</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="11">
         <v>2000</v>
       </c>
       <c r="H19">
@@ -36062,21 +36070,21 @@
         <v>426.76116533567205</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20" si="7">-LN(1/F20 -1)*1000</f>
+        <f t="shared" ref="C20" si="10">-LN(1/F20 -1)*1000</f>
         <v>0</v>
       </c>
       <c r="D20">
         <f>-LN(1/G20 -1)*1000</f>
-        <v>405.46510810816426</v>
+        <v>847.29786038720351</v>
       </c>
       <c r="E20" s="19">
         <v>0.60509999999999997</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="11">
         <v>0.5</v>
       </c>
-      <c r="G20">
-        <v>0.6</v>
+      <c r="G20" s="11">
+        <v>0.7</v>
       </c>
       <c r="H20">
         <v>4.0999999999999996</v>
@@ -36145,10 +36153,10 @@
       <c r="E21" s="19">
         <v>15.3</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="11">
         <v>14.5</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="11">
         <v>18.5</v>
       </c>
       <c r="H21">
@@ -36207,10 +36215,10 @@
       <c r="E22" s="19">
         <v>1.9</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="11">
         <v>1.5</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="11">
         <v>1.9990000000000001</v>
       </c>
       <c r="H22">
@@ -36263,10 +36271,10 @@
       <c r="E23" s="19">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
         <v>0</v>
       </c>
       <c r="H23">
@@ -36304,25 +36312,25 @@
         <v>190</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:D25" si="8">E24</f>
+        <f t="shared" ref="B24:D25" si="11">E24</f>
         <v>-2.1000000000000001E-2</v>
       </c>
       <c r="C24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-0.15</v>
       </c>
       <c r="D24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="E24" s="19">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="11">
         <f>-0.15</f>
         <v>-0.15</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="11">
         <v>0.05</v>
       </c>
       <c r="H24">
@@ -36360,24 +36368,24 @@
         <v>81</v>
       </c>
       <c r="B25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="E25" s="19">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
         <v>0.5</v>
       </c>
       <c r="H25">
@@ -36420,20 +36428,20 @@
       </c>
       <c r="C26">
         <f>LN(F26)</f>
-        <v>-0.35667494393873245</v>
+        <v>-0.916290731874155</v>
       </c>
       <c r="D26">
         <f>LN(G26)</f>
-        <v>1.0986122886681098</v>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="E26" s="19">
         <v>0.6</v>
       </c>
-      <c r="F26">
-        <v>0.7</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
+      <c r="F26" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0.8</v>
       </c>
       <c r="H26">
         <v>4.0549999999999997</v>
@@ -36442,7 +36450,7 @@
         <v>4</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26" si="9">1/E26</f>
+        <f t="shared" ref="J26" si="12">1/E26</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="K26">
@@ -36488,10 +36496,10 @@
       <c r="E27" s="19">
         <v>0</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
         <v>0</v>
       </c>
       <c r="H27">
@@ -36540,10 +36548,10 @@
       <c r="E28" s="19">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
         <v>0.5</v>
       </c>
       <c r="H28">
@@ -36581,24 +36589,24 @@
         <v>86</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:D30" si="10">LN(E29)</f>
+        <f t="shared" ref="B29:D30" si="13">LN(E29)</f>
         <v>0.87546873735389985</v>
       </c>
       <c r="C29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="E29" s="19">
         <v>2.4</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11">
         <v>10</v>
       </c>
       <c r="H29">
@@ -36608,7 +36616,7 @@
         <v>5.01</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29:J30" si="11">1/E29</f>
+        <f t="shared" ref="J29:J30" si="14">1/E29</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="K29">
@@ -36643,24 +36651,24 @@
         <v>83</v>
       </c>
       <c r="B30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91629073187415511</v>
       </c>
       <c r="C30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58778666490211906</v>
       </c>
       <c r="D30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3862943611198906</v>
       </c>
       <c r="E30" s="19">
         <v>2.5</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="11">
         <v>1.8</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="11">
         <v>4</v>
       </c>
       <c r="H30">
@@ -36670,7 +36678,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="J30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
       <c r="K30">
@@ -36708,24 +36716,24 @@
         <v>84</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:D31" si="12">-LN(1/E31 -1)</f>
+        <f t="shared" ref="B31:D31" si="15">-LN(1/E31 -1)</f>
         <v>-0.99462257514406194</v>
       </c>
       <c r="C31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-2.1972245773362196</v>
       </c>
       <c r="D31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.9067547786484651</v>
       </c>
       <c r="E31" s="19">
         <v>0.27</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="11">
         <v>0.1</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="11">
         <v>0.999</v>
       </c>
       <c r="H31">
@@ -36781,11 +36789,11 @@
       <c r="E32" s="19">
         <v>0.70559799999999995</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="11">
         <f>E32</f>
         <v>0.70559799999999995</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="11">
         <f>F32</f>
         <v>0.70559799999999995</v>
       </c>
@@ -36834,24 +36842,24 @@
         <v>87</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:D36" si="13">LN(E33)</f>
+        <f t="shared" ref="B33:D36" si="16">LN(E33)</f>
         <v>-0.24846135929849961</v>
       </c>
       <c r="C33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-2.3025850929940455</v>
       </c>
       <c r="D33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="E33" s="19">
         <v>0.78</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="11">
         <v>0.1</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="11">
         <v>2</v>
       </c>
       <c r="H33">
@@ -36861,7 +36869,7 @@
         <v>6</v>
       </c>
       <c r="J33">
-        <f t="shared" ref="J33:J36" si="14">1/E33</f>
+        <f t="shared" ref="J33:J36" si="17">1/E33</f>
         <v>1.2820512820512819</v>
       </c>
       <c r="K33">
@@ -36896,25 +36904,25 @@
         <v>88</v>
       </c>
       <c r="B34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="C34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.71334988787746489</v>
       </c>
       <c r="D34">
-        <f t="shared" si="13"/>
-        <v>-9.4310679471241415E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.69314718055994529</v>
       </c>
       <c r="E34" s="19">
         <v>1.05</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="11">
         <v>0.48999999999999994</v>
       </c>
-      <c r="G34">
-        <v>0.90999999999999992</v>
+      <c r="G34" s="11">
+        <v>2</v>
       </c>
       <c r="H34">
         <v>6.01</v>
@@ -36923,7 +36931,7 @@
         <v>6</v>
       </c>
       <c r="J34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="K34">
@@ -36958,25 +36966,25 @@
         <v>89</v>
       </c>
       <c r="B35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.9204697890534441</v>
       </c>
       <c r="C35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D35">
-        <f t="shared" si="13"/>
-        <v>2.9957322735539909</v>
+        <f t="shared" si="16"/>
+        <v>3.4011973816621555</v>
       </c>
       <c r="E35" s="19">
         <v>18.55</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="11">
         <v>1E-3</v>
       </c>
-      <c r="G35">
-        <v>20</v>
+      <c r="G35" s="11">
+        <v>30</v>
       </c>
       <c r="H35">
         <v>6.02</v>
@@ -36985,7 +36993,7 @@
         <v>6</v>
       </c>
       <c r="J35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>5.3908355795148244E-2</v>
       </c>
       <c r="K35">
@@ -37020,26 +37028,25 @@
         <v>102</v>
       </c>
       <c r="B36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2527629684953681</v>
       </c>
       <c r="C36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-6.9077552789821368</v>
       </c>
       <c r="D36">
-        <f t="shared" si="13"/>
-        <v>3.1010977891993172</v>
+        <f t="shared" si="16"/>
+        <v>2.7080502011022101</v>
       </c>
       <c r="E36" s="19">
         <v>3.5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="11">
         <v>1E-3</v>
       </c>
-      <c r="G36">
-        <f>66.667/3</f>
-        <v>22.222333333333335</v>
+      <c r="G36" s="11">
+        <v>15</v>
       </c>
       <c r="H36">
         <v>6.03</v>
@@ -37048,7 +37055,7 @@
         <v>6</v>
       </c>
       <c r="J36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="K36">
@@ -37092,16 +37099,16 @@
       </c>
       <c r="D37">
         <f>-LN(1/G37 -1)</f>
-        <v>0.84729786038720356</v>
+        <v>0.40546510810816427</v>
       </c>
       <c r="E37" s="19">
         <v>0.53569999999999995</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="11">
         <v>0.49</v>
       </c>
-      <c r="G37">
-        <v>0.7</v>
+      <c r="G37" s="11">
+        <v>0.6</v>
       </c>
       <c r="H37">
         <v>87</v>
@@ -37156,10 +37163,10 @@
       <c r="E38" s="19">
         <v>1</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
+      <c r="F38" s="11">
+        <v>1</v>
+      </c>
+      <c r="G38" s="11">
         <v>1</v>
       </c>
       <c r="H38">
@@ -37222,10 +37229,10 @@
       <c r="E39" s="19">
         <v>1.8560469999999998</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="11">
         <v>1.9809000000000001</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="11">
         <v>1.9809000000000001</v>
       </c>
       <c r="H39">
@@ -37235,7 +37242,7 @@
         <v>88</v>
       </c>
       <c r="J39">
-        <f t="shared" ref="J39:J40" si="15">1/E39</f>
+        <f t="shared" ref="J39:J40" si="18">1/E39</f>
         <v>0.53877945978738695</v>
       </c>
       <c r="M39">
@@ -37277,10 +37284,10 @@
       <c r="E40" s="19">
         <v>7.2171439999999989E-2</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="11">
         <v>1.9084000000000001</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="11">
         <v>1.9084000000000001</v>
       </c>
       <c r="H40">
@@ -37290,7 +37297,7 @@
         <v>88</v>
       </c>
       <c r="J40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>13.855896459873881</v>
       </c>
       <c r="M40">
@@ -37331,10 +37338,10 @@
       <c r="E41" s="19">
         <v>0.26712328767123289</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="11">
         <v>0.26712328767123289</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="11">
         <v>0.26712328767123289</v>
       </c>
       <c r="H41">
@@ -37385,10 +37392,10 @@
       <c r="E42" s="19">
         <v>1</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
+      <c r="F42" s="11">
+        <v>1</v>
+      </c>
+      <c r="G42" s="11">
         <v>1</v>
       </c>
       <c r="H42"/>
@@ -37419,7 +37426,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U42:U51" si="16">T42</f>
+        <f t="shared" ref="U42:U51" si="19">T42</f>
         <v>0</v>
       </c>
       <c r="V42"/>
@@ -37429,25 +37436,25 @@
         <v>90</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43:D44" si="17">E43</f>
+        <f t="shared" ref="B43:D44" si="20">E43</f>
         <v>0.1449</v>
       </c>
       <c r="C43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.1449</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.1449</v>
       </c>
       <c r="E43" s="19">
         <v>0.1449</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="11">
         <f>E43</f>
         <v>0.1449</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="11">
         <f>F43</f>
         <v>0.1449</v>
       </c>
@@ -37471,7 +37478,7 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -37480,25 +37487,25 @@
         <v>91</v>
       </c>
       <c r="B44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.1449</v>
       </c>
       <c r="C44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.1449</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.1449</v>
       </c>
       <c r="E44" s="19">
         <v>0.1449</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="11">
         <f>E44</f>
         <v>0.1449</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="11">
         <f>F44</f>
         <v>0.1449</v>
       </c>
@@ -37522,7 +37529,7 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -37543,10 +37550,10 @@
       <c r="E45" s="17">
         <v>0</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
         <v>0</v>
       </c>
       <c r="J45">
@@ -37569,7 +37576,7 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -37591,10 +37598,10 @@
       <c r="E46" s="17">
         <v>0</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
         <v>0</v>
       </c>
       <c r="J46">
@@ -37617,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -37664,7 +37671,7 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -37677,23 +37684,23 @@
         <v>0</v>
       </c>
       <c r="C48" s="15">
-        <f t="shared" ref="C48:D48" si="18">F48</f>
+        <f t="shared" ref="C48:D48" si="21">F48</f>
         <v>1</v>
       </c>
       <c r="D48" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E48" s="15">
         <f>IF(E47=3.5,0.0135,IF(E47=3.7,0,1))</f>
         <v>0</v>
       </c>
-      <c r="F48" s="15">
-        <f t="shared" ref="F48:G48" si="19">IF(F47=3.5,0.0135,1)</f>
-        <v>1</v>
-      </c>
-      <c r="G48" s="15">
-        <f t="shared" si="19"/>
+      <c r="F48" s="11">
+        <f t="shared" ref="F48:G48" si="22">IF(F47=3.5,0.0135,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O48">
@@ -37712,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -37725,22 +37732,22 @@
         <v>1.0672742837827216</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:D51" si="20">B49</f>
+        <f t="shared" ref="C49:D51" si="23">B49</f>
         <v>1.0672742837827216</v>
       </c>
       <c r="D49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.0672742837827216</v>
       </c>
       <c r="E49" s="17">
         <f>EXP(6.5108/100)</f>
         <v>1.0672742837827216</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="11">
         <f>E49</f>
         <v>1.0672742837827216</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="11">
         <f>E49</f>
         <v>1.0672742837827216</v>
       </c>
@@ -37764,7 +37771,7 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -37777,22 +37784,22 @@
         <v>0.99203290686947143</v>
       </c>
       <c r="C50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.99203290686947143</v>
       </c>
       <c r="D50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.99203290686947143</v>
       </c>
       <c r="E50" s="17">
         <f>EXP(-0.7999/100)</f>
         <v>0.99203290686947143</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="11">
         <f>E50</f>
         <v>0.99203290686947143</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="11">
         <f>E50</f>
         <v>0.99203290686947143</v>
       </c>
@@ -37816,7 +37823,7 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -37829,22 +37836,22 @@
         <v>0.95937715687560754</v>
       </c>
       <c r="C51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.95937715687560754</v>
       </c>
       <c r="D51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.95937715687560754</v>
       </c>
       <c r="E51" s="17">
         <f>EXP(-4.1471/100)</f>
         <v>0.95937715687560754</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="11">
         <f>E51</f>
         <v>0.95937715687560754</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="11">
         <f>E51</f>
         <v>0.95937715687560754</v>
       </c>
@@ -37868,7 +37875,7 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -37987,8 +37994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AAA591-394B-45A3-997C-6B60BB5B6F0D}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{D747905C-8763-4973-AEA7-B75115B0758C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1975119-3F72-4ADF-9006-5F94540B4E34}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{D747905C-8763-4973-AEA7-B75115B0758C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{449D5694-5DAF-4C84-AB41-CACF6A41848D}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="170" windowWidth="18840" windowHeight="10630" firstSheet="1" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.78793719040008303</v>
+        <v>0.59487790846422484</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q50" ca="1" si="1">RAND()</f>
-        <v>0.19877489466809384</v>
+        <v>0.38833773222099266</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1753,14 +1753,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98241057042025881</v>
+        <v>7.8069819215696334E-2</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.22928010405234667</v>
+        <v>0.58810996901275081</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66761633175715196</v>
+        <v>0.9530273859802012</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14414713647128519</v>
+        <v>0.10866456509249822</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3552553104084715E-2</v>
+        <v>0.96380087848081197</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1340073780432014</v>
+        <v>0.31974875591175078</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17865366453838794</v>
+        <v>0.12516629691797254</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6311805068162486E-2</v>
+        <v>0.61550037577818606</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56603845999346059</v>
+        <v>2.0227846240855607E-2</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85118143478569208</v>
+        <v>0.53299494667564795</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62436382714022587</v>
+        <v>0.26233032269663625</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92167731960021548</v>
+        <v>0.59435731859723595</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79639897732164844</v>
+        <v>0.69278126534329953</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11194083934034205</v>
+        <v>6.2193521478326796E-2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="D17">
         <f>PARS!D18</f>
-        <v>-0.43078291609245423</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <f t="shared" si="0"/>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1084308103039876</v>
+        <v>0.54399478716108318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52197841648055476</v>
+        <v>0.60346520863498287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51227286459546206</v>
+        <v>7.4502927188460522E-2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1042504636781425</v>
+        <v>0.46821039795449904</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.267642532687284</v>
+        <v>0.68839503360511367</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48872236974349215</v>
+        <v>0.88362727383892969</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90707323125514028</v>
+        <v>0.62560381215725902</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94648173266500535</v>
+        <v>0.72512652559369684</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7533184306920524E-2</v>
+        <v>0.65710710669878092</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3195,11 +3195,11 @@
       </c>
       <c r="C26">
         <f>PARS!C27</f>
-        <v>-0.35667494393873245</v>
+        <v>-1.2039728043259361</v>
       </c>
       <c r="D26">
         <f>PARS!D27</f>
-        <v>1.0986122886681098</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="E26" t="b">
         <f t="shared" si="0"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9499787036728127E-2</v>
+        <v>0.70493543919156798</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21368243516898577</v>
+        <v>0.86694444269041948</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23619619589255858</v>
+        <v>0.71160550916252319</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9270337986131082</v>
+        <v>4.3918878698941066E-2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44768731448272747</v>
+        <v>0.61495792370027402</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49248622862062796</v>
+        <v>0.61020063740992669</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77259762196938686</v>
+        <v>0.35539388278779083</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19041364120555382</v>
+        <v>0.75998192431559619</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68825941305206195</v>
+        <v>0.35426607973340896</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80845646778858105</v>
+        <v>0.49391724124298864</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84735096690226752</v>
+        <v>0.95760073267894341</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G37">
         <f>PARS!L38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <f>PARS!M38</f>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="J37">
         <f>PARS!O38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <f>PARS!P38</f>
@@ -3978,18 +3978,18 @@
       </c>
       <c r="N37">
         <f>PARS!S38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <f>PARS!T38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37">
         <v>0.24114897377650391</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45521323543966463</v>
+        <v>0.8987811535979785</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23476544449502801</v>
+        <v>5.0071148081042405E-2</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55554915841053554</v>
+        <v>0.14882792749970652</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82538638270959541</v>
+        <v>0.6164915096820438</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46020132687419579</v>
+        <v>0.13520008628105729</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8552457459940298</v>
+        <v>0.91083934900460162</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0294445533422354E-2</v>
+        <v>0.6360269687924367</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40532784655665666</v>
+        <v>0.54561529432181544</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43816438953314496</v>
+        <v>9.8773082887991803E-2</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53241317179025116</v>
+        <v>0.30606382534336773</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80269621416540948</v>
+        <v>0.24966465350385381</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47262410806997535</v>
+        <v>0.99293010369280865</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1208896703606982</v>
+        <v>0.83624676192564618</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="Q50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57041838607249562</v>
+        <v>0.60892609562998601</v>
       </c>
     </row>
   </sheetData>
@@ -33636,8 +33636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34025,8 +34025,8 @@
       <c r="E7" s="17">
         <v>1.6156999999999999</v>
       </c>
-      <c r="F7">
-        <v>1.5904813099999999</v>
+      <c r="F7" s="17">
+        <v>1.6156999999999999</v>
       </c>
       <c r="G7">
         <f>E7</f>
@@ -34701,7 +34701,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="9"/>
-        <v>-0.43078291609245423</v>
+        <v>0</v>
       </c>
       <c r="E18" s="17">
         <v>0.66</v>
@@ -34710,7 +34710,7 @@
         <v>0.3</v>
       </c>
       <c r="G18">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>4.0999999999999996</v>
@@ -35239,20 +35239,20 @@
       </c>
       <c r="C27">
         <f>LN(F27)</f>
-        <v>-0.35667494393873245</v>
+        <v>-1.2039728043259361</v>
       </c>
       <c r="D27">
         <f>LN(G27)</f>
-        <v>1.0986122886681098</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="E27" s="17">
         <v>0.6</v>
       </c>
       <c r="F27">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>4.0549999999999997</v>
@@ -35936,6 +35936,9 @@
         <v>1</v>
       </c>
       <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="O38">
         <v>1</v>
       </c>
       <c r="P38">
@@ -35944,15 +35947,15 @@
       </c>
       <c r="S38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
         <f>1/(1+EXP(-B38))</f>
@@ -36673,11 +36676,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V52" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V52">
-      <sortCondition ref="I1:I52"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{D747905C-8763-4973-AEA7-B75115B0758C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{449D5694-5DAF-4C84-AB41-CACF6A41848D}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{D747905C-8763-4973-AEA7-B75115B0758C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E9A7593-A74E-4683-B222-8AD70C802033}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="170" windowWidth="18840" windowHeight="10630" firstSheet="1" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.59487790846422484</v>
+        <v>0.25590640571083645</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q50" ca="1" si="1">RAND()</f>
-        <v>0.38833773222099266</v>
+        <v>0.20546592972101863</v>
       </c>
       <c r="R3" t="s">
         <v>191</v>
@@ -1753,14 +1753,14 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8069819215696334E-2</v>
+        <v>0.74447110598827249</v>
       </c>
       <c r="R4">
         <v>0.6</v>
       </c>
       <c r="S4">
         <f ca="1">RAND()</f>
-        <v>0.58810996901275081</v>
+        <v>9.7888066383933547E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9530273859802012</v>
+        <v>0.21733402250499234</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10866456509249822</v>
+        <v>0.53845601967233236</v>
       </c>
       <c r="R6" t="s">
         <v>209</v>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96380087848081197</v>
+        <v>0.76555027863743452</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31974875591175078</v>
+        <v>0.76775757936877764</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12516629691797254</v>
+        <v>0.77993681624601929</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61550037577818606</v>
+        <v>0.14041132495802466</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0227846240855607E-2</v>
+        <v>0.5924402829817268</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53299494667564795</v>
+        <v>0.92200039152939939</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26233032269663625</v>
+        <v>0.40353582716331482</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59435731859723595</v>
+        <v>0.5374063185410265</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69278126534329953</v>
+        <v>0.66444823976222978</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2193521478326796E-2</v>
+        <v>0.40393252830788406</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54399478716108318</v>
+        <v>0.39820517044141335</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60346520863498287</v>
+        <v>0.72886844096120318</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4502927188460522E-2</v>
+        <v>9.4978530922422921E-2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46821039795449904</v>
+        <v>0.28494831327427539</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68839503360511367</v>
+        <v>0.90277115193798152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88362727383892969</v>
+        <v>0.87165573085563319</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62560381215725902</v>
+        <v>0.66057528397287546</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72512652559369684</v>
+        <v>0.60307107593253984</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65710710669878092</v>
+        <v>0.40832202326072686</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70493543919156798</v>
+        <v>0.91288000181023865</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86694444269041948</v>
+        <v>0.82468511832225655</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71160550916252319</v>
+        <v>0.94975480575016225</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3918878698941066E-2</v>
+        <v>0.62355412292391332</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61495792370027402</v>
+        <v>0.88013754178483461</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61020063740992669</v>
+        <v>0.41318514691892572</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35539388278779083</v>
+        <v>0.80264321688124785</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75998192431559619</v>
+        <v>0.35942559674009233</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35426607973340896</v>
+        <v>6.7762456515004232E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49391724124298864</v>
+        <v>0.14172104938060992</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95760073267894341</v>
+        <v>0.20702189050198727</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G37">
         <f>PARS!L38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <f>PARS!M38</f>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="J37">
         <f>PARS!O38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <f>PARS!P38</f>
@@ -3978,18 +3978,18 @@
       </c>
       <c r="N37">
         <f>PARS!S38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
         <f>PARS!T38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>0.24114897377650391</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8987811535979785</v>
+        <v>0.2247959578092239</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0071148081042405E-2</v>
+        <v>0.32477644347758095</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14882792749970652</v>
+        <v>0.2607952527394497</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6164915096820438</v>
+        <v>0.13692499006189451</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13520008628105729</v>
+        <v>4.1506155680896661E-2</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91083934900460162</v>
+        <v>0.85096977029723964</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6360269687924367</v>
+        <v>0.73337736908995366</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54561529432181544</v>
+        <v>0.91955630463688953</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8773082887991803E-2</v>
+        <v>0.38175440778351277</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30606382534336773</v>
+        <v>0.56121774152612813</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24966465350385381</v>
+        <v>1.9524758857557667E-2</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99293010369280865</v>
+        <v>0.2171398955900613</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83624676192564618</v>
+        <v>0.99377574474767028</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="Q50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60892609562998601</v>
+        <v>0.390459159305103</v>
       </c>
     </row>
   </sheetData>
@@ -33637,7 +33637,7 @@
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35936,9 +35936,6 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="O38">
         <v>1</v>
       </c>
       <c r="P38">
@@ -35947,15 +35944,15 @@
       </c>
       <c r="S38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
         <f>1/(1+EXP(-B38))</f>

--- a/input/PREP.xlsx
+++ b/input/PREP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{D747905C-8763-4973-AEA7-B75115B0758C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E9A7593-A74E-4683-B222-8AD70C802033}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{D747905C-8763-4973-AEA7-B75115B0758C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90A43753-9D23-44B3-8D65-9E10841A7AB6}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="170" windowWidth="18840" windowHeight="10630" firstSheet="1" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="360" yWindow="170" windowWidth="18840" windowHeight="10630" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="255">
   <si>
     <t>label</t>
   </si>
@@ -763,9 +763,6 @@
   </si>
   <si>
     <t>A1</t>
-  </si>
-  <si>
-    <t>rand</t>
   </si>
   <si>
     <t>value_untransformed</t>
@@ -1476,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45EEF9-8519-412C-B944-7FF4BEAF14F3}">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:Q47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1487,7 +1484,7 @@
     <col min="3" max="4" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -1503,54 +1500,17 @@
       <c r="E1" t="s">
         <v>178</v>
       </c>
-      <c r="F1" t="str">
-        <f>PARS!K1</f>
-        <v>compstat</v>
-      </c>
-      <c r="G1" t="str">
-        <f>PARS!L1</f>
-        <v>toestimate</v>
-      </c>
-      <c r="H1" t="str">
-        <f>PARS!M1</f>
-        <v xml:space="preserve">tofitwithin </v>
-      </c>
-      <c r="I1" t="str">
-        <f>PARS!N1</f>
-        <v>tocalibrateoutright</v>
-      </c>
-      <c r="J1" t="str">
-        <f>PARS!O1</f>
-        <v>ignored</v>
-      </c>
-      <c r="K1" t="str">
-        <f>PARS!P1</f>
-        <v>check</v>
-      </c>
-      <c r="L1" t="str">
-        <f>PARS!Q1</f>
-        <v>reasonablecalibration</v>
-      </c>
-      <c r="M1" t="str">
-        <f>PARS!R1</f>
-        <v>roughcalibrationok</v>
-      </c>
-      <c r="N1" t="str">
-        <f>PARS!S1</f>
-        <v>toestimateR</v>
-      </c>
-      <c r="O1" t="str">
-        <f>PARS!T1</f>
-        <v>parcount</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="F1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" t="s">
         <v>226</v>
       </c>
-      <c r="Q1" t="s">
-        <v>227</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1567,58 +1527,21 @@
         <v>22.35498373964581</v>
       </c>
       <c r="E2" t="b">
-        <f t="shared" ref="E2:E50" si="0">AND(D2&gt;=B2,B2&gt;=C2,D2&gt;=C2)</f>
+        <f t="shared" ref="E2:E51" si="0">AND(D2&gt;=B2,B2&gt;=C2,D2&gt;=C2)</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <f>PARS!K2</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>PARS!L2</f>
-        <v>0</v>
+        <v>0.53105654242295719</v>
       </c>
       <c r="H2">
-        <f>PARS!M2</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>PARS!N2</f>
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <f>PARS!O2</f>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>PARS!P2</f>
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <f>PARS!Q2</f>
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <f>PARS!R2</f>
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f>PARS!S2</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>PARS!T2</f>
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0.45026571891530132</v>
-      </c>
-      <c r="Q2">
         <f ca="1">RAND()</f>
-        <v>0.25590640571083645</v>
+        <v>0.89214511112596429</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -1639,62 +1562,23 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <f>PARS!K3</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>PARS!L3</f>
-        <v>0</v>
+        <v>0.49093251050534092</v>
       </c>
       <c r="H3">
-        <f>PARS!M3</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f>PARS!N3</f>
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <f>PARS!O3</f>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f>PARS!P3</f>
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <f>PARS!Q3</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f>PARS!R3</f>
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f>PARS!S3</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f>PARS!T3</f>
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0.64258992231765177</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q50" ca="1" si="1">RAND()</f>
-        <v>0.20546592972101863</v>
-      </c>
-      <c r="R3" t="s">
-        <v>191</v>
+        <f t="shared" ref="H3:H52" ca="1" si="1">RAND()</f>
+        <v>0.49688222303859653</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
       <c r="B4">
-        <v>-0.46101241336700499</v>
+        <f>PARS!B4</f>
+        <v>-0.21072103131565253</v>
       </c>
       <c r="C4">
         <f>PARS!C4</f>
@@ -1709,61 +1593,17 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f>PARS!K4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <f>PARS!L4</f>
-        <v>1</v>
+        <v>8.2968856403746627E-2</v>
       </c>
       <c r="H4">
-        <f>PARS!M4</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f>PARS!N4</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>PARS!O4</f>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f>PARS!P4</f>
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <f>PARS!Q4</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f>PARS!R4</f>
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <f>PARS!S4</f>
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <f>PARS!T4</f>
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0.2109069498418551</v>
-      </c>
-      <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74447110598827249</v>
-      </c>
-      <c r="R4">
-        <v>0.6</v>
-      </c>
-      <c r="S4">
-        <f ca="1">RAND()</f>
-        <v>9.7888066383933547E-2</v>
+        <v>0.1759047183715351</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -1784,2772 +1624,1276 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <f>PARS!K5</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>PARS!L5</f>
-        <v>0</v>
+        <v>0.16382742191683908</v>
       </c>
       <c r="H5">
-        <f>PARS!M5</f>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f>PARS!N5</f>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>PARS!O5</f>
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <f>PARS!P5</f>
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <f>PARS!Q5</f>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f>PARS!R5</f>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f>PARS!S5</f>
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f>PARS!T5</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0.87848651193353577</v>
-      </c>
-      <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21733402250499234</v>
+        <v>0.86782169314420099</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6">
+        <f>PARS!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>PARS!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>PARS!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.89922009441709028</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2710675096735583</v>
+      </c>
+      <c r="I6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>106</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f>PARS!B7</f>
         <v>0.20836072497837904</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f>PARS!C7</f>
         <v>0.20836072497837904</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f>PARS!D7</f>
         <v>0.20836072497837904</v>
       </c>
-      <c r="E6" t="b">
+      <c r="E7" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F6">
-        <f>PARS!K7</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f>PARS!L7</f>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>PARS!M7</f>
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <f>PARS!N7</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>PARS!O7</f>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f>PARS!P7</f>
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <f>PARS!Q7</f>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f>PARS!R7</f>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f>PARS!S7</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f>PARS!T7</f>
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0.91265842292054944</v>
-      </c>
-      <c r="Q6">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.91932096982163469</v>
+      </c>
+      <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53845601967233236</v>
-      </c>
-      <c r="R6" t="s">
-        <v>209</v>
+        <v>0.48236862267841973</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>74</v>
       </c>
-      <c r="B7">
-        <v>-1.00655521417567</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
+        <f>PARS!B8</f>
+        <v>-1.4064970684374101</v>
+      </c>
+      <c r="C8">
         <f>PARS!C8</f>
         <v>-2.3025850929940455</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f>PARS!D8</f>
         <v>-0.916290731874155</v>
       </c>
-      <c r="E7" t="b">
+      <c r="E8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7">
-        <f>PARS!K8</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>PARS!L8</f>
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <f>PARS!M8</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f>PARS!N8</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>PARS!O8</f>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f>PARS!P8</f>
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <f>PARS!Q8</f>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>PARS!R8</f>
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f>PARS!S8</f>
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <f>PARS!T8</f>
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0.91249787974659524</v>
-      </c>
-      <c r="Q7">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.87103404008515395</v>
+      </c>
+      <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76555027863743452</v>
-      </c>
-      <c r="R7">
-        <v>0.5</v>
+        <v>0.25120189967803075</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>92</v>
       </c>
-      <c r="B8">
-        <v>0.57312619333459902</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
+        <f>PARS!B9</f>
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="C9">
         <f>PARS!C9</f>
         <v>-0.16251892949777494</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f>PARS!D9</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="E8" t="b">
+      <c r="E9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F8">
-        <f>PARS!K9</f>
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f>PARS!L9</f>
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <f>PARS!M9</f>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f>PARS!N9</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>PARS!O9</f>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f>PARS!P9</f>
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <f>PARS!Q9</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>PARS!R9</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f>PARS!S9</f>
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <f>PARS!T9</f>
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>3.3046308219545684E-2</v>
-      </c>
-      <c r="Q8">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.39312911499027259</v>
+      </c>
+      <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76775757936877764</v>
+        <v>0.76554124332217244</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>93</v>
       </c>
-      <c r="B9">
-        <v>1.72155169240169</v>
-      </c>
-      <c r="C9">
+      <c r="B10">
+        <f>PARS!B10</f>
+        <v>1.3837912309017721</v>
+      </c>
+      <c r="C10">
         <f>PARS!C10</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f>PARS!D10</f>
         <v>1.791759469228055</v>
       </c>
-      <c r="E9" t="b">
+      <c r="E10" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F9">
-        <f>PARS!K10</f>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f>PARS!L10</f>
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <f>PARS!M10</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>PARS!N10</f>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>PARS!O10</f>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f>PARS!P10</f>
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <f>PARS!Q10</f>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f>PARS!R10</f>
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <f>PARS!S10</f>
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <f>PARS!T10</f>
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0.97768082688193647</v>
-      </c>
-      <c r="Q9">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.37807164831515072</v>
+      </c>
+      <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77993681624601929</v>
+        <v>0.32135742325806127</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>98</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f>PARS!B11</f>
         <v>-1.0050335853501451E-2</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <f>PARS!C11</f>
         <v>-0.51082562376599072</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <f>PARS!D11</f>
         <v>0.18232155679395459</v>
       </c>
-      <c r="E10" t="b">
+      <c r="E11" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10">
-        <f>PARS!K11</f>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f>PARS!L11</f>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f>PARS!M11</f>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f>PARS!N11</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>PARS!O11</f>
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <f>PARS!P11</f>
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <f>PARS!Q11</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f>PARS!R11</f>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f>PARS!S11</f>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f>PARS!T11</f>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0.74086429990454716</v>
-      </c>
-      <c r="Q10">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>4.563226419872779E-2</v>
+      </c>
+      <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14041132495802466</v>
+        <v>0.13807288787702199</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>95</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <f>PARS!B12</f>
         <v>-1.8703217532696195</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f>PARS!C12</f>
         <v>-2.093465304583829</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f>PARS!D12</f>
         <v>-1.1771745727096741</v>
       </c>
-      <c r="E11" t="b">
+      <c r="E12" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11">
-        <f>PARS!K12</f>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f>PARS!L12</f>
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <f>PARS!M12</f>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f>PARS!N12</f>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f>PARS!O12</f>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f>PARS!P12</f>
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <f>PARS!Q12</f>
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <f>PARS!R12</f>
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <f>PARS!S12</f>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f>PARS!T12</f>
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>0.86037898330286977</v>
-      </c>
-      <c r="Q11">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.67349394205356494</v>
+      </c>
+      <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5924402829817268</v>
+        <v>8.2457080046072551E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>94</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <f>PARS!B13</f>
         <v>0.66388228523152282</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <f>PARS!C13</f>
         <v>-0.40790273033909435</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <f>PARS!D13</f>
         <v>1.0551933911457412</v>
       </c>
-      <c r="E12" t="b">
+      <c r="E13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F12">
-        <f>PARS!K13</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f>PARS!L13</f>
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <f>PARS!M13</f>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f>PARS!N13</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>PARS!O13</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>PARS!P13</f>
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <f>PARS!Q13</f>
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <f>PARS!R13</f>
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <f>PARS!S13</f>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f>PARS!T13</f>
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>0.41521169452629747</v>
-      </c>
-      <c r="Q12">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.20805081519983726</v>
+      </c>
+      <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92200039152939939</v>
+        <v>1.6721863407969773E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>97</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f>PARS!B14</f>
         <v>-8.9025505804146685E-2</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f>PARS!C14</f>
         <v>0.62810999999999995</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f>PARS!D14</f>
         <v>1.16649</v>
       </c>
-      <c r="E13" t="b">
+      <c r="E14" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13">
-        <f>PARS!K14</f>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f>PARS!L14</f>
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <f>PARS!M14</f>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f>PARS!N14</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>PARS!O14</f>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f>PARS!P14</f>
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <f>PARS!Q14</f>
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <f>PARS!R14</f>
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <f>PARS!S14</f>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f>PARS!T14</f>
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0.46557314041903575</v>
-      </c>
-      <c r="Q13">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>8.7793255145312332E-2</v>
+      </c>
+      <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40353582716331482</v>
+        <v>0.95309929670463112</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>99</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <f>PARS!B15</f>
         <v>0.25702382969694959</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f>PARS!C15</f>
         <v>0.17991668078786471</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f>PARS!D15</f>
         <v>0.33413097860603447</v>
       </c>
-      <c r="E14" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <f>PARS!K15</f>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f>PARS!L15</f>
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <f>PARS!M15</f>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f>PARS!N15</f>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f>PARS!O15</f>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f>PARS!P15</f>
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <f>PARS!Q15</f>
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <f>PARS!R15</f>
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <f>PARS!S15</f>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f>PARS!T15</f>
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0.61372102254729277</v>
-      </c>
-      <c r="Q14">
+      <c r="E15" t="b">
+        <f>AND(D15&gt;=B15,B15&gt;=C15,D15&gt;=C15)</f>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.60409353771514374</v>
+      </c>
+      <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5374063185410265</v>
+        <v>0.83074950703354533</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>70</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <f>PARS!B16</f>
         <v>-2.3633295407393207</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f>PARS!C16</f>
         <v>-2.5836226227271579</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f>PARS!D16</f>
         <v>-2.5836226227271579</v>
       </c>
-      <c r="E15" t="b">
-        <f>AND(D15&gt;=B15,B15&gt;=C15,D15&gt;=C15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>PARS!K16</f>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f>PARS!L16</f>
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <f>PARS!M16</f>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f>PARS!N16</f>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f>PARS!O16</f>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f>PARS!P16</f>
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <f>PARS!Q16</f>
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <f>PARS!R16</f>
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <f>PARS!S16</f>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f>PARS!T16</f>
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>3.2897363898112042E-2</v>
-      </c>
-      <c r="Q15">
+      <c r="E16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.14159005981771311</v>
+      </c>
+      <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66444823976222978</v>
+        <v>0.69407898521580713</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="B16">
-        <v>-1.7221055246725101</v>
-      </c>
-      <c r="C16">
+      <c r="B17">
+        <f>PARS!B17</f>
+        <v>-1.4146938356415886</v>
+      </c>
+      <c r="C17">
         <f>PARS!C17</f>
         <v>-2.3025850929940455</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f>PARS!D17</f>
         <v>-1.1647520911726548</v>
       </c>
-      <c r="E16" t="b">
+      <c r="E17" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F16">
-        <f>PARS!K17</f>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f>PARS!L17</f>
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <f>PARS!M17</f>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f>PARS!N17</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>PARS!O17</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>PARS!P17</f>
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <f>PARS!Q17</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f>PARS!R17</f>
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <f>PARS!S17</f>
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <f>PARS!T17</f>
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0.15850360539381858</v>
-      </c>
-      <c r="Q16">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.552769905166271</v>
+      </c>
+      <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40393252830788406</v>
+        <v>0.50366717239217418</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>96</v>
       </c>
-      <c r="B17">
-        <v>-0.47621225479163498</v>
-      </c>
-      <c r="C17">
+      <c r="B18">
+        <f>PARS!B18</f>
+        <v>-0.41551544396166579</v>
+      </c>
+      <c r="C18">
         <f>PARS!C18</f>
         <v>-1.2039728043259361</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f>PARS!D18</f>
         <v>0</v>
       </c>
-      <c r="E17" t="b">
+      <c r="E18" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F17">
-        <f>PARS!K18</f>
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <f>PARS!L18</f>
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <f>PARS!M18</f>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f>PARS!N18</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f>PARS!O18</f>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f>PARS!P18</f>
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <f>PARS!Q18</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f>PARS!R18</f>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f>PARS!S18</f>
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <f>PARS!T18</f>
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>4.0815182308573172E-2</v>
-      </c>
-      <c r="Q17">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.69621332925647528</v>
+      </c>
+      <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39820517044141335</v>
+        <v>0.45247239066473433</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="B18">
-        <v>2.2757111368012901</v>
-      </c>
-      <c r="C18">
+      <c r="B19">
+        <f>PARS!B19</f>
+        <v>1.9878743481543455</v>
+      </c>
+      <c r="C19">
         <f>PARS!C19</f>
         <v>1.6094379124341003</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f>PARS!D19</f>
         <v>2.341805806147327</v>
       </c>
-      <c r="E18" t="b">
+      <c r="E19" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F18">
-        <f>PARS!K19</f>
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <f>PARS!L19</f>
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <f>PARS!M19</f>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f>PARS!N19</f>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f>PARS!O19</f>
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f>PARS!P19</f>
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <f>PARS!Q19</f>
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <f>PARS!R19</f>
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <f>PARS!S19</f>
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <f>PARS!T19</f>
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>0.79134419092871022</v>
-      </c>
-      <c r="Q18">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.79118853390002408</v>
+      </c>
+      <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72886844096120318</v>
+        <v>0.36170993982019572</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <f>PARS!B20</f>
         <v>2000</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <f>PARS!C20</f>
-        <v>2.9957322735539909</v>
-      </c>
-      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="D20">
         <f>PARS!D20</f>
-        <v>2.9957322735539909</v>
-      </c>
-      <c r="E19" t="b">
+        <v>2000</v>
+      </c>
+      <c r="E20" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f>PARS!K20</f>
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <f>PARS!L20</f>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f>PARS!M20</f>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f>PARS!N20</f>
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <f>PARS!O20</f>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f>PARS!P20</f>
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <f>PARS!Q20</f>
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <f>PARS!R20</f>
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <f>PARS!S20</f>
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f>PARS!T20</f>
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0.44473108790054128</v>
-      </c>
-      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.88325503098242519</v>
+      </c>
+      <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4978530922422921E-2</v>
+        <v>0.90200590185328333</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>73</v>
       </c>
-      <c r="B20">
-        <v>0.405465108108164</v>
-      </c>
-      <c r="C20">
+      <c r="B21">
+        <f>PARS!B21</f>
+        <v>24.401210673453068</v>
+      </c>
+      <c r="C21">
         <f>PARS!C21</f>
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <f>PARS!D21</f>
         <v>405.46510810816426</v>
       </c>
-      <c r="E20" t="b">
+      <c r="E21" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F20">
-        <f>PARS!K21</f>
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <f>PARS!L21</f>
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <f>PARS!M21</f>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f>PARS!N21</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f>PARS!O21</f>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f>PARS!P21</f>
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <f>PARS!Q21</f>
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <f>PARS!R21</f>
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <f>PARS!S21</f>
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <f>PARS!T21</f>
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>0.3174370251684232</v>
-      </c>
-      <c r="Q20">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.8661446103829711E-2</v>
+      </c>
+      <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28494831327427539</v>
+        <v>0.94107966930888087</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
-      <c r="B21">
-        <v>0.58116521652964404</v>
-      </c>
-      <c r="C21">
+      <c r="B22">
+        <f>PARS!B22</f>
+        <v>0.42526773540434409</v>
+      </c>
+      <c r="C22">
         <f>PARS!C22</f>
         <v>0.37156355643248301</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f>PARS!D22</f>
         <v>0.61518563909023349</v>
       </c>
-      <c r="E21" t="b">
+      <c r="E22" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F21">
-        <f>PARS!K22</f>
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <f>PARS!L22</f>
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <f>PARS!M22</f>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f>PARS!N22</f>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f>PARS!O22</f>
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f>PARS!P22</f>
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <f>PARS!Q22</f>
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <f>PARS!R22</f>
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <f>PARS!S22</f>
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <f>PARS!T22</f>
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>0.17040591722738896</v>
-      </c>
-      <c r="Q21">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.86502061339991732</v>
+      </c>
+      <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90277115193798152</v>
+        <v>0.93442098106966032</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>79</v>
       </c>
-      <c r="B22">
-        <v>1.5727815896719699</v>
-      </c>
-      <c r="C22">
+      <c r="B23">
+        <f>PARS!B23</f>
+        <v>3.1972245773362191</v>
+      </c>
+      <c r="C23">
         <f>PARS!C23</f>
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <f>PARS!D23</f>
         <v>7.9067547786486871</v>
       </c>
-      <c r="E22" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <f>PARS!K23</f>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f>PARS!L23</f>
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <f>PARS!M23</f>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f>PARS!N23</f>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f>PARS!O23</f>
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f>PARS!P23</f>
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <f>PARS!Q23</f>
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <f>PARS!R23</f>
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <f>PARS!S23</f>
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <f>PARS!T23</f>
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>0.70575014646886558</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.87165573085563319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23">
-        <f>PARS!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <f>PARS!C24</f>
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <f>PARS!D24</f>
-        <v>0</v>
-      </c>
       <c r="E23" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F23">
-        <f>PARS!K24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <f>PARS!L24</f>
-        <v>0</v>
+        <v>0.90552454422183626</v>
       </c>
       <c r="H23">
-        <f>PARS!M24</f>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f>PARS!N24</f>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f>PARS!O24</f>
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <f>PARS!P24</f>
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <f>PARS!Q24</f>
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <f>PARS!R24</f>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f>PARS!S24</f>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f>PARS!T24</f>
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0.42139635307234813</v>
-      </c>
-      <c r="Q23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66057528397287546</v>
+        <v>0.89287289258399472</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24">
+        <f>PARS!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>PARS!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>PARS!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>3.0826840635846953E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7964094446145329E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>190</v>
       </c>
-      <c r="B24">
-        <v>-0.127143713834416</v>
-      </c>
-      <c r="C24">
+      <c r="B25">
+        <f>PARS!B25</f>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="C25">
         <f>PARS!C25</f>
         <v>-0.15</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <f>PARS!D25</f>
         <v>0.05</v>
       </c>
-      <c r="E24" t="b">
+      <c r="E25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F24">
-        <f>PARS!K25</f>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f>PARS!L25</f>
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <f>PARS!M25</f>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f>PARS!N25</f>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f>PARS!O25</f>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f>PARS!P25</f>
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <f>PARS!Q25</f>
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f>PARS!R25</f>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f>PARS!S25</f>
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <f>PARS!T25</f>
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>0.29415573760612745</v>
-      </c>
-      <c r="Q24">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5335079973158724</v>
+      </c>
+      <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60307107593253984</v>
+        <v>0.43046593040438763</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>81</v>
       </c>
-      <c r="B25">
-        <v>0.44372505300140302</v>
-      </c>
-      <c r="C25">
+      <c r="B26">
+        <f>PARS!B26</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C26">
         <f>PARS!C26</f>
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <f>PARS!D26</f>
         <v>0.5</v>
       </c>
-      <c r="E25" t="b">
+      <c r="E26" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F25">
-        <f>PARS!K26</f>
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f>PARS!L26</f>
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <f>PARS!M26</f>
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f>PARS!N26</f>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f>PARS!O26</f>
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f>PARS!P26</f>
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <f>PARS!Q26</f>
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <f>PARS!R26</f>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f>PARS!S26</f>
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <f>PARS!T26</f>
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>0.39589873077261617</v>
-      </c>
-      <c r="Q25">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.1379461107019333</v>
+      </c>
+      <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40832202326072686</v>
+        <v>0.11892632757079569</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>82</v>
       </c>
-      <c r="B26">
-        <v>-0.356674943938732</v>
-      </c>
-      <c r="C26">
+      <c r="B27">
+        <f>PARS!B27</f>
+        <v>-0.51082562376599072</v>
+      </c>
+      <c r="C27">
         <f>PARS!C27</f>
         <v>-1.2039728043259361</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <f>PARS!D27</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="E26" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <f>PARS!K27</f>
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <f>PARS!L27</f>
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <f>PARS!M27</f>
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f>PARS!N27</f>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f>PARS!O27</f>
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f>PARS!P27</f>
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <f>PARS!Q27</f>
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <f>PARS!R27</f>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f>PARS!S27</f>
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <f>PARS!T27</f>
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>0.85407752402478287</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.91288000181023865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27">
-        <f>PARS!B28</f>
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <f>PARS!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <f>PARS!D28</f>
-        <v>0</v>
-      </c>
       <c r="E27" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27">
-        <f>PARS!K28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <f>PARS!L28</f>
-        <v>0</v>
+        <v>0.15594482562436407</v>
       </c>
       <c r="H27">
-        <f>PARS!M28</f>
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <f>PARS!N28</f>
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <f>PARS!O28</f>
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <f>PARS!P28</f>
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <f>PARS!Q28</f>
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <f>PARS!R28</f>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f>PARS!S28</f>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f>PARS!T28</f>
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0.95518315060389447</v>
-      </c>
-      <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82468511832225655</v>
+        <v>7.3538987320764804E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <f>PARS!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f>PARS!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>PARS!D28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.36385250657588908</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65244690228672531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>103</v>
       </c>
-      <c r="B28">
+      <c r="B29">
+        <f>PARS!B29</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <f>PARS!C29</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <f>PARS!D29</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E28" t="b">
+      <c r="E29" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F28">
-        <f>PARS!K29</f>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f>PARS!L29</f>
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <f>PARS!M29</f>
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <f>PARS!N29</f>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f>PARS!O29</f>
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <f>PARS!P29</f>
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <f>PARS!Q29</f>
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <f>PARS!R29</f>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f>PARS!S29</f>
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <f>PARS!T29</f>
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>0.13397480163273179</v>
-      </c>
-      <c r="Q28">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.98514857668021316</v>
+      </c>
+      <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94975480575016225</v>
+        <v>0.44058611466845299</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="B29">
-        <v>0.15865911498930299</v>
-      </c>
-      <c r="C29">
+      <c r="B30">
+        <f>PARS!B30</f>
+        <v>0.87546873735389985</v>
+      </c>
+      <c r="C30">
         <f>PARS!C30</f>
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <f>PARS!D30</f>
         <v>2.3025850929940459</v>
       </c>
-      <c r="E29" t="b">
+      <c r="E30" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F29">
-        <f>PARS!K30</f>
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <f>PARS!L30</f>
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <f>PARS!M30</f>
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <f>PARS!N30</f>
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <f>PARS!O30</f>
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <f>PARS!P30</f>
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <f>PARS!Q30</f>
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <f>PARS!R30</f>
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <f>PARS!S30</f>
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <f>PARS!T30</f>
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>6.4860324881191644E-2</v>
-      </c>
-      <c r="Q29">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.8781065389559034</v>
+      </c>
+      <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62355412292391332</v>
+        <v>0.20811290471328603</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>83</v>
       </c>
-      <c r="B30">
-        <v>0.64466835400265698</v>
-      </c>
-      <c r="C30">
+      <c r="B31">
+        <f>PARS!B31</f>
+        <v>0.91629073187415511</v>
+      </c>
+      <c r="C31">
         <f>PARS!C31</f>
         <v>0.58778666490211906</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <f>PARS!D31</f>
         <v>1.3862943611198906</v>
       </c>
-      <c r="E30" t="b">
+      <c r="E31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F30">
-        <f>PARS!K31</f>
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <f>PARS!L31</f>
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <f>PARS!M31</f>
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <f>PARS!N31</f>
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <f>PARS!O31</f>
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <f>PARS!P31</f>
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <f>PARS!Q31</f>
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <f>PARS!R31</f>
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <f>PARS!S31</f>
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <f>PARS!T31</f>
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <v>0.39311826378521897</v>
-      </c>
-      <c r="Q30">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.12871016653382228</v>
+      </c>
+      <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88013754178483461</v>
+        <v>0.76785158364313288</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>84</v>
       </c>
-      <c r="B31">
-        <v>-1.3933629538640899</v>
-      </c>
-      <c r="C31">
+      <c r="B32">
+        <f>PARS!B32</f>
+        <v>-0.99462257514406194</v>
+      </c>
+      <c r="C32">
         <f>PARS!C32</f>
         <v>-2.1972245773362196</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <f>PARS!D32</f>
         <v>6.9067547786484651</v>
       </c>
-      <c r="E31" t="b">
+      <c r="E32" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F31">
-        <f>PARS!K32</f>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f>PARS!L32</f>
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <f>PARS!M32</f>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f>PARS!N32</f>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f>PARS!O32</f>
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <f>PARS!P32</f>
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <f>PARS!Q32</f>
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <f>PARS!R32</f>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f>PARS!S32</f>
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <f>PARS!T32</f>
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>0.14659968919594335</v>
-      </c>
-      <c r="Q31">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.5450423747539993</v>
+      </c>
+      <c r="H32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41318514691892572</v>
+        <v>0.47110528285468845</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>85</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <f>PARS!B33</f>
         <v>0.70559799999999995</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <f>PARS!C33</f>
         <v>0.70559799999999995</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <f>PARS!D33</f>
         <v>0.70559799999999995</v>
       </c>
-      <c r="E32" t="b">
+      <c r="E33" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F32">
-        <f>PARS!K33</f>
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <f>PARS!L33</f>
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f>PARS!M33</f>
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <f>PARS!N33</f>
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <f>PARS!O33</f>
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <f>PARS!P33</f>
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <f>PARS!Q33</f>
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <f>PARS!R33</f>
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <f>PARS!S33</f>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f>PARS!T33</f>
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>0.51457617192938376</v>
-      </c>
-      <c r="Q32">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0.55215907036823553</v>
+      </c>
+      <c r="H33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80264321688124785</v>
+        <v>0.22331372692825247</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>87</v>
       </c>
-      <c r="B33">
-        <v>0.52035580519809899</v>
-      </c>
-      <c r="C33">
+      <c r="B34">
+        <f>PARS!B34</f>
+        <v>-0.3285040669720361</v>
+      </c>
+      <c r="C34">
         <f>PARS!C34</f>
         <v>-2.3025850929940455</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <f>PARS!D34</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="E33" t="b">
+      <c r="E34" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F33">
-        <f>PARS!K34</f>
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <f>PARS!L34</f>
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <f>PARS!M34</f>
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <f>PARS!N34</f>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <f>PARS!O34</f>
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <f>PARS!P34</f>
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <f>PARS!Q34</f>
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <f>PARS!R34</f>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f>PARS!S34</f>
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <f>PARS!T34</f>
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>0.73560584996787559</v>
-      </c>
-      <c r="Q33">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.36597743517783687</v>
+      </c>
+      <c r="H34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35942559674009233</v>
+        <v>0.28591421739546807</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>88</v>
       </c>
-      <c r="B34">
-        <v>-0.139740018170423</v>
-      </c>
-      <c r="C34">
+      <c r="B35">
+        <f>PARS!B35</f>
+        <v>-0.2744368457017603</v>
+      </c>
+      <c r="C35">
         <f>PARS!C35</f>
         <v>-0.71334988787746489</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <f>PARS!D35</f>
         <v>-9.4310679471241415E-2</v>
       </c>
-      <c r="E34" t="b">
+      <c r="E35" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F34">
-        <f>PARS!K35</f>
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <f>PARS!L35</f>
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <f>PARS!M35</f>
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <f>PARS!N35</f>
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <f>PARS!O35</f>
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <f>PARS!P35</f>
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <f>PARS!Q35</f>
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <f>PARS!R35</f>
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f>PARS!S35</f>
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <f>PARS!T35</f>
-        <v>1</v>
-      </c>
-      <c r="P34">
-        <v>0.4314723347972258</v>
-      </c>
-      <c r="Q34">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>6.9601791823036607E-2</v>
+      </c>
+      <c r="H35">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7762456515004232E-2</v>
+        <v>0.19674364126961152</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>89</v>
       </c>
-      <c r="B35">
-        <v>2.0588207871097302</v>
-      </c>
-      <c r="C35">
+      <c r="B36">
+        <f>PARS!B36</f>
+        <v>2.5297206655777931</v>
+      </c>
+      <c r="C36">
         <f>PARS!C36</f>
         <v>-6.9077552789821368</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <f>PARS!D36</f>
         <v>2.9957322735539909</v>
       </c>
-      <c r="E35" t="b">
+      <c r="E36" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F35">
-        <f>PARS!K36</f>
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <f>PARS!L36</f>
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <f>PARS!M36</f>
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <f>PARS!N36</f>
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <f>PARS!O36</f>
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <f>PARS!P36</f>
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <f>PARS!Q36</f>
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <f>PARS!R36</f>
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <f>PARS!S36</f>
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <f>PARS!T36</f>
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>0.95444575195163173</v>
-      </c>
-      <c r="Q35">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.77405733771362362</v>
+      </c>
+      <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14172104938060992</v>
+        <v>0.44510476816329392</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>102</v>
       </c>
-      <c r="B36">
-        <v>2.03594486757585</v>
-      </c>
-      <c r="C36">
+      <c r="B37">
+        <f>PARS!B37</f>
+        <v>1.2527629684953681</v>
+      </c>
+      <c r="C37">
         <f>PARS!C37</f>
         <v>-6.9077552789821368</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <f>PARS!D37</f>
         <v>3.1010977891993172</v>
       </c>
-      <c r="E36" t="b">
+      <c r="E37" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F36">
-        <f>PARS!K37</f>
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <f>PARS!L37</f>
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <f>PARS!M37</f>
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <f>PARS!N37</f>
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <f>PARS!O37</f>
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <f>PARS!P37</f>
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <f>PARS!Q37</f>
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <f>PARS!R37</f>
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <f>PARS!S37</f>
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <f>PARS!T37</f>
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>0.15027616064651761</v>
-      </c>
-      <c r="Q36">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.87369915063133508</v>
+      </c>
+      <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20702189050198727</v>
+        <v>0.59097871813281222</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B37">
-        <v>-8.4489994325880006E-3</v>
-      </c>
-      <c r="C37">
+      <c r="B38">
+        <f>PARS!B38</f>
+        <v>0.14304340786103839</v>
+      </c>
+      <c r="C38">
         <f>PARS!C38</f>
         <v>-4.0005334613699206E-2</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <f>PARS!D38</f>
         <v>0.84729786038720356</v>
       </c>
-      <c r="E37" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <f>PARS!K38</f>
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <f>PARS!L38</f>
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <f>PARS!M38</f>
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <f>PARS!N38</f>
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <f>PARS!O38</f>
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <f>PARS!P38</f>
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <f>PARS!Q38</f>
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <f>PARS!R38</f>
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <f>PARS!S38</f>
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <f>PARS!T38</f>
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>0.24114897377650391</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2247959578092239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38">
-        <f>PARS!B39</f>
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <f>PARS!C39</f>
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <f>PARS!D39</f>
-        <v>1</v>
-      </c>
       <c r="E38" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F38">
-        <f>PARS!K39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <f>PARS!L39</f>
-        <v>0</v>
+        <v>0.98561471154886982</v>
       </c>
       <c r="H38">
-        <f>PARS!M39</f>
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <f>PARS!N39</f>
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <f>PARS!O39</f>
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <f>PARS!P39</f>
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <f>PARS!Q39</f>
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <f>PARS!R39</f>
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <f>PARS!S39</f>
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <f>PARS!T39</f>
-        <v>1</v>
-      </c>
-      <c r="P38">
-        <v>0.5751532464632032</v>
-      </c>
-      <c r="Q38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32477644347758095</v>
+        <v>0.76207887475813763</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39">
+        <f>PARS!B39</f>
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f>PARS!C39</f>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f>PARS!D39</f>
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0.15407604627335114</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70604663720916416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>108</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <f>PARS!B40</f>
         <v>1.8427</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <f>PARS!C40</f>
         <v>1.8427</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <f>PARS!D40</f>
         <v>1.8427</v>
       </c>
-      <c r="E39" t="b">
+      <c r="E40" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39">
-        <f>PARS!K40</f>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f>PARS!L40</f>
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <f>PARS!M40</f>
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <f>PARS!N40</f>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <f>PARS!O40</f>
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <f>PARS!P40</f>
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <f>PARS!Q40</f>
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <f>PARS!R40</f>
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <f>PARS!S40</f>
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <f>PARS!T40</f>
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <v>0.83052896155391343</v>
-      </c>
-      <c r="Q39">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>4.4062957175660222E-2</v>
+      </c>
+      <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2607952527394497</v>
+        <v>0.30597783054111405</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>109</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <f>PARS!B41</f>
         <v>9.7252000000000005E-2</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <f>PARS!C41</f>
         <v>9.7252000000000005E-2</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <f>PARS!D41</f>
         <v>9.7252000000000005E-2</v>
       </c>
-      <c r="E40" t="b">
+      <c r="E41" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F40">
-        <f>PARS!K41</f>
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f>PARS!L41</f>
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <f>PARS!M41</f>
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <f>PARS!N41</f>
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <f>PARS!O41</f>
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <f>PARS!P41</f>
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <f>PARS!Q41</f>
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <f>PARS!R41</f>
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <f>PARS!S41</f>
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <f>PARS!T41</f>
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>0.57179882711031738</v>
-      </c>
-      <c r="Q40">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.40461846550790204</v>
+      </c>
+      <c r="H41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13692499006189451</v>
+        <v>0.77575286030325064</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>105</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <f>PARS!B42</f>
         <v>0.26712328767123289</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <f>PARS!C42</f>
         <v>0.26712328767123289</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <f>PARS!D42</f>
         <v>0.26712328767123289</v>
       </c>
-      <c r="E41" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <f>PARS!K42</f>
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <f>PARS!L42</f>
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <f>PARS!M42</f>
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <f>PARS!N42</f>
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <f>PARS!O42</f>
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <f>PARS!P42</f>
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <f>PARS!Q42</f>
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <f>PARS!R42</f>
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <f>PARS!S42</f>
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <f>PARS!T42</f>
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <v>9.6052509766449634E-2</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.1506155680896661E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42">
-        <f>PARS!B43</f>
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <f>PARS!C43</f>
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <f>PARS!D43</f>
-        <v>1</v>
-      </c>
       <c r="E42" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F42">
-        <f>PARS!K43</f>
         <v>0</v>
       </c>
       <c r="G42">
-        <f>PARS!L43</f>
-        <v>0</v>
+        <v>0.10301469808812802</v>
       </c>
       <c r="H42">
-        <f>PARS!M43</f>
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <f>PARS!N43</f>
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <f>PARS!O43</f>
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <f>PARS!P43</f>
-        <v>1</v>
-      </c>
-      <c r="L42">
-        <f>PARS!Q43</f>
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <f>PARS!R43</f>
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <f>PARS!S43</f>
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <f>PARS!T43</f>
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0.45865485006919537</v>
-      </c>
-      <c r="Q42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85096977029723964</v>
+        <v>0.77474162463459717</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43">
+        <f>PARS!B43</f>
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f>PARS!C43</f>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f>PARS!D43</f>
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0.75477678349395205</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16536521139990179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>90</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <f>PARS!B44</f>
         <v>0.1449</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <f>PARS!C44</f>
         <v>0.1449</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <f>PARS!D44</f>
         <v>0.1449</v>
       </c>
-      <c r="E43" t="b">
+      <c r="E44" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F43">
-        <f>PARS!K44</f>
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <f>PARS!L44</f>
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <f>PARS!M44</f>
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <f>PARS!N44</f>
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <f>PARS!O44</f>
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <f>PARS!P44</f>
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <f>PARS!Q44</f>
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <f>PARS!R44</f>
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <f>PARS!S44</f>
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <f>PARS!T44</f>
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0.9123383309457741</v>
-      </c>
-      <c r="Q43">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0.57929408336024069</v>
+      </c>
+      <c r="H44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73337736908995366</v>
+        <v>0.58726588031965088</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <f>PARS!B45</f>
         <v>0.1449</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <f>PARS!C45</f>
         <v>0.1449</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <f>PARS!D45</f>
         <v>0.1449</v>
       </c>
-      <c r="E44" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <f>PARS!K45</f>
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <f>PARS!L45</f>
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <f>PARS!M45</f>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <f>PARS!N45</f>
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <f>PARS!O45</f>
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <f>PARS!P45</f>
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <f>PARS!Q45</f>
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <f>PARS!R45</f>
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <f>PARS!S45</f>
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <f>PARS!T45</f>
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>1.6941175439559863E-3</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.91955630463688953</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45">
-        <f>PARS!B46</f>
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <f>PARS!C46</f>
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <f>PARS!D46</f>
-        <v>0</v>
-      </c>
       <c r="E45" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F45">
-        <f>PARS!K46</f>
         <v>0</v>
       </c>
       <c r="G45">
-        <f>PARS!L46</f>
-        <v>0</v>
+        <v>0.33746607981681664</v>
       </c>
       <c r="H45">
-        <f>PARS!M46</f>
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <f>PARS!N46</f>
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <f>PARS!O46</f>
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <f>PARS!P46</f>
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <f>PARS!Q46</f>
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <f>PARS!R46</f>
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <f>PARS!S46</f>
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <f>PARS!T46</f>
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0.2115941042882471</v>
-      </c>
-      <c r="Q45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38175440778351277</v>
+        <v>0.48682904416817219</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B46">
-        <f>PARS!B47</f>
+        <f>PARS!B46</f>
         <v>0</v>
       </c>
       <c r="C46">
-        <f>PARS!C47</f>
+        <f>PARS!C46</f>
         <v>0</v>
       </c>
       <c r="D46">
-        <f>PARS!D47</f>
+        <f>PARS!D46</f>
         <v>0</v>
       </c>
       <c r="E46" t="b">
@@ -4557,323 +2901,197 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <f>PARS!K47</f>
         <v>0</v>
       </c>
       <c r="G46">
-        <f>PARS!L47</f>
-        <v>0</v>
+        <v>0.87650119447756558</v>
       </c>
       <c r="H46">
-        <f>PARS!M47</f>
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <f>PARS!N47</f>
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <f>PARS!O47</f>
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <f>PARS!P47</f>
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <f>PARS!Q47</f>
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <f>PARS!R47</f>
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <f>PARS!S47</f>
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <f>PARS!T47</f>
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0.72975034123159543</v>
-      </c>
-      <c r="Q46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56121774152612813</v>
+        <v>0.82945014719207888</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="B47">
+        <f>PARS!B47</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>PARS!C47</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>PARS!D47</f>
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <f t="shared" ref="E47" si="2">AND(D47&gt;=B47,B47&gt;=C47,D47&gt;=C47)</f>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0.69279532686013079</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28372585142388307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48">
         <f>PARS!B48</f>
         <v>3.7</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <f>PARS!C48</f>
         <v>3.7</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <f>PARS!D48</f>
         <v>3.7</v>
       </c>
-      <c r="E47" t="b">
-        <f t="shared" ref="E47" si="2">AND(D47&gt;=B47,B47&gt;=C47,D47&gt;=C47)</f>
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <f>PARS!K48</f>
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <f>PARS!L48</f>
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <f>PARS!M48</f>
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <f>PARS!N48</f>
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <f>PARS!O48</f>
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <f>PARS!P48</f>
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <f>PARS!Q48</f>
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <f>PARS!R48</f>
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <f>PARS!S48</f>
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <f>PARS!T48</f>
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>1.7297503412316</v>
-      </c>
-      <c r="Q47">
+      <c r="E48" t="b">
+        <f t="shared" ref="E48" si="3">AND(D48&gt;=B48,B48&gt;=C48,D48&gt;=C48)</f>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0.23069947484160258</v>
+      </c>
+      <c r="H48">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9524758857557667E-2</v>
+        <v>0.89926940010694367</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49">
+        <f>PARS!B49</f>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>PARS!C49</f>
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f>PARS!D49</f>
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0.17321706713356355</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.91478841362253138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>179</v>
       </c>
-      <c r="B48">
+      <c r="B50">
         <f>PARS!B50</f>
         <v>1.0696163149411613</v>
       </c>
-      <c r="C48">
+      <c r="C50">
         <f>PARS!C50</f>
         <v>1.0696163149411613</v>
       </c>
-      <c r="D48">
+      <c r="D50">
         <f>PARS!D50</f>
         <v>1.0696163149411613</v>
       </c>
-      <c r="E48" t="b">
+      <c r="E50" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F48">
-        <f>PARS!K50</f>
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <f>PARS!L50</f>
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <f>PARS!M50</f>
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <f>PARS!N50</f>
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <f>PARS!O50</f>
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <f>PARS!P50</f>
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <f>PARS!Q50</f>
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <f>PARS!R50</f>
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <f>PARS!S50</f>
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <f>PARS!T50</f>
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0.80782005028098203</v>
-      </c>
-      <c r="Q48">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0.63005364527001628</v>
+      </c>
+      <c r="H50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2171398955900613</v>
+        <v>0.89500223967825843</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>180</v>
       </c>
-      <c r="B49">
+      <c r="B51">
         <f>PARS!B51</f>
         <v>0.99381918034015848</v>
       </c>
-      <c r="C49">
+      <c r="C51">
         <f>PARS!C51</f>
         <v>0.99381918034015848</v>
       </c>
-      <c r="D49">
+      <c r="D51">
         <f>PARS!D51</f>
         <v>0.99381918034015848</v>
       </c>
-      <c r="E49" t="b">
+      <c r="E51" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F49">
-        <f>PARS!K51</f>
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <f>PARS!L51</f>
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <f>PARS!M51</f>
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <f>PARS!N51</f>
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <f>PARS!O51</f>
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <f>PARS!P51</f>
-        <v>1</v>
-      </c>
-      <c r="L49">
-        <f>PARS!Q51</f>
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <f>PARS!R51</f>
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <f>PARS!S51</f>
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <f>PARS!T51</f>
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>7.2670121740322058E-2</v>
-      </c>
-      <c r="Q49">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1.9939515190257939E-2</v>
+      </c>
+      <c r="H51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99377574474767028</v>
+        <v>0.96495664626152955</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>181</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <f>PARS!B52</f>
         <v>0.9618468890261952</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <f>PARS!C52</f>
         <v>0.9618468890261952</v>
       </c>
-      <c r="D50">
+      <c r="D52">
         <f>PARS!D52</f>
         <v>0.9618468890261952</v>
       </c>
-      <c r="E50" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <f>PARS!K52</f>
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f>PARS!L52</f>
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <f>PARS!M52</f>
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <f>PARS!N52</f>
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <f>PARS!O52</f>
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <f>PARS!P52</f>
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <f>PARS!Q52</f>
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <f>PARS!R52</f>
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <f>PARS!S52</f>
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <f>PARS!T52</f>
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0.14486889267994729</v>
-      </c>
-      <c r="Q50">
+      <c r="E52" t="b">
+        <f t="shared" ref="E52" si="4">AND(D52&gt;=B52,B52&gt;=C52,D52&gt;=C52)</f>
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0.60847962300181635</v>
+      </c>
+      <c r="H52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.390459159305103</v>
+        <v>0.99365142168887632</v>
       </c>
     </row>
   </sheetData>
@@ -4951,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
         <v>176</v>
@@ -4972,7 +3190,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="